--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>这是技能10号</t>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -441,137 +445,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>22</v>
       </c>
     </row>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2355" yWindow="4140" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -65,34 +65,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>这是技能3号</t>
+  </si>
+  <si>
+    <t>这是技能4号</t>
+  </si>
+  <si>
+    <t>这是技能5号</t>
+  </si>
+  <si>
+    <t>这是技能6号</t>
+  </si>
+  <si>
+    <t>这是技能7号</t>
+  </si>
+  <si>
+    <t>这是技能8号</t>
+  </si>
+  <si>
+    <t>这是技能9号</t>
+  </si>
+  <si>
+    <t>这是技能10号</t>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增益/减益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物等级需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前提技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前提技能等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>这是技能2号</t>
-  </si>
-  <si>
-    <t>这是技能3号</t>
-  </si>
-  <si>
-    <t>这是技能4号</t>
-  </si>
-  <si>
-    <t>这是技能5号</t>
-  </si>
-  <si>
-    <t>这是技能6号</t>
-  </si>
-  <si>
-    <t>这是技能7号</t>
-  </si>
-  <si>
-    <t>这是技能8号</t>
-  </si>
-  <si>
-    <t>这是技能9号</t>
-  </si>
-  <si>
-    <t>这是技能10号</t>
-  </si>
-  <si>
-    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可否打断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,12 +171,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -142,8 +197,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -445,26 +501,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="14" max="16" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -472,8 +536,44 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -486,8 +586,44 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -498,10 +634,46 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -512,10 +684,46 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -526,10 +734,46 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -540,10 +784,46 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -554,10 +834,46 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -568,10 +884,46 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -582,10 +934,46 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -596,10 +984,46 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -610,7 +1034,43 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2355" yWindow="4140" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -30,65 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能2号</t>
-  </si>
-  <si>
-    <t>技能3号</t>
-  </si>
-  <si>
-    <t>技能4号</t>
-  </si>
-  <si>
-    <t>技能5号</t>
-  </si>
-  <si>
-    <t>技能6号</t>
-  </si>
-  <si>
-    <t>技能7号</t>
-  </si>
-  <si>
-    <t>技能8号</t>
-  </si>
-  <si>
-    <t>技能9号</t>
-  </si>
-  <si>
-    <t>技能10号</t>
-  </si>
-  <si>
-    <t>这是技能1号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是技能3号</t>
-  </si>
-  <si>
-    <t>这是技能4号</t>
-  </si>
-  <si>
-    <t>这是技能5号</t>
-  </si>
-  <si>
-    <t>这是技能6号</t>
-  </si>
-  <si>
-    <t>这是技能7号</t>
-  </si>
-  <si>
-    <t>这是技能8号</t>
-  </si>
-  <si>
-    <t>这是技能9号</t>
-  </si>
-  <si>
-    <t>这是技能10号</t>
-  </si>
-  <si>
     <t>等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,16 +74,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这是技能2号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>准备时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可否打断</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士1号1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士1号2级</t>
+  </si>
+  <si>
+    <t>战士2号1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道士1号1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道士1号2级</t>
+  </si>
+  <si>
+    <t>道士2号1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师1号1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师1号2级</t>
+  </si>
+  <si>
+    <t>法师2号1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士第1个技能第1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士第1个技能第2级</t>
+  </si>
+  <si>
+    <t>战士第2个技能第1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道士第1个技能第1级</t>
+  </si>
+  <si>
+    <t>道士第1个技能第2级</t>
+  </si>
+  <si>
+    <t>道士第2个技能第1级</t>
+  </si>
+  <si>
+    <t>法师第1个技能第7级</t>
+  </si>
+  <si>
+    <t>法师第1个技能第8级</t>
+  </si>
+  <si>
+    <t>法师第1个技能第9级</t>
   </si>
 </sst>
 </file>
@@ -210,12 +209,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -257,7 +259,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -292,7 +294,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,18 +503,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" customWidth="1"/>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
@@ -528,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -537,54 +539,54 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -625,16 +627,16 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -655,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -675,16 +677,16 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>3</v>
+        <v>1001</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -705,13 +707,13 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -725,16 +727,16 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>4</v>
+        <v>2000</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -775,37 +777,37 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6">
+        <v>2000</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -825,16 +827,16 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>6</v>
+        <v>2001</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -855,13 +857,13 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -875,16 +877,16 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>7</v>
+        <v>3000</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -925,16 +927,16 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>8</v>
+        <v>3000</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -955,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -975,16 +977,16 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>9</v>
+        <v>3001</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -1005,13 +1007,13 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>3000</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1020,56 +1022,6 @@
         <v>1</v>
       </c>
       <c r="P10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>100</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
         <v>0</v>
       </c>
     </row>
@@ -1085,7 +1037,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I35" sqref="A26:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="4140" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2355" yWindow="4140" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -142,13 +142,80 @@
   </si>
   <si>
     <t>法师第1个技能第9级</t>
+  </si>
+  <si>
+    <t>1000-1999 战士技能
+2000-2999 道士技能
+3000-3999 法师技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1-200）该行配置的技能，是具体哪个技能的哪个等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1-8）个中文字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1-64）个中文字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1-200）该技能本身等级所能达到的上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-4）0=通用，1=战士，2=道士，3=法师，4=怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">（0-4）0:无效 1：战斗技能  2：军团装备技能 3：坐骑技能 4：宠物技能 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-1）1 增益技能：释放后直接对自己起效，
+0 减益技能：不可对不可攻击的目标使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-2）0=真气值；1=银币；2=经验值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1-200）角色学习该技能所需达到的角色等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1-65535）学习该技能的其他技能要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（1-200）学习该技能的其他技能等级要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-4294967295）学习技能所需消耗的数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-4294967295）单位：毫秒  0=无冷却，＞0需冷却为0时才可释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-60000）单位：毫秒 0=不读条，＞0需要读条完毕才能释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（0-1）0=不可打断；1=可打断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +234,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -196,9 +270,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -505,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1034,16 +1121,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="A26:I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2355" yWindow="4140" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="2355" yWindow="4140" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -93,28 +93,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>道士1号1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>道士1号2级</t>
   </si>
   <si>
-    <t>道士2号1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法师1号1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>法师1号2级</t>
   </si>
   <si>
-    <t>法师2号1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>战士第1个技能第1级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -133,15 +117,6 @@
   </si>
   <si>
     <t>道士第2个技能第1级</t>
-  </si>
-  <si>
-    <t>法师第1个技能第7级</t>
-  </si>
-  <si>
-    <t>法师第1个技能第8级</t>
-  </si>
-  <si>
-    <t>法师第1个技能第9级</t>
   </si>
   <si>
     <t>1000-1999 战士技能
@@ -170,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">（0-4）0:无效 1：战斗技能  2：军团装备技能 3：坐骑技能 4：宠物技能 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>（0-1）1 增益技能：释放后直接对自己起效，
 0 减益技能：不可对不可攻击的目标使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +179,179 @@
   </si>
   <si>
     <t>（0-1）0=不可打断；1=可打断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士2号2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士第2个技能第2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道士1号1级</t>
+  </si>
+  <si>
+    <t>道士2号1级</t>
+  </si>
+  <si>
+    <t>道士2号2级</t>
+  </si>
+  <si>
+    <t>道士第2个技能第2级</t>
+  </si>
+  <si>
+    <t>法师1号1级</t>
+  </si>
+  <si>
+    <t>法师第1个技能第1级</t>
+  </si>
+  <si>
+    <t>法师第1个技能第2级</t>
+  </si>
+  <si>
+    <t>法师2号1级</t>
+  </si>
+  <si>
+    <t>法师第2个技能第1级</t>
+  </si>
+  <si>
+    <t>法师2号2级</t>
+  </si>
+  <si>
+    <t>法师第2个技能第2级</t>
+  </si>
+  <si>
+    <t>战士3号1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士3号2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士4号1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士4号2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士5号1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士5号2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士第3个技能第1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士第3个技能第2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士第4个技能第1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士第4个技能第2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士第5个技能第1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士第5个技能第2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道士3号1级</t>
+  </si>
+  <si>
+    <t>道士第3个技能第1级</t>
+  </si>
+  <si>
+    <t>道士3号2级</t>
+  </si>
+  <si>
+    <t>道士第3个技能第2级</t>
+  </si>
+  <si>
+    <t>道士4号1级</t>
+  </si>
+  <si>
+    <t>道士第4个技能第1级</t>
+  </si>
+  <si>
+    <t>道士4号2级</t>
+  </si>
+  <si>
+    <t>道士第4个技能第2级</t>
+  </si>
+  <si>
+    <t>道士5号1级</t>
+  </si>
+  <si>
+    <t>道士第5个技能第1级</t>
+  </si>
+  <si>
+    <t>道士5号2级</t>
+  </si>
+  <si>
+    <t>道士第5个技能第2级</t>
+  </si>
+  <si>
+    <t>法师3号1级</t>
+  </si>
+  <si>
+    <t>法师第3个技能第1级</t>
+  </si>
+  <si>
+    <t>法师3号2级</t>
+  </si>
+  <si>
+    <t>法师第3个技能第2级</t>
+  </si>
+  <si>
+    <t>法师4号1级</t>
+  </si>
+  <si>
+    <t>法师第4个技能第1级</t>
+  </si>
+  <si>
+    <t>法师4号2级</t>
+  </si>
+  <si>
+    <t>法师第4个技能第2级</t>
+  </si>
+  <si>
+    <t>法师5号1级</t>
+  </si>
+  <si>
+    <t>法师第5个技能第1级</t>
+  </si>
+  <si>
+    <t>法师5号2级</t>
+  </si>
+  <si>
+    <t>法师第5个技能第2级</t>
+  </si>
+  <si>
+    <t>（0-3）0:无效 1：主动技能  2：被动技能 3：区域范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ICON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -602,17 +746,17 @@
     <col min="2" max="2" width="5.25" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="18" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,43 +770,49 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -673,13 +823,13 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -688,13 +838,13 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -703,16 +853,22 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -723,13 +879,13 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -738,31 +894,37 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>5</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
       <c r="N3">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -773,13 +935,13 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -788,327 +950,1545 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>10</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>1000</v>
       </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
       <c r="O4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5">
+        <v>1001</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>1001</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>1002</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>1001</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1002</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>1002</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1003</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>1002</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1003</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9">
+        <v>1003</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>1004</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10">
+        <v>1003</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1004</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>1004</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>2000</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>2000</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
         <v>2000</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>2001</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>200</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>2000</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>2001</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>200</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>2001</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>2002</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>200</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>2001</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>2002</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>200</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17">
+        <v>2002</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>2003</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18">
+        <v>2002</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>2003</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>200</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>10</v>
+      </c>
+      <c r="N19">
+        <v>2003</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>2004</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>200</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>10</v>
+      </c>
+      <c r="N20">
+        <v>2003</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>2004</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>200</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>2004</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>3000</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>300</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>3000</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6">
-        <v>100</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>300</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
         <v>5</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>2001</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7">
-        <v>100</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>100</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
+      <c r="N23">
+        <v>3000</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>3001</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>300</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
         <v>10</v>
       </c>
-      <c r="L7">
-        <v>2000</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="N24">
         <v>3000</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>3000</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9">
-        <v>100</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>5</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A25">
         <v>3001</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>100</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>300</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>100</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
         <v>10</v>
       </c>
-      <c r="L10">
-        <v>3000</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
+      <c r="N25">
+        <v>3001</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>3002</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>300</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>100</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>3001</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>3002</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>300</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>3002</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>3003</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>300</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>10</v>
+      </c>
+      <c r="N28">
+        <v>3002</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>3003</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>300</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>10</v>
+      </c>
+      <c r="N29">
+        <v>3003</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>3004</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>300</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>10</v>
+      </c>
+      <c r="N30">
+        <v>3003</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>3004</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>300</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>100</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>10</v>
+      </c>
+      <c r="N31">
+        <v>3004</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31">
         <v>0</v>
       </c>
     </row>
@@ -1123,8 +2503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1139,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1147,7 +2527,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1155,7 +2535,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1163,7 +2543,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1171,7 +2551,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1179,7 +2559,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1187,7 +2567,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="66" x14ac:dyDescent="0.3">
@@ -1195,7 +2575,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1203,7 +2583,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1211,7 +2591,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1219,7 +2599,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1227,7 +2607,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1235,7 +2615,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1243,7 +2623,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1251,7 +2631,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1259,7 +2639,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -737,7 +737,7 @@
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1041,7 +1041,7 @@
         <v>1002</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>55</v>
@@ -1153,7 +1153,7 @@
         <v>1003</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
@@ -1265,7 +1265,7 @@
         <v>1004</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>59</v>
@@ -1601,7 +1601,7 @@
         <v>2002</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>67</v>
@@ -1713,7 +1713,7 @@
         <v>2003</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>71</v>
@@ -1825,7 +1825,7 @@
         <v>2004</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>75</v>
@@ -2161,7 +2161,7 @@
         <v>3002</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
         <v>79</v>
@@ -2273,7 +2273,7 @@
         <v>3003</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>83</v>
@@ -2385,7 +2385,7 @@
         <v>3004</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>87</v>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2355" yWindow="4140" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -352,14 +352,18 @@
   </si>
   <si>
     <t>技能ICON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可否打断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -430,6 +434,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -490,7 +495,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,10 +527,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -557,7 +561,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -733,20 +736,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="9" bestFit="1" customWidth="1"/>
@@ -756,7 +760,7 @@
     <col min="16" max="18" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -769,50 +773,50 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -825,8 +829,8 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="E2">
-        <v>1</v>
+      <c r="E2" s="7">
+        <v>1000</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -845,9 +849,6 @@
       </c>
       <c r="K2">
         <v>100</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -864,11 +865,8 @@
       <c r="Q2">
         <v>1</v>
       </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -881,8 +879,8 @@
       <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="E3">
-        <v>1</v>
+      <c r="E3" s="7">
+        <v>1000</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -901,9 +899,6 @@
       </c>
       <c r="K3">
         <v>100</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
       </c>
       <c r="M3">
         <v>5</v>
@@ -920,11 +915,8 @@
       <c r="Q3">
         <v>1</v>
       </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -937,8 +929,8 @@
       <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E4">
-        <v>1</v>
+      <c r="E4" s="7">
+        <v>1001</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -957,9 +949,6 @@
       </c>
       <c r="K4">
         <v>100</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
       </c>
       <c r="M4">
         <v>10</v>
@@ -976,11 +965,8 @@
       <c r="Q4">
         <v>1</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -993,8 +979,8 @@
       <c r="D5" t="s">
         <v>43</v>
       </c>
-      <c r="E5">
-        <v>1</v>
+      <c r="E5" s="7">
+        <v>1001</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -1013,9 +999,6 @@
       </c>
       <c r="K5">
         <v>100</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
       </c>
       <c r="M5">
         <v>10</v>
@@ -1032,11 +1015,8 @@
       <c r="Q5">
         <v>1</v>
       </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -1049,8 +1029,8 @@
       <c r="D6" t="s">
         <v>61</v>
       </c>
-      <c r="E6">
-        <v>1</v>
+      <c r="E6" s="7">
+        <v>1002</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -1069,9 +1049,6 @@
       </c>
       <c r="K6">
         <v>100</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
       </c>
       <c r="M6">
         <v>10</v>
@@ -1088,11 +1065,8 @@
       <c r="Q6">
         <v>1</v>
       </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -1105,8 +1079,8 @@
       <c r="D7" t="s">
         <v>62</v>
       </c>
-      <c r="E7">
-        <v>1</v>
+      <c r="E7" s="7">
+        <v>1002</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -1125,9 +1099,6 @@
       </c>
       <c r="K7">
         <v>100</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
       </c>
       <c r="M7">
         <v>10</v>
@@ -1144,11 +1115,8 @@
       <c r="Q7">
         <v>1</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1003</v>
       </c>
@@ -1161,8 +1129,8 @@
       <c r="D8" t="s">
         <v>63</v>
       </c>
-      <c r="E8">
-        <v>1</v>
+      <c r="E8" s="7">
+        <v>1003</v>
       </c>
       <c r="F8">
         <v>100</v>
@@ -1181,9 +1149,6 @@
       </c>
       <c r="K8">
         <v>100</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
       </c>
       <c r="M8">
         <v>10</v>
@@ -1200,11 +1165,8 @@
       <c r="Q8">
         <v>1</v>
       </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1003</v>
       </c>
@@ -1217,8 +1179,8 @@
       <c r="D9" t="s">
         <v>64</v>
       </c>
-      <c r="E9">
-        <v>1</v>
+      <c r="E9" s="7">
+        <v>1003</v>
       </c>
       <c r="F9">
         <v>100</v>
@@ -1237,9 +1199,6 @@
       </c>
       <c r="K9">
         <v>100</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
       </c>
       <c r="M9">
         <v>10</v>
@@ -1256,11 +1215,8 @@
       <c r="Q9">
         <v>1</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1004</v>
       </c>
@@ -1273,8 +1229,8 @@
       <c r="D10" t="s">
         <v>65</v>
       </c>
-      <c r="E10">
-        <v>1</v>
+      <c r="E10" s="7">
+        <v>1004</v>
       </c>
       <c r="F10">
         <v>100</v>
@@ -1293,9 +1249,6 @@
       </c>
       <c r="K10">
         <v>100</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
       </c>
       <c r="M10">
         <v>10</v>
@@ -1312,11 +1265,8 @@
       <c r="Q10">
         <v>1</v>
       </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1004</v>
       </c>
@@ -1329,8 +1279,8 @@
       <c r="D11" t="s">
         <v>66</v>
       </c>
-      <c r="E11">
-        <v>1</v>
+      <c r="E11" s="7">
+        <v>1004</v>
       </c>
       <c r="F11">
         <v>100</v>
@@ -1349,9 +1299,6 @@
       </c>
       <c r="K11">
         <v>100</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
       </c>
       <c r="M11">
         <v>10</v>
@@ -1368,11 +1315,8 @@
       <c r="Q11">
         <v>1</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -1385,8 +1329,8 @@
       <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="E12">
-        <v>1</v>
+      <c r="E12" s="7">
+        <v>2000</v>
       </c>
       <c r="F12">
         <v>200</v>
@@ -1395,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1405,9 +1349,6 @@
       </c>
       <c r="K12">
         <v>100</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
       </c>
       <c r="M12">
         <v>1</v>
@@ -1424,11 +1365,8 @@
       <c r="Q12">
         <v>1</v>
       </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>2000</v>
       </c>
@@ -1441,8 +1379,8 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>1</v>
+      <c r="E13" s="7">
+        <v>2000</v>
       </c>
       <c r="F13">
         <v>200</v>
@@ -1451,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1461,9 +1399,6 @@
       </c>
       <c r="K13">
         <v>100</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
       </c>
       <c r="M13">
         <v>5</v>
@@ -1480,11 +1415,8 @@
       <c r="Q13">
         <v>1</v>
       </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>2001</v>
       </c>
@@ -1497,8 +1429,8 @@
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14">
-        <v>1</v>
+      <c r="E14" s="7">
+        <v>2001</v>
       </c>
       <c r="F14">
         <v>200</v>
@@ -1507,7 +1439,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1517,9 +1449,6 @@
       </c>
       <c r="K14">
         <v>100</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
       </c>
       <c r="M14">
         <v>10</v>
@@ -1536,11 +1465,8 @@
       <c r="Q14">
         <v>1</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>2001</v>
       </c>
@@ -1553,8 +1479,8 @@
       <c r="D15" t="s">
         <v>47</v>
       </c>
-      <c r="E15">
-        <v>1</v>
+      <c r="E15" s="7">
+        <v>2001</v>
       </c>
       <c r="F15">
         <v>200</v>
@@ -1563,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1573,9 +1499,6 @@
       </c>
       <c r="K15">
         <v>100</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
       </c>
       <c r="M15">
         <v>10</v>
@@ -1592,11 +1515,8 @@
       <c r="Q15">
         <v>1</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>2002</v>
       </c>
@@ -1609,8 +1529,8 @@
       <c r="D16" t="s">
         <v>68</v>
       </c>
-      <c r="E16">
-        <v>1</v>
+      <c r="E16" s="7">
+        <v>2002</v>
       </c>
       <c r="F16">
         <v>200</v>
@@ -1619,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1629,9 +1549,6 @@
       </c>
       <c r="K16">
         <v>100</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
       </c>
       <c r="M16">
         <v>10</v>
@@ -1648,11 +1565,8 @@
       <c r="Q16">
         <v>1</v>
       </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>2002</v>
       </c>
@@ -1665,8 +1579,8 @@
       <c r="D17" t="s">
         <v>70</v>
       </c>
-      <c r="E17">
-        <v>1</v>
+      <c r="E17" s="7">
+        <v>2002</v>
       </c>
       <c r="F17">
         <v>200</v>
@@ -1675,7 +1589,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1685,9 +1599,6 @@
       </c>
       <c r="K17">
         <v>100</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
       </c>
       <c r="M17">
         <v>10</v>
@@ -1704,11 +1615,8 @@
       <c r="Q17">
         <v>1</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>2003</v>
       </c>
@@ -1721,8 +1629,8 @@
       <c r="D18" t="s">
         <v>72</v>
       </c>
-      <c r="E18">
-        <v>1</v>
+      <c r="E18" s="7">
+        <v>2003</v>
       </c>
       <c r="F18">
         <v>200</v>
@@ -1731,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1741,9 +1649,6 @@
       </c>
       <c r="K18">
         <v>100</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
       </c>
       <c r="M18">
         <v>10</v>
@@ -1760,11 +1665,8 @@
       <c r="Q18">
         <v>1</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>2003</v>
       </c>
@@ -1777,8 +1679,8 @@
       <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="E19">
-        <v>1</v>
+      <c r="E19" s="7">
+        <v>2003</v>
       </c>
       <c r="F19">
         <v>200</v>
@@ -1787,7 +1689,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1797,9 +1699,6 @@
       </c>
       <c r="K19">
         <v>100</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
       </c>
       <c r="M19">
         <v>10</v>
@@ -1816,11 +1715,8 @@
       <c r="Q19">
         <v>1</v>
       </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>2004</v>
       </c>
@@ -1833,8 +1729,8 @@
       <c r="D20" t="s">
         <v>76</v>
       </c>
-      <c r="E20">
-        <v>1</v>
+      <c r="E20" s="7">
+        <v>2004</v>
       </c>
       <c r="F20">
         <v>200</v>
@@ -1843,7 +1739,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1853,9 +1749,6 @@
       </c>
       <c r="K20">
         <v>100</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
       </c>
       <c r="M20">
         <v>10</v>
@@ -1872,11 +1765,8 @@
       <c r="Q20">
         <v>1</v>
       </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>2004</v>
       </c>
@@ -1889,8 +1779,8 @@
       <c r="D21" t="s">
         <v>78</v>
       </c>
-      <c r="E21">
-        <v>1</v>
+      <c r="E21" s="7">
+        <v>2004</v>
       </c>
       <c r="F21">
         <v>200</v>
@@ -1899,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1909,9 +1799,6 @@
       </c>
       <c r="K21">
         <v>100</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
       </c>
       <c r="M21">
         <v>10</v>
@@ -1928,11 +1815,8 @@
       <c r="Q21">
         <v>1</v>
       </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>3000</v>
       </c>
@@ -1945,8 +1829,8 @@
       <c r="D22" t="s">
         <v>49</v>
       </c>
-      <c r="E22">
-        <v>1</v>
+      <c r="E22" s="7">
+        <v>3000</v>
       </c>
       <c r="F22">
         <v>300</v>
@@ -1955,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1965,9 +1849,6 @@
       </c>
       <c r="K22">
         <v>100</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
       </c>
       <c r="M22">
         <v>1</v>
@@ -1984,11 +1865,8 @@
       <c r="Q22">
         <v>1</v>
       </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>3000</v>
       </c>
@@ -2001,8 +1879,8 @@
       <c r="D23" t="s">
         <v>50</v>
       </c>
-      <c r="E23">
-        <v>1</v>
+      <c r="E23" s="7">
+        <v>3000</v>
       </c>
       <c r="F23">
         <v>300</v>
@@ -2011,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2021,9 +1899,6 @@
       </c>
       <c r="K23">
         <v>100</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
       </c>
       <c r="M23">
         <v>5</v>
@@ -2040,11 +1915,8 @@
       <c r="Q23">
         <v>1</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>3001</v>
       </c>
@@ -2057,8 +1929,8 @@
       <c r="D24" t="s">
         <v>52</v>
       </c>
-      <c r="E24">
-        <v>1</v>
+      <c r="E24" s="7">
+        <v>3001</v>
       </c>
       <c r="F24">
         <v>300</v>
@@ -2067,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2077,9 +1949,6 @@
       </c>
       <c r="K24">
         <v>100</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
       </c>
       <c r="M24">
         <v>10</v>
@@ -2096,11 +1965,8 @@
       <c r="Q24">
         <v>1</v>
       </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>3001</v>
       </c>
@@ -2113,8 +1979,8 @@
       <c r="D25" t="s">
         <v>54</v>
       </c>
-      <c r="E25">
-        <v>1</v>
+      <c r="E25" s="7">
+        <v>3001</v>
       </c>
       <c r="F25">
         <v>300</v>
@@ -2123,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2133,9 +1999,6 @@
       </c>
       <c r="K25">
         <v>100</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
       </c>
       <c r="M25">
         <v>10</v>
@@ -2152,11 +2015,8 @@
       <c r="Q25">
         <v>1</v>
       </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>3002</v>
       </c>
@@ -2169,8 +2029,8 @@
       <c r="D26" t="s">
         <v>80</v>
       </c>
-      <c r="E26">
-        <v>1</v>
+      <c r="E26" s="7">
+        <v>3002</v>
       </c>
       <c r="F26">
         <v>300</v>
@@ -2179,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -2189,9 +2049,6 @@
       </c>
       <c r="K26">
         <v>100</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
       </c>
       <c r="M26">
         <v>10</v>
@@ -2208,11 +2065,8 @@
       <c r="Q26">
         <v>1</v>
       </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>3002</v>
       </c>
@@ -2225,8 +2079,8 @@
       <c r="D27" t="s">
         <v>82</v>
       </c>
-      <c r="E27">
-        <v>1</v>
+      <c r="E27" s="7">
+        <v>3002</v>
       </c>
       <c r="F27">
         <v>300</v>
@@ -2235,7 +2089,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -2245,9 +2099,6 @@
       </c>
       <c r="K27">
         <v>100</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
       </c>
       <c r="M27">
         <v>10</v>
@@ -2264,11 +2115,8 @@
       <c r="Q27">
         <v>1</v>
       </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>3003</v>
       </c>
@@ -2281,8 +2129,8 @@
       <c r="D28" t="s">
         <v>84</v>
       </c>
-      <c r="E28">
-        <v>1</v>
+      <c r="E28" s="7">
+        <v>3003</v>
       </c>
       <c r="F28">
         <v>300</v>
@@ -2291,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2301,9 +2149,6 @@
       </c>
       <c r="K28">
         <v>100</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
       </c>
       <c r="M28">
         <v>10</v>
@@ -2320,11 +2165,8 @@
       <c r="Q28">
         <v>1</v>
       </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>3003</v>
       </c>
@@ -2337,8 +2179,8 @@
       <c r="D29" t="s">
         <v>86</v>
       </c>
-      <c r="E29">
-        <v>1</v>
+      <c r="E29" s="7">
+        <v>3003</v>
       </c>
       <c r="F29">
         <v>300</v>
@@ -2347,7 +2189,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -2357,9 +2199,6 @@
       </c>
       <c r="K29">
         <v>100</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
       </c>
       <c r="M29">
         <v>10</v>
@@ -2376,11 +2215,8 @@
       <c r="Q29">
         <v>1</v>
       </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>3004</v>
       </c>
@@ -2393,8 +2229,8 @@
       <c r="D30" t="s">
         <v>88</v>
       </c>
-      <c r="E30">
-        <v>1</v>
+      <c r="E30" s="7">
+        <v>3004</v>
       </c>
       <c r="F30">
         <v>300</v>
@@ -2403,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -2413,9 +2249,6 @@
       </c>
       <c r="K30">
         <v>100</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
       </c>
       <c r="M30">
         <v>10</v>
@@ -2432,11 +2265,8 @@
       <c r="Q30">
         <v>1</v>
       </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>3004</v>
       </c>
@@ -2449,8 +2279,8 @@
       <c r="D31" t="s">
         <v>90</v>
       </c>
-      <c r="E31">
-        <v>1</v>
+      <c r="E31" s="7">
+        <v>3004</v>
       </c>
       <c r="F31">
         <v>300</v>
@@ -2459,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2469,9 +2299,6 @@
       </c>
       <c r="K31">
         <v>100</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
       </c>
       <c r="M31">
         <v>10</v>
@@ -2487,9 +2314,6 @@
       </c>
       <c r="Q31">
         <v>1</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2500,21 +2324,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="49.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2522,7 +2346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2530,7 +2354,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2538,7 +2362,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2546,7 +2370,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -2554,7 +2378,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -2562,7 +2386,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -2570,7 +2394,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="66">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2578,7 +2402,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2586,7 +2410,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2594,7 +2418,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2602,7 +2426,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -2610,7 +2434,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -2618,7 +2442,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -2626,7 +2450,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -2634,7 +2458,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -2650,12 +2474,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -357,6 +357,16 @@
   <si>
     <t>可否打断</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillSample1</t>
+  </si>
+  <si>
+    <t>SkillSampleIntonate</t>
   </si>
 </sst>
 </file>
@@ -737,10 +747,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -758,9 +771,10 @@
     <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
     <col min="16" max="18" width="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -815,8 +829,11 @@
       <c r="R1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -865,8 +882,11 @@
       <c r="Q2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="S2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -915,8 +935,11 @@
       <c r="Q3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -965,8 +988,11 @@
       <c r="Q4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -1015,8 +1041,11 @@
       <c r="Q5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -1065,8 +1094,11 @@
       <c r="Q6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -1115,8 +1147,11 @@
       <c r="Q7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>1003</v>
       </c>
@@ -1165,8 +1200,11 @@
       <c r="Q8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>1003</v>
       </c>
@@ -1215,8 +1253,11 @@
       <c r="Q9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>1004</v>
       </c>
@@ -1265,8 +1306,11 @@
       <c r="Q10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>1004</v>
       </c>
@@ -1315,8 +1359,11 @@
       <c r="Q11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -1365,8 +1412,11 @@
       <c r="Q12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>2000</v>
       </c>
@@ -1415,8 +1465,11 @@
       <c r="Q13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>2001</v>
       </c>
@@ -1465,8 +1518,11 @@
       <c r="Q14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>2001</v>
       </c>
@@ -1515,8 +1571,11 @@
       <c r="Q15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>2002</v>
       </c>
@@ -1565,8 +1624,11 @@
       <c r="Q16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="S16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17">
         <v>2002</v>
       </c>
@@ -1615,8 +1677,11 @@
       <c r="Q17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="S17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18">
         <v>2003</v>
       </c>
@@ -1665,8 +1730,11 @@
       <c r="Q18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="S18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19">
         <v>2003</v>
       </c>
@@ -1715,8 +1783,11 @@
       <c r="Q19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="S19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20">
         <v>2004</v>
       </c>
@@ -1765,8 +1836,11 @@
       <c r="Q20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21">
         <v>2004</v>
       </c>
@@ -1815,8 +1889,11 @@
       <c r="Q21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="S21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22">
         <v>3000</v>
       </c>
@@ -1865,8 +1942,11 @@
       <c r="Q22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23">
         <v>3000</v>
       </c>
@@ -1915,8 +1995,11 @@
       <c r="Q23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="S23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24">
         <v>3001</v>
       </c>
@@ -1965,8 +2048,11 @@
       <c r="Q24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="S24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25">
         <v>3001</v>
       </c>
@@ -2015,8 +2101,11 @@
       <c r="Q25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="S25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26">
         <v>3002</v>
       </c>
@@ -2065,8 +2154,11 @@
       <c r="Q26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:17">
+      <c r="S26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
       <c r="A27">
         <v>3002</v>
       </c>
@@ -2115,8 +2207,11 @@
       <c r="Q27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:17">
+      <c r="S27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
       <c r="A28">
         <v>3003</v>
       </c>
@@ -2165,8 +2260,11 @@
       <c r="Q28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="S28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
       <c r="A29">
         <v>3003</v>
       </c>
@@ -2215,8 +2313,11 @@
       <c r="Q29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="S29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
       <c r="A30">
         <v>3004</v>
       </c>
@@ -2265,8 +2366,11 @@
       <c r="Q30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="S30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
       <c r="A31">
         <v>3004</v>
       </c>
@@ -2314,6 +2418,9 @@
       </c>
       <c r="Q31">
         <v>1</v>
+      </c>
+      <c r="S31" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -747,13 +747,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S9" sqref="S9"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -763,18 +763,17 @@
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="18" width="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.125" customWidth="1"/>
+    <col min="6" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -791,49 +790,46 @@
         <v>93</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
       <c r="K1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="R1" t="s">
-        <v>94</v>
-      </c>
-      <c r="S1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -850,7 +846,7 @@
         <v>1000</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -862,31 +858,28 @@
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="R2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -903,7 +896,7 @@
         <v>1000</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -915,16 +908,16 @@
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="N3">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -932,14 +925,11 @@
       <c r="P3">
         <v>1</v>
       </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="R3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -956,7 +946,7 @@
         <v>1001</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -968,31 +958,28 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
       </c>
       <c r="M4">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="N4">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>1</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="R4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -1009,7 +996,7 @@
         <v>1001</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -1021,16 +1008,16 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>1001</v>
       </c>
       <c r="N5">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -1038,14 +1025,11 @@
       <c r="P5">
         <v>1</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="R5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -1062,7 +1046,7 @@
         <v>1002</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1074,31 +1058,28 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>1001</v>
       </c>
       <c r="N6">
-        <v>1001</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>1</v>
       </c>
-      <c r="Q6">
-        <v>1</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="R6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -1115,7 +1096,7 @@
         <v>1002</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1127,16 +1108,16 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
       </c>
       <c r="M7">
-        <v>10</v>
+        <v>1002</v>
       </c>
       <c r="N7">
-        <v>1002</v>
+        <v>1</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -1144,14 +1125,11 @@
       <c r="P7">
         <v>1</v>
       </c>
-      <c r="Q7">
-        <v>1</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="R7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1003</v>
       </c>
@@ -1168,7 +1146,7 @@
         <v>1003</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1180,31 +1158,28 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
       </c>
       <c r="M8">
-        <v>10</v>
+        <v>1002</v>
       </c>
       <c r="N8">
-        <v>1002</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
-      <c r="Q8">
-        <v>1</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="R8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>1003</v>
       </c>
@@ -1221,7 +1196,7 @@
         <v>1003</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1233,16 +1208,16 @@
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
       </c>
       <c r="M9">
-        <v>10</v>
+        <v>1003</v>
       </c>
       <c r="N9">
-        <v>1003</v>
+        <v>1</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -1250,14 +1225,11 @@
       <c r="P9">
         <v>1</v>
       </c>
-      <c r="Q9">
-        <v>1</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="R9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>1004</v>
       </c>
@@ -1274,7 +1246,7 @@
         <v>1004</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1286,31 +1258,28 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>10</v>
+        <v>1003</v>
       </c>
       <c r="N10">
-        <v>1003</v>
+        <v>2</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="R10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1004</v>
       </c>
@@ -1327,7 +1296,7 @@
         <v>1004</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1339,16 +1308,16 @@
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>1004</v>
       </c>
       <c r="N11">
-        <v>1004</v>
+        <v>1</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -1356,14 +1325,11 @@
       <c r="P11">
         <v>1</v>
       </c>
-      <c r="Q11">
-        <v>1</v>
-      </c>
-      <c r="S11" t="s">
+      <c r="R11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -1380,43 +1346,40 @@
         <v>2000</v>
       </c>
       <c r="F12">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
-      <c r="Q12">
-        <v>1</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="R12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>2000</v>
       </c>
@@ -1433,28 +1396,28 @@
         <v>2000</v>
       </c>
       <c r="F13">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>2000</v>
       </c>
       <c r="N13">
-        <v>2000</v>
+        <v>1</v>
       </c>
       <c r="O13">
         <v>1</v>
@@ -1462,14 +1425,11 @@
       <c r="P13">
         <v>1</v>
       </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-      <c r="S13" t="s">
+      <c r="R13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>2001</v>
       </c>
@@ -1486,43 +1446,40 @@
         <v>2001</v>
       </c>
       <c r="F14">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>2000</v>
       </c>
       <c r="N14">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14">
         <v>1</v>
       </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="R14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>2001</v>
       </c>
@@ -1539,28 +1496,28 @@
         <v>2001</v>
       </c>
       <c r="F15">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>2001</v>
       </c>
       <c r="N15">
-        <v>2001</v>
+        <v>1</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -1568,14 +1525,11 @@
       <c r="P15">
         <v>1</v>
       </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="R15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>2002</v>
       </c>
@@ -1592,43 +1546,40 @@
         <v>2002</v>
       </c>
       <c r="F16">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>2001</v>
       </c>
       <c r="N16">
-        <v>2001</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="R16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>2002</v>
       </c>
@@ -1645,28 +1596,28 @@
         <v>2002</v>
       </c>
       <c r="F17">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>2002</v>
       </c>
       <c r="N17">
-        <v>2002</v>
+        <v>1</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -1674,14 +1625,11 @@
       <c r="P17">
         <v>1</v>
       </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="R17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>2003</v>
       </c>
@@ -1698,43 +1646,40 @@
         <v>2003</v>
       </c>
       <c r="F18">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
       </c>
       <c r="M18">
-        <v>10</v>
+        <v>2002</v>
       </c>
       <c r="N18">
-        <v>2002</v>
+        <v>2</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P18">
         <v>1</v>
       </c>
-      <c r="Q18">
-        <v>1</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="R18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>2003</v>
       </c>
@@ -1751,28 +1696,28 @@
         <v>2003</v>
       </c>
       <c r="F19">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>10</v>
+        <v>2003</v>
       </c>
       <c r="N19">
-        <v>2003</v>
+        <v>1</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -1780,14 +1725,11 @@
       <c r="P19">
         <v>1</v>
       </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="R19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>2004</v>
       </c>
@@ -1804,43 +1746,40 @@
         <v>2004</v>
       </c>
       <c r="F20">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>2003</v>
       </c>
       <c r="N20">
-        <v>2003</v>
+        <v>2</v>
       </c>
       <c r="O20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P20">
         <v>1</v>
       </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="R20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>2004</v>
       </c>
@@ -1857,28 +1796,28 @@
         <v>2004</v>
       </c>
       <c r="F21">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
       </c>
       <c r="M21">
-        <v>10</v>
+        <v>2004</v>
       </c>
       <c r="N21">
-        <v>2004</v>
+        <v>1</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -1886,14 +1825,11 @@
       <c r="P21">
         <v>1</v>
       </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="R21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>3000</v>
       </c>
@@ -1910,43 +1846,40 @@
         <v>3000</v>
       </c>
       <c r="F22">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="R22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>3000</v>
       </c>
@@ -1963,28 +1896,28 @@
         <v>3000</v>
       </c>
       <c r="F23">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
       </c>
       <c r="M23">
-        <v>5</v>
+        <v>3000</v>
       </c>
       <c r="N23">
-        <v>3000</v>
+        <v>1</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -1992,14 +1925,11 @@
       <c r="P23">
         <v>1</v>
       </c>
-      <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="R23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>3001</v>
       </c>
@@ -2016,43 +1946,40 @@
         <v>3001</v>
       </c>
       <c r="F24">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L24">
+        <v>10</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>3000</v>
       </c>
       <c r="N24">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="O24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P24">
         <v>1</v>
       </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="S24" t="s">
+      <c r="R24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>3001</v>
       </c>
@@ -2069,28 +1996,28 @@
         <v>3001</v>
       </c>
       <c r="F25">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>3001</v>
       </c>
       <c r="N25">
-        <v>3001</v>
+        <v>1</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -2098,14 +2025,11 @@
       <c r="P25">
         <v>1</v>
       </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="S25" t="s">
+      <c r="R25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>3002</v>
       </c>
@@ -2122,43 +2046,40 @@
         <v>3002</v>
       </c>
       <c r="F26">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L26">
+        <v>10</v>
       </c>
       <c r="M26">
-        <v>10</v>
+        <v>3001</v>
       </c>
       <c r="N26">
-        <v>3001</v>
+        <v>2</v>
       </c>
       <c r="O26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P26">
         <v>1</v>
       </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="S26" t="s">
+      <c r="R26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>3002</v>
       </c>
@@ -2175,28 +2096,28 @@
         <v>3002</v>
       </c>
       <c r="F27">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>3002</v>
       </c>
       <c r="N27">
-        <v>3002</v>
+        <v>1</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -2204,14 +2125,11 @@
       <c r="P27">
         <v>1</v>
       </c>
-      <c r="Q27">
-        <v>1</v>
-      </c>
-      <c r="S27" t="s">
+      <c r="R27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>3003</v>
       </c>
@@ -2228,43 +2146,40 @@
         <v>3003</v>
       </c>
       <c r="F28">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
       </c>
       <c r="M28">
-        <v>10</v>
+        <v>3002</v>
       </c>
       <c r="N28">
-        <v>3002</v>
+        <v>2</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P28">
         <v>1</v>
       </c>
-      <c r="Q28">
-        <v>1</v>
-      </c>
-      <c r="S28" t="s">
+      <c r="R28" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>3003</v>
       </c>
@@ -2281,28 +2196,28 @@
         <v>3003</v>
       </c>
       <c r="F29">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>10</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>3003</v>
       </c>
       <c r="N29">
-        <v>3003</v>
+        <v>1</v>
       </c>
       <c r="O29">
         <v>1</v>
@@ -2310,14 +2225,11 @@
       <c r="P29">
         <v>1</v>
       </c>
-      <c r="Q29">
-        <v>1</v>
-      </c>
-      <c r="S29" t="s">
+      <c r="R29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>3004</v>
       </c>
@@ -2334,43 +2246,40 @@
         <v>3004</v>
       </c>
       <c r="F30">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
       </c>
       <c r="M30">
-        <v>10</v>
+        <v>3003</v>
       </c>
       <c r="N30">
-        <v>3003</v>
+        <v>2</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P30">
         <v>1</v>
       </c>
-      <c r="Q30">
-        <v>1</v>
-      </c>
-      <c r="S30" t="s">
+      <c r="R30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>3004</v>
       </c>
@@ -2387,28 +2296,28 @@
         <v>3004</v>
       </c>
       <c r="F31">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31">
-        <v>100</v>
+        <v>100</v>
+      </c>
+      <c r="L31">
+        <v>10</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>3004</v>
       </c>
       <c r="N31">
-        <v>3004</v>
+        <v>1</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -2416,10 +2325,7 @@
       <c r="P31">
         <v>1</v>
       </c>
-      <c r="Q31">
-        <v>1</v>
-      </c>
-      <c r="S31" t="s">
+      <c r="R31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2435,7 +2341,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2355" yWindow="4140" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -367,13 +367,29 @@
   </si>
   <si>
     <t>SkillSampleIntonate</t>
+  </si>
+  <si>
+    <t>额外伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,7 +521,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,9 +553,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -571,6 +588,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -746,34 +764,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1:F1048576"/>
+      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" customWidth="1"/>
-    <col min="15" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.125" customWidth="1"/>
+    <col min="6" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="21" width="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -792,44 +810,56 @@
       <c r="F1" t="s">
         <v>92</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>94</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -849,37 +879,49 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P2">
         <v>1</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -899,37 +941,49 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
       </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="P3">
         <v>5</v>
       </c>
-      <c r="M3">
+      <c r="Q3">
         <v>1000</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="V3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -949,37 +1003,49 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
       </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="P4">
         <v>10</v>
       </c>
-      <c r="M4">
+      <c r="Q4">
         <v>1000</v>
       </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -999,37 +1065,49 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
       </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="P5">
         <v>10</v>
       </c>
-      <c r="M5">
+      <c r="Q5">
         <v>1001</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -1049,37 +1127,49 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
       </c>
       <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>100</v>
+      </c>
+      <c r="P6">
         <v>10</v>
       </c>
-      <c r="M6">
+      <c r="Q6">
         <v>1001</v>
       </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1002</v>
       </c>
@@ -1099,37 +1189,49 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="J7">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
       </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="P7">
         <v>10</v>
       </c>
-      <c r="M7">
+      <c r="Q7">
         <v>1002</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="V7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1003</v>
       </c>
@@ -1149,37 +1251,49 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="J8">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
       </c>
       <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>100</v>
+      </c>
+      <c r="P8">
         <v>10</v>
       </c>
-      <c r="M8">
+      <c r="Q8">
         <v>1002</v>
       </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="V8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1003</v>
       </c>
@@ -1199,37 +1313,49 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
       </c>
       <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>100</v>
+      </c>
+      <c r="P9">
         <v>10</v>
       </c>
-      <c r="M9">
+      <c r="Q9">
         <v>1003</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="V9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1004</v>
       </c>
@@ -1249,37 +1375,49 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="J10">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
       </c>
       <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>100</v>
+      </c>
+      <c r="P10">
         <v>10</v>
       </c>
-      <c r="M10">
+      <c r="Q10">
         <v>1003</v>
       </c>
-      <c r="N10">
-        <v>2</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="V10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1004</v>
       </c>
@@ -1299,37 +1437,49 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
       </c>
       <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>100</v>
+      </c>
+      <c r="P11">
         <v>10</v>
       </c>
-      <c r="M11">
+      <c r="Q11">
         <v>1004</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="R11" t="s">
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="V11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2000</v>
       </c>
@@ -1349,37 +1499,49 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J12">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P12">
         <v>1</v>
       </c>
-      <c r="R12" t="s">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="V12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2000</v>
       </c>
@@ -1399,37 +1561,49 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="J13">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
       </c>
       <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>100</v>
+      </c>
+      <c r="P13">
         <v>5</v>
       </c>
-      <c r="M13">
+      <c r="Q13">
         <v>2000</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="R13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="V13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2001</v>
       </c>
@@ -1449,37 +1623,49 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="J14">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
       </c>
       <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>100</v>
+      </c>
+      <c r="P14">
         <v>10</v>
       </c>
-      <c r="M14">
+      <c r="Q14">
         <v>2000</v>
       </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="V14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2001</v>
       </c>
@@ -1499,37 +1685,49 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="J15">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
       </c>
       <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>100</v>
+      </c>
+      <c r="P15">
         <v>10</v>
       </c>
-      <c r="M15">
+      <c r="Q15">
         <v>2001</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <v>1</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2002</v>
       </c>
@@ -1549,37 +1747,49 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="J16">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
       </c>
       <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>100</v>
+      </c>
+      <c r="P16">
         <v>10</v>
       </c>
-      <c r="M16">
+      <c r="Q16">
         <v>2001</v>
       </c>
-      <c r="N16">
-        <v>2</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="R16" t="s">
+      <c r="R16">
+        <v>2</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="V16" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2002</v>
       </c>
@@ -1599,37 +1809,49 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="J17">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
       </c>
       <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>100</v>
+      </c>
+      <c r="P17">
         <v>10</v>
       </c>
-      <c r="M17">
+      <c r="Q17">
         <v>2002</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="V17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2003</v>
       </c>
@@ -1649,37 +1871,49 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="J18">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
       </c>
       <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>100</v>
+      </c>
+      <c r="P18">
         <v>10</v>
       </c>
-      <c r="M18">
+      <c r="Q18">
         <v>2002</v>
       </c>
-      <c r="N18">
-        <v>2</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
-      </c>
-      <c r="R18" t="s">
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="V18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2003</v>
       </c>
@@ -1699,37 +1933,49 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="J19">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
       </c>
       <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>100</v>
+      </c>
+      <c r="P19">
         <v>10</v>
       </c>
-      <c r="M19">
+      <c r="Q19">
         <v>2003</v>
       </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="R19" t="s">
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="V19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2004</v>
       </c>
@@ -1749,37 +1995,49 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="J20">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
       </c>
       <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>100</v>
+      </c>
+      <c r="P20">
         <v>10</v>
       </c>
-      <c r="M20">
+      <c r="Q20">
         <v>2003</v>
       </c>
-      <c r="N20">
-        <v>2</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="R20" t="s">
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="V20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2004</v>
       </c>
@@ -1799,37 +2057,49 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="J21">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
       </c>
       <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>100</v>
+      </c>
+      <c r="P21">
         <v>10</v>
       </c>
-      <c r="M21">
+      <c r="Q21">
         <v>2004</v>
       </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
-      <c r="R21" t="s">
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="V21" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>3000</v>
       </c>
@@ -1849,37 +2119,49 @@
         <v>1</v>
       </c>
       <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>100</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
         <v>3</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>100</v>
-      </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="P22">
         <v>1</v>
       </c>
-      <c r="R22" t="s">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="V22" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>3000</v>
       </c>
@@ -1899,37 +2181,49 @@
         <v>1</v>
       </c>
       <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>105</v>
+      </c>
+      <c r="I23">
+        <v>105</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
         <v>3</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>100</v>
-      </c>
       <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>100</v>
+      </c>
+      <c r="P23">
         <v>5</v>
       </c>
-      <c r="M23">
+      <c r="Q23">
         <v>3000</v>
       </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>1</v>
-      </c>
-      <c r="P23">
-        <v>1</v>
-      </c>
-      <c r="R23" t="s">
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>3001</v>
       </c>
@@ -1949,37 +2243,49 @@
         <v>1</v>
       </c>
       <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>110</v>
+      </c>
+      <c r="I24">
+        <v>110</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
         <v>3</v>
       </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>100</v>
-      </c>
       <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>100</v>
+      </c>
+      <c r="P24">
         <v>10</v>
       </c>
-      <c r="M24">
+      <c r="Q24">
         <v>3000</v>
       </c>
-      <c r="N24">
-        <v>2</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>1</v>
-      </c>
-      <c r="R24" t="s">
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="V24" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>3001</v>
       </c>
@@ -1999,37 +2305,49 @@
         <v>1</v>
       </c>
       <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>115</v>
+      </c>
+      <c r="I25">
+        <v>115</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
         <v>3</v>
       </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>100</v>
-      </c>
       <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>100</v>
+      </c>
+      <c r="P25">
         <v>10</v>
       </c>
-      <c r="M25">
+      <c r="Q25">
         <v>3001</v>
       </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="R25" t="s">
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="V25" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>3002</v>
       </c>
@@ -2049,37 +2367,49 @@
         <v>1</v>
       </c>
       <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>120</v>
+      </c>
+      <c r="I26">
+        <v>120</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26">
         <v>3</v>
       </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26">
-        <v>100</v>
-      </c>
       <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>100</v>
+      </c>
+      <c r="P26">
         <v>10</v>
       </c>
-      <c r="M26">
+      <c r="Q26">
         <v>3001</v>
       </c>
-      <c r="N26">
-        <v>2</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>1</v>
-      </c>
-      <c r="R26" t="s">
+      <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="V26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>3002</v>
       </c>
@@ -2099,37 +2429,49 @@
         <v>1</v>
       </c>
       <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>125</v>
+      </c>
+      <c r="I27">
+        <v>125</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
         <v>3</v>
       </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27">
-        <v>100</v>
-      </c>
       <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>100</v>
+      </c>
+      <c r="P27">
         <v>10</v>
       </c>
-      <c r="M27">
+      <c r="Q27">
         <v>3002</v>
       </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="R27" t="s">
+      <c r="R27">
+        <v>1</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="V27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>3003</v>
       </c>
@@ -2149,37 +2491,49 @@
         <v>1</v>
       </c>
       <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>130</v>
+      </c>
+      <c r="I28">
+        <v>130</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
         <v>3</v>
       </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>100</v>
-      </c>
       <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>100</v>
+      </c>
+      <c r="P28">
         <v>10</v>
       </c>
-      <c r="M28">
+      <c r="Q28">
         <v>3002</v>
       </c>
-      <c r="N28">
-        <v>2</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-      <c r="R28" t="s">
+      <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="V28" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>3003</v>
       </c>
@@ -2199,37 +2553,49 @@
         <v>1</v>
       </c>
       <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>135</v>
+      </c>
+      <c r="I29">
+        <v>135</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
         <v>3</v>
       </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>100</v>
-      </c>
       <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>100</v>
+      </c>
+      <c r="P29">
         <v>10</v>
       </c>
-      <c r="M29">
+      <c r="Q29">
         <v>3003</v>
       </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>1</v>
-      </c>
-      <c r="P29">
-        <v>1</v>
-      </c>
-      <c r="R29" t="s">
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="V29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>3004</v>
       </c>
@@ -2249,37 +2615,49 @@
         <v>1</v>
       </c>
       <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>140</v>
+      </c>
+      <c r="I30">
+        <v>140</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
         <v>3</v>
       </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>100</v>
-      </c>
       <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>100</v>
+      </c>
+      <c r="P30">
         <v>10</v>
       </c>
-      <c r="M30">
+      <c r="Q30">
         <v>3003</v>
       </c>
-      <c r="N30">
-        <v>2</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30">
-        <v>1</v>
-      </c>
-      <c r="R30" t="s">
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="V30" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>3004</v>
       </c>
@@ -2299,33 +2677,45 @@
         <v>1</v>
       </c>
       <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>145</v>
+      </c>
+      <c r="I31">
+        <v>145</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
         <v>3</v>
       </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>100</v>
-      </c>
       <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>100</v>
+      </c>
+      <c r="P31">
         <v>10</v>
       </c>
-      <c r="M31">
+      <c r="Q31">
         <v>3004</v>
       </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31">
-        <v>1</v>
-      </c>
-      <c r="R31" t="s">
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="V31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2337,21 +2727,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="49.5">
+    <row r="1" spans="1:2" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2359,7 +2749,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2367,7 +2757,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2375,7 +2765,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -2383,7 +2773,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -2391,7 +2781,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -2399,7 +2789,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -2407,7 +2797,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="66">
+    <row r="8" spans="1:2" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2415,7 +2805,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2423,7 +2813,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2431,7 +2821,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2439,7 +2829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -2447,7 +2837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
@@ -2455,7 +2845,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -2463,7 +2853,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -2471,7 +2861,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
@@ -2487,12 +2877,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -363,12 +363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SkillSample1</t>
-  </si>
-  <si>
-    <t>SkillSampleIntonate</t>
-  </si>
-  <si>
     <t>额外伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,6 +377,9 @@
   <si>
     <t>物理伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill1</t>
   </si>
 </sst>
 </file>
@@ -771,7 +768,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomRight" activeCell="V3" sqref="V3:V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -811,16 +808,16 @@
         <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -918,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
@@ -980,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
@@ -1042,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
@@ -1104,7 +1101,7 @@
         <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
@@ -1166,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
@@ -1228,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
@@ -1290,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
@@ -1352,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="V9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
@@ -1414,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
@@ -1476,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
@@ -1538,7 +1535,7 @@
         <v>1</v>
       </c>
       <c r="V12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
@@ -1600,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
@@ -1662,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="V14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
@@ -1724,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="V15" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
@@ -1786,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="V16" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
@@ -1848,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="V17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
@@ -1910,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="V18" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
@@ -1972,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="V19" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
@@ -2034,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
@@ -2096,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="V21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
@@ -2158,7 +2155,7 @@
         <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -2220,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="V23" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -2282,7 +2279,7 @@
         <v>1</v>
       </c>
       <c r="V24" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -2344,7 +2341,7 @@
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -2406,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="V26" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -2468,7 +2465,7 @@
         <v>1</v>
       </c>
       <c r="V27" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -2530,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="V28" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -2592,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="V29" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -2654,7 +2651,7 @@
         <v>1</v>
       </c>
       <c r="V30" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -2716,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="V31" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -97,13 +97,6 @@
   </si>
   <si>
     <t>法师1号2级</t>
-  </si>
-  <si>
-    <t>战士第1个技能第1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士第1个技能第2级</t>
   </si>
   <si>
     <t>战士第2个技能第1级</t>
@@ -186,200 +179,212 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>道士1号1级</t>
+  </si>
+  <si>
+    <t>道士2号1级</t>
+  </si>
+  <si>
+    <t>道士2号2级</t>
+  </si>
+  <si>
+    <t>道士第2个技能第2级</t>
+  </si>
+  <si>
+    <t>法师1号1级</t>
+  </si>
+  <si>
+    <t>法师第1个技能第1级</t>
+  </si>
+  <si>
+    <t>法师第1个技能第2级</t>
+  </si>
+  <si>
+    <t>法师2号1级</t>
+  </si>
+  <si>
+    <t>法师第2个技能第1级</t>
+  </si>
+  <si>
+    <t>法师2号2级</t>
+  </si>
+  <si>
+    <t>法师第2个技能第2级</t>
+  </si>
+  <si>
+    <t>战士3号1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士3号2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士4号1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士4号2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士5号1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士5号2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士第3个技能第2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士第4个技能第2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士第5个技能第2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道士3号1级</t>
+  </si>
+  <si>
+    <t>道士第3个技能第1级</t>
+  </si>
+  <si>
+    <t>道士3号2级</t>
+  </si>
+  <si>
+    <t>道士第3个技能第2级</t>
+  </si>
+  <si>
+    <t>道士4号1级</t>
+  </si>
+  <si>
+    <t>道士第4个技能第1级</t>
+  </si>
+  <si>
+    <t>道士4号2级</t>
+  </si>
+  <si>
+    <t>道士第4个技能第2级</t>
+  </si>
+  <si>
+    <t>道士5号1级</t>
+  </si>
+  <si>
+    <t>道士5号2级</t>
+  </si>
+  <si>
+    <t>道士第5个技能第2级</t>
+  </si>
+  <si>
+    <t>法师3号1级</t>
+  </si>
+  <si>
+    <t>法师第3个技能第1级</t>
+  </si>
+  <si>
+    <t>法师3号2级</t>
+  </si>
+  <si>
+    <t>法师第3个技能第2级</t>
+  </si>
+  <si>
+    <t>法师4号1级</t>
+  </si>
+  <si>
+    <t>法师第4个技能第1级</t>
+  </si>
+  <si>
+    <t>法师4号2级</t>
+  </si>
+  <si>
+    <t>法师第4个技能第2级</t>
+  </si>
+  <si>
+    <t>法师5号1级</t>
+  </si>
+  <si>
+    <t>法师5号2级</t>
+  </si>
+  <si>
+    <t>法师第5个技能第2级</t>
+  </si>
+  <si>
+    <t>（0-3）0:无效 1：主动技能  2：被动技能 3：区域范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ICON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可否打断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill1</t>
+  </si>
+  <si>
+    <t>战士默认技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士第1个技能第1级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士第1个技能第2级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>战士第2个技能第2级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>道士1号1级</t>
-  </si>
-  <si>
-    <t>道士2号1级</t>
-  </si>
-  <si>
-    <t>道士2号2级</t>
-  </si>
-  <si>
-    <t>道士第2个技能第2级</t>
-  </si>
-  <si>
-    <t>法师1号1级</t>
-  </si>
-  <si>
-    <t>法师第1个技能第1级</t>
-  </si>
-  <si>
-    <t>法师第1个技能第2级</t>
-  </si>
-  <si>
-    <t>法师2号1级</t>
-  </si>
-  <si>
-    <t>法师第2个技能第1级</t>
-  </si>
-  <si>
-    <t>法师2号2级</t>
-  </si>
-  <si>
-    <t>法师第2个技能第2级</t>
-  </si>
-  <si>
-    <t>战士3号1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士3号2级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士4号1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士4号2级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士5号1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士5号2级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>战士第3个技能第1级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战士第3个技能第2级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>战士第4个技能第1级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战士第4个技能第2级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士第5个技能第1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士第5个技能第2级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道士3号1级</t>
-  </si>
-  <si>
-    <t>道士第3个技能第1级</t>
-  </si>
-  <si>
-    <t>道士3号2级</t>
-  </si>
-  <si>
-    <t>道士第3个技能第2级</t>
-  </si>
-  <si>
-    <t>道士4号1级</t>
-  </si>
-  <si>
-    <t>道士第4个技能第1级</t>
-  </si>
-  <si>
-    <t>道士4号2级</t>
-  </si>
-  <si>
-    <t>道士第4个技能第2级</t>
-  </si>
-  <si>
-    <t>道士5号1级</t>
-  </si>
-  <si>
-    <t>道士第5个技能第1级</t>
-  </si>
-  <si>
-    <t>道士5号2级</t>
-  </si>
-  <si>
-    <t>道士第5个技能第2级</t>
-  </si>
-  <si>
-    <t>法师3号1级</t>
-  </si>
-  <si>
-    <t>法师第3个技能第1级</t>
-  </si>
-  <si>
-    <t>法师3号2级</t>
-  </si>
-  <si>
-    <t>法师第3个技能第2级</t>
-  </si>
-  <si>
-    <t>法师4号1级</t>
-  </si>
-  <si>
-    <t>法师第4个技能第1级</t>
-  </si>
-  <si>
-    <t>法师4号2级</t>
-  </si>
-  <si>
-    <t>法师第4个技能第2级</t>
-  </si>
-  <si>
-    <t>法师5号1级</t>
-  </si>
-  <si>
-    <t>法师第5个技能第1级</t>
-  </si>
-  <si>
-    <t>法师5号2级</t>
-  </si>
-  <si>
-    <t>法师第5个技能第2级</t>
-  </si>
-  <si>
-    <t>（0-3）0:无效 1：主动技能  2：被动技能 3：区域范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能ICON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可否打断</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill1</t>
+    <t>道士默认技能</t>
+  </si>
+  <si>
+    <t>法师默认技能</t>
+  </si>
+  <si>
+    <t>Skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -762,13 +767,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V3" sqref="V3:V31"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -802,22 +807,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -850,10 +855,10 @@
         <v>14</v>
       </c>
       <c r="U1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="V1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
@@ -867,7 +872,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="E2" s="7">
         <v>1000</v>
@@ -915,7 +920,7 @@
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
@@ -929,7 +934,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="E3" s="7">
         <v>1000</v>
@@ -965,10 +970,10 @@
         <v>5</v>
       </c>
       <c r="Q3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>1</v>
@@ -977,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
@@ -991,7 +996,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="E4" s="7">
         <v>1001</v>
@@ -1027,10 +1032,10 @@
         <v>10</v>
       </c>
       <c r="Q4">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -1039,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
@@ -1050,10 +1055,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="E5" s="7">
         <v>1001</v>
@@ -1101,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
@@ -1112,10 +1117,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="E6" s="7">
         <v>1002</v>
@@ -1163,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
@@ -1174,10 +1179,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="E7" s="7">
         <v>1002</v>
@@ -1225,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
@@ -1236,10 +1241,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="E8" s="7">
         <v>1003</v>
@@ -1287,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
@@ -1298,10 +1303,10 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
         <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
       </c>
       <c r="E9" s="7">
         <v>1003</v>
@@ -1349,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="V9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
@@ -1360,10 +1365,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>98</v>
       </c>
       <c r="E10" s="7">
         <v>1004</v>
@@ -1411,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
@@ -1422,10 +1427,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E11" s="7">
         <v>1004</v>
@@ -1473,42 +1478,42 @@
         <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>2000</v>
+        <v>1005</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="E12" s="7">
-        <v>2000</v>
+        <v>1004</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -1520,13 +1525,13 @@
         <v>100</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
         <v>1</v>
@@ -1535,42 +1540,42 @@
         <v>1</v>
       </c>
       <c r="V12" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>2000</v>
+        <v>1005</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E13" s="7">
-        <v>2000</v>
+        <v>1004</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="H13">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1582,10 +1587,10 @@
         <v>100</v>
       </c>
       <c r="P13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q13">
-        <v>2000</v>
+        <v>1005</v>
       </c>
       <c r="R13">
         <v>1</v>
@@ -1597,24 +1602,24 @@
         <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="E14" s="7">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1623,13 +1628,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I14">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1644,13 +1649,13 @@
         <v>100</v>
       </c>
       <c r="P14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>1</v>
@@ -1659,24 +1664,24 @@
         <v>1</v>
       </c>
       <c r="V14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="E15" s="7">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1685,13 +1690,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="I15">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1706,13 +1711,13 @@
         <v>100</v>
       </c>
       <c r="P15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q15">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -1721,24 +1726,24 @@
         <v>1</v>
       </c>
       <c r="V15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="E16" s="7">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1747,10 +1752,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I16">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1771,10 +1776,10 @@
         <v>10</v>
       </c>
       <c r="Q16">
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -1783,24 +1788,24 @@
         <v>1</v>
       </c>
       <c r="V16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E17" s="7">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1809,10 +1814,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I17">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1833,7 +1838,7 @@
         <v>10</v>
       </c>
       <c r="Q17">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="R17">
         <v>1</v>
@@ -1845,24 +1850,24 @@
         <v>1</v>
       </c>
       <c r="V17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E18" s="7">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1871,10 +1876,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="I18">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1895,7 +1900,7 @@
         <v>10</v>
       </c>
       <c r="Q18">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="R18">
         <v>2</v>
@@ -1907,24 +1912,24 @@
         <v>1</v>
       </c>
       <c r="V18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="E19" s="7">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1933,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I19">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1957,7 +1962,7 @@
         <v>10</v>
       </c>
       <c r="Q19">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="R19">
         <v>1</v>
@@ -1969,24 +1974,24 @@
         <v>1</v>
       </c>
       <c r="V19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E20" s="7">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1995,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="I20">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -2019,7 +2024,7 @@
         <v>10</v>
       </c>
       <c r="Q20">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="R20">
         <v>2</v>
@@ -2031,24 +2036,24 @@
         <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E21" s="7">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -2057,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="I21">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -2081,7 +2086,7 @@
         <v>10</v>
       </c>
       <c r="Q21">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="R21">
         <v>1</v>
@@ -2093,24 +2098,24 @@
         <v>1</v>
       </c>
       <c r="V21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>3000</v>
+        <v>2004</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E22" s="7">
-        <v>3000</v>
+        <v>2004</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2119,16 +2124,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="I22">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -2140,13 +2145,13 @@
         <v>100</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2003</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -2155,24 +2160,24 @@
         <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>3000</v>
+        <v>2004</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="E23" s="7">
-        <v>3000</v>
+        <v>2004</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -2181,16 +2186,16 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="I23">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -2202,10 +2207,10 @@
         <v>100</v>
       </c>
       <c r="P23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q23">
-        <v>3000</v>
+        <v>2004</v>
       </c>
       <c r="R23">
         <v>1</v>
@@ -2217,24 +2222,24 @@
         <v>1</v>
       </c>
       <c r="V23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>3001</v>
+        <v>2005</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="E24" s="7">
-        <v>3001</v>
+        <v>2004</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -2243,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="I24">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="J24">
         <v>2</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -2267,7 +2272,7 @@
         <v>10</v>
       </c>
       <c r="Q24">
-        <v>3000</v>
+        <v>2004</v>
       </c>
       <c r="R24">
         <v>2</v>
@@ -2279,24 +2284,24 @@
         <v>1</v>
       </c>
       <c r="V24" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>3001</v>
+        <v>2005</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="E25" s="7">
-        <v>3001</v>
+        <v>2004</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2305,16 +2310,16 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="I25">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="J25">
         <v>2</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -2329,7 +2334,7 @@
         <v>10</v>
       </c>
       <c r="Q25">
-        <v>3001</v>
+        <v>2005</v>
       </c>
       <c r="R25">
         <v>1</v>
@@ -2341,24 +2346,24 @@
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E26" s="7">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -2367,13 +2372,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I26">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2388,13 +2393,13 @@
         <v>100</v>
       </c>
       <c r="P26">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>3001</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S26">
         <v>1</v>
@@ -2403,24 +2408,24 @@
         <v>1</v>
       </c>
       <c r="V26" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E27" s="7">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2429,13 +2434,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="I27">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="J27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2450,13 +2455,13 @@
         <v>100</v>
       </c>
       <c r="P27">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q27">
-        <v>3002</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -2465,24 +2470,24 @@
         <v>1</v>
       </c>
       <c r="V27" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="E28" s="7">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -2491,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="I28">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -2515,10 +2520,10 @@
         <v>10</v>
       </c>
       <c r="Q28">
-        <v>3002</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S28">
         <v>1</v>
@@ -2527,24 +2532,24 @@
         <v>1</v>
       </c>
       <c r="V28" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="E29" s="7">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2553,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="I29">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="J29">
         <v>2</v>
@@ -2577,7 +2582,7 @@
         <v>10</v>
       </c>
       <c r="Q29">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="R29">
         <v>1</v>
@@ -2589,24 +2594,24 @@
         <v>1</v>
       </c>
       <c r="V29" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="E30" s="7">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -2615,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I30">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -2639,7 +2644,7 @@
         <v>10</v>
       </c>
       <c r="Q30">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="R30">
         <v>2</v>
@@ -2651,24 +2656,24 @@
         <v>1</v>
       </c>
       <c r="V30" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E31" s="7">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -2677,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="I31">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -2701,19 +2706,391 @@
         <v>10</v>
       </c>
       <c r="Q31">
+        <v>3002</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="V31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>3003</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="7">
+        <v>3003</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>130</v>
+      </c>
+      <c r="I32">
+        <v>130</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>100</v>
+      </c>
+      <c r="P32">
+        <v>10</v>
+      </c>
+      <c r="Q32">
+        <v>3002</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="V32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>3003</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="7">
+        <v>3003</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>135</v>
+      </c>
+      <c r="I33">
+        <v>135</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>100</v>
+      </c>
+      <c r="P33">
+        <v>10</v>
+      </c>
+      <c r="Q33">
+        <v>3003</v>
+      </c>
+      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+      <c r="V33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A34">
         <v>3004</v>
       </c>
-      <c r="R31">
-        <v>1</v>
-      </c>
-      <c r="S31">
-        <v>1</v>
-      </c>
-      <c r="T31">
-        <v>1</v>
-      </c>
-      <c r="V31" t="s">
-        <v>100</v>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="7">
+        <v>3004</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>140</v>
+      </c>
+      <c r="I34">
+        <v>140</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>100</v>
+      </c>
+      <c r="P34">
+        <v>10</v>
+      </c>
+      <c r="Q34">
+        <v>3003</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="V34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>3004</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="7">
+        <v>3004</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>145</v>
+      </c>
+      <c r="I35">
+        <v>145</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>100</v>
+      </c>
+      <c r="P35">
+        <v>10</v>
+      </c>
+      <c r="Q35">
+        <v>3004</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="V35" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>3005</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="7">
+        <v>3004</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>140</v>
+      </c>
+      <c r="I36">
+        <v>140</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>100</v>
+      </c>
+      <c r="P36">
+        <v>10</v>
+      </c>
+      <c r="Q36">
+        <v>3004</v>
+      </c>
+      <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="V36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>3005</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="7">
+        <v>3004</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>145</v>
+      </c>
+      <c r="I37">
+        <v>145</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>100</v>
+      </c>
+      <c r="P37">
+        <v>10</v>
+      </c>
+      <c r="Q37">
+        <v>3005</v>
+      </c>
+      <c r="R37">
+        <v>1</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="V37" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2743,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2751,7 +3128,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -2759,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -2767,7 +3144,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -2775,7 +3152,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -2783,7 +3160,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -2791,7 +3168,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="66" x14ac:dyDescent="0.3">
@@ -2799,7 +3176,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -2807,7 +3184,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -2815,7 +3192,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -2823,7 +3200,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -2831,7 +3208,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -2839,7 +3216,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -2847,7 +3224,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2855,7 +3232,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -2863,7 +3240,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -773,7 +773,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1486,7 +1486,7 @@
         <v>1005</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="93">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -80,23 +80,6 @@
   <si>
     <t>可否打断</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士1号1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士1号2级</t>
-  </si>
-  <si>
-    <t>战士2号1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道士1号2级</t>
-  </si>
-  <si>
-    <t>法师1号2级</t>
   </si>
   <si>
     <t>战士第2个技能第1级</t>
@@ -175,59 +158,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战士2号2级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道士1号1级</t>
-  </si>
-  <si>
-    <t>道士2号1级</t>
-  </si>
-  <si>
-    <t>道士2号2级</t>
-  </si>
-  <si>
     <t>道士第2个技能第2级</t>
   </si>
   <si>
-    <t>法师1号1级</t>
-  </si>
-  <si>
     <t>法师第1个技能第1级</t>
   </si>
   <si>
     <t>法师第1个技能第2级</t>
   </si>
   <si>
-    <t>法师2号1级</t>
-  </si>
-  <si>
     <t>法师第2个技能第1级</t>
   </si>
   <si>
-    <t>法师2号2级</t>
-  </si>
-  <si>
     <t>法师第2个技能第2级</t>
   </si>
   <si>
-    <t>战士3号1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士3号2级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士4号1级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>战士4号2级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>战士5号1级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,69 +193,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>道士3号1级</t>
-  </si>
-  <si>
     <t>道士第3个技能第1级</t>
   </si>
   <si>
-    <t>道士3号2级</t>
-  </si>
-  <si>
     <t>道士第3个技能第2级</t>
   </si>
   <si>
-    <t>道士4号1级</t>
-  </si>
-  <si>
     <t>道士第4个技能第1级</t>
   </si>
   <si>
-    <t>道士4号2级</t>
-  </si>
-  <si>
     <t>道士第4个技能第2级</t>
   </si>
   <si>
-    <t>道士5号1级</t>
-  </si>
-  <si>
-    <t>道士5号2级</t>
-  </si>
-  <si>
     <t>道士第5个技能第2级</t>
   </si>
   <si>
-    <t>法师3号1级</t>
-  </si>
-  <si>
     <t>法师第3个技能第1级</t>
   </si>
   <si>
-    <t>法师3号2级</t>
-  </si>
-  <si>
     <t>法师第3个技能第2级</t>
   </si>
   <si>
-    <t>法师4号1级</t>
-  </si>
-  <si>
     <t>法师第4个技能第1级</t>
   </si>
   <si>
-    <t>法师4号2级</t>
-  </si>
-  <si>
     <t>法师第4个技能第2级</t>
   </si>
   <si>
-    <t>法师5号1级</t>
-  </si>
-  <si>
-    <t>法师5号2级</t>
-  </si>
-  <si>
     <t>法师第5个技能第2级</t>
   </si>
   <si>
@@ -384,6 +293,82 @@
   </si>
   <si>
     <t>Skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士枪法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千钧之力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>横扫千军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战龙于野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道士拳法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太极拳法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两仪拳法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四象拳法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八卦拳法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏羲拳法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法师符咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷电咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缠足咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缠足咒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金甲天神咒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,7 +758,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -807,22 +792,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -855,10 +840,10 @@
         <v>14</v>
       </c>
       <c r="U1" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
@@ -869,10 +854,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E2" s="7">
         <v>1000</v>
@@ -920,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="V2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
@@ -931,10 +916,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="E3" s="7">
         <v>1000</v>
@@ -982,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
@@ -993,10 +978,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E4" s="7">
         <v>1001</v>
@@ -1044,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="V4" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
@@ -1055,10 +1040,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="E5" s="7">
         <v>1001</v>
@@ -1106,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="V5" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
@@ -1117,10 +1102,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E6" s="7">
         <v>1002</v>
@@ -1168,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="V6" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
@@ -1179,10 +1164,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E7" s="7">
         <v>1002</v>
@@ -1230,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="V7" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
@@ -1241,10 +1226,10 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="E8" s="7">
         <v>1003</v>
@@ -1292,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="V8" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
@@ -1303,10 +1288,10 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E9" s="7">
         <v>1003</v>
@@ -1354,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="V9" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
@@ -1365,10 +1350,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="E10" s="7">
         <v>1004</v>
@@ -1416,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="V10" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
@@ -1427,10 +1412,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E11" s="7">
         <v>1004</v>
@@ -1478,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="V11" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
@@ -1489,10 +1474,10 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E12" s="7">
         <v>1004</v>
@@ -1540,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="V12" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
@@ -1551,10 +1536,10 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E13" s="7">
         <v>1004</v>
@@ -1602,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="V13" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
@@ -1613,10 +1598,10 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E14" s="7">
         <v>2000</v>
@@ -1664,7 +1649,7 @@
         <v>1</v>
       </c>
       <c r="V14" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
@@ -1675,10 +1660,10 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="E15" s="7">
         <v>2000</v>
@@ -1726,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="V15" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
@@ -1737,10 +1722,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E16" s="7">
         <v>2001</v>
@@ -1788,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="V16" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.15">
@@ -1799,10 +1784,10 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E17" s="7">
         <v>2001</v>
@@ -1850,7 +1835,7 @@
         <v>1</v>
       </c>
       <c r="V17" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.15">
@@ -1861,10 +1846,10 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E18" s="7">
         <v>2002</v>
@@ -1912,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="V18" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.15">
@@ -1923,10 +1908,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E19" s="7">
         <v>2002</v>
@@ -1974,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="V19" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.15">
@@ -1985,10 +1970,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E20" s="7">
         <v>2003</v>
@@ -2036,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="V20" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.15">
@@ -2047,10 +2032,10 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E21" s="7">
         <v>2003</v>
@@ -2098,7 +2083,7 @@
         <v>1</v>
       </c>
       <c r="V21" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.15">
@@ -2109,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="E22" s="7">
         <v>2004</v>
@@ -2160,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="V22" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.15">
@@ -2171,10 +2156,10 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="E23" s="7">
         <v>2004</v>
@@ -2222,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="V23" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.15">
@@ -2233,10 +2218,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D24" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E24" s="7">
         <v>2004</v>
@@ -2284,7 +2269,7 @@
         <v>1</v>
       </c>
       <c r="V24" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.15">
@@ -2295,10 +2280,10 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="E25" s="7">
         <v>2004</v>
@@ -2346,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="V25" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.15">
@@ -2357,10 +2342,10 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E26" s="7">
         <v>3000</v>
@@ -2408,7 +2393,7 @@
         <v>1</v>
       </c>
       <c r="V26" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.15">
@@ -2419,10 +2404,10 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="E27" s="7">
         <v>3000</v>
@@ -2470,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="V27" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.15">
@@ -2481,10 +2466,10 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E28" s="7">
         <v>3001</v>
@@ -2532,7 +2517,7 @@
         <v>1</v>
       </c>
       <c r="V28" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.15">
@@ -2543,10 +2528,10 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E29" s="7">
         <v>3001</v>
@@ -2594,7 +2579,7 @@
         <v>1</v>
       </c>
       <c r="V29" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.15">
@@ -2605,10 +2590,10 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E30" s="7">
         <v>3002</v>
@@ -2656,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="V30" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.15">
@@ -2667,10 +2652,10 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E31" s="7">
         <v>3002</v>
@@ -2718,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="V31" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.15">
@@ -2729,10 +2714,10 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E32" s="7">
         <v>3003</v>
@@ -2780,7 +2765,7 @@
         <v>1</v>
       </c>
       <c r="V32" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.15">
@@ -2791,10 +2776,10 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="E33" s="7">
         <v>3003</v>
@@ -2842,7 +2827,7 @@
         <v>1</v>
       </c>
       <c r="V33" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.15">
@@ -2853,10 +2838,10 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="E34" s="7">
         <v>3004</v>
@@ -2904,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="V34" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.15">
@@ -2915,10 +2900,10 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E35" s="7">
         <v>3004</v>
@@ -2966,7 +2951,7 @@
         <v>1</v>
       </c>
       <c r="V35" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.15">
@@ -2977,10 +2962,10 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E36" s="7">
         <v>3004</v>
@@ -3028,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="V36" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.15">
@@ -3039,10 +3024,10 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="E37" s="7">
         <v>3004</v>
@@ -3090,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="V37" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3120,7 +3105,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3128,7 +3113,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -3136,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -3144,7 +3129,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -3152,7 +3137,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -3160,7 +3145,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -3168,7 +3153,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="66" x14ac:dyDescent="0.3">
@@ -3176,7 +3161,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -3184,7 +3169,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -3192,7 +3177,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3200,7 +3185,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3208,7 +3193,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3216,7 +3201,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -3224,7 +3209,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3232,7 +3217,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3240,7 +3225,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="97">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -354,12 +354,6 @@
   </si>
   <si>
     <t>skill12</t>
-  </si>
-  <si>
-    <t>skill13</t>
-  </si>
-  <si>
-    <t>skill14</t>
   </si>
   <si>
     <t>skill21</t>
@@ -792,10 +786,10 @@
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V30" sqref="V30:V37"/>
+      <selection pane="bottomRight" activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1714,7 +1708,7 @@
       </c>
       <c r="U14" s="10"/>
       <c r="V14" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -1778,7 +1772,7 @@
       </c>
       <c r="U15" s="10"/>
       <c r="V15" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -1842,7 +1836,7 @@
       </c>
       <c r="U16" s="10"/>
       <c r="V16" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -1906,7 +1900,7 @@
       </c>
       <c r="U17" s="10"/>
       <c r="V17" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2098,7 +2092,7 @@
       </c>
       <c r="U20" s="10"/>
       <c r="V20" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2162,7 +2156,7 @@
       </c>
       <c r="U21" s="10"/>
       <c r="V21" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2226,7 +2220,7 @@
       </c>
       <c r="U22" s="10"/>
       <c r="V22" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2290,7 +2284,7 @@
       </c>
       <c r="U23" s="10"/>
       <c r="V23" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2354,7 +2348,7 @@
       </c>
       <c r="U24" s="10"/>
       <c r="V24" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2418,7 +2412,7 @@
       </c>
       <c r="U25" s="10"/>
       <c r="V25" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2482,7 +2476,7 @@
       </c>
       <c r="U26" s="14"/>
       <c r="V26" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2546,7 +2540,7 @@
       </c>
       <c r="U27" s="14"/>
       <c r="V27" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2610,7 +2604,7 @@
       </c>
       <c r="U28" s="14"/>
       <c r="V28" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2674,7 +2668,7 @@
       </c>
       <c r="U29" s="14"/>
       <c r="V29" s="14" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2738,7 +2732,7 @@
       </c>
       <c r="U30" s="14"/>
       <c r="V30" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2802,7 +2796,7 @@
       </c>
       <c r="U31" s="14"/>
       <c r="V31" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2866,7 +2860,7 @@
       </c>
       <c r="U32" s="14"/>
       <c r="V32" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2930,7 +2924,7 @@
       </c>
       <c r="U33" s="14"/>
       <c r="V33" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2994,7 +2988,7 @@
       </c>
       <c r="U34" s="14"/>
       <c r="V34" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3058,7 +3052,7 @@
       </c>
       <c r="U35" s="14"/>
       <c r="V35" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3122,7 +3116,7 @@
       </c>
       <c r="U36" s="14"/>
       <c r="V36" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3186,7 +3180,7 @@
       </c>
       <c r="U37" s="14"/>
       <c r="V37" s="14" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="100">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -251,9 +251,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill1</t>
-  </si>
-  <si>
     <t>战士默认技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,6 +357,22 @@
   </si>
   <si>
     <t>skill22</t>
+  </si>
+  <si>
+    <t>skill5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -786,10 +799,10 @@
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S25" sqref="S25"/>
+      <selection pane="bottomRight" activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -887,10 +900,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" s="13">
         <v>1000</v>
@@ -940,7 +953,7 @@
       </c>
       <c r="U2" s="12"/>
       <c r="V2" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -951,10 +964,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="13">
         <v>1000</v>
@@ -1004,7 +1017,7 @@
       </c>
       <c r="U3" s="12"/>
       <c r="V3" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -1015,10 +1028,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" s="13">
         <v>1001</v>
@@ -1068,7 +1081,7 @@
       </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -1079,10 +1092,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E5" s="13">
         <v>1001</v>
@@ -1132,7 +1145,7 @@
       </c>
       <c r="U5" s="12"/>
       <c r="V5" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -1143,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>16</v>
@@ -1196,7 +1209,7 @@
       </c>
       <c r="U6" s="12"/>
       <c r="V6" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -1207,10 +1220,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="13">
         <v>1002</v>
@@ -1260,7 +1273,7 @@
       </c>
       <c r="U7" s="12"/>
       <c r="V7" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -1271,10 +1284,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" s="13">
         <v>1003</v>
@@ -1324,7 +1337,7 @@
       </c>
       <c r="U8" s="12"/>
       <c r="V8" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -1335,7 +1348,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>40</v>
@@ -1388,7 +1401,7 @@
       </c>
       <c r="U9" s="12"/>
       <c r="V9" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -1399,10 +1412,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="13">
         <v>1004</v>
@@ -1452,7 +1465,7 @@
       </c>
       <c r="U10" s="12"/>
       <c r="V10" s="12" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -1463,7 +1476,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>41</v>
@@ -1516,7 +1529,7 @@
       </c>
       <c r="U11" s="12"/>
       <c r="V11" s="12" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -1527,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>42</v>
@@ -1580,7 +1593,7 @@
       </c>
       <c r="U12" s="12"/>
       <c r="V12" s="12" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -1591,7 +1604,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>42</v>
@@ -1644,7 +1657,7 @@
       </c>
       <c r="U13" s="12"/>
       <c r="V13" s="12" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -1655,10 +1668,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="11">
         <v>2000</v>
@@ -1708,7 +1721,7 @@
       </c>
       <c r="U14" s="10"/>
       <c r="V14" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -1719,10 +1732,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="11">
         <v>2000</v>
@@ -1772,7 +1785,7 @@
       </c>
       <c r="U15" s="10"/>
       <c r="V15" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -1783,7 +1796,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>17</v>
@@ -1836,7 +1849,7 @@
       </c>
       <c r="U16" s="10"/>
       <c r="V16" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -1847,7 +1860,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>18</v>
@@ -1900,7 +1913,7 @@
       </c>
       <c r="U17" s="10"/>
       <c r="V17" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -1911,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>19</v>
@@ -1964,7 +1977,7 @@
       </c>
       <c r="U18" s="10"/>
       <c r="V18" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -1975,7 +1988,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>35</v>
@@ -2028,7 +2041,7 @@
       </c>
       <c r="U19" s="10"/>
       <c r="V19" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2039,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>43</v>
@@ -2092,7 +2105,7 @@
       </c>
       <c r="U20" s="10"/>
       <c r="V20" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2103,7 +2116,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="10" t="s">
         <v>44</v>
@@ -2156,7 +2169,7 @@
       </c>
       <c r="U21" s="10"/>
       <c r="V21" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2167,7 +2180,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>45</v>
@@ -2220,7 +2233,7 @@
       </c>
       <c r="U22" s="10"/>
       <c r="V22" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2231,7 +2244,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>46</v>
@@ -2284,7 +2297,7 @@
       </c>
       <c r="U23" s="10"/>
       <c r="V23" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2295,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>47</v>
@@ -2348,7 +2361,7 @@
       </c>
       <c r="U24" s="10"/>
       <c r="V24" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2359,7 +2372,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>47</v>
@@ -2412,7 +2425,7 @@
       </c>
       <c r="U25" s="10"/>
       <c r="V25" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2423,10 +2436,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="15">
         <v>3000</v>
@@ -2476,7 +2489,7 @@
       </c>
       <c r="U26" s="14"/>
       <c r="V26" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2487,10 +2500,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="15">
         <v>3000</v>
@@ -2540,7 +2553,7 @@
       </c>
       <c r="U27" s="14"/>
       <c r="V27" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2551,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>36</v>
@@ -2604,7 +2617,7 @@
       </c>
       <c r="U28" s="14"/>
       <c r="V28" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2615,7 +2628,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>37</v>
@@ -2668,7 +2681,7 @@
       </c>
       <c r="U29" s="14"/>
       <c r="V29" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2679,7 +2692,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>38</v>
@@ -2732,7 +2745,7 @@
       </c>
       <c r="U30" s="14"/>
       <c r="V30" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2743,7 +2756,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>39</v>
@@ -2796,7 +2809,7 @@
       </c>
       <c r="U31" s="14"/>
       <c r="V31" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2807,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>48</v>
@@ -2860,7 +2873,7 @@
       </c>
       <c r="U32" s="14"/>
       <c r="V32" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2871,7 +2884,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>49</v>
@@ -2924,7 +2937,7 @@
       </c>
       <c r="U33" s="14"/>
       <c r="V33" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2935,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>50</v>
@@ -2988,7 +3001,7 @@
       </c>
       <c r="U34" s="14"/>
       <c r="V34" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2999,7 +3012,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D35" s="14" t="s">
         <v>51</v>
@@ -3052,7 +3065,7 @@
       </c>
       <c r="U35" s="14"/>
       <c r="V35" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3063,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>52</v>
@@ -3116,7 +3129,7 @@
       </c>
       <c r="U36" s="14"/>
       <c r="V36" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3127,7 +3140,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>52</v>
@@ -3180,7 +3193,7 @@
       </c>
       <c r="U37" s="14"/>
       <c r="V37" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -372,6 +372,10 @@
   </si>
   <si>
     <t>Skill6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -799,10 +803,10 @@
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V14" sqref="V14"/>
+      <selection pane="bottomRight" activeCell="S28" sqref="S28:S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -946,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="12">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="T2" s="12">
         <v>1</v>
@@ -1010,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="12">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="T3" s="12">
         <v>1</v>
@@ -1074,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="12">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T4" s="12">
         <v>1</v>
@@ -1138,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="S5" s="12">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T5" s="12">
         <v>1</v>
@@ -1202,7 +1206,7 @@
         <v>2</v>
       </c>
       <c r="S6" s="12">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T6" s="12">
         <v>1</v>
@@ -1266,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="S7" s="12">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T7" s="12">
         <v>1</v>
@@ -1330,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="S8" s="12">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T8" s="12">
         <v>1</v>
@@ -1394,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="S9" s="12">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T9" s="12">
         <v>1</v>
@@ -1458,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="S10" s="12">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T10" s="12">
         <v>1</v>
@@ -1522,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="12">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T11" s="12">
         <v>1</v>
@@ -1586,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="12">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T12" s="12">
         <v>1</v>
@@ -1650,7 +1654,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="12">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T13" s="12">
         <v>1</v>
@@ -1714,14 +1718,14 @@
         <v>0</v>
       </c>
       <c r="S14" s="10">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="T14" s="10">
         <v>1</v>
       </c>
       <c r="U14" s="10"/>
       <c r="V14" s="10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -1778,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="10">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="T15" s="10">
         <v>1</v>
@@ -1842,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="10">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T16" s="10">
         <v>1</v>
@@ -1906,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="S17" s="10">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T17" s="10">
         <v>1</v>
@@ -1970,7 +1974,7 @@
         <v>2</v>
       </c>
       <c r="S18" s="10">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T18" s="10">
         <v>1</v>
@@ -2034,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="10">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T19" s="10">
         <v>1</v>
@@ -2098,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="S20" s="10">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T20" s="10">
         <v>1</v>
@@ -2162,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="S21" s="10">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T21" s="10">
         <v>1</v>
@@ -2226,7 +2230,7 @@
         <v>2</v>
       </c>
       <c r="S22" s="10">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T22" s="10">
         <v>1</v>
@@ -2290,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="S23" s="10">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T23" s="10">
         <v>1</v>
@@ -2354,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="S24" s="10">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T24" s="10">
         <v>1</v>
@@ -2418,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="S25" s="10">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T25" s="10">
         <v>1</v>
@@ -2482,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="14">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="T26" s="14">
         <v>1</v>
@@ -2546,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="14">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="T27" s="14">
         <v>1</v>
@@ -2610,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="14">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T28" s="14">
         <v>1</v>
@@ -2674,7 +2678,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="14">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T29" s="14">
         <v>1</v>
@@ -2738,7 +2742,7 @@
         <v>2</v>
       </c>
       <c r="S30" s="14">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T30" s="14">
         <v>1</v>
@@ -2802,7 +2806,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="14">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T31" s="14">
         <v>1</v>
@@ -2866,7 +2870,7 @@
         <v>2</v>
       </c>
       <c r="S32" s="14">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T32" s="14">
         <v>1</v>
@@ -2930,7 +2934,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="14">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T33" s="14">
         <v>1</v>
@@ -2994,7 +2998,7 @@
         <v>2</v>
       </c>
       <c r="S34" s="14">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T34" s="14">
         <v>1</v>
@@ -3058,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="14">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T35" s="14">
         <v>1</v>
@@ -3122,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="S36" s="14">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T36" s="14">
         <v>1</v>
@@ -3186,7 +3190,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="14">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="T37" s="14">
         <v>1</v>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -11,12 +11,12 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="104">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -376,6 +376,18 @@
   </si>
   <si>
     <t>skill21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,10 +815,10 @@
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S28" sqref="S28:S37"/>
+      <selection pane="bottomRight" activeCell="V18" sqref="V18:V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1981,7 +1993,7 @@
       </c>
       <c r="U18" s="10"/>
       <c r="V18" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2045,7 +2057,7 @@
       </c>
       <c r="U19" s="10"/>
       <c r="V19" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2109,7 +2121,7 @@
       </c>
       <c r="U20" s="10"/>
       <c r="V20" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2173,7 +2185,7 @@
       </c>
       <c r="U21" s="10"/>
       <c r="V21" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2237,7 +2249,7 @@
       </c>
       <c r="U22" s="10"/>
       <c r="V22" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2301,7 +2313,7 @@
       </c>
       <c r="U23" s="10"/>
       <c r="V23" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2365,7 +2377,7 @@
       </c>
       <c r="U24" s="10"/>
       <c r="V24" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2429,7 +2441,7 @@
       </c>
       <c r="U25" s="10"/>
       <c r="V25" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2749,7 +2761,7 @@
       </c>
       <c r="U30" s="14"/>
       <c r="V30" s="14" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2813,7 +2825,7 @@
       </c>
       <c r="U31" s="14"/>
       <c r="V31" s="14" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2877,7 +2889,7 @@
       </c>
       <c r="U32" s="14"/>
       <c r="V32" s="14" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2941,7 +2953,7 @@
       </c>
       <c r="U33" s="14"/>
       <c r="V33" s="14" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3005,7 +3017,7 @@
       </c>
       <c r="U34" s="14"/>
       <c r="V34" s="14" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3069,7 +3081,7 @@
       </c>
       <c r="U35" s="14"/>
       <c r="V35" s="14" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3133,7 +3145,7 @@
       </c>
       <c r="U36" s="14"/>
       <c r="V36" s="14" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3197,7 +3209,7 @@
       </c>
       <c r="U37" s="14"/>
       <c r="V37" s="14" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="113">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -388,6 +388,42 @@
   </si>
   <si>
     <t>skill15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,10 +851,10 @@
   <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V18" sqref="V18:V25"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1993,7 +2029,7 @@
       </c>
       <c r="U18" s="10"/>
       <c r="V18" s="10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2057,7 +2093,7 @@
       </c>
       <c r="U19" s="10"/>
       <c r="V19" s="10" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2121,7 +2157,7 @@
       </c>
       <c r="U20" s="10"/>
       <c r="V20" s="10" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2185,7 +2221,7 @@
       </c>
       <c r="U21" s="10"/>
       <c r="V21" s="10" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2249,7 +2285,7 @@
       </c>
       <c r="U22" s="10"/>
       <c r="V22" s="10" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2313,7 +2349,7 @@
       </c>
       <c r="U23" s="10"/>
       <c r="V23" s="10" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2377,7 +2413,7 @@
       </c>
       <c r="U24" s="10"/>
       <c r="V24" s="10" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2441,7 +2477,7 @@
       </c>
       <c r="U25" s="10"/>
       <c r="V25" s="10" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3145,7 +3181,7 @@
       </c>
       <c r="U36" s="14"/>
       <c r="V36" s="14" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3209,7 +3245,7 @@
       </c>
       <c r="U37" s="14"/>
       <c r="V37" s="14" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2355" yWindow="4140" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -235,18 +235,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>额外伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目标数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>法术伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>物理伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1486,6 +1478,14 @@
   </si>
   <si>
     <t>学习消耗</t>
+  </si>
+  <si>
+    <t>魔法伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1652,7 +1652,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1694,7 +1694,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1729,7 +1729,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1944,7 +1944,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S27" sqref="S27"/>
+      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1984,16 +1984,16 @@
         <v>54</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>60</v>
+        <v>461</v>
       </c>
       <c r="I1" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>5</v>
@@ -2005,7 +2005,7 @@
         <v>7</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>9</v>
@@ -2040,10 +2040,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E2" s="17">
         <v>1000</v>
@@ -2093,7 +2093,7 @@
       </c>
       <c r="U2" s="16"/>
       <c r="V2" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2104,10 +2104,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="17">
         <v>1000</v>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="U3" s="16"/>
       <c r="V3" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2168,10 +2168,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" s="17">
         <v>1000</v>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="U4" s="16"/>
       <c r="V4" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2232,10 +2232,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" s="17">
         <v>1000</v>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="U5" s="16"/>
       <c r="V5" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2296,10 +2296,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" s="17">
         <v>1000</v>
@@ -2349,7 +2349,7 @@
       </c>
       <c r="U6" s="16"/>
       <c r="V6" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2360,10 +2360,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E7" s="17">
         <v>1000</v>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="U7" s="16"/>
       <c r="V7" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2424,10 +2424,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8" s="17">
         <v>1000</v>
@@ -2477,7 +2477,7 @@
       </c>
       <c r="U8" s="16"/>
       <c r="V8" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2488,10 +2488,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" s="17">
         <v>1000</v>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="U9" s="16"/>
       <c r="V9" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2552,10 +2552,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E10" s="17">
         <v>1000</v>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="U10" s="16"/>
       <c r="V10" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2616,10 +2616,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11" s="17">
         <v>1000</v>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="U11" s="16"/>
       <c r="V11" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2680,10 +2680,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" s="17">
         <v>1000</v>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="U12" s="16"/>
       <c r="V12" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2744,10 +2744,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E13" s="17">
         <v>1000</v>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="U13" s="16"/>
       <c r="V13" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2808,10 +2808,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14" s="17">
         <v>1000</v>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="U14" s="16"/>
       <c r="V14" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2872,10 +2872,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E15" s="17">
         <v>1000</v>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="U15" s="16"/>
       <c r="V15" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2936,10 +2936,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E16" s="17">
         <v>1000</v>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="U16" s="16"/>
       <c r="V16" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3000,10 +3000,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E17" s="17">
         <v>1000</v>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="U17" s="16"/>
       <c r="V17" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3064,10 +3064,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" s="17">
         <v>1000</v>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="U18" s="16"/>
       <c r="V18" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3128,10 +3128,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E19" s="17">
         <v>1000</v>
@@ -3181,7 +3181,7 @@
       </c>
       <c r="U19" s="16"/>
       <c r="V19" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3192,10 +3192,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E20" s="17">
         <v>1000</v>
@@ -3245,7 +3245,7 @@
       </c>
       <c r="U20" s="16"/>
       <c r="V20" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3256,10 +3256,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="17">
         <v>1000</v>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="U21" s="16"/>
       <c r="V21" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3320,10 +3320,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E22" s="17">
         <v>1000</v>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="U22" s="16"/>
       <c r="V22" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3384,10 +3384,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E23" s="17">
         <v>1000</v>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="U23" s="16"/>
       <c r="V23" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3448,10 +3448,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E24" s="17">
         <v>1000</v>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="U24" s="16"/>
       <c r="V24" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3512,10 +3512,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E25" s="17">
         <v>1000</v>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="U25" s="16"/>
       <c r="V25" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3576,10 +3576,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E26" s="19">
         <v>1000</v>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="U26" s="18"/>
       <c r="V26" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3640,10 +3640,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E27" s="13">
         <v>1001</v>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="U27" s="12"/>
       <c r="V27" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3704,10 +3704,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E28" s="13">
         <v>1001</v>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="U28" s="12"/>
       <c r="V28" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3768,10 +3768,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E29" s="13">
         <v>1001</v>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="U29" s="12"/>
       <c r="V29" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3832,10 +3832,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E30" s="13">
         <v>1001</v>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="U30" s="12"/>
       <c r="V30" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3896,10 +3896,10 @@
         <v>5</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E31" s="13">
         <v>1001</v>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="U31" s="12"/>
       <c r="V31" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3960,10 +3960,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E32" s="13">
         <v>1001</v>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="U32" s="12"/>
       <c r="V32" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4024,10 +4024,10 @@
         <v>7</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E33" s="13">
         <v>1001</v>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="U33" s="12"/>
       <c r="V33" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4088,10 +4088,10 @@
         <v>8</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E34" s="13">
         <v>1001</v>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="U34" s="12"/>
       <c r="V34" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4152,10 +4152,10 @@
         <v>9</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E35" s="13">
         <v>1001</v>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="U35" s="12"/>
       <c r="V35" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4216,10 +4216,10 @@
         <v>10</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E36" s="13">
         <v>1001</v>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="U36" s="12"/>
       <c r="V36" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4280,10 +4280,10 @@
         <v>11</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E37" s="13">
         <v>1001</v>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="U37" s="12"/>
       <c r="V37" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4344,10 +4344,10 @@
         <v>12</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E38" s="13">
         <v>1001</v>
@@ -4397,7 +4397,7 @@
       </c>
       <c r="U38" s="12"/>
       <c r="V38" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4408,10 +4408,10 @@
         <v>13</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E39" s="13">
         <v>1001</v>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="U39" s="12"/>
       <c r="V39" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4472,10 +4472,10 @@
         <v>14</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E40" s="13">
         <v>1001</v>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="U40" s="12"/>
       <c r="V40" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4536,10 +4536,10 @@
         <v>15</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E41" s="13">
         <v>1001</v>
@@ -4589,7 +4589,7 @@
       </c>
       <c r="U41" s="12"/>
       <c r="V41" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4600,10 +4600,10 @@
         <v>16</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E42" s="13">
         <v>1001</v>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="U42" s="12"/>
       <c r="V42" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4664,10 +4664,10 @@
         <v>17</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E43" s="13">
         <v>1001</v>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="U43" s="12"/>
       <c r="V43" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4728,10 +4728,10 @@
         <v>18</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E44" s="13">
         <v>1001</v>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="U44" s="12"/>
       <c r="V44" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4792,10 +4792,10 @@
         <v>19</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E45" s="13">
         <v>1001</v>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="U45" s="12"/>
       <c r="V45" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4856,10 +4856,10 @@
         <v>20</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E46" s="13">
         <v>1001</v>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="U46" s="12"/>
       <c r="V46" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4920,10 +4920,10 @@
         <v>21</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E47" s="13">
         <v>1001</v>
@@ -4973,7 +4973,7 @@
       </c>
       <c r="U47" s="12"/>
       <c r="V47" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4984,10 +4984,10 @@
         <v>22</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E48" s="13">
         <v>1001</v>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="U48" s="12"/>
       <c r="V48" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5048,10 +5048,10 @@
         <v>23</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E49" s="13">
         <v>1001</v>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="U49" s="12"/>
       <c r="V49" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5112,10 +5112,10 @@
         <v>24</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E50" s="13">
         <v>1001</v>
@@ -5165,7 +5165,7 @@
       </c>
       <c r="U50" s="12"/>
       <c r="V50" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5176,10 +5176,10 @@
         <v>25</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E51" s="19">
         <v>1001</v>
@@ -5229,7 +5229,7 @@
       </c>
       <c r="U51" s="18"/>
       <c r="V51" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5240,7 +5240,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>16</v>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="U52" s="12"/>
       <c r="V52" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5304,10 +5304,10 @@
         <v>2</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E53" s="13">
         <v>1002</v>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="U53" s="12"/>
       <c r="V53" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5368,10 +5368,10 @@
         <v>3</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E54" s="13">
         <v>1002</v>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="U54" s="12"/>
       <c r="V54" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5432,10 +5432,10 @@
         <v>4</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E55" s="13">
         <v>1002</v>
@@ -5485,7 +5485,7 @@
       </c>
       <c r="U55" s="12"/>
       <c r="V55" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5496,10 +5496,10 @@
         <v>5</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E56" s="13">
         <v>1002</v>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="U56" s="12"/>
       <c r="V56" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5560,10 +5560,10 @@
         <v>6</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E57" s="13">
         <v>1002</v>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="U57" s="12"/>
       <c r="V57" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5624,10 +5624,10 @@
         <v>7</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E58" s="13">
         <v>1002</v>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="U58" s="12"/>
       <c r="V58" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5688,10 +5688,10 @@
         <v>8</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E59" s="13">
         <v>1002</v>
@@ -5741,7 +5741,7 @@
       </c>
       <c r="U59" s="12"/>
       <c r="V59" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5752,10 +5752,10 @@
         <v>9</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E60" s="13">
         <v>1002</v>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="U60" s="12"/>
       <c r="V60" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5816,10 +5816,10 @@
         <v>10</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E61" s="13">
         <v>1002</v>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="U61" s="12"/>
       <c r="V61" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5880,10 +5880,10 @@
         <v>11</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E62" s="13">
         <v>1002</v>
@@ -5933,7 +5933,7 @@
       </c>
       <c r="U62" s="12"/>
       <c r="V62" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5944,10 +5944,10 @@
         <v>12</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E63" s="13">
         <v>1002</v>
@@ -5997,7 +5997,7 @@
       </c>
       <c r="U63" s="12"/>
       <c r="V63" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6008,10 +6008,10 @@
         <v>13</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E64" s="13">
         <v>1002</v>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="U64" s="12"/>
       <c r="V64" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6072,10 +6072,10 @@
         <v>14</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E65" s="13">
         <v>1002</v>
@@ -6125,7 +6125,7 @@
       </c>
       <c r="U65" s="12"/>
       <c r="V65" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6136,10 +6136,10 @@
         <v>15</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E66" s="13">
         <v>1002</v>
@@ -6189,7 +6189,7 @@
       </c>
       <c r="U66" s="12"/>
       <c r="V66" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6200,10 +6200,10 @@
         <v>16</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E67" s="13">
         <v>1002</v>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="U67" s="12"/>
       <c r="V67" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6264,10 +6264,10 @@
         <v>17</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E68" s="13">
         <v>1002</v>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="U68" s="12"/>
       <c r="V68" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6328,10 +6328,10 @@
         <v>18</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E69" s="13">
         <v>1002</v>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="U69" s="12"/>
       <c r="V69" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6392,10 +6392,10 @@
         <v>19</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E70" s="13">
         <v>1002</v>
@@ -6445,7 +6445,7 @@
       </c>
       <c r="U70" s="12"/>
       <c r="V70" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6456,10 +6456,10 @@
         <v>20</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E71" s="13">
         <v>1002</v>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="U71" s="12"/>
       <c r="V71" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6520,10 +6520,10 @@
         <v>21</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E72" s="13">
         <v>1002</v>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="U72" s="12"/>
       <c r="V72" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6584,10 +6584,10 @@
         <v>22</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E73" s="13">
         <v>1002</v>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="U73" s="12"/>
       <c r="V73" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6648,10 +6648,10 @@
         <v>23</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E74" s="13">
         <v>1002</v>
@@ -6701,7 +6701,7 @@
       </c>
       <c r="U74" s="12"/>
       <c r="V74" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6712,10 +6712,10 @@
         <v>24</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E75" s="13">
         <v>1002</v>
@@ -6765,7 +6765,7 @@
       </c>
       <c r="U75" s="12"/>
       <c r="V75" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6776,10 +6776,10 @@
         <v>25</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E76" s="19">
         <v>1002</v>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="U76" s="18"/>
       <c r="V76" s="18" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6840,10 +6840,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E77" s="13">
         <v>1003</v>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="U77" s="12"/>
       <c r="V77" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6904,7 +6904,7 @@
         <v>2</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>40</v>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="U78" s="12"/>
       <c r="V78" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6968,10 +6968,10 @@
         <v>3</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E79" s="13">
         <v>1003</v>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="U79" s="12"/>
       <c r="V79" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7032,10 +7032,10 @@
         <v>4</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E80" s="13">
         <v>1003</v>
@@ -7085,7 +7085,7 @@
       </c>
       <c r="U80" s="12"/>
       <c r="V80" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7096,10 +7096,10 @@
         <v>5</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E81" s="13">
         <v>1003</v>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="U81" s="12"/>
       <c r="V81" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7160,10 +7160,10 @@
         <v>6</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E82" s="13">
         <v>1003</v>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="U82" s="12"/>
       <c r="V82" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7224,10 +7224,10 @@
         <v>7</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E83" s="13">
         <v>1003</v>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="U83" s="12"/>
       <c r="V83" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7288,10 +7288,10 @@
         <v>8</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E84" s="13">
         <v>1003</v>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="U84" s="12"/>
       <c r="V84" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7352,10 +7352,10 @@
         <v>9</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E85" s="13">
         <v>1003</v>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="U85" s="12"/>
       <c r="V85" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7416,10 +7416,10 @@
         <v>10</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E86" s="13">
         <v>1003</v>
@@ -7469,7 +7469,7 @@
       </c>
       <c r="U86" s="12"/>
       <c r="V86" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="87" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7480,10 +7480,10 @@
         <v>11</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E87" s="13">
         <v>1003</v>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="U87" s="12"/>
       <c r="V87" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7544,10 +7544,10 @@
         <v>12</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E88" s="13">
         <v>1003</v>
@@ -7597,7 +7597,7 @@
       </c>
       <c r="U88" s="12"/>
       <c r="V88" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7608,10 +7608,10 @@
         <v>13</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E89" s="13">
         <v>1003</v>
@@ -7661,7 +7661,7 @@
       </c>
       <c r="U89" s="12"/>
       <c r="V89" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7672,10 +7672,10 @@
         <v>14</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E90" s="13">
         <v>1003</v>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="U90" s="12"/>
       <c r="V90" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7736,10 +7736,10 @@
         <v>15</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E91" s="13">
         <v>1003</v>
@@ -7789,7 +7789,7 @@
       </c>
       <c r="U91" s="12"/>
       <c r="V91" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7800,10 +7800,10 @@
         <v>16</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E92" s="13">
         <v>1003</v>
@@ -7853,7 +7853,7 @@
       </c>
       <c r="U92" s="12"/>
       <c r="V92" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7864,10 +7864,10 @@
         <v>17</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E93" s="13">
         <v>1003</v>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="U93" s="12"/>
       <c r="V93" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7928,10 +7928,10 @@
         <v>18</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E94" s="13">
         <v>1003</v>
@@ -7981,7 +7981,7 @@
       </c>
       <c r="U94" s="12"/>
       <c r="V94" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7992,10 +7992,10 @@
         <v>19</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E95" s="13">
         <v>1003</v>
@@ -8045,7 +8045,7 @@
       </c>
       <c r="U95" s="12"/>
       <c r="V95" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8056,10 +8056,10 @@
         <v>20</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E96" s="13">
         <v>1003</v>
@@ -8109,7 +8109,7 @@
       </c>
       <c r="U96" s="12"/>
       <c r="V96" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8120,10 +8120,10 @@
         <v>21</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E97" s="13">
         <v>1003</v>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="U97" s="12"/>
       <c r="V97" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8184,10 +8184,10 @@
         <v>22</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E98" s="13">
         <v>1003</v>
@@ -8237,7 +8237,7 @@
       </c>
       <c r="U98" s="12"/>
       <c r="V98" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8248,10 +8248,10 @@
         <v>23</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E99" s="13">
         <v>1003</v>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="U99" s="12"/>
       <c r="V99" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8312,10 +8312,10 @@
         <v>24</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E100" s="13">
         <v>1003</v>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="U100" s="12"/>
       <c r="V100" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8376,10 +8376,10 @@
         <v>25</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E101" s="19">
         <v>1003</v>
@@ -8429,7 +8429,7 @@
       </c>
       <c r="U101" s="18"/>
       <c r="V101" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8440,10 +8440,10 @@
         <v>1</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E102" s="13">
         <v>1004</v>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="U102" s="12"/>
       <c r="V102" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8504,7 +8504,7 @@
         <v>2</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>41</v>
@@ -8557,7 +8557,7 @@
       </c>
       <c r="U103" s="12"/>
       <c r="V103" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8568,10 +8568,10 @@
         <v>3</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E104" s="13">
         <v>1004</v>
@@ -8621,7 +8621,7 @@
       </c>
       <c r="U104" s="12"/>
       <c r="V104" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="105" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8632,10 +8632,10 @@
         <v>4</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E105" s="13">
         <v>1004</v>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="U105" s="12"/>
       <c r="V105" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8696,10 +8696,10 @@
         <v>5</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E106" s="13">
         <v>1004</v>
@@ -8749,7 +8749,7 @@
       </c>
       <c r="U106" s="12"/>
       <c r="V106" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8760,10 +8760,10 @@
         <v>6</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E107" s="13">
         <v>1004</v>
@@ -8813,7 +8813,7 @@
       </c>
       <c r="U107" s="12"/>
       <c r="V107" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8824,10 +8824,10 @@
         <v>7</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E108" s="13">
         <v>1004</v>
@@ -8877,7 +8877,7 @@
       </c>
       <c r="U108" s="12"/>
       <c r="V108" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8888,10 +8888,10 @@
         <v>8</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E109" s="13">
         <v>1004</v>
@@ -8941,7 +8941,7 @@
       </c>
       <c r="U109" s="12"/>
       <c r="V109" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="110" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8952,10 +8952,10 @@
         <v>9</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E110" s="13">
         <v>1004</v>
@@ -9005,7 +9005,7 @@
       </c>
       <c r="U110" s="12"/>
       <c r="V110" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9016,10 +9016,10 @@
         <v>10</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E111" s="13">
         <v>1004</v>
@@ -9069,7 +9069,7 @@
       </c>
       <c r="U111" s="12"/>
       <c r="V111" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="112" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9080,10 +9080,10 @@
         <v>11</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E112" s="13">
         <v>1004</v>
@@ -9133,7 +9133,7 @@
       </c>
       <c r="U112" s="12"/>
       <c r="V112" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9144,10 +9144,10 @@
         <v>12</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E113" s="13">
         <v>1004</v>
@@ -9197,7 +9197,7 @@
       </c>
       <c r="U113" s="12"/>
       <c r="V113" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="114" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9208,10 +9208,10 @@
         <v>13</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E114" s="13">
         <v>1004</v>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="U114" s="12"/>
       <c r="V114" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="115" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9272,10 +9272,10 @@
         <v>14</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E115" s="13">
         <v>1004</v>
@@ -9325,7 +9325,7 @@
       </c>
       <c r="U115" s="12"/>
       <c r="V115" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="116" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9336,10 +9336,10 @@
         <v>15</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E116" s="13">
         <v>1004</v>
@@ -9389,7 +9389,7 @@
       </c>
       <c r="U116" s="12"/>
       <c r="V116" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="117" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9400,10 +9400,10 @@
         <v>16</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E117" s="13">
         <v>1004</v>
@@ -9453,7 +9453,7 @@
       </c>
       <c r="U117" s="12"/>
       <c r="V117" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="118" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9464,10 +9464,10 @@
         <v>17</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E118" s="13">
         <v>1004</v>
@@ -9517,7 +9517,7 @@
       </c>
       <c r="U118" s="12"/>
       <c r="V118" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="119" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9528,10 +9528,10 @@
         <v>18</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E119" s="13">
         <v>1004</v>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="U119" s="12"/>
       <c r="V119" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9592,10 +9592,10 @@
         <v>19</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E120" s="13">
         <v>1004</v>
@@ -9645,7 +9645,7 @@
       </c>
       <c r="U120" s="12"/>
       <c r="V120" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="121" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9656,10 +9656,10 @@
         <v>20</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E121" s="13">
         <v>1004</v>
@@ -9709,7 +9709,7 @@
       </c>
       <c r="U121" s="12"/>
       <c r="V121" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="122" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9720,10 +9720,10 @@
         <v>21</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E122" s="13">
         <v>1004</v>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="U122" s="12"/>
       <c r="V122" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9784,10 +9784,10 @@
         <v>22</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E123" s="13">
         <v>1004</v>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="U123" s="12"/>
       <c r="V123" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="124" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9848,10 +9848,10 @@
         <v>23</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E124" s="13">
         <v>1004</v>
@@ -9901,7 +9901,7 @@
       </c>
       <c r="U124" s="12"/>
       <c r="V124" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9912,10 +9912,10 @@
         <v>24</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E125" s="13">
         <v>1004</v>
@@ -9965,7 +9965,7 @@
       </c>
       <c r="U125" s="12"/>
       <c r="V125" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="126" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9976,10 +9976,10 @@
         <v>25</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E126" s="19">
         <v>1004</v>
@@ -10029,7 +10029,7 @@
       </c>
       <c r="U126" s="18"/>
       <c r="V126" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="127" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10040,10 +10040,10 @@
         <v>1</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E127" s="13">
         <v>1004</v>
@@ -10093,7 +10093,7 @@
       </c>
       <c r="U127" s="12"/>
       <c r="V127" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="128" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10104,7 +10104,7 @@
         <v>2</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>42</v>
@@ -10157,7 +10157,7 @@
       </c>
       <c r="U128" s="12"/>
       <c r="V128" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10168,10 +10168,10 @@
         <v>3</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E129" s="13">
         <v>1004</v>
@@ -10221,7 +10221,7 @@
       </c>
       <c r="U129" s="12"/>
       <c r="V129" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10232,10 +10232,10 @@
         <v>4</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E130" s="13">
         <v>1004</v>
@@ -10285,7 +10285,7 @@
       </c>
       <c r="U130" s="12"/>
       <c r="V130" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10296,10 +10296,10 @@
         <v>5</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E131" s="13">
         <v>1004</v>
@@ -10349,7 +10349,7 @@
       </c>
       <c r="U131" s="12"/>
       <c r="V131" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10360,10 +10360,10 @@
         <v>6</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E132" s="13">
         <v>1004</v>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="U132" s="12"/>
       <c r="V132" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="133" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10424,10 +10424,10 @@
         <v>7</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E133" s="13">
         <v>1004</v>
@@ -10477,7 +10477,7 @@
       </c>
       <c r="U133" s="12"/>
       <c r="V133" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="134" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10488,10 +10488,10 @@
         <v>8</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E134" s="13">
         <v>1004</v>
@@ -10541,7 +10541,7 @@
       </c>
       <c r="U134" s="12"/>
       <c r="V134" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10552,10 +10552,10 @@
         <v>9</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E135" s="13">
         <v>1004</v>
@@ -10605,7 +10605,7 @@
       </c>
       <c r="U135" s="12"/>
       <c r="V135" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="136" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10616,10 +10616,10 @@
         <v>10</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E136" s="13">
         <v>1004</v>
@@ -10669,7 +10669,7 @@
       </c>
       <c r="U136" s="12"/>
       <c r="V136" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="137" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10680,10 +10680,10 @@
         <v>11</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E137" s="13">
         <v>1004</v>
@@ -10733,7 +10733,7 @@
       </c>
       <c r="U137" s="12"/>
       <c r="V137" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="138" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10744,10 +10744,10 @@
         <v>12</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E138" s="13">
         <v>1004</v>
@@ -10797,7 +10797,7 @@
       </c>
       <c r="U138" s="12"/>
       <c r="V138" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="139" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10808,10 +10808,10 @@
         <v>13</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E139" s="13">
         <v>1004</v>
@@ -10861,7 +10861,7 @@
       </c>
       <c r="U139" s="12"/>
       <c r="V139" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10872,10 +10872,10 @@
         <v>14</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E140" s="13">
         <v>1004</v>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="U140" s="12"/>
       <c r="V140" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="141" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10936,10 +10936,10 @@
         <v>15</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E141" s="13">
         <v>1004</v>
@@ -10989,7 +10989,7 @@
       </c>
       <c r="U141" s="12"/>
       <c r="V141" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="142" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11000,10 +11000,10 @@
         <v>16</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E142" s="13">
         <v>1004</v>
@@ -11053,7 +11053,7 @@
       </c>
       <c r="U142" s="12"/>
       <c r="V142" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="143" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11064,10 +11064,10 @@
         <v>17</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E143" s="13">
         <v>1004</v>
@@ -11117,7 +11117,7 @@
       </c>
       <c r="U143" s="12"/>
       <c r="V143" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11128,10 +11128,10 @@
         <v>18</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E144" s="13">
         <v>1004</v>
@@ -11181,7 +11181,7 @@
       </c>
       <c r="U144" s="12"/>
       <c r="V144" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="145" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11192,10 +11192,10 @@
         <v>19</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E145" s="13">
         <v>1004</v>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="U145" s="12"/>
       <c r="V145" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="146" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11256,10 +11256,10 @@
         <v>20</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E146" s="13">
         <v>1004</v>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="U146" s="12"/>
       <c r="V146" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="147" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11320,10 +11320,10 @@
         <v>21</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E147" s="13">
         <v>1004</v>
@@ -11373,7 +11373,7 @@
       </c>
       <c r="U147" s="12"/>
       <c r="V147" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="148" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11384,10 +11384,10 @@
         <v>22</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E148" s="13">
         <v>1004</v>
@@ -11437,7 +11437,7 @@
       </c>
       <c r="U148" s="12"/>
       <c r="V148" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="149" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11448,10 +11448,10 @@
         <v>23</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E149" s="13">
         <v>1004</v>
@@ -11501,7 +11501,7 @@
       </c>
       <c r="U149" s="12"/>
       <c r="V149" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="150" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11512,10 +11512,10 @@
         <v>24</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E150" s="13">
         <v>1004</v>
@@ -11565,7 +11565,7 @@
       </c>
       <c r="U150" s="12"/>
       <c r="V150" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="151" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11576,10 +11576,10 @@
         <v>25</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E151" s="13">
         <v>1004</v>
@@ -11629,7 +11629,7 @@
       </c>
       <c r="U151" s="12"/>
       <c r="V151" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="152" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11640,10 +11640,10 @@
         <v>1</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E152" s="11">
         <v>2000</v>
@@ -11693,7 +11693,7 @@
       </c>
       <c r="U152" s="10"/>
       <c r="V152" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="153" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11704,10 +11704,10 @@
         <v>2</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E153" s="11">
         <v>2000</v>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="U153" s="10"/>
       <c r="V153" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="154" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11768,10 +11768,10 @@
         <v>3</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E154" s="11">
         <v>2000</v>
@@ -11821,7 +11821,7 @@
       </c>
       <c r="U154" s="10"/>
       <c r="V154" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="155" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11832,10 +11832,10 @@
         <v>4</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E155" s="11">
         <v>2000</v>
@@ -11885,7 +11885,7 @@
       </c>
       <c r="U155" s="10"/>
       <c r="V155" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="156" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11896,10 +11896,10 @@
         <v>5</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E156" s="11">
         <v>2000</v>
@@ -11949,7 +11949,7 @@
       </c>
       <c r="U156" s="10"/>
       <c r="V156" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="157" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11960,10 +11960,10 @@
         <v>6</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E157" s="11">
         <v>2000</v>
@@ -12013,7 +12013,7 @@
       </c>
       <c r="U157" s="10"/>
       <c r="V157" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="158" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12024,10 +12024,10 @@
         <v>7</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E158" s="11">
         <v>2000</v>
@@ -12077,7 +12077,7 @@
       </c>
       <c r="U158" s="10"/>
       <c r="V158" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="159" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12088,10 +12088,10 @@
         <v>8</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E159" s="11">
         <v>2000</v>
@@ -12141,7 +12141,7 @@
       </c>
       <c r="U159" s="10"/>
       <c r="V159" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="160" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12152,10 +12152,10 @@
         <v>9</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E160" s="11">
         <v>2000</v>
@@ -12205,7 +12205,7 @@
       </c>
       <c r="U160" s="10"/>
       <c r="V160" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12216,10 +12216,10 @@
         <v>10</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E161" s="11">
         <v>2000</v>
@@ -12269,7 +12269,7 @@
       </c>
       <c r="U161" s="10"/>
       <c r="V161" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12280,10 +12280,10 @@
         <v>11</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E162" s="11">
         <v>2000</v>
@@ -12333,7 +12333,7 @@
       </c>
       <c r="U162" s="10"/>
       <c r="V162" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12344,10 +12344,10 @@
         <v>12</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E163" s="11">
         <v>2000</v>
@@ -12397,7 +12397,7 @@
       </c>
       <c r="U163" s="10"/>
       <c r="V163" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12408,10 +12408,10 @@
         <v>13</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E164" s="11">
         <v>2000</v>
@@ -12461,7 +12461,7 @@
       </c>
       <c r="U164" s="10"/>
       <c r="V164" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12472,10 +12472,10 @@
         <v>14</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E165" s="11">
         <v>2000</v>
@@ -12525,7 +12525,7 @@
       </c>
       <c r="U165" s="10"/>
       <c r="V165" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12536,10 +12536,10 @@
         <v>15</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E166" s="11">
         <v>2000</v>
@@ -12589,7 +12589,7 @@
       </c>
       <c r="U166" s="10"/>
       <c r="V166" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12600,10 +12600,10 @@
         <v>16</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E167" s="11">
         <v>2000</v>
@@ -12653,7 +12653,7 @@
       </c>
       <c r="U167" s="10"/>
       <c r="V167" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12664,10 +12664,10 @@
         <v>17</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E168" s="11">
         <v>2000</v>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="U168" s="10"/>
       <c r="V168" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12728,10 +12728,10 @@
         <v>18</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E169" s="11">
         <v>2000</v>
@@ -12781,7 +12781,7 @@
       </c>
       <c r="U169" s="10"/>
       <c r="V169" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12792,10 +12792,10 @@
         <v>19</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E170" s="11">
         <v>2000</v>
@@ -12845,7 +12845,7 @@
       </c>
       <c r="U170" s="10"/>
       <c r="V170" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12856,10 +12856,10 @@
         <v>20</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E171" s="11">
         <v>2000</v>
@@ -12909,7 +12909,7 @@
       </c>
       <c r="U171" s="10"/>
       <c r="V171" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12920,10 +12920,10 @@
         <v>21</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E172" s="11">
         <v>2000</v>
@@ -12973,7 +12973,7 @@
       </c>
       <c r="U172" s="10"/>
       <c r="V172" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12984,10 +12984,10 @@
         <v>22</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E173" s="11">
         <v>2000</v>
@@ -13037,7 +13037,7 @@
       </c>
       <c r="U173" s="10"/>
       <c r="V173" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -13048,10 +13048,10 @@
         <v>23</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E174" s="11">
         <v>2000</v>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="U174" s="10"/>
       <c r="V174" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -13112,10 +13112,10 @@
         <v>24</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E175" s="11">
         <v>2000</v>
@@ -13165,7 +13165,7 @@
       </c>
       <c r="U175" s="10"/>
       <c r="V175" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -13176,10 +13176,10 @@
         <v>25</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E176" s="21">
         <v>2000</v>
@@ -13229,7 +13229,7 @@
       </c>
       <c r="U176" s="20"/>
       <c r="V176" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W176" s="22"/>
     </row>
@@ -13241,7 +13241,7 @@
         <v>1</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>17</v>
@@ -13294,7 +13294,7 @@
       </c>
       <c r="U177" s="10"/>
       <c r="V177" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="178" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13305,7 +13305,7 @@
         <v>2</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>18</v>
@@ -13358,7 +13358,7 @@
       </c>
       <c r="U178" s="10"/>
       <c r="V178" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="179" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13369,10 +13369,10 @@
         <v>3</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E179" s="11">
         <v>2001</v>
@@ -13422,7 +13422,7 @@
       </c>
       <c r="U179" s="10"/>
       <c r="V179" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="180" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13433,10 +13433,10 @@
         <v>4</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E180" s="11">
         <v>2001</v>
@@ -13486,7 +13486,7 @@
       </c>
       <c r="U180" s="10"/>
       <c r="V180" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="181" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13497,10 +13497,10 @@
         <v>5</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E181" s="11">
         <v>2001</v>
@@ -13550,7 +13550,7 @@
       </c>
       <c r="U181" s="10"/>
       <c r="V181" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="182" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13561,10 +13561,10 @@
         <v>6</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E182" s="11">
         <v>2001</v>
@@ -13614,7 +13614,7 @@
       </c>
       <c r="U182" s="10"/>
       <c r="V182" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="183" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13625,10 +13625,10 @@
         <v>7</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E183" s="11">
         <v>2001</v>
@@ -13678,7 +13678,7 @@
       </c>
       <c r="U183" s="10"/>
       <c r="V183" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="184" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13689,10 +13689,10 @@
         <v>8</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E184" s="11">
         <v>2001</v>
@@ -13742,7 +13742,7 @@
       </c>
       <c r="U184" s="10"/>
       <c r="V184" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="185" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13753,10 +13753,10 @@
         <v>9</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E185" s="11">
         <v>2001</v>
@@ -13806,7 +13806,7 @@
       </c>
       <c r="U185" s="10"/>
       <c r="V185" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="186" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13817,10 +13817,10 @@
         <v>10</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E186" s="11">
         <v>2001</v>
@@ -13870,7 +13870,7 @@
       </c>
       <c r="U186" s="10"/>
       <c r="V186" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="187" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13881,10 +13881,10 @@
         <v>11</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E187" s="11">
         <v>2001</v>
@@ -13934,7 +13934,7 @@
       </c>
       <c r="U187" s="10"/>
       <c r="V187" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="188" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13945,10 +13945,10 @@
         <v>12</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E188" s="11">
         <v>2001</v>
@@ -13998,7 +13998,7 @@
       </c>
       <c r="U188" s="10"/>
       <c r="V188" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="189" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -14009,10 +14009,10 @@
         <v>13</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E189" s="11">
         <v>2001</v>
@@ -14062,7 +14062,7 @@
       </c>
       <c r="U189" s="10"/>
       <c r="V189" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="190" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -14073,10 +14073,10 @@
         <v>14</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E190" s="11">
         <v>2001</v>
@@ -14126,7 +14126,7 @@
       </c>
       <c r="U190" s="10"/>
       <c r="V190" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="191" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -14137,10 +14137,10 @@
         <v>15</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E191" s="11">
         <v>2001</v>
@@ -14190,7 +14190,7 @@
       </c>
       <c r="U191" s="10"/>
       <c r="V191" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="192" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -14201,10 +14201,10 @@
         <v>16</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E192" s="11">
         <v>2001</v>
@@ -14254,7 +14254,7 @@
       </c>
       <c r="U192" s="10"/>
       <c r="V192" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="193" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14265,10 +14265,10 @@
         <v>17</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E193" s="11">
         <v>2001</v>
@@ -14318,7 +14318,7 @@
       </c>
       <c r="U193" s="10"/>
       <c r="V193" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14329,10 +14329,10 @@
         <v>18</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E194" s="11">
         <v>2001</v>
@@ -14382,7 +14382,7 @@
       </c>
       <c r="U194" s="10"/>
       <c r="V194" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="195" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14393,10 +14393,10 @@
         <v>19</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E195" s="11">
         <v>2001</v>
@@ -14446,7 +14446,7 @@
       </c>
       <c r="U195" s="10"/>
       <c r="V195" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="196" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14457,10 +14457,10 @@
         <v>20</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E196" s="11">
         <v>2001</v>
@@ -14510,7 +14510,7 @@
       </c>
       <c r="U196" s="10"/>
       <c r="V196" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="197" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14521,10 +14521,10 @@
         <v>21</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E197" s="11">
         <v>2001</v>
@@ -14574,7 +14574,7 @@
       </c>
       <c r="U197" s="10"/>
       <c r="V197" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="198" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14585,10 +14585,10 @@
         <v>22</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E198" s="11">
         <v>2001</v>
@@ -14638,7 +14638,7 @@
       </c>
       <c r="U198" s="10"/>
       <c r="V198" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="199" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14649,10 +14649,10 @@
         <v>23</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E199" s="11">
         <v>2001</v>
@@ -14702,7 +14702,7 @@
       </c>
       <c r="U199" s="10"/>
       <c r="V199" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="200" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14713,10 +14713,10 @@
         <v>24</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E200" s="11">
         <v>2001</v>
@@ -14766,7 +14766,7 @@
       </c>
       <c r="U200" s="10"/>
       <c r="V200" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="201" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14777,10 +14777,10 @@
         <v>25</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E201" s="21">
         <v>2001</v>
@@ -14830,7 +14830,7 @@
       </c>
       <c r="U201" s="20"/>
       <c r="V201" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="W201" s="22"/>
     </row>
@@ -14842,7 +14842,7 @@
         <v>1</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>19</v>
@@ -14895,7 +14895,7 @@
       </c>
       <c r="U202" s="10"/>
       <c r="V202" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="203" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14906,7 +14906,7 @@
         <v>2</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D203" s="10" t="s">
         <v>35</v>
@@ -14959,7 +14959,7 @@
       </c>
       <c r="U203" s="10"/>
       <c r="V203" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="204" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14970,10 +14970,10 @@
         <v>3</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E204" s="11">
         <v>2002</v>
@@ -15023,7 +15023,7 @@
       </c>
       <c r="U204" s="10"/>
       <c r="V204" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="205" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15034,10 +15034,10 @@
         <v>4</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E205" s="11">
         <v>2002</v>
@@ -15087,7 +15087,7 @@
       </c>
       <c r="U205" s="10"/>
       <c r="V205" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="206" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15098,10 +15098,10 @@
         <v>5</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E206" s="11">
         <v>2002</v>
@@ -15151,7 +15151,7 @@
       </c>
       <c r="U206" s="10"/>
       <c r="V206" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="207" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15162,10 +15162,10 @@
         <v>6</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E207" s="11">
         <v>2002</v>
@@ -15215,7 +15215,7 @@
       </c>
       <c r="U207" s="10"/>
       <c r="V207" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="208" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15226,10 +15226,10 @@
         <v>7</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E208" s="11">
         <v>2002</v>
@@ -15279,7 +15279,7 @@
       </c>
       <c r="U208" s="10"/>
       <c r="V208" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="209" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15290,10 +15290,10 @@
         <v>8</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E209" s="11">
         <v>2002</v>
@@ -15343,7 +15343,7 @@
       </c>
       <c r="U209" s="10"/>
       <c r="V209" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="210" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15354,10 +15354,10 @@
         <v>9</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E210" s="11">
         <v>2002</v>
@@ -15407,7 +15407,7 @@
       </c>
       <c r="U210" s="10"/>
       <c r="V210" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="211" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15418,10 +15418,10 @@
         <v>10</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E211" s="11">
         <v>2002</v>
@@ -15471,7 +15471,7 @@
       </c>
       <c r="U211" s="10"/>
       <c r="V211" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="212" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15482,10 +15482,10 @@
         <v>11</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E212" s="11">
         <v>2002</v>
@@ -15535,7 +15535,7 @@
       </c>
       <c r="U212" s="10"/>
       <c r="V212" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="213" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15546,10 +15546,10 @@
         <v>12</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E213" s="11">
         <v>2002</v>
@@ -15599,7 +15599,7 @@
       </c>
       <c r="U213" s="10"/>
       <c r="V213" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="214" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15610,10 +15610,10 @@
         <v>13</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E214" s="11">
         <v>2002</v>
@@ -15663,7 +15663,7 @@
       </c>
       <c r="U214" s="10"/>
       <c r="V214" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="215" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15674,10 +15674,10 @@
         <v>14</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E215" s="11">
         <v>2002</v>
@@ -15727,7 +15727,7 @@
       </c>
       <c r="U215" s="10"/>
       <c r="V215" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="216" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15738,10 +15738,10 @@
         <v>15</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E216" s="11">
         <v>2002</v>
@@ -15791,7 +15791,7 @@
       </c>
       <c r="U216" s="10"/>
       <c r="V216" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="217" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15802,10 +15802,10 @@
         <v>16</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E217" s="11">
         <v>2002</v>
@@ -15855,7 +15855,7 @@
       </c>
       <c r="U217" s="10"/>
       <c r="V217" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="218" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15866,10 +15866,10 @@
         <v>17</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E218" s="11">
         <v>2002</v>
@@ -15919,7 +15919,7 @@
       </c>
       <c r="U218" s="10"/>
       <c r="V218" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="219" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15930,10 +15930,10 @@
         <v>18</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E219" s="11">
         <v>2002</v>
@@ -15983,7 +15983,7 @@
       </c>
       <c r="U219" s="10"/>
       <c r="V219" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="220" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15994,10 +15994,10 @@
         <v>19</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E220" s="11">
         <v>2002</v>
@@ -16047,7 +16047,7 @@
       </c>
       <c r="U220" s="10"/>
       <c r="V220" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="221" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16058,10 +16058,10 @@
         <v>20</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E221" s="11">
         <v>2002</v>
@@ -16111,7 +16111,7 @@
       </c>
       <c r="U221" s="10"/>
       <c r="V221" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="222" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16122,10 +16122,10 @@
         <v>21</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E222" s="11">
         <v>2002</v>
@@ -16175,7 +16175,7 @@
       </c>
       <c r="U222" s="10"/>
       <c r="V222" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="223" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16186,10 +16186,10 @@
         <v>22</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E223" s="11">
         <v>2002</v>
@@ -16239,7 +16239,7 @@
       </c>
       <c r="U223" s="10"/>
       <c r="V223" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="224" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16250,10 +16250,10 @@
         <v>23</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E224" s="11">
         <v>2002</v>
@@ -16303,7 +16303,7 @@
       </c>
       <c r="U224" s="10"/>
       <c r="V224" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="225" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16314,10 +16314,10 @@
         <v>24</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E225" s="11">
         <v>2002</v>
@@ -16367,7 +16367,7 @@
       </c>
       <c r="U225" s="10"/>
       <c r="V225" s="10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="226" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16378,10 +16378,10 @@
         <v>25</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D226" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E226" s="21">
         <v>2002</v>
@@ -16431,7 +16431,7 @@
       </c>
       <c r="U226" s="20"/>
       <c r="V226" s="20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W226" s="22"/>
     </row>
@@ -16443,7 +16443,7 @@
         <v>1</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D227" s="10" t="s">
         <v>43</v>
@@ -16496,7 +16496,7 @@
       </c>
       <c r="U227" s="10"/>
       <c r="V227" s="10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="228" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16507,7 +16507,7 @@
         <v>2</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D228" s="10" t="s">
         <v>44</v>
@@ -16560,7 +16560,7 @@
       </c>
       <c r="U228" s="10"/>
       <c r="V228" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="229" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16571,10 +16571,10 @@
         <v>3</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E229" s="11">
         <v>2003</v>
@@ -16624,7 +16624,7 @@
       </c>
       <c r="U229" s="10"/>
       <c r="V229" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="230" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16635,10 +16635,10 @@
         <v>4</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E230" s="11">
         <v>2003</v>
@@ -16688,7 +16688,7 @@
       </c>
       <c r="U230" s="10"/>
       <c r="V230" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="231" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16699,10 +16699,10 @@
         <v>5</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E231" s="11">
         <v>2003</v>
@@ -16752,7 +16752,7 @@
       </c>
       <c r="U231" s="10"/>
       <c r="V231" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="232" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16763,10 +16763,10 @@
         <v>6</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E232" s="11">
         <v>2003</v>
@@ -16816,7 +16816,7 @@
       </c>
       <c r="U232" s="10"/>
       <c r="V232" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="233" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16827,10 +16827,10 @@
         <v>7</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E233" s="11">
         <v>2003</v>
@@ -16880,7 +16880,7 @@
       </c>
       <c r="U233" s="10"/>
       <c r="V233" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="234" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16891,10 +16891,10 @@
         <v>8</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E234" s="11">
         <v>2003</v>
@@ -16944,7 +16944,7 @@
       </c>
       <c r="U234" s="10"/>
       <c r="V234" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="235" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16955,10 +16955,10 @@
         <v>9</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E235" s="11">
         <v>2003</v>
@@ -17008,7 +17008,7 @@
       </c>
       <c r="U235" s="10"/>
       <c r="V235" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="236" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17019,10 +17019,10 @@
         <v>10</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E236" s="11">
         <v>2003</v>
@@ -17072,7 +17072,7 @@
       </c>
       <c r="U236" s="10"/>
       <c r="V236" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="237" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17083,10 +17083,10 @@
         <v>11</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E237" s="11">
         <v>2003</v>
@@ -17136,7 +17136,7 @@
       </c>
       <c r="U237" s="10"/>
       <c r="V237" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="238" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17147,10 +17147,10 @@
         <v>12</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E238" s="11">
         <v>2003</v>
@@ -17200,7 +17200,7 @@
       </c>
       <c r="U238" s="10"/>
       <c r="V238" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="239" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17211,10 +17211,10 @@
         <v>13</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E239" s="11">
         <v>2003</v>
@@ -17264,7 +17264,7 @@
       </c>
       <c r="U239" s="10"/>
       <c r="V239" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="240" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17275,10 +17275,10 @@
         <v>14</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E240" s="11">
         <v>2003</v>
@@ -17328,7 +17328,7 @@
       </c>
       <c r="U240" s="10"/>
       <c r="V240" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="241" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17339,10 +17339,10 @@
         <v>15</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E241" s="11">
         <v>2003</v>
@@ -17392,7 +17392,7 @@
       </c>
       <c r="U241" s="10"/>
       <c r="V241" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="242" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17403,10 +17403,10 @@
         <v>16</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E242" s="11">
         <v>2003</v>
@@ -17456,7 +17456,7 @@
       </c>
       <c r="U242" s="10"/>
       <c r="V242" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="243" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17467,10 +17467,10 @@
         <v>17</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E243" s="11">
         <v>2003</v>
@@ -17520,7 +17520,7 @@
       </c>
       <c r="U243" s="10"/>
       <c r="V243" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="244" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17531,10 +17531,10 @@
         <v>18</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E244" s="11">
         <v>2003</v>
@@ -17584,7 +17584,7 @@
       </c>
       <c r="U244" s="10"/>
       <c r="V244" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="245" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17595,10 +17595,10 @@
         <v>19</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E245" s="11">
         <v>2003</v>
@@ -17648,7 +17648,7 @@
       </c>
       <c r="U245" s="10"/>
       <c r="V245" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="246" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17659,10 +17659,10 @@
         <v>20</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E246" s="11">
         <v>2003</v>
@@ -17712,7 +17712,7 @@
       </c>
       <c r="U246" s="10"/>
       <c r="V246" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="247" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17723,10 +17723,10 @@
         <v>21</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D247" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E247" s="11">
         <v>2003</v>
@@ -17776,7 +17776,7 @@
       </c>
       <c r="U247" s="10"/>
       <c r="V247" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="248" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17787,10 +17787,10 @@
         <v>22</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D248" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E248" s="11">
         <v>2003</v>
@@ -17840,7 +17840,7 @@
       </c>
       <c r="U248" s="10"/>
       <c r="V248" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="249" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17851,10 +17851,10 @@
         <v>23</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E249" s="11">
         <v>2003</v>
@@ -17904,7 +17904,7 @@
       </c>
       <c r="U249" s="10"/>
       <c r="V249" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="250" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17915,10 +17915,10 @@
         <v>24</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D250" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E250" s="11">
         <v>2003</v>
@@ -17968,7 +17968,7 @@
       </c>
       <c r="U250" s="10"/>
       <c r="V250" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="251" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17979,10 +17979,10 @@
         <v>25</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E251" s="21">
         <v>2003</v>
@@ -18032,7 +18032,7 @@
       </c>
       <c r="U251" s="20"/>
       <c r="V251" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="252" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18043,7 +18043,7 @@
         <v>1</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D252" s="10" t="s">
         <v>45</v>
@@ -18096,7 +18096,7 @@
       </c>
       <c r="U252" s="10"/>
       <c r="V252" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="253" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18107,7 +18107,7 @@
         <v>2</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D253" s="10" t="s">
         <v>46</v>
@@ -18160,7 +18160,7 @@
       </c>
       <c r="U253" s="10"/>
       <c r="V253" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="254" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18171,10 +18171,10 @@
         <v>3</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D254" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E254" s="11">
         <v>2004</v>
@@ -18224,7 +18224,7 @@
       </c>
       <c r="U254" s="10"/>
       <c r="V254" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="255" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18235,10 +18235,10 @@
         <v>4</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D255" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E255" s="11">
         <v>2004</v>
@@ -18288,7 +18288,7 @@
       </c>
       <c r="U255" s="10"/>
       <c r="V255" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="256" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18299,10 +18299,10 @@
         <v>5</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D256" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E256" s="11">
         <v>2004</v>
@@ -18352,7 +18352,7 @@
       </c>
       <c r="U256" s="10"/>
       <c r="V256" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="257" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18363,10 +18363,10 @@
         <v>6</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E257" s="11">
         <v>2004</v>
@@ -18416,7 +18416,7 @@
       </c>
       <c r="U257" s="10"/>
       <c r="V257" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="258" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18427,10 +18427,10 @@
         <v>7</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D258" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E258" s="11">
         <v>2004</v>
@@ -18480,7 +18480,7 @@
       </c>
       <c r="U258" s="10"/>
       <c r="V258" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="259" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18491,10 +18491,10 @@
         <v>8</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D259" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E259" s="11">
         <v>2004</v>
@@ -18544,7 +18544,7 @@
       </c>
       <c r="U259" s="10"/>
       <c r="V259" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="260" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18555,10 +18555,10 @@
         <v>9</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D260" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E260" s="11">
         <v>2004</v>
@@ -18608,7 +18608,7 @@
       </c>
       <c r="U260" s="10"/>
       <c r="V260" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="261" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18619,10 +18619,10 @@
         <v>10</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E261" s="11">
         <v>2004</v>
@@ -18672,7 +18672,7 @@
       </c>
       <c r="U261" s="10"/>
       <c r="V261" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="262" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18683,10 +18683,10 @@
         <v>11</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D262" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E262" s="11">
         <v>2004</v>
@@ -18736,7 +18736,7 @@
       </c>
       <c r="U262" s="10"/>
       <c r="V262" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="263" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18747,10 +18747,10 @@
         <v>12</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E263" s="11">
         <v>2004</v>
@@ -18800,7 +18800,7 @@
       </c>
       <c r="U263" s="10"/>
       <c r="V263" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="264" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18811,10 +18811,10 @@
         <v>13</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D264" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E264" s="11">
         <v>2004</v>
@@ -18864,7 +18864,7 @@
       </c>
       <c r="U264" s="10"/>
       <c r="V264" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="265" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18875,10 +18875,10 @@
         <v>14</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E265" s="11">
         <v>2004</v>
@@ -18928,7 +18928,7 @@
       </c>
       <c r="U265" s="10"/>
       <c r="V265" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="266" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18939,10 +18939,10 @@
         <v>15</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E266" s="11">
         <v>2004</v>
@@ -18992,7 +18992,7 @@
       </c>
       <c r="U266" s="10"/>
       <c r="V266" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="267" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19003,10 +19003,10 @@
         <v>16</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E267" s="11">
         <v>2004</v>
@@ -19056,7 +19056,7 @@
       </c>
       <c r="U267" s="10"/>
       <c r="V267" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="268" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19067,10 +19067,10 @@
         <v>17</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D268" s="10" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E268" s="11">
         <v>2004</v>
@@ -19120,7 +19120,7 @@
       </c>
       <c r="U268" s="10"/>
       <c r="V268" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="269" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19131,10 +19131,10 @@
         <v>18</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E269" s="11">
         <v>2004</v>
@@ -19184,7 +19184,7 @@
       </c>
       <c r="U269" s="10"/>
       <c r="V269" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="270" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19195,10 +19195,10 @@
         <v>19</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D270" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E270" s="11">
         <v>2004</v>
@@ -19248,7 +19248,7 @@
       </c>
       <c r="U270" s="10"/>
       <c r="V270" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="271" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19259,10 +19259,10 @@
         <v>20</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D271" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E271" s="11">
         <v>2004</v>
@@ -19312,7 +19312,7 @@
       </c>
       <c r="U271" s="10"/>
       <c r="V271" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="272" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19323,10 +19323,10 @@
         <v>21</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D272" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E272" s="11">
         <v>2004</v>
@@ -19376,7 +19376,7 @@
       </c>
       <c r="U272" s="10"/>
       <c r="V272" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="273" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19387,10 +19387,10 @@
         <v>22</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E273" s="11">
         <v>2004</v>
@@ -19440,7 +19440,7 @@
       </c>
       <c r="U273" s="10"/>
       <c r="V273" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="274" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19451,10 +19451,10 @@
         <v>23</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D274" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E274" s="11">
         <v>2004</v>
@@ -19504,7 +19504,7 @@
       </c>
       <c r="U274" s="10"/>
       <c r="V274" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="275" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19515,10 +19515,10 @@
         <v>24</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D275" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E275" s="11">
         <v>2004</v>
@@ -19568,7 +19568,7 @@
       </c>
       <c r="U275" s="10"/>
       <c r="V275" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="276" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19579,10 +19579,10 @@
         <v>25</v>
       </c>
       <c r="C276" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D276" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E276" s="21">
         <v>2004</v>
@@ -19632,7 +19632,7 @@
       </c>
       <c r="U276" s="20"/>
       <c r="V276" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="W276" s="22"/>
     </row>
@@ -19644,10 +19644,10 @@
         <v>1</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D277" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E277" s="11">
         <v>2004</v>
@@ -19697,7 +19697,7 @@
       </c>
       <c r="U277" s="10"/>
       <c r="V277" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="278" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19708,7 +19708,7 @@
         <v>2</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D278" s="10" t="s">
         <v>47</v>
@@ -19761,7 +19761,7 @@
       </c>
       <c r="U278" s="10"/>
       <c r="V278" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="279" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19772,10 +19772,10 @@
         <v>3</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D279" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E279" s="11">
         <v>2004</v>
@@ -19825,7 +19825,7 @@
       </c>
       <c r="U279" s="10"/>
       <c r="V279" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="280" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19836,10 +19836,10 @@
         <v>4</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D280" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E280" s="11">
         <v>2004</v>
@@ -19889,7 +19889,7 @@
       </c>
       <c r="U280" s="10"/>
       <c r="V280" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="281" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19900,10 +19900,10 @@
         <v>5</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D281" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E281" s="11">
         <v>2004</v>
@@ -19953,7 +19953,7 @@
       </c>
       <c r="U281" s="10"/>
       <c r="V281" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="282" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19964,10 +19964,10 @@
         <v>6</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D282" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E282" s="11">
         <v>2004</v>
@@ -20017,7 +20017,7 @@
       </c>
       <c r="U282" s="10"/>
       <c r="V282" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="283" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20028,10 +20028,10 @@
         <v>7</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D283" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E283" s="11">
         <v>2004</v>
@@ -20081,7 +20081,7 @@
       </c>
       <c r="U283" s="10"/>
       <c r="V283" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="284" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20092,10 +20092,10 @@
         <v>8</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D284" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E284" s="11">
         <v>2004</v>
@@ -20145,7 +20145,7 @@
       </c>
       <c r="U284" s="10"/>
       <c r="V284" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="285" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20156,10 +20156,10 @@
         <v>9</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D285" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E285" s="11">
         <v>2004</v>
@@ -20209,7 +20209,7 @@
       </c>
       <c r="U285" s="10"/>
       <c r="V285" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="286" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20220,10 +20220,10 @@
         <v>10</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D286" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E286" s="11">
         <v>2004</v>
@@ -20273,7 +20273,7 @@
       </c>
       <c r="U286" s="10"/>
       <c r="V286" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="287" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20284,10 +20284,10 @@
         <v>11</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D287" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E287" s="11">
         <v>2004</v>
@@ -20337,7 +20337,7 @@
       </c>
       <c r="U287" s="10"/>
       <c r="V287" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="288" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20348,10 +20348,10 @@
         <v>12</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D288" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E288" s="11">
         <v>2004</v>
@@ -20401,7 +20401,7 @@
       </c>
       <c r="U288" s="10"/>
       <c r="V288" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="289" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20412,10 +20412,10 @@
         <v>13</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D289" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E289" s="11">
         <v>2004</v>
@@ -20465,7 +20465,7 @@
       </c>
       <c r="U289" s="10"/>
       <c r="V289" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="290" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20476,10 +20476,10 @@
         <v>14</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D290" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E290" s="11">
         <v>2004</v>
@@ -20529,7 +20529,7 @@
       </c>
       <c r="U290" s="10"/>
       <c r="V290" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="291" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20540,10 +20540,10 @@
         <v>15</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D291" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E291" s="11">
         <v>2004</v>
@@ -20593,7 +20593,7 @@
       </c>
       <c r="U291" s="10"/>
       <c r="V291" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="292" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20604,10 +20604,10 @@
         <v>16</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D292" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E292" s="11">
         <v>2004</v>
@@ -20657,7 +20657,7 @@
       </c>
       <c r="U292" s="10"/>
       <c r="V292" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="293" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20668,10 +20668,10 @@
         <v>17</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D293" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E293" s="11">
         <v>2004</v>
@@ -20721,7 +20721,7 @@
       </c>
       <c r="U293" s="10"/>
       <c r="V293" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="294" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20732,10 +20732,10 @@
         <v>18</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D294" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E294" s="11">
         <v>2004</v>
@@ -20785,7 +20785,7 @@
       </c>
       <c r="U294" s="10"/>
       <c r="V294" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="295" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20796,10 +20796,10 @@
         <v>19</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D295" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E295" s="11">
         <v>2004</v>
@@ -20849,7 +20849,7 @@
       </c>
       <c r="U295" s="10"/>
       <c r="V295" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="296" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20860,10 +20860,10 @@
         <v>20</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D296" s="10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E296" s="11">
         <v>2004</v>
@@ -20913,7 +20913,7 @@
       </c>
       <c r="U296" s="10"/>
       <c r="V296" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="297" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20924,10 +20924,10 @@
         <v>21</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D297" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E297" s="11">
         <v>2004</v>
@@ -20977,7 +20977,7 @@
       </c>
       <c r="U297" s="10"/>
       <c r="V297" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="298" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20988,10 +20988,10 @@
         <v>22</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D298" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E298" s="11">
         <v>2004</v>
@@ -21041,7 +21041,7 @@
       </c>
       <c r="U298" s="10"/>
       <c r="V298" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="299" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21052,10 +21052,10 @@
         <v>23</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D299" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E299" s="11">
         <v>2004</v>
@@ -21105,7 +21105,7 @@
       </c>
       <c r="U299" s="10"/>
       <c r="V299" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="300" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21116,10 +21116,10 @@
         <v>24</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D300" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E300" s="11">
         <v>2004</v>
@@ -21169,7 +21169,7 @@
       </c>
       <c r="U300" s="10"/>
       <c r="V300" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="301" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21180,10 +21180,10 @@
         <v>25</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D301" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E301" s="11">
         <v>2004</v>
@@ -21233,7 +21233,7 @@
       </c>
       <c r="U301" s="10"/>
       <c r="V301" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="302" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21244,10 +21244,10 @@
         <v>1</v>
       </c>
       <c r="C302" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D302" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E302" s="15">
         <v>3000</v>
@@ -21297,7 +21297,7 @@
       </c>
       <c r="U302" s="14"/>
       <c r="V302" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="303" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21308,10 +21308,10 @@
         <v>2</v>
       </c>
       <c r="C303" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D303" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E303" s="15">
         <v>3000</v>
@@ -21361,7 +21361,7 @@
       </c>
       <c r="U303" s="14"/>
       <c r="V303" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="304" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21372,10 +21372,10 @@
         <v>3</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D304" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E304" s="15">
         <v>3000</v>
@@ -21425,7 +21425,7 @@
       </c>
       <c r="U304" s="14"/>
       <c r="V304" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="305" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21436,10 +21436,10 @@
         <v>4</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D305" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E305" s="15">
         <v>3000</v>
@@ -21489,7 +21489,7 @@
       </c>
       <c r="U305" s="14"/>
       <c r="V305" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="306" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21500,10 +21500,10 @@
         <v>5</v>
       </c>
       <c r="C306" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D306" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E306" s="15">
         <v>3000</v>
@@ -21553,7 +21553,7 @@
       </c>
       <c r="U306" s="14"/>
       <c r="V306" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="307" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21564,10 +21564,10 @@
         <v>6</v>
       </c>
       <c r="C307" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D307" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E307" s="15">
         <v>3000</v>
@@ -21617,7 +21617,7 @@
       </c>
       <c r="U307" s="14"/>
       <c r="V307" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="308" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21628,10 +21628,10 @@
         <v>7</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D308" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E308" s="15">
         <v>3000</v>
@@ -21681,7 +21681,7 @@
       </c>
       <c r="U308" s="14"/>
       <c r="V308" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="309" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21692,10 +21692,10 @@
         <v>8</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D309" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E309" s="15">
         <v>3000</v>
@@ -21745,7 +21745,7 @@
       </c>
       <c r="U309" s="14"/>
       <c r="V309" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="310" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21756,10 +21756,10 @@
         <v>9</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D310" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E310" s="15">
         <v>3000</v>
@@ -21809,7 +21809,7 @@
       </c>
       <c r="U310" s="14"/>
       <c r="V310" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="311" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21820,10 +21820,10 @@
         <v>10</v>
       </c>
       <c r="C311" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D311" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E311" s="15">
         <v>3000</v>
@@ -21873,7 +21873,7 @@
       </c>
       <c r="U311" s="14"/>
       <c r="V311" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="312" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21884,10 +21884,10 @@
         <v>11</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D312" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E312" s="15">
         <v>3000</v>
@@ -21937,7 +21937,7 @@
       </c>
       <c r="U312" s="14"/>
       <c r="V312" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="313" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21948,10 +21948,10 @@
         <v>12</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D313" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E313" s="15">
         <v>3000</v>
@@ -22001,7 +22001,7 @@
       </c>
       <c r="U313" s="14"/>
       <c r="V313" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="314" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22012,10 +22012,10 @@
         <v>13</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D314" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E314" s="15">
         <v>3000</v>
@@ -22065,7 +22065,7 @@
       </c>
       <c r="U314" s="14"/>
       <c r="V314" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="315" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22076,10 +22076,10 @@
         <v>14</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D315" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E315" s="15">
         <v>3000</v>
@@ -22129,7 +22129,7 @@
       </c>
       <c r="U315" s="14"/>
       <c r="V315" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="316" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22140,10 +22140,10 @@
         <v>15</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D316" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E316" s="15">
         <v>3000</v>
@@ -22193,7 +22193,7 @@
       </c>
       <c r="U316" s="14"/>
       <c r="V316" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="317" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22204,10 +22204,10 @@
         <v>16</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D317" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E317" s="15">
         <v>3000</v>
@@ -22257,7 +22257,7 @@
       </c>
       <c r="U317" s="14"/>
       <c r="V317" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="318" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22268,10 +22268,10 @@
         <v>17</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D318" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E318" s="15">
         <v>3000</v>
@@ -22321,7 +22321,7 @@
       </c>
       <c r="U318" s="14"/>
       <c r="V318" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="319" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22332,10 +22332,10 @@
         <v>18</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D319" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E319" s="15">
         <v>3000</v>
@@ -22385,7 +22385,7 @@
       </c>
       <c r="U319" s="14"/>
       <c r="V319" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="320" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22396,10 +22396,10 @@
         <v>19</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D320" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E320" s="15">
         <v>3000</v>
@@ -22449,7 +22449,7 @@
       </c>
       <c r="U320" s="14"/>
       <c r="V320" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="321" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22460,10 +22460,10 @@
         <v>20</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D321" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E321" s="15">
         <v>3000</v>
@@ -22513,7 +22513,7 @@
       </c>
       <c r="U321" s="14"/>
       <c r="V321" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="322" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22524,10 +22524,10 @@
         <v>21</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D322" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E322" s="15">
         <v>3000</v>
@@ -22577,7 +22577,7 @@
       </c>
       <c r="U322" s="14"/>
       <c r="V322" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="323" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22588,10 +22588,10 @@
         <v>22</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D323" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E323" s="15">
         <v>3000</v>
@@ -22641,7 +22641,7 @@
       </c>
       <c r="U323" s="14"/>
       <c r="V323" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="324" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22652,10 +22652,10 @@
         <v>23</v>
       </c>
       <c r="C324" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D324" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E324" s="15">
         <v>3000</v>
@@ -22705,7 +22705,7 @@
       </c>
       <c r="U324" s="14"/>
       <c r="V324" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="325" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22716,10 +22716,10 @@
         <v>24</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D325" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E325" s="15">
         <v>3000</v>
@@ -22769,7 +22769,7 @@
       </c>
       <c r="U325" s="14"/>
       <c r="V325" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="326" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22780,10 +22780,10 @@
         <v>25</v>
       </c>
       <c r="C326" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D326" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E326" s="26">
         <v>3000</v>
@@ -22833,7 +22833,7 @@
       </c>
       <c r="U326" s="25"/>
       <c r="V326" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="327" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22844,7 +22844,7 @@
         <v>1</v>
       </c>
       <c r="C327" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D327" s="14" t="s">
         <v>36</v>
@@ -22897,7 +22897,7 @@
       </c>
       <c r="U327" s="14"/>
       <c r="V327" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="328" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22908,7 +22908,7 @@
         <v>2</v>
       </c>
       <c r="C328" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D328" s="14" t="s">
         <v>37</v>
@@ -22961,7 +22961,7 @@
       </c>
       <c r="U328" s="14"/>
       <c r="V328" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="329" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22972,10 +22972,10 @@
         <v>3</v>
       </c>
       <c r="C329" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D329" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E329" s="15">
         <v>3001</v>
@@ -23025,7 +23025,7 @@
       </c>
       <c r="U329" s="14"/>
       <c r="V329" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="330" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23036,10 +23036,10 @@
         <v>4</v>
       </c>
       <c r="C330" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D330" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E330" s="15">
         <v>3001</v>
@@ -23089,7 +23089,7 @@
       </c>
       <c r="U330" s="14"/>
       <c r="V330" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="331" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23100,10 +23100,10 @@
         <v>5</v>
       </c>
       <c r="C331" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D331" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E331" s="15">
         <v>3001</v>
@@ -23153,7 +23153,7 @@
       </c>
       <c r="U331" s="14"/>
       <c r="V331" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="332" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23164,10 +23164,10 @@
         <v>6</v>
       </c>
       <c r="C332" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D332" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E332" s="15">
         <v>3001</v>
@@ -23217,7 +23217,7 @@
       </c>
       <c r="U332" s="14"/>
       <c r="V332" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="333" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23228,10 +23228,10 @@
         <v>7</v>
       </c>
       <c r="C333" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D333" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E333" s="15">
         <v>3001</v>
@@ -23281,7 +23281,7 @@
       </c>
       <c r="U333" s="14"/>
       <c r="V333" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="334" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23292,10 +23292,10 @@
         <v>8</v>
       </c>
       <c r="C334" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D334" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E334" s="15">
         <v>3001</v>
@@ -23345,7 +23345,7 @@
       </c>
       <c r="U334" s="14"/>
       <c r="V334" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="335" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23356,10 +23356,10 @@
         <v>9</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D335" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E335" s="15">
         <v>3001</v>
@@ -23409,7 +23409,7 @@
       </c>
       <c r="U335" s="14"/>
       <c r="V335" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="336" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23420,10 +23420,10 @@
         <v>10</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D336" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E336" s="15">
         <v>3001</v>
@@ -23473,7 +23473,7 @@
       </c>
       <c r="U336" s="14"/>
       <c r="V336" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="337" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23484,10 +23484,10 @@
         <v>11</v>
       </c>
       <c r="C337" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D337" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E337" s="15">
         <v>3001</v>
@@ -23537,7 +23537,7 @@
       </c>
       <c r="U337" s="14"/>
       <c r="V337" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="338" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23548,10 +23548,10 @@
         <v>12</v>
       </c>
       <c r="C338" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D338" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E338" s="15">
         <v>3001</v>
@@ -23601,7 +23601,7 @@
       </c>
       <c r="U338" s="14"/>
       <c r="V338" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="339" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23612,10 +23612,10 @@
         <v>13</v>
       </c>
       <c r="C339" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D339" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E339" s="15">
         <v>3001</v>
@@ -23665,7 +23665,7 @@
       </c>
       <c r="U339" s="14"/>
       <c r="V339" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="340" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23676,10 +23676,10 @@
         <v>14</v>
       </c>
       <c r="C340" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E340" s="15">
         <v>3001</v>
@@ -23729,7 +23729,7 @@
       </c>
       <c r="U340" s="14"/>
       <c r="V340" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="341" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23740,10 +23740,10 @@
         <v>15</v>
       </c>
       <c r="C341" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D341" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E341" s="15">
         <v>3001</v>
@@ -23793,7 +23793,7 @@
       </c>
       <c r="U341" s="14"/>
       <c r="V341" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="342" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23804,10 +23804,10 @@
         <v>16</v>
       </c>
       <c r="C342" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D342" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E342" s="15">
         <v>3001</v>
@@ -23857,7 +23857,7 @@
       </c>
       <c r="U342" s="14"/>
       <c r="V342" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="343" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23868,10 +23868,10 @@
         <v>17</v>
       </c>
       <c r="C343" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D343" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E343" s="15">
         <v>3001</v>
@@ -23921,7 +23921,7 @@
       </c>
       <c r="U343" s="14"/>
       <c r="V343" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="344" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23932,10 +23932,10 @@
         <v>18</v>
       </c>
       <c r="C344" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D344" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E344" s="15">
         <v>3001</v>
@@ -23985,7 +23985,7 @@
       </c>
       <c r="U344" s="14"/>
       <c r="V344" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="345" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23996,10 +23996,10 @@
         <v>19</v>
       </c>
       <c r="C345" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D345" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E345" s="15">
         <v>3001</v>
@@ -24049,7 +24049,7 @@
       </c>
       <c r="U345" s="14"/>
       <c r="V345" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="346" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24060,10 +24060,10 @@
         <v>20</v>
       </c>
       <c r="C346" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D346" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E346" s="15">
         <v>3001</v>
@@ -24113,7 +24113,7 @@
       </c>
       <c r="U346" s="14"/>
       <c r="V346" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="347" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24124,10 +24124,10 @@
         <v>21</v>
       </c>
       <c r="C347" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D347" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E347" s="15">
         <v>3001</v>
@@ -24177,7 +24177,7 @@
       </c>
       <c r="U347" s="14"/>
       <c r="V347" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="348" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24188,10 +24188,10 @@
         <v>22</v>
       </c>
       <c r="C348" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D348" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E348" s="15">
         <v>3001</v>
@@ -24241,7 +24241,7 @@
       </c>
       <c r="U348" s="14"/>
       <c r="V348" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="349" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24252,10 +24252,10 @@
         <v>23</v>
       </c>
       <c r="C349" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D349" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E349" s="15">
         <v>3001</v>
@@ -24305,7 +24305,7 @@
       </c>
       <c r="U349" s="14"/>
       <c r="V349" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="350" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24316,10 +24316,10 @@
         <v>24</v>
       </c>
       <c r="C350" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D350" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E350" s="15">
         <v>3001</v>
@@ -24369,7 +24369,7 @@
       </c>
       <c r="U350" s="14"/>
       <c r="V350" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="351" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24380,10 +24380,10 @@
         <v>25</v>
       </c>
       <c r="C351" s="23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D351" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E351" s="24">
         <v>3001</v>
@@ -24433,7 +24433,7 @@
       </c>
       <c r="U351" s="23"/>
       <c r="V351" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="352" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24444,7 +24444,7 @@
         <v>1</v>
       </c>
       <c r="C352" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D352" s="14" t="s">
         <v>38</v>
@@ -24497,7 +24497,7 @@
       </c>
       <c r="U352" s="14"/>
       <c r="V352" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="353" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24508,7 +24508,7 @@
         <v>2</v>
       </c>
       <c r="C353" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D353" s="14" t="s">
         <v>39</v>
@@ -24561,7 +24561,7 @@
       </c>
       <c r="U353" s="14"/>
       <c r="V353" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="354" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24572,10 +24572,10 @@
         <v>3</v>
       </c>
       <c r="C354" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D354" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E354" s="15">
         <v>3002</v>
@@ -24625,7 +24625,7 @@
       </c>
       <c r="U354" s="14"/>
       <c r="V354" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="355" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24636,10 +24636,10 @@
         <v>4</v>
       </c>
       <c r="C355" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D355" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E355" s="15">
         <v>3002</v>
@@ -24689,7 +24689,7 @@
       </c>
       <c r="U355" s="14"/>
       <c r="V355" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="356" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24700,10 +24700,10 @@
         <v>5</v>
       </c>
       <c r="C356" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D356" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E356" s="15">
         <v>3002</v>
@@ -24753,7 +24753,7 @@
       </c>
       <c r="U356" s="14"/>
       <c r="V356" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="357" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24764,10 +24764,10 @@
         <v>6</v>
       </c>
       <c r="C357" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D357" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E357" s="15">
         <v>3002</v>
@@ -24817,7 +24817,7 @@
       </c>
       <c r="U357" s="14"/>
       <c r="V357" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="358" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24828,10 +24828,10 @@
         <v>7</v>
       </c>
       <c r="C358" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D358" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E358" s="15">
         <v>3002</v>
@@ -24881,7 +24881,7 @@
       </c>
       <c r="U358" s="14"/>
       <c r="V358" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="359" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24892,10 +24892,10 @@
         <v>8</v>
       </c>
       <c r="C359" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D359" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E359" s="15">
         <v>3002</v>
@@ -24945,7 +24945,7 @@
       </c>
       <c r="U359" s="14"/>
       <c r="V359" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="360" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24956,10 +24956,10 @@
         <v>9</v>
       </c>
       <c r="C360" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D360" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E360" s="15">
         <v>3002</v>
@@ -25009,7 +25009,7 @@
       </c>
       <c r="U360" s="14"/>
       <c r="V360" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="361" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25020,10 +25020,10 @@
         <v>10</v>
       </c>
       <c r="C361" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D361" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E361" s="15">
         <v>3002</v>
@@ -25073,7 +25073,7 @@
       </c>
       <c r="U361" s="14"/>
       <c r="V361" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="362" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25084,10 +25084,10 @@
         <v>11</v>
       </c>
       <c r="C362" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D362" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E362" s="15">
         <v>3002</v>
@@ -25137,7 +25137,7 @@
       </c>
       <c r="U362" s="14"/>
       <c r="V362" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="363" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25148,10 +25148,10 @@
         <v>12</v>
       </c>
       <c r="C363" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D363" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E363" s="15">
         <v>3002</v>
@@ -25201,7 +25201,7 @@
       </c>
       <c r="U363" s="14"/>
       <c r="V363" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="364" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25212,10 +25212,10 @@
         <v>13</v>
       </c>
       <c r="C364" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D364" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E364" s="15">
         <v>3002</v>
@@ -25265,7 +25265,7 @@
       </c>
       <c r="U364" s="14"/>
       <c r="V364" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="365" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25276,10 +25276,10 @@
         <v>14</v>
       </c>
       <c r="C365" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D365" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E365" s="15">
         <v>3002</v>
@@ -25329,7 +25329,7 @@
       </c>
       <c r="U365" s="14"/>
       <c r="V365" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="366" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25340,10 +25340,10 @@
         <v>15</v>
       </c>
       <c r="C366" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D366" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E366" s="15">
         <v>3002</v>
@@ -25393,7 +25393,7 @@
       </c>
       <c r="U366" s="14"/>
       <c r="V366" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="367" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25404,10 +25404,10 @@
         <v>16</v>
       </c>
       <c r="C367" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D367" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E367" s="15">
         <v>3002</v>
@@ -25457,7 +25457,7 @@
       </c>
       <c r="U367" s="14"/>
       <c r="V367" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="368" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25468,10 +25468,10 @@
         <v>17</v>
       </c>
       <c r="C368" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D368" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E368" s="15">
         <v>3002</v>
@@ -25521,7 +25521,7 @@
       </c>
       <c r="U368" s="14"/>
       <c r="V368" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="369" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25532,10 +25532,10 @@
         <v>18</v>
       </c>
       <c r="C369" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D369" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E369" s="15">
         <v>3002</v>
@@ -25585,7 +25585,7 @@
       </c>
       <c r="U369" s="14"/>
       <c r="V369" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="370" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25596,10 +25596,10 @@
         <v>19</v>
       </c>
       <c r="C370" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D370" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E370" s="15">
         <v>3002</v>
@@ -25649,7 +25649,7 @@
       </c>
       <c r="U370" s="14"/>
       <c r="V370" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="371" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25660,10 +25660,10 @@
         <v>20</v>
       </c>
       <c r="C371" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D371" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E371" s="15">
         <v>3002</v>
@@ -25713,7 +25713,7 @@
       </c>
       <c r="U371" s="14"/>
       <c r="V371" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="372" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25724,10 +25724,10 @@
         <v>21</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D372" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E372" s="15">
         <v>3002</v>
@@ -25777,7 +25777,7 @@
       </c>
       <c r="U372" s="14"/>
       <c r="V372" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="373" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25788,10 +25788,10 @@
         <v>22</v>
       </c>
       <c r="C373" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D373" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E373" s="15">
         <v>3002</v>
@@ -25841,7 +25841,7 @@
       </c>
       <c r="U373" s="14"/>
       <c r="V373" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="374" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25852,10 +25852,10 @@
         <v>23</v>
       </c>
       <c r="C374" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D374" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E374" s="15">
         <v>3002</v>
@@ -25905,7 +25905,7 @@
       </c>
       <c r="U374" s="14"/>
       <c r="V374" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="375" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25916,10 +25916,10 @@
         <v>24</v>
       </c>
       <c r="C375" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D375" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E375" s="15">
         <v>3002</v>
@@ -25969,7 +25969,7 @@
       </c>
       <c r="U375" s="14"/>
       <c r="V375" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="376" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25980,10 +25980,10 @@
         <v>25</v>
       </c>
       <c r="C376" s="23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D376" s="23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E376" s="24">
         <v>3002</v>
@@ -26033,7 +26033,7 @@
       </c>
       <c r="U376" s="23"/>
       <c r="V376" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="377" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26044,7 +26044,7 @@
         <v>1</v>
       </c>
       <c r="C377" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D377" s="14" t="s">
         <v>48</v>
@@ -26097,7 +26097,7 @@
       </c>
       <c r="U377" s="14"/>
       <c r="V377" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="378" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26108,7 +26108,7 @@
         <v>2</v>
       </c>
       <c r="C378" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D378" s="14" t="s">
         <v>49</v>
@@ -26161,7 +26161,7 @@
       </c>
       <c r="U378" s="14"/>
       <c r="V378" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="379" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26172,10 +26172,10 @@
         <v>3</v>
       </c>
       <c r="C379" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D379" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E379" s="15">
         <v>3003</v>
@@ -26225,7 +26225,7 @@
       </c>
       <c r="U379" s="14"/>
       <c r="V379" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="380" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26236,10 +26236,10 @@
         <v>4</v>
       </c>
       <c r="C380" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D380" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E380" s="15">
         <v>3003</v>
@@ -26289,7 +26289,7 @@
       </c>
       <c r="U380" s="14"/>
       <c r="V380" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="381" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26300,10 +26300,10 @@
         <v>5</v>
       </c>
       <c r="C381" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D381" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E381" s="15">
         <v>3003</v>
@@ -26353,7 +26353,7 @@
       </c>
       <c r="U381" s="14"/>
       <c r="V381" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="382" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26364,10 +26364,10 @@
         <v>6</v>
       </c>
       <c r="C382" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D382" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E382" s="15">
         <v>3003</v>
@@ -26417,7 +26417,7 @@
       </c>
       <c r="U382" s="14"/>
       <c r="V382" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="383" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26428,10 +26428,10 @@
         <v>7</v>
       </c>
       <c r="C383" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D383" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E383" s="15">
         <v>3003</v>
@@ -26481,7 +26481,7 @@
       </c>
       <c r="U383" s="14"/>
       <c r="V383" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="384" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26492,10 +26492,10 @@
         <v>8</v>
       </c>
       <c r="C384" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D384" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E384" s="15">
         <v>3003</v>
@@ -26545,7 +26545,7 @@
       </c>
       <c r="U384" s="14"/>
       <c r="V384" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="385" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26556,10 +26556,10 @@
         <v>9</v>
       </c>
       <c r="C385" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D385" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E385" s="15">
         <v>3003</v>
@@ -26609,7 +26609,7 @@
       </c>
       <c r="U385" s="14"/>
       <c r="V385" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="386" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26620,10 +26620,10 @@
         <v>10</v>
       </c>
       <c r="C386" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D386" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E386" s="15">
         <v>3003</v>
@@ -26673,7 +26673,7 @@
       </c>
       <c r="U386" s="14"/>
       <c r="V386" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="387" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26684,10 +26684,10 @@
         <v>11</v>
       </c>
       <c r="C387" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D387" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E387" s="15">
         <v>3003</v>
@@ -26737,7 +26737,7 @@
       </c>
       <c r="U387" s="14"/>
       <c r="V387" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="388" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26748,10 +26748,10 @@
         <v>12</v>
       </c>
       <c r="C388" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D388" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E388" s="15">
         <v>3003</v>
@@ -26801,7 +26801,7 @@
       </c>
       <c r="U388" s="14"/>
       <c r="V388" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="389" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26812,10 +26812,10 @@
         <v>13</v>
       </c>
       <c r="C389" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D389" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E389" s="15">
         <v>3003</v>
@@ -26865,7 +26865,7 @@
       </c>
       <c r="U389" s="14"/>
       <c r="V389" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="390" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26876,10 +26876,10 @@
         <v>14</v>
       </c>
       <c r="C390" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D390" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E390" s="15">
         <v>3003</v>
@@ -26929,7 +26929,7 @@
       </c>
       <c r="U390" s="14"/>
       <c r="V390" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="391" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26940,10 +26940,10 @@
         <v>15</v>
       </c>
       <c r="C391" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D391" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E391" s="15">
         <v>3003</v>
@@ -26993,7 +26993,7 @@
       </c>
       <c r="U391" s="14"/>
       <c r="V391" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="392" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27004,10 +27004,10 @@
         <v>16</v>
       </c>
       <c r="C392" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D392" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E392" s="15">
         <v>3003</v>
@@ -27057,7 +27057,7 @@
       </c>
       <c r="U392" s="14"/>
       <c r="V392" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="393" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27068,10 +27068,10 @@
         <v>17</v>
       </c>
       <c r="C393" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D393" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E393" s="15">
         <v>3003</v>
@@ -27121,7 +27121,7 @@
       </c>
       <c r="U393" s="14"/>
       <c r="V393" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="394" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27132,10 +27132,10 @@
         <v>18</v>
       </c>
       <c r="C394" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D394" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E394" s="15">
         <v>3003</v>
@@ -27185,7 +27185,7 @@
       </c>
       <c r="U394" s="14"/>
       <c r="V394" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="395" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27196,10 +27196,10 @@
         <v>19</v>
       </c>
       <c r="C395" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D395" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E395" s="15">
         <v>3003</v>
@@ -27249,7 +27249,7 @@
       </c>
       <c r="U395" s="14"/>
       <c r="V395" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="396" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27260,10 +27260,10 @@
         <v>20</v>
       </c>
       <c r="C396" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D396" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E396" s="15">
         <v>3003</v>
@@ -27313,7 +27313,7 @@
       </c>
       <c r="U396" s="14"/>
       <c r="V396" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="397" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27324,10 +27324,10 @@
         <v>21</v>
       </c>
       <c r="C397" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D397" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E397" s="15">
         <v>3003</v>
@@ -27377,7 +27377,7 @@
       </c>
       <c r="U397" s="14"/>
       <c r="V397" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="398" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27388,10 +27388,10 @@
         <v>22</v>
       </c>
       <c r="C398" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D398" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E398" s="15">
         <v>3003</v>
@@ -27441,7 +27441,7 @@
       </c>
       <c r="U398" s="14"/>
       <c r="V398" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="399" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27452,10 +27452,10 @@
         <v>23</v>
       </c>
       <c r="C399" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D399" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E399" s="15">
         <v>3003</v>
@@ -27505,7 +27505,7 @@
       </c>
       <c r="U399" s="14"/>
       <c r="V399" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="400" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27516,10 +27516,10 @@
         <v>24</v>
       </c>
       <c r="C400" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D400" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E400" s="15">
         <v>3003</v>
@@ -27569,7 +27569,7 @@
       </c>
       <c r="U400" s="14"/>
       <c r="V400" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="401" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27580,10 +27580,10 @@
         <v>25</v>
       </c>
       <c r="C401" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D401" s="23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E401" s="24">
         <v>3003</v>
@@ -27633,7 +27633,7 @@
       </c>
       <c r="U401" s="23"/>
       <c r="V401" s="23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="402" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27644,7 +27644,7 @@
         <v>1</v>
       </c>
       <c r="C402" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D402" s="14" t="s">
         <v>50</v>
@@ -27697,7 +27697,7 @@
       </c>
       <c r="U402" s="14"/>
       <c r="V402" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="403" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27708,7 +27708,7 @@
         <v>2</v>
       </c>
       <c r="C403" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D403" s="14" t="s">
         <v>51</v>
@@ -27761,7 +27761,7 @@
       </c>
       <c r="U403" s="14"/>
       <c r="V403" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="404" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27772,10 +27772,10 @@
         <v>3</v>
       </c>
       <c r="C404" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D404" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E404" s="15">
         <v>3004</v>
@@ -27825,7 +27825,7 @@
       </c>
       <c r="U404" s="14"/>
       <c r="V404" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="405" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27836,10 +27836,10 @@
         <v>4</v>
       </c>
       <c r="C405" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D405" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E405" s="15">
         <v>3004</v>
@@ -27889,7 +27889,7 @@
       </c>
       <c r="U405" s="14"/>
       <c r="V405" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="406" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27900,10 +27900,10 @@
         <v>5</v>
       </c>
       <c r="C406" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D406" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E406" s="15">
         <v>3004</v>
@@ -27953,7 +27953,7 @@
       </c>
       <c r="U406" s="14"/>
       <c r="V406" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="407" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27964,10 +27964,10 @@
         <v>6</v>
       </c>
       <c r="C407" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D407" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E407" s="15">
         <v>3004</v>
@@ -28017,7 +28017,7 @@
       </c>
       <c r="U407" s="14"/>
       <c r="V407" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="408" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28028,10 +28028,10 @@
         <v>7</v>
       </c>
       <c r="C408" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D408" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E408" s="15">
         <v>3004</v>
@@ -28081,7 +28081,7 @@
       </c>
       <c r="U408" s="14"/>
       <c r="V408" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="409" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28092,10 +28092,10 @@
         <v>8</v>
       </c>
       <c r="C409" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D409" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E409" s="15">
         <v>3004</v>
@@ -28145,7 +28145,7 @@
       </c>
       <c r="U409" s="14"/>
       <c r="V409" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="410" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28156,10 +28156,10 @@
         <v>9</v>
       </c>
       <c r="C410" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D410" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E410" s="15">
         <v>3004</v>
@@ -28209,7 +28209,7 @@
       </c>
       <c r="U410" s="14"/>
       <c r="V410" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="411" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28220,10 +28220,10 @@
         <v>10</v>
       </c>
       <c r="C411" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D411" s="14" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E411" s="15">
         <v>3004</v>
@@ -28273,7 +28273,7 @@
       </c>
       <c r="U411" s="14"/>
       <c r="V411" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="412" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28284,10 +28284,10 @@
         <v>11</v>
       </c>
       <c r="C412" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D412" s="14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E412" s="15">
         <v>3004</v>
@@ -28337,7 +28337,7 @@
       </c>
       <c r="U412" s="14"/>
       <c r="V412" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="413" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28348,10 +28348,10 @@
         <v>12</v>
       </c>
       <c r="C413" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D413" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E413" s="15">
         <v>3004</v>
@@ -28401,7 +28401,7 @@
       </c>
       <c r="U413" s="14"/>
       <c r="V413" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="414" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28412,10 +28412,10 @@
         <v>13</v>
       </c>
       <c r="C414" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D414" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E414" s="15">
         <v>3004</v>
@@ -28465,7 +28465,7 @@
       </c>
       <c r="U414" s="14"/>
       <c r="V414" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="415" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28476,10 +28476,10 @@
         <v>14</v>
       </c>
       <c r="C415" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D415" s="14" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E415" s="15">
         <v>3004</v>
@@ -28529,7 +28529,7 @@
       </c>
       <c r="U415" s="14"/>
       <c r="V415" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="416" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28540,10 +28540,10 @@
         <v>15</v>
       </c>
       <c r="C416" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D416" s="14" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E416" s="15">
         <v>3004</v>
@@ -28593,7 +28593,7 @@
       </c>
       <c r="U416" s="14"/>
       <c r="V416" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="417" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28604,10 +28604,10 @@
         <v>16</v>
       </c>
       <c r="C417" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D417" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E417" s="15">
         <v>3004</v>
@@ -28657,7 +28657,7 @@
       </c>
       <c r="U417" s="14"/>
       <c r="V417" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="418" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28668,10 +28668,10 @@
         <v>17</v>
       </c>
       <c r="C418" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D418" s="14" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E418" s="15">
         <v>3004</v>
@@ -28721,7 +28721,7 @@
       </c>
       <c r="U418" s="14"/>
       <c r="V418" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="419" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28732,10 +28732,10 @@
         <v>18</v>
       </c>
       <c r="C419" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D419" s="14" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E419" s="15">
         <v>3004</v>
@@ -28785,7 +28785,7 @@
       </c>
       <c r="U419" s="14"/>
       <c r="V419" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="420" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28796,10 +28796,10 @@
         <v>19</v>
       </c>
       <c r="C420" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D420" s="14" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E420" s="15">
         <v>3004</v>
@@ -28849,7 +28849,7 @@
       </c>
       <c r="U420" s="14"/>
       <c r="V420" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="421" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28860,10 +28860,10 @@
         <v>20</v>
       </c>
       <c r="C421" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D421" s="14" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E421" s="15">
         <v>3004</v>
@@ -28913,7 +28913,7 @@
       </c>
       <c r="U421" s="14"/>
       <c r="V421" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="422" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28924,10 +28924,10 @@
         <v>21</v>
       </c>
       <c r="C422" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D422" s="14" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E422" s="15">
         <v>3004</v>
@@ -28977,7 +28977,7 @@
       </c>
       <c r="U422" s="14"/>
       <c r="V422" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="423" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28988,10 +28988,10 @@
         <v>22</v>
       </c>
       <c r="C423" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D423" s="14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E423" s="15">
         <v>3004</v>
@@ -29041,7 +29041,7 @@
       </c>
       <c r="U423" s="14"/>
       <c r="V423" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="424" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29052,10 +29052,10 @@
         <v>23</v>
       </c>
       <c r="C424" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D424" s="14" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E424" s="15">
         <v>3004</v>
@@ -29105,7 +29105,7 @@
       </c>
       <c r="U424" s="14"/>
       <c r="V424" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="425" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29116,10 +29116,10 @@
         <v>24</v>
       </c>
       <c r="C425" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D425" s="14" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E425" s="15">
         <v>3004</v>
@@ -29169,7 +29169,7 @@
       </c>
       <c r="U425" s="14"/>
       <c r="V425" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="426" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29180,10 +29180,10 @@
         <v>25</v>
       </c>
       <c r="C426" s="23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D426" s="23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E426" s="24">
         <v>3004</v>
@@ -29233,7 +29233,7 @@
       </c>
       <c r="U426" s="23"/>
       <c r="V426" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="427" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29244,10 +29244,10 @@
         <v>1</v>
       </c>
       <c r="C427" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D427" s="14" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E427" s="15">
         <v>3004</v>
@@ -29297,7 +29297,7 @@
       </c>
       <c r="U427" s="14"/>
       <c r="V427" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="428" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29308,7 +29308,7 @@
         <v>2</v>
       </c>
       <c r="C428" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D428" s="14" t="s">
         <v>52</v>
@@ -29361,7 +29361,7 @@
       </c>
       <c r="U428" s="14"/>
       <c r="V428" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="429" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29372,10 +29372,10 @@
         <v>3</v>
       </c>
       <c r="C429" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D429" s="14" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E429" s="15">
         <v>3004</v>
@@ -29425,7 +29425,7 @@
       </c>
       <c r="U429" s="14"/>
       <c r="V429" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="430" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29436,10 +29436,10 @@
         <v>4</v>
       </c>
       <c r="C430" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D430" s="14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E430" s="15">
         <v>3004</v>
@@ -29489,7 +29489,7 @@
       </c>
       <c r="U430" s="14"/>
       <c r="V430" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="431" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29500,10 +29500,10 @@
         <v>5</v>
       </c>
       <c r="C431" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D431" s="14" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E431" s="15">
         <v>3004</v>
@@ -29553,7 +29553,7 @@
       </c>
       <c r="U431" s="14"/>
       <c r="V431" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="432" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29564,10 +29564,10 @@
         <v>6</v>
       </c>
       <c r="C432" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D432" s="14" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E432" s="15">
         <v>3004</v>
@@ -29617,7 +29617,7 @@
       </c>
       <c r="U432" s="14"/>
       <c r="V432" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="433" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29628,10 +29628,10 @@
         <v>7</v>
       </c>
       <c r="C433" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D433" s="14" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E433" s="15">
         <v>3004</v>
@@ -29681,7 +29681,7 @@
       </c>
       <c r="U433" s="14"/>
       <c r="V433" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="434" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29692,10 +29692,10 @@
         <v>8</v>
       </c>
       <c r="C434" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D434" s="14" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E434" s="15">
         <v>3004</v>
@@ -29745,7 +29745,7 @@
       </c>
       <c r="U434" s="14"/>
       <c r="V434" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="435" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29756,10 +29756,10 @@
         <v>9</v>
       </c>
       <c r="C435" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D435" s="14" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E435" s="15">
         <v>3004</v>
@@ -29809,7 +29809,7 @@
       </c>
       <c r="U435" s="14"/>
       <c r="V435" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="436" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29820,10 +29820,10 @@
         <v>10</v>
       </c>
       <c r="C436" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D436" s="14" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E436" s="15">
         <v>3004</v>
@@ -29873,7 +29873,7 @@
       </c>
       <c r="U436" s="14"/>
       <c r="V436" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="437" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29884,10 +29884,10 @@
         <v>11</v>
       </c>
       <c r="C437" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D437" s="14" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E437" s="15">
         <v>3004</v>
@@ -29937,7 +29937,7 @@
       </c>
       <c r="U437" s="14"/>
       <c r="V437" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="438" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29948,10 +29948,10 @@
         <v>12</v>
       </c>
       <c r="C438" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D438" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E438" s="15">
         <v>3004</v>
@@ -30001,7 +30001,7 @@
       </c>
       <c r="U438" s="14"/>
       <c r="V438" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="439" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30012,10 +30012,10 @@
         <v>13</v>
       </c>
       <c r="C439" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D439" s="14" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E439" s="15">
         <v>3004</v>
@@ -30065,7 +30065,7 @@
       </c>
       <c r="U439" s="14"/>
       <c r="V439" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="440" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30076,10 +30076,10 @@
         <v>14</v>
       </c>
       <c r="C440" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D440" s="14" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E440" s="15">
         <v>3004</v>
@@ -30129,7 +30129,7 @@
       </c>
       <c r="U440" s="14"/>
       <c r="V440" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="441" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30140,10 +30140,10 @@
         <v>15</v>
       </c>
       <c r="C441" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D441" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E441" s="15">
         <v>3004</v>
@@ -30193,7 +30193,7 @@
       </c>
       <c r="U441" s="14"/>
       <c r="V441" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="442" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30204,10 +30204,10 @@
         <v>16</v>
       </c>
       <c r="C442" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D442" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E442" s="15">
         <v>3004</v>
@@ -30257,7 +30257,7 @@
       </c>
       <c r="U442" s="14"/>
       <c r="V442" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="443" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30268,10 +30268,10 @@
         <v>17</v>
       </c>
       <c r="C443" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D443" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E443" s="15">
         <v>3004</v>
@@ -30321,7 +30321,7 @@
       </c>
       <c r="U443" s="14"/>
       <c r="V443" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="444" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30332,10 +30332,10 @@
         <v>18</v>
       </c>
       <c r="C444" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D444" s="14" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E444" s="15">
         <v>3004</v>
@@ -30385,7 +30385,7 @@
       </c>
       <c r="U444" s="14"/>
       <c r="V444" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="445" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30396,10 +30396,10 @@
         <v>19</v>
       </c>
       <c r="C445" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D445" s="14" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E445" s="15">
         <v>3004</v>
@@ -30449,7 +30449,7 @@
       </c>
       <c r="U445" s="14"/>
       <c r="V445" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="446" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30460,10 +30460,10 @@
         <v>20</v>
       </c>
       <c r="C446" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D446" s="14" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E446" s="15">
         <v>3004</v>
@@ -30513,7 +30513,7 @@
       </c>
       <c r="U446" s="14"/>
       <c r="V446" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="447" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30524,10 +30524,10 @@
         <v>21</v>
       </c>
       <c r="C447" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D447" s="14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E447" s="15">
         <v>3004</v>
@@ -30577,7 +30577,7 @@
       </c>
       <c r="U447" s="14"/>
       <c r="V447" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="448" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30588,10 +30588,10 @@
         <v>22</v>
       </c>
       <c r="C448" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D448" s="14" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E448" s="15">
         <v>3004</v>
@@ -30641,7 +30641,7 @@
       </c>
       <c r="U448" s="14"/>
       <c r="V448" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="449" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30652,10 +30652,10 @@
         <v>23</v>
       </c>
       <c r="C449" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D449" s="14" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E449" s="15">
         <v>3004</v>
@@ -30705,7 +30705,7 @@
       </c>
       <c r="U449" s="14"/>
       <c r="V449" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="450" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30716,10 +30716,10 @@
         <v>24</v>
       </c>
       <c r="C450" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D450" s="14" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E450" s="15">
         <v>3004</v>
@@ -30769,7 +30769,7 @@
       </c>
       <c r="U450" s="14"/>
       <c r="V450" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="451" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30780,10 +30780,10 @@
         <v>25</v>
       </c>
       <c r="C451" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D451" s="14" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E451" s="15">
         <v>3004</v>
@@ -30833,7 +30833,7 @@
       </c>
       <c r="U451" s="14"/>
       <c r="V451" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2355" yWindow="4140" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="469">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1485,6 +1485,30 @@
   </si>
   <si>
     <t>技能伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物大招2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物的第2个技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物的第1个技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1542,7 +1566,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1564,6 +1588,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1598,7 +1628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1634,6 +1664,8 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1652,7 +1684,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1694,7 +1726,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1729,7 +1761,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1938,18 +1970,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W451"/>
+  <dimension ref="A1:W453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D428" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="V455" sqref="V455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
@@ -30834,6 +30866,134 @@
       <c r="U451" s="14"/>
       <c r="V451" s="14" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="452" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A452" s="27">
+        <v>10000</v>
+      </c>
+      <c r="B452" s="27">
+        <v>0</v>
+      </c>
+      <c r="C452" s="27" t="s">
+        <v>463</v>
+      </c>
+      <c r="D452" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="E452" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F452" s="27">
+        <v>1</v>
+      </c>
+      <c r="G452" s="27">
+        <v>0</v>
+      </c>
+      <c r="H452" s="27">
+        <v>260</v>
+      </c>
+      <c r="I452" s="27">
+        <v>260</v>
+      </c>
+      <c r="J452" s="27">
+        <v>2</v>
+      </c>
+      <c r="K452" s="27">
+        <v>3</v>
+      </c>
+      <c r="L452" s="27">
+        <v>1</v>
+      </c>
+      <c r="M452" s="27">
+        <v>1</v>
+      </c>
+      <c r="N452" s="27">
+        <v>0</v>
+      </c>
+      <c r="O452" s="27"/>
+      <c r="P452" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q452" s="27">
+        <v>0</v>
+      </c>
+      <c r="R452" s="27">
+        <v>1</v>
+      </c>
+      <c r="S452" s="27">
+        <v>0</v>
+      </c>
+      <c r="T452" s="27">
+        <v>1</v>
+      </c>
+      <c r="U452" s="27"/>
+      <c r="V452" s="27" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="453" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A453" s="27">
+        <v>10001</v>
+      </c>
+      <c r="B453" s="27">
+        <v>0</v>
+      </c>
+      <c r="C453" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="D453" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="E453" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F453" s="27">
+        <v>1</v>
+      </c>
+      <c r="G453" s="27">
+        <v>0</v>
+      </c>
+      <c r="H453" s="27">
+        <v>260</v>
+      </c>
+      <c r="I453" s="27">
+        <v>260</v>
+      </c>
+      <c r="J453" s="27">
+        <v>2</v>
+      </c>
+      <c r="K453" s="27">
+        <v>3</v>
+      </c>
+      <c r="L453" s="27">
+        <v>1</v>
+      </c>
+      <c r="M453" s="27">
+        <v>1</v>
+      </c>
+      <c r="N453" s="27">
+        <v>0</v>
+      </c>
+      <c r="O453" s="27"/>
+      <c r="P453" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q453" s="27">
+        <v>0</v>
+      </c>
+      <c r="R453" s="27">
+        <v>1</v>
+      </c>
+      <c r="S453" s="27">
+        <v>0</v>
+      </c>
+      <c r="T453" s="27">
+        <v>1</v>
+      </c>
+      <c r="U453" s="27"/>
+      <c r="V453" s="27" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -1976,7 +1976,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D428" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V455" sqref="V455"/>
+      <selection pane="bottomRight" activeCell="S452" sqref="S452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30922,7 +30922,7 @@
         <v>1</v>
       </c>
       <c r="S452" s="27">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T452" s="27">
         <v>1</v>
@@ -30986,7 +30986,7 @@
         <v>1</v>
       </c>
       <c r="S453" s="27">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="T453" s="27">
         <v>1</v>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -1566,7 +1566,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1594,6 +1594,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1628,7 +1634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1666,6 +1672,7 @@
     <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1976,7 +1983,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D428" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S452" sqref="S452"/>
+      <selection pane="bottomRight" activeCell="L434" sqref="L434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2015,16 +2022,16 @@
       <c r="F1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="K1" s="7" t="s">

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2355" yWindow="4140" windowWidth="14805" windowHeight="8010"/>
@@ -1691,7 +1691,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1733,7 +1733,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1768,7 +1768,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1980,10 +1980,10 @@
   <dimension ref="A1:W453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D428" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D437" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L434" sqref="L434"/>
+      <selection pane="bottomRight" activeCell="G448" sqref="G448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -30880,7 +30880,7 @@
         <v>10000</v>
       </c>
       <c r="B452" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C452" s="27" t="s">
         <v>463</v>
@@ -30944,7 +30944,7 @@
         <v>10001</v>
       </c>
       <c r="B453" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C453" s="27" t="s">
         <v>465</v>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -239,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物理伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>战士默认技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1480,10 +1476,6 @@
     <t>学习消耗</t>
   </si>
   <si>
-    <t>魔法伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1509,6 +1501,14 @@
   </si>
   <si>
     <t>skill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1983,7 +1983,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D437" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G448" sqref="G448"/>
+      <selection pane="bottomRight" activeCell="J451" sqref="J451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2023,13 +2023,13 @@
         <v>54</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>59</v>
+        <v>468</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="J1" s="29" t="s">
         <v>58</v>
@@ -2044,7 +2044,7 @@
         <v>7</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>9</v>
@@ -2079,10 +2079,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E2" s="17">
         <v>1000</v>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="U2" s="16"/>
       <c r="V2" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2143,10 +2143,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="17">
         <v>1000</v>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="U3" s="16"/>
       <c r="V3" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2207,10 +2207,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="17">
         <v>1000</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="U4" s="16"/>
       <c r="V4" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2271,10 +2271,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" s="17">
         <v>1000</v>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="U5" s="16"/>
       <c r="V5" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2335,10 +2335,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E6" s="17">
         <v>1000</v>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="U6" s="16"/>
       <c r="V6" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2399,10 +2399,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="17">
         <v>1000</v>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="U7" s="16"/>
       <c r="V7" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2463,10 +2463,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E8" s="17">
         <v>1000</v>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="U8" s="16"/>
       <c r="V8" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2527,10 +2527,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="17">
         <v>1000</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="U9" s="16"/>
       <c r="V9" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2591,10 +2591,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="17">
         <v>1000</v>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="U10" s="16"/>
       <c r="V10" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2655,10 +2655,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="17">
         <v>1000</v>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="U11" s="16"/>
       <c r="V11" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2719,10 +2719,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="17">
         <v>1000</v>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="U12" s="16"/>
       <c r="V12" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2783,10 +2783,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="17">
         <v>1000</v>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="U13" s="16"/>
       <c r="V13" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2847,10 +2847,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="17">
         <v>1000</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="U14" s="16"/>
       <c r="V14" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2911,10 +2911,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="17">
         <v>1000</v>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="U15" s="16"/>
       <c r="V15" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2975,10 +2975,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="17">
         <v>1000</v>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="U16" s="16"/>
       <c r="V16" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3039,10 +3039,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" s="17">
         <v>1000</v>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="U17" s="16"/>
       <c r="V17" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3103,10 +3103,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="17">
         <v>1000</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="U18" s="16"/>
       <c r="V18" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3167,10 +3167,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E19" s="17">
         <v>1000</v>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="U19" s="16"/>
       <c r="V19" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3231,10 +3231,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" s="17">
         <v>1000</v>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="U20" s="16"/>
       <c r="V20" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3295,10 +3295,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="17">
         <v>1000</v>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="U21" s="16"/>
       <c r="V21" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3359,10 +3359,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="17">
         <v>1000</v>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="U22" s="16"/>
       <c r="V22" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3423,10 +3423,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="17">
         <v>1000</v>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="U23" s="16"/>
       <c r="V23" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3487,10 +3487,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="17">
         <v>1000</v>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="U24" s="16"/>
       <c r="V24" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3551,10 +3551,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="17">
         <v>1000</v>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="U25" s="16"/>
       <c r="V25" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3615,10 +3615,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="19">
         <v>1000</v>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="U26" s="18"/>
       <c r="V26" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3679,10 +3679,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E27" s="13">
         <v>1001</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="U27" s="12"/>
       <c r="V27" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3743,10 +3743,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="13">
         <v>1001</v>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="U28" s="12"/>
       <c r="V28" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3807,10 +3807,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E29" s="13">
         <v>1001</v>
@@ -3860,7 +3860,7 @@
       </c>
       <c r="U29" s="12"/>
       <c r="V29" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3871,10 +3871,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E30" s="13">
         <v>1001</v>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="U30" s="12"/>
       <c r="V30" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3935,10 +3935,10 @@
         <v>5</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E31" s="13">
         <v>1001</v>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="U31" s="12"/>
       <c r="V31" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3999,10 +3999,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E32" s="13">
         <v>1001</v>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="U32" s="12"/>
       <c r="V32" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4063,10 +4063,10 @@
         <v>7</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E33" s="13">
         <v>1001</v>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="U33" s="12"/>
       <c r="V33" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4127,10 +4127,10 @@
         <v>8</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E34" s="13">
         <v>1001</v>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="U34" s="12"/>
       <c r="V34" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4191,10 +4191,10 @@
         <v>9</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E35" s="13">
         <v>1001</v>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="U35" s="12"/>
       <c r="V35" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4255,10 +4255,10 @@
         <v>10</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E36" s="13">
         <v>1001</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="U36" s="12"/>
       <c r="V36" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4319,10 +4319,10 @@
         <v>11</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E37" s="13">
         <v>1001</v>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="U37" s="12"/>
       <c r="V37" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4383,10 +4383,10 @@
         <v>12</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E38" s="13">
         <v>1001</v>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="U38" s="12"/>
       <c r="V38" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4447,10 +4447,10 @@
         <v>13</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E39" s="13">
         <v>1001</v>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="U39" s="12"/>
       <c r="V39" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4511,10 +4511,10 @@
         <v>14</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E40" s="13">
         <v>1001</v>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="U40" s="12"/>
       <c r="V40" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4575,10 +4575,10 @@
         <v>15</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E41" s="13">
         <v>1001</v>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="U41" s="12"/>
       <c r="V41" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4639,10 +4639,10 @@
         <v>16</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E42" s="13">
         <v>1001</v>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="U42" s="12"/>
       <c r="V42" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4703,10 +4703,10 @@
         <v>17</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E43" s="13">
         <v>1001</v>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="U43" s="12"/>
       <c r="V43" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4767,10 +4767,10 @@
         <v>18</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E44" s="13">
         <v>1001</v>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="U44" s="12"/>
       <c r="V44" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4831,10 +4831,10 @@
         <v>19</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E45" s="13">
         <v>1001</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="U45" s="12"/>
       <c r="V45" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4895,10 +4895,10 @@
         <v>20</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E46" s="13">
         <v>1001</v>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="U46" s="12"/>
       <c r="V46" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4959,10 +4959,10 @@
         <v>21</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E47" s="13">
         <v>1001</v>
@@ -5012,7 +5012,7 @@
       </c>
       <c r="U47" s="12"/>
       <c r="V47" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5023,10 +5023,10 @@
         <v>22</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E48" s="13">
         <v>1001</v>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="U48" s="12"/>
       <c r="V48" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5087,10 +5087,10 @@
         <v>23</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E49" s="13">
         <v>1001</v>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="U49" s="12"/>
       <c r="V49" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5151,10 +5151,10 @@
         <v>24</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E50" s="13">
         <v>1001</v>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="U50" s="12"/>
       <c r="V50" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5215,10 +5215,10 @@
         <v>25</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E51" s="19">
         <v>1001</v>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="U51" s="18"/>
       <c r="V51" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>16</v>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="U52" s="12"/>
       <c r="V52" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5343,10 +5343,10 @@
         <v>2</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E53" s="13">
         <v>1002</v>
@@ -5396,7 +5396,7 @@
       </c>
       <c r="U53" s="12"/>
       <c r="V53" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5407,10 +5407,10 @@
         <v>3</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E54" s="13">
         <v>1002</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="U54" s="12"/>
       <c r="V54" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5471,10 +5471,10 @@
         <v>4</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E55" s="13">
         <v>1002</v>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="U55" s="12"/>
       <c r="V55" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5535,10 +5535,10 @@
         <v>5</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E56" s="13">
         <v>1002</v>
@@ -5588,7 +5588,7 @@
       </c>
       <c r="U56" s="12"/>
       <c r="V56" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5599,10 +5599,10 @@
         <v>6</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E57" s="13">
         <v>1002</v>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="U57" s="12"/>
       <c r="V57" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5663,10 +5663,10 @@
         <v>7</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E58" s="13">
         <v>1002</v>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="U58" s="12"/>
       <c r="V58" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5727,10 +5727,10 @@
         <v>8</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E59" s="13">
         <v>1002</v>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="U59" s="12"/>
       <c r="V59" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5791,10 +5791,10 @@
         <v>9</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E60" s="13">
         <v>1002</v>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="U60" s="12"/>
       <c r="V60" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5855,10 +5855,10 @@
         <v>10</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E61" s="13">
         <v>1002</v>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="U61" s="12"/>
       <c r="V61" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5919,10 +5919,10 @@
         <v>11</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E62" s="13">
         <v>1002</v>
@@ -5972,7 +5972,7 @@
       </c>
       <c r="U62" s="12"/>
       <c r="V62" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5983,10 +5983,10 @@
         <v>12</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E63" s="13">
         <v>1002</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="U63" s="12"/>
       <c r="V63" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6047,10 +6047,10 @@
         <v>13</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E64" s="13">
         <v>1002</v>
@@ -6100,7 +6100,7 @@
       </c>
       <c r="U64" s="12"/>
       <c r="V64" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6111,10 +6111,10 @@
         <v>14</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E65" s="13">
         <v>1002</v>
@@ -6164,7 +6164,7 @@
       </c>
       <c r="U65" s="12"/>
       <c r="V65" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6175,10 +6175,10 @@
         <v>15</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E66" s="13">
         <v>1002</v>
@@ -6228,7 +6228,7 @@
       </c>
       <c r="U66" s="12"/>
       <c r="V66" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6239,10 +6239,10 @@
         <v>16</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E67" s="13">
         <v>1002</v>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="U67" s="12"/>
       <c r="V67" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6303,10 +6303,10 @@
         <v>17</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E68" s="13">
         <v>1002</v>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="U68" s="12"/>
       <c r="V68" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6367,10 +6367,10 @@
         <v>18</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E69" s="13">
         <v>1002</v>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="U69" s="12"/>
       <c r="V69" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6431,10 +6431,10 @@
         <v>19</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E70" s="13">
         <v>1002</v>
@@ -6484,7 +6484,7 @@
       </c>
       <c r="U70" s="12"/>
       <c r="V70" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6495,10 +6495,10 @@
         <v>20</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E71" s="13">
         <v>1002</v>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="U71" s="12"/>
       <c r="V71" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6559,10 +6559,10 @@
         <v>21</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E72" s="13">
         <v>1002</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="U72" s="12"/>
       <c r="V72" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6623,10 +6623,10 @@
         <v>22</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E73" s="13">
         <v>1002</v>
@@ -6676,7 +6676,7 @@
       </c>
       <c r="U73" s="12"/>
       <c r="V73" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6687,10 +6687,10 @@
         <v>23</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E74" s="13">
         <v>1002</v>
@@ -6740,7 +6740,7 @@
       </c>
       <c r="U74" s="12"/>
       <c r="V74" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6751,10 +6751,10 @@
         <v>24</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E75" s="13">
         <v>1002</v>
@@ -6804,7 +6804,7 @@
       </c>
       <c r="U75" s="12"/>
       <c r="V75" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6815,10 +6815,10 @@
         <v>25</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E76" s="19">
         <v>1002</v>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="U76" s="18"/>
       <c r="V76" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6879,10 +6879,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E77" s="13">
         <v>1003</v>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="U77" s="12"/>
       <c r="V77" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6943,7 +6943,7 @@
         <v>2</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>40</v>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="U78" s="12"/>
       <c r="V78" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7007,10 +7007,10 @@
         <v>3</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E79" s="13">
         <v>1003</v>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="U79" s="12"/>
       <c r="V79" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7071,10 +7071,10 @@
         <v>4</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E80" s="13">
         <v>1003</v>
@@ -7124,7 +7124,7 @@
       </c>
       <c r="U80" s="12"/>
       <c r="V80" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7135,10 +7135,10 @@
         <v>5</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E81" s="13">
         <v>1003</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="U81" s="12"/>
       <c r="V81" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7199,10 +7199,10 @@
         <v>6</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E82" s="13">
         <v>1003</v>
@@ -7252,7 +7252,7 @@
       </c>
       <c r="U82" s="12"/>
       <c r="V82" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7263,10 +7263,10 @@
         <v>7</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E83" s="13">
         <v>1003</v>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="U83" s="12"/>
       <c r="V83" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7327,10 +7327,10 @@
         <v>8</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E84" s="13">
         <v>1003</v>
@@ -7380,7 +7380,7 @@
       </c>
       <c r="U84" s="12"/>
       <c r="V84" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7391,10 +7391,10 @@
         <v>9</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E85" s="13">
         <v>1003</v>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="U85" s="12"/>
       <c r="V85" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7455,10 +7455,10 @@
         <v>10</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E86" s="13">
         <v>1003</v>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="U86" s="12"/>
       <c r="V86" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7519,10 +7519,10 @@
         <v>11</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E87" s="13">
         <v>1003</v>
@@ -7572,7 +7572,7 @@
       </c>
       <c r="U87" s="12"/>
       <c r="V87" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7583,10 +7583,10 @@
         <v>12</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E88" s="13">
         <v>1003</v>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="U88" s="12"/>
       <c r="V88" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="89" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7647,10 +7647,10 @@
         <v>13</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E89" s="13">
         <v>1003</v>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="U89" s="12"/>
       <c r="V89" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7711,10 +7711,10 @@
         <v>14</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E90" s="13">
         <v>1003</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="U90" s="12"/>
       <c r="V90" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7775,10 +7775,10 @@
         <v>15</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E91" s="13">
         <v>1003</v>
@@ -7828,7 +7828,7 @@
       </c>
       <c r="U91" s="12"/>
       <c r="V91" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="92" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7839,10 +7839,10 @@
         <v>16</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E92" s="13">
         <v>1003</v>
@@ -7892,7 +7892,7 @@
       </c>
       <c r="U92" s="12"/>
       <c r="V92" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7903,10 +7903,10 @@
         <v>17</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E93" s="13">
         <v>1003</v>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="U93" s="12"/>
       <c r="V93" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7967,10 +7967,10 @@
         <v>18</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E94" s="13">
         <v>1003</v>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="U94" s="12"/>
       <c r="V94" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8031,10 +8031,10 @@
         <v>19</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E95" s="13">
         <v>1003</v>
@@ -8084,7 +8084,7 @@
       </c>
       <c r="U95" s="12"/>
       <c r="V95" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8095,10 +8095,10 @@
         <v>20</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E96" s="13">
         <v>1003</v>
@@ -8148,7 +8148,7 @@
       </c>
       <c r="U96" s="12"/>
       <c r="V96" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="97" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8159,10 +8159,10 @@
         <v>21</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E97" s="13">
         <v>1003</v>
@@ -8212,7 +8212,7 @@
       </c>
       <c r="U97" s="12"/>
       <c r="V97" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8223,10 +8223,10 @@
         <v>22</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E98" s="13">
         <v>1003</v>
@@ -8276,7 +8276,7 @@
       </c>
       <c r="U98" s="12"/>
       <c r="V98" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8287,10 +8287,10 @@
         <v>23</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E99" s="13">
         <v>1003</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="U99" s="12"/>
       <c r="V99" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8351,10 +8351,10 @@
         <v>24</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E100" s="13">
         <v>1003</v>
@@ -8404,7 +8404,7 @@
       </c>
       <c r="U100" s="12"/>
       <c r="V100" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8415,10 +8415,10 @@
         <v>25</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E101" s="19">
         <v>1003</v>
@@ -8468,7 +8468,7 @@
       </c>
       <c r="U101" s="18"/>
       <c r="V101" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8479,10 +8479,10 @@
         <v>1</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E102" s="13">
         <v>1004</v>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="U102" s="12"/>
       <c r="V102" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8543,7 +8543,7 @@
         <v>2</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>41</v>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="U103" s="12"/>
       <c r="V103" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8607,10 +8607,10 @@
         <v>3</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E104" s="13">
         <v>1004</v>
@@ -8660,7 +8660,7 @@
       </c>
       <c r="U104" s="12"/>
       <c r="V104" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8671,10 +8671,10 @@
         <v>4</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E105" s="13">
         <v>1004</v>
@@ -8724,7 +8724,7 @@
       </c>
       <c r="U105" s="12"/>
       <c r="V105" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8735,10 +8735,10 @@
         <v>5</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E106" s="13">
         <v>1004</v>
@@ -8788,7 +8788,7 @@
       </c>
       <c r="U106" s="12"/>
       <c r="V106" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8799,10 +8799,10 @@
         <v>6</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E107" s="13">
         <v>1004</v>
@@ -8852,7 +8852,7 @@
       </c>
       <c r="U107" s="12"/>
       <c r="V107" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="108" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8863,10 +8863,10 @@
         <v>7</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E108" s="13">
         <v>1004</v>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="U108" s="12"/>
       <c r="V108" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8927,10 +8927,10 @@
         <v>8</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E109" s="13">
         <v>1004</v>
@@ -8980,7 +8980,7 @@
       </c>
       <c r="U109" s="12"/>
       <c r="V109" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="110" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8991,10 +8991,10 @@
         <v>9</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E110" s="13">
         <v>1004</v>
@@ -9044,7 +9044,7 @@
       </c>
       <c r="U110" s="12"/>
       <c r="V110" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9055,10 +9055,10 @@
         <v>10</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E111" s="13">
         <v>1004</v>
@@ -9108,7 +9108,7 @@
       </c>
       <c r="U111" s="12"/>
       <c r="V111" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9119,10 +9119,10 @@
         <v>11</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E112" s="13">
         <v>1004</v>
@@ -9172,7 +9172,7 @@
       </c>
       <c r="U112" s="12"/>
       <c r="V112" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9183,10 +9183,10 @@
         <v>12</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E113" s="13">
         <v>1004</v>
@@ -9236,7 +9236,7 @@
       </c>
       <c r="U113" s="12"/>
       <c r="V113" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="114" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9247,10 +9247,10 @@
         <v>13</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E114" s="13">
         <v>1004</v>
@@ -9300,7 +9300,7 @@
       </c>
       <c r="U114" s="12"/>
       <c r="V114" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9311,10 +9311,10 @@
         <v>14</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E115" s="13">
         <v>1004</v>
@@ -9364,7 +9364,7 @@
       </c>
       <c r="U115" s="12"/>
       <c r="V115" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="116" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9375,10 +9375,10 @@
         <v>15</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E116" s="13">
         <v>1004</v>
@@ -9428,7 +9428,7 @@
       </c>
       <c r="U116" s="12"/>
       <c r="V116" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="117" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9439,10 +9439,10 @@
         <v>16</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E117" s="13">
         <v>1004</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="U117" s="12"/>
       <c r="V117" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="118" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9503,10 +9503,10 @@
         <v>17</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E118" s="13">
         <v>1004</v>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="U118" s="12"/>
       <c r="V118" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="119" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9567,10 +9567,10 @@
         <v>18</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E119" s="13">
         <v>1004</v>
@@ -9620,7 +9620,7 @@
       </c>
       <c r="U119" s="12"/>
       <c r="V119" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9631,10 +9631,10 @@
         <v>19</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E120" s="13">
         <v>1004</v>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="U120" s="12"/>
       <c r="V120" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="121" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9695,10 +9695,10 @@
         <v>20</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E121" s="13">
         <v>1004</v>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="U121" s="12"/>
       <c r="V121" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="122" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9759,10 +9759,10 @@
         <v>21</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E122" s="13">
         <v>1004</v>
@@ -9812,7 +9812,7 @@
       </c>
       <c r="U122" s="12"/>
       <c r="V122" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="123" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9823,10 +9823,10 @@
         <v>22</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E123" s="13">
         <v>1004</v>
@@ -9876,7 +9876,7 @@
       </c>
       <c r="U123" s="12"/>
       <c r="V123" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="124" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9887,10 +9887,10 @@
         <v>23</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E124" s="13">
         <v>1004</v>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="U124" s="12"/>
       <c r="V124" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="125" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9951,10 +9951,10 @@
         <v>24</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E125" s="13">
         <v>1004</v>
@@ -10004,7 +10004,7 @@
       </c>
       <c r="U125" s="12"/>
       <c r="V125" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="126" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10015,10 +10015,10 @@
         <v>25</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E126" s="19">
         <v>1004</v>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="U126" s="18"/>
       <c r="V126" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="127" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10079,10 +10079,10 @@
         <v>1</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E127" s="13">
         <v>1004</v>
@@ -10132,7 +10132,7 @@
       </c>
       <c r="U127" s="12"/>
       <c r="V127" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="128" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10143,7 +10143,7 @@
         <v>2</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>42</v>
@@ -10196,7 +10196,7 @@
       </c>
       <c r="U128" s="12"/>
       <c r="V128" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10207,10 +10207,10 @@
         <v>3</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E129" s="13">
         <v>1004</v>
@@ -10260,7 +10260,7 @@
       </c>
       <c r="U129" s="12"/>
       <c r="V129" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="130" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10271,10 +10271,10 @@
         <v>4</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E130" s="13">
         <v>1004</v>
@@ -10324,7 +10324,7 @@
       </c>
       <c r="U130" s="12"/>
       <c r="V130" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="131" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10335,10 +10335,10 @@
         <v>5</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E131" s="13">
         <v>1004</v>
@@ -10388,7 +10388,7 @@
       </c>
       <c r="U131" s="12"/>
       <c r="V131" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="132" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10399,10 +10399,10 @@
         <v>6</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E132" s="13">
         <v>1004</v>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="U132" s="12"/>
       <c r="V132" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="133" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10463,10 +10463,10 @@
         <v>7</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E133" s="13">
         <v>1004</v>
@@ -10516,7 +10516,7 @@
       </c>
       <c r="U133" s="12"/>
       <c r="V133" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="134" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10527,10 +10527,10 @@
         <v>8</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E134" s="13">
         <v>1004</v>
@@ -10580,7 +10580,7 @@
       </c>
       <c r="U134" s="12"/>
       <c r="V134" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="135" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10591,10 +10591,10 @@
         <v>9</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E135" s="13">
         <v>1004</v>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="U135" s="12"/>
       <c r="V135" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="136" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10655,10 +10655,10 @@
         <v>10</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E136" s="13">
         <v>1004</v>
@@ -10708,7 +10708,7 @@
       </c>
       <c r="U136" s="12"/>
       <c r="V136" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="137" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10719,10 +10719,10 @@
         <v>11</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E137" s="13">
         <v>1004</v>
@@ -10772,7 +10772,7 @@
       </c>
       <c r="U137" s="12"/>
       <c r="V137" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="138" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10783,10 +10783,10 @@
         <v>12</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E138" s="13">
         <v>1004</v>
@@ -10836,7 +10836,7 @@
       </c>
       <c r="U138" s="12"/>
       <c r="V138" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="139" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10847,10 +10847,10 @@
         <v>13</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E139" s="13">
         <v>1004</v>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="U139" s="12"/>
       <c r="V139" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="140" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10911,10 +10911,10 @@
         <v>14</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E140" s="13">
         <v>1004</v>
@@ -10964,7 +10964,7 @@
       </c>
       <c r="U140" s="12"/>
       <c r="V140" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="141" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10975,10 +10975,10 @@
         <v>15</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E141" s="13">
         <v>1004</v>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="U141" s="12"/>
       <c r="V141" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="142" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11039,10 +11039,10 @@
         <v>16</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E142" s="13">
         <v>1004</v>
@@ -11092,7 +11092,7 @@
       </c>
       <c r="U142" s="12"/>
       <c r="V142" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="143" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11103,10 +11103,10 @@
         <v>17</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E143" s="13">
         <v>1004</v>
@@ -11156,7 +11156,7 @@
       </c>
       <c r="U143" s="12"/>
       <c r="V143" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="144" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11167,10 +11167,10 @@
         <v>18</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E144" s="13">
         <v>1004</v>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="U144" s="12"/>
       <c r="V144" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="145" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11231,10 +11231,10 @@
         <v>19</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E145" s="13">
         <v>1004</v>
@@ -11284,7 +11284,7 @@
       </c>
       <c r="U145" s="12"/>
       <c r="V145" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="146" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11295,10 +11295,10 @@
         <v>20</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E146" s="13">
         <v>1004</v>
@@ -11348,7 +11348,7 @@
       </c>
       <c r="U146" s="12"/>
       <c r="V146" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="147" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11359,10 +11359,10 @@
         <v>21</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E147" s="13">
         <v>1004</v>
@@ -11412,7 +11412,7 @@
       </c>
       <c r="U147" s="12"/>
       <c r="V147" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="148" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11423,10 +11423,10 @@
         <v>22</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E148" s="13">
         <v>1004</v>
@@ -11476,7 +11476,7 @@
       </c>
       <c r="U148" s="12"/>
       <c r="V148" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="149" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11487,10 +11487,10 @@
         <v>23</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E149" s="13">
         <v>1004</v>
@@ -11540,7 +11540,7 @@
       </c>
       <c r="U149" s="12"/>
       <c r="V149" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="150" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11551,10 +11551,10 @@
         <v>24</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E150" s="13">
         <v>1004</v>
@@ -11604,7 +11604,7 @@
       </c>
       <c r="U150" s="12"/>
       <c r="V150" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="151" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11615,10 +11615,10 @@
         <v>25</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E151" s="13">
         <v>1004</v>
@@ -11668,7 +11668,7 @@
       </c>
       <c r="U151" s="12"/>
       <c r="V151" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="152" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11679,10 +11679,10 @@
         <v>1</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E152" s="11">
         <v>2000</v>
@@ -11732,7 +11732,7 @@
       </c>
       <c r="U152" s="10"/>
       <c r="V152" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="153" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11743,10 +11743,10 @@
         <v>2</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E153" s="11">
         <v>2000</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="U153" s="10"/>
       <c r="V153" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="154" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11807,10 +11807,10 @@
         <v>3</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E154" s="11">
         <v>2000</v>
@@ -11860,7 +11860,7 @@
       </c>
       <c r="U154" s="10"/>
       <c r="V154" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="155" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11871,10 +11871,10 @@
         <v>4</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E155" s="11">
         <v>2000</v>
@@ -11924,7 +11924,7 @@
       </c>
       <c r="U155" s="10"/>
       <c r="V155" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="156" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11935,10 +11935,10 @@
         <v>5</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E156" s="11">
         <v>2000</v>
@@ -11988,7 +11988,7 @@
       </c>
       <c r="U156" s="10"/>
       <c r="V156" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="157" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11999,10 +11999,10 @@
         <v>6</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E157" s="11">
         <v>2000</v>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="U157" s="10"/>
       <c r="V157" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="158" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12063,10 +12063,10 @@
         <v>7</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E158" s="11">
         <v>2000</v>
@@ -12116,7 +12116,7 @@
       </c>
       <c r="U158" s="10"/>
       <c r="V158" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="159" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12127,10 +12127,10 @@
         <v>8</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E159" s="11">
         <v>2000</v>
@@ -12180,7 +12180,7 @@
       </c>
       <c r="U159" s="10"/>
       <c r="V159" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="160" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12191,10 +12191,10 @@
         <v>9</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E160" s="11">
         <v>2000</v>
@@ -12244,7 +12244,7 @@
       </c>
       <c r="U160" s="10"/>
       <c r="V160" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12255,10 +12255,10 @@
         <v>10</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E161" s="11">
         <v>2000</v>
@@ -12308,7 +12308,7 @@
       </c>
       <c r="U161" s="10"/>
       <c r="V161" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12319,10 +12319,10 @@
         <v>11</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E162" s="11">
         <v>2000</v>
@@ -12372,7 +12372,7 @@
       </c>
       <c r="U162" s="10"/>
       <c r="V162" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12383,10 +12383,10 @@
         <v>12</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E163" s="11">
         <v>2000</v>
@@ -12436,7 +12436,7 @@
       </c>
       <c r="U163" s="10"/>
       <c r="V163" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12447,10 +12447,10 @@
         <v>13</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E164" s="11">
         <v>2000</v>
@@ -12500,7 +12500,7 @@
       </c>
       <c r="U164" s="10"/>
       <c r="V164" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12511,10 +12511,10 @@
         <v>14</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E165" s="11">
         <v>2000</v>
@@ -12564,7 +12564,7 @@
       </c>
       <c r="U165" s="10"/>
       <c r="V165" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12575,10 +12575,10 @@
         <v>15</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E166" s="11">
         <v>2000</v>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="U166" s="10"/>
       <c r="V166" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12639,10 +12639,10 @@
         <v>16</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E167" s="11">
         <v>2000</v>
@@ -12692,7 +12692,7 @@
       </c>
       <c r="U167" s="10"/>
       <c r="V167" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12703,10 +12703,10 @@
         <v>17</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E168" s="11">
         <v>2000</v>
@@ -12756,7 +12756,7 @@
       </c>
       <c r="U168" s="10"/>
       <c r="V168" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12767,10 +12767,10 @@
         <v>18</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E169" s="11">
         <v>2000</v>
@@ -12820,7 +12820,7 @@
       </c>
       <c r="U169" s="10"/>
       <c r="V169" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12831,10 +12831,10 @@
         <v>19</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E170" s="11">
         <v>2000</v>
@@ -12884,7 +12884,7 @@
       </c>
       <c r="U170" s="10"/>
       <c r="V170" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12895,10 +12895,10 @@
         <v>20</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E171" s="11">
         <v>2000</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="U171" s="10"/>
       <c r="V171" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12959,10 +12959,10 @@
         <v>21</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E172" s="11">
         <v>2000</v>
@@ -13012,7 +13012,7 @@
       </c>
       <c r="U172" s="10"/>
       <c r="V172" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -13023,10 +13023,10 @@
         <v>22</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E173" s="11">
         <v>2000</v>
@@ -13076,7 +13076,7 @@
       </c>
       <c r="U173" s="10"/>
       <c r="V173" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -13087,10 +13087,10 @@
         <v>23</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E174" s="11">
         <v>2000</v>
@@ -13140,7 +13140,7 @@
       </c>
       <c r="U174" s="10"/>
       <c r="V174" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -13151,10 +13151,10 @@
         <v>24</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E175" s="11">
         <v>2000</v>
@@ -13204,7 +13204,7 @@
       </c>
       <c r="U175" s="10"/>
       <c r="V175" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -13215,10 +13215,10 @@
         <v>25</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E176" s="21">
         <v>2000</v>
@@ -13268,7 +13268,7 @@
       </c>
       <c r="U176" s="20"/>
       <c r="V176" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W176" s="22"/>
     </row>
@@ -13280,7 +13280,7 @@
         <v>1</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>17</v>
@@ -13333,7 +13333,7 @@
       </c>
       <c r="U177" s="10"/>
       <c r="V177" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="178" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13344,7 +13344,7 @@
         <v>2</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>18</v>
@@ -13397,7 +13397,7 @@
       </c>
       <c r="U178" s="10"/>
       <c r="V178" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="179" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13408,10 +13408,10 @@
         <v>3</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E179" s="11">
         <v>2001</v>
@@ -13461,7 +13461,7 @@
       </c>
       <c r="U179" s="10"/>
       <c r="V179" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="180" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13472,10 +13472,10 @@
         <v>4</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E180" s="11">
         <v>2001</v>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="U180" s="10"/>
       <c r="V180" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="181" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13536,10 +13536,10 @@
         <v>5</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E181" s="11">
         <v>2001</v>
@@ -13589,7 +13589,7 @@
       </c>
       <c r="U181" s="10"/>
       <c r="V181" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="182" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13600,10 +13600,10 @@
         <v>6</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E182" s="11">
         <v>2001</v>
@@ -13653,7 +13653,7 @@
       </c>
       <c r="U182" s="10"/>
       <c r="V182" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="183" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13664,10 +13664,10 @@
         <v>7</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E183" s="11">
         <v>2001</v>
@@ -13717,7 +13717,7 @@
       </c>
       <c r="U183" s="10"/>
       <c r="V183" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="184" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13728,10 +13728,10 @@
         <v>8</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E184" s="11">
         <v>2001</v>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="U184" s="10"/>
       <c r="V184" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="185" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13792,10 +13792,10 @@
         <v>9</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E185" s="11">
         <v>2001</v>
@@ -13845,7 +13845,7 @@
       </c>
       <c r="U185" s="10"/>
       <c r="V185" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="186" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13856,10 +13856,10 @@
         <v>10</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E186" s="11">
         <v>2001</v>
@@ -13909,7 +13909,7 @@
       </c>
       <c r="U186" s="10"/>
       <c r="V186" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="187" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13920,10 +13920,10 @@
         <v>11</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E187" s="11">
         <v>2001</v>
@@ -13973,7 +13973,7 @@
       </c>
       <c r="U187" s="10"/>
       <c r="V187" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="188" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13984,10 +13984,10 @@
         <v>12</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E188" s="11">
         <v>2001</v>
@@ -14037,7 +14037,7 @@
       </c>
       <c r="U188" s="10"/>
       <c r="V188" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="189" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -14048,10 +14048,10 @@
         <v>13</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E189" s="11">
         <v>2001</v>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="U189" s="10"/>
       <c r="V189" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="190" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -14112,10 +14112,10 @@
         <v>14</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E190" s="11">
         <v>2001</v>
@@ -14165,7 +14165,7 @@
       </c>
       <c r="U190" s="10"/>
       <c r="V190" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="191" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -14176,10 +14176,10 @@
         <v>15</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E191" s="11">
         <v>2001</v>
@@ -14229,7 +14229,7 @@
       </c>
       <c r="U191" s="10"/>
       <c r="V191" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="192" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -14240,10 +14240,10 @@
         <v>16</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E192" s="11">
         <v>2001</v>
@@ -14293,7 +14293,7 @@
       </c>
       <c r="U192" s="10"/>
       <c r="V192" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="193" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14304,10 +14304,10 @@
         <v>17</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E193" s="11">
         <v>2001</v>
@@ -14357,7 +14357,7 @@
       </c>
       <c r="U193" s="10"/>
       <c r="V193" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14368,10 +14368,10 @@
         <v>18</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E194" s="11">
         <v>2001</v>
@@ -14421,7 +14421,7 @@
       </c>
       <c r="U194" s="10"/>
       <c r="V194" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="195" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14432,10 +14432,10 @@
         <v>19</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E195" s="11">
         <v>2001</v>
@@ -14485,7 +14485,7 @@
       </c>
       <c r="U195" s="10"/>
       <c r="V195" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="196" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14496,10 +14496,10 @@
         <v>20</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E196" s="11">
         <v>2001</v>
@@ -14549,7 +14549,7 @@
       </c>
       <c r="U196" s="10"/>
       <c r="V196" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="197" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14560,10 +14560,10 @@
         <v>21</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E197" s="11">
         <v>2001</v>
@@ -14613,7 +14613,7 @@
       </c>
       <c r="U197" s="10"/>
       <c r="V197" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="198" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14624,10 +14624,10 @@
         <v>22</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E198" s="11">
         <v>2001</v>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="U198" s="10"/>
       <c r="V198" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="199" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14688,10 +14688,10 @@
         <v>23</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E199" s="11">
         <v>2001</v>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="U199" s="10"/>
       <c r="V199" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="200" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14752,10 +14752,10 @@
         <v>24</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E200" s="11">
         <v>2001</v>
@@ -14805,7 +14805,7 @@
       </c>
       <c r="U200" s="10"/>
       <c r="V200" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="201" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14816,10 +14816,10 @@
         <v>25</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E201" s="21">
         <v>2001</v>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="U201" s="20"/>
       <c r="V201" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W201" s="22"/>
     </row>
@@ -14881,7 +14881,7 @@
         <v>1</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>19</v>
@@ -14934,7 +14934,7 @@
       </c>
       <c r="U202" s="10"/>
       <c r="V202" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="203" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14945,7 +14945,7 @@
         <v>2</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D203" s="10" t="s">
         <v>35</v>
@@ -14998,7 +14998,7 @@
       </c>
       <c r="U203" s="10"/>
       <c r="V203" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="204" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15009,10 +15009,10 @@
         <v>3</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E204" s="11">
         <v>2002</v>
@@ -15062,7 +15062,7 @@
       </c>
       <c r="U204" s="10"/>
       <c r="V204" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="205" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15073,10 +15073,10 @@
         <v>4</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E205" s="11">
         <v>2002</v>
@@ -15126,7 +15126,7 @@
       </c>
       <c r="U205" s="10"/>
       <c r="V205" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="206" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15137,10 +15137,10 @@
         <v>5</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E206" s="11">
         <v>2002</v>
@@ -15190,7 +15190,7 @@
       </c>
       <c r="U206" s="10"/>
       <c r="V206" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="207" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15201,10 +15201,10 @@
         <v>6</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E207" s="11">
         <v>2002</v>
@@ -15254,7 +15254,7 @@
       </c>
       <c r="U207" s="10"/>
       <c r="V207" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="208" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15265,10 +15265,10 @@
         <v>7</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E208" s="11">
         <v>2002</v>
@@ -15318,7 +15318,7 @@
       </c>
       <c r="U208" s="10"/>
       <c r="V208" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="209" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15329,10 +15329,10 @@
         <v>8</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E209" s="11">
         <v>2002</v>
@@ -15382,7 +15382,7 @@
       </c>
       <c r="U209" s="10"/>
       <c r="V209" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="210" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15393,10 +15393,10 @@
         <v>9</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E210" s="11">
         <v>2002</v>
@@ -15446,7 +15446,7 @@
       </c>
       <c r="U210" s="10"/>
       <c r="V210" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="211" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15457,10 +15457,10 @@
         <v>10</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E211" s="11">
         <v>2002</v>
@@ -15510,7 +15510,7 @@
       </c>
       <c r="U211" s="10"/>
       <c r="V211" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="212" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15521,10 +15521,10 @@
         <v>11</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E212" s="11">
         <v>2002</v>
@@ -15574,7 +15574,7 @@
       </c>
       <c r="U212" s="10"/>
       <c r="V212" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="213" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15585,10 +15585,10 @@
         <v>12</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E213" s="11">
         <v>2002</v>
@@ -15638,7 +15638,7 @@
       </c>
       <c r="U213" s="10"/>
       <c r="V213" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="214" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15649,10 +15649,10 @@
         <v>13</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E214" s="11">
         <v>2002</v>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="U214" s="10"/>
       <c r="V214" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="215" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15713,10 +15713,10 @@
         <v>14</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E215" s="11">
         <v>2002</v>
@@ -15766,7 +15766,7 @@
       </c>
       <c r="U215" s="10"/>
       <c r="V215" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="216" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15777,10 +15777,10 @@
         <v>15</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E216" s="11">
         <v>2002</v>
@@ -15830,7 +15830,7 @@
       </c>
       <c r="U216" s="10"/>
       <c r="V216" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="217" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15841,10 +15841,10 @@
         <v>16</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E217" s="11">
         <v>2002</v>
@@ -15894,7 +15894,7 @@
       </c>
       <c r="U217" s="10"/>
       <c r="V217" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="218" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15905,10 +15905,10 @@
         <v>17</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E218" s="11">
         <v>2002</v>
@@ -15958,7 +15958,7 @@
       </c>
       <c r="U218" s="10"/>
       <c r="V218" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="219" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15969,10 +15969,10 @@
         <v>18</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E219" s="11">
         <v>2002</v>
@@ -16022,7 +16022,7 @@
       </c>
       <c r="U219" s="10"/>
       <c r="V219" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="220" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16033,10 +16033,10 @@
         <v>19</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E220" s="11">
         <v>2002</v>
@@ -16086,7 +16086,7 @@
       </c>
       <c r="U220" s="10"/>
       <c r="V220" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="221" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16097,10 +16097,10 @@
         <v>20</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E221" s="11">
         <v>2002</v>
@@ -16150,7 +16150,7 @@
       </c>
       <c r="U221" s="10"/>
       <c r="V221" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="222" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16161,10 +16161,10 @@
         <v>21</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E222" s="11">
         <v>2002</v>
@@ -16214,7 +16214,7 @@
       </c>
       <c r="U222" s="10"/>
       <c r="V222" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="223" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16225,10 +16225,10 @@
         <v>22</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E223" s="11">
         <v>2002</v>
@@ -16278,7 +16278,7 @@
       </c>
       <c r="U223" s="10"/>
       <c r="V223" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="224" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16289,10 +16289,10 @@
         <v>23</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E224" s="11">
         <v>2002</v>
@@ -16342,7 +16342,7 @@
       </c>
       <c r="U224" s="10"/>
       <c r="V224" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="225" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16353,10 +16353,10 @@
         <v>24</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E225" s="11">
         <v>2002</v>
@@ -16406,7 +16406,7 @@
       </c>
       <c r="U225" s="10"/>
       <c r="V225" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="226" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16417,10 +16417,10 @@
         <v>25</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D226" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E226" s="21">
         <v>2002</v>
@@ -16470,7 +16470,7 @@
       </c>
       <c r="U226" s="20"/>
       <c r="V226" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W226" s="22"/>
     </row>
@@ -16482,7 +16482,7 @@
         <v>1</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D227" s="10" t="s">
         <v>43</v>
@@ -16535,7 +16535,7 @@
       </c>
       <c r="U227" s="10"/>
       <c r="V227" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="228" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16546,7 +16546,7 @@
         <v>2</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D228" s="10" t="s">
         <v>44</v>
@@ -16599,7 +16599,7 @@
       </c>
       <c r="U228" s="10"/>
       <c r="V228" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="229" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16610,10 +16610,10 @@
         <v>3</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E229" s="11">
         <v>2003</v>
@@ -16663,7 +16663,7 @@
       </c>
       <c r="U229" s="10"/>
       <c r="V229" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="230" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16674,10 +16674,10 @@
         <v>4</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E230" s="11">
         <v>2003</v>
@@ -16727,7 +16727,7 @@
       </c>
       <c r="U230" s="10"/>
       <c r="V230" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="231" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16738,10 +16738,10 @@
         <v>5</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E231" s="11">
         <v>2003</v>
@@ -16791,7 +16791,7 @@
       </c>
       <c r="U231" s="10"/>
       <c r="V231" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="232" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16802,10 +16802,10 @@
         <v>6</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E232" s="11">
         <v>2003</v>
@@ -16855,7 +16855,7 @@
       </c>
       <c r="U232" s="10"/>
       <c r="V232" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="233" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16866,10 +16866,10 @@
         <v>7</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E233" s="11">
         <v>2003</v>
@@ -16919,7 +16919,7 @@
       </c>
       <c r="U233" s="10"/>
       <c r="V233" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="234" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16930,10 +16930,10 @@
         <v>8</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E234" s="11">
         <v>2003</v>
@@ -16983,7 +16983,7 @@
       </c>
       <c r="U234" s="10"/>
       <c r="V234" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="235" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16994,10 +16994,10 @@
         <v>9</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E235" s="11">
         <v>2003</v>
@@ -17047,7 +17047,7 @@
       </c>
       <c r="U235" s="10"/>
       <c r="V235" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="236" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17058,10 +17058,10 @@
         <v>10</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E236" s="11">
         <v>2003</v>
@@ -17111,7 +17111,7 @@
       </c>
       <c r="U236" s="10"/>
       <c r="V236" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="237" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17122,10 +17122,10 @@
         <v>11</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E237" s="11">
         <v>2003</v>
@@ -17175,7 +17175,7 @@
       </c>
       <c r="U237" s="10"/>
       <c r="V237" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="238" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17186,10 +17186,10 @@
         <v>12</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E238" s="11">
         <v>2003</v>
@@ -17239,7 +17239,7 @@
       </c>
       <c r="U238" s="10"/>
       <c r="V238" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="239" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17250,10 +17250,10 @@
         <v>13</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E239" s="11">
         <v>2003</v>
@@ -17303,7 +17303,7 @@
       </c>
       <c r="U239" s="10"/>
       <c r="V239" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="240" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17314,10 +17314,10 @@
         <v>14</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E240" s="11">
         <v>2003</v>
@@ -17367,7 +17367,7 @@
       </c>
       <c r="U240" s="10"/>
       <c r="V240" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="241" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17378,10 +17378,10 @@
         <v>15</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E241" s="11">
         <v>2003</v>
@@ -17431,7 +17431,7 @@
       </c>
       <c r="U241" s="10"/>
       <c r="V241" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="242" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17442,10 +17442,10 @@
         <v>16</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E242" s="11">
         <v>2003</v>
@@ -17495,7 +17495,7 @@
       </c>
       <c r="U242" s="10"/>
       <c r="V242" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="243" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17506,10 +17506,10 @@
         <v>17</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E243" s="11">
         <v>2003</v>
@@ -17559,7 +17559,7 @@
       </c>
       <c r="U243" s="10"/>
       <c r="V243" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="244" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17570,10 +17570,10 @@
         <v>18</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E244" s="11">
         <v>2003</v>
@@ -17623,7 +17623,7 @@
       </c>
       <c r="U244" s="10"/>
       <c r="V244" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="245" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17634,10 +17634,10 @@
         <v>19</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E245" s="11">
         <v>2003</v>
@@ -17687,7 +17687,7 @@
       </c>
       <c r="U245" s="10"/>
       <c r="V245" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="246" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17698,10 +17698,10 @@
         <v>20</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E246" s="11">
         <v>2003</v>
@@ -17751,7 +17751,7 @@
       </c>
       <c r="U246" s="10"/>
       <c r="V246" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="247" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17762,10 +17762,10 @@
         <v>21</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D247" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E247" s="11">
         <v>2003</v>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="U247" s="10"/>
       <c r="V247" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="248" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17826,10 +17826,10 @@
         <v>22</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D248" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E248" s="11">
         <v>2003</v>
@@ -17879,7 +17879,7 @@
       </c>
       <c r="U248" s="10"/>
       <c r="V248" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="249" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17890,10 +17890,10 @@
         <v>23</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E249" s="11">
         <v>2003</v>
@@ -17943,7 +17943,7 @@
       </c>
       <c r="U249" s="10"/>
       <c r="V249" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="250" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17954,10 +17954,10 @@
         <v>24</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D250" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E250" s="11">
         <v>2003</v>
@@ -18007,7 +18007,7 @@
       </c>
       <c r="U250" s="10"/>
       <c r="V250" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="251" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18018,10 +18018,10 @@
         <v>25</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E251" s="21">
         <v>2003</v>
@@ -18071,7 +18071,7 @@
       </c>
       <c r="U251" s="20"/>
       <c r="V251" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="252" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18082,7 +18082,7 @@
         <v>1</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D252" s="10" t="s">
         <v>45</v>
@@ -18135,7 +18135,7 @@
       </c>
       <c r="U252" s="10"/>
       <c r="V252" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="253" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18146,7 +18146,7 @@
         <v>2</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D253" s="10" t="s">
         <v>46</v>
@@ -18199,7 +18199,7 @@
       </c>
       <c r="U253" s="10"/>
       <c r="V253" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="254" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18210,10 +18210,10 @@
         <v>3</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D254" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E254" s="11">
         <v>2004</v>
@@ -18263,7 +18263,7 @@
       </c>
       <c r="U254" s="10"/>
       <c r="V254" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="255" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18274,10 +18274,10 @@
         <v>4</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D255" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E255" s="11">
         <v>2004</v>
@@ -18327,7 +18327,7 @@
       </c>
       <c r="U255" s="10"/>
       <c r="V255" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="256" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18338,10 +18338,10 @@
         <v>5</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D256" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E256" s="11">
         <v>2004</v>
@@ -18391,7 +18391,7 @@
       </c>
       <c r="U256" s="10"/>
       <c r="V256" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="257" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18402,10 +18402,10 @@
         <v>6</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E257" s="11">
         <v>2004</v>
@@ -18455,7 +18455,7 @@
       </c>
       <c r="U257" s="10"/>
       <c r="V257" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="258" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18466,10 +18466,10 @@
         <v>7</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D258" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E258" s="11">
         <v>2004</v>
@@ -18519,7 +18519,7 @@
       </c>
       <c r="U258" s="10"/>
       <c r="V258" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="259" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18530,10 +18530,10 @@
         <v>8</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D259" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E259" s="11">
         <v>2004</v>
@@ -18583,7 +18583,7 @@
       </c>
       <c r="U259" s="10"/>
       <c r="V259" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="260" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18594,10 +18594,10 @@
         <v>9</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D260" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E260" s="11">
         <v>2004</v>
@@ -18647,7 +18647,7 @@
       </c>
       <c r="U260" s="10"/>
       <c r="V260" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="261" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18658,10 +18658,10 @@
         <v>10</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E261" s="11">
         <v>2004</v>
@@ -18711,7 +18711,7 @@
       </c>
       <c r="U261" s="10"/>
       <c r="V261" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="262" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18722,10 +18722,10 @@
         <v>11</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D262" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E262" s="11">
         <v>2004</v>
@@ -18775,7 +18775,7 @@
       </c>
       <c r="U262" s="10"/>
       <c r="V262" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="263" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18786,10 +18786,10 @@
         <v>12</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E263" s="11">
         <v>2004</v>
@@ -18839,7 +18839,7 @@
       </c>
       <c r="U263" s="10"/>
       <c r="V263" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="264" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18850,10 +18850,10 @@
         <v>13</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D264" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E264" s="11">
         <v>2004</v>
@@ -18903,7 +18903,7 @@
       </c>
       <c r="U264" s="10"/>
       <c r="V264" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="265" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18914,10 +18914,10 @@
         <v>14</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E265" s="11">
         <v>2004</v>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="U265" s="10"/>
       <c r="V265" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="266" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18978,10 +18978,10 @@
         <v>15</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E266" s="11">
         <v>2004</v>
@@ -19031,7 +19031,7 @@
       </c>
       <c r="U266" s="10"/>
       <c r="V266" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="267" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19042,10 +19042,10 @@
         <v>16</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E267" s="11">
         <v>2004</v>
@@ -19095,7 +19095,7 @@
       </c>
       <c r="U267" s="10"/>
       <c r="V267" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="268" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19106,10 +19106,10 @@
         <v>17</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D268" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E268" s="11">
         <v>2004</v>
@@ -19159,7 +19159,7 @@
       </c>
       <c r="U268" s="10"/>
       <c r="V268" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="269" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19170,10 +19170,10 @@
         <v>18</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E269" s="11">
         <v>2004</v>
@@ -19223,7 +19223,7 @@
       </c>
       <c r="U269" s="10"/>
       <c r="V269" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="270" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19234,10 +19234,10 @@
         <v>19</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D270" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E270" s="11">
         <v>2004</v>
@@ -19287,7 +19287,7 @@
       </c>
       <c r="U270" s="10"/>
       <c r="V270" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="271" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19298,10 +19298,10 @@
         <v>20</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D271" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E271" s="11">
         <v>2004</v>
@@ -19351,7 +19351,7 @@
       </c>
       <c r="U271" s="10"/>
       <c r="V271" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="272" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19362,10 +19362,10 @@
         <v>21</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D272" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E272" s="11">
         <v>2004</v>
@@ -19415,7 +19415,7 @@
       </c>
       <c r="U272" s="10"/>
       <c r="V272" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="273" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19426,10 +19426,10 @@
         <v>22</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E273" s="11">
         <v>2004</v>
@@ -19479,7 +19479,7 @@
       </c>
       <c r="U273" s="10"/>
       <c r="V273" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="274" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19490,10 +19490,10 @@
         <v>23</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D274" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E274" s="11">
         <v>2004</v>
@@ -19543,7 +19543,7 @@
       </c>
       <c r="U274" s="10"/>
       <c r="V274" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="275" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19554,10 +19554,10 @@
         <v>24</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D275" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E275" s="11">
         <v>2004</v>
@@ -19607,7 +19607,7 @@
       </c>
       <c r="U275" s="10"/>
       <c r="V275" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="276" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19618,10 +19618,10 @@
         <v>25</v>
       </c>
       <c r="C276" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D276" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E276" s="21">
         <v>2004</v>
@@ -19671,7 +19671,7 @@
       </c>
       <c r="U276" s="20"/>
       <c r="V276" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W276" s="22"/>
     </row>
@@ -19683,10 +19683,10 @@
         <v>1</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D277" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E277" s="11">
         <v>2004</v>
@@ -19736,7 +19736,7 @@
       </c>
       <c r="U277" s="10"/>
       <c r="V277" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="278" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19747,7 +19747,7 @@
         <v>2</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D278" s="10" t="s">
         <v>47</v>
@@ -19800,7 +19800,7 @@
       </c>
       <c r="U278" s="10"/>
       <c r="V278" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="279" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19811,10 +19811,10 @@
         <v>3</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D279" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E279" s="11">
         <v>2004</v>
@@ -19864,7 +19864,7 @@
       </c>
       <c r="U279" s="10"/>
       <c r="V279" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="280" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19875,10 +19875,10 @@
         <v>4</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D280" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E280" s="11">
         <v>2004</v>
@@ -19928,7 +19928,7 @@
       </c>
       <c r="U280" s="10"/>
       <c r="V280" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="281" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19939,10 +19939,10 @@
         <v>5</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D281" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E281" s="11">
         <v>2004</v>
@@ -19992,7 +19992,7 @@
       </c>
       <c r="U281" s="10"/>
       <c r="V281" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="282" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20003,10 +20003,10 @@
         <v>6</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D282" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E282" s="11">
         <v>2004</v>
@@ -20056,7 +20056,7 @@
       </c>
       <c r="U282" s="10"/>
       <c r="V282" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="283" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20067,10 +20067,10 @@
         <v>7</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D283" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E283" s="11">
         <v>2004</v>
@@ -20120,7 +20120,7 @@
       </c>
       <c r="U283" s="10"/>
       <c r="V283" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="284" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20131,10 +20131,10 @@
         <v>8</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D284" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E284" s="11">
         <v>2004</v>
@@ -20184,7 +20184,7 @@
       </c>
       <c r="U284" s="10"/>
       <c r="V284" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="285" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20195,10 +20195,10 @@
         <v>9</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D285" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E285" s="11">
         <v>2004</v>
@@ -20248,7 +20248,7 @@
       </c>
       <c r="U285" s="10"/>
       <c r="V285" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="286" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20259,10 +20259,10 @@
         <v>10</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D286" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E286" s="11">
         <v>2004</v>
@@ -20312,7 +20312,7 @@
       </c>
       <c r="U286" s="10"/>
       <c r="V286" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="287" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20323,10 +20323,10 @@
         <v>11</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D287" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E287" s="11">
         <v>2004</v>
@@ -20376,7 +20376,7 @@
       </c>
       <c r="U287" s="10"/>
       <c r="V287" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="288" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20387,10 +20387,10 @@
         <v>12</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D288" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E288" s="11">
         <v>2004</v>
@@ -20440,7 +20440,7 @@
       </c>
       <c r="U288" s="10"/>
       <c r="V288" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="289" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20451,10 +20451,10 @@
         <v>13</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D289" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E289" s="11">
         <v>2004</v>
@@ -20504,7 +20504,7 @@
       </c>
       <c r="U289" s="10"/>
       <c r="V289" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="290" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20515,10 +20515,10 @@
         <v>14</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D290" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E290" s="11">
         <v>2004</v>
@@ -20568,7 +20568,7 @@
       </c>
       <c r="U290" s="10"/>
       <c r="V290" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="291" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20579,10 +20579,10 @@
         <v>15</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D291" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E291" s="11">
         <v>2004</v>
@@ -20632,7 +20632,7 @@
       </c>
       <c r="U291" s="10"/>
       <c r="V291" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="292" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20643,10 +20643,10 @@
         <v>16</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D292" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E292" s="11">
         <v>2004</v>
@@ -20696,7 +20696,7 @@
       </c>
       <c r="U292" s="10"/>
       <c r="V292" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="293" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20707,10 +20707,10 @@
         <v>17</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D293" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E293" s="11">
         <v>2004</v>
@@ -20760,7 +20760,7 @@
       </c>
       <c r="U293" s="10"/>
       <c r="V293" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="294" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20771,10 +20771,10 @@
         <v>18</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D294" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E294" s="11">
         <v>2004</v>
@@ -20824,7 +20824,7 @@
       </c>
       <c r="U294" s="10"/>
       <c r="V294" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="295" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20835,10 +20835,10 @@
         <v>19</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D295" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E295" s="11">
         <v>2004</v>
@@ -20888,7 +20888,7 @@
       </c>
       <c r="U295" s="10"/>
       <c r="V295" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="296" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20899,10 +20899,10 @@
         <v>20</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D296" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E296" s="11">
         <v>2004</v>
@@ -20952,7 +20952,7 @@
       </c>
       <c r="U296" s="10"/>
       <c r="V296" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="297" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20963,10 +20963,10 @@
         <v>21</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D297" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E297" s="11">
         <v>2004</v>
@@ -21016,7 +21016,7 @@
       </c>
       <c r="U297" s="10"/>
       <c r="V297" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="298" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21027,10 +21027,10 @@
         <v>22</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D298" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E298" s="11">
         <v>2004</v>
@@ -21080,7 +21080,7 @@
       </c>
       <c r="U298" s="10"/>
       <c r="V298" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="299" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21091,10 +21091,10 @@
         <v>23</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D299" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E299" s="11">
         <v>2004</v>
@@ -21144,7 +21144,7 @@
       </c>
       <c r="U299" s="10"/>
       <c r="V299" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="300" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21155,10 +21155,10 @@
         <v>24</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D300" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E300" s="11">
         <v>2004</v>
@@ -21208,7 +21208,7 @@
       </c>
       <c r="U300" s="10"/>
       <c r="V300" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="301" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21219,10 +21219,10 @@
         <v>25</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D301" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E301" s="11">
         <v>2004</v>
@@ -21272,7 +21272,7 @@
       </c>
       <c r="U301" s="10"/>
       <c r="V301" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="302" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21283,10 +21283,10 @@
         <v>1</v>
       </c>
       <c r="C302" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D302" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E302" s="15">
         <v>3000</v>
@@ -21336,7 +21336,7 @@
       </c>
       <c r="U302" s="14"/>
       <c r="V302" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="303" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21347,10 +21347,10 @@
         <v>2</v>
       </c>
       <c r="C303" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D303" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E303" s="15">
         <v>3000</v>
@@ -21400,7 +21400,7 @@
       </c>
       <c r="U303" s="14"/>
       <c r="V303" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="304" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21411,10 +21411,10 @@
         <v>3</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D304" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E304" s="15">
         <v>3000</v>
@@ -21464,7 +21464,7 @@
       </c>
       <c r="U304" s="14"/>
       <c r="V304" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="305" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21475,10 +21475,10 @@
         <v>4</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D305" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E305" s="15">
         <v>3000</v>
@@ -21528,7 +21528,7 @@
       </c>
       <c r="U305" s="14"/>
       <c r="V305" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="306" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21539,10 +21539,10 @@
         <v>5</v>
       </c>
       <c r="C306" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D306" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E306" s="15">
         <v>3000</v>
@@ -21592,7 +21592,7 @@
       </c>
       <c r="U306" s="14"/>
       <c r="V306" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="307" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21603,10 +21603,10 @@
         <v>6</v>
       </c>
       <c r="C307" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D307" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E307" s="15">
         <v>3000</v>
@@ -21656,7 +21656,7 @@
       </c>
       <c r="U307" s="14"/>
       <c r="V307" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="308" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21667,10 +21667,10 @@
         <v>7</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D308" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E308" s="15">
         <v>3000</v>
@@ -21720,7 +21720,7 @@
       </c>
       <c r="U308" s="14"/>
       <c r="V308" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="309" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21731,10 +21731,10 @@
         <v>8</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D309" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E309" s="15">
         <v>3000</v>
@@ -21784,7 +21784,7 @@
       </c>
       <c r="U309" s="14"/>
       <c r="V309" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="310" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21795,10 +21795,10 @@
         <v>9</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D310" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E310" s="15">
         <v>3000</v>
@@ -21848,7 +21848,7 @@
       </c>
       <c r="U310" s="14"/>
       <c r="V310" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="311" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21859,10 +21859,10 @@
         <v>10</v>
       </c>
       <c r="C311" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D311" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E311" s="15">
         <v>3000</v>
@@ -21912,7 +21912,7 @@
       </c>
       <c r="U311" s="14"/>
       <c r="V311" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="312" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21923,10 +21923,10 @@
         <v>11</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D312" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E312" s="15">
         <v>3000</v>
@@ -21976,7 +21976,7 @@
       </c>
       <c r="U312" s="14"/>
       <c r="V312" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="313" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21987,10 +21987,10 @@
         <v>12</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D313" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E313" s="15">
         <v>3000</v>
@@ -22040,7 +22040,7 @@
       </c>
       <c r="U313" s="14"/>
       <c r="V313" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="314" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22051,10 +22051,10 @@
         <v>13</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D314" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E314" s="15">
         <v>3000</v>
@@ -22104,7 +22104,7 @@
       </c>
       <c r="U314" s="14"/>
       <c r="V314" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="315" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22115,10 +22115,10 @@
         <v>14</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D315" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E315" s="15">
         <v>3000</v>
@@ -22168,7 +22168,7 @@
       </c>
       <c r="U315" s="14"/>
       <c r="V315" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="316" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22179,10 +22179,10 @@
         <v>15</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D316" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E316" s="15">
         <v>3000</v>
@@ -22232,7 +22232,7 @@
       </c>
       <c r="U316" s="14"/>
       <c r="V316" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="317" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22243,10 +22243,10 @@
         <v>16</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D317" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E317" s="15">
         <v>3000</v>
@@ -22296,7 +22296,7 @@
       </c>
       <c r="U317" s="14"/>
       <c r="V317" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="318" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22307,10 +22307,10 @@
         <v>17</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D318" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E318" s="15">
         <v>3000</v>
@@ -22360,7 +22360,7 @@
       </c>
       <c r="U318" s="14"/>
       <c r="V318" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="319" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22371,10 +22371,10 @@
         <v>18</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D319" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E319" s="15">
         <v>3000</v>
@@ -22424,7 +22424,7 @@
       </c>
       <c r="U319" s="14"/>
       <c r="V319" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="320" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22435,10 +22435,10 @@
         <v>19</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D320" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E320" s="15">
         <v>3000</v>
@@ -22488,7 +22488,7 @@
       </c>
       <c r="U320" s="14"/>
       <c r="V320" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="321" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22499,10 +22499,10 @@
         <v>20</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D321" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E321" s="15">
         <v>3000</v>
@@ -22552,7 +22552,7 @@
       </c>
       <c r="U321" s="14"/>
       <c r="V321" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="322" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22563,10 +22563,10 @@
         <v>21</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D322" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E322" s="15">
         <v>3000</v>
@@ -22616,7 +22616,7 @@
       </c>
       <c r="U322" s="14"/>
       <c r="V322" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="323" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22627,10 +22627,10 @@
         <v>22</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D323" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E323" s="15">
         <v>3000</v>
@@ -22680,7 +22680,7 @@
       </c>
       <c r="U323" s="14"/>
       <c r="V323" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="324" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22691,10 +22691,10 @@
         <v>23</v>
       </c>
       <c r="C324" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D324" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E324" s="15">
         <v>3000</v>
@@ -22744,7 +22744,7 @@
       </c>
       <c r="U324" s="14"/>
       <c r="V324" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="325" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22755,10 +22755,10 @@
         <v>24</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D325" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E325" s="15">
         <v>3000</v>
@@ -22808,7 +22808,7 @@
       </c>
       <c r="U325" s="14"/>
       <c r="V325" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="326" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22819,10 +22819,10 @@
         <v>25</v>
       </c>
       <c r="C326" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D326" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E326" s="26">
         <v>3000</v>
@@ -22872,7 +22872,7 @@
       </c>
       <c r="U326" s="25"/>
       <c r="V326" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="327" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22883,7 +22883,7 @@
         <v>1</v>
       </c>
       <c r="C327" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D327" s="14" t="s">
         <v>36</v>
@@ -22936,7 +22936,7 @@
       </c>
       <c r="U327" s="14"/>
       <c r="V327" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="328" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22947,7 +22947,7 @@
         <v>2</v>
       </c>
       <c r="C328" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D328" s="14" t="s">
         <v>37</v>
@@ -23000,7 +23000,7 @@
       </c>
       <c r="U328" s="14"/>
       <c r="V328" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="329" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23011,10 +23011,10 @@
         <v>3</v>
       </c>
       <c r="C329" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D329" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E329" s="15">
         <v>3001</v>
@@ -23064,7 +23064,7 @@
       </c>
       <c r="U329" s="14"/>
       <c r="V329" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="330" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23075,10 +23075,10 @@
         <v>4</v>
       </c>
       <c r="C330" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D330" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E330" s="15">
         <v>3001</v>
@@ -23128,7 +23128,7 @@
       </c>
       <c r="U330" s="14"/>
       <c r="V330" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="331" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23139,10 +23139,10 @@
         <v>5</v>
       </c>
       <c r="C331" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D331" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E331" s="15">
         <v>3001</v>
@@ -23192,7 +23192,7 @@
       </c>
       <c r="U331" s="14"/>
       <c r="V331" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="332" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23203,10 +23203,10 @@
         <v>6</v>
       </c>
       <c r="C332" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D332" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E332" s="15">
         <v>3001</v>
@@ -23256,7 +23256,7 @@
       </c>
       <c r="U332" s="14"/>
       <c r="V332" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="333" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23267,10 +23267,10 @@
         <v>7</v>
       </c>
       <c r="C333" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D333" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E333" s="15">
         <v>3001</v>
@@ -23320,7 +23320,7 @@
       </c>
       <c r="U333" s="14"/>
       <c r="V333" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="334" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23331,10 +23331,10 @@
         <v>8</v>
       </c>
       <c r="C334" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D334" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E334" s="15">
         <v>3001</v>
@@ -23384,7 +23384,7 @@
       </c>
       <c r="U334" s="14"/>
       <c r="V334" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="335" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23395,10 +23395,10 @@
         <v>9</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D335" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E335" s="15">
         <v>3001</v>
@@ -23448,7 +23448,7 @@
       </c>
       <c r="U335" s="14"/>
       <c r="V335" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="336" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23459,10 +23459,10 @@
         <v>10</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D336" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E336" s="15">
         <v>3001</v>
@@ -23512,7 +23512,7 @@
       </c>
       <c r="U336" s="14"/>
       <c r="V336" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="337" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23523,10 +23523,10 @@
         <v>11</v>
       </c>
       <c r="C337" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D337" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E337" s="15">
         <v>3001</v>
@@ -23576,7 +23576,7 @@
       </c>
       <c r="U337" s="14"/>
       <c r="V337" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="338" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23587,10 +23587,10 @@
         <v>12</v>
       </c>
       <c r="C338" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D338" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E338" s="15">
         <v>3001</v>
@@ -23640,7 +23640,7 @@
       </c>
       <c r="U338" s="14"/>
       <c r="V338" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="339" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23651,10 +23651,10 @@
         <v>13</v>
       </c>
       <c r="C339" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D339" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E339" s="15">
         <v>3001</v>
@@ -23704,7 +23704,7 @@
       </c>
       <c r="U339" s="14"/>
       <c r="V339" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="340" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23715,10 +23715,10 @@
         <v>14</v>
       </c>
       <c r="C340" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E340" s="15">
         <v>3001</v>
@@ -23768,7 +23768,7 @@
       </c>
       <c r="U340" s="14"/>
       <c r="V340" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="341" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23779,10 +23779,10 @@
         <v>15</v>
       </c>
       <c r="C341" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D341" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E341" s="15">
         <v>3001</v>
@@ -23832,7 +23832,7 @@
       </c>
       <c r="U341" s="14"/>
       <c r="V341" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="342" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23843,10 +23843,10 @@
         <v>16</v>
       </c>
       <c r="C342" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D342" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E342" s="15">
         <v>3001</v>
@@ -23896,7 +23896,7 @@
       </c>
       <c r="U342" s="14"/>
       <c r="V342" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="343" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23907,10 +23907,10 @@
         <v>17</v>
       </c>
       <c r="C343" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D343" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E343" s="15">
         <v>3001</v>
@@ -23960,7 +23960,7 @@
       </c>
       <c r="U343" s="14"/>
       <c r="V343" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="344" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23971,10 +23971,10 @@
         <v>18</v>
       </c>
       <c r="C344" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D344" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E344" s="15">
         <v>3001</v>
@@ -24024,7 +24024,7 @@
       </c>
       <c r="U344" s="14"/>
       <c r="V344" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="345" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24035,10 +24035,10 @@
         <v>19</v>
       </c>
       <c r="C345" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D345" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E345" s="15">
         <v>3001</v>
@@ -24088,7 +24088,7 @@
       </c>
       <c r="U345" s="14"/>
       <c r="V345" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="346" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24099,10 +24099,10 @@
         <v>20</v>
       </c>
       <c r="C346" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D346" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E346" s="15">
         <v>3001</v>
@@ -24152,7 +24152,7 @@
       </c>
       <c r="U346" s="14"/>
       <c r="V346" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="347" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24163,10 +24163,10 @@
         <v>21</v>
       </c>
       <c r="C347" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D347" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E347" s="15">
         <v>3001</v>
@@ -24216,7 +24216,7 @@
       </c>
       <c r="U347" s="14"/>
       <c r="V347" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="348" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24227,10 +24227,10 @@
         <v>22</v>
       </c>
       <c r="C348" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D348" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E348" s="15">
         <v>3001</v>
@@ -24280,7 +24280,7 @@
       </c>
       <c r="U348" s="14"/>
       <c r="V348" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="349" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24291,10 +24291,10 @@
         <v>23</v>
       </c>
       <c r="C349" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D349" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E349" s="15">
         <v>3001</v>
@@ -24344,7 +24344,7 @@
       </c>
       <c r="U349" s="14"/>
       <c r="V349" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="350" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24355,10 +24355,10 @@
         <v>24</v>
       </c>
       <c r="C350" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D350" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E350" s="15">
         <v>3001</v>
@@ -24408,7 +24408,7 @@
       </c>
       <c r="U350" s="14"/>
       <c r="V350" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="351" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24419,10 +24419,10 @@
         <v>25</v>
       </c>
       <c r="C351" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D351" s="23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E351" s="24">
         <v>3001</v>
@@ -24472,7 +24472,7 @@
       </c>
       <c r="U351" s="23"/>
       <c r="V351" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="352" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24483,7 +24483,7 @@
         <v>1</v>
       </c>
       <c r="C352" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D352" s="14" t="s">
         <v>38</v>
@@ -24536,7 +24536,7 @@
       </c>
       <c r="U352" s="14"/>
       <c r="V352" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="353" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24547,7 +24547,7 @@
         <v>2</v>
       </c>
       <c r="C353" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D353" s="14" t="s">
         <v>39</v>
@@ -24600,7 +24600,7 @@
       </c>
       <c r="U353" s="14"/>
       <c r="V353" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="354" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24611,10 +24611,10 @@
         <v>3</v>
       </c>
       <c r="C354" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D354" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E354" s="15">
         <v>3002</v>
@@ -24664,7 +24664,7 @@
       </c>
       <c r="U354" s="14"/>
       <c r="V354" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="355" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24675,10 +24675,10 @@
         <v>4</v>
       </c>
       <c r="C355" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D355" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E355" s="15">
         <v>3002</v>
@@ -24728,7 +24728,7 @@
       </c>
       <c r="U355" s="14"/>
       <c r="V355" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="356" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24739,10 +24739,10 @@
         <v>5</v>
       </c>
       <c r="C356" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D356" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E356" s="15">
         <v>3002</v>
@@ -24792,7 +24792,7 @@
       </c>
       <c r="U356" s="14"/>
       <c r="V356" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="357" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24803,10 +24803,10 @@
         <v>6</v>
       </c>
       <c r="C357" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D357" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E357" s="15">
         <v>3002</v>
@@ -24856,7 +24856,7 @@
       </c>
       <c r="U357" s="14"/>
       <c r="V357" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="358" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24867,10 +24867,10 @@
         <v>7</v>
       </c>
       <c r="C358" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D358" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E358" s="15">
         <v>3002</v>
@@ -24920,7 +24920,7 @@
       </c>
       <c r="U358" s="14"/>
       <c r="V358" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="359" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24931,10 +24931,10 @@
         <v>8</v>
       </c>
       <c r="C359" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D359" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E359" s="15">
         <v>3002</v>
@@ -24984,7 +24984,7 @@
       </c>
       <c r="U359" s="14"/>
       <c r="V359" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="360" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24995,10 +24995,10 @@
         <v>9</v>
       </c>
       <c r="C360" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D360" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E360" s="15">
         <v>3002</v>
@@ -25048,7 +25048,7 @@
       </c>
       <c r="U360" s="14"/>
       <c r="V360" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="361" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25059,10 +25059,10 @@
         <v>10</v>
       </c>
       <c r="C361" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D361" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E361" s="15">
         <v>3002</v>
@@ -25112,7 +25112,7 @@
       </c>
       <c r="U361" s="14"/>
       <c r="V361" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="362" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25123,10 +25123,10 @@
         <v>11</v>
       </c>
       <c r="C362" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D362" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E362" s="15">
         <v>3002</v>
@@ -25176,7 +25176,7 @@
       </c>
       <c r="U362" s="14"/>
       <c r="V362" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="363" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25187,10 +25187,10 @@
         <v>12</v>
       </c>
       <c r="C363" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D363" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E363" s="15">
         <v>3002</v>
@@ -25240,7 +25240,7 @@
       </c>
       <c r="U363" s="14"/>
       <c r="V363" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="364" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25251,10 +25251,10 @@
         <v>13</v>
       </c>
       <c r="C364" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D364" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E364" s="15">
         <v>3002</v>
@@ -25304,7 +25304,7 @@
       </c>
       <c r="U364" s="14"/>
       <c r="V364" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="365" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25315,10 +25315,10 @@
         <v>14</v>
       </c>
       <c r="C365" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D365" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E365" s="15">
         <v>3002</v>
@@ -25368,7 +25368,7 @@
       </c>
       <c r="U365" s="14"/>
       <c r="V365" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="366" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25379,10 +25379,10 @@
         <v>15</v>
       </c>
       <c r="C366" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D366" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E366" s="15">
         <v>3002</v>
@@ -25432,7 +25432,7 @@
       </c>
       <c r="U366" s="14"/>
       <c r="V366" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="367" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25443,10 +25443,10 @@
         <v>16</v>
       </c>
       <c r="C367" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D367" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E367" s="15">
         <v>3002</v>
@@ -25496,7 +25496,7 @@
       </c>
       <c r="U367" s="14"/>
       <c r="V367" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="368" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25507,10 +25507,10 @@
         <v>17</v>
       </c>
       <c r="C368" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D368" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E368" s="15">
         <v>3002</v>
@@ -25560,7 +25560,7 @@
       </c>
       <c r="U368" s="14"/>
       <c r="V368" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="369" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25571,10 +25571,10 @@
         <v>18</v>
       </c>
       <c r="C369" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D369" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E369" s="15">
         <v>3002</v>
@@ -25624,7 +25624,7 @@
       </c>
       <c r="U369" s="14"/>
       <c r="V369" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="370" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25635,10 +25635,10 @@
         <v>19</v>
       </c>
       <c r="C370" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D370" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E370" s="15">
         <v>3002</v>
@@ -25688,7 +25688,7 @@
       </c>
       <c r="U370" s="14"/>
       <c r="V370" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="371" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25699,10 +25699,10 @@
         <v>20</v>
       </c>
       <c r="C371" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D371" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E371" s="15">
         <v>3002</v>
@@ -25752,7 +25752,7 @@
       </c>
       <c r="U371" s="14"/>
       <c r="V371" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="372" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25763,10 +25763,10 @@
         <v>21</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D372" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E372" s="15">
         <v>3002</v>
@@ -25816,7 +25816,7 @@
       </c>
       <c r="U372" s="14"/>
       <c r="V372" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="373" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25827,10 +25827,10 @@
         <v>22</v>
       </c>
       <c r="C373" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D373" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E373" s="15">
         <v>3002</v>
@@ -25880,7 +25880,7 @@
       </c>
       <c r="U373" s="14"/>
       <c r="V373" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="374" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25891,10 +25891,10 @@
         <v>23</v>
       </c>
       <c r="C374" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D374" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E374" s="15">
         <v>3002</v>
@@ -25944,7 +25944,7 @@
       </c>
       <c r="U374" s="14"/>
       <c r="V374" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="375" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25955,10 +25955,10 @@
         <v>24</v>
       </c>
       <c r="C375" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D375" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E375" s="15">
         <v>3002</v>
@@ -26008,7 +26008,7 @@
       </c>
       <c r="U375" s="14"/>
       <c r="V375" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="376" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26019,10 +26019,10 @@
         <v>25</v>
       </c>
       <c r="C376" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D376" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E376" s="24">
         <v>3002</v>
@@ -26072,7 +26072,7 @@
       </c>
       <c r="U376" s="23"/>
       <c r="V376" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="377" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26083,7 +26083,7 @@
         <v>1</v>
       </c>
       <c r="C377" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D377" s="14" t="s">
         <v>48</v>
@@ -26136,7 +26136,7 @@
       </c>
       <c r="U377" s="14"/>
       <c r="V377" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="378" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="C378" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D378" s="14" t="s">
         <v>49</v>
@@ -26200,7 +26200,7 @@
       </c>
       <c r="U378" s="14"/>
       <c r="V378" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="379" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26211,10 +26211,10 @@
         <v>3</v>
       </c>
       <c r="C379" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D379" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E379" s="15">
         <v>3003</v>
@@ -26264,7 +26264,7 @@
       </c>
       <c r="U379" s="14"/>
       <c r="V379" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="380" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26275,10 +26275,10 @@
         <v>4</v>
       </c>
       <c r="C380" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D380" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E380" s="15">
         <v>3003</v>
@@ -26328,7 +26328,7 @@
       </c>
       <c r="U380" s="14"/>
       <c r="V380" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="381" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26339,10 +26339,10 @@
         <v>5</v>
       </c>
       <c r="C381" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D381" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E381" s="15">
         <v>3003</v>
@@ -26392,7 +26392,7 @@
       </c>
       <c r="U381" s="14"/>
       <c r="V381" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="382" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26403,10 +26403,10 @@
         <v>6</v>
       </c>
       <c r="C382" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D382" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E382" s="15">
         <v>3003</v>
@@ -26456,7 +26456,7 @@
       </c>
       <c r="U382" s="14"/>
       <c r="V382" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="383" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26467,10 +26467,10 @@
         <v>7</v>
       </c>
       <c r="C383" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D383" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E383" s="15">
         <v>3003</v>
@@ -26520,7 +26520,7 @@
       </c>
       <c r="U383" s="14"/>
       <c r="V383" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="384" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26531,10 +26531,10 @@
         <v>8</v>
       </c>
       <c r="C384" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D384" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E384" s="15">
         <v>3003</v>
@@ -26584,7 +26584,7 @@
       </c>
       <c r="U384" s="14"/>
       <c r="V384" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="385" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26595,10 +26595,10 @@
         <v>9</v>
       </c>
       <c r="C385" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D385" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E385" s="15">
         <v>3003</v>
@@ -26648,7 +26648,7 @@
       </c>
       <c r="U385" s="14"/>
       <c r="V385" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="386" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26659,10 +26659,10 @@
         <v>10</v>
       </c>
       <c r="C386" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D386" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E386" s="15">
         <v>3003</v>
@@ -26712,7 +26712,7 @@
       </c>
       <c r="U386" s="14"/>
       <c r="V386" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="387" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26723,10 +26723,10 @@
         <v>11</v>
       </c>
       <c r="C387" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D387" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E387" s="15">
         <v>3003</v>
@@ -26776,7 +26776,7 @@
       </c>
       <c r="U387" s="14"/>
       <c r="V387" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="388" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26787,10 +26787,10 @@
         <v>12</v>
       </c>
       <c r="C388" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D388" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E388" s="15">
         <v>3003</v>
@@ -26840,7 +26840,7 @@
       </c>
       <c r="U388" s="14"/>
       <c r="V388" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="389" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26851,10 +26851,10 @@
         <v>13</v>
       </c>
       <c r="C389" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D389" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E389" s="15">
         <v>3003</v>
@@ -26904,7 +26904,7 @@
       </c>
       <c r="U389" s="14"/>
       <c r="V389" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="390" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26915,10 +26915,10 @@
         <v>14</v>
       </c>
       <c r="C390" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D390" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E390" s="15">
         <v>3003</v>
@@ -26968,7 +26968,7 @@
       </c>
       <c r="U390" s="14"/>
       <c r="V390" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="391" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26979,10 +26979,10 @@
         <v>15</v>
       </c>
       <c r="C391" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D391" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E391" s="15">
         <v>3003</v>
@@ -27032,7 +27032,7 @@
       </c>
       <c r="U391" s="14"/>
       <c r="V391" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="392" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27043,10 +27043,10 @@
         <v>16</v>
       </c>
       <c r="C392" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D392" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E392" s="15">
         <v>3003</v>
@@ -27096,7 +27096,7 @@
       </c>
       <c r="U392" s="14"/>
       <c r="V392" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="393" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27107,10 +27107,10 @@
         <v>17</v>
       </c>
       <c r="C393" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D393" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E393" s="15">
         <v>3003</v>
@@ -27160,7 +27160,7 @@
       </c>
       <c r="U393" s="14"/>
       <c r="V393" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="394" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27171,10 +27171,10 @@
         <v>18</v>
       </c>
       <c r="C394" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D394" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E394" s="15">
         <v>3003</v>
@@ -27224,7 +27224,7 @@
       </c>
       <c r="U394" s="14"/>
       <c r="V394" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="395" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27235,10 +27235,10 @@
         <v>19</v>
       </c>
       <c r="C395" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D395" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E395" s="15">
         <v>3003</v>
@@ -27288,7 +27288,7 @@
       </c>
       <c r="U395" s="14"/>
       <c r="V395" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="396" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27299,10 +27299,10 @@
         <v>20</v>
       </c>
       <c r="C396" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D396" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E396" s="15">
         <v>3003</v>
@@ -27352,7 +27352,7 @@
       </c>
       <c r="U396" s="14"/>
       <c r="V396" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="397" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27363,10 +27363,10 @@
         <v>21</v>
       </c>
       <c r="C397" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D397" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E397" s="15">
         <v>3003</v>
@@ -27416,7 +27416,7 @@
       </c>
       <c r="U397" s="14"/>
       <c r="V397" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="398" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27427,10 +27427,10 @@
         <v>22</v>
       </c>
       <c r="C398" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D398" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E398" s="15">
         <v>3003</v>
@@ -27480,7 +27480,7 @@
       </c>
       <c r="U398" s="14"/>
       <c r="V398" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="399" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27491,10 +27491,10 @@
         <v>23</v>
       </c>
       <c r="C399" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D399" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E399" s="15">
         <v>3003</v>
@@ -27544,7 +27544,7 @@
       </c>
       <c r="U399" s="14"/>
       <c r="V399" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="400" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27555,10 +27555,10 @@
         <v>24</v>
       </c>
       <c r="C400" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D400" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E400" s="15">
         <v>3003</v>
@@ -27608,7 +27608,7 @@
       </c>
       <c r="U400" s="14"/>
       <c r="V400" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="401" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27619,10 +27619,10 @@
         <v>25</v>
       </c>
       <c r="C401" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D401" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E401" s="24">
         <v>3003</v>
@@ -27672,7 +27672,7 @@
       </c>
       <c r="U401" s="23"/>
       <c r="V401" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="402" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27683,7 +27683,7 @@
         <v>1</v>
       </c>
       <c r="C402" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D402" s="14" t="s">
         <v>50</v>
@@ -27736,7 +27736,7 @@
       </c>
       <c r="U402" s="14"/>
       <c r="V402" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="403" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27747,7 +27747,7 @@
         <v>2</v>
       </c>
       <c r="C403" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D403" s="14" t="s">
         <v>51</v>
@@ -27800,7 +27800,7 @@
       </c>
       <c r="U403" s="14"/>
       <c r="V403" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="404" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27811,10 +27811,10 @@
         <v>3</v>
       </c>
       <c r="C404" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D404" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E404" s="15">
         <v>3004</v>
@@ -27864,7 +27864,7 @@
       </c>
       <c r="U404" s="14"/>
       <c r="V404" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="405" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27875,10 +27875,10 @@
         <v>4</v>
       </c>
       <c r="C405" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D405" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E405" s="15">
         <v>3004</v>
@@ -27928,7 +27928,7 @@
       </c>
       <c r="U405" s="14"/>
       <c r="V405" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="406" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27939,10 +27939,10 @@
         <v>5</v>
       </c>
       <c r="C406" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D406" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E406" s="15">
         <v>3004</v>
@@ -27992,7 +27992,7 @@
       </c>
       <c r="U406" s="14"/>
       <c r="V406" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="407" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28003,10 +28003,10 @@
         <v>6</v>
       </c>
       <c r="C407" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D407" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E407" s="15">
         <v>3004</v>
@@ -28056,7 +28056,7 @@
       </c>
       <c r="U407" s="14"/>
       <c r="V407" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="408" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28067,10 +28067,10 @@
         <v>7</v>
       </c>
       <c r="C408" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D408" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E408" s="15">
         <v>3004</v>
@@ -28120,7 +28120,7 @@
       </c>
       <c r="U408" s="14"/>
       <c r="V408" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="409" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28131,10 +28131,10 @@
         <v>8</v>
       </c>
       <c r="C409" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D409" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E409" s="15">
         <v>3004</v>
@@ -28184,7 +28184,7 @@
       </c>
       <c r="U409" s="14"/>
       <c r="V409" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="410" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28195,10 +28195,10 @@
         <v>9</v>
       </c>
       <c r="C410" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D410" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E410" s="15">
         <v>3004</v>
@@ -28248,7 +28248,7 @@
       </c>
       <c r="U410" s="14"/>
       <c r="V410" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="411" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28259,10 +28259,10 @@
         <v>10</v>
       </c>
       <c r="C411" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D411" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E411" s="15">
         <v>3004</v>
@@ -28312,7 +28312,7 @@
       </c>
       <c r="U411" s="14"/>
       <c r="V411" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="412" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28323,10 +28323,10 @@
         <v>11</v>
       </c>
       <c r="C412" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D412" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E412" s="15">
         <v>3004</v>
@@ -28376,7 +28376,7 @@
       </c>
       <c r="U412" s="14"/>
       <c r="V412" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="413" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28387,10 +28387,10 @@
         <v>12</v>
       </c>
       <c r="C413" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D413" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E413" s="15">
         <v>3004</v>
@@ -28440,7 +28440,7 @@
       </c>
       <c r="U413" s="14"/>
       <c r="V413" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="414" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28451,10 +28451,10 @@
         <v>13</v>
       </c>
       <c r="C414" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D414" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E414" s="15">
         <v>3004</v>
@@ -28504,7 +28504,7 @@
       </c>
       <c r="U414" s="14"/>
       <c r="V414" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="415" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28515,10 +28515,10 @@
         <v>14</v>
       </c>
       <c r="C415" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D415" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E415" s="15">
         <v>3004</v>
@@ -28568,7 +28568,7 @@
       </c>
       <c r="U415" s="14"/>
       <c r="V415" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="416" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28579,10 +28579,10 @@
         <v>15</v>
       </c>
       <c r="C416" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D416" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E416" s="15">
         <v>3004</v>
@@ -28632,7 +28632,7 @@
       </c>
       <c r="U416" s="14"/>
       <c r="V416" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="417" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28643,10 +28643,10 @@
         <v>16</v>
       </c>
       <c r="C417" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D417" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E417" s="15">
         <v>3004</v>
@@ -28696,7 +28696,7 @@
       </c>
       <c r="U417" s="14"/>
       <c r="V417" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="418" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28707,10 +28707,10 @@
         <v>17</v>
       </c>
       <c r="C418" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D418" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E418" s="15">
         <v>3004</v>
@@ -28760,7 +28760,7 @@
       </c>
       <c r="U418" s="14"/>
       <c r="V418" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="419" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28771,10 +28771,10 @@
         <v>18</v>
       </c>
       <c r="C419" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D419" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E419" s="15">
         <v>3004</v>
@@ -28824,7 +28824,7 @@
       </c>
       <c r="U419" s="14"/>
       <c r="V419" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="420" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28835,10 +28835,10 @@
         <v>19</v>
       </c>
       <c r="C420" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D420" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E420" s="15">
         <v>3004</v>
@@ -28888,7 +28888,7 @@
       </c>
       <c r="U420" s="14"/>
       <c r="V420" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="421" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28899,10 +28899,10 @@
         <v>20</v>
       </c>
       <c r="C421" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D421" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E421" s="15">
         <v>3004</v>
@@ -28952,7 +28952,7 @@
       </c>
       <c r="U421" s="14"/>
       <c r="V421" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="422" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28963,10 +28963,10 @@
         <v>21</v>
       </c>
       <c r="C422" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D422" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E422" s="15">
         <v>3004</v>
@@ -29016,7 +29016,7 @@
       </c>
       <c r="U422" s="14"/>
       <c r="V422" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="423" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29027,10 +29027,10 @@
         <v>22</v>
       </c>
       <c r="C423" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D423" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E423" s="15">
         <v>3004</v>
@@ -29080,7 +29080,7 @@
       </c>
       <c r="U423" s="14"/>
       <c r="V423" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="424" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29091,10 +29091,10 @@
         <v>23</v>
       </c>
       <c r="C424" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D424" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E424" s="15">
         <v>3004</v>
@@ -29144,7 +29144,7 @@
       </c>
       <c r="U424" s="14"/>
       <c r="V424" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="425" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29155,10 +29155,10 @@
         <v>24</v>
       </c>
       <c r="C425" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D425" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E425" s="15">
         <v>3004</v>
@@ -29208,7 +29208,7 @@
       </c>
       <c r="U425" s="14"/>
       <c r="V425" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="426" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29219,10 +29219,10 @@
         <v>25</v>
       </c>
       <c r="C426" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D426" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E426" s="24">
         <v>3004</v>
@@ -29272,7 +29272,7 @@
       </c>
       <c r="U426" s="23"/>
       <c r="V426" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="427" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29283,10 +29283,10 @@
         <v>1</v>
       </c>
       <c r="C427" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D427" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E427" s="15">
         <v>3004</v>
@@ -29336,7 +29336,7 @@
       </c>
       <c r="U427" s="14"/>
       <c r="V427" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="428" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29347,7 +29347,7 @@
         <v>2</v>
       </c>
       <c r="C428" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D428" s="14" t="s">
         <v>52</v>
@@ -29400,7 +29400,7 @@
       </c>
       <c r="U428" s="14"/>
       <c r="V428" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="429" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29411,10 +29411,10 @@
         <v>3</v>
       </c>
       <c r="C429" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D429" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E429" s="15">
         <v>3004</v>
@@ -29464,7 +29464,7 @@
       </c>
       <c r="U429" s="14"/>
       <c r="V429" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="430" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29475,10 +29475,10 @@
         <v>4</v>
       </c>
       <c r="C430" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D430" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E430" s="15">
         <v>3004</v>
@@ -29528,7 +29528,7 @@
       </c>
       <c r="U430" s="14"/>
       <c r="V430" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="431" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29539,10 +29539,10 @@
         <v>5</v>
       </c>
       <c r="C431" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D431" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E431" s="15">
         <v>3004</v>
@@ -29592,7 +29592,7 @@
       </c>
       <c r="U431" s="14"/>
       <c r="V431" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="432" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29603,10 +29603,10 @@
         <v>6</v>
       </c>
       <c r="C432" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D432" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E432" s="15">
         <v>3004</v>
@@ -29656,7 +29656,7 @@
       </c>
       <c r="U432" s="14"/>
       <c r="V432" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="433" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29667,10 +29667,10 @@
         <v>7</v>
       </c>
       <c r="C433" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D433" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E433" s="15">
         <v>3004</v>
@@ -29720,7 +29720,7 @@
       </c>
       <c r="U433" s="14"/>
       <c r="V433" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="434" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29731,10 +29731,10 @@
         <v>8</v>
       </c>
       <c r="C434" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D434" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E434" s="15">
         <v>3004</v>
@@ -29784,7 +29784,7 @@
       </c>
       <c r="U434" s="14"/>
       <c r="V434" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="435" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29795,10 +29795,10 @@
         <v>9</v>
       </c>
       <c r="C435" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D435" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E435" s="15">
         <v>3004</v>
@@ -29848,7 +29848,7 @@
       </c>
       <c r="U435" s="14"/>
       <c r="V435" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="436" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29859,10 +29859,10 @@
         <v>10</v>
       </c>
       <c r="C436" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D436" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E436" s="15">
         <v>3004</v>
@@ -29912,7 +29912,7 @@
       </c>
       <c r="U436" s="14"/>
       <c r="V436" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="437" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29923,10 +29923,10 @@
         <v>11</v>
       </c>
       <c r="C437" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D437" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E437" s="15">
         <v>3004</v>
@@ -29976,7 +29976,7 @@
       </c>
       <c r="U437" s="14"/>
       <c r="V437" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="438" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29987,10 +29987,10 @@
         <v>12</v>
       </c>
       <c r="C438" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D438" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E438" s="15">
         <v>3004</v>
@@ -30040,7 +30040,7 @@
       </c>
       <c r="U438" s="14"/>
       <c r="V438" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="439" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30051,10 +30051,10 @@
         <v>13</v>
       </c>
       <c r="C439" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D439" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E439" s="15">
         <v>3004</v>
@@ -30104,7 +30104,7 @@
       </c>
       <c r="U439" s="14"/>
       <c r="V439" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="440" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30115,10 +30115,10 @@
         <v>14</v>
       </c>
       <c r="C440" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D440" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E440" s="15">
         <v>3004</v>
@@ -30168,7 +30168,7 @@
       </c>
       <c r="U440" s="14"/>
       <c r="V440" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="441" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30179,10 +30179,10 @@
         <v>15</v>
       </c>
       <c r="C441" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D441" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E441" s="15">
         <v>3004</v>
@@ -30232,7 +30232,7 @@
       </c>
       <c r="U441" s="14"/>
       <c r="V441" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="442" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30243,10 +30243,10 @@
         <v>16</v>
       </c>
       <c r="C442" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D442" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E442" s="15">
         <v>3004</v>
@@ -30296,7 +30296,7 @@
       </c>
       <c r="U442" s="14"/>
       <c r="V442" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="443" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30307,10 +30307,10 @@
         <v>17</v>
       </c>
       <c r="C443" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D443" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E443" s="15">
         <v>3004</v>
@@ -30360,7 +30360,7 @@
       </c>
       <c r="U443" s="14"/>
       <c r="V443" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="444" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30371,10 +30371,10 @@
         <v>18</v>
       </c>
       <c r="C444" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D444" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E444" s="15">
         <v>3004</v>
@@ -30424,7 +30424,7 @@
       </c>
       <c r="U444" s="14"/>
       <c r="V444" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="445" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30435,10 +30435,10 @@
         <v>19</v>
       </c>
       <c r="C445" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D445" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E445" s="15">
         <v>3004</v>
@@ -30488,7 +30488,7 @@
       </c>
       <c r="U445" s="14"/>
       <c r="V445" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="446" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30499,10 +30499,10 @@
         <v>20</v>
       </c>
       <c r="C446" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D446" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E446" s="15">
         <v>3004</v>
@@ -30552,7 +30552,7 @@
       </c>
       <c r="U446" s="14"/>
       <c r="V446" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="447" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30563,10 +30563,10 @@
         <v>21</v>
       </c>
       <c r="C447" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D447" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E447" s="15">
         <v>3004</v>
@@ -30616,7 +30616,7 @@
       </c>
       <c r="U447" s="14"/>
       <c r="V447" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="448" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30627,10 +30627,10 @@
         <v>22</v>
       </c>
       <c r="C448" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D448" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E448" s="15">
         <v>3004</v>
@@ -30680,7 +30680,7 @@
       </c>
       <c r="U448" s="14"/>
       <c r="V448" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="449" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30691,10 +30691,10 @@
         <v>23</v>
       </c>
       <c r="C449" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D449" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E449" s="15">
         <v>3004</v>
@@ -30744,7 +30744,7 @@
       </c>
       <c r="U449" s="14"/>
       <c r="V449" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="450" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30755,10 +30755,10 @@
         <v>24</v>
       </c>
       <c r="C450" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D450" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E450" s="15">
         <v>3004</v>
@@ -30808,7 +30808,7 @@
       </c>
       <c r="U450" s="14"/>
       <c r="V450" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="451" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30819,10 +30819,10 @@
         <v>25</v>
       </c>
       <c r="C451" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D451" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E451" s="15">
         <v>3004</v>
@@ -30872,7 +30872,7 @@
       </c>
       <c r="U451" s="14"/>
       <c r="V451" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="452" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30883,10 +30883,10 @@
         <v>1</v>
       </c>
       <c r="C452" s="27" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D452" s="27" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E452" s="28">
         <v>3004</v>
@@ -30898,10 +30898,10 @@
         <v>0</v>
       </c>
       <c r="H452" s="27">
-        <v>260</v>
+        <v>10</v>
       </c>
       <c r="I452" s="27">
-        <v>260</v>
+        <v>5</v>
       </c>
       <c r="J452" s="27">
         <v>2</v>
@@ -30936,7 +30936,7 @@
       </c>
       <c r="U452" s="27"/>
       <c r="V452" s="27" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="453" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30947,10 +30947,10 @@
         <v>1</v>
       </c>
       <c r="C453" s="27" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D453" s="27" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E453" s="28">
         <v>3004</v>
@@ -30962,10 +30962,10 @@
         <v>0</v>
       </c>
       <c r="H453" s="27">
-        <v>260</v>
+        <v>12</v>
       </c>
       <c r="I453" s="27">
-        <v>260</v>
+        <v>6</v>
       </c>
       <c r="J453" s="27">
         <v>2</v>
@@ -31000,7 +31000,7 @@
       </c>
       <c r="U453" s="27"/>
       <c r="V453" s="27" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -1484,10 +1484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物大招2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1500,15 +1496,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>魔法攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>物理攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill10001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1980,10 +1980,10 @@
   <dimension ref="A1:W453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D437" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D431" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J451" sqref="J451"/>
+      <selection pane="bottomRight" activeCell="T446" sqref="T446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2023,10 +2023,10 @@
         <v>54</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>460</v>
@@ -30886,7 +30886,7 @@
         <v>461</v>
       </c>
       <c r="D452" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E452" s="28">
         <v>3004</v>
@@ -30936,7 +30936,7 @@
       </c>
       <c r="U452" s="27"/>
       <c r="V452" s="27" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row r="453" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30947,10 +30947,10 @@
         <v>1</v>
       </c>
       <c r="C453" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="D453" s="27" t="s">
         <v>463</v>
-      </c>
-      <c r="D453" s="27" t="s">
-        <v>464</v>
       </c>
       <c r="E453" s="28">
         <v>3004</v>
@@ -31000,7 +31000,7 @@
       </c>
       <c r="U453" s="27"/>
       <c r="V453" s="27" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -231,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目标数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1504,7 +1500,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill10000</t>
+    <t>skill10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1983,7 +1983,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D431" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T446" sqref="T446"/>
+      <selection pane="bottomRight" activeCell="S452" sqref="S452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2023,16 +2023,16 @@
         <v>54</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>5</v>
@@ -2044,7 +2044,7 @@
         <v>7</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="O1" s="7" t="s">
         <v>9</v>
@@ -2068,7 +2068,7 @@
         <v>56</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>57</v>
+        <v>467</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2079,10 +2079,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E2" s="17">
         <v>1000</v>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="U2" s="16"/>
       <c r="V2" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2143,10 +2143,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E3" s="17">
         <v>1000</v>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="U3" s="16"/>
       <c r="V3" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2207,10 +2207,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="17">
         <v>1000</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="U4" s="16"/>
       <c r="V4" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2271,10 +2271,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="17">
         <v>1000</v>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="U5" s="16"/>
       <c r="V5" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2335,10 +2335,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="17">
         <v>1000</v>
@@ -2388,7 +2388,7 @@
       </c>
       <c r="U6" s="16"/>
       <c r="V6" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2399,10 +2399,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="17">
         <v>1000</v>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="U7" s="16"/>
       <c r="V7" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2463,10 +2463,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="17">
         <v>1000</v>
@@ -2516,7 +2516,7 @@
       </c>
       <c r="U8" s="16"/>
       <c r="V8" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2527,10 +2527,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="17">
         <v>1000</v>
@@ -2580,7 +2580,7 @@
       </c>
       <c r="U9" s="16"/>
       <c r="V9" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2591,10 +2591,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="17">
         <v>1000</v>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="U10" s="16"/>
       <c r="V10" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2655,10 +2655,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="17">
         <v>1000</v>
@@ -2708,7 +2708,7 @@
       </c>
       <c r="U11" s="16"/>
       <c r="V11" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2719,10 +2719,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="17">
         <v>1000</v>
@@ -2772,7 +2772,7 @@
       </c>
       <c r="U12" s="16"/>
       <c r="V12" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2783,10 +2783,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="17">
         <v>1000</v>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="U13" s="16"/>
       <c r="V13" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2847,10 +2847,10 @@
         <v>13</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="17">
         <v>1000</v>
@@ -2900,7 +2900,7 @@
       </c>
       <c r="U14" s="16"/>
       <c r="V14" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2911,10 +2911,10 @@
         <v>14</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="17">
         <v>1000</v>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="U15" s="16"/>
       <c r="V15" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2975,10 +2975,10 @@
         <v>15</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="17">
         <v>1000</v>
@@ -3028,7 +3028,7 @@
       </c>
       <c r="U16" s="16"/>
       <c r="V16" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3039,10 +3039,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="17">
         <v>1000</v>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="U17" s="16"/>
       <c r="V17" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3103,10 +3103,10 @@
         <v>17</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="17">
         <v>1000</v>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="U18" s="16"/>
       <c r="V18" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3167,10 +3167,10 @@
         <v>18</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E19" s="17">
         <v>1000</v>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="U19" s="16"/>
       <c r="V19" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3231,10 +3231,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" s="17">
         <v>1000</v>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="U20" s="16"/>
       <c r="V20" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3295,10 +3295,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="17">
         <v>1000</v>
@@ -3348,7 +3348,7 @@
       </c>
       <c r="U21" s="16"/>
       <c r="V21" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3359,10 +3359,10 @@
         <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" s="17">
         <v>1000</v>
@@ -3412,7 +3412,7 @@
       </c>
       <c r="U22" s="16"/>
       <c r="V22" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3423,10 +3423,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="17">
         <v>1000</v>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="U23" s="16"/>
       <c r="V23" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3487,10 +3487,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="17">
         <v>1000</v>
@@ -3540,7 +3540,7 @@
       </c>
       <c r="U24" s="16"/>
       <c r="V24" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3551,10 +3551,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="17">
         <v>1000</v>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="U25" s="16"/>
       <c r="V25" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3615,10 +3615,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="19">
         <v>1000</v>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="U26" s="18"/>
       <c r="V26" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3679,10 +3679,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E27" s="13">
         <v>1001</v>
@@ -3732,7 +3732,7 @@
       </c>
       <c r="U27" s="12"/>
       <c r="V27" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3743,10 +3743,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E28" s="13">
         <v>1001</v>
@@ -3796,7 +3796,7 @@
       </c>
       <c r="U28" s="12"/>
       <c r="V28" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3807,10 +3807,10 @@
         <v>3</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E29" s="13">
         <v>1001</v>
@@ -3860,7 +3860,7 @@
       </c>
       <c r="U29" s="12"/>
       <c r="V29" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3871,10 +3871,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E30" s="13">
         <v>1001</v>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="U30" s="12"/>
       <c r="V30" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3935,10 +3935,10 @@
         <v>5</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E31" s="13">
         <v>1001</v>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="U31" s="12"/>
       <c r="V31" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3999,10 +3999,10 @@
         <v>6</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E32" s="13">
         <v>1001</v>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="U32" s="12"/>
       <c r="V32" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4063,10 +4063,10 @@
         <v>7</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E33" s="13">
         <v>1001</v>
@@ -4116,7 +4116,7 @@
       </c>
       <c r="U33" s="12"/>
       <c r="V33" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4127,10 +4127,10 @@
         <v>8</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E34" s="13">
         <v>1001</v>
@@ -4180,7 +4180,7 @@
       </c>
       <c r="U34" s="12"/>
       <c r="V34" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4191,10 +4191,10 @@
         <v>9</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E35" s="13">
         <v>1001</v>
@@ -4244,7 +4244,7 @@
       </c>
       <c r="U35" s="12"/>
       <c r="V35" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4255,10 +4255,10 @@
         <v>10</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E36" s="13">
         <v>1001</v>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="U36" s="12"/>
       <c r="V36" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4319,10 +4319,10 @@
         <v>11</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E37" s="13">
         <v>1001</v>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="U37" s="12"/>
       <c r="V37" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4383,10 +4383,10 @@
         <v>12</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E38" s="13">
         <v>1001</v>
@@ -4436,7 +4436,7 @@
       </c>
       <c r="U38" s="12"/>
       <c r="V38" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4447,10 +4447,10 @@
         <v>13</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E39" s="13">
         <v>1001</v>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="U39" s="12"/>
       <c r="V39" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4511,10 +4511,10 @@
         <v>14</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E40" s="13">
         <v>1001</v>
@@ -4564,7 +4564,7 @@
       </c>
       <c r="U40" s="12"/>
       <c r="V40" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4575,10 +4575,10 @@
         <v>15</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E41" s="13">
         <v>1001</v>
@@ -4628,7 +4628,7 @@
       </c>
       <c r="U41" s="12"/>
       <c r="V41" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4639,10 +4639,10 @@
         <v>16</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E42" s="13">
         <v>1001</v>
@@ -4692,7 +4692,7 @@
       </c>
       <c r="U42" s="12"/>
       <c r="V42" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4703,10 +4703,10 @@
         <v>17</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E43" s="13">
         <v>1001</v>
@@ -4756,7 +4756,7 @@
       </c>
       <c r="U43" s="12"/>
       <c r="V43" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4767,10 +4767,10 @@
         <v>18</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E44" s="13">
         <v>1001</v>
@@ -4820,7 +4820,7 @@
       </c>
       <c r="U44" s="12"/>
       <c r="V44" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4831,10 +4831,10 @@
         <v>19</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E45" s="13">
         <v>1001</v>
@@ -4884,7 +4884,7 @@
       </c>
       <c r="U45" s="12"/>
       <c r="V45" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4895,10 +4895,10 @@
         <v>20</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E46" s="13">
         <v>1001</v>
@@ -4948,7 +4948,7 @@
       </c>
       <c r="U46" s="12"/>
       <c r="V46" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4959,10 +4959,10 @@
         <v>21</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E47" s="13">
         <v>1001</v>
@@ -5012,7 +5012,7 @@
       </c>
       <c r="U47" s="12"/>
       <c r="V47" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5023,10 +5023,10 @@
         <v>22</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E48" s="13">
         <v>1001</v>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="U48" s="12"/>
       <c r="V48" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5087,10 +5087,10 @@
         <v>23</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E49" s="13">
         <v>1001</v>
@@ -5140,7 +5140,7 @@
       </c>
       <c r="U49" s="12"/>
       <c r="V49" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5151,10 +5151,10 @@
         <v>24</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E50" s="13">
         <v>1001</v>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="U50" s="12"/>
       <c r="V50" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5215,10 +5215,10 @@
         <v>25</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E51" s="19">
         <v>1001</v>
@@ -5268,7 +5268,7 @@
       </c>
       <c r="U51" s="18"/>
       <c r="V51" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>16</v>
@@ -5332,7 +5332,7 @@
       </c>
       <c r="U52" s="12"/>
       <c r="V52" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5343,10 +5343,10 @@
         <v>2</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E53" s="13">
         <v>1002</v>
@@ -5396,7 +5396,7 @@
       </c>
       <c r="U53" s="12"/>
       <c r="V53" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5407,10 +5407,10 @@
         <v>3</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E54" s="13">
         <v>1002</v>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="U54" s="12"/>
       <c r="V54" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5471,10 +5471,10 @@
         <v>4</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E55" s="13">
         <v>1002</v>
@@ -5524,7 +5524,7 @@
       </c>
       <c r="U55" s="12"/>
       <c r="V55" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5535,10 +5535,10 @@
         <v>5</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E56" s="13">
         <v>1002</v>
@@ -5588,7 +5588,7 @@
       </c>
       <c r="U56" s="12"/>
       <c r="V56" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5599,10 +5599,10 @@
         <v>6</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E57" s="13">
         <v>1002</v>
@@ -5652,7 +5652,7 @@
       </c>
       <c r="U57" s="12"/>
       <c r="V57" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5663,10 +5663,10 @@
         <v>7</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E58" s="13">
         <v>1002</v>
@@ -5716,7 +5716,7 @@
       </c>
       <c r="U58" s="12"/>
       <c r="V58" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5727,10 +5727,10 @@
         <v>8</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E59" s="13">
         <v>1002</v>
@@ -5780,7 +5780,7 @@
       </c>
       <c r="U59" s="12"/>
       <c r="V59" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5791,10 +5791,10 @@
         <v>9</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E60" s="13">
         <v>1002</v>
@@ -5844,7 +5844,7 @@
       </c>
       <c r="U60" s="12"/>
       <c r="V60" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5855,10 +5855,10 @@
         <v>10</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E61" s="13">
         <v>1002</v>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="U61" s="12"/>
       <c r="V61" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5919,10 +5919,10 @@
         <v>11</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E62" s="13">
         <v>1002</v>
@@ -5972,7 +5972,7 @@
       </c>
       <c r="U62" s="12"/>
       <c r="V62" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5983,10 +5983,10 @@
         <v>12</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E63" s="13">
         <v>1002</v>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="U63" s="12"/>
       <c r="V63" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6047,10 +6047,10 @@
         <v>13</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E64" s="13">
         <v>1002</v>
@@ -6100,7 +6100,7 @@
       </c>
       <c r="U64" s="12"/>
       <c r="V64" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6111,10 +6111,10 @@
         <v>14</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E65" s="13">
         <v>1002</v>
@@ -6164,7 +6164,7 @@
       </c>
       <c r="U65" s="12"/>
       <c r="V65" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6175,10 +6175,10 @@
         <v>15</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E66" s="13">
         <v>1002</v>
@@ -6228,7 +6228,7 @@
       </c>
       <c r="U66" s="12"/>
       <c r="V66" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6239,10 +6239,10 @@
         <v>16</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E67" s="13">
         <v>1002</v>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="U67" s="12"/>
       <c r="V67" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6303,10 +6303,10 @@
         <v>17</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E68" s="13">
         <v>1002</v>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="U68" s="12"/>
       <c r="V68" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6367,10 +6367,10 @@
         <v>18</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E69" s="13">
         <v>1002</v>
@@ -6420,7 +6420,7 @@
       </c>
       <c r="U69" s="12"/>
       <c r="V69" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6431,10 +6431,10 @@
         <v>19</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E70" s="13">
         <v>1002</v>
@@ -6484,7 +6484,7 @@
       </c>
       <c r="U70" s="12"/>
       <c r="V70" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6495,10 +6495,10 @@
         <v>20</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E71" s="13">
         <v>1002</v>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="U71" s="12"/>
       <c r="V71" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6559,10 +6559,10 @@
         <v>21</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E72" s="13">
         <v>1002</v>
@@ -6612,7 +6612,7 @@
       </c>
       <c r="U72" s="12"/>
       <c r="V72" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6623,10 +6623,10 @@
         <v>22</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E73" s="13">
         <v>1002</v>
@@ -6676,7 +6676,7 @@
       </c>
       <c r="U73" s="12"/>
       <c r="V73" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6687,10 +6687,10 @@
         <v>23</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E74" s="13">
         <v>1002</v>
@@ -6740,7 +6740,7 @@
       </c>
       <c r="U74" s="12"/>
       <c r="V74" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6751,10 +6751,10 @@
         <v>24</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E75" s="13">
         <v>1002</v>
@@ -6804,7 +6804,7 @@
       </c>
       <c r="U75" s="12"/>
       <c r="V75" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6815,10 +6815,10 @@
         <v>25</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E76" s="19">
         <v>1002</v>
@@ -6868,7 +6868,7 @@
       </c>
       <c r="U76" s="18"/>
       <c r="V76" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6879,10 +6879,10 @@
         <v>1</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E77" s="13">
         <v>1003</v>
@@ -6932,7 +6932,7 @@
       </c>
       <c r="U77" s="12"/>
       <c r="V77" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="78" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6943,7 +6943,7 @@
         <v>2</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>40</v>
@@ -6996,7 +6996,7 @@
       </c>
       <c r="U78" s="12"/>
       <c r="V78" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7007,10 +7007,10 @@
         <v>3</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E79" s="13">
         <v>1003</v>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="U79" s="12"/>
       <c r="V79" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7071,10 +7071,10 @@
         <v>4</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E80" s="13">
         <v>1003</v>
@@ -7124,7 +7124,7 @@
       </c>
       <c r="U80" s="12"/>
       <c r="V80" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7135,10 +7135,10 @@
         <v>5</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E81" s="13">
         <v>1003</v>
@@ -7188,7 +7188,7 @@
       </c>
       <c r="U81" s="12"/>
       <c r="V81" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="82" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7199,10 +7199,10 @@
         <v>6</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E82" s="13">
         <v>1003</v>
@@ -7252,7 +7252,7 @@
       </c>
       <c r="U82" s="12"/>
       <c r="V82" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7263,10 +7263,10 @@
         <v>7</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E83" s="13">
         <v>1003</v>
@@ -7316,7 +7316,7 @@
       </c>
       <c r="U83" s="12"/>
       <c r="V83" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7327,10 +7327,10 @@
         <v>8</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E84" s="13">
         <v>1003</v>
@@ -7380,7 +7380,7 @@
       </c>
       <c r="U84" s="12"/>
       <c r="V84" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7391,10 +7391,10 @@
         <v>9</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E85" s="13">
         <v>1003</v>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="U85" s="12"/>
       <c r="V85" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7455,10 +7455,10 @@
         <v>10</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E86" s="13">
         <v>1003</v>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="U86" s="12"/>
       <c r="V86" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7519,10 +7519,10 @@
         <v>11</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E87" s="13">
         <v>1003</v>
@@ -7572,7 +7572,7 @@
       </c>
       <c r="U87" s="12"/>
       <c r="V87" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="88" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7583,10 +7583,10 @@
         <v>12</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E88" s="13">
         <v>1003</v>
@@ -7636,7 +7636,7 @@
       </c>
       <c r="U88" s="12"/>
       <c r="V88" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7647,10 +7647,10 @@
         <v>13</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E89" s="13">
         <v>1003</v>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="U89" s="12"/>
       <c r="V89" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7711,10 +7711,10 @@
         <v>14</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E90" s="13">
         <v>1003</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="U90" s="12"/>
       <c r="V90" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="91" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7775,10 +7775,10 @@
         <v>15</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E91" s="13">
         <v>1003</v>
@@ -7828,7 +7828,7 @@
       </c>
       <c r="U91" s="12"/>
       <c r="V91" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7839,10 +7839,10 @@
         <v>16</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E92" s="13">
         <v>1003</v>
@@ -7892,7 +7892,7 @@
       </c>
       <c r="U92" s="12"/>
       <c r="V92" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7903,10 +7903,10 @@
         <v>17</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E93" s="13">
         <v>1003</v>
@@ -7956,7 +7956,7 @@
       </c>
       <c r="U93" s="12"/>
       <c r="V93" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="94" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7967,10 +7967,10 @@
         <v>18</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E94" s="13">
         <v>1003</v>
@@ -8020,7 +8020,7 @@
       </c>
       <c r="U94" s="12"/>
       <c r="V94" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8031,10 +8031,10 @@
         <v>19</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E95" s="13">
         <v>1003</v>
@@ -8084,7 +8084,7 @@
       </c>
       <c r="U95" s="12"/>
       <c r="V95" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8095,10 +8095,10 @@
         <v>20</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E96" s="13">
         <v>1003</v>
@@ -8148,7 +8148,7 @@
       </c>
       <c r="U96" s="12"/>
       <c r="V96" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="97" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8159,10 +8159,10 @@
         <v>21</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E97" s="13">
         <v>1003</v>
@@ -8212,7 +8212,7 @@
       </c>
       <c r="U97" s="12"/>
       <c r="V97" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8223,10 +8223,10 @@
         <v>22</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E98" s="13">
         <v>1003</v>
@@ -8276,7 +8276,7 @@
       </c>
       <c r="U98" s="12"/>
       <c r="V98" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8287,10 +8287,10 @@
         <v>23</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E99" s="13">
         <v>1003</v>
@@ -8340,7 +8340,7 @@
       </c>
       <c r="U99" s="12"/>
       <c r="V99" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8351,10 +8351,10 @@
         <v>24</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E100" s="13">
         <v>1003</v>
@@ -8404,7 +8404,7 @@
       </c>
       <c r="U100" s="12"/>
       <c r="V100" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8415,10 +8415,10 @@
         <v>25</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E101" s="19">
         <v>1003</v>
@@ -8468,7 +8468,7 @@
       </c>
       <c r="U101" s="18"/>
       <c r="V101" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8479,10 +8479,10 @@
         <v>1</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E102" s="13">
         <v>1004</v>
@@ -8532,7 +8532,7 @@
       </c>
       <c r="U102" s="12"/>
       <c r="V102" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8543,7 +8543,7 @@
         <v>2</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>41</v>
@@ -8596,7 +8596,7 @@
       </c>
       <c r="U103" s="12"/>
       <c r="V103" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8607,10 +8607,10 @@
         <v>3</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E104" s="13">
         <v>1004</v>
@@ -8660,7 +8660,7 @@
       </c>
       <c r="U104" s="12"/>
       <c r="V104" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="105" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8671,10 +8671,10 @@
         <v>4</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E105" s="13">
         <v>1004</v>
@@ -8724,7 +8724,7 @@
       </c>
       <c r="U105" s="12"/>
       <c r="V105" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8735,10 +8735,10 @@
         <v>5</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E106" s="13">
         <v>1004</v>
@@ -8788,7 +8788,7 @@
       </c>
       <c r="U106" s="12"/>
       <c r="V106" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8799,10 +8799,10 @@
         <v>6</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E107" s="13">
         <v>1004</v>
@@ -8852,7 +8852,7 @@
       </c>
       <c r="U107" s="12"/>
       <c r="V107" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8863,10 +8863,10 @@
         <v>7</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E108" s="13">
         <v>1004</v>
@@ -8916,7 +8916,7 @@
       </c>
       <c r="U108" s="12"/>
       <c r="V108" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8927,10 +8927,10 @@
         <v>8</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E109" s="13">
         <v>1004</v>
@@ -8980,7 +8980,7 @@
       </c>
       <c r="U109" s="12"/>
       <c r="V109" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="110" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8991,10 +8991,10 @@
         <v>9</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E110" s="13">
         <v>1004</v>
@@ -9044,7 +9044,7 @@
       </c>
       <c r="U110" s="12"/>
       <c r="V110" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9055,10 +9055,10 @@
         <v>10</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E111" s="13">
         <v>1004</v>
@@ -9108,7 +9108,7 @@
       </c>
       <c r="U111" s="12"/>
       <c r="V111" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="112" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9119,10 +9119,10 @@
         <v>11</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E112" s="13">
         <v>1004</v>
@@ -9172,7 +9172,7 @@
       </c>
       <c r="U112" s="12"/>
       <c r="V112" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="113" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9183,10 +9183,10 @@
         <v>12</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E113" s="13">
         <v>1004</v>
@@ -9236,7 +9236,7 @@
       </c>
       <c r="U113" s="12"/>
       <c r="V113" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="114" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9247,10 +9247,10 @@
         <v>13</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E114" s="13">
         <v>1004</v>
@@ -9300,7 +9300,7 @@
       </c>
       <c r="U114" s="12"/>
       <c r="V114" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="115" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9311,10 +9311,10 @@
         <v>14</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E115" s="13">
         <v>1004</v>
@@ -9364,7 +9364,7 @@
       </c>
       <c r="U115" s="12"/>
       <c r="V115" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="116" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9375,10 +9375,10 @@
         <v>15</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E116" s="13">
         <v>1004</v>
@@ -9428,7 +9428,7 @@
       </c>
       <c r="U116" s="12"/>
       <c r="V116" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="117" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9439,10 +9439,10 @@
         <v>16</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E117" s="13">
         <v>1004</v>
@@ -9492,7 +9492,7 @@
       </c>
       <c r="U117" s="12"/>
       <c r="V117" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="118" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9503,10 +9503,10 @@
         <v>17</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E118" s="13">
         <v>1004</v>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="U118" s="12"/>
       <c r="V118" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9567,10 +9567,10 @@
         <v>18</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E119" s="13">
         <v>1004</v>
@@ -9620,7 +9620,7 @@
       </c>
       <c r="U119" s="12"/>
       <c r="V119" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9631,10 +9631,10 @@
         <v>19</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E120" s="13">
         <v>1004</v>
@@ -9684,7 +9684,7 @@
       </c>
       <c r="U120" s="12"/>
       <c r="V120" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="121" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9695,10 +9695,10 @@
         <v>20</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E121" s="13">
         <v>1004</v>
@@ -9748,7 +9748,7 @@
       </c>
       <c r="U121" s="12"/>
       <c r="V121" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9759,10 +9759,10 @@
         <v>21</v>
       </c>
       <c r="C122" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E122" s="13">
         <v>1004</v>
@@ -9812,7 +9812,7 @@
       </c>
       <c r="U122" s="12"/>
       <c r="V122" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9823,10 +9823,10 @@
         <v>22</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D123" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E123" s="13">
         <v>1004</v>
@@ -9876,7 +9876,7 @@
       </c>
       <c r="U123" s="12"/>
       <c r="V123" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="124" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9887,10 +9887,10 @@
         <v>23</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E124" s="13">
         <v>1004</v>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="U124" s="12"/>
       <c r="V124" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9951,10 +9951,10 @@
         <v>24</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D125" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E125" s="13">
         <v>1004</v>
@@ -10004,7 +10004,7 @@
       </c>
       <c r="U125" s="12"/>
       <c r="V125" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10015,10 +10015,10 @@
         <v>25</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E126" s="19">
         <v>1004</v>
@@ -10068,7 +10068,7 @@
       </c>
       <c r="U126" s="18"/>
       <c r="V126" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10079,10 +10079,10 @@
         <v>1</v>
       </c>
       <c r="C127" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D127" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E127" s="13">
         <v>1004</v>
@@ -10132,7 +10132,7 @@
       </c>
       <c r="U127" s="12"/>
       <c r="V127" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="128" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10143,7 +10143,7 @@
         <v>2</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>42</v>
@@ -10196,7 +10196,7 @@
       </c>
       <c r="U128" s="12"/>
       <c r="V128" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="129" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10207,10 +10207,10 @@
         <v>3</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D129" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E129" s="13">
         <v>1004</v>
@@ -10260,7 +10260,7 @@
       </c>
       <c r="U129" s="12"/>
       <c r="V129" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="130" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10271,10 +10271,10 @@
         <v>4</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E130" s="13">
         <v>1004</v>
@@ -10324,7 +10324,7 @@
       </c>
       <c r="U130" s="12"/>
       <c r="V130" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="131" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10335,10 +10335,10 @@
         <v>5</v>
       </c>
       <c r="C131" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D131" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E131" s="13">
         <v>1004</v>
@@ -10388,7 +10388,7 @@
       </c>
       <c r="U131" s="12"/>
       <c r="V131" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="132" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10399,10 +10399,10 @@
         <v>6</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E132" s="13">
         <v>1004</v>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="U132" s="12"/>
       <c r="V132" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="133" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10463,10 +10463,10 @@
         <v>7</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D133" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E133" s="13">
         <v>1004</v>
@@ -10516,7 +10516,7 @@
       </c>
       <c r="U133" s="12"/>
       <c r="V133" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="134" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10527,10 +10527,10 @@
         <v>8</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E134" s="13">
         <v>1004</v>
@@ -10580,7 +10580,7 @@
       </c>
       <c r="U134" s="12"/>
       <c r="V134" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="135" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10591,10 +10591,10 @@
         <v>9</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D135" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E135" s="13">
         <v>1004</v>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="U135" s="12"/>
       <c r="V135" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="136" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10655,10 +10655,10 @@
         <v>10</v>
       </c>
       <c r="C136" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E136" s="13">
         <v>1004</v>
@@ -10708,7 +10708,7 @@
       </c>
       <c r="U136" s="12"/>
       <c r="V136" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="137" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10719,10 +10719,10 @@
         <v>11</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D137" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E137" s="13">
         <v>1004</v>
@@ -10772,7 +10772,7 @@
       </c>
       <c r="U137" s="12"/>
       <c r="V137" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="138" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10783,10 +10783,10 @@
         <v>12</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E138" s="13">
         <v>1004</v>
@@ -10836,7 +10836,7 @@
       </c>
       <c r="U138" s="12"/>
       <c r="V138" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="139" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10847,10 +10847,10 @@
         <v>13</v>
       </c>
       <c r="C139" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D139" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E139" s="13">
         <v>1004</v>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="U139" s="12"/>
       <c r="V139" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="140" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10911,10 +10911,10 @@
         <v>14</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E140" s="13">
         <v>1004</v>
@@ -10964,7 +10964,7 @@
       </c>
       <c r="U140" s="12"/>
       <c r="V140" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="141" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10975,10 +10975,10 @@
         <v>15</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E141" s="13">
         <v>1004</v>
@@ -11028,7 +11028,7 @@
       </c>
       <c r="U141" s="12"/>
       <c r="V141" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="142" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11039,10 +11039,10 @@
         <v>16</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E142" s="13">
         <v>1004</v>
@@ -11092,7 +11092,7 @@
       </c>
       <c r="U142" s="12"/>
       <c r="V142" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="143" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11103,10 +11103,10 @@
         <v>17</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D143" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E143" s="13">
         <v>1004</v>
@@ -11156,7 +11156,7 @@
       </c>
       <c r="U143" s="12"/>
       <c r="V143" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="144" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11167,10 +11167,10 @@
         <v>18</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D144" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E144" s="13">
         <v>1004</v>
@@ -11220,7 +11220,7 @@
       </c>
       <c r="U144" s="12"/>
       <c r="V144" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="145" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11231,10 +11231,10 @@
         <v>19</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D145" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E145" s="13">
         <v>1004</v>
@@ -11284,7 +11284,7 @@
       </c>
       <c r="U145" s="12"/>
       <c r="V145" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="146" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11295,10 +11295,10 @@
         <v>20</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E146" s="13">
         <v>1004</v>
@@ -11348,7 +11348,7 @@
       </c>
       <c r="U146" s="12"/>
       <c r="V146" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="147" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11359,10 +11359,10 @@
         <v>21</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E147" s="13">
         <v>1004</v>
@@ -11412,7 +11412,7 @@
       </c>
       <c r="U147" s="12"/>
       <c r="V147" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="148" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11423,10 +11423,10 @@
         <v>22</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E148" s="13">
         <v>1004</v>
@@ -11476,7 +11476,7 @@
       </c>
       <c r="U148" s="12"/>
       <c r="V148" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="149" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11487,10 +11487,10 @@
         <v>23</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E149" s="13">
         <v>1004</v>
@@ -11540,7 +11540,7 @@
       </c>
       <c r="U149" s="12"/>
       <c r="V149" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="150" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11551,10 +11551,10 @@
         <v>24</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E150" s="13">
         <v>1004</v>
@@ -11604,7 +11604,7 @@
       </c>
       <c r="U150" s="12"/>
       <c r="V150" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="151" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11615,10 +11615,10 @@
         <v>25</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E151" s="13">
         <v>1004</v>
@@ -11668,7 +11668,7 @@
       </c>
       <c r="U151" s="12"/>
       <c r="V151" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="152" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11679,10 +11679,10 @@
         <v>1</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E152" s="11">
         <v>2000</v>
@@ -11732,7 +11732,7 @@
       </c>
       <c r="U152" s="10"/>
       <c r="V152" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="153" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11743,10 +11743,10 @@
         <v>2</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E153" s="11">
         <v>2000</v>
@@ -11796,7 +11796,7 @@
       </c>
       <c r="U153" s="10"/>
       <c r="V153" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="154" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11807,10 +11807,10 @@
         <v>3</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E154" s="11">
         <v>2000</v>
@@ -11860,7 +11860,7 @@
       </c>
       <c r="U154" s="10"/>
       <c r="V154" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="155" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11871,10 +11871,10 @@
         <v>4</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E155" s="11">
         <v>2000</v>
@@ -11924,7 +11924,7 @@
       </c>
       <c r="U155" s="10"/>
       <c r="V155" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="156" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11935,10 +11935,10 @@
         <v>5</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E156" s="11">
         <v>2000</v>
@@ -11988,7 +11988,7 @@
       </c>
       <c r="U156" s="10"/>
       <c r="V156" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="157" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11999,10 +11999,10 @@
         <v>6</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E157" s="11">
         <v>2000</v>
@@ -12052,7 +12052,7 @@
       </c>
       <c r="U157" s="10"/>
       <c r="V157" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="158" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12063,10 +12063,10 @@
         <v>7</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E158" s="11">
         <v>2000</v>
@@ -12116,7 +12116,7 @@
       </c>
       <c r="U158" s="10"/>
       <c r="V158" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="159" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12127,10 +12127,10 @@
         <v>8</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E159" s="11">
         <v>2000</v>
@@ -12180,7 +12180,7 @@
       </c>
       <c r="U159" s="10"/>
       <c r="V159" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12191,10 +12191,10 @@
         <v>9</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E160" s="11">
         <v>2000</v>
@@ -12244,7 +12244,7 @@
       </c>
       <c r="U160" s="10"/>
       <c r="V160" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="161" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12255,10 +12255,10 @@
         <v>10</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E161" s="11">
         <v>2000</v>
@@ -12308,7 +12308,7 @@
       </c>
       <c r="U161" s="10"/>
       <c r="V161" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="162" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12319,10 +12319,10 @@
         <v>11</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E162" s="11">
         <v>2000</v>
@@ -12372,7 +12372,7 @@
       </c>
       <c r="U162" s="10"/>
       <c r="V162" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="163" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12383,10 +12383,10 @@
         <v>12</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D163" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E163" s="11">
         <v>2000</v>
@@ -12436,7 +12436,7 @@
       </c>
       <c r="U163" s="10"/>
       <c r="V163" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="164" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12447,10 +12447,10 @@
         <v>13</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E164" s="11">
         <v>2000</v>
@@ -12500,7 +12500,7 @@
       </c>
       <c r="U164" s="10"/>
       <c r="V164" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="165" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12511,10 +12511,10 @@
         <v>14</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E165" s="11">
         <v>2000</v>
@@ -12564,7 +12564,7 @@
       </c>
       <c r="U165" s="10"/>
       <c r="V165" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12575,10 +12575,10 @@
         <v>15</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E166" s="11">
         <v>2000</v>
@@ -12628,7 +12628,7 @@
       </c>
       <c r="U166" s="10"/>
       <c r="V166" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="167" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12639,10 +12639,10 @@
         <v>16</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D167" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E167" s="11">
         <v>2000</v>
@@ -12692,7 +12692,7 @@
       </c>
       <c r="U167" s="10"/>
       <c r="V167" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="168" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12703,10 +12703,10 @@
         <v>17</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E168" s="11">
         <v>2000</v>
@@ -12756,7 +12756,7 @@
       </c>
       <c r="U168" s="10"/>
       <c r="V168" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="169" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12767,10 +12767,10 @@
         <v>18</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E169" s="11">
         <v>2000</v>
@@ -12820,7 +12820,7 @@
       </c>
       <c r="U169" s="10"/>
       <c r="V169" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="170" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12831,10 +12831,10 @@
         <v>19</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D170" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E170" s="11">
         <v>2000</v>
@@ -12884,7 +12884,7 @@
       </c>
       <c r="U170" s="10"/>
       <c r="V170" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12895,10 +12895,10 @@
         <v>20</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D171" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E171" s="11">
         <v>2000</v>
@@ -12948,7 +12948,7 @@
       </c>
       <c r="U171" s="10"/>
       <c r="V171" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="172" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -12959,10 +12959,10 @@
         <v>21</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E172" s="11">
         <v>2000</v>
@@ -13012,7 +13012,7 @@
       </c>
       <c r="U172" s="10"/>
       <c r="V172" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="173" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -13023,10 +13023,10 @@
         <v>22</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E173" s="11">
         <v>2000</v>
@@ -13076,7 +13076,7 @@
       </c>
       <c r="U173" s="10"/>
       <c r="V173" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="174" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -13087,10 +13087,10 @@
         <v>23</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E174" s="11">
         <v>2000</v>
@@ -13140,7 +13140,7 @@
       </c>
       <c r="U174" s="10"/>
       <c r="V174" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -13151,10 +13151,10 @@
         <v>24</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E175" s="11">
         <v>2000</v>
@@ -13204,7 +13204,7 @@
       </c>
       <c r="U175" s="10"/>
       <c r="V175" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -13215,10 +13215,10 @@
         <v>25</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D176" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E176" s="21">
         <v>2000</v>
@@ -13268,7 +13268,7 @@
       </c>
       <c r="U176" s="20"/>
       <c r="V176" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="W176" s="22"/>
     </row>
@@ -13280,7 +13280,7 @@
         <v>1</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D177" s="10" t="s">
         <v>17</v>
@@ -13333,7 +13333,7 @@
       </c>
       <c r="U177" s="10"/>
       <c r="V177" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="178" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13344,7 +13344,7 @@
         <v>2</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>18</v>
@@ -13397,7 +13397,7 @@
       </c>
       <c r="U178" s="10"/>
       <c r="V178" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="179" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13408,10 +13408,10 @@
         <v>3</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E179" s="11">
         <v>2001</v>
@@ -13461,7 +13461,7 @@
       </c>
       <c r="U179" s="10"/>
       <c r="V179" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="180" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13472,10 +13472,10 @@
         <v>4</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D180" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E180" s="11">
         <v>2001</v>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="U180" s="10"/>
       <c r="V180" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="181" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13536,10 +13536,10 @@
         <v>5</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E181" s="11">
         <v>2001</v>
@@ -13589,7 +13589,7 @@
       </c>
       <c r="U181" s="10"/>
       <c r="V181" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="182" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13600,10 +13600,10 @@
         <v>6</v>
       </c>
       <c r="C182" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D182" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E182" s="11">
         <v>2001</v>
@@ -13653,7 +13653,7 @@
       </c>
       <c r="U182" s="10"/>
       <c r="V182" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="183" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13664,10 +13664,10 @@
         <v>7</v>
       </c>
       <c r="C183" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E183" s="11">
         <v>2001</v>
@@ -13717,7 +13717,7 @@
       </c>
       <c r="U183" s="10"/>
       <c r="V183" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="184" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13728,10 +13728,10 @@
         <v>8</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E184" s="11">
         <v>2001</v>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="U184" s="10"/>
       <c r="V184" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="185" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13792,10 +13792,10 @@
         <v>9</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E185" s="11">
         <v>2001</v>
@@ -13845,7 +13845,7 @@
       </c>
       <c r="U185" s="10"/>
       <c r="V185" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="186" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13856,10 +13856,10 @@
         <v>10</v>
       </c>
       <c r="C186" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E186" s="11">
         <v>2001</v>
@@ -13909,7 +13909,7 @@
       </c>
       <c r="U186" s="10"/>
       <c r="V186" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="187" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13920,10 +13920,10 @@
         <v>11</v>
       </c>
       <c r="C187" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E187" s="11">
         <v>2001</v>
@@ -13973,7 +13973,7 @@
       </c>
       <c r="U187" s="10"/>
       <c r="V187" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="188" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13984,10 +13984,10 @@
         <v>12</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E188" s="11">
         <v>2001</v>
@@ -14037,7 +14037,7 @@
       </c>
       <c r="U188" s="10"/>
       <c r="V188" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="189" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -14048,10 +14048,10 @@
         <v>13</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E189" s="11">
         <v>2001</v>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="U189" s="10"/>
       <c r="V189" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="190" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -14112,10 +14112,10 @@
         <v>14</v>
       </c>
       <c r="C190" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E190" s="11">
         <v>2001</v>
@@ -14165,7 +14165,7 @@
       </c>
       <c r="U190" s="10"/>
       <c r="V190" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="191" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -14176,10 +14176,10 @@
         <v>15</v>
       </c>
       <c r="C191" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E191" s="11">
         <v>2001</v>
@@ -14229,7 +14229,7 @@
       </c>
       <c r="U191" s="10"/>
       <c r="V191" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="192" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -14240,10 +14240,10 @@
         <v>16</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D192" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E192" s="11">
         <v>2001</v>
@@ -14293,7 +14293,7 @@
       </c>
       <c r="U192" s="10"/>
       <c r="V192" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="193" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14304,10 +14304,10 @@
         <v>17</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E193" s="11">
         <v>2001</v>
@@ -14357,7 +14357,7 @@
       </c>
       <c r="U193" s="10"/>
       <c r="V193" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14368,10 +14368,10 @@
         <v>18</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D194" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E194" s="11">
         <v>2001</v>
@@ -14421,7 +14421,7 @@
       </c>
       <c r="U194" s="10"/>
       <c r="V194" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="195" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14432,10 +14432,10 @@
         <v>19</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E195" s="11">
         <v>2001</v>
@@ -14485,7 +14485,7 @@
       </c>
       <c r="U195" s="10"/>
       <c r="V195" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="196" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14496,10 +14496,10 @@
         <v>20</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E196" s="11">
         <v>2001</v>
@@ -14549,7 +14549,7 @@
       </c>
       <c r="U196" s="10"/>
       <c r="V196" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="197" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14560,10 +14560,10 @@
         <v>21</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D197" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E197" s="11">
         <v>2001</v>
@@ -14613,7 +14613,7 @@
       </c>
       <c r="U197" s="10"/>
       <c r="V197" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="198" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14624,10 +14624,10 @@
         <v>22</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E198" s="11">
         <v>2001</v>
@@ -14677,7 +14677,7 @@
       </c>
       <c r="U198" s="10"/>
       <c r="V198" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="199" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14688,10 +14688,10 @@
         <v>23</v>
       </c>
       <c r="C199" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D199" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E199" s="11">
         <v>2001</v>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="U199" s="10"/>
       <c r="V199" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="200" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14752,10 +14752,10 @@
         <v>24</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D200" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E200" s="11">
         <v>2001</v>
@@ -14805,7 +14805,7 @@
       </c>
       <c r="U200" s="10"/>
       <c r="V200" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="201" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14816,10 +14816,10 @@
         <v>25</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D201" s="20" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E201" s="21">
         <v>2001</v>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="U201" s="20"/>
       <c r="V201" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W201" s="22"/>
     </row>
@@ -14881,7 +14881,7 @@
         <v>1</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>19</v>
@@ -14934,7 +14934,7 @@
       </c>
       <c r="U202" s="10"/>
       <c r="V202" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="203" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14945,7 +14945,7 @@
         <v>2</v>
       </c>
       <c r="C203" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D203" s="10" t="s">
         <v>35</v>
@@ -14998,7 +14998,7 @@
       </c>
       <c r="U203" s="10"/>
       <c r="V203" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="204" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15009,10 +15009,10 @@
         <v>3</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E204" s="11">
         <v>2002</v>
@@ -15062,7 +15062,7 @@
       </c>
       <c r="U204" s="10"/>
       <c r="V204" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="205" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15073,10 +15073,10 @@
         <v>4</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D205" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E205" s="11">
         <v>2002</v>
@@ -15126,7 +15126,7 @@
       </c>
       <c r="U205" s="10"/>
       <c r="V205" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="206" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15137,10 +15137,10 @@
         <v>5</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E206" s="11">
         <v>2002</v>
@@ -15190,7 +15190,7 @@
       </c>
       <c r="U206" s="10"/>
       <c r="V206" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="207" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15201,10 +15201,10 @@
         <v>6</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D207" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E207" s="11">
         <v>2002</v>
@@ -15254,7 +15254,7 @@
       </c>
       <c r="U207" s="10"/>
       <c r="V207" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="208" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15265,10 +15265,10 @@
         <v>7</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E208" s="11">
         <v>2002</v>
@@ -15318,7 +15318,7 @@
       </c>
       <c r="U208" s="10"/>
       <c r="V208" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="209" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15329,10 +15329,10 @@
         <v>8</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D209" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E209" s="11">
         <v>2002</v>
@@ -15382,7 +15382,7 @@
       </c>
       <c r="U209" s="10"/>
       <c r="V209" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="210" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15393,10 +15393,10 @@
         <v>9</v>
       </c>
       <c r="C210" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D210" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E210" s="11">
         <v>2002</v>
@@ -15446,7 +15446,7 @@
       </c>
       <c r="U210" s="10"/>
       <c r="V210" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="211" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15457,10 +15457,10 @@
         <v>10</v>
       </c>
       <c r="C211" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D211" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E211" s="11">
         <v>2002</v>
@@ -15510,7 +15510,7 @@
       </c>
       <c r="U211" s="10"/>
       <c r="V211" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="212" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15521,10 +15521,10 @@
         <v>11</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D212" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E212" s="11">
         <v>2002</v>
@@ -15574,7 +15574,7 @@
       </c>
       <c r="U212" s="10"/>
       <c r="V212" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="213" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15585,10 +15585,10 @@
         <v>12</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D213" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E213" s="11">
         <v>2002</v>
@@ -15638,7 +15638,7 @@
       </c>
       <c r="U213" s="10"/>
       <c r="V213" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="214" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15649,10 +15649,10 @@
         <v>13</v>
       </c>
       <c r="C214" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D214" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E214" s="11">
         <v>2002</v>
@@ -15702,7 +15702,7 @@
       </c>
       <c r="U214" s="10"/>
       <c r="V214" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="215" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15713,10 +15713,10 @@
         <v>14</v>
       </c>
       <c r="C215" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D215" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E215" s="11">
         <v>2002</v>
@@ -15766,7 +15766,7 @@
       </c>
       <c r="U215" s="10"/>
       <c r="V215" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="216" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15777,10 +15777,10 @@
         <v>15</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D216" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E216" s="11">
         <v>2002</v>
@@ -15830,7 +15830,7 @@
       </c>
       <c r="U216" s="10"/>
       <c r="V216" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="217" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15841,10 +15841,10 @@
         <v>16</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D217" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E217" s="11">
         <v>2002</v>
@@ -15894,7 +15894,7 @@
       </c>
       <c r="U217" s="10"/>
       <c r="V217" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="218" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15905,10 +15905,10 @@
         <v>17</v>
       </c>
       <c r="C218" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D218" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E218" s="11">
         <v>2002</v>
@@ -15958,7 +15958,7 @@
       </c>
       <c r="U218" s="10"/>
       <c r="V218" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="219" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -15969,10 +15969,10 @@
         <v>18</v>
       </c>
       <c r="C219" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D219" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E219" s="11">
         <v>2002</v>
@@ -16022,7 +16022,7 @@
       </c>
       <c r="U219" s="10"/>
       <c r="V219" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="220" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16033,10 +16033,10 @@
         <v>19</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D220" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E220" s="11">
         <v>2002</v>
@@ -16086,7 +16086,7 @@
       </c>
       <c r="U220" s="10"/>
       <c r="V220" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="221" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16097,10 +16097,10 @@
         <v>20</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D221" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E221" s="11">
         <v>2002</v>
@@ -16150,7 +16150,7 @@
       </c>
       <c r="U221" s="10"/>
       <c r="V221" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="222" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16161,10 +16161,10 @@
         <v>21</v>
       </c>
       <c r="C222" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D222" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E222" s="11">
         <v>2002</v>
@@ -16214,7 +16214,7 @@
       </c>
       <c r="U222" s="10"/>
       <c r="V222" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="223" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16225,10 +16225,10 @@
         <v>22</v>
       </c>
       <c r="C223" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D223" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E223" s="11">
         <v>2002</v>
@@ -16278,7 +16278,7 @@
       </c>
       <c r="U223" s="10"/>
       <c r="V223" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="224" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16289,10 +16289,10 @@
         <v>23</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D224" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E224" s="11">
         <v>2002</v>
@@ -16342,7 +16342,7 @@
       </c>
       <c r="U224" s="10"/>
       <c r="V224" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="225" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16353,10 +16353,10 @@
         <v>24</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D225" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E225" s="11">
         <v>2002</v>
@@ -16406,7 +16406,7 @@
       </c>
       <c r="U225" s="10"/>
       <c r="V225" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="226" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16417,10 +16417,10 @@
         <v>25</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D226" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E226" s="21">
         <v>2002</v>
@@ -16470,7 +16470,7 @@
       </c>
       <c r="U226" s="20"/>
       <c r="V226" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="W226" s="22"/>
     </row>
@@ -16482,7 +16482,7 @@
         <v>1</v>
       </c>
       <c r="C227" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D227" s="10" t="s">
         <v>43</v>
@@ -16535,7 +16535,7 @@
       </c>
       <c r="U227" s="10"/>
       <c r="V227" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="228" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16546,7 +16546,7 @@
         <v>2</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D228" s="10" t="s">
         <v>44</v>
@@ -16599,7 +16599,7 @@
       </c>
       <c r="U228" s="10"/>
       <c r="V228" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="229" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16610,10 +16610,10 @@
         <v>3</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D229" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E229" s="11">
         <v>2003</v>
@@ -16663,7 +16663,7 @@
       </c>
       <c r="U229" s="10"/>
       <c r="V229" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="230" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16674,10 +16674,10 @@
         <v>4</v>
       </c>
       <c r="C230" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D230" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E230" s="11">
         <v>2003</v>
@@ -16727,7 +16727,7 @@
       </c>
       <c r="U230" s="10"/>
       <c r="V230" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="231" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16738,10 +16738,10 @@
         <v>5</v>
       </c>
       <c r="C231" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D231" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E231" s="11">
         <v>2003</v>
@@ -16791,7 +16791,7 @@
       </c>
       <c r="U231" s="10"/>
       <c r="V231" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="232" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16802,10 +16802,10 @@
         <v>6</v>
       </c>
       <c r="C232" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D232" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E232" s="11">
         <v>2003</v>
@@ -16855,7 +16855,7 @@
       </c>
       <c r="U232" s="10"/>
       <c r="V232" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="233" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16866,10 +16866,10 @@
         <v>7</v>
       </c>
       <c r="C233" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D233" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E233" s="11">
         <v>2003</v>
@@ -16919,7 +16919,7 @@
       </c>
       <c r="U233" s="10"/>
       <c r="V233" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="234" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16930,10 +16930,10 @@
         <v>8</v>
       </c>
       <c r="C234" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D234" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E234" s="11">
         <v>2003</v>
@@ -16983,7 +16983,7 @@
       </c>
       <c r="U234" s="10"/>
       <c r="V234" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="235" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16994,10 +16994,10 @@
         <v>9</v>
       </c>
       <c r="C235" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D235" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E235" s="11">
         <v>2003</v>
@@ -17047,7 +17047,7 @@
       </c>
       <c r="U235" s="10"/>
       <c r="V235" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="236" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17058,10 +17058,10 @@
         <v>10</v>
       </c>
       <c r="C236" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D236" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E236" s="11">
         <v>2003</v>
@@ -17111,7 +17111,7 @@
       </c>
       <c r="U236" s="10"/>
       <c r="V236" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="237" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17122,10 +17122,10 @@
         <v>11</v>
       </c>
       <c r="C237" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D237" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E237" s="11">
         <v>2003</v>
@@ -17175,7 +17175,7 @@
       </c>
       <c r="U237" s="10"/>
       <c r="V237" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="238" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17186,10 +17186,10 @@
         <v>12</v>
       </c>
       <c r="C238" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D238" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E238" s="11">
         <v>2003</v>
@@ -17239,7 +17239,7 @@
       </c>
       <c r="U238" s="10"/>
       <c r="V238" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="239" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17250,10 +17250,10 @@
         <v>13</v>
       </c>
       <c r="C239" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D239" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E239" s="11">
         <v>2003</v>
@@ -17303,7 +17303,7 @@
       </c>
       <c r="U239" s="10"/>
       <c r="V239" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="240" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17314,10 +17314,10 @@
         <v>14</v>
       </c>
       <c r="C240" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D240" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E240" s="11">
         <v>2003</v>
@@ -17367,7 +17367,7 @@
       </c>
       <c r="U240" s="10"/>
       <c r="V240" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="241" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17378,10 +17378,10 @@
         <v>15</v>
       </c>
       <c r="C241" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D241" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E241" s="11">
         <v>2003</v>
@@ -17431,7 +17431,7 @@
       </c>
       <c r="U241" s="10"/>
       <c r="V241" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="242" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17442,10 +17442,10 @@
         <v>16</v>
       </c>
       <c r="C242" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D242" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E242" s="11">
         <v>2003</v>
@@ -17495,7 +17495,7 @@
       </c>
       <c r="U242" s="10"/>
       <c r="V242" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="243" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17506,10 +17506,10 @@
         <v>17</v>
       </c>
       <c r="C243" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D243" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E243" s="11">
         <v>2003</v>
@@ -17559,7 +17559,7 @@
       </c>
       <c r="U243" s="10"/>
       <c r="V243" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="244" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17570,10 +17570,10 @@
         <v>18</v>
       </c>
       <c r="C244" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D244" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E244" s="11">
         <v>2003</v>
@@ -17623,7 +17623,7 @@
       </c>
       <c r="U244" s="10"/>
       <c r="V244" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="245" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17634,10 +17634,10 @@
         <v>19</v>
       </c>
       <c r="C245" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D245" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E245" s="11">
         <v>2003</v>
@@ -17687,7 +17687,7 @@
       </c>
       <c r="U245" s="10"/>
       <c r="V245" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="246" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17698,10 +17698,10 @@
         <v>20</v>
       </c>
       <c r="C246" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D246" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E246" s="11">
         <v>2003</v>
@@ -17751,7 +17751,7 @@
       </c>
       <c r="U246" s="10"/>
       <c r="V246" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="247" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17762,10 +17762,10 @@
         <v>21</v>
       </c>
       <c r="C247" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D247" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E247" s="11">
         <v>2003</v>
@@ -17815,7 +17815,7 @@
       </c>
       <c r="U247" s="10"/>
       <c r="V247" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="248" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17826,10 +17826,10 @@
         <v>22</v>
       </c>
       <c r="C248" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D248" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E248" s="11">
         <v>2003</v>
@@ -17879,7 +17879,7 @@
       </c>
       <c r="U248" s="10"/>
       <c r="V248" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="249" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17890,10 +17890,10 @@
         <v>23</v>
       </c>
       <c r="C249" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D249" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E249" s="11">
         <v>2003</v>
@@ -17943,7 +17943,7 @@
       </c>
       <c r="U249" s="10"/>
       <c r="V249" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="250" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17954,10 +17954,10 @@
         <v>24</v>
       </c>
       <c r="C250" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D250" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E250" s="11">
         <v>2003</v>
@@ -18007,7 +18007,7 @@
       </c>
       <c r="U250" s="10"/>
       <c r="V250" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="251" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18018,10 +18018,10 @@
         <v>25</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D251" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E251" s="21">
         <v>2003</v>
@@ -18071,7 +18071,7 @@
       </c>
       <c r="U251" s="20"/>
       <c r="V251" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="252" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18082,7 +18082,7 @@
         <v>1</v>
       </c>
       <c r="C252" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D252" s="10" t="s">
         <v>45</v>
@@ -18135,7 +18135,7 @@
       </c>
       <c r="U252" s="10"/>
       <c r="V252" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="253" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18146,7 +18146,7 @@
         <v>2</v>
       </c>
       <c r="C253" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D253" s="10" t="s">
         <v>46</v>
@@ -18199,7 +18199,7 @@
       </c>
       <c r="U253" s="10"/>
       <c r="V253" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="254" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18210,10 +18210,10 @@
         <v>3</v>
       </c>
       <c r="C254" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D254" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E254" s="11">
         <v>2004</v>
@@ -18263,7 +18263,7 @@
       </c>
       <c r="U254" s="10"/>
       <c r="V254" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="255" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18274,10 +18274,10 @@
         <v>4</v>
       </c>
       <c r="C255" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D255" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E255" s="11">
         <v>2004</v>
@@ -18327,7 +18327,7 @@
       </c>
       <c r="U255" s="10"/>
       <c r="V255" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="256" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18338,10 +18338,10 @@
         <v>5</v>
       </c>
       <c r="C256" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D256" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E256" s="11">
         <v>2004</v>
@@ -18391,7 +18391,7 @@
       </c>
       <c r="U256" s="10"/>
       <c r="V256" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="257" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18402,10 +18402,10 @@
         <v>6</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D257" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E257" s="11">
         <v>2004</v>
@@ -18455,7 +18455,7 @@
       </c>
       <c r="U257" s="10"/>
       <c r="V257" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="258" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18466,10 +18466,10 @@
         <v>7</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D258" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E258" s="11">
         <v>2004</v>
@@ -18519,7 +18519,7 @@
       </c>
       <c r="U258" s="10"/>
       <c r="V258" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="259" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18530,10 +18530,10 @@
         <v>8</v>
       </c>
       <c r="C259" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D259" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E259" s="11">
         <v>2004</v>
@@ -18583,7 +18583,7 @@
       </c>
       <c r="U259" s="10"/>
       <c r="V259" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="260" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18594,10 +18594,10 @@
         <v>9</v>
       </c>
       <c r="C260" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D260" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E260" s="11">
         <v>2004</v>
@@ -18647,7 +18647,7 @@
       </c>
       <c r="U260" s="10"/>
       <c r="V260" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="261" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18658,10 +18658,10 @@
         <v>10</v>
       </c>
       <c r="C261" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D261" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E261" s="11">
         <v>2004</v>
@@ -18711,7 +18711,7 @@
       </c>
       <c r="U261" s="10"/>
       <c r="V261" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="262" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18722,10 +18722,10 @@
         <v>11</v>
       </c>
       <c r="C262" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D262" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E262" s="11">
         <v>2004</v>
@@ -18775,7 +18775,7 @@
       </c>
       <c r="U262" s="10"/>
       <c r="V262" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="263" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18786,10 +18786,10 @@
         <v>12</v>
       </c>
       <c r="C263" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D263" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E263" s="11">
         <v>2004</v>
@@ -18839,7 +18839,7 @@
       </c>
       <c r="U263" s="10"/>
       <c r="V263" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="264" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18850,10 +18850,10 @@
         <v>13</v>
       </c>
       <c r="C264" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D264" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E264" s="11">
         <v>2004</v>
@@ -18903,7 +18903,7 @@
       </c>
       <c r="U264" s="10"/>
       <c r="V264" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="265" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18914,10 +18914,10 @@
         <v>14</v>
       </c>
       <c r="C265" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D265" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E265" s="11">
         <v>2004</v>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="U265" s="10"/>
       <c r="V265" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="266" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18978,10 +18978,10 @@
         <v>15</v>
       </c>
       <c r="C266" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D266" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E266" s="11">
         <v>2004</v>
@@ -19031,7 +19031,7 @@
       </c>
       <c r="U266" s="10"/>
       <c r="V266" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="267" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19042,10 +19042,10 @@
         <v>16</v>
       </c>
       <c r="C267" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D267" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E267" s="11">
         <v>2004</v>
@@ -19095,7 +19095,7 @@
       </c>
       <c r="U267" s="10"/>
       <c r="V267" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="268" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19106,10 +19106,10 @@
         <v>17</v>
       </c>
       <c r="C268" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D268" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E268" s="11">
         <v>2004</v>
@@ -19159,7 +19159,7 @@
       </c>
       <c r="U268" s="10"/>
       <c r="V268" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="269" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19170,10 +19170,10 @@
         <v>18</v>
       </c>
       <c r="C269" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D269" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E269" s="11">
         <v>2004</v>
@@ -19223,7 +19223,7 @@
       </c>
       <c r="U269" s="10"/>
       <c r="V269" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="270" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19234,10 +19234,10 @@
         <v>19</v>
       </c>
       <c r="C270" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D270" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E270" s="11">
         <v>2004</v>
@@ -19287,7 +19287,7 @@
       </c>
       <c r="U270" s="10"/>
       <c r="V270" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="271" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19298,10 +19298,10 @@
         <v>20</v>
       </c>
       <c r="C271" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D271" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E271" s="11">
         <v>2004</v>
@@ -19351,7 +19351,7 @@
       </c>
       <c r="U271" s="10"/>
       <c r="V271" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="272" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19362,10 +19362,10 @@
         <v>21</v>
       </c>
       <c r="C272" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D272" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E272" s="11">
         <v>2004</v>
@@ -19415,7 +19415,7 @@
       </c>
       <c r="U272" s="10"/>
       <c r="V272" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="273" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19426,10 +19426,10 @@
         <v>22</v>
       </c>
       <c r="C273" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D273" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E273" s="11">
         <v>2004</v>
@@ -19479,7 +19479,7 @@
       </c>
       <c r="U273" s="10"/>
       <c r="V273" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="274" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19490,10 +19490,10 @@
         <v>23</v>
       </c>
       <c r="C274" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D274" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E274" s="11">
         <v>2004</v>
@@ -19543,7 +19543,7 @@
       </c>
       <c r="U274" s="10"/>
       <c r="V274" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="275" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19554,10 +19554,10 @@
         <v>24</v>
       </c>
       <c r="C275" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D275" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E275" s="11">
         <v>2004</v>
@@ -19607,7 +19607,7 @@
       </c>
       <c r="U275" s="10"/>
       <c r="V275" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="276" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19618,10 +19618,10 @@
         <v>25</v>
       </c>
       <c r="C276" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D276" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E276" s="21">
         <v>2004</v>
@@ -19671,7 +19671,7 @@
       </c>
       <c r="U276" s="20"/>
       <c r="V276" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W276" s="22"/>
     </row>
@@ -19683,10 +19683,10 @@
         <v>1</v>
       </c>
       <c r="C277" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D277" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E277" s="11">
         <v>2004</v>
@@ -19736,7 +19736,7 @@
       </c>
       <c r="U277" s="10"/>
       <c r="V277" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="278" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19747,7 +19747,7 @@
         <v>2</v>
       </c>
       <c r="C278" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D278" s="10" t="s">
         <v>47</v>
@@ -19800,7 +19800,7 @@
       </c>
       <c r="U278" s="10"/>
       <c r="V278" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="279" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19811,10 +19811,10 @@
         <v>3</v>
       </c>
       <c r="C279" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D279" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E279" s="11">
         <v>2004</v>
@@ -19864,7 +19864,7 @@
       </c>
       <c r="U279" s="10"/>
       <c r="V279" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="280" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19875,10 +19875,10 @@
         <v>4</v>
       </c>
       <c r="C280" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D280" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E280" s="11">
         <v>2004</v>
@@ -19928,7 +19928,7 @@
       </c>
       <c r="U280" s="10"/>
       <c r="V280" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="281" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -19939,10 +19939,10 @@
         <v>5</v>
       </c>
       <c r="C281" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D281" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E281" s="11">
         <v>2004</v>
@@ -19992,7 +19992,7 @@
       </c>
       <c r="U281" s="10"/>
       <c r="V281" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="282" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20003,10 +20003,10 @@
         <v>6</v>
       </c>
       <c r="C282" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D282" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E282" s="11">
         <v>2004</v>
@@ -20056,7 +20056,7 @@
       </c>
       <c r="U282" s="10"/>
       <c r="V282" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="283" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20067,10 +20067,10 @@
         <v>7</v>
       </c>
       <c r="C283" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D283" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E283" s="11">
         <v>2004</v>
@@ -20120,7 +20120,7 @@
       </c>
       <c r="U283" s="10"/>
       <c r="V283" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="284" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20131,10 +20131,10 @@
         <v>8</v>
       </c>
       <c r="C284" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D284" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E284" s="11">
         <v>2004</v>
@@ -20184,7 +20184,7 @@
       </c>
       <c r="U284" s="10"/>
       <c r="V284" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="285" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20195,10 +20195,10 @@
         <v>9</v>
       </c>
       <c r="C285" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D285" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E285" s="11">
         <v>2004</v>
@@ -20248,7 +20248,7 @@
       </c>
       <c r="U285" s="10"/>
       <c r="V285" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="286" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20259,10 +20259,10 @@
         <v>10</v>
       </c>
       <c r="C286" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D286" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E286" s="11">
         <v>2004</v>
@@ -20312,7 +20312,7 @@
       </c>
       <c r="U286" s="10"/>
       <c r="V286" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="287" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20323,10 +20323,10 @@
         <v>11</v>
       </c>
       <c r="C287" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D287" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E287" s="11">
         <v>2004</v>
@@ -20376,7 +20376,7 @@
       </c>
       <c r="U287" s="10"/>
       <c r="V287" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="288" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20387,10 +20387,10 @@
         <v>12</v>
       </c>
       <c r="C288" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D288" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E288" s="11">
         <v>2004</v>
@@ -20440,7 +20440,7 @@
       </c>
       <c r="U288" s="10"/>
       <c r="V288" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="289" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20451,10 +20451,10 @@
         <v>13</v>
       </c>
       <c r="C289" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D289" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E289" s="11">
         <v>2004</v>
@@ -20504,7 +20504,7 @@
       </c>
       <c r="U289" s="10"/>
       <c r="V289" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="290" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20515,10 +20515,10 @@
         <v>14</v>
       </c>
       <c r="C290" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D290" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E290" s="11">
         <v>2004</v>
@@ -20568,7 +20568,7 @@
       </c>
       <c r="U290" s="10"/>
       <c r="V290" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="291" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20579,10 +20579,10 @@
         <v>15</v>
       </c>
       <c r="C291" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D291" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E291" s="11">
         <v>2004</v>
@@ -20632,7 +20632,7 @@
       </c>
       <c r="U291" s="10"/>
       <c r="V291" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="292" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20643,10 +20643,10 @@
         <v>16</v>
       </c>
       <c r="C292" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D292" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E292" s="11">
         <v>2004</v>
@@ -20696,7 +20696,7 @@
       </c>
       <c r="U292" s="10"/>
       <c r="V292" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="293" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20707,10 +20707,10 @@
         <v>17</v>
       </c>
       <c r="C293" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D293" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E293" s="11">
         <v>2004</v>
@@ -20760,7 +20760,7 @@
       </c>
       <c r="U293" s="10"/>
       <c r="V293" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="294" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20771,10 +20771,10 @@
         <v>18</v>
       </c>
       <c r="C294" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D294" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E294" s="11">
         <v>2004</v>
@@ -20824,7 +20824,7 @@
       </c>
       <c r="U294" s="10"/>
       <c r="V294" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="295" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20835,10 +20835,10 @@
         <v>19</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D295" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E295" s="11">
         <v>2004</v>
@@ -20888,7 +20888,7 @@
       </c>
       <c r="U295" s="10"/>
       <c r="V295" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="296" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20899,10 +20899,10 @@
         <v>20</v>
       </c>
       <c r="C296" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D296" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E296" s="11">
         <v>2004</v>
@@ -20952,7 +20952,7 @@
       </c>
       <c r="U296" s="10"/>
       <c r="V296" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="297" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20963,10 +20963,10 @@
         <v>21</v>
       </c>
       <c r="C297" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D297" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E297" s="11">
         <v>2004</v>
@@ -21016,7 +21016,7 @@
       </c>
       <c r="U297" s="10"/>
       <c r="V297" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="298" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21027,10 +21027,10 @@
         <v>22</v>
       </c>
       <c r="C298" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D298" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E298" s="11">
         <v>2004</v>
@@ -21080,7 +21080,7 @@
       </c>
       <c r="U298" s="10"/>
       <c r="V298" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="299" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21091,10 +21091,10 @@
         <v>23</v>
       </c>
       <c r="C299" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D299" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E299" s="11">
         <v>2004</v>
@@ -21144,7 +21144,7 @@
       </c>
       <c r="U299" s="10"/>
       <c r="V299" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="300" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21155,10 +21155,10 @@
         <v>24</v>
       </c>
       <c r="C300" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D300" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E300" s="11">
         <v>2004</v>
@@ -21208,7 +21208,7 @@
       </c>
       <c r="U300" s="10"/>
       <c r="V300" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="301" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21219,10 +21219,10 @@
         <v>25</v>
       </c>
       <c r="C301" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D301" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E301" s="11">
         <v>2004</v>
@@ -21272,7 +21272,7 @@
       </c>
       <c r="U301" s="10"/>
       <c r="V301" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="302" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21283,10 +21283,10 @@
         <v>1</v>
       </c>
       <c r="C302" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D302" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E302" s="15">
         <v>3000</v>
@@ -21336,7 +21336,7 @@
       </c>
       <c r="U302" s="14"/>
       <c r="V302" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="303" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21347,10 +21347,10 @@
         <v>2</v>
       </c>
       <c r="C303" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D303" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E303" s="15">
         <v>3000</v>
@@ -21400,7 +21400,7 @@
       </c>
       <c r="U303" s="14"/>
       <c r="V303" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="304" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21411,10 +21411,10 @@
         <v>3</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D304" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E304" s="15">
         <v>3000</v>
@@ -21464,7 +21464,7 @@
       </c>
       <c r="U304" s="14"/>
       <c r="V304" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="305" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21475,10 +21475,10 @@
         <v>4</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D305" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E305" s="15">
         <v>3000</v>
@@ -21528,7 +21528,7 @@
       </c>
       <c r="U305" s="14"/>
       <c r="V305" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="306" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21539,10 +21539,10 @@
         <v>5</v>
       </c>
       <c r="C306" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D306" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E306" s="15">
         <v>3000</v>
@@ -21592,7 +21592,7 @@
       </c>
       <c r="U306" s="14"/>
       <c r="V306" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="307" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21603,10 +21603,10 @@
         <v>6</v>
       </c>
       <c r="C307" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D307" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E307" s="15">
         <v>3000</v>
@@ -21656,7 +21656,7 @@
       </c>
       <c r="U307" s="14"/>
       <c r="V307" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="308" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21667,10 +21667,10 @@
         <v>7</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D308" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E308" s="15">
         <v>3000</v>
@@ -21720,7 +21720,7 @@
       </c>
       <c r="U308" s="14"/>
       <c r="V308" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="309" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21731,10 +21731,10 @@
         <v>8</v>
       </c>
       <c r="C309" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D309" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E309" s="15">
         <v>3000</v>
@@ -21784,7 +21784,7 @@
       </c>
       <c r="U309" s="14"/>
       <c r="V309" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="310" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21795,10 +21795,10 @@
         <v>9</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D310" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E310" s="15">
         <v>3000</v>
@@ -21848,7 +21848,7 @@
       </c>
       <c r="U310" s="14"/>
       <c r="V310" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="311" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21859,10 +21859,10 @@
         <v>10</v>
       </c>
       <c r="C311" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D311" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E311" s="15">
         <v>3000</v>
@@ -21912,7 +21912,7 @@
       </c>
       <c r="U311" s="14"/>
       <c r="V311" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="312" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21923,10 +21923,10 @@
         <v>11</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D312" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E312" s="15">
         <v>3000</v>
@@ -21976,7 +21976,7 @@
       </c>
       <c r="U312" s="14"/>
       <c r="V312" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="313" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21987,10 +21987,10 @@
         <v>12</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D313" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E313" s="15">
         <v>3000</v>
@@ -22040,7 +22040,7 @@
       </c>
       <c r="U313" s="14"/>
       <c r="V313" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="314" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22051,10 +22051,10 @@
         <v>13</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D314" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E314" s="15">
         <v>3000</v>
@@ -22104,7 +22104,7 @@
       </c>
       <c r="U314" s="14"/>
       <c r="V314" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="315" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22115,10 +22115,10 @@
         <v>14</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D315" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E315" s="15">
         <v>3000</v>
@@ -22168,7 +22168,7 @@
       </c>
       <c r="U315" s="14"/>
       <c r="V315" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="316" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22179,10 +22179,10 @@
         <v>15</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D316" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E316" s="15">
         <v>3000</v>
@@ -22232,7 +22232,7 @@
       </c>
       <c r="U316" s="14"/>
       <c r="V316" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="317" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22243,10 +22243,10 @@
         <v>16</v>
       </c>
       <c r="C317" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D317" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E317" s="15">
         <v>3000</v>
@@ -22296,7 +22296,7 @@
       </c>
       <c r="U317" s="14"/>
       <c r="V317" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="318" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22307,10 +22307,10 @@
         <v>17</v>
       </c>
       <c r="C318" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D318" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E318" s="15">
         <v>3000</v>
@@ -22360,7 +22360,7 @@
       </c>
       <c r="U318" s="14"/>
       <c r="V318" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="319" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22371,10 +22371,10 @@
         <v>18</v>
       </c>
       <c r="C319" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D319" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E319" s="15">
         <v>3000</v>
@@ -22424,7 +22424,7 @@
       </c>
       <c r="U319" s="14"/>
       <c r="V319" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="320" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22435,10 +22435,10 @@
         <v>19</v>
       </c>
       <c r="C320" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D320" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E320" s="15">
         <v>3000</v>
@@ -22488,7 +22488,7 @@
       </c>
       <c r="U320" s="14"/>
       <c r="V320" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="321" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22499,10 +22499,10 @@
         <v>20</v>
       </c>
       <c r="C321" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D321" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E321" s="15">
         <v>3000</v>
@@ -22552,7 +22552,7 @@
       </c>
       <c r="U321" s="14"/>
       <c r="V321" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="322" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22563,10 +22563,10 @@
         <v>21</v>
       </c>
       <c r="C322" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D322" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E322" s="15">
         <v>3000</v>
@@ -22616,7 +22616,7 @@
       </c>
       <c r="U322" s="14"/>
       <c r="V322" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="323" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22627,10 +22627,10 @@
         <v>22</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D323" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E323" s="15">
         <v>3000</v>
@@ -22680,7 +22680,7 @@
       </c>
       <c r="U323" s="14"/>
       <c r="V323" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="324" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22691,10 +22691,10 @@
         <v>23</v>
       </c>
       <c r="C324" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D324" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E324" s="15">
         <v>3000</v>
@@ -22744,7 +22744,7 @@
       </c>
       <c r="U324" s="14"/>
       <c r="V324" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="325" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22755,10 +22755,10 @@
         <v>24</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D325" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E325" s="15">
         <v>3000</v>
@@ -22808,7 +22808,7 @@
       </c>
       <c r="U325" s="14"/>
       <c r="V325" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="326" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22819,10 +22819,10 @@
         <v>25</v>
       </c>
       <c r="C326" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D326" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E326" s="26">
         <v>3000</v>
@@ -22872,7 +22872,7 @@
       </c>
       <c r="U326" s="25"/>
       <c r="V326" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="327" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22883,7 +22883,7 @@
         <v>1</v>
       </c>
       <c r="C327" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D327" s="14" t="s">
         <v>36</v>
@@ -22936,7 +22936,7 @@
       </c>
       <c r="U327" s="14"/>
       <c r="V327" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="328" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22947,7 +22947,7 @@
         <v>2</v>
       </c>
       <c r="C328" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D328" s="14" t="s">
         <v>37</v>
@@ -23000,7 +23000,7 @@
       </c>
       <c r="U328" s="14"/>
       <c r="V328" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="329" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23011,10 +23011,10 @@
         <v>3</v>
       </c>
       <c r="C329" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D329" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E329" s="15">
         <v>3001</v>
@@ -23064,7 +23064,7 @@
       </c>
       <c r="U329" s="14"/>
       <c r="V329" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="330" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23075,10 +23075,10 @@
         <v>4</v>
       </c>
       <c r="C330" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D330" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E330" s="15">
         <v>3001</v>
@@ -23128,7 +23128,7 @@
       </c>
       <c r="U330" s="14"/>
       <c r="V330" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="331" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23139,10 +23139,10 @@
         <v>5</v>
       </c>
       <c r="C331" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D331" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E331" s="15">
         <v>3001</v>
@@ -23192,7 +23192,7 @@
       </c>
       <c r="U331" s="14"/>
       <c r="V331" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="332" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23203,10 +23203,10 @@
         <v>6</v>
       </c>
       <c r="C332" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D332" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E332" s="15">
         <v>3001</v>
@@ -23256,7 +23256,7 @@
       </c>
       <c r="U332" s="14"/>
       <c r="V332" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="333" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23267,10 +23267,10 @@
         <v>7</v>
       </c>
       <c r="C333" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D333" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E333" s="15">
         <v>3001</v>
@@ -23320,7 +23320,7 @@
       </c>
       <c r="U333" s="14"/>
       <c r="V333" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="334" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23331,10 +23331,10 @@
         <v>8</v>
       </c>
       <c r="C334" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D334" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E334" s="15">
         <v>3001</v>
@@ -23384,7 +23384,7 @@
       </c>
       <c r="U334" s="14"/>
       <c r="V334" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="335" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23395,10 +23395,10 @@
         <v>9</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D335" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E335" s="15">
         <v>3001</v>
@@ -23448,7 +23448,7 @@
       </c>
       <c r="U335" s="14"/>
       <c r="V335" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="336" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23459,10 +23459,10 @@
         <v>10</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D336" s="14" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E336" s="15">
         <v>3001</v>
@@ -23512,7 +23512,7 @@
       </c>
       <c r="U336" s="14"/>
       <c r="V336" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="337" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23523,10 +23523,10 @@
         <v>11</v>
       </c>
       <c r="C337" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D337" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E337" s="15">
         <v>3001</v>
@@ -23576,7 +23576,7 @@
       </c>
       <c r="U337" s="14"/>
       <c r="V337" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="338" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23587,10 +23587,10 @@
         <v>12</v>
       </c>
       <c r="C338" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D338" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E338" s="15">
         <v>3001</v>
@@ -23640,7 +23640,7 @@
       </c>
       <c r="U338" s="14"/>
       <c r="V338" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="339" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23651,10 +23651,10 @@
         <v>13</v>
       </c>
       <c r="C339" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D339" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E339" s="15">
         <v>3001</v>
@@ -23704,7 +23704,7 @@
       </c>
       <c r="U339" s="14"/>
       <c r="V339" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="340" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23715,10 +23715,10 @@
         <v>14</v>
       </c>
       <c r="C340" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E340" s="15">
         <v>3001</v>
@@ -23768,7 +23768,7 @@
       </c>
       <c r="U340" s="14"/>
       <c r="V340" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="341" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23779,10 +23779,10 @@
         <v>15</v>
       </c>
       <c r="C341" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D341" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E341" s="15">
         <v>3001</v>
@@ -23832,7 +23832,7 @@
       </c>
       <c r="U341" s="14"/>
       <c r="V341" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="342" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23843,10 +23843,10 @@
         <v>16</v>
       </c>
       <c r="C342" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D342" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E342" s="15">
         <v>3001</v>
@@ -23896,7 +23896,7 @@
       </c>
       <c r="U342" s="14"/>
       <c r="V342" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="343" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23907,10 +23907,10 @@
         <v>17</v>
       </c>
       <c r="C343" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D343" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E343" s="15">
         <v>3001</v>
@@ -23960,7 +23960,7 @@
       </c>
       <c r="U343" s="14"/>
       <c r="V343" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="344" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23971,10 +23971,10 @@
         <v>18</v>
       </c>
       <c r="C344" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D344" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E344" s="15">
         <v>3001</v>
@@ -24024,7 +24024,7 @@
       </c>
       <c r="U344" s="14"/>
       <c r="V344" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="345" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24035,10 +24035,10 @@
         <v>19</v>
       </c>
       <c r="C345" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D345" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E345" s="15">
         <v>3001</v>
@@ -24088,7 +24088,7 @@
       </c>
       <c r="U345" s="14"/>
       <c r="V345" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="346" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24099,10 +24099,10 @@
         <v>20</v>
       </c>
       <c r="C346" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D346" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E346" s="15">
         <v>3001</v>
@@ -24152,7 +24152,7 @@
       </c>
       <c r="U346" s="14"/>
       <c r="V346" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="347" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24163,10 +24163,10 @@
         <v>21</v>
       </c>
       <c r="C347" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D347" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E347" s="15">
         <v>3001</v>
@@ -24216,7 +24216,7 @@
       </c>
       <c r="U347" s="14"/>
       <c r="V347" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="348" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24227,10 +24227,10 @@
         <v>22</v>
       </c>
       <c r="C348" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D348" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E348" s="15">
         <v>3001</v>
@@ -24280,7 +24280,7 @@
       </c>
       <c r="U348" s="14"/>
       <c r="V348" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="349" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24291,10 +24291,10 @@
         <v>23</v>
       </c>
       <c r="C349" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D349" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E349" s="15">
         <v>3001</v>
@@ -24344,7 +24344,7 @@
       </c>
       <c r="U349" s="14"/>
       <c r="V349" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="350" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24355,10 +24355,10 @@
         <v>24</v>
       </c>
       <c r="C350" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D350" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E350" s="15">
         <v>3001</v>
@@ -24408,7 +24408,7 @@
       </c>
       <c r="U350" s="14"/>
       <c r="V350" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="351" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24419,10 +24419,10 @@
         <v>25</v>
       </c>
       <c r="C351" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D351" s="23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E351" s="24">
         <v>3001</v>
@@ -24472,7 +24472,7 @@
       </c>
       <c r="U351" s="23"/>
       <c r="V351" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="352" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24483,7 +24483,7 @@
         <v>1</v>
       </c>
       <c r="C352" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D352" s="14" t="s">
         <v>38</v>
@@ -24536,7 +24536,7 @@
       </c>
       <c r="U352" s="14"/>
       <c r="V352" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="353" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24547,7 +24547,7 @@
         <v>2</v>
       </c>
       <c r="C353" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D353" s="14" t="s">
         <v>39</v>
@@ -24600,7 +24600,7 @@
       </c>
       <c r="U353" s="14"/>
       <c r="V353" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="354" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24611,10 +24611,10 @@
         <v>3</v>
       </c>
       <c r="C354" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D354" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E354" s="15">
         <v>3002</v>
@@ -24664,7 +24664,7 @@
       </c>
       <c r="U354" s="14"/>
       <c r="V354" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="355" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24675,10 +24675,10 @@
         <v>4</v>
       </c>
       <c r="C355" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D355" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E355" s="15">
         <v>3002</v>
@@ -24728,7 +24728,7 @@
       </c>
       <c r="U355" s="14"/>
       <c r="V355" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="356" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24739,10 +24739,10 @@
         <v>5</v>
       </c>
       <c r="C356" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D356" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E356" s="15">
         <v>3002</v>
@@ -24792,7 +24792,7 @@
       </c>
       <c r="U356" s="14"/>
       <c r="V356" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="357" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24803,10 +24803,10 @@
         <v>6</v>
       </c>
       <c r="C357" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D357" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E357" s="15">
         <v>3002</v>
@@ -24856,7 +24856,7 @@
       </c>
       <c r="U357" s="14"/>
       <c r="V357" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="358" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24867,10 +24867,10 @@
         <v>7</v>
       </c>
       <c r="C358" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D358" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E358" s="15">
         <v>3002</v>
@@ -24920,7 +24920,7 @@
       </c>
       <c r="U358" s="14"/>
       <c r="V358" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="359" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24931,10 +24931,10 @@
         <v>8</v>
       </c>
       <c r="C359" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D359" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E359" s="15">
         <v>3002</v>
@@ -24984,7 +24984,7 @@
       </c>
       <c r="U359" s="14"/>
       <c r="V359" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="360" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24995,10 +24995,10 @@
         <v>9</v>
       </c>
       <c r="C360" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D360" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E360" s="15">
         <v>3002</v>
@@ -25048,7 +25048,7 @@
       </c>
       <c r="U360" s="14"/>
       <c r="V360" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="361" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25059,10 +25059,10 @@
         <v>10</v>
       </c>
       <c r="C361" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D361" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E361" s="15">
         <v>3002</v>
@@ -25112,7 +25112,7 @@
       </c>
       <c r="U361" s="14"/>
       <c r="V361" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="362" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25123,10 +25123,10 @@
         <v>11</v>
       </c>
       <c r="C362" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D362" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E362" s="15">
         <v>3002</v>
@@ -25176,7 +25176,7 @@
       </c>
       <c r="U362" s="14"/>
       <c r="V362" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="363" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25187,10 +25187,10 @@
         <v>12</v>
       </c>
       <c r="C363" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D363" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E363" s="15">
         <v>3002</v>
@@ -25240,7 +25240,7 @@
       </c>
       <c r="U363" s="14"/>
       <c r="V363" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="364" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25251,10 +25251,10 @@
         <v>13</v>
       </c>
       <c r="C364" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D364" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E364" s="15">
         <v>3002</v>
@@ -25304,7 +25304,7 @@
       </c>
       <c r="U364" s="14"/>
       <c r="V364" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="365" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25315,10 +25315,10 @@
         <v>14</v>
       </c>
       <c r="C365" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D365" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E365" s="15">
         <v>3002</v>
@@ -25368,7 +25368,7 @@
       </c>
       <c r="U365" s="14"/>
       <c r="V365" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="366" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25379,10 +25379,10 @@
         <v>15</v>
       </c>
       <c r="C366" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D366" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E366" s="15">
         <v>3002</v>
@@ -25432,7 +25432,7 @@
       </c>
       <c r="U366" s="14"/>
       <c r="V366" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="367" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25443,10 +25443,10 @@
         <v>16</v>
       </c>
       <c r="C367" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D367" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E367" s="15">
         <v>3002</v>
@@ -25496,7 +25496,7 @@
       </c>
       <c r="U367" s="14"/>
       <c r="V367" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="368" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25507,10 +25507,10 @@
         <v>17</v>
       </c>
       <c r="C368" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D368" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E368" s="15">
         <v>3002</v>
@@ -25560,7 +25560,7 @@
       </c>
       <c r="U368" s="14"/>
       <c r="V368" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="369" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25571,10 +25571,10 @@
         <v>18</v>
       </c>
       <c r="C369" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D369" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E369" s="15">
         <v>3002</v>
@@ -25624,7 +25624,7 @@
       </c>
       <c r="U369" s="14"/>
       <c r="V369" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="370" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25635,10 +25635,10 @@
         <v>19</v>
       </c>
       <c r="C370" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D370" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E370" s="15">
         <v>3002</v>
@@ -25688,7 +25688,7 @@
       </c>
       <c r="U370" s="14"/>
       <c r="V370" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="371" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25699,10 +25699,10 @@
         <v>20</v>
       </c>
       <c r="C371" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D371" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E371" s="15">
         <v>3002</v>
@@ -25752,7 +25752,7 @@
       </c>
       <c r="U371" s="14"/>
       <c r="V371" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="372" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25763,10 +25763,10 @@
         <v>21</v>
       </c>
       <c r="C372" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D372" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E372" s="15">
         <v>3002</v>
@@ -25816,7 +25816,7 @@
       </c>
       <c r="U372" s="14"/>
       <c r="V372" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="373" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25827,10 +25827,10 @@
         <v>22</v>
       </c>
       <c r="C373" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D373" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E373" s="15">
         <v>3002</v>
@@ -25880,7 +25880,7 @@
       </c>
       <c r="U373" s="14"/>
       <c r="V373" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="374" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25891,10 +25891,10 @@
         <v>23</v>
       </c>
       <c r="C374" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D374" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E374" s="15">
         <v>3002</v>
@@ -25944,7 +25944,7 @@
       </c>
       <c r="U374" s="14"/>
       <c r="V374" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="375" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25955,10 +25955,10 @@
         <v>24</v>
       </c>
       <c r="C375" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D375" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E375" s="15">
         <v>3002</v>
@@ -26008,7 +26008,7 @@
       </c>
       <c r="U375" s="14"/>
       <c r="V375" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="376" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26019,10 +26019,10 @@
         <v>25</v>
       </c>
       <c r="C376" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D376" s="23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E376" s="24">
         <v>3002</v>
@@ -26072,7 +26072,7 @@
       </c>
       <c r="U376" s="23"/>
       <c r="V376" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="377" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26083,7 +26083,7 @@
         <v>1</v>
       </c>
       <c r="C377" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D377" s="14" t="s">
         <v>48</v>
@@ -26136,7 +26136,7 @@
       </c>
       <c r="U377" s="14"/>
       <c r="V377" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="378" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="C378" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D378" s="14" t="s">
         <v>49</v>
@@ -26200,7 +26200,7 @@
       </c>
       <c r="U378" s="14"/>
       <c r="V378" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="379" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26211,10 +26211,10 @@
         <v>3</v>
       </c>
       <c r="C379" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D379" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E379" s="15">
         <v>3003</v>
@@ -26264,7 +26264,7 @@
       </c>
       <c r="U379" s="14"/>
       <c r="V379" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="380" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26275,10 +26275,10 @@
         <v>4</v>
       </c>
       <c r="C380" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D380" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E380" s="15">
         <v>3003</v>
@@ -26328,7 +26328,7 @@
       </c>
       <c r="U380" s="14"/>
       <c r="V380" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="381" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26339,10 +26339,10 @@
         <v>5</v>
       </c>
       <c r="C381" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D381" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E381" s="15">
         <v>3003</v>
@@ -26392,7 +26392,7 @@
       </c>
       <c r="U381" s="14"/>
       <c r="V381" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="382" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26403,10 +26403,10 @@
         <v>6</v>
       </c>
       <c r="C382" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D382" s="14" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E382" s="15">
         <v>3003</v>
@@ -26456,7 +26456,7 @@
       </c>
       <c r="U382" s="14"/>
       <c r="V382" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="383" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26467,10 +26467,10 @@
         <v>7</v>
       </c>
       <c r="C383" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D383" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E383" s="15">
         <v>3003</v>
@@ -26520,7 +26520,7 @@
       </c>
       <c r="U383" s="14"/>
       <c r="V383" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="384" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26531,10 +26531,10 @@
         <v>8</v>
       </c>
       <c r="C384" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D384" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E384" s="15">
         <v>3003</v>
@@ -26584,7 +26584,7 @@
       </c>
       <c r="U384" s="14"/>
       <c r="V384" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="385" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26595,10 +26595,10 @@
         <v>9</v>
       </c>
       <c r="C385" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D385" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E385" s="15">
         <v>3003</v>
@@ -26648,7 +26648,7 @@
       </c>
       <c r="U385" s="14"/>
       <c r="V385" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="386" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26659,10 +26659,10 @@
         <v>10</v>
       </c>
       <c r="C386" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D386" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E386" s="15">
         <v>3003</v>
@@ -26712,7 +26712,7 @@
       </c>
       <c r="U386" s="14"/>
       <c r="V386" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="387" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26723,10 +26723,10 @@
         <v>11</v>
       </c>
       <c r="C387" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D387" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E387" s="15">
         <v>3003</v>
@@ -26776,7 +26776,7 @@
       </c>
       <c r="U387" s="14"/>
       <c r="V387" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="388" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26787,10 +26787,10 @@
         <v>12</v>
       </c>
       <c r="C388" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D388" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E388" s="15">
         <v>3003</v>
@@ -26840,7 +26840,7 @@
       </c>
       <c r="U388" s="14"/>
       <c r="V388" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="389" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26851,10 +26851,10 @@
         <v>13</v>
       </c>
       <c r="C389" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D389" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E389" s="15">
         <v>3003</v>
@@ -26904,7 +26904,7 @@
       </c>
       <c r="U389" s="14"/>
       <c r="V389" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="390" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26915,10 +26915,10 @@
         <v>14</v>
       </c>
       <c r="C390" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D390" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E390" s="15">
         <v>3003</v>
@@ -26968,7 +26968,7 @@
       </c>
       <c r="U390" s="14"/>
       <c r="V390" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="391" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26979,10 +26979,10 @@
         <v>15</v>
       </c>
       <c r="C391" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D391" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E391" s="15">
         <v>3003</v>
@@ -27032,7 +27032,7 @@
       </c>
       <c r="U391" s="14"/>
       <c r="V391" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="392" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27043,10 +27043,10 @@
         <v>16</v>
       </c>
       <c r="C392" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D392" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E392" s="15">
         <v>3003</v>
@@ -27096,7 +27096,7 @@
       </c>
       <c r="U392" s="14"/>
       <c r="V392" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="393" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27107,10 +27107,10 @@
         <v>17</v>
       </c>
       <c r="C393" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D393" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E393" s="15">
         <v>3003</v>
@@ -27160,7 +27160,7 @@
       </c>
       <c r="U393" s="14"/>
       <c r="V393" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="394" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27171,10 +27171,10 @@
         <v>18</v>
       </c>
       <c r="C394" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D394" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E394" s="15">
         <v>3003</v>
@@ -27224,7 +27224,7 @@
       </c>
       <c r="U394" s="14"/>
       <c r="V394" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="395" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27235,10 +27235,10 @@
         <v>19</v>
       </c>
       <c r="C395" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D395" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E395" s="15">
         <v>3003</v>
@@ -27288,7 +27288,7 @@
       </c>
       <c r="U395" s="14"/>
       <c r="V395" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="396" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27299,10 +27299,10 @@
         <v>20</v>
       </c>
       <c r="C396" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D396" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E396" s="15">
         <v>3003</v>
@@ -27352,7 +27352,7 @@
       </c>
       <c r="U396" s="14"/>
       <c r="V396" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="397" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27363,10 +27363,10 @@
         <v>21</v>
       </c>
       <c r="C397" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D397" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E397" s="15">
         <v>3003</v>
@@ -27416,7 +27416,7 @@
       </c>
       <c r="U397" s="14"/>
       <c r="V397" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="398" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27427,10 +27427,10 @@
         <v>22</v>
       </c>
       <c r="C398" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D398" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E398" s="15">
         <v>3003</v>
@@ -27480,7 +27480,7 @@
       </c>
       <c r="U398" s="14"/>
       <c r="V398" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="399" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27491,10 +27491,10 @@
         <v>23</v>
       </c>
       <c r="C399" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D399" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E399" s="15">
         <v>3003</v>
@@ -27544,7 +27544,7 @@
       </c>
       <c r="U399" s="14"/>
       <c r="V399" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="400" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27555,10 +27555,10 @@
         <v>24</v>
       </c>
       <c r="C400" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D400" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E400" s="15">
         <v>3003</v>
@@ -27608,7 +27608,7 @@
       </c>
       <c r="U400" s="14"/>
       <c r="V400" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="401" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27619,10 +27619,10 @@
         <v>25</v>
       </c>
       <c r="C401" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D401" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E401" s="24">
         <v>3003</v>
@@ -27672,7 +27672,7 @@
       </c>
       <c r="U401" s="23"/>
       <c r="V401" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="402" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27683,7 +27683,7 @@
         <v>1</v>
       </c>
       <c r="C402" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D402" s="14" t="s">
         <v>50</v>
@@ -27736,7 +27736,7 @@
       </c>
       <c r="U402" s="14"/>
       <c r="V402" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="403" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27747,7 +27747,7 @@
         <v>2</v>
       </c>
       <c r="C403" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D403" s="14" t="s">
         <v>51</v>
@@ -27800,7 +27800,7 @@
       </c>
       <c r="U403" s="14"/>
       <c r="V403" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="404" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27811,10 +27811,10 @@
         <v>3</v>
       </c>
       <c r="C404" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D404" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E404" s="15">
         <v>3004</v>
@@ -27864,7 +27864,7 @@
       </c>
       <c r="U404" s="14"/>
       <c r="V404" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="405" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27875,10 +27875,10 @@
         <v>4</v>
       </c>
       <c r="C405" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D405" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E405" s="15">
         <v>3004</v>
@@ -27928,7 +27928,7 @@
       </c>
       <c r="U405" s="14"/>
       <c r="V405" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="406" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27939,10 +27939,10 @@
         <v>5</v>
       </c>
       <c r="C406" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D406" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E406" s="15">
         <v>3004</v>
@@ -27992,7 +27992,7 @@
       </c>
       <c r="U406" s="14"/>
       <c r="V406" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="407" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28003,10 +28003,10 @@
         <v>6</v>
       </c>
       <c r="C407" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D407" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E407" s="15">
         <v>3004</v>
@@ -28056,7 +28056,7 @@
       </c>
       <c r="U407" s="14"/>
       <c r="V407" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="408" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28067,10 +28067,10 @@
         <v>7</v>
       </c>
       <c r="C408" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D408" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E408" s="15">
         <v>3004</v>
@@ -28120,7 +28120,7 @@
       </c>
       <c r="U408" s="14"/>
       <c r="V408" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="409" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28131,10 +28131,10 @@
         <v>8</v>
       </c>
       <c r="C409" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D409" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E409" s="15">
         <v>3004</v>
@@ -28184,7 +28184,7 @@
       </c>
       <c r="U409" s="14"/>
       <c r="V409" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="410" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28195,10 +28195,10 @@
         <v>9</v>
       </c>
       <c r="C410" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D410" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E410" s="15">
         <v>3004</v>
@@ -28248,7 +28248,7 @@
       </c>
       <c r="U410" s="14"/>
       <c r="V410" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="411" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28259,10 +28259,10 @@
         <v>10</v>
       </c>
       <c r="C411" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D411" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E411" s="15">
         <v>3004</v>
@@ -28312,7 +28312,7 @@
       </c>
       <c r="U411" s="14"/>
       <c r="V411" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="412" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28323,10 +28323,10 @@
         <v>11</v>
       </c>
       <c r="C412" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D412" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E412" s="15">
         <v>3004</v>
@@ -28376,7 +28376,7 @@
       </c>
       <c r="U412" s="14"/>
       <c r="V412" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="413" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28387,10 +28387,10 @@
         <v>12</v>
       </c>
       <c r="C413" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D413" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E413" s="15">
         <v>3004</v>
@@ -28440,7 +28440,7 @@
       </c>
       <c r="U413" s="14"/>
       <c r="V413" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="414" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28451,10 +28451,10 @@
         <v>13</v>
       </c>
       <c r="C414" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D414" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E414" s="15">
         <v>3004</v>
@@ -28504,7 +28504,7 @@
       </c>
       <c r="U414" s="14"/>
       <c r="V414" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="415" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28515,10 +28515,10 @@
         <v>14</v>
       </c>
       <c r="C415" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D415" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E415" s="15">
         <v>3004</v>
@@ -28568,7 +28568,7 @@
       </c>
       <c r="U415" s="14"/>
       <c r="V415" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="416" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28579,10 +28579,10 @@
         <v>15</v>
       </c>
       <c r="C416" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D416" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E416" s="15">
         <v>3004</v>
@@ -28632,7 +28632,7 @@
       </c>
       <c r="U416" s="14"/>
       <c r="V416" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="417" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28643,10 +28643,10 @@
         <v>16</v>
       </c>
       <c r="C417" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D417" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E417" s="15">
         <v>3004</v>
@@ -28696,7 +28696,7 @@
       </c>
       <c r="U417" s="14"/>
       <c r="V417" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="418" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28707,10 +28707,10 @@
         <v>17</v>
       </c>
       <c r="C418" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D418" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E418" s="15">
         <v>3004</v>
@@ -28760,7 +28760,7 @@
       </c>
       <c r="U418" s="14"/>
       <c r="V418" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="419" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28771,10 +28771,10 @@
         <v>18</v>
       </c>
       <c r="C419" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D419" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E419" s="15">
         <v>3004</v>
@@ -28824,7 +28824,7 @@
       </c>
       <c r="U419" s="14"/>
       <c r="V419" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="420" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28835,10 +28835,10 @@
         <v>19</v>
       </c>
       <c r="C420" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D420" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E420" s="15">
         <v>3004</v>
@@ -28888,7 +28888,7 @@
       </c>
       <c r="U420" s="14"/>
       <c r="V420" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="421" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28899,10 +28899,10 @@
         <v>20</v>
       </c>
       <c r="C421" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D421" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E421" s="15">
         <v>3004</v>
@@ -28952,7 +28952,7 @@
       </c>
       <c r="U421" s="14"/>
       <c r="V421" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="422" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28963,10 +28963,10 @@
         <v>21</v>
       </c>
       <c r="C422" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D422" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E422" s="15">
         <v>3004</v>
@@ -29016,7 +29016,7 @@
       </c>
       <c r="U422" s="14"/>
       <c r="V422" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="423" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29027,10 +29027,10 @@
         <v>22</v>
       </c>
       <c r="C423" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D423" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E423" s="15">
         <v>3004</v>
@@ -29080,7 +29080,7 @@
       </c>
       <c r="U423" s="14"/>
       <c r="V423" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="424" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29091,10 +29091,10 @@
         <v>23</v>
       </c>
       <c r="C424" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D424" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E424" s="15">
         <v>3004</v>
@@ -29144,7 +29144,7 @@
       </c>
       <c r="U424" s="14"/>
       <c r="V424" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="425" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29155,10 +29155,10 @@
         <v>24</v>
       </c>
       <c r="C425" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D425" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E425" s="15">
         <v>3004</v>
@@ -29208,7 +29208,7 @@
       </c>
       <c r="U425" s="14"/>
       <c r="V425" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="426" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29219,10 +29219,10 @@
         <v>25</v>
       </c>
       <c r="C426" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D426" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E426" s="24">
         <v>3004</v>
@@ -29272,7 +29272,7 @@
       </c>
       <c r="U426" s="23"/>
       <c r="V426" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="427" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29283,10 +29283,10 @@
         <v>1</v>
       </c>
       <c r="C427" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D427" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E427" s="15">
         <v>3004</v>
@@ -29336,7 +29336,7 @@
       </c>
       <c r="U427" s="14"/>
       <c r="V427" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="428" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29347,7 +29347,7 @@
         <v>2</v>
       </c>
       <c r="C428" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D428" s="14" t="s">
         <v>52</v>
@@ -29400,7 +29400,7 @@
       </c>
       <c r="U428" s="14"/>
       <c r="V428" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="429" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29411,10 +29411,10 @@
         <v>3</v>
       </c>
       <c r="C429" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D429" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E429" s="15">
         <v>3004</v>
@@ -29464,7 +29464,7 @@
       </c>
       <c r="U429" s="14"/>
       <c r="V429" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="430" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29475,10 +29475,10 @@
         <v>4</v>
       </c>
       <c r="C430" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D430" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E430" s="15">
         <v>3004</v>
@@ -29528,7 +29528,7 @@
       </c>
       <c r="U430" s="14"/>
       <c r="V430" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="431" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29539,10 +29539,10 @@
         <v>5</v>
       </c>
       <c r="C431" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D431" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E431" s="15">
         <v>3004</v>
@@ -29592,7 +29592,7 @@
       </c>
       <c r="U431" s="14"/>
       <c r="V431" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="432" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29603,10 +29603,10 @@
         <v>6</v>
       </c>
       <c r="C432" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D432" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E432" s="15">
         <v>3004</v>
@@ -29656,7 +29656,7 @@
       </c>
       <c r="U432" s="14"/>
       <c r="V432" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="433" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29667,10 +29667,10 @@
         <v>7</v>
       </c>
       <c r="C433" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D433" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E433" s="15">
         <v>3004</v>
@@ -29720,7 +29720,7 @@
       </c>
       <c r="U433" s="14"/>
       <c r="V433" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="434" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29731,10 +29731,10 @@
         <v>8</v>
       </c>
       <c r="C434" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D434" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E434" s="15">
         <v>3004</v>
@@ -29784,7 +29784,7 @@
       </c>
       <c r="U434" s="14"/>
       <c r="V434" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="435" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29795,10 +29795,10 @@
         <v>9</v>
       </c>
       <c r="C435" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D435" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E435" s="15">
         <v>3004</v>
@@ -29848,7 +29848,7 @@
       </c>
       <c r="U435" s="14"/>
       <c r="V435" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="436" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29859,10 +29859,10 @@
         <v>10</v>
       </c>
       <c r="C436" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D436" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E436" s="15">
         <v>3004</v>
@@ -29912,7 +29912,7 @@
       </c>
       <c r="U436" s="14"/>
       <c r="V436" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="437" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29923,10 +29923,10 @@
         <v>11</v>
       </c>
       <c r="C437" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D437" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E437" s="15">
         <v>3004</v>
@@ -29976,7 +29976,7 @@
       </c>
       <c r="U437" s="14"/>
       <c r="V437" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="438" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29987,10 +29987,10 @@
         <v>12</v>
       </c>
       <c r="C438" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D438" s="14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E438" s="15">
         <v>3004</v>
@@ -30040,7 +30040,7 @@
       </c>
       <c r="U438" s="14"/>
       <c r="V438" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="439" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30051,10 +30051,10 @@
         <v>13</v>
       </c>
       <c r="C439" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D439" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E439" s="15">
         <v>3004</v>
@@ -30104,7 +30104,7 @@
       </c>
       <c r="U439" s="14"/>
       <c r="V439" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="440" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30115,10 +30115,10 @@
         <v>14</v>
       </c>
       <c r="C440" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D440" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E440" s="15">
         <v>3004</v>
@@ -30168,7 +30168,7 @@
       </c>
       <c r="U440" s="14"/>
       <c r="V440" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="441" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30179,10 +30179,10 @@
         <v>15</v>
       </c>
       <c r="C441" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D441" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E441" s="15">
         <v>3004</v>
@@ -30232,7 +30232,7 @@
       </c>
       <c r="U441" s="14"/>
       <c r="V441" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="442" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30243,10 +30243,10 @@
         <v>16</v>
       </c>
       <c r="C442" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D442" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E442" s="15">
         <v>3004</v>
@@ -30296,7 +30296,7 @@
       </c>
       <c r="U442" s="14"/>
       <c r="V442" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="443" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30307,10 +30307,10 @@
         <v>17</v>
       </c>
       <c r="C443" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D443" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E443" s="15">
         <v>3004</v>
@@ -30360,7 +30360,7 @@
       </c>
       <c r="U443" s="14"/>
       <c r="V443" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="444" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30371,10 +30371,10 @@
         <v>18</v>
       </c>
       <c r="C444" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D444" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E444" s="15">
         <v>3004</v>
@@ -30424,7 +30424,7 @@
       </c>
       <c r="U444" s="14"/>
       <c r="V444" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="445" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30435,10 +30435,10 @@
         <v>19</v>
       </c>
       <c r="C445" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D445" s="14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E445" s="15">
         <v>3004</v>
@@ -30488,7 +30488,7 @@
       </c>
       <c r="U445" s="14"/>
       <c r="V445" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="446" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30499,10 +30499,10 @@
         <v>20</v>
       </c>
       <c r="C446" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D446" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E446" s="15">
         <v>3004</v>
@@ -30552,7 +30552,7 @@
       </c>
       <c r="U446" s="14"/>
       <c r="V446" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="447" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30563,10 +30563,10 @@
         <v>21</v>
       </c>
       <c r="C447" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D447" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E447" s="15">
         <v>3004</v>
@@ -30616,7 +30616,7 @@
       </c>
       <c r="U447" s="14"/>
       <c r="V447" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="448" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30627,10 +30627,10 @@
         <v>22</v>
       </c>
       <c r="C448" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D448" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E448" s="15">
         <v>3004</v>
@@ -30680,7 +30680,7 @@
       </c>
       <c r="U448" s="14"/>
       <c r="V448" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="449" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30691,10 +30691,10 @@
         <v>23</v>
       </c>
       <c r="C449" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D449" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E449" s="15">
         <v>3004</v>
@@ -30744,7 +30744,7 @@
       </c>
       <c r="U449" s="14"/>
       <c r="V449" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="450" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30755,10 +30755,10 @@
         <v>24</v>
       </c>
       <c r="C450" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D450" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E450" s="15">
         <v>3004</v>
@@ -30808,7 +30808,7 @@
       </c>
       <c r="U450" s="14"/>
       <c r="V450" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="451" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30819,10 +30819,10 @@
         <v>25</v>
       </c>
       <c r="C451" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D451" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E451" s="15">
         <v>3004</v>
@@ -30872,7 +30872,7 @@
       </c>
       <c r="U451" s="14"/>
       <c r="V451" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="452" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30883,10 +30883,10 @@
         <v>1</v>
       </c>
       <c r="C452" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D452" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E452" s="28">
         <v>3004</v>
@@ -30929,14 +30929,14 @@
         <v>1</v>
       </c>
       <c r="S452" s="27">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="T452" s="27">
         <v>1</v>
       </c>
       <c r="U452" s="27"/>
       <c r="V452" s="27" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="453" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30947,10 +30947,10 @@
         <v>1</v>
       </c>
       <c r="C453" s="27" t="s">
+        <v>461</v>
+      </c>
+      <c r="D453" s="27" t="s">
         <v>462</v>
-      </c>
-      <c r="D453" s="27" t="s">
-        <v>463</v>
       </c>
       <c r="E453" s="28">
         <v>3004</v>
@@ -30993,14 +30993,14 @@
         <v>1</v>
       </c>
       <c r="S453" s="27">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="T453" s="27">
         <v>1</v>
       </c>
       <c r="U453" s="27"/>
       <c r="V453" s="27" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="471">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1476,39 +1476,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>怪物大招2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物的第2个技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物的第1个技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>怪物大招</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怪物大招2</t>
+    <t>普通怪死亡特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怪物的第2个技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物的第1个技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill10001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill10001</t>
+    <t>skill20000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1977,13 +1985,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W453"/>
+  <dimension ref="A1:W454"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D431" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S452" sqref="S452"/>
+      <selection pane="bottomRight" activeCell="L454" sqref="L454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2023,10 +2031,10 @@
         <v>54</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>459</v>
@@ -2068,7 +2076,7 @@
         <v>56</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30883,10 +30891,10 @@
         <v>1</v>
       </c>
       <c r="C452" s="27" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D452" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E452" s="28">
         <v>3004</v>
@@ -30910,10 +30918,10 @@
         <v>3</v>
       </c>
       <c r="L452" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M452" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N452" s="27">
         <v>0</v>
@@ -30936,7 +30944,7 @@
       </c>
       <c r="U452" s="27"/>
       <c r="V452" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="453" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30947,10 +30955,10 @@
         <v>1</v>
       </c>
       <c r="C453" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="D453" s="27" t="s">
         <v>461</v>
-      </c>
-      <c r="D453" s="27" t="s">
-        <v>462</v>
       </c>
       <c r="E453" s="28">
         <v>3004</v>
@@ -30974,10 +30982,10 @@
         <v>3</v>
       </c>
       <c r="L453" s="27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M453" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N453" s="27">
         <v>0</v>
@@ -31000,7 +31008,71 @@
       </c>
       <c r="U453" s="27"/>
       <c r="V453" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="454" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A454" s="27">
+        <v>20000</v>
+      </c>
+      <c r="B454" s="27">
+        <v>1</v>
+      </c>
+      <c r="C454" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="D454" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="E454" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F454" s="27">
+        <v>0</v>
+      </c>
+      <c r="G454" s="27">
+        <v>0</v>
+      </c>
+      <c r="H454" s="27">
+        <v>0</v>
+      </c>
+      <c r="I454" s="27">
+        <v>0</v>
+      </c>
+      <c r="J454" s="27">
+        <v>0</v>
+      </c>
+      <c r="K454" s="27">
+        <v>0</v>
+      </c>
+      <c r="L454" s="27">
+        <v>5</v>
+      </c>
+      <c r="M454" s="27">
+        <v>0</v>
+      </c>
+      <c r="N454" s="27">
+        <v>0</v>
+      </c>
+      <c r="O454" s="27"/>
+      <c r="P454" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q454" s="27">
+        <v>0</v>
+      </c>
+      <c r="R454" s="27">
+        <v>1</v>
+      </c>
+      <c r="S454" s="27">
+        <v>0</v>
+      </c>
+      <c r="T454" s="27">
+        <v>0</v>
+      </c>
+      <c r="U454" s="27"/>
+      <c r="V454" s="27" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="2355" yWindow="4140" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="字段说明" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="467">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1476,14 +1476,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>怪物大招2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物的第2个技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>怪物的第1个技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1496,27 +1488,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill10001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>技能路径</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill10001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>普通怪死亡特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>skill20000</t>
+    <t>怪物的第1个技能</t>
+  </si>
+  <si>
+    <t>BOSS死亡特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1574,7 +1557,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1611,6 +1594,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1642,7 +1631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1681,6 +1670,8 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1699,7 +1690,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1741,7 +1732,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1776,7 +1767,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1985,20 +1976,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W454"/>
+  <dimension ref="A1:W553"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D431" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D521" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L454" sqref="L454"/>
+      <selection pane="bottomRight" activeCell="V546" sqref="V546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.25" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="12" width="9" customWidth="1"/>
@@ -2031,10 +2022,10 @@
         <v>54</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H1" s="29" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="I1" s="29" t="s">
         <v>459</v>
@@ -2076,7 +2067,7 @@
         <v>56</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30890,11 +30881,12 @@
       <c r="B452" s="27">
         <v>1</v>
       </c>
-      <c r="C452" s="27" t="s">
-        <v>468</v>
+      <c r="C452" s="27" t="str">
+        <f>"等级为"&amp;A452-9999&amp;"的怪物"</f>
+        <v>等级为1的怪物</v>
       </c>
       <c r="D452" s="27" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E452" s="28">
         <v>3004</v>
@@ -30934,7 +30926,7 @@
         <v>0</v>
       </c>
       <c r="R452" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S452" s="27">
         <v>5000</v>
@@ -30943,8 +30935,9 @@
         <v>1</v>
       </c>
       <c r="U452" s="27"/>
-      <c r="V452" s="27" t="s">
-        <v>467</v>
+      <c r="V452" s="27" t="str">
+        <f>"skill"&amp;A452</f>
+        <v>skill10000</v>
       </c>
     </row>
     <row r="453" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30954,11 +30947,12 @@
       <c r="B453" s="27">
         <v>1</v>
       </c>
-      <c r="C453" s="27" t="s">
+      <c r="C453" s="27" t="str">
+        <f t="shared" ref="C453:C498" si="0">"等级为"&amp;A453-9999&amp;"的怪物"</f>
+        <v>等级为2的怪物</v>
+      </c>
+      <c r="D453" s="27" t="s">
         <v>460</v>
-      </c>
-      <c r="D453" s="27" t="s">
-        <v>461</v>
       </c>
       <c r="E453" s="28">
         <v>3004</v>
@@ -30998,7 +30992,7 @@
         <v>0</v>
       </c>
       <c r="R453" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S453" s="27">
         <v>2000</v>
@@ -31007,46 +31001,48 @@
         <v>1</v>
       </c>
       <c r="U453" s="27"/>
-      <c r="V453" s="27" t="s">
-        <v>465</v>
+      <c r="V453" s="27" t="str">
+        <f t="shared" ref="V453:V553" si="1">"skill"&amp;A453</f>
+        <v>skill10001</v>
       </c>
     </row>
     <row r="454" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A454" s="27">
-        <v>20000</v>
+        <v>10002</v>
       </c>
       <c r="B454" s="27">
         <v>1</v>
       </c>
-      <c r="C454" s="27" t="s">
-        <v>469</v>
+      <c r="C454" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为3的怪物</v>
       </c>
       <c r="D454" s="27" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E454" s="28">
         <v>3004</v>
       </c>
       <c r="F454" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G454" s="27">
         <v>0</v>
       </c>
       <c r="H454" s="27">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I454" s="27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J454" s="27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K454" s="27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L454" s="27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M454" s="27">
         <v>0</v>
@@ -31062,17 +31058,6550 @@
         <v>0</v>
       </c>
       <c r="R454" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S454" s="27">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="T454" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U454" s="27"/>
-      <c r="V454" s="27" t="s">
-        <v>470</v>
+      <c r="V454" s="27" t="str">
+        <f t="shared" ref="V454:V498" si="2">"skill"&amp;A454</f>
+        <v>skill10002</v>
+      </c>
+    </row>
+    <row r="455" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A455" s="27">
+        <v>10003</v>
+      </c>
+      <c r="B455" s="27">
+        <v>1</v>
+      </c>
+      <c r="C455" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为4的怪物</v>
+      </c>
+      <c r="D455" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E455" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F455" s="27">
+        <v>1</v>
+      </c>
+      <c r="G455" s="27">
+        <v>0</v>
+      </c>
+      <c r="H455" s="27">
+        <v>12</v>
+      </c>
+      <c r="I455" s="27">
+        <v>6</v>
+      </c>
+      <c r="J455" s="27">
+        <v>2</v>
+      </c>
+      <c r="K455" s="27">
+        <v>3</v>
+      </c>
+      <c r="L455" s="27">
+        <v>4</v>
+      </c>
+      <c r="M455" s="27">
+        <v>0</v>
+      </c>
+      <c r="N455" s="27">
+        <v>0</v>
+      </c>
+      <c r="O455" s="27"/>
+      <c r="P455" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q455" s="27">
+        <v>0</v>
+      </c>
+      <c r="R455" s="27">
+        <v>0</v>
+      </c>
+      <c r="S455" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T455" s="27">
+        <v>1</v>
+      </c>
+      <c r="U455" s="27"/>
+      <c r="V455" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10003</v>
+      </c>
+    </row>
+    <row r="456" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A456" s="27">
+        <v>10004</v>
+      </c>
+      <c r="B456" s="27">
+        <v>1</v>
+      </c>
+      <c r="C456" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为5的怪物</v>
+      </c>
+      <c r="D456" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E456" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F456" s="27">
+        <v>1</v>
+      </c>
+      <c r="G456" s="27">
+        <v>0</v>
+      </c>
+      <c r="H456" s="27">
+        <v>12</v>
+      </c>
+      <c r="I456" s="27">
+        <v>6</v>
+      </c>
+      <c r="J456" s="27">
+        <v>2</v>
+      </c>
+      <c r="K456" s="27">
+        <v>3</v>
+      </c>
+      <c r="L456" s="27">
+        <v>4</v>
+      </c>
+      <c r="M456" s="27">
+        <v>0</v>
+      </c>
+      <c r="N456" s="27">
+        <v>0</v>
+      </c>
+      <c r="O456" s="27"/>
+      <c r="P456" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q456" s="27">
+        <v>0</v>
+      </c>
+      <c r="R456" s="27">
+        <v>0</v>
+      </c>
+      <c r="S456" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T456" s="27">
+        <v>1</v>
+      </c>
+      <c r="U456" s="27"/>
+      <c r="V456" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10004</v>
+      </c>
+    </row>
+    <row r="457" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A457" s="27">
+        <v>10005</v>
+      </c>
+      <c r="B457" s="27">
+        <v>1</v>
+      </c>
+      <c r="C457" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为6的怪物</v>
+      </c>
+      <c r="D457" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E457" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F457" s="27">
+        <v>1</v>
+      </c>
+      <c r="G457" s="27">
+        <v>0</v>
+      </c>
+      <c r="H457" s="27">
+        <v>12</v>
+      </c>
+      <c r="I457" s="27">
+        <v>6</v>
+      </c>
+      <c r="J457" s="27">
+        <v>2</v>
+      </c>
+      <c r="K457" s="27">
+        <v>3</v>
+      </c>
+      <c r="L457" s="27">
+        <v>4</v>
+      </c>
+      <c r="M457" s="27">
+        <v>0</v>
+      </c>
+      <c r="N457" s="27">
+        <v>0</v>
+      </c>
+      <c r="O457" s="27"/>
+      <c r="P457" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q457" s="27">
+        <v>0</v>
+      </c>
+      <c r="R457" s="27">
+        <v>0</v>
+      </c>
+      <c r="S457" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T457" s="27">
+        <v>1</v>
+      </c>
+      <c r="U457" s="27"/>
+      <c r="V457" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10005</v>
+      </c>
+    </row>
+    <row r="458" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A458" s="27">
+        <v>10006</v>
+      </c>
+      <c r="B458" s="27">
+        <v>1</v>
+      </c>
+      <c r="C458" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为7的怪物</v>
+      </c>
+      <c r="D458" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E458" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F458" s="27">
+        <v>1</v>
+      </c>
+      <c r="G458" s="27">
+        <v>0</v>
+      </c>
+      <c r="H458" s="27">
+        <v>12</v>
+      </c>
+      <c r="I458" s="27">
+        <v>6</v>
+      </c>
+      <c r="J458" s="27">
+        <v>2</v>
+      </c>
+      <c r="K458" s="27">
+        <v>3</v>
+      </c>
+      <c r="L458" s="27">
+        <v>4</v>
+      </c>
+      <c r="M458" s="27">
+        <v>0</v>
+      </c>
+      <c r="N458" s="27">
+        <v>0</v>
+      </c>
+      <c r="O458" s="27"/>
+      <c r="P458" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q458" s="27">
+        <v>0</v>
+      </c>
+      <c r="R458" s="27">
+        <v>0</v>
+      </c>
+      <c r="S458" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T458" s="27">
+        <v>1</v>
+      </c>
+      <c r="U458" s="27"/>
+      <c r="V458" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10006</v>
+      </c>
+    </row>
+    <row r="459" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A459" s="27">
+        <v>10007</v>
+      </c>
+      <c r="B459" s="27">
+        <v>1</v>
+      </c>
+      <c r="C459" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为8的怪物</v>
+      </c>
+      <c r="D459" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E459" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F459" s="27">
+        <v>1</v>
+      </c>
+      <c r="G459" s="27">
+        <v>0</v>
+      </c>
+      <c r="H459" s="27">
+        <v>12</v>
+      </c>
+      <c r="I459" s="27">
+        <v>6</v>
+      </c>
+      <c r="J459" s="27">
+        <v>2</v>
+      </c>
+      <c r="K459" s="27">
+        <v>3</v>
+      </c>
+      <c r="L459" s="27">
+        <v>4</v>
+      </c>
+      <c r="M459" s="27">
+        <v>0</v>
+      </c>
+      <c r="N459" s="27">
+        <v>0</v>
+      </c>
+      <c r="O459" s="27"/>
+      <c r="P459" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q459" s="27">
+        <v>0</v>
+      </c>
+      <c r="R459" s="27">
+        <v>0</v>
+      </c>
+      <c r="S459" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T459" s="27">
+        <v>1</v>
+      </c>
+      <c r="U459" s="27"/>
+      <c r="V459" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10007</v>
+      </c>
+    </row>
+    <row r="460" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A460" s="27">
+        <v>10008</v>
+      </c>
+      <c r="B460" s="27">
+        <v>1</v>
+      </c>
+      <c r="C460" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为9的怪物</v>
+      </c>
+      <c r="D460" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E460" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F460" s="27">
+        <v>1</v>
+      </c>
+      <c r="G460" s="27">
+        <v>0</v>
+      </c>
+      <c r="H460" s="27">
+        <v>12</v>
+      </c>
+      <c r="I460" s="27">
+        <v>6</v>
+      </c>
+      <c r="J460" s="27">
+        <v>2</v>
+      </c>
+      <c r="K460" s="27">
+        <v>3</v>
+      </c>
+      <c r="L460" s="27">
+        <v>4</v>
+      </c>
+      <c r="M460" s="27">
+        <v>0</v>
+      </c>
+      <c r="N460" s="27">
+        <v>0</v>
+      </c>
+      <c r="O460" s="27"/>
+      <c r="P460" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q460" s="27">
+        <v>0</v>
+      </c>
+      <c r="R460" s="27">
+        <v>0</v>
+      </c>
+      <c r="S460" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T460" s="27">
+        <v>1</v>
+      </c>
+      <c r="U460" s="27"/>
+      <c r="V460" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10008</v>
+      </c>
+    </row>
+    <row r="461" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A461" s="27">
+        <v>10009</v>
+      </c>
+      <c r="B461" s="27">
+        <v>1</v>
+      </c>
+      <c r="C461" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为10的怪物</v>
+      </c>
+      <c r="D461" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E461" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F461" s="27">
+        <v>1</v>
+      </c>
+      <c r="G461" s="27">
+        <v>0</v>
+      </c>
+      <c r="H461" s="27">
+        <v>12</v>
+      </c>
+      <c r="I461" s="27">
+        <v>6</v>
+      </c>
+      <c r="J461" s="27">
+        <v>2</v>
+      </c>
+      <c r="K461" s="27">
+        <v>3</v>
+      </c>
+      <c r="L461" s="27">
+        <v>4</v>
+      </c>
+      <c r="M461" s="27">
+        <v>0</v>
+      </c>
+      <c r="N461" s="27">
+        <v>0</v>
+      </c>
+      <c r="O461" s="27"/>
+      <c r="P461" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q461" s="27">
+        <v>0</v>
+      </c>
+      <c r="R461" s="27">
+        <v>0</v>
+      </c>
+      <c r="S461" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T461" s="27">
+        <v>1</v>
+      </c>
+      <c r="U461" s="27"/>
+      <c r="V461" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10009</v>
+      </c>
+    </row>
+    <row r="462" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A462" s="27">
+        <v>10010</v>
+      </c>
+      <c r="B462" s="27">
+        <v>1</v>
+      </c>
+      <c r="C462" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为11的怪物</v>
+      </c>
+      <c r="D462" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E462" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F462" s="27">
+        <v>1</v>
+      </c>
+      <c r="G462" s="27">
+        <v>0</v>
+      </c>
+      <c r="H462" s="27">
+        <v>12</v>
+      </c>
+      <c r="I462" s="27">
+        <v>6</v>
+      </c>
+      <c r="J462" s="27">
+        <v>2</v>
+      </c>
+      <c r="K462" s="27">
+        <v>3</v>
+      </c>
+      <c r="L462" s="27">
+        <v>4</v>
+      </c>
+      <c r="M462" s="27">
+        <v>0</v>
+      </c>
+      <c r="N462" s="27">
+        <v>0</v>
+      </c>
+      <c r="O462" s="27"/>
+      <c r="P462" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q462" s="27">
+        <v>0</v>
+      </c>
+      <c r="R462" s="27">
+        <v>0</v>
+      </c>
+      <c r="S462" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T462" s="27">
+        <v>1</v>
+      </c>
+      <c r="U462" s="27"/>
+      <c r="V462" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10010</v>
+      </c>
+    </row>
+    <row r="463" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A463" s="27">
+        <v>10011</v>
+      </c>
+      <c r="B463" s="27">
+        <v>1</v>
+      </c>
+      <c r="C463" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为12的怪物</v>
+      </c>
+      <c r="D463" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E463" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F463" s="27">
+        <v>1</v>
+      </c>
+      <c r="G463" s="27">
+        <v>0</v>
+      </c>
+      <c r="H463" s="27">
+        <v>12</v>
+      </c>
+      <c r="I463" s="27">
+        <v>6</v>
+      </c>
+      <c r="J463" s="27">
+        <v>2</v>
+      </c>
+      <c r="K463" s="27">
+        <v>3</v>
+      </c>
+      <c r="L463" s="27">
+        <v>4</v>
+      </c>
+      <c r="M463" s="27">
+        <v>0</v>
+      </c>
+      <c r="N463" s="27">
+        <v>0</v>
+      </c>
+      <c r="O463" s="27"/>
+      <c r="P463" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q463" s="27">
+        <v>0</v>
+      </c>
+      <c r="R463" s="27">
+        <v>0</v>
+      </c>
+      <c r="S463" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T463" s="27">
+        <v>1</v>
+      </c>
+      <c r="U463" s="27"/>
+      <c r="V463" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10011</v>
+      </c>
+    </row>
+    <row r="464" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A464" s="27">
+        <v>10012</v>
+      </c>
+      <c r="B464" s="27">
+        <v>1</v>
+      </c>
+      <c r="C464" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为13的怪物</v>
+      </c>
+      <c r="D464" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E464" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F464" s="27">
+        <v>1</v>
+      </c>
+      <c r="G464" s="27">
+        <v>0</v>
+      </c>
+      <c r="H464" s="27">
+        <v>12</v>
+      </c>
+      <c r="I464" s="27">
+        <v>6</v>
+      </c>
+      <c r="J464" s="27">
+        <v>2</v>
+      </c>
+      <c r="K464" s="27">
+        <v>3</v>
+      </c>
+      <c r="L464" s="27">
+        <v>4</v>
+      </c>
+      <c r="M464" s="27">
+        <v>0</v>
+      </c>
+      <c r="N464" s="27">
+        <v>0</v>
+      </c>
+      <c r="O464" s="27"/>
+      <c r="P464" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q464" s="27">
+        <v>0</v>
+      </c>
+      <c r="R464" s="27">
+        <v>0</v>
+      </c>
+      <c r="S464" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T464" s="27">
+        <v>1</v>
+      </c>
+      <c r="U464" s="27"/>
+      <c r="V464" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10012</v>
+      </c>
+    </row>
+    <row r="465" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A465" s="27">
+        <v>10013</v>
+      </c>
+      <c r="B465" s="27">
+        <v>1</v>
+      </c>
+      <c r="C465" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为14的怪物</v>
+      </c>
+      <c r="D465" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E465" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F465" s="27">
+        <v>1</v>
+      </c>
+      <c r="G465" s="27">
+        <v>0</v>
+      </c>
+      <c r="H465" s="27">
+        <v>12</v>
+      </c>
+      <c r="I465" s="27">
+        <v>6</v>
+      </c>
+      <c r="J465" s="27">
+        <v>2</v>
+      </c>
+      <c r="K465" s="27">
+        <v>3</v>
+      </c>
+      <c r="L465" s="27">
+        <v>4</v>
+      </c>
+      <c r="M465" s="27">
+        <v>0</v>
+      </c>
+      <c r="N465" s="27">
+        <v>0</v>
+      </c>
+      <c r="O465" s="27"/>
+      <c r="P465" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q465" s="27">
+        <v>0</v>
+      </c>
+      <c r="R465" s="27">
+        <v>0</v>
+      </c>
+      <c r="S465" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T465" s="27">
+        <v>1</v>
+      </c>
+      <c r="U465" s="27"/>
+      <c r="V465" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10013</v>
+      </c>
+    </row>
+    <row r="466" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A466" s="27">
+        <v>10014</v>
+      </c>
+      <c r="B466" s="27">
+        <v>1</v>
+      </c>
+      <c r="C466" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为15的怪物</v>
+      </c>
+      <c r="D466" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E466" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F466" s="27">
+        <v>1</v>
+      </c>
+      <c r="G466" s="27">
+        <v>0</v>
+      </c>
+      <c r="H466" s="27">
+        <v>12</v>
+      </c>
+      <c r="I466" s="27">
+        <v>6</v>
+      </c>
+      <c r="J466" s="27">
+        <v>2</v>
+      </c>
+      <c r="K466" s="27">
+        <v>3</v>
+      </c>
+      <c r="L466" s="27">
+        <v>4</v>
+      </c>
+      <c r="M466" s="27">
+        <v>0</v>
+      </c>
+      <c r="N466" s="27">
+        <v>0</v>
+      </c>
+      <c r="O466" s="27"/>
+      <c r="P466" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q466" s="27">
+        <v>0</v>
+      </c>
+      <c r="R466" s="27">
+        <v>0</v>
+      </c>
+      <c r="S466" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T466" s="27">
+        <v>1</v>
+      </c>
+      <c r="U466" s="27"/>
+      <c r="V466" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10014</v>
+      </c>
+    </row>
+    <row r="467" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A467" s="27">
+        <v>10015</v>
+      </c>
+      <c r="B467" s="27">
+        <v>1</v>
+      </c>
+      <c r="C467" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为16的怪物</v>
+      </c>
+      <c r="D467" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E467" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F467" s="27">
+        <v>1</v>
+      </c>
+      <c r="G467" s="27">
+        <v>0</v>
+      </c>
+      <c r="H467" s="27">
+        <v>12</v>
+      </c>
+      <c r="I467" s="27">
+        <v>6</v>
+      </c>
+      <c r="J467" s="27">
+        <v>2</v>
+      </c>
+      <c r="K467" s="27">
+        <v>3</v>
+      </c>
+      <c r="L467" s="27">
+        <v>4</v>
+      </c>
+      <c r="M467" s="27">
+        <v>0</v>
+      </c>
+      <c r="N467" s="27">
+        <v>0</v>
+      </c>
+      <c r="O467" s="27"/>
+      <c r="P467" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q467" s="27">
+        <v>0</v>
+      </c>
+      <c r="R467" s="27">
+        <v>0</v>
+      </c>
+      <c r="S467" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T467" s="27">
+        <v>1</v>
+      </c>
+      <c r="U467" s="27"/>
+      <c r="V467" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10015</v>
+      </c>
+    </row>
+    <row r="468" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A468" s="27">
+        <v>10016</v>
+      </c>
+      <c r="B468" s="27">
+        <v>1</v>
+      </c>
+      <c r="C468" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为17的怪物</v>
+      </c>
+      <c r="D468" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E468" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F468" s="27">
+        <v>1</v>
+      </c>
+      <c r="G468" s="27">
+        <v>0</v>
+      </c>
+      <c r="H468" s="27">
+        <v>12</v>
+      </c>
+      <c r="I468" s="27">
+        <v>6</v>
+      </c>
+      <c r="J468" s="27">
+        <v>2</v>
+      </c>
+      <c r="K468" s="27">
+        <v>3</v>
+      </c>
+      <c r="L468" s="27">
+        <v>4</v>
+      </c>
+      <c r="M468" s="27">
+        <v>0</v>
+      </c>
+      <c r="N468" s="27">
+        <v>0</v>
+      </c>
+      <c r="O468" s="27"/>
+      <c r="P468" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q468" s="27">
+        <v>0</v>
+      </c>
+      <c r="R468" s="27">
+        <v>0</v>
+      </c>
+      <c r="S468" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T468" s="27">
+        <v>1</v>
+      </c>
+      <c r="U468" s="27"/>
+      <c r="V468" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10016</v>
+      </c>
+    </row>
+    <row r="469" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A469" s="27">
+        <v>10017</v>
+      </c>
+      <c r="B469" s="27">
+        <v>1</v>
+      </c>
+      <c r="C469" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为18的怪物</v>
+      </c>
+      <c r="D469" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E469" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F469" s="27">
+        <v>1</v>
+      </c>
+      <c r="G469" s="27">
+        <v>0</v>
+      </c>
+      <c r="H469" s="27">
+        <v>12</v>
+      </c>
+      <c r="I469" s="27">
+        <v>6</v>
+      </c>
+      <c r="J469" s="27">
+        <v>2</v>
+      </c>
+      <c r="K469" s="27">
+        <v>3</v>
+      </c>
+      <c r="L469" s="27">
+        <v>4</v>
+      </c>
+      <c r="M469" s="27">
+        <v>0</v>
+      </c>
+      <c r="N469" s="27">
+        <v>0</v>
+      </c>
+      <c r="O469" s="27"/>
+      <c r="P469" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q469" s="27">
+        <v>0</v>
+      </c>
+      <c r="R469" s="27">
+        <v>0</v>
+      </c>
+      <c r="S469" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T469" s="27">
+        <v>1</v>
+      </c>
+      <c r="U469" s="27"/>
+      <c r="V469" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10017</v>
+      </c>
+    </row>
+    <row r="470" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A470" s="27">
+        <v>10018</v>
+      </c>
+      <c r="B470" s="27">
+        <v>1</v>
+      </c>
+      <c r="C470" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为19的怪物</v>
+      </c>
+      <c r="D470" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E470" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F470" s="27">
+        <v>1</v>
+      </c>
+      <c r="G470" s="27">
+        <v>0</v>
+      </c>
+      <c r="H470" s="27">
+        <v>12</v>
+      </c>
+      <c r="I470" s="27">
+        <v>6</v>
+      </c>
+      <c r="J470" s="27">
+        <v>2</v>
+      </c>
+      <c r="K470" s="27">
+        <v>3</v>
+      </c>
+      <c r="L470" s="27">
+        <v>4</v>
+      </c>
+      <c r="M470" s="27">
+        <v>0</v>
+      </c>
+      <c r="N470" s="27">
+        <v>0</v>
+      </c>
+      <c r="O470" s="27"/>
+      <c r="P470" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q470" s="27">
+        <v>0</v>
+      </c>
+      <c r="R470" s="27">
+        <v>0</v>
+      </c>
+      <c r="S470" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T470" s="27">
+        <v>1</v>
+      </c>
+      <c r="U470" s="27"/>
+      <c r="V470" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10018</v>
+      </c>
+    </row>
+    <row r="471" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A471" s="27">
+        <v>10019</v>
+      </c>
+      <c r="B471" s="27">
+        <v>1</v>
+      </c>
+      <c r="C471" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为20的怪物</v>
+      </c>
+      <c r="D471" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E471" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F471" s="27">
+        <v>1</v>
+      </c>
+      <c r="G471" s="27">
+        <v>0</v>
+      </c>
+      <c r="H471" s="27">
+        <v>12</v>
+      </c>
+      <c r="I471" s="27">
+        <v>6</v>
+      </c>
+      <c r="J471" s="27">
+        <v>2</v>
+      </c>
+      <c r="K471" s="27">
+        <v>3</v>
+      </c>
+      <c r="L471" s="27">
+        <v>4</v>
+      </c>
+      <c r="M471" s="27">
+        <v>0</v>
+      </c>
+      <c r="N471" s="27">
+        <v>0</v>
+      </c>
+      <c r="O471" s="27"/>
+      <c r="P471" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q471" s="27">
+        <v>0</v>
+      </c>
+      <c r="R471" s="27">
+        <v>0</v>
+      </c>
+      <c r="S471" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T471" s="27">
+        <v>1</v>
+      </c>
+      <c r="U471" s="27"/>
+      <c r="V471" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10019</v>
+      </c>
+    </row>
+    <row r="472" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A472" s="27">
+        <v>10020</v>
+      </c>
+      <c r="B472" s="27">
+        <v>1</v>
+      </c>
+      <c r="C472" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为21的怪物</v>
+      </c>
+      <c r="D472" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E472" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F472" s="27">
+        <v>1</v>
+      </c>
+      <c r="G472" s="27">
+        <v>0</v>
+      </c>
+      <c r="H472" s="27">
+        <v>12</v>
+      </c>
+      <c r="I472" s="27">
+        <v>6</v>
+      </c>
+      <c r="J472" s="27">
+        <v>2</v>
+      </c>
+      <c r="K472" s="27">
+        <v>3</v>
+      </c>
+      <c r="L472" s="27">
+        <v>4</v>
+      </c>
+      <c r="M472" s="27">
+        <v>0</v>
+      </c>
+      <c r="N472" s="27">
+        <v>0</v>
+      </c>
+      <c r="O472" s="27"/>
+      <c r="P472" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q472" s="27">
+        <v>0</v>
+      </c>
+      <c r="R472" s="27">
+        <v>0</v>
+      </c>
+      <c r="S472" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T472" s="27">
+        <v>1</v>
+      </c>
+      <c r="U472" s="27"/>
+      <c r="V472" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10020</v>
+      </c>
+    </row>
+    <row r="473" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A473" s="27">
+        <v>10021</v>
+      </c>
+      <c r="B473" s="27">
+        <v>1</v>
+      </c>
+      <c r="C473" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为22的怪物</v>
+      </c>
+      <c r="D473" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E473" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F473" s="27">
+        <v>1</v>
+      </c>
+      <c r="G473" s="27">
+        <v>0</v>
+      </c>
+      <c r="H473" s="27">
+        <v>12</v>
+      </c>
+      <c r="I473" s="27">
+        <v>6</v>
+      </c>
+      <c r="J473" s="27">
+        <v>2</v>
+      </c>
+      <c r="K473" s="27">
+        <v>3</v>
+      </c>
+      <c r="L473" s="27">
+        <v>4</v>
+      </c>
+      <c r="M473" s="27">
+        <v>0</v>
+      </c>
+      <c r="N473" s="27">
+        <v>0</v>
+      </c>
+      <c r="O473" s="27"/>
+      <c r="P473" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q473" s="27">
+        <v>0</v>
+      </c>
+      <c r="R473" s="27">
+        <v>0</v>
+      </c>
+      <c r="S473" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T473" s="27">
+        <v>1</v>
+      </c>
+      <c r="U473" s="27"/>
+      <c r="V473" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10021</v>
+      </c>
+    </row>
+    <row r="474" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A474" s="27">
+        <v>10022</v>
+      </c>
+      <c r="B474" s="27">
+        <v>1</v>
+      </c>
+      <c r="C474" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为23的怪物</v>
+      </c>
+      <c r="D474" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E474" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F474" s="27">
+        <v>1</v>
+      </c>
+      <c r="G474" s="27">
+        <v>0</v>
+      </c>
+      <c r="H474" s="27">
+        <v>12</v>
+      </c>
+      <c r="I474" s="27">
+        <v>6</v>
+      </c>
+      <c r="J474" s="27">
+        <v>2</v>
+      </c>
+      <c r="K474" s="27">
+        <v>3</v>
+      </c>
+      <c r="L474" s="27">
+        <v>4</v>
+      </c>
+      <c r="M474" s="27">
+        <v>0</v>
+      </c>
+      <c r="N474" s="27">
+        <v>0</v>
+      </c>
+      <c r="O474" s="27"/>
+      <c r="P474" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q474" s="27">
+        <v>0</v>
+      </c>
+      <c r="R474" s="27">
+        <v>0</v>
+      </c>
+      <c r="S474" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T474" s="27">
+        <v>1</v>
+      </c>
+      <c r="U474" s="27"/>
+      <c r="V474" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10022</v>
+      </c>
+    </row>
+    <row r="475" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A475" s="27">
+        <v>10023</v>
+      </c>
+      <c r="B475" s="27">
+        <v>1</v>
+      </c>
+      <c r="C475" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为24的怪物</v>
+      </c>
+      <c r="D475" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E475" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F475" s="27">
+        <v>1</v>
+      </c>
+      <c r="G475" s="27">
+        <v>0</v>
+      </c>
+      <c r="H475" s="27">
+        <v>12</v>
+      </c>
+      <c r="I475" s="27">
+        <v>6</v>
+      </c>
+      <c r="J475" s="27">
+        <v>2</v>
+      </c>
+      <c r="K475" s="27">
+        <v>3</v>
+      </c>
+      <c r="L475" s="27">
+        <v>4</v>
+      </c>
+      <c r="M475" s="27">
+        <v>0</v>
+      </c>
+      <c r="N475" s="27">
+        <v>0</v>
+      </c>
+      <c r="O475" s="27"/>
+      <c r="P475" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q475" s="27">
+        <v>0</v>
+      </c>
+      <c r="R475" s="27">
+        <v>0</v>
+      </c>
+      <c r="S475" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T475" s="27">
+        <v>1</v>
+      </c>
+      <c r="U475" s="27"/>
+      <c r="V475" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10023</v>
+      </c>
+    </row>
+    <row r="476" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A476" s="27">
+        <v>10024</v>
+      </c>
+      <c r="B476" s="27">
+        <v>1</v>
+      </c>
+      <c r="C476" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为25的怪物</v>
+      </c>
+      <c r="D476" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E476" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F476" s="27">
+        <v>1</v>
+      </c>
+      <c r="G476" s="27">
+        <v>0</v>
+      </c>
+      <c r="H476" s="27">
+        <v>12</v>
+      </c>
+      <c r="I476" s="27">
+        <v>6</v>
+      </c>
+      <c r="J476" s="27">
+        <v>2</v>
+      </c>
+      <c r="K476" s="27">
+        <v>3</v>
+      </c>
+      <c r="L476" s="27">
+        <v>4</v>
+      </c>
+      <c r="M476" s="27">
+        <v>0</v>
+      </c>
+      <c r="N476" s="27">
+        <v>0</v>
+      </c>
+      <c r="O476" s="27"/>
+      <c r="P476" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q476" s="27">
+        <v>0</v>
+      </c>
+      <c r="R476" s="27">
+        <v>0</v>
+      </c>
+      <c r="S476" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T476" s="27">
+        <v>1</v>
+      </c>
+      <c r="U476" s="27"/>
+      <c r="V476" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10024</v>
+      </c>
+    </row>
+    <row r="477" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A477" s="27">
+        <v>10025</v>
+      </c>
+      <c r="B477" s="27">
+        <v>1</v>
+      </c>
+      <c r="C477" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为26的怪物</v>
+      </c>
+      <c r="D477" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E477" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F477" s="27">
+        <v>1</v>
+      </c>
+      <c r="G477" s="27">
+        <v>0</v>
+      </c>
+      <c r="H477" s="27">
+        <v>12</v>
+      </c>
+      <c r="I477" s="27">
+        <v>6</v>
+      </c>
+      <c r="J477" s="27">
+        <v>2</v>
+      </c>
+      <c r="K477" s="27">
+        <v>3</v>
+      </c>
+      <c r="L477" s="27">
+        <v>4</v>
+      </c>
+      <c r="M477" s="27">
+        <v>0</v>
+      </c>
+      <c r="N477" s="27">
+        <v>0</v>
+      </c>
+      <c r="O477" s="27"/>
+      <c r="P477" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q477" s="27">
+        <v>0</v>
+      </c>
+      <c r="R477" s="27">
+        <v>0</v>
+      </c>
+      <c r="S477" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T477" s="27">
+        <v>1</v>
+      </c>
+      <c r="U477" s="27"/>
+      <c r="V477" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10025</v>
+      </c>
+    </row>
+    <row r="478" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A478" s="27">
+        <v>10026</v>
+      </c>
+      <c r="B478" s="27">
+        <v>1</v>
+      </c>
+      <c r="C478" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为27的怪物</v>
+      </c>
+      <c r="D478" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E478" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F478" s="27">
+        <v>1</v>
+      </c>
+      <c r="G478" s="27">
+        <v>0</v>
+      </c>
+      <c r="H478" s="27">
+        <v>12</v>
+      </c>
+      <c r="I478" s="27">
+        <v>6</v>
+      </c>
+      <c r="J478" s="27">
+        <v>2</v>
+      </c>
+      <c r="K478" s="27">
+        <v>3</v>
+      </c>
+      <c r="L478" s="27">
+        <v>4</v>
+      </c>
+      <c r="M478" s="27">
+        <v>0</v>
+      </c>
+      <c r="N478" s="27">
+        <v>0</v>
+      </c>
+      <c r="O478" s="27"/>
+      <c r="P478" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q478" s="27">
+        <v>0</v>
+      </c>
+      <c r="R478" s="27">
+        <v>0</v>
+      </c>
+      <c r="S478" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T478" s="27">
+        <v>1</v>
+      </c>
+      <c r="U478" s="27"/>
+      <c r="V478" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10026</v>
+      </c>
+    </row>
+    <row r="479" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A479" s="27">
+        <v>10027</v>
+      </c>
+      <c r="B479" s="27">
+        <v>1</v>
+      </c>
+      <c r="C479" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为28的怪物</v>
+      </c>
+      <c r="D479" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E479" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F479" s="27">
+        <v>1</v>
+      </c>
+      <c r="G479" s="27">
+        <v>0</v>
+      </c>
+      <c r="H479" s="27">
+        <v>12</v>
+      </c>
+      <c r="I479" s="27">
+        <v>6</v>
+      </c>
+      <c r="J479" s="27">
+        <v>2</v>
+      </c>
+      <c r="K479" s="27">
+        <v>3</v>
+      </c>
+      <c r="L479" s="27">
+        <v>4</v>
+      </c>
+      <c r="M479" s="27">
+        <v>0</v>
+      </c>
+      <c r="N479" s="27">
+        <v>0</v>
+      </c>
+      <c r="O479" s="27"/>
+      <c r="P479" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q479" s="27">
+        <v>0</v>
+      </c>
+      <c r="R479" s="27">
+        <v>0</v>
+      </c>
+      <c r="S479" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T479" s="27">
+        <v>1</v>
+      </c>
+      <c r="U479" s="27"/>
+      <c r="V479" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10027</v>
+      </c>
+    </row>
+    <row r="480" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A480" s="27">
+        <v>10028</v>
+      </c>
+      <c r="B480" s="27">
+        <v>1</v>
+      </c>
+      <c r="C480" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为29的怪物</v>
+      </c>
+      <c r="D480" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E480" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F480" s="27">
+        <v>1</v>
+      </c>
+      <c r="G480" s="27">
+        <v>0</v>
+      </c>
+      <c r="H480" s="27">
+        <v>12</v>
+      </c>
+      <c r="I480" s="27">
+        <v>6</v>
+      </c>
+      <c r="J480" s="27">
+        <v>2</v>
+      </c>
+      <c r="K480" s="27">
+        <v>3</v>
+      </c>
+      <c r="L480" s="27">
+        <v>4</v>
+      </c>
+      <c r="M480" s="27">
+        <v>0</v>
+      </c>
+      <c r="N480" s="27">
+        <v>0</v>
+      </c>
+      <c r="O480" s="27"/>
+      <c r="P480" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q480" s="27">
+        <v>0</v>
+      </c>
+      <c r="R480" s="27">
+        <v>0</v>
+      </c>
+      <c r="S480" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T480" s="27">
+        <v>1</v>
+      </c>
+      <c r="U480" s="27"/>
+      <c r="V480" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10028</v>
+      </c>
+    </row>
+    <row r="481" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A481" s="27">
+        <v>10029</v>
+      </c>
+      <c r="B481" s="27">
+        <v>1</v>
+      </c>
+      <c r="C481" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为30的怪物</v>
+      </c>
+      <c r="D481" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E481" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F481" s="27">
+        <v>1</v>
+      </c>
+      <c r="G481" s="27">
+        <v>0</v>
+      </c>
+      <c r="H481" s="27">
+        <v>12</v>
+      </c>
+      <c r="I481" s="27">
+        <v>6</v>
+      </c>
+      <c r="J481" s="27">
+        <v>2</v>
+      </c>
+      <c r="K481" s="27">
+        <v>3</v>
+      </c>
+      <c r="L481" s="27">
+        <v>4</v>
+      </c>
+      <c r="M481" s="27">
+        <v>0</v>
+      </c>
+      <c r="N481" s="27">
+        <v>0</v>
+      </c>
+      <c r="O481" s="27"/>
+      <c r="P481" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q481" s="27">
+        <v>0</v>
+      </c>
+      <c r="R481" s="27">
+        <v>0</v>
+      </c>
+      <c r="S481" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T481" s="27">
+        <v>1</v>
+      </c>
+      <c r="U481" s="27"/>
+      <c r="V481" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10029</v>
+      </c>
+    </row>
+    <row r="482" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A482" s="27">
+        <v>10030</v>
+      </c>
+      <c r="B482" s="27">
+        <v>1</v>
+      </c>
+      <c r="C482" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为31的怪物</v>
+      </c>
+      <c r="D482" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E482" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F482" s="27">
+        <v>1</v>
+      </c>
+      <c r="G482" s="27">
+        <v>0</v>
+      </c>
+      <c r="H482" s="27">
+        <v>12</v>
+      </c>
+      <c r="I482" s="27">
+        <v>6</v>
+      </c>
+      <c r="J482" s="27">
+        <v>2</v>
+      </c>
+      <c r="K482" s="27">
+        <v>3</v>
+      </c>
+      <c r="L482" s="27">
+        <v>4</v>
+      </c>
+      <c r="M482" s="27">
+        <v>0</v>
+      </c>
+      <c r="N482" s="27">
+        <v>0</v>
+      </c>
+      <c r="O482" s="27"/>
+      <c r="P482" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q482" s="27">
+        <v>0</v>
+      </c>
+      <c r="R482" s="27">
+        <v>0</v>
+      </c>
+      <c r="S482" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T482" s="27">
+        <v>1</v>
+      </c>
+      <c r="U482" s="27"/>
+      <c r="V482" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10030</v>
+      </c>
+    </row>
+    <row r="483" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A483" s="27">
+        <v>10031</v>
+      </c>
+      <c r="B483" s="27">
+        <v>1</v>
+      </c>
+      <c r="C483" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为32的怪物</v>
+      </c>
+      <c r="D483" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E483" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F483" s="27">
+        <v>1</v>
+      </c>
+      <c r="G483" s="27">
+        <v>0</v>
+      </c>
+      <c r="H483" s="27">
+        <v>12</v>
+      </c>
+      <c r="I483" s="27">
+        <v>6</v>
+      </c>
+      <c r="J483" s="27">
+        <v>2</v>
+      </c>
+      <c r="K483" s="27">
+        <v>3</v>
+      </c>
+      <c r="L483" s="27">
+        <v>4</v>
+      </c>
+      <c r="M483" s="27">
+        <v>0</v>
+      </c>
+      <c r="N483" s="27">
+        <v>0</v>
+      </c>
+      <c r="O483" s="27"/>
+      <c r="P483" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q483" s="27">
+        <v>0</v>
+      </c>
+      <c r="R483" s="27">
+        <v>0</v>
+      </c>
+      <c r="S483" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T483" s="27">
+        <v>1</v>
+      </c>
+      <c r="U483" s="27"/>
+      <c r="V483" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10031</v>
+      </c>
+    </row>
+    <row r="484" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A484" s="27">
+        <v>10032</v>
+      </c>
+      <c r="B484" s="27">
+        <v>1</v>
+      </c>
+      <c r="C484" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为33的怪物</v>
+      </c>
+      <c r="D484" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E484" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F484" s="27">
+        <v>1</v>
+      </c>
+      <c r="G484" s="27">
+        <v>0</v>
+      </c>
+      <c r="H484" s="27">
+        <v>12</v>
+      </c>
+      <c r="I484" s="27">
+        <v>6</v>
+      </c>
+      <c r="J484" s="27">
+        <v>2</v>
+      </c>
+      <c r="K484" s="27">
+        <v>3</v>
+      </c>
+      <c r="L484" s="27">
+        <v>4</v>
+      </c>
+      <c r="M484" s="27">
+        <v>0</v>
+      </c>
+      <c r="N484" s="27">
+        <v>0</v>
+      </c>
+      <c r="O484" s="27"/>
+      <c r="P484" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q484" s="27">
+        <v>0</v>
+      </c>
+      <c r="R484" s="27">
+        <v>0</v>
+      </c>
+      <c r="S484" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T484" s="27">
+        <v>1</v>
+      </c>
+      <c r="U484" s="27"/>
+      <c r="V484" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10032</v>
+      </c>
+    </row>
+    <row r="485" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A485" s="27">
+        <v>10033</v>
+      </c>
+      <c r="B485" s="27">
+        <v>1</v>
+      </c>
+      <c r="C485" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为34的怪物</v>
+      </c>
+      <c r="D485" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E485" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F485" s="27">
+        <v>1</v>
+      </c>
+      <c r="G485" s="27">
+        <v>0</v>
+      </c>
+      <c r="H485" s="27">
+        <v>12</v>
+      </c>
+      <c r="I485" s="27">
+        <v>6</v>
+      </c>
+      <c r="J485" s="27">
+        <v>2</v>
+      </c>
+      <c r="K485" s="27">
+        <v>3</v>
+      </c>
+      <c r="L485" s="27">
+        <v>4</v>
+      </c>
+      <c r="M485" s="27">
+        <v>0</v>
+      </c>
+      <c r="N485" s="27">
+        <v>0</v>
+      </c>
+      <c r="O485" s="27"/>
+      <c r="P485" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q485" s="27">
+        <v>0</v>
+      </c>
+      <c r="R485" s="27">
+        <v>0</v>
+      </c>
+      <c r="S485" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T485" s="27">
+        <v>1</v>
+      </c>
+      <c r="U485" s="27"/>
+      <c r="V485" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10033</v>
+      </c>
+    </row>
+    <row r="486" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A486" s="27">
+        <v>10034</v>
+      </c>
+      <c r="B486" s="27">
+        <v>1</v>
+      </c>
+      <c r="C486" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为35的怪物</v>
+      </c>
+      <c r="D486" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E486" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F486" s="27">
+        <v>1</v>
+      </c>
+      <c r="G486" s="27">
+        <v>0</v>
+      </c>
+      <c r="H486" s="27">
+        <v>12</v>
+      </c>
+      <c r="I486" s="27">
+        <v>6</v>
+      </c>
+      <c r="J486" s="27">
+        <v>2</v>
+      </c>
+      <c r="K486" s="27">
+        <v>3</v>
+      </c>
+      <c r="L486" s="27">
+        <v>4</v>
+      </c>
+      <c r="M486" s="27">
+        <v>0</v>
+      </c>
+      <c r="N486" s="27">
+        <v>0</v>
+      </c>
+      <c r="O486" s="27"/>
+      <c r="P486" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q486" s="27">
+        <v>0</v>
+      </c>
+      <c r="R486" s="27">
+        <v>0</v>
+      </c>
+      <c r="S486" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T486" s="27">
+        <v>1</v>
+      </c>
+      <c r="U486" s="27"/>
+      <c r="V486" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10034</v>
+      </c>
+    </row>
+    <row r="487" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A487" s="27">
+        <v>10035</v>
+      </c>
+      <c r="B487" s="27">
+        <v>1</v>
+      </c>
+      <c r="C487" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为36的怪物</v>
+      </c>
+      <c r="D487" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E487" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F487" s="27">
+        <v>1</v>
+      </c>
+      <c r="G487" s="27">
+        <v>0</v>
+      </c>
+      <c r="H487" s="27">
+        <v>12</v>
+      </c>
+      <c r="I487" s="27">
+        <v>6</v>
+      </c>
+      <c r="J487" s="27">
+        <v>2</v>
+      </c>
+      <c r="K487" s="27">
+        <v>3</v>
+      </c>
+      <c r="L487" s="27">
+        <v>4</v>
+      </c>
+      <c r="M487" s="27">
+        <v>0</v>
+      </c>
+      <c r="N487" s="27">
+        <v>0</v>
+      </c>
+      <c r="O487" s="27"/>
+      <c r="P487" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q487" s="27">
+        <v>0</v>
+      </c>
+      <c r="R487" s="27">
+        <v>0</v>
+      </c>
+      <c r="S487" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T487" s="27">
+        <v>1</v>
+      </c>
+      <c r="U487" s="27"/>
+      <c r="V487" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10035</v>
+      </c>
+    </row>
+    <row r="488" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A488" s="27">
+        <v>10036</v>
+      </c>
+      <c r="B488" s="27">
+        <v>1</v>
+      </c>
+      <c r="C488" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为37的怪物</v>
+      </c>
+      <c r="D488" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E488" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F488" s="27">
+        <v>1</v>
+      </c>
+      <c r="G488" s="27">
+        <v>0</v>
+      </c>
+      <c r="H488" s="27">
+        <v>12</v>
+      </c>
+      <c r="I488" s="27">
+        <v>6</v>
+      </c>
+      <c r="J488" s="27">
+        <v>2</v>
+      </c>
+      <c r="K488" s="27">
+        <v>3</v>
+      </c>
+      <c r="L488" s="27">
+        <v>4</v>
+      </c>
+      <c r="M488" s="27">
+        <v>0</v>
+      </c>
+      <c r="N488" s="27">
+        <v>0</v>
+      </c>
+      <c r="O488" s="27"/>
+      <c r="P488" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q488" s="27">
+        <v>0</v>
+      </c>
+      <c r="R488" s="27">
+        <v>0</v>
+      </c>
+      <c r="S488" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T488" s="27">
+        <v>1</v>
+      </c>
+      <c r="U488" s="27"/>
+      <c r="V488" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10036</v>
+      </c>
+    </row>
+    <row r="489" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A489" s="27">
+        <v>10037</v>
+      </c>
+      <c r="B489" s="27">
+        <v>1</v>
+      </c>
+      <c r="C489" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为38的怪物</v>
+      </c>
+      <c r="D489" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E489" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F489" s="27">
+        <v>1</v>
+      </c>
+      <c r="G489" s="27">
+        <v>0</v>
+      </c>
+      <c r="H489" s="27">
+        <v>12</v>
+      </c>
+      <c r="I489" s="27">
+        <v>6</v>
+      </c>
+      <c r="J489" s="27">
+        <v>2</v>
+      </c>
+      <c r="K489" s="27">
+        <v>3</v>
+      </c>
+      <c r="L489" s="27">
+        <v>4</v>
+      </c>
+      <c r="M489" s="27">
+        <v>0</v>
+      </c>
+      <c r="N489" s="27">
+        <v>0</v>
+      </c>
+      <c r="O489" s="27"/>
+      <c r="P489" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q489" s="27">
+        <v>0</v>
+      </c>
+      <c r="R489" s="27">
+        <v>0</v>
+      </c>
+      <c r="S489" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T489" s="27">
+        <v>1</v>
+      </c>
+      <c r="U489" s="27"/>
+      <c r="V489" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10037</v>
+      </c>
+    </row>
+    <row r="490" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A490" s="27">
+        <v>10038</v>
+      </c>
+      <c r="B490" s="27">
+        <v>1</v>
+      </c>
+      <c r="C490" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为39的怪物</v>
+      </c>
+      <c r="D490" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E490" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F490" s="27">
+        <v>1</v>
+      </c>
+      <c r="G490" s="27">
+        <v>0</v>
+      </c>
+      <c r="H490" s="27">
+        <v>12</v>
+      </c>
+      <c r="I490" s="27">
+        <v>6</v>
+      </c>
+      <c r="J490" s="27">
+        <v>2</v>
+      </c>
+      <c r="K490" s="27">
+        <v>3</v>
+      </c>
+      <c r="L490" s="27">
+        <v>4</v>
+      </c>
+      <c r="M490" s="27">
+        <v>0</v>
+      </c>
+      <c r="N490" s="27">
+        <v>0</v>
+      </c>
+      <c r="O490" s="27"/>
+      <c r="P490" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q490" s="27">
+        <v>0</v>
+      </c>
+      <c r="R490" s="27">
+        <v>0</v>
+      </c>
+      <c r="S490" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T490" s="27">
+        <v>1</v>
+      </c>
+      <c r="U490" s="27"/>
+      <c r="V490" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10038</v>
+      </c>
+    </row>
+    <row r="491" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A491" s="27">
+        <v>10039</v>
+      </c>
+      <c r="B491" s="27">
+        <v>1</v>
+      </c>
+      <c r="C491" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为40的怪物</v>
+      </c>
+      <c r="D491" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E491" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F491" s="27">
+        <v>1</v>
+      </c>
+      <c r="G491" s="27">
+        <v>0</v>
+      </c>
+      <c r="H491" s="27">
+        <v>12</v>
+      </c>
+      <c r="I491" s="27">
+        <v>6</v>
+      </c>
+      <c r="J491" s="27">
+        <v>2</v>
+      </c>
+      <c r="K491" s="27">
+        <v>3</v>
+      </c>
+      <c r="L491" s="27">
+        <v>4</v>
+      </c>
+      <c r="M491" s="27">
+        <v>0</v>
+      </c>
+      <c r="N491" s="27">
+        <v>0</v>
+      </c>
+      <c r="O491" s="27"/>
+      <c r="P491" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q491" s="27">
+        <v>0</v>
+      </c>
+      <c r="R491" s="27">
+        <v>0</v>
+      </c>
+      <c r="S491" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T491" s="27">
+        <v>1</v>
+      </c>
+      <c r="U491" s="27"/>
+      <c r="V491" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10039</v>
+      </c>
+    </row>
+    <row r="492" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A492" s="27">
+        <v>10040</v>
+      </c>
+      <c r="B492" s="27">
+        <v>1</v>
+      </c>
+      <c r="C492" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为41的怪物</v>
+      </c>
+      <c r="D492" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E492" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F492" s="27">
+        <v>1</v>
+      </c>
+      <c r="G492" s="27">
+        <v>0</v>
+      </c>
+      <c r="H492" s="27">
+        <v>12</v>
+      </c>
+      <c r="I492" s="27">
+        <v>6</v>
+      </c>
+      <c r="J492" s="27">
+        <v>2</v>
+      </c>
+      <c r="K492" s="27">
+        <v>3</v>
+      </c>
+      <c r="L492" s="27">
+        <v>4</v>
+      </c>
+      <c r="M492" s="27">
+        <v>0</v>
+      </c>
+      <c r="N492" s="27">
+        <v>0</v>
+      </c>
+      <c r="O492" s="27"/>
+      <c r="P492" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q492" s="27">
+        <v>0</v>
+      </c>
+      <c r="R492" s="27">
+        <v>0</v>
+      </c>
+      <c r="S492" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T492" s="27">
+        <v>1</v>
+      </c>
+      <c r="U492" s="27"/>
+      <c r="V492" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10040</v>
+      </c>
+    </row>
+    <row r="493" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A493" s="27">
+        <v>10041</v>
+      </c>
+      <c r="B493" s="27">
+        <v>1</v>
+      </c>
+      <c r="C493" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为42的怪物</v>
+      </c>
+      <c r="D493" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E493" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F493" s="27">
+        <v>1</v>
+      </c>
+      <c r="G493" s="27">
+        <v>0</v>
+      </c>
+      <c r="H493" s="27">
+        <v>12</v>
+      </c>
+      <c r="I493" s="27">
+        <v>6</v>
+      </c>
+      <c r="J493" s="27">
+        <v>2</v>
+      </c>
+      <c r="K493" s="27">
+        <v>3</v>
+      </c>
+      <c r="L493" s="27">
+        <v>4</v>
+      </c>
+      <c r="M493" s="27">
+        <v>0</v>
+      </c>
+      <c r="N493" s="27">
+        <v>0</v>
+      </c>
+      <c r="O493" s="27"/>
+      <c r="P493" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q493" s="27">
+        <v>0</v>
+      </c>
+      <c r="R493" s="27">
+        <v>0</v>
+      </c>
+      <c r="S493" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T493" s="27">
+        <v>1</v>
+      </c>
+      <c r="U493" s="27"/>
+      <c r="V493" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10041</v>
+      </c>
+    </row>
+    <row r="494" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A494" s="27">
+        <v>10042</v>
+      </c>
+      <c r="B494" s="27">
+        <v>1</v>
+      </c>
+      <c r="C494" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为43的怪物</v>
+      </c>
+      <c r="D494" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E494" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F494" s="27">
+        <v>1</v>
+      </c>
+      <c r="G494" s="27">
+        <v>0</v>
+      </c>
+      <c r="H494" s="27">
+        <v>12</v>
+      </c>
+      <c r="I494" s="27">
+        <v>6</v>
+      </c>
+      <c r="J494" s="27">
+        <v>2</v>
+      </c>
+      <c r="K494" s="27">
+        <v>3</v>
+      </c>
+      <c r="L494" s="27">
+        <v>4</v>
+      </c>
+      <c r="M494" s="27">
+        <v>0</v>
+      </c>
+      <c r="N494" s="27">
+        <v>0</v>
+      </c>
+      <c r="O494" s="27"/>
+      <c r="P494" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q494" s="27">
+        <v>0</v>
+      </c>
+      <c r="R494" s="27">
+        <v>0</v>
+      </c>
+      <c r="S494" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T494" s="27">
+        <v>1</v>
+      </c>
+      <c r="U494" s="27"/>
+      <c r="V494" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10042</v>
+      </c>
+    </row>
+    <row r="495" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A495" s="27">
+        <v>10043</v>
+      </c>
+      <c r="B495" s="27">
+        <v>1</v>
+      </c>
+      <c r="C495" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为44的怪物</v>
+      </c>
+      <c r="D495" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E495" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F495" s="27">
+        <v>1</v>
+      </c>
+      <c r="G495" s="27">
+        <v>0</v>
+      </c>
+      <c r="H495" s="27">
+        <v>12</v>
+      </c>
+      <c r="I495" s="27">
+        <v>6</v>
+      </c>
+      <c r="J495" s="27">
+        <v>2</v>
+      </c>
+      <c r="K495" s="27">
+        <v>3</v>
+      </c>
+      <c r="L495" s="27">
+        <v>4</v>
+      </c>
+      <c r="M495" s="27">
+        <v>0</v>
+      </c>
+      <c r="N495" s="27">
+        <v>0</v>
+      </c>
+      <c r="O495" s="27"/>
+      <c r="P495" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q495" s="27">
+        <v>0</v>
+      </c>
+      <c r="R495" s="27">
+        <v>0</v>
+      </c>
+      <c r="S495" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T495" s="27">
+        <v>1</v>
+      </c>
+      <c r="U495" s="27"/>
+      <c r="V495" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10043</v>
+      </c>
+    </row>
+    <row r="496" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A496" s="27">
+        <v>10044</v>
+      </c>
+      <c r="B496" s="27">
+        <v>1</v>
+      </c>
+      <c r="C496" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为45的怪物</v>
+      </c>
+      <c r="D496" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E496" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F496" s="27">
+        <v>1</v>
+      </c>
+      <c r="G496" s="27">
+        <v>0</v>
+      </c>
+      <c r="H496" s="27">
+        <v>12</v>
+      </c>
+      <c r="I496" s="27">
+        <v>6</v>
+      </c>
+      <c r="J496" s="27">
+        <v>2</v>
+      </c>
+      <c r="K496" s="27">
+        <v>3</v>
+      </c>
+      <c r="L496" s="27">
+        <v>4</v>
+      </c>
+      <c r="M496" s="27">
+        <v>0</v>
+      </c>
+      <c r="N496" s="27">
+        <v>0</v>
+      </c>
+      <c r="O496" s="27"/>
+      <c r="P496" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q496" s="27">
+        <v>0</v>
+      </c>
+      <c r="R496" s="27">
+        <v>0</v>
+      </c>
+      <c r="S496" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T496" s="27">
+        <v>1</v>
+      </c>
+      <c r="U496" s="27"/>
+      <c r="V496" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10044</v>
+      </c>
+    </row>
+    <row r="497" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A497" s="27">
+        <v>10045</v>
+      </c>
+      <c r="B497" s="27">
+        <v>1</v>
+      </c>
+      <c r="C497" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为46的怪物</v>
+      </c>
+      <c r="D497" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E497" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F497" s="27">
+        <v>1</v>
+      </c>
+      <c r="G497" s="27">
+        <v>0</v>
+      </c>
+      <c r="H497" s="27">
+        <v>12</v>
+      </c>
+      <c r="I497" s="27">
+        <v>6</v>
+      </c>
+      <c r="J497" s="27">
+        <v>2</v>
+      </c>
+      <c r="K497" s="27">
+        <v>3</v>
+      </c>
+      <c r="L497" s="27">
+        <v>4</v>
+      </c>
+      <c r="M497" s="27">
+        <v>0</v>
+      </c>
+      <c r="N497" s="27">
+        <v>0</v>
+      </c>
+      <c r="O497" s="27"/>
+      <c r="P497" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q497" s="27">
+        <v>0</v>
+      </c>
+      <c r="R497" s="27">
+        <v>0</v>
+      </c>
+      <c r="S497" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T497" s="27">
+        <v>1</v>
+      </c>
+      <c r="U497" s="27"/>
+      <c r="V497" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10045</v>
+      </c>
+    </row>
+    <row r="498" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A498" s="27">
+        <v>10046</v>
+      </c>
+      <c r="B498" s="27">
+        <v>1</v>
+      </c>
+      <c r="C498" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>等级为47的怪物</v>
+      </c>
+      <c r="D498" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E498" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F498" s="27">
+        <v>1</v>
+      </c>
+      <c r="G498" s="27">
+        <v>0</v>
+      </c>
+      <c r="H498" s="27">
+        <v>12</v>
+      </c>
+      <c r="I498" s="27">
+        <v>6</v>
+      </c>
+      <c r="J498" s="27">
+        <v>2</v>
+      </c>
+      <c r="K498" s="27">
+        <v>3</v>
+      </c>
+      <c r="L498" s="27">
+        <v>4</v>
+      </c>
+      <c r="M498" s="27">
+        <v>0</v>
+      </c>
+      <c r="N498" s="27">
+        <v>0</v>
+      </c>
+      <c r="O498" s="27"/>
+      <c r="P498" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q498" s="27">
+        <v>0</v>
+      </c>
+      <c r="R498" s="27">
+        <v>0</v>
+      </c>
+      <c r="S498" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T498" s="27">
+        <v>1</v>
+      </c>
+      <c r="U498" s="27"/>
+      <c r="V498" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>skill10046</v>
+      </c>
+    </row>
+    <row r="499" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A499" s="27">
+        <v>10047</v>
+      </c>
+      <c r="B499" s="27">
+        <v>1</v>
+      </c>
+      <c r="C499" s="27" t="str">
+        <f t="shared" ref="C499:C551" si="3">"等级为"&amp;A499-9999&amp;"的怪物"</f>
+        <v>等级为48的怪物</v>
+      </c>
+      <c r="D499" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E499" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F499" s="27">
+        <v>1</v>
+      </c>
+      <c r="G499" s="27">
+        <v>0</v>
+      </c>
+      <c r="H499" s="27">
+        <v>12</v>
+      </c>
+      <c r="I499" s="27">
+        <v>6</v>
+      </c>
+      <c r="J499" s="27">
+        <v>2</v>
+      </c>
+      <c r="K499" s="27">
+        <v>3</v>
+      </c>
+      <c r="L499" s="27">
+        <v>4</v>
+      </c>
+      <c r="M499" s="27">
+        <v>0</v>
+      </c>
+      <c r="N499" s="27">
+        <v>0</v>
+      </c>
+      <c r="O499" s="27"/>
+      <c r="P499" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q499" s="27">
+        <v>0</v>
+      </c>
+      <c r="R499" s="27">
+        <v>0</v>
+      </c>
+      <c r="S499" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T499" s="27">
+        <v>1</v>
+      </c>
+      <c r="U499" s="27"/>
+      <c r="V499" s="27" t="str">
+        <f t="shared" ref="V499:V551" si="4">"skill"&amp;A499</f>
+        <v>skill10047</v>
+      </c>
+    </row>
+    <row r="500" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A500" s="27">
+        <v>10048</v>
+      </c>
+      <c r="B500" s="27">
+        <v>1</v>
+      </c>
+      <c r="C500" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为49的怪物</v>
+      </c>
+      <c r="D500" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E500" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F500" s="27">
+        <v>1</v>
+      </c>
+      <c r="G500" s="27">
+        <v>0</v>
+      </c>
+      <c r="H500" s="27">
+        <v>12</v>
+      </c>
+      <c r="I500" s="27">
+        <v>6</v>
+      </c>
+      <c r="J500" s="27">
+        <v>2</v>
+      </c>
+      <c r="K500" s="27">
+        <v>3</v>
+      </c>
+      <c r="L500" s="27">
+        <v>4</v>
+      </c>
+      <c r="M500" s="27">
+        <v>0</v>
+      </c>
+      <c r="N500" s="27">
+        <v>0</v>
+      </c>
+      <c r="O500" s="27"/>
+      <c r="P500" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q500" s="27">
+        <v>0</v>
+      </c>
+      <c r="R500" s="27">
+        <v>0</v>
+      </c>
+      <c r="S500" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T500" s="27">
+        <v>1</v>
+      </c>
+      <c r="U500" s="27"/>
+      <c r="V500" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10048</v>
+      </c>
+    </row>
+    <row r="501" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A501" s="27">
+        <v>10049</v>
+      </c>
+      <c r="B501" s="27">
+        <v>1</v>
+      </c>
+      <c r="C501" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为50的怪物</v>
+      </c>
+      <c r="D501" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E501" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F501" s="27">
+        <v>1</v>
+      </c>
+      <c r="G501" s="27">
+        <v>0</v>
+      </c>
+      <c r="H501" s="27">
+        <v>12</v>
+      </c>
+      <c r="I501" s="27">
+        <v>6</v>
+      </c>
+      <c r="J501" s="27">
+        <v>2</v>
+      </c>
+      <c r="K501" s="27">
+        <v>3</v>
+      </c>
+      <c r="L501" s="27">
+        <v>4</v>
+      </c>
+      <c r="M501" s="27">
+        <v>0</v>
+      </c>
+      <c r="N501" s="27">
+        <v>0</v>
+      </c>
+      <c r="O501" s="27"/>
+      <c r="P501" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q501" s="27">
+        <v>0</v>
+      </c>
+      <c r="R501" s="27">
+        <v>0</v>
+      </c>
+      <c r="S501" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T501" s="27">
+        <v>1</v>
+      </c>
+      <c r="U501" s="27"/>
+      <c r="V501" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10049</v>
+      </c>
+    </row>
+    <row r="502" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A502" s="27">
+        <v>10050</v>
+      </c>
+      <c r="B502" s="27">
+        <v>1</v>
+      </c>
+      <c r="C502" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为51的怪物</v>
+      </c>
+      <c r="D502" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E502" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F502" s="27">
+        <v>1</v>
+      </c>
+      <c r="G502" s="27">
+        <v>0</v>
+      </c>
+      <c r="H502" s="27">
+        <v>12</v>
+      </c>
+      <c r="I502" s="27">
+        <v>6</v>
+      </c>
+      <c r="J502" s="27">
+        <v>2</v>
+      </c>
+      <c r="K502" s="27">
+        <v>3</v>
+      </c>
+      <c r="L502" s="27">
+        <v>4</v>
+      </c>
+      <c r="M502" s="27">
+        <v>0</v>
+      </c>
+      <c r="N502" s="27">
+        <v>0</v>
+      </c>
+      <c r="O502" s="27"/>
+      <c r="P502" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q502" s="27">
+        <v>0</v>
+      </c>
+      <c r="R502" s="27">
+        <v>0</v>
+      </c>
+      <c r="S502" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T502" s="27">
+        <v>1</v>
+      </c>
+      <c r="U502" s="27"/>
+      <c r="V502" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10050</v>
+      </c>
+    </row>
+    <row r="503" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A503" s="27">
+        <v>10051</v>
+      </c>
+      <c r="B503" s="27">
+        <v>1</v>
+      </c>
+      <c r="C503" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为52的怪物</v>
+      </c>
+      <c r="D503" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E503" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F503" s="27">
+        <v>1</v>
+      </c>
+      <c r="G503" s="27">
+        <v>0</v>
+      </c>
+      <c r="H503" s="27">
+        <v>12</v>
+      </c>
+      <c r="I503" s="27">
+        <v>6</v>
+      </c>
+      <c r="J503" s="27">
+        <v>2</v>
+      </c>
+      <c r="K503" s="27">
+        <v>3</v>
+      </c>
+      <c r="L503" s="27">
+        <v>4</v>
+      </c>
+      <c r="M503" s="27">
+        <v>0</v>
+      </c>
+      <c r="N503" s="27">
+        <v>0</v>
+      </c>
+      <c r="O503" s="27"/>
+      <c r="P503" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q503" s="27">
+        <v>0</v>
+      </c>
+      <c r="R503" s="27">
+        <v>0</v>
+      </c>
+      <c r="S503" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T503" s="27">
+        <v>1</v>
+      </c>
+      <c r="U503" s="27"/>
+      <c r="V503" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10051</v>
+      </c>
+    </row>
+    <row r="504" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A504" s="27">
+        <v>10052</v>
+      </c>
+      <c r="B504" s="27">
+        <v>1</v>
+      </c>
+      <c r="C504" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为53的怪物</v>
+      </c>
+      <c r="D504" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E504" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F504" s="27">
+        <v>1</v>
+      </c>
+      <c r="G504" s="27">
+        <v>0</v>
+      </c>
+      <c r="H504" s="27">
+        <v>12</v>
+      </c>
+      <c r="I504" s="27">
+        <v>6</v>
+      </c>
+      <c r="J504" s="27">
+        <v>2</v>
+      </c>
+      <c r="K504" s="27">
+        <v>3</v>
+      </c>
+      <c r="L504" s="27">
+        <v>4</v>
+      </c>
+      <c r="M504" s="27">
+        <v>0</v>
+      </c>
+      <c r="N504" s="27">
+        <v>0</v>
+      </c>
+      <c r="O504" s="27"/>
+      <c r="P504" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q504" s="27">
+        <v>0</v>
+      </c>
+      <c r="R504" s="27">
+        <v>0</v>
+      </c>
+      <c r="S504" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T504" s="27">
+        <v>1</v>
+      </c>
+      <c r="U504" s="27"/>
+      <c r="V504" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10052</v>
+      </c>
+    </row>
+    <row r="505" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A505" s="27">
+        <v>10053</v>
+      </c>
+      <c r="B505" s="27">
+        <v>1</v>
+      </c>
+      <c r="C505" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为54的怪物</v>
+      </c>
+      <c r="D505" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E505" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F505" s="27">
+        <v>1</v>
+      </c>
+      <c r="G505" s="27">
+        <v>0</v>
+      </c>
+      <c r="H505" s="27">
+        <v>12</v>
+      </c>
+      <c r="I505" s="27">
+        <v>6</v>
+      </c>
+      <c r="J505" s="27">
+        <v>2</v>
+      </c>
+      <c r="K505" s="27">
+        <v>3</v>
+      </c>
+      <c r="L505" s="27">
+        <v>4</v>
+      </c>
+      <c r="M505" s="27">
+        <v>0</v>
+      </c>
+      <c r="N505" s="27">
+        <v>0</v>
+      </c>
+      <c r="O505" s="27"/>
+      <c r="P505" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q505" s="27">
+        <v>0</v>
+      </c>
+      <c r="R505" s="27">
+        <v>0</v>
+      </c>
+      <c r="S505" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T505" s="27">
+        <v>1</v>
+      </c>
+      <c r="U505" s="27"/>
+      <c r="V505" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10053</v>
+      </c>
+    </row>
+    <row r="506" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A506" s="27">
+        <v>10054</v>
+      </c>
+      <c r="B506" s="27">
+        <v>1</v>
+      </c>
+      <c r="C506" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为55的怪物</v>
+      </c>
+      <c r="D506" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E506" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F506" s="27">
+        <v>1</v>
+      </c>
+      <c r="G506" s="27">
+        <v>0</v>
+      </c>
+      <c r="H506" s="27">
+        <v>12</v>
+      </c>
+      <c r="I506" s="27">
+        <v>6</v>
+      </c>
+      <c r="J506" s="27">
+        <v>2</v>
+      </c>
+      <c r="K506" s="27">
+        <v>3</v>
+      </c>
+      <c r="L506" s="27">
+        <v>4</v>
+      </c>
+      <c r="M506" s="27">
+        <v>0</v>
+      </c>
+      <c r="N506" s="27">
+        <v>0</v>
+      </c>
+      <c r="O506" s="27"/>
+      <c r="P506" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q506" s="27">
+        <v>0</v>
+      </c>
+      <c r="R506" s="27">
+        <v>0</v>
+      </c>
+      <c r="S506" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T506" s="27">
+        <v>1</v>
+      </c>
+      <c r="U506" s="27"/>
+      <c r="V506" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10054</v>
+      </c>
+    </row>
+    <row r="507" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A507" s="27">
+        <v>10055</v>
+      </c>
+      <c r="B507" s="27">
+        <v>1</v>
+      </c>
+      <c r="C507" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为56的怪物</v>
+      </c>
+      <c r="D507" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E507" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F507" s="27">
+        <v>1</v>
+      </c>
+      <c r="G507" s="27">
+        <v>0</v>
+      </c>
+      <c r="H507" s="27">
+        <v>12</v>
+      </c>
+      <c r="I507" s="27">
+        <v>6</v>
+      </c>
+      <c r="J507" s="27">
+        <v>2</v>
+      </c>
+      <c r="K507" s="27">
+        <v>3</v>
+      </c>
+      <c r="L507" s="27">
+        <v>4</v>
+      </c>
+      <c r="M507" s="27">
+        <v>0</v>
+      </c>
+      <c r="N507" s="27">
+        <v>0</v>
+      </c>
+      <c r="O507" s="27"/>
+      <c r="P507" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q507" s="27">
+        <v>0</v>
+      </c>
+      <c r="R507" s="27">
+        <v>0</v>
+      </c>
+      <c r="S507" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T507" s="27">
+        <v>1</v>
+      </c>
+      <c r="U507" s="27"/>
+      <c r="V507" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10055</v>
+      </c>
+    </row>
+    <row r="508" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A508" s="27">
+        <v>10056</v>
+      </c>
+      <c r="B508" s="27">
+        <v>1</v>
+      </c>
+      <c r="C508" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为57的怪物</v>
+      </c>
+      <c r="D508" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E508" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F508" s="27">
+        <v>1</v>
+      </c>
+      <c r="G508" s="27">
+        <v>0</v>
+      </c>
+      <c r="H508" s="27">
+        <v>12</v>
+      </c>
+      <c r="I508" s="27">
+        <v>6</v>
+      </c>
+      <c r="J508" s="27">
+        <v>2</v>
+      </c>
+      <c r="K508" s="27">
+        <v>3</v>
+      </c>
+      <c r="L508" s="27">
+        <v>4</v>
+      </c>
+      <c r="M508" s="27">
+        <v>0</v>
+      </c>
+      <c r="N508" s="27">
+        <v>0</v>
+      </c>
+      <c r="O508" s="27"/>
+      <c r="P508" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q508" s="27">
+        <v>0</v>
+      </c>
+      <c r="R508" s="27">
+        <v>0</v>
+      </c>
+      <c r="S508" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T508" s="27">
+        <v>1</v>
+      </c>
+      <c r="U508" s="27"/>
+      <c r="V508" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10056</v>
+      </c>
+    </row>
+    <row r="509" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A509" s="27">
+        <v>10057</v>
+      </c>
+      <c r="B509" s="27">
+        <v>1</v>
+      </c>
+      <c r="C509" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为58的怪物</v>
+      </c>
+      <c r="D509" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E509" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F509" s="27">
+        <v>1</v>
+      </c>
+      <c r="G509" s="27">
+        <v>0</v>
+      </c>
+      <c r="H509" s="27">
+        <v>12</v>
+      </c>
+      <c r="I509" s="27">
+        <v>6</v>
+      </c>
+      <c r="J509" s="27">
+        <v>2</v>
+      </c>
+      <c r="K509" s="27">
+        <v>3</v>
+      </c>
+      <c r="L509" s="27">
+        <v>4</v>
+      </c>
+      <c r="M509" s="27">
+        <v>0</v>
+      </c>
+      <c r="N509" s="27">
+        <v>0</v>
+      </c>
+      <c r="O509" s="27"/>
+      <c r="P509" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q509" s="27">
+        <v>0</v>
+      </c>
+      <c r="R509" s="27">
+        <v>0</v>
+      </c>
+      <c r="S509" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T509" s="27">
+        <v>1</v>
+      </c>
+      <c r="U509" s="27"/>
+      <c r="V509" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10057</v>
+      </c>
+    </row>
+    <row r="510" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A510" s="27">
+        <v>10058</v>
+      </c>
+      <c r="B510" s="27">
+        <v>1</v>
+      </c>
+      <c r="C510" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为59的怪物</v>
+      </c>
+      <c r="D510" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E510" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F510" s="27">
+        <v>1</v>
+      </c>
+      <c r="G510" s="27">
+        <v>0</v>
+      </c>
+      <c r="H510" s="27">
+        <v>12</v>
+      </c>
+      <c r="I510" s="27">
+        <v>6</v>
+      </c>
+      <c r="J510" s="27">
+        <v>2</v>
+      </c>
+      <c r="K510" s="27">
+        <v>3</v>
+      </c>
+      <c r="L510" s="27">
+        <v>4</v>
+      </c>
+      <c r="M510" s="27">
+        <v>0</v>
+      </c>
+      <c r="N510" s="27">
+        <v>0</v>
+      </c>
+      <c r="O510" s="27"/>
+      <c r="P510" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q510" s="27">
+        <v>0</v>
+      </c>
+      <c r="R510" s="27">
+        <v>0</v>
+      </c>
+      <c r="S510" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T510" s="27">
+        <v>1</v>
+      </c>
+      <c r="U510" s="27"/>
+      <c r="V510" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10058</v>
+      </c>
+    </row>
+    <row r="511" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A511" s="27">
+        <v>10059</v>
+      </c>
+      <c r="B511" s="27">
+        <v>1</v>
+      </c>
+      <c r="C511" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为60的怪物</v>
+      </c>
+      <c r="D511" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E511" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F511" s="27">
+        <v>1</v>
+      </c>
+      <c r="G511" s="27">
+        <v>0</v>
+      </c>
+      <c r="H511" s="27">
+        <v>12</v>
+      </c>
+      <c r="I511" s="27">
+        <v>6</v>
+      </c>
+      <c r="J511" s="27">
+        <v>2</v>
+      </c>
+      <c r="K511" s="27">
+        <v>3</v>
+      </c>
+      <c r="L511" s="27">
+        <v>4</v>
+      </c>
+      <c r="M511" s="27">
+        <v>0</v>
+      </c>
+      <c r="N511" s="27">
+        <v>0</v>
+      </c>
+      <c r="O511" s="27"/>
+      <c r="P511" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q511" s="27">
+        <v>0</v>
+      </c>
+      <c r="R511" s="27">
+        <v>0</v>
+      </c>
+      <c r="S511" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T511" s="27">
+        <v>1</v>
+      </c>
+      <c r="U511" s="27"/>
+      <c r="V511" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10059</v>
+      </c>
+    </row>
+    <row r="512" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A512" s="27">
+        <v>10060</v>
+      </c>
+      <c r="B512" s="27">
+        <v>1</v>
+      </c>
+      <c r="C512" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为61的怪物</v>
+      </c>
+      <c r="D512" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E512" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F512" s="27">
+        <v>1</v>
+      </c>
+      <c r="G512" s="27">
+        <v>0</v>
+      </c>
+      <c r="H512" s="27">
+        <v>12</v>
+      </c>
+      <c r="I512" s="27">
+        <v>6</v>
+      </c>
+      <c r="J512" s="27">
+        <v>2</v>
+      </c>
+      <c r="K512" s="27">
+        <v>3</v>
+      </c>
+      <c r="L512" s="27">
+        <v>4</v>
+      </c>
+      <c r="M512" s="27">
+        <v>0</v>
+      </c>
+      <c r="N512" s="27">
+        <v>0</v>
+      </c>
+      <c r="O512" s="27"/>
+      <c r="P512" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q512" s="27">
+        <v>0</v>
+      </c>
+      <c r="R512" s="27">
+        <v>0</v>
+      </c>
+      <c r="S512" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T512" s="27">
+        <v>1</v>
+      </c>
+      <c r="U512" s="27"/>
+      <c r="V512" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10060</v>
+      </c>
+    </row>
+    <row r="513" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A513" s="27">
+        <v>10061</v>
+      </c>
+      <c r="B513" s="27">
+        <v>1</v>
+      </c>
+      <c r="C513" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为62的怪物</v>
+      </c>
+      <c r="D513" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E513" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F513" s="27">
+        <v>1</v>
+      </c>
+      <c r="G513" s="27">
+        <v>0</v>
+      </c>
+      <c r="H513" s="27">
+        <v>12</v>
+      </c>
+      <c r="I513" s="27">
+        <v>6</v>
+      </c>
+      <c r="J513" s="27">
+        <v>2</v>
+      </c>
+      <c r="K513" s="27">
+        <v>3</v>
+      </c>
+      <c r="L513" s="27">
+        <v>4</v>
+      </c>
+      <c r="M513" s="27">
+        <v>0</v>
+      </c>
+      <c r="N513" s="27">
+        <v>0</v>
+      </c>
+      <c r="O513" s="27"/>
+      <c r="P513" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q513" s="27">
+        <v>0</v>
+      </c>
+      <c r="R513" s="27">
+        <v>0</v>
+      </c>
+      <c r="S513" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T513" s="27">
+        <v>1</v>
+      </c>
+      <c r="U513" s="27"/>
+      <c r="V513" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10061</v>
+      </c>
+    </row>
+    <row r="514" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A514" s="27">
+        <v>10062</v>
+      </c>
+      <c r="B514" s="27">
+        <v>1</v>
+      </c>
+      <c r="C514" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为63的怪物</v>
+      </c>
+      <c r="D514" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E514" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F514" s="27">
+        <v>1</v>
+      </c>
+      <c r="G514" s="27">
+        <v>0</v>
+      </c>
+      <c r="H514" s="27">
+        <v>12</v>
+      </c>
+      <c r="I514" s="27">
+        <v>6</v>
+      </c>
+      <c r="J514" s="27">
+        <v>2</v>
+      </c>
+      <c r="K514" s="27">
+        <v>3</v>
+      </c>
+      <c r="L514" s="27">
+        <v>4</v>
+      </c>
+      <c r="M514" s="27">
+        <v>0</v>
+      </c>
+      <c r="N514" s="27">
+        <v>0</v>
+      </c>
+      <c r="O514" s="27"/>
+      <c r="P514" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q514" s="27">
+        <v>0</v>
+      </c>
+      <c r="R514" s="27">
+        <v>0</v>
+      </c>
+      <c r="S514" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T514" s="27">
+        <v>1</v>
+      </c>
+      <c r="U514" s="27"/>
+      <c r="V514" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10062</v>
+      </c>
+    </row>
+    <row r="515" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A515" s="27">
+        <v>10063</v>
+      </c>
+      <c r="B515" s="27">
+        <v>1</v>
+      </c>
+      <c r="C515" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为64的怪物</v>
+      </c>
+      <c r="D515" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E515" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F515" s="27">
+        <v>1</v>
+      </c>
+      <c r="G515" s="27">
+        <v>0</v>
+      </c>
+      <c r="H515" s="27">
+        <v>12</v>
+      </c>
+      <c r="I515" s="27">
+        <v>6</v>
+      </c>
+      <c r="J515" s="27">
+        <v>2</v>
+      </c>
+      <c r="K515" s="27">
+        <v>3</v>
+      </c>
+      <c r="L515" s="27">
+        <v>4</v>
+      </c>
+      <c r="M515" s="27">
+        <v>0</v>
+      </c>
+      <c r="N515" s="27">
+        <v>0</v>
+      </c>
+      <c r="O515" s="27"/>
+      <c r="P515" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q515" s="27">
+        <v>0</v>
+      </c>
+      <c r="R515" s="27">
+        <v>0</v>
+      </c>
+      <c r="S515" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T515" s="27">
+        <v>1</v>
+      </c>
+      <c r="U515" s="27"/>
+      <c r="V515" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10063</v>
+      </c>
+    </row>
+    <row r="516" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A516" s="27">
+        <v>10064</v>
+      </c>
+      <c r="B516" s="27">
+        <v>1</v>
+      </c>
+      <c r="C516" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为65的怪物</v>
+      </c>
+      <c r="D516" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E516" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F516" s="27">
+        <v>1</v>
+      </c>
+      <c r="G516" s="27">
+        <v>0</v>
+      </c>
+      <c r="H516" s="27">
+        <v>12</v>
+      </c>
+      <c r="I516" s="27">
+        <v>6</v>
+      </c>
+      <c r="J516" s="27">
+        <v>2</v>
+      </c>
+      <c r="K516" s="27">
+        <v>3</v>
+      </c>
+      <c r="L516" s="27">
+        <v>4</v>
+      </c>
+      <c r="M516" s="27">
+        <v>0</v>
+      </c>
+      <c r="N516" s="27">
+        <v>0</v>
+      </c>
+      <c r="O516" s="27"/>
+      <c r="P516" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q516" s="27">
+        <v>0</v>
+      </c>
+      <c r="R516" s="27">
+        <v>0</v>
+      </c>
+      <c r="S516" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T516" s="27">
+        <v>1</v>
+      </c>
+      <c r="U516" s="27"/>
+      <c r="V516" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10064</v>
+      </c>
+    </row>
+    <row r="517" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A517" s="27">
+        <v>10065</v>
+      </c>
+      <c r="B517" s="27">
+        <v>1</v>
+      </c>
+      <c r="C517" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为66的怪物</v>
+      </c>
+      <c r="D517" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E517" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F517" s="27">
+        <v>1</v>
+      </c>
+      <c r="G517" s="27">
+        <v>0</v>
+      </c>
+      <c r="H517" s="27">
+        <v>12</v>
+      </c>
+      <c r="I517" s="27">
+        <v>6</v>
+      </c>
+      <c r="J517" s="27">
+        <v>2</v>
+      </c>
+      <c r="K517" s="27">
+        <v>3</v>
+      </c>
+      <c r="L517" s="27">
+        <v>4</v>
+      </c>
+      <c r="M517" s="27">
+        <v>0</v>
+      </c>
+      <c r="N517" s="27">
+        <v>0</v>
+      </c>
+      <c r="O517" s="27"/>
+      <c r="P517" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q517" s="27">
+        <v>0</v>
+      </c>
+      <c r="R517" s="27">
+        <v>0</v>
+      </c>
+      <c r="S517" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T517" s="27">
+        <v>1</v>
+      </c>
+      <c r="U517" s="27"/>
+      <c r="V517" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10065</v>
+      </c>
+    </row>
+    <row r="518" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A518" s="27">
+        <v>10066</v>
+      </c>
+      <c r="B518" s="27">
+        <v>1</v>
+      </c>
+      <c r="C518" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为67的怪物</v>
+      </c>
+      <c r="D518" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E518" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F518" s="27">
+        <v>1</v>
+      </c>
+      <c r="G518" s="27">
+        <v>0</v>
+      </c>
+      <c r="H518" s="27">
+        <v>12</v>
+      </c>
+      <c r="I518" s="27">
+        <v>6</v>
+      </c>
+      <c r="J518" s="27">
+        <v>2</v>
+      </c>
+      <c r="K518" s="27">
+        <v>3</v>
+      </c>
+      <c r="L518" s="27">
+        <v>4</v>
+      </c>
+      <c r="M518" s="27">
+        <v>0</v>
+      </c>
+      <c r="N518" s="27">
+        <v>0</v>
+      </c>
+      <c r="O518" s="27"/>
+      <c r="P518" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q518" s="27">
+        <v>0</v>
+      </c>
+      <c r="R518" s="27">
+        <v>0</v>
+      </c>
+      <c r="S518" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T518" s="27">
+        <v>1</v>
+      </c>
+      <c r="U518" s="27"/>
+      <c r="V518" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10066</v>
+      </c>
+    </row>
+    <row r="519" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A519" s="27">
+        <v>10067</v>
+      </c>
+      <c r="B519" s="27">
+        <v>1</v>
+      </c>
+      <c r="C519" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为68的怪物</v>
+      </c>
+      <c r="D519" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E519" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F519" s="27">
+        <v>1</v>
+      </c>
+      <c r="G519" s="27">
+        <v>0</v>
+      </c>
+      <c r="H519" s="27">
+        <v>12</v>
+      </c>
+      <c r="I519" s="27">
+        <v>6</v>
+      </c>
+      <c r="J519" s="27">
+        <v>2</v>
+      </c>
+      <c r="K519" s="27">
+        <v>3</v>
+      </c>
+      <c r="L519" s="27">
+        <v>4</v>
+      </c>
+      <c r="M519" s="27">
+        <v>0</v>
+      </c>
+      <c r="N519" s="27">
+        <v>0</v>
+      </c>
+      <c r="O519" s="27"/>
+      <c r="P519" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q519" s="27">
+        <v>0</v>
+      </c>
+      <c r="R519" s="27">
+        <v>0</v>
+      </c>
+      <c r="S519" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T519" s="27">
+        <v>1</v>
+      </c>
+      <c r="U519" s="27"/>
+      <c r="V519" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10067</v>
+      </c>
+    </row>
+    <row r="520" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A520" s="27">
+        <v>10068</v>
+      </c>
+      <c r="B520" s="27">
+        <v>1</v>
+      </c>
+      <c r="C520" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为69的怪物</v>
+      </c>
+      <c r="D520" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E520" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F520" s="27">
+        <v>1</v>
+      </c>
+      <c r="G520" s="27">
+        <v>0</v>
+      </c>
+      <c r="H520" s="27">
+        <v>12</v>
+      </c>
+      <c r="I520" s="27">
+        <v>6</v>
+      </c>
+      <c r="J520" s="27">
+        <v>2</v>
+      </c>
+      <c r="K520" s="27">
+        <v>3</v>
+      </c>
+      <c r="L520" s="27">
+        <v>4</v>
+      </c>
+      <c r="M520" s="27">
+        <v>0</v>
+      </c>
+      <c r="N520" s="27">
+        <v>0</v>
+      </c>
+      <c r="O520" s="27"/>
+      <c r="P520" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q520" s="27">
+        <v>0</v>
+      </c>
+      <c r="R520" s="27">
+        <v>0</v>
+      </c>
+      <c r="S520" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T520" s="27">
+        <v>1</v>
+      </c>
+      <c r="U520" s="27"/>
+      <c r="V520" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10068</v>
+      </c>
+    </row>
+    <row r="521" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A521" s="27">
+        <v>10069</v>
+      </c>
+      <c r="B521" s="27">
+        <v>1</v>
+      </c>
+      <c r="C521" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为70的怪物</v>
+      </c>
+      <c r="D521" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E521" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F521" s="27">
+        <v>1</v>
+      </c>
+      <c r="G521" s="27">
+        <v>0</v>
+      </c>
+      <c r="H521" s="27">
+        <v>12</v>
+      </c>
+      <c r="I521" s="27">
+        <v>6</v>
+      </c>
+      <c r="J521" s="27">
+        <v>2</v>
+      </c>
+      <c r="K521" s="27">
+        <v>3</v>
+      </c>
+      <c r="L521" s="27">
+        <v>4</v>
+      </c>
+      <c r="M521" s="27">
+        <v>0</v>
+      </c>
+      <c r="N521" s="27">
+        <v>0</v>
+      </c>
+      <c r="O521" s="27"/>
+      <c r="P521" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q521" s="27">
+        <v>0</v>
+      </c>
+      <c r="R521" s="27">
+        <v>0</v>
+      </c>
+      <c r="S521" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T521" s="27">
+        <v>1</v>
+      </c>
+      <c r="U521" s="27"/>
+      <c r="V521" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10069</v>
+      </c>
+    </row>
+    <row r="522" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A522" s="27">
+        <v>10070</v>
+      </c>
+      <c r="B522" s="27">
+        <v>1</v>
+      </c>
+      <c r="C522" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为71的怪物</v>
+      </c>
+      <c r="D522" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E522" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F522" s="27">
+        <v>1</v>
+      </c>
+      <c r="G522" s="27">
+        <v>0</v>
+      </c>
+      <c r="H522" s="27">
+        <v>12</v>
+      </c>
+      <c r="I522" s="27">
+        <v>6</v>
+      </c>
+      <c r="J522" s="27">
+        <v>2</v>
+      </c>
+      <c r="K522" s="27">
+        <v>3</v>
+      </c>
+      <c r="L522" s="27">
+        <v>4</v>
+      </c>
+      <c r="M522" s="27">
+        <v>0</v>
+      </c>
+      <c r="N522" s="27">
+        <v>0</v>
+      </c>
+      <c r="O522" s="27"/>
+      <c r="P522" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q522" s="27">
+        <v>0</v>
+      </c>
+      <c r="R522" s="27">
+        <v>0</v>
+      </c>
+      <c r="S522" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T522" s="27">
+        <v>1</v>
+      </c>
+      <c r="U522" s="27"/>
+      <c r="V522" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10070</v>
+      </c>
+    </row>
+    <row r="523" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A523" s="27">
+        <v>10071</v>
+      </c>
+      <c r="B523" s="27">
+        <v>1</v>
+      </c>
+      <c r="C523" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为72的怪物</v>
+      </c>
+      <c r="D523" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E523" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F523" s="27">
+        <v>1</v>
+      </c>
+      <c r="G523" s="27">
+        <v>0</v>
+      </c>
+      <c r="H523" s="27">
+        <v>12</v>
+      </c>
+      <c r="I523" s="27">
+        <v>6</v>
+      </c>
+      <c r="J523" s="27">
+        <v>2</v>
+      </c>
+      <c r="K523" s="27">
+        <v>3</v>
+      </c>
+      <c r="L523" s="27">
+        <v>4</v>
+      </c>
+      <c r="M523" s="27">
+        <v>0</v>
+      </c>
+      <c r="N523" s="27">
+        <v>0</v>
+      </c>
+      <c r="O523" s="27"/>
+      <c r="P523" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q523" s="27">
+        <v>0</v>
+      </c>
+      <c r="R523" s="27">
+        <v>0</v>
+      </c>
+      <c r="S523" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T523" s="27">
+        <v>1</v>
+      </c>
+      <c r="U523" s="27"/>
+      <c r="V523" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10071</v>
+      </c>
+    </row>
+    <row r="524" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A524" s="27">
+        <v>10072</v>
+      </c>
+      <c r="B524" s="27">
+        <v>1</v>
+      </c>
+      <c r="C524" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为73的怪物</v>
+      </c>
+      <c r="D524" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E524" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F524" s="27">
+        <v>1</v>
+      </c>
+      <c r="G524" s="27">
+        <v>0</v>
+      </c>
+      <c r="H524" s="27">
+        <v>12</v>
+      </c>
+      <c r="I524" s="27">
+        <v>6</v>
+      </c>
+      <c r="J524" s="27">
+        <v>2</v>
+      </c>
+      <c r="K524" s="27">
+        <v>3</v>
+      </c>
+      <c r="L524" s="27">
+        <v>4</v>
+      </c>
+      <c r="M524" s="27">
+        <v>0</v>
+      </c>
+      <c r="N524" s="27">
+        <v>0</v>
+      </c>
+      <c r="O524" s="27"/>
+      <c r="P524" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q524" s="27">
+        <v>0</v>
+      </c>
+      <c r="R524" s="27">
+        <v>0</v>
+      </c>
+      <c r="S524" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T524" s="27">
+        <v>1</v>
+      </c>
+      <c r="U524" s="27"/>
+      <c r="V524" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10072</v>
+      </c>
+    </row>
+    <row r="525" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A525" s="27">
+        <v>10073</v>
+      </c>
+      <c r="B525" s="27">
+        <v>1</v>
+      </c>
+      <c r="C525" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为74的怪物</v>
+      </c>
+      <c r="D525" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E525" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F525" s="27">
+        <v>1</v>
+      </c>
+      <c r="G525" s="27">
+        <v>0</v>
+      </c>
+      <c r="H525" s="27">
+        <v>12</v>
+      </c>
+      <c r="I525" s="27">
+        <v>6</v>
+      </c>
+      <c r="J525" s="27">
+        <v>2</v>
+      </c>
+      <c r="K525" s="27">
+        <v>3</v>
+      </c>
+      <c r="L525" s="27">
+        <v>4</v>
+      </c>
+      <c r="M525" s="27">
+        <v>0</v>
+      </c>
+      <c r="N525" s="27">
+        <v>0</v>
+      </c>
+      <c r="O525" s="27"/>
+      <c r="P525" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q525" s="27">
+        <v>0</v>
+      </c>
+      <c r="R525" s="27">
+        <v>0</v>
+      </c>
+      <c r="S525" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T525" s="27">
+        <v>1</v>
+      </c>
+      <c r="U525" s="27"/>
+      <c r="V525" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10073</v>
+      </c>
+    </row>
+    <row r="526" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A526" s="27">
+        <v>10074</v>
+      </c>
+      <c r="B526" s="27">
+        <v>1</v>
+      </c>
+      <c r="C526" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为75的怪物</v>
+      </c>
+      <c r="D526" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E526" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F526" s="27">
+        <v>1</v>
+      </c>
+      <c r="G526" s="27">
+        <v>0</v>
+      </c>
+      <c r="H526" s="27">
+        <v>12</v>
+      </c>
+      <c r="I526" s="27">
+        <v>6</v>
+      </c>
+      <c r="J526" s="27">
+        <v>2</v>
+      </c>
+      <c r="K526" s="27">
+        <v>3</v>
+      </c>
+      <c r="L526" s="27">
+        <v>4</v>
+      </c>
+      <c r="M526" s="27">
+        <v>0</v>
+      </c>
+      <c r="N526" s="27">
+        <v>0</v>
+      </c>
+      <c r="O526" s="27"/>
+      <c r="P526" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q526" s="27">
+        <v>0</v>
+      </c>
+      <c r="R526" s="27">
+        <v>0</v>
+      </c>
+      <c r="S526" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T526" s="27">
+        <v>1</v>
+      </c>
+      <c r="U526" s="27"/>
+      <c r="V526" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10074</v>
+      </c>
+    </row>
+    <row r="527" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A527" s="27">
+        <v>10075</v>
+      </c>
+      <c r="B527" s="27">
+        <v>1</v>
+      </c>
+      <c r="C527" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为76的怪物</v>
+      </c>
+      <c r="D527" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E527" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F527" s="27">
+        <v>1</v>
+      </c>
+      <c r="G527" s="27">
+        <v>0</v>
+      </c>
+      <c r="H527" s="27">
+        <v>12</v>
+      </c>
+      <c r="I527" s="27">
+        <v>6</v>
+      </c>
+      <c r="J527" s="27">
+        <v>2</v>
+      </c>
+      <c r="K527" s="27">
+        <v>3</v>
+      </c>
+      <c r="L527" s="27">
+        <v>4</v>
+      </c>
+      <c r="M527" s="27">
+        <v>0</v>
+      </c>
+      <c r="N527" s="27">
+        <v>0</v>
+      </c>
+      <c r="O527" s="27"/>
+      <c r="P527" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q527" s="27">
+        <v>0</v>
+      </c>
+      <c r="R527" s="27">
+        <v>0</v>
+      </c>
+      <c r="S527" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T527" s="27">
+        <v>1</v>
+      </c>
+      <c r="U527" s="27"/>
+      <c r="V527" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10075</v>
+      </c>
+    </row>
+    <row r="528" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A528" s="27">
+        <v>10076</v>
+      </c>
+      <c r="B528" s="27">
+        <v>1</v>
+      </c>
+      <c r="C528" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为77的怪物</v>
+      </c>
+      <c r="D528" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E528" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F528" s="27">
+        <v>1</v>
+      </c>
+      <c r="G528" s="27">
+        <v>0</v>
+      </c>
+      <c r="H528" s="27">
+        <v>12</v>
+      </c>
+      <c r="I528" s="27">
+        <v>6</v>
+      </c>
+      <c r="J528" s="27">
+        <v>2</v>
+      </c>
+      <c r="K528" s="27">
+        <v>3</v>
+      </c>
+      <c r="L528" s="27">
+        <v>4</v>
+      </c>
+      <c r="M528" s="27">
+        <v>0</v>
+      </c>
+      <c r="N528" s="27">
+        <v>0</v>
+      </c>
+      <c r="O528" s="27"/>
+      <c r="P528" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q528" s="27">
+        <v>0</v>
+      </c>
+      <c r="R528" s="27">
+        <v>0</v>
+      </c>
+      <c r="S528" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T528" s="27">
+        <v>1</v>
+      </c>
+      <c r="U528" s="27"/>
+      <c r="V528" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10076</v>
+      </c>
+    </row>
+    <row r="529" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A529" s="27">
+        <v>10077</v>
+      </c>
+      <c r="B529" s="27">
+        <v>1</v>
+      </c>
+      <c r="C529" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为78的怪物</v>
+      </c>
+      <c r="D529" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E529" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F529" s="27">
+        <v>1</v>
+      </c>
+      <c r="G529" s="27">
+        <v>0</v>
+      </c>
+      <c r="H529" s="27">
+        <v>12</v>
+      </c>
+      <c r="I529" s="27">
+        <v>6</v>
+      </c>
+      <c r="J529" s="27">
+        <v>2</v>
+      </c>
+      <c r="K529" s="27">
+        <v>3</v>
+      </c>
+      <c r="L529" s="27">
+        <v>4</v>
+      </c>
+      <c r="M529" s="27">
+        <v>0</v>
+      </c>
+      <c r="N529" s="27">
+        <v>0</v>
+      </c>
+      <c r="O529" s="27"/>
+      <c r="P529" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q529" s="27">
+        <v>0</v>
+      </c>
+      <c r="R529" s="27">
+        <v>0</v>
+      </c>
+      <c r="S529" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T529" s="27">
+        <v>1</v>
+      </c>
+      <c r="U529" s="27"/>
+      <c r="V529" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10077</v>
+      </c>
+    </row>
+    <row r="530" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A530" s="27">
+        <v>10078</v>
+      </c>
+      <c r="B530" s="27">
+        <v>1</v>
+      </c>
+      <c r="C530" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为79的怪物</v>
+      </c>
+      <c r="D530" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E530" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F530" s="27">
+        <v>1</v>
+      </c>
+      <c r="G530" s="27">
+        <v>0</v>
+      </c>
+      <c r="H530" s="27">
+        <v>12</v>
+      </c>
+      <c r="I530" s="27">
+        <v>6</v>
+      </c>
+      <c r="J530" s="27">
+        <v>2</v>
+      </c>
+      <c r="K530" s="27">
+        <v>3</v>
+      </c>
+      <c r="L530" s="27">
+        <v>4</v>
+      </c>
+      <c r="M530" s="27">
+        <v>0</v>
+      </c>
+      <c r="N530" s="27">
+        <v>0</v>
+      </c>
+      <c r="O530" s="27"/>
+      <c r="P530" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q530" s="27">
+        <v>0</v>
+      </c>
+      <c r="R530" s="27">
+        <v>0</v>
+      </c>
+      <c r="S530" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T530" s="27">
+        <v>1</v>
+      </c>
+      <c r="U530" s="27"/>
+      <c r="V530" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10078</v>
+      </c>
+    </row>
+    <row r="531" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A531" s="27">
+        <v>10079</v>
+      </c>
+      <c r="B531" s="27">
+        <v>1</v>
+      </c>
+      <c r="C531" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为80的怪物</v>
+      </c>
+      <c r="D531" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E531" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F531" s="27">
+        <v>1</v>
+      </c>
+      <c r="G531" s="27">
+        <v>0</v>
+      </c>
+      <c r="H531" s="27">
+        <v>12</v>
+      </c>
+      <c r="I531" s="27">
+        <v>6</v>
+      </c>
+      <c r="J531" s="27">
+        <v>2</v>
+      </c>
+      <c r="K531" s="27">
+        <v>3</v>
+      </c>
+      <c r="L531" s="27">
+        <v>4</v>
+      </c>
+      <c r="M531" s="27">
+        <v>0</v>
+      </c>
+      <c r="N531" s="27">
+        <v>0</v>
+      </c>
+      <c r="O531" s="27"/>
+      <c r="P531" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q531" s="27">
+        <v>0</v>
+      </c>
+      <c r="R531" s="27">
+        <v>0</v>
+      </c>
+      <c r="S531" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T531" s="27">
+        <v>1</v>
+      </c>
+      <c r="U531" s="27"/>
+      <c r="V531" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10079</v>
+      </c>
+    </row>
+    <row r="532" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A532" s="27">
+        <v>10080</v>
+      </c>
+      <c r="B532" s="27">
+        <v>1</v>
+      </c>
+      <c r="C532" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为81的怪物</v>
+      </c>
+      <c r="D532" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E532" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F532" s="27">
+        <v>1</v>
+      </c>
+      <c r="G532" s="27">
+        <v>0</v>
+      </c>
+      <c r="H532" s="27">
+        <v>12</v>
+      </c>
+      <c r="I532" s="27">
+        <v>6</v>
+      </c>
+      <c r="J532" s="27">
+        <v>2</v>
+      </c>
+      <c r="K532" s="27">
+        <v>3</v>
+      </c>
+      <c r="L532" s="27">
+        <v>4</v>
+      </c>
+      <c r="M532" s="27">
+        <v>0</v>
+      </c>
+      <c r="N532" s="27">
+        <v>0</v>
+      </c>
+      <c r="O532" s="27"/>
+      <c r="P532" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q532" s="27">
+        <v>0</v>
+      </c>
+      <c r="R532" s="27">
+        <v>0</v>
+      </c>
+      <c r="S532" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T532" s="27">
+        <v>1</v>
+      </c>
+      <c r="U532" s="27"/>
+      <c r="V532" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10080</v>
+      </c>
+    </row>
+    <row r="533" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A533" s="27">
+        <v>10081</v>
+      </c>
+      <c r="B533" s="27">
+        <v>1</v>
+      </c>
+      <c r="C533" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为82的怪物</v>
+      </c>
+      <c r="D533" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E533" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F533" s="27">
+        <v>1</v>
+      </c>
+      <c r="G533" s="27">
+        <v>0</v>
+      </c>
+      <c r="H533" s="27">
+        <v>12</v>
+      </c>
+      <c r="I533" s="27">
+        <v>6</v>
+      </c>
+      <c r="J533" s="27">
+        <v>2</v>
+      </c>
+      <c r="K533" s="27">
+        <v>3</v>
+      </c>
+      <c r="L533" s="27">
+        <v>4</v>
+      </c>
+      <c r="M533" s="27">
+        <v>0</v>
+      </c>
+      <c r="N533" s="27">
+        <v>0</v>
+      </c>
+      <c r="O533" s="27"/>
+      <c r="P533" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q533" s="27">
+        <v>0</v>
+      </c>
+      <c r="R533" s="27">
+        <v>0</v>
+      </c>
+      <c r="S533" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T533" s="27">
+        <v>1</v>
+      </c>
+      <c r="U533" s="27"/>
+      <c r="V533" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10081</v>
+      </c>
+    </row>
+    <row r="534" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A534" s="27">
+        <v>10082</v>
+      </c>
+      <c r="B534" s="27">
+        <v>1</v>
+      </c>
+      <c r="C534" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为83的怪物</v>
+      </c>
+      <c r="D534" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E534" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F534" s="27">
+        <v>1</v>
+      </c>
+      <c r="G534" s="27">
+        <v>0</v>
+      </c>
+      <c r="H534" s="27">
+        <v>12</v>
+      </c>
+      <c r="I534" s="27">
+        <v>6</v>
+      </c>
+      <c r="J534" s="27">
+        <v>2</v>
+      </c>
+      <c r="K534" s="27">
+        <v>3</v>
+      </c>
+      <c r="L534" s="27">
+        <v>4</v>
+      </c>
+      <c r="M534" s="27">
+        <v>0</v>
+      </c>
+      <c r="N534" s="27">
+        <v>0</v>
+      </c>
+      <c r="O534" s="27"/>
+      <c r="P534" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q534" s="27">
+        <v>0</v>
+      </c>
+      <c r="R534" s="27">
+        <v>0</v>
+      </c>
+      <c r="S534" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T534" s="27">
+        <v>1</v>
+      </c>
+      <c r="U534" s="27"/>
+      <c r="V534" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10082</v>
+      </c>
+    </row>
+    <row r="535" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A535" s="27">
+        <v>10083</v>
+      </c>
+      <c r="B535" s="27">
+        <v>1</v>
+      </c>
+      <c r="C535" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为84的怪物</v>
+      </c>
+      <c r="D535" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E535" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F535" s="27">
+        <v>1</v>
+      </c>
+      <c r="G535" s="27">
+        <v>0</v>
+      </c>
+      <c r="H535" s="27">
+        <v>12</v>
+      </c>
+      <c r="I535" s="27">
+        <v>6</v>
+      </c>
+      <c r="J535" s="27">
+        <v>2</v>
+      </c>
+      <c r="K535" s="27">
+        <v>3</v>
+      </c>
+      <c r="L535" s="27">
+        <v>4</v>
+      </c>
+      <c r="M535" s="27">
+        <v>0</v>
+      </c>
+      <c r="N535" s="27">
+        <v>0</v>
+      </c>
+      <c r="O535" s="27"/>
+      <c r="P535" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q535" s="27">
+        <v>0</v>
+      </c>
+      <c r="R535" s="27">
+        <v>0</v>
+      </c>
+      <c r="S535" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T535" s="27">
+        <v>1</v>
+      </c>
+      <c r="U535" s="27"/>
+      <c r="V535" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10083</v>
+      </c>
+    </row>
+    <row r="536" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A536" s="27">
+        <v>10084</v>
+      </c>
+      <c r="B536" s="27">
+        <v>1</v>
+      </c>
+      <c r="C536" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为85的怪物</v>
+      </c>
+      <c r="D536" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E536" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F536" s="27">
+        <v>1</v>
+      </c>
+      <c r="G536" s="27">
+        <v>0</v>
+      </c>
+      <c r="H536" s="27">
+        <v>12</v>
+      </c>
+      <c r="I536" s="27">
+        <v>6</v>
+      </c>
+      <c r="J536" s="27">
+        <v>2</v>
+      </c>
+      <c r="K536" s="27">
+        <v>3</v>
+      </c>
+      <c r="L536" s="27">
+        <v>4</v>
+      </c>
+      <c r="M536" s="27">
+        <v>0</v>
+      </c>
+      <c r="N536" s="27">
+        <v>0</v>
+      </c>
+      <c r="O536" s="27"/>
+      <c r="P536" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q536" s="27">
+        <v>0</v>
+      </c>
+      <c r="R536" s="27">
+        <v>0</v>
+      </c>
+      <c r="S536" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T536" s="27">
+        <v>1</v>
+      </c>
+      <c r="U536" s="27"/>
+      <c r="V536" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10084</v>
+      </c>
+    </row>
+    <row r="537" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A537" s="27">
+        <v>10085</v>
+      </c>
+      <c r="B537" s="27">
+        <v>1</v>
+      </c>
+      <c r="C537" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为86的怪物</v>
+      </c>
+      <c r="D537" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E537" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F537" s="27">
+        <v>1</v>
+      </c>
+      <c r="G537" s="27">
+        <v>0</v>
+      </c>
+      <c r="H537" s="27">
+        <v>12</v>
+      </c>
+      <c r="I537" s="27">
+        <v>6</v>
+      </c>
+      <c r="J537" s="27">
+        <v>2</v>
+      </c>
+      <c r="K537" s="27">
+        <v>3</v>
+      </c>
+      <c r="L537" s="27">
+        <v>4</v>
+      </c>
+      <c r="M537" s="27">
+        <v>0</v>
+      </c>
+      <c r="N537" s="27">
+        <v>0</v>
+      </c>
+      <c r="O537" s="27"/>
+      <c r="P537" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q537" s="27">
+        <v>0</v>
+      </c>
+      <c r="R537" s="27">
+        <v>0</v>
+      </c>
+      <c r="S537" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T537" s="27">
+        <v>1</v>
+      </c>
+      <c r="U537" s="27"/>
+      <c r="V537" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10085</v>
+      </c>
+    </row>
+    <row r="538" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A538" s="27">
+        <v>10086</v>
+      </c>
+      <c r="B538" s="27">
+        <v>1</v>
+      </c>
+      <c r="C538" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为87的怪物</v>
+      </c>
+      <c r="D538" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E538" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F538" s="27">
+        <v>1</v>
+      </c>
+      <c r="G538" s="27">
+        <v>0</v>
+      </c>
+      <c r="H538" s="27">
+        <v>12</v>
+      </c>
+      <c r="I538" s="27">
+        <v>6</v>
+      </c>
+      <c r="J538" s="27">
+        <v>2</v>
+      </c>
+      <c r="K538" s="27">
+        <v>3</v>
+      </c>
+      <c r="L538" s="27">
+        <v>4</v>
+      </c>
+      <c r="M538" s="27">
+        <v>0</v>
+      </c>
+      <c r="N538" s="27">
+        <v>0</v>
+      </c>
+      <c r="O538" s="27"/>
+      <c r="P538" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q538" s="27">
+        <v>0</v>
+      </c>
+      <c r="R538" s="27">
+        <v>0</v>
+      </c>
+      <c r="S538" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T538" s="27">
+        <v>1</v>
+      </c>
+      <c r="U538" s="27"/>
+      <c r="V538" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10086</v>
+      </c>
+    </row>
+    <row r="539" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A539" s="27">
+        <v>10087</v>
+      </c>
+      <c r="B539" s="27">
+        <v>1</v>
+      </c>
+      <c r="C539" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为88的怪物</v>
+      </c>
+      <c r="D539" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E539" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F539" s="27">
+        <v>1</v>
+      </c>
+      <c r="G539" s="27">
+        <v>0</v>
+      </c>
+      <c r="H539" s="27">
+        <v>12</v>
+      </c>
+      <c r="I539" s="27">
+        <v>6</v>
+      </c>
+      <c r="J539" s="27">
+        <v>2</v>
+      </c>
+      <c r="K539" s="27">
+        <v>3</v>
+      </c>
+      <c r="L539" s="27">
+        <v>4</v>
+      </c>
+      <c r="M539" s="27">
+        <v>0</v>
+      </c>
+      <c r="N539" s="27">
+        <v>0</v>
+      </c>
+      <c r="O539" s="27"/>
+      <c r="P539" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q539" s="27">
+        <v>0</v>
+      </c>
+      <c r="R539" s="27">
+        <v>0</v>
+      </c>
+      <c r="S539" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T539" s="27">
+        <v>1</v>
+      </c>
+      <c r="U539" s="27"/>
+      <c r="V539" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10087</v>
+      </c>
+    </row>
+    <row r="540" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A540" s="27">
+        <v>10088</v>
+      </c>
+      <c r="B540" s="27">
+        <v>1</v>
+      </c>
+      <c r="C540" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为89的怪物</v>
+      </c>
+      <c r="D540" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E540" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F540" s="27">
+        <v>1</v>
+      </c>
+      <c r="G540" s="27">
+        <v>0</v>
+      </c>
+      <c r="H540" s="27">
+        <v>12</v>
+      </c>
+      <c r="I540" s="27">
+        <v>6</v>
+      </c>
+      <c r="J540" s="27">
+        <v>2</v>
+      </c>
+      <c r="K540" s="27">
+        <v>3</v>
+      </c>
+      <c r="L540" s="27">
+        <v>4</v>
+      </c>
+      <c r="M540" s="27">
+        <v>0</v>
+      </c>
+      <c r="N540" s="27">
+        <v>0</v>
+      </c>
+      <c r="O540" s="27"/>
+      <c r="P540" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q540" s="27">
+        <v>0</v>
+      </c>
+      <c r="R540" s="27">
+        <v>0</v>
+      </c>
+      <c r="S540" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T540" s="27">
+        <v>1</v>
+      </c>
+      <c r="U540" s="27"/>
+      <c r="V540" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10088</v>
+      </c>
+    </row>
+    <row r="541" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A541" s="27">
+        <v>10089</v>
+      </c>
+      <c r="B541" s="27">
+        <v>1</v>
+      </c>
+      <c r="C541" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为90的怪物</v>
+      </c>
+      <c r="D541" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E541" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F541" s="27">
+        <v>1</v>
+      </c>
+      <c r="G541" s="27">
+        <v>0</v>
+      </c>
+      <c r="H541" s="27">
+        <v>12</v>
+      </c>
+      <c r="I541" s="27">
+        <v>6</v>
+      </c>
+      <c r="J541" s="27">
+        <v>2</v>
+      </c>
+      <c r="K541" s="27">
+        <v>3</v>
+      </c>
+      <c r="L541" s="27">
+        <v>4</v>
+      </c>
+      <c r="M541" s="27">
+        <v>0</v>
+      </c>
+      <c r="N541" s="27">
+        <v>0</v>
+      </c>
+      <c r="O541" s="27"/>
+      <c r="P541" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q541" s="27">
+        <v>0</v>
+      </c>
+      <c r="R541" s="27">
+        <v>0</v>
+      </c>
+      <c r="S541" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T541" s="27">
+        <v>1</v>
+      </c>
+      <c r="U541" s="27"/>
+      <c r="V541" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10089</v>
+      </c>
+    </row>
+    <row r="542" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A542" s="27">
+        <v>10090</v>
+      </c>
+      <c r="B542" s="27">
+        <v>1</v>
+      </c>
+      <c r="C542" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为91的怪物</v>
+      </c>
+      <c r="D542" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E542" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F542" s="27">
+        <v>1</v>
+      </c>
+      <c r="G542" s="27">
+        <v>0</v>
+      </c>
+      <c r="H542" s="27">
+        <v>12</v>
+      </c>
+      <c r="I542" s="27">
+        <v>6</v>
+      </c>
+      <c r="J542" s="27">
+        <v>2</v>
+      </c>
+      <c r="K542" s="27">
+        <v>3</v>
+      </c>
+      <c r="L542" s="27">
+        <v>4</v>
+      </c>
+      <c r="M542" s="27">
+        <v>0</v>
+      </c>
+      <c r="N542" s="27">
+        <v>0</v>
+      </c>
+      <c r="O542" s="27"/>
+      <c r="P542" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q542" s="27">
+        <v>0</v>
+      </c>
+      <c r="R542" s="27">
+        <v>0</v>
+      </c>
+      <c r="S542" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T542" s="27">
+        <v>1</v>
+      </c>
+      <c r="U542" s="27"/>
+      <c r="V542" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10090</v>
+      </c>
+    </row>
+    <row r="543" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A543" s="27">
+        <v>10091</v>
+      </c>
+      <c r="B543" s="27">
+        <v>1</v>
+      </c>
+      <c r="C543" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为92的怪物</v>
+      </c>
+      <c r="D543" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E543" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F543" s="27">
+        <v>1</v>
+      </c>
+      <c r="G543" s="27">
+        <v>0</v>
+      </c>
+      <c r="H543" s="27">
+        <v>12</v>
+      </c>
+      <c r="I543" s="27">
+        <v>6</v>
+      </c>
+      <c r="J543" s="27">
+        <v>2</v>
+      </c>
+      <c r="K543" s="27">
+        <v>3</v>
+      </c>
+      <c r="L543" s="27">
+        <v>4</v>
+      </c>
+      <c r="M543" s="27">
+        <v>0</v>
+      </c>
+      <c r="N543" s="27">
+        <v>0</v>
+      </c>
+      <c r="O543" s="27"/>
+      <c r="P543" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q543" s="27">
+        <v>0</v>
+      </c>
+      <c r="R543" s="27">
+        <v>0</v>
+      </c>
+      <c r="S543" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T543" s="27">
+        <v>1</v>
+      </c>
+      <c r="U543" s="27"/>
+      <c r="V543" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10091</v>
+      </c>
+    </row>
+    <row r="544" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A544" s="27">
+        <v>10092</v>
+      </c>
+      <c r="B544" s="27">
+        <v>1</v>
+      </c>
+      <c r="C544" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为93的怪物</v>
+      </c>
+      <c r="D544" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E544" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F544" s="27">
+        <v>1</v>
+      </c>
+      <c r="G544" s="27">
+        <v>0</v>
+      </c>
+      <c r="H544" s="27">
+        <v>12</v>
+      </c>
+      <c r="I544" s="27">
+        <v>6</v>
+      </c>
+      <c r="J544" s="27">
+        <v>2</v>
+      </c>
+      <c r="K544" s="27">
+        <v>3</v>
+      </c>
+      <c r="L544" s="27">
+        <v>4</v>
+      </c>
+      <c r="M544" s="27">
+        <v>0</v>
+      </c>
+      <c r="N544" s="27">
+        <v>0</v>
+      </c>
+      <c r="O544" s="27"/>
+      <c r="P544" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q544" s="27">
+        <v>0</v>
+      </c>
+      <c r="R544" s="27">
+        <v>0</v>
+      </c>
+      <c r="S544" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T544" s="27">
+        <v>1</v>
+      </c>
+      <c r="U544" s="27"/>
+      <c r="V544" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10092</v>
+      </c>
+    </row>
+    <row r="545" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A545" s="27">
+        <v>10093</v>
+      </c>
+      <c r="B545" s="27">
+        <v>1</v>
+      </c>
+      <c r="C545" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为94的怪物</v>
+      </c>
+      <c r="D545" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E545" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F545" s="27">
+        <v>1</v>
+      </c>
+      <c r="G545" s="27">
+        <v>0</v>
+      </c>
+      <c r="H545" s="27">
+        <v>12</v>
+      </c>
+      <c r="I545" s="27">
+        <v>6</v>
+      </c>
+      <c r="J545" s="27">
+        <v>2</v>
+      </c>
+      <c r="K545" s="27">
+        <v>3</v>
+      </c>
+      <c r="L545" s="27">
+        <v>4</v>
+      </c>
+      <c r="M545" s="27">
+        <v>0</v>
+      </c>
+      <c r="N545" s="27">
+        <v>0</v>
+      </c>
+      <c r="O545" s="27"/>
+      <c r="P545" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q545" s="27">
+        <v>0</v>
+      </c>
+      <c r="R545" s="27">
+        <v>0</v>
+      </c>
+      <c r="S545" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T545" s="27">
+        <v>1</v>
+      </c>
+      <c r="U545" s="27"/>
+      <c r="V545" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10093</v>
+      </c>
+    </row>
+    <row r="546" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A546" s="27">
+        <v>10094</v>
+      </c>
+      <c r="B546" s="27">
+        <v>1</v>
+      </c>
+      <c r="C546" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为95的怪物</v>
+      </c>
+      <c r="D546" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E546" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F546" s="27">
+        <v>1</v>
+      </c>
+      <c r="G546" s="27">
+        <v>0</v>
+      </c>
+      <c r="H546" s="27">
+        <v>12</v>
+      </c>
+      <c r="I546" s="27">
+        <v>6</v>
+      </c>
+      <c r="J546" s="27">
+        <v>2</v>
+      </c>
+      <c r="K546" s="27">
+        <v>3</v>
+      </c>
+      <c r="L546" s="27">
+        <v>4</v>
+      </c>
+      <c r="M546" s="27">
+        <v>0</v>
+      </c>
+      <c r="N546" s="27">
+        <v>0</v>
+      </c>
+      <c r="O546" s="27"/>
+      <c r="P546" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q546" s="27">
+        <v>0</v>
+      </c>
+      <c r="R546" s="27">
+        <v>0</v>
+      </c>
+      <c r="S546" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T546" s="27">
+        <v>1</v>
+      </c>
+      <c r="U546" s="27"/>
+      <c r="V546" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10094</v>
+      </c>
+    </row>
+    <row r="547" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A547" s="27">
+        <v>10095</v>
+      </c>
+      <c r="B547" s="27">
+        <v>1</v>
+      </c>
+      <c r="C547" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为96的怪物</v>
+      </c>
+      <c r="D547" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E547" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F547" s="27">
+        <v>1</v>
+      </c>
+      <c r="G547" s="27">
+        <v>0</v>
+      </c>
+      <c r="H547" s="27">
+        <v>12</v>
+      </c>
+      <c r="I547" s="27">
+        <v>6</v>
+      </c>
+      <c r="J547" s="27">
+        <v>2</v>
+      </c>
+      <c r="K547" s="27">
+        <v>3</v>
+      </c>
+      <c r="L547" s="27">
+        <v>4</v>
+      </c>
+      <c r="M547" s="27">
+        <v>0</v>
+      </c>
+      <c r="N547" s="27">
+        <v>0</v>
+      </c>
+      <c r="O547" s="27"/>
+      <c r="P547" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q547" s="27">
+        <v>0</v>
+      </c>
+      <c r="R547" s="27">
+        <v>0</v>
+      </c>
+      <c r="S547" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T547" s="27">
+        <v>1</v>
+      </c>
+      <c r="U547" s="27"/>
+      <c r="V547" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10095</v>
+      </c>
+    </row>
+    <row r="548" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A548" s="27">
+        <v>10096</v>
+      </c>
+      <c r="B548" s="27">
+        <v>1</v>
+      </c>
+      <c r="C548" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为97的怪物</v>
+      </c>
+      <c r="D548" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E548" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F548" s="27">
+        <v>1</v>
+      </c>
+      <c r="G548" s="27">
+        <v>0</v>
+      </c>
+      <c r="H548" s="27">
+        <v>12</v>
+      </c>
+      <c r="I548" s="27">
+        <v>6</v>
+      </c>
+      <c r="J548" s="27">
+        <v>2</v>
+      </c>
+      <c r="K548" s="27">
+        <v>3</v>
+      </c>
+      <c r="L548" s="27">
+        <v>4</v>
+      </c>
+      <c r="M548" s="27">
+        <v>0</v>
+      </c>
+      <c r="N548" s="27">
+        <v>0</v>
+      </c>
+      <c r="O548" s="27"/>
+      <c r="P548" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q548" s="27">
+        <v>0</v>
+      </c>
+      <c r="R548" s="27">
+        <v>0</v>
+      </c>
+      <c r="S548" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T548" s="27">
+        <v>1</v>
+      </c>
+      <c r="U548" s="27"/>
+      <c r="V548" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10096</v>
+      </c>
+    </row>
+    <row r="549" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A549" s="27">
+        <v>10097</v>
+      </c>
+      <c r="B549" s="27">
+        <v>1</v>
+      </c>
+      <c r="C549" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为98的怪物</v>
+      </c>
+      <c r="D549" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E549" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F549" s="27">
+        <v>1</v>
+      </c>
+      <c r="G549" s="27">
+        <v>0</v>
+      </c>
+      <c r="H549" s="27">
+        <v>12</v>
+      </c>
+      <c r="I549" s="27">
+        <v>6</v>
+      </c>
+      <c r="J549" s="27">
+        <v>2</v>
+      </c>
+      <c r="K549" s="27">
+        <v>3</v>
+      </c>
+      <c r="L549" s="27">
+        <v>4</v>
+      </c>
+      <c r="M549" s="27">
+        <v>0</v>
+      </c>
+      <c r="N549" s="27">
+        <v>0</v>
+      </c>
+      <c r="O549" s="27"/>
+      <c r="P549" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q549" s="27">
+        <v>0</v>
+      </c>
+      <c r="R549" s="27">
+        <v>0</v>
+      </c>
+      <c r="S549" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T549" s="27">
+        <v>1</v>
+      </c>
+      <c r="U549" s="27"/>
+      <c r="V549" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10097</v>
+      </c>
+    </row>
+    <row r="550" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A550" s="27">
+        <v>10098</v>
+      </c>
+      <c r="B550" s="27">
+        <v>1</v>
+      </c>
+      <c r="C550" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为99的怪物</v>
+      </c>
+      <c r="D550" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E550" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F550" s="27">
+        <v>1</v>
+      </c>
+      <c r="G550" s="27">
+        <v>0</v>
+      </c>
+      <c r="H550" s="27">
+        <v>12</v>
+      </c>
+      <c r="I550" s="27">
+        <v>6</v>
+      </c>
+      <c r="J550" s="27">
+        <v>2</v>
+      </c>
+      <c r="K550" s="27">
+        <v>3</v>
+      </c>
+      <c r="L550" s="27">
+        <v>4</v>
+      </c>
+      <c r="M550" s="27">
+        <v>0</v>
+      </c>
+      <c r="N550" s="27">
+        <v>0</v>
+      </c>
+      <c r="O550" s="27"/>
+      <c r="P550" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q550" s="27">
+        <v>0</v>
+      </c>
+      <c r="R550" s="27">
+        <v>0</v>
+      </c>
+      <c r="S550" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T550" s="27">
+        <v>1</v>
+      </c>
+      <c r="U550" s="27"/>
+      <c r="V550" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10098</v>
+      </c>
+    </row>
+    <row r="551" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A551" s="27">
+        <v>10099</v>
+      </c>
+      <c r="B551" s="27">
+        <v>1</v>
+      </c>
+      <c r="C551" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>等级为100的怪物</v>
+      </c>
+      <c r="D551" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E551" s="28">
+        <v>3004</v>
+      </c>
+      <c r="F551" s="27">
+        <v>1</v>
+      </c>
+      <c r="G551" s="27">
+        <v>0</v>
+      </c>
+      <c r="H551" s="27">
+        <v>12</v>
+      </c>
+      <c r="I551" s="27">
+        <v>6</v>
+      </c>
+      <c r="J551" s="27">
+        <v>2</v>
+      </c>
+      <c r="K551" s="27">
+        <v>3</v>
+      </c>
+      <c r="L551" s="27">
+        <v>4</v>
+      </c>
+      <c r="M551" s="27">
+        <v>0</v>
+      </c>
+      <c r="N551" s="27">
+        <v>0</v>
+      </c>
+      <c r="O551" s="27"/>
+      <c r="P551" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q551" s="27">
+        <v>0</v>
+      </c>
+      <c r="R551" s="27">
+        <v>0</v>
+      </c>
+      <c r="S551" s="27">
+        <v>2000</v>
+      </c>
+      <c r="T551" s="27">
+        <v>1</v>
+      </c>
+      <c r="U551" s="27"/>
+      <c r="V551" s="27" t="str">
+        <f t="shared" si="4"/>
+        <v>skill10099</v>
+      </c>
+    </row>
+    <row r="552" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A552" s="30">
+        <v>20000</v>
+      </c>
+      <c r="B552" s="30">
+        <v>1</v>
+      </c>
+      <c r="C552" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="D552" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="E552" s="31">
+        <v>3004</v>
+      </c>
+      <c r="F552" s="30">
+        <v>0</v>
+      </c>
+      <c r="G552" s="30">
+        <v>0</v>
+      </c>
+      <c r="H552" s="30">
+        <v>0</v>
+      </c>
+      <c r="I552" s="30">
+        <v>0</v>
+      </c>
+      <c r="J552" s="30">
+        <v>0</v>
+      </c>
+      <c r="K552" s="30">
+        <v>0</v>
+      </c>
+      <c r="L552" s="30">
+        <v>5</v>
+      </c>
+      <c r="M552" s="30">
+        <v>0</v>
+      </c>
+      <c r="N552" s="30">
+        <v>0</v>
+      </c>
+      <c r="O552" s="30"/>
+      <c r="P552" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q552" s="30">
+        <v>0</v>
+      </c>
+      <c r="R552" s="30">
+        <v>0</v>
+      </c>
+      <c r="S552" s="30">
+        <v>0</v>
+      </c>
+      <c r="T552" s="30">
+        <v>0</v>
+      </c>
+      <c r="U552" s="30"/>
+      <c r="V552" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>skill20000</v>
+      </c>
+    </row>
+    <row r="553" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A553" s="30">
+        <v>20001</v>
+      </c>
+      <c r="B553" s="30">
+        <v>1</v>
+      </c>
+      <c r="C553" s="30" t="s">
+        <v>466</v>
+      </c>
+      <c r="D553" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="E553" s="31">
+        <v>3004</v>
+      </c>
+      <c r="F553" s="30">
+        <v>0</v>
+      </c>
+      <c r="G553" s="30">
+        <v>0</v>
+      </c>
+      <c r="H553" s="30">
+        <v>0</v>
+      </c>
+      <c r="I553" s="30">
+        <v>0</v>
+      </c>
+      <c r="J553" s="30">
+        <v>0</v>
+      </c>
+      <c r="K553" s="30">
+        <v>0</v>
+      </c>
+      <c r="L553" s="30">
+        <v>5</v>
+      </c>
+      <c r="M553" s="30">
+        <v>0</v>
+      </c>
+      <c r="N553" s="30">
+        <v>0</v>
+      </c>
+      <c r="O553" s="30"/>
+      <c r="P553" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q553" s="30">
+        <v>0</v>
+      </c>
+      <c r="R553" s="30">
+        <v>0</v>
+      </c>
+      <c r="S553" s="30">
+        <v>0</v>
+      </c>
+      <c r="T553" s="30">
+        <v>0</v>
+      </c>
+      <c r="U553" s="30"/>
+      <c r="V553" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>skill20001</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -1979,10 +1979,10 @@
   <dimension ref="A1:W553"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D521" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2087,7 +2087,7 @@
         <v>1000</v>
       </c>
       <c r="F2" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="16">
         <v>100</v>
@@ -2151,7 +2151,7 @@
         <v>1000</v>
       </c>
       <c r="F3" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" s="16">
         <v>105</v>
@@ -2215,7 +2215,7 @@
         <v>1000</v>
       </c>
       <c r="F4" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="16">
         <v>110</v>
@@ -2279,7 +2279,7 @@
         <v>1000</v>
       </c>
       <c r="F5" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="16">
         <v>115</v>
@@ -2343,7 +2343,7 @@
         <v>1000</v>
       </c>
       <c r="F6" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" s="16">
         <v>120</v>
@@ -2407,7 +2407,7 @@
         <v>1000</v>
       </c>
       <c r="F7" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" s="16">
         <v>125</v>
@@ -2471,7 +2471,7 @@
         <v>1000</v>
       </c>
       <c r="F8" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="16">
         <v>130</v>
@@ -2535,7 +2535,7 @@
         <v>1000</v>
       </c>
       <c r="F9" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" s="16">
         <v>135</v>
@@ -2599,7 +2599,7 @@
         <v>1000</v>
       </c>
       <c r="F10" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="16">
         <v>140</v>
@@ -2663,7 +2663,7 @@
         <v>1000</v>
       </c>
       <c r="F11" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" s="16">
         <v>145</v>
@@ -2727,7 +2727,7 @@
         <v>1000</v>
       </c>
       <c r="F12" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="16">
         <v>150</v>
@@ -2791,7 +2791,7 @@
         <v>1000</v>
       </c>
       <c r="F13" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" s="16">
         <v>155</v>
@@ -2855,7 +2855,7 @@
         <v>1000</v>
       </c>
       <c r="F14" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" s="16">
         <v>160</v>
@@ -2919,7 +2919,7 @@
         <v>1000</v>
       </c>
       <c r="F15" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="16">
         <v>165</v>
@@ -2983,7 +2983,7 @@
         <v>1000</v>
       </c>
       <c r="F16" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="16">
         <v>170</v>
@@ -3047,7 +3047,7 @@
         <v>1000</v>
       </c>
       <c r="F17" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="16">
         <v>175</v>
@@ -3111,7 +3111,7 @@
         <v>1000</v>
       </c>
       <c r="F18" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="16">
         <v>180</v>
@@ -3175,7 +3175,7 @@
         <v>1000</v>
       </c>
       <c r="F19" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="16">
         <v>185</v>
@@ -3239,7 +3239,7 @@
         <v>1000</v>
       </c>
       <c r="F20" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="16">
         <v>190</v>
@@ -3303,7 +3303,7 @@
         <v>1000</v>
       </c>
       <c r="F21" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="16">
         <v>195</v>
@@ -3367,7 +3367,7 @@
         <v>1000</v>
       </c>
       <c r="F22" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" s="16">
         <v>200</v>
@@ -3431,7 +3431,7 @@
         <v>1000</v>
       </c>
       <c r="F23" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="16">
         <v>205</v>
@@ -3495,7 +3495,7 @@
         <v>1000</v>
       </c>
       <c r="F24" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="16">
         <v>210</v>
@@ -3559,7 +3559,7 @@
         <v>1000</v>
       </c>
       <c r="F25" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="16">
         <v>215</v>
@@ -3622,8 +3622,8 @@
       <c r="E26" s="19">
         <v>1000</v>
       </c>
-      <c r="F26" s="18">
-        <v>1</v>
+      <c r="F26" s="16">
+        <v>2</v>
       </c>
       <c r="G26" s="18">
         <v>220</v>
@@ -3686,8 +3686,8 @@
       <c r="E27" s="13">
         <v>1001</v>
       </c>
-      <c r="F27" s="12">
-        <v>1</v>
+      <c r="F27" s="16">
+        <v>2</v>
       </c>
       <c r="G27" s="12">
         <v>110</v>
@@ -3750,8 +3750,8 @@
       <c r="E28" s="13">
         <v>1001</v>
       </c>
-      <c r="F28" s="12">
-        <v>1</v>
+      <c r="F28" s="16">
+        <v>2</v>
       </c>
       <c r="G28" s="12">
         <v>115</v>
@@ -3814,8 +3814,8 @@
       <c r="E29" s="13">
         <v>1001</v>
       </c>
-      <c r="F29" s="12">
-        <v>1</v>
+      <c r="F29" s="16">
+        <v>2</v>
       </c>
       <c r="G29" s="12">
         <v>120</v>
@@ -3878,8 +3878,8 @@
       <c r="E30" s="13">
         <v>1001</v>
       </c>
-      <c r="F30" s="12">
-        <v>1</v>
+      <c r="F30" s="16">
+        <v>2</v>
       </c>
       <c r="G30" s="12">
         <v>125</v>
@@ -3942,8 +3942,8 @@
       <c r="E31" s="13">
         <v>1001</v>
       </c>
-      <c r="F31" s="12">
-        <v>1</v>
+      <c r="F31" s="16">
+        <v>2</v>
       </c>
       <c r="G31" s="12">
         <v>130</v>
@@ -4006,8 +4006,8 @@
       <c r="E32" s="13">
         <v>1001</v>
       </c>
-      <c r="F32" s="12">
-        <v>1</v>
+      <c r="F32" s="16">
+        <v>2</v>
       </c>
       <c r="G32" s="12">
         <v>135</v>
@@ -4070,8 +4070,8 @@
       <c r="E33" s="13">
         <v>1001</v>
       </c>
-      <c r="F33" s="12">
-        <v>1</v>
+      <c r="F33" s="16">
+        <v>2</v>
       </c>
       <c r="G33" s="12">
         <v>140</v>
@@ -4134,8 +4134,8 @@
       <c r="E34" s="13">
         <v>1001</v>
       </c>
-      <c r="F34" s="12">
-        <v>1</v>
+      <c r="F34" s="16">
+        <v>2</v>
       </c>
       <c r="G34" s="12">
         <v>145</v>
@@ -4198,8 +4198,8 @@
       <c r="E35" s="13">
         <v>1001</v>
       </c>
-      <c r="F35" s="12">
-        <v>1</v>
+      <c r="F35" s="16">
+        <v>2</v>
       </c>
       <c r="G35" s="12">
         <v>150</v>
@@ -4262,8 +4262,8 @@
       <c r="E36" s="13">
         <v>1001</v>
       </c>
-      <c r="F36" s="12">
-        <v>1</v>
+      <c r="F36" s="16">
+        <v>2</v>
       </c>
       <c r="G36" s="12">
         <v>155</v>
@@ -4326,8 +4326,8 @@
       <c r="E37" s="13">
         <v>1001</v>
       </c>
-      <c r="F37" s="12">
-        <v>1</v>
+      <c r="F37" s="16">
+        <v>2</v>
       </c>
       <c r="G37" s="12">
         <v>160</v>
@@ -4390,8 +4390,8 @@
       <c r="E38" s="13">
         <v>1001</v>
       </c>
-      <c r="F38" s="12">
-        <v>1</v>
+      <c r="F38" s="16">
+        <v>2</v>
       </c>
       <c r="G38" s="12">
         <v>165</v>
@@ -4454,8 +4454,8 @@
       <c r="E39" s="13">
         <v>1001</v>
       </c>
-      <c r="F39" s="12">
-        <v>1</v>
+      <c r="F39" s="16">
+        <v>2</v>
       </c>
       <c r="G39" s="12">
         <v>170</v>
@@ -4518,8 +4518,8 @@
       <c r="E40" s="13">
         <v>1001</v>
       </c>
-      <c r="F40" s="12">
-        <v>1</v>
+      <c r="F40" s="16">
+        <v>2</v>
       </c>
       <c r="G40" s="12">
         <v>175</v>
@@ -4582,8 +4582,8 @@
       <c r="E41" s="13">
         <v>1001</v>
       </c>
-      <c r="F41" s="12">
-        <v>1</v>
+      <c r="F41" s="16">
+        <v>2</v>
       </c>
       <c r="G41" s="12">
         <v>180</v>
@@ -4646,8 +4646,8 @@
       <c r="E42" s="13">
         <v>1001</v>
       </c>
-      <c r="F42" s="12">
-        <v>1</v>
+      <c r="F42" s="16">
+        <v>2</v>
       </c>
       <c r="G42" s="12">
         <v>185</v>
@@ -4710,8 +4710,8 @@
       <c r="E43" s="13">
         <v>1001</v>
       </c>
-      <c r="F43" s="12">
-        <v>1</v>
+      <c r="F43" s="16">
+        <v>2</v>
       </c>
       <c r="G43" s="12">
         <v>190</v>
@@ -4774,8 +4774,8 @@
       <c r="E44" s="13">
         <v>1001</v>
       </c>
-      <c r="F44" s="12">
-        <v>1</v>
+      <c r="F44" s="16">
+        <v>2</v>
       </c>
       <c r="G44" s="12">
         <v>195</v>
@@ -4838,8 +4838,8 @@
       <c r="E45" s="13">
         <v>1001</v>
       </c>
-      <c r="F45" s="12">
-        <v>1</v>
+      <c r="F45" s="16">
+        <v>2</v>
       </c>
       <c r="G45" s="12">
         <v>200</v>
@@ -4902,8 +4902,8 @@
       <c r="E46" s="13">
         <v>1001</v>
       </c>
-      <c r="F46" s="12">
-        <v>1</v>
+      <c r="F46" s="16">
+        <v>2</v>
       </c>
       <c r="G46" s="12">
         <v>205</v>
@@ -4966,8 +4966,8 @@
       <c r="E47" s="13">
         <v>1001</v>
       </c>
-      <c r="F47" s="12">
-        <v>1</v>
+      <c r="F47" s="16">
+        <v>2</v>
       </c>
       <c r="G47" s="12">
         <v>210</v>
@@ -5030,8 +5030,8 @@
       <c r="E48" s="13">
         <v>1001</v>
       </c>
-      <c r="F48" s="12">
-        <v>1</v>
+      <c r="F48" s="16">
+        <v>2</v>
       </c>
       <c r="G48" s="12">
         <v>215</v>
@@ -5094,8 +5094,8 @@
       <c r="E49" s="13">
         <v>1001</v>
       </c>
-      <c r="F49" s="12">
-        <v>1</v>
+      <c r="F49" s="16">
+        <v>2</v>
       </c>
       <c r="G49" s="12">
         <v>220</v>
@@ -5158,8 +5158,8 @@
       <c r="E50" s="13">
         <v>1001</v>
       </c>
-      <c r="F50" s="12">
-        <v>1</v>
+      <c r="F50" s="16">
+        <v>2</v>
       </c>
       <c r="G50" s="12">
         <v>225</v>
@@ -5222,8 +5222,8 @@
       <c r="E51" s="19">
         <v>1001</v>
       </c>
-      <c r="F51" s="18">
-        <v>1</v>
+      <c r="F51" s="16">
+        <v>2</v>
       </c>
       <c r="G51" s="18">
         <v>230</v>
@@ -5286,8 +5286,8 @@
       <c r="E52" s="13">
         <v>1002</v>
       </c>
-      <c r="F52" s="12">
-        <v>1</v>
+      <c r="F52" s="16">
+        <v>2</v>
       </c>
       <c r="G52" s="12">
         <v>120</v>
@@ -5350,8 +5350,8 @@
       <c r="E53" s="13">
         <v>1002</v>
       </c>
-      <c r="F53" s="12">
-        <v>1</v>
+      <c r="F53" s="16">
+        <v>2</v>
       </c>
       <c r="G53" s="12">
         <v>125</v>
@@ -5414,8 +5414,8 @@
       <c r="E54" s="13">
         <v>1002</v>
       </c>
-      <c r="F54" s="12">
-        <v>1</v>
+      <c r="F54" s="16">
+        <v>2</v>
       </c>
       <c r="G54" s="12">
         <v>125</v>
@@ -5478,8 +5478,8 @@
       <c r="E55" s="13">
         <v>1002</v>
       </c>
-      <c r="F55" s="12">
-        <v>1</v>
+      <c r="F55" s="16">
+        <v>2</v>
       </c>
       <c r="G55" s="12">
         <v>125</v>
@@ -5542,8 +5542,8 @@
       <c r="E56" s="13">
         <v>1002</v>
       </c>
-      <c r="F56" s="12">
-        <v>1</v>
+      <c r="F56" s="16">
+        <v>2</v>
       </c>
       <c r="G56" s="12">
         <v>125</v>
@@ -5606,8 +5606,8 @@
       <c r="E57" s="13">
         <v>1002</v>
       </c>
-      <c r="F57" s="12">
-        <v>1</v>
+      <c r="F57" s="16">
+        <v>2</v>
       </c>
       <c r="G57" s="12">
         <v>125</v>
@@ -5670,8 +5670,8 @@
       <c r="E58" s="13">
         <v>1002</v>
       </c>
-      <c r="F58" s="12">
-        <v>1</v>
+      <c r="F58" s="16">
+        <v>2</v>
       </c>
       <c r="G58" s="12">
         <v>125</v>
@@ -5734,8 +5734,8 @@
       <c r="E59" s="13">
         <v>1002</v>
       </c>
-      <c r="F59" s="12">
-        <v>1</v>
+      <c r="F59" s="16">
+        <v>2</v>
       </c>
       <c r="G59" s="12">
         <v>125</v>
@@ -5798,8 +5798,8 @@
       <c r="E60" s="13">
         <v>1002</v>
       </c>
-      <c r="F60" s="12">
-        <v>1</v>
+      <c r="F60" s="16">
+        <v>2</v>
       </c>
       <c r="G60" s="12">
         <v>125</v>
@@ -5862,8 +5862,8 @@
       <c r="E61" s="13">
         <v>1002</v>
       </c>
-      <c r="F61" s="12">
-        <v>1</v>
+      <c r="F61" s="16">
+        <v>2</v>
       </c>
       <c r="G61" s="12">
         <v>125</v>
@@ -5926,8 +5926,8 @@
       <c r="E62" s="13">
         <v>1002</v>
       </c>
-      <c r="F62" s="12">
-        <v>1</v>
+      <c r="F62" s="16">
+        <v>2</v>
       </c>
       <c r="G62" s="12">
         <v>125</v>
@@ -5990,8 +5990,8 @@
       <c r="E63" s="13">
         <v>1002</v>
       </c>
-      <c r="F63" s="12">
-        <v>1</v>
+      <c r="F63" s="16">
+        <v>2</v>
       </c>
       <c r="G63" s="12">
         <v>125</v>
@@ -6054,8 +6054,8 @@
       <c r="E64" s="13">
         <v>1002</v>
       </c>
-      <c r="F64" s="12">
-        <v>1</v>
+      <c r="F64" s="16">
+        <v>2</v>
       </c>
       <c r="G64" s="12">
         <v>125</v>
@@ -6118,8 +6118,8 @@
       <c r="E65" s="13">
         <v>1002</v>
       </c>
-      <c r="F65" s="12">
-        <v>1</v>
+      <c r="F65" s="16">
+        <v>2</v>
       </c>
       <c r="G65" s="12">
         <v>125</v>
@@ -6182,8 +6182,8 @@
       <c r="E66" s="13">
         <v>1002</v>
       </c>
-      <c r="F66" s="12">
-        <v>1</v>
+      <c r="F66" s="16">
+        <v>2</v>
       </c>
       <c r="G66" s="12">
         <v>125</v>
@@ -6246,8 +6246,8 @@
       <c r="E67" s="13">
         <v>1002</v>
       </c>
-      <c r="F67" s="12">
-        <v>1</v>
+      <c r="F67" s="16">
+        <v>2</v>
       </c>
       <c r="G67" s="12">
         <v>125</v>
@@ -6310,8 +6310,8 @@
       <c r="E68" s="13">
         <v>1002</v>
       </c>
-      <c r="F68" s="12">
-        <v>1</v>
+      <c r="F68" s="16">
+        <v>2</v>
       </c>
       <c r="G68" s="12">
         <v>125</v>
@@ -6374,8 +6374,8 @@
       <c r="E69" s="13">
         <v>1002</v>
       </c>
-      <c r="F69" s="12">
-        <v>1</v>
+      <c r="F69" s="16">
+        <v>2</v>
       </c>
       <c r="G69" s="12">
         <v>125</v>
@@ -6438,8 +6438,8 @@
       <c r="E70" s="13">
         <v>1002</v>
       </c>
-      <c r="F70" s="12">
-        <v>1</v>
+      <c r="F70" s="16">
+        <v>2</v>
       </c>
       <c r="G70" s="12">
         <v>125</v>
@@ -6502,8 +6502,8 @@
       <c r="E71" s="13">
         <v>1002</v>
       </c>
-      <c r="F71" s="12">
-        <v>1</v>
+      <c r="F71" s="16">
+        <v>2</v>
       </c>
       <c r="G71" s="12">
         <v>125</v>
@@ -6566,8 +6566,8 @@
       <c r="E72" s="13">
         <v>1002</v>
       </c>
-      <c r="F72" s="12">
-        <v>1</v>
+      <c r="F72" s="16">
+        <v>2</v>
       </c>
       <c r="G72" s="12">
         <v>125</v>
@@ -6630,8 +6630,8 @@
       <c r="E73" s="13">
         <v>1002</v>
       </c>
-      <c r="F73" s="12">
-        <v>1</v>
+      <c r="F73" s="16">
+        <v>2</v>
       </c>
       <c r="G73" s="12">
         <v>125</v>
@@ -6694,8 +6694,8 @@
       <c r="E74" s="13">
         <v>1002</v>
       </c>
-      <c r="F74" s="12">
-        <v>1</v>
+      <c r="F74" s="16">
+        <v>2</v>
       </c>
       <c r="G74" s="12">
         <v>125</v>
@@ -6758,8 +6758,8 @@
       <c r="E75" s="13">
         <v>1002</v>
       </c>
-      <c r="F75" s="12">
-        <v>1</v>
+      <c r="F75" s="16">
+        <v>2</v>
       </c>
       <c r="G75" s="12">
         <v>125</v>
@@ -6822,8 +6822,8 @@
       <c r="E76" s="19">
         <v>1002</v>
       </c>
-      <c r="F76" s="18">
-        <v>1</v>
+      <c r="F76" s="16">
+        <v>2</v>
       </c>
       <c r="G76" s="18">
         <v>125</v>
@@ -6886,8 +6886,8 @@
       <c r="E77" s="13">
         <v>1003</v>
       </c>
-      <c r="F77" s="12">
-        <v>1</v>
+      <c r="F77" s="16">
+        <v>2</v>
       </c>
       <c r="G77" s="12">
         <v>130</v>
@@ -6950,8 +6950,8 @@
       <c r="E78" s="13">
         <v>1003</v>
       </c>
-      <c r="F78" s="12">
-        <v>1</v>
+      <c r="F78" s="16">
+        <v>2</v>
       </c>
       <c r="G78" s="12">
         <v>135</v>
@@ -7014,8 +7014,8 @@
       <c r="E79" s="13">
         <v>1003</v>
       </c>
-      <c r="F79" s="12">
-        <v>1</v>
+      <c r="F79" s="16">
+        <v>2</v>
       </c>
       <c r="G79" s="12">
         <v>140</v>
@@ -7078,8 +7078,8 @@
       <c r="E80" s="13">
         <v>1003</v>
       </c>
-      <c r="F80" s="12">
-        <v>1</v>
+      <c r="F80" s="16">
+        <v>2</v>
       </c>
       <c r="G80" s="12">
         <v>145</v>
@@ -7142,8 +7142,8 @@
       <c r="E81" s="13">
         <v>1003</v>
       </c>
-      <c r="F81" s="12">
-        <v>1</v>
+      <c r="F81" s="16">
+        <v>2</v>
       </c>
       <c r="G81" s="12">
         <v>150</v>
@@ -7206,8 +7206,8 @@
       <c r="E82" s="13">
         <v>1003</v>
       </c>
-      <c r="F82" s="12">
-        <v>1</v>
+      <c r="F82" s="16">
+        <v>2</v>
       </c>
       <c r="G82" s="12">
         <v>155</v>
@@ -7270,8 +7270,8 @@
       <c r="E83" s="13">
         <v>1003</v>
       </c>
-      <c r="F83" s="12">
-        <v>1</v>
+      <c r="F83" s="16">
+        <v>2</v>
       </c>
       <c r="G83" s="12">
         <v>160</v>
@@ -7334,8 +7334,8 @@
       <c r="E84" s="13">
         <v>1003</v>
       </c>
-      <c r="F84" s="12">
-        <v>1</v>
+      <c r="F84" s="16">
+        <v>2</v>
       </c>
       <c r="G84" s="12">
         <v>165</v>
@@ -7398,8 +7398,8 @@
       <c r="E85" s="13">
         <v>1003</v>
       </c>
-      <c r="F85" s="12">
-        <v>1</v>
+      <c r="F85" s="16">
+        <v>2</v>
       </c>
       <c r="G85" s="12">
         <v>170</v>
@@ -7462,8 +7462,8 @@
       <c r="E86" s="13">
         <v>1003</v>
       </c>
-      <c r="F86" s="12">
-        <v>1</v>
+      <c r="F86" s="16">
+        <v>2</v>
       </c>
       <c r="G86" s="12">
         <v>175</v>
@@ -7526,8 +7526,8 @@
       <c r="E87" s="13">
         <v>1003</v>
       </c>
-      <c r="F87" s="12">
-        <v>1</v>
+      <c r="F87" s="16">
+        <v>2</v>
       </c>
       <c r="G87" s="12">
         <v>180</v>
@@ -7590,8 +7590,8 @@
       <c r="E88" s="13">
         <v>1003</v>
       </c>
-      <c r="F88" s="12">
-        <v>1</v>
+      <c r="F88" s="16">
+        <v>2</v>
       </c>
       <c r="G88" s="12">
         <v>185</v>
@@ -7654,8 +7654,8 @@
       <c r="E89" s="13">
         <v>1003</v>
       </c>
-      <c r="F89" s="12">
-        <v>1</v>
+      <c r="F89" s="16">
+        <v>2</v>
       </c>
       <c r="G89" s="12">
         <v>190</v>
@@ -7718,8 +7718,8 @@
       <c r="E90" s="13">
         <v>1003</v>
       </c>
-      <c r="F90" s="12">
-        <v>1</v>
+      <c r="F90" s="16">
+        <v>2</v>
       </c>
       <c r="G90" s="12">
         <v>195</v>
@@ -7782,8 +7782,8 @@
       <c r="E91" s="13">
         <v>1003</v>
       </c>
-      <c r="F91" s="12">
-        <v>1</v>
+      <c r="F91" s="16">
+        <v>2</v>
       </c>
       <c r="G91" s="12">
         <v>200</v>
@@ -7846,8 +7846,8 @@
       <c r="E92" s="13">
         <v>1003</v>
       </c>
-      <c r="F92" s="12">
-        <v>1</v>
+      <c r="F92" s="16">
+        <v>2</v>
       </c>
       <c r="G92" s="12">
         <v>205</v>
@@ -7910,8 +7910,8 @@
       <c r="E93" s="13">
         <v>1003</v>
       </c>
-      <c r="F93" s="12">
-        <v>1</v>
+      <c r="F93" s="16">
+        <v>2</v>
       </c>
       <c r="G93" s="12">
         <v>210</v>
@@ -7974,8 +7974,8 @@
       <c r="E94" s="13">
         <v>1003</v>
       </c>
-      <c r="F94" s="12">
-        <v>1</v>
+      <c r="F94" s="16">
+        <v>2</v>
       </c>
       <c r="G94" s="12">
         <v>215</v>
@@ -8038,8 +8038,8 @@
       <c r="E95" s="13">
         <v>1003</v>
       </c>
-      <c r="F95" s="12">
-        <v>1</v>
+      <c r="F95" s="16">
+        <v>2</v>
       </c>
       <c r="G95" s="12">
         <v>220</v>
@@ -8102,8 +8102,8 @@
       <c r="E96" s="13">
         <v>1003</v>
       </c>
-      <c r="F96" s="12">
-        <v>1</v>
+      <c r="F96" s="16">
+        <v>2</v>
       </c>
       <c r="G96" s="12">
         <v>225</v>
@@ -8166,8 +8166,8 @@
       <c r="E97" s="13">
         <v>1003</v>
       </c>
-      <c r="F97" s="12">
-        <v>1</v>
+      <c r="F97" s="16">
+        <v>2</v>
       </c>
       <c r="G97" s="12">
         <v>230</v>
@@ -8230,8 +8230,8 @@
       <c r="E98" s="13">
         <v>1003</v>
       </c>
-      <c r="F98" s="12">
-        <v>1</v>
+      <c r="F98" s="16">
+        <v>2</v>
       </c>
       <c r="G98" s="12">
         <v>235</v>
@@ -8294,8 +8294,8 @@
       <c r="E99" s="13">
         <v>1003</v>
       </c>
-      <c r="F99" s="12">
-        <v>1</v>
+      <c r="F99" s="16">
+        <v>2</v>
       </c>
       <c r="G99" s="12">
         <v>240</v>
@@ -8358,8 +8358,8 @@
       <c r="E100" s="13">
         <v>1003</v>
       </c>
-      <c r="F100" s="12">
-        <v>1</v>
+      <c r="F100" s="16">
+        <v>2</v>
       </c>
       <c r="G100" s="12">
         <v>245</v>
@@ -8422,8 +8422,8 @@
       <c r="E101" s="19">
         <v>1003</v>
       </c>
-      <c r="F101" s="18">
-        <v>1</v>
+      <c r="F101" s="16">
+        <v>2</v>
       </c>
       <c r="G101" s="18">
         <v>250</v>
@@ -8486,8 +8486,8 @@
       <c r="E102" s="13">
         <v>1004</v>
       </c>
-      <c r="F102" s="12">
-        <v>1</v>
+      <c r="F102" s="16">
+        <v>2</v>
       </c>
       <c r="G102" s="12">
         <v>140</v>
@@ -8550,8 +8550,8 @@
       <c r="E103" s="13">
         <v>1004</v>
       </c>
-      <c r="F103" s="12">
-        <v>1</v>
+      <c r="F103" s="16">
+        <v>2</v>
       </c>
       <c r="G103" s="12">
         <v>145</v>
@@ -8614,8 +8614,8 @@
       <c r="E104" s="13">
         <v>1004</v>
       </c>
-      <c r="F104" s="12">
-        <v>1</v>
+      <c r="F104" s="16">
+        <v>2</v>
       </c>
       <c r="G104" s="12">
         <v>145</v>
@@ -8678,8 +8678,8 @@
       <c r="E105" s="13">
         <v>1004</v>
       </c>
-      <c r="F105" s="12">
-        <v>1</v>
+      <c r="F105" s="16">
+        <v>2</v>
       </c>
       <c r="G105" s="12">
         <v>145</v>
@@ -8742,8 +8742,8 @@
       <c r="E106" s="13">
         <v>1004</v>
       </c>
-      <c r="F106" s="12">
-        <v>1</v>
+      <c r="F106" s="16">
+        <v>2</v>
       </c>
       <c r="G106" s="12">
         <v>145</v>
@@ -8806,8 +8806,8 @@
       <c r="E107" s="13">
         <v>1004</v>
       </c>
-      <c r="F107" s="12">
-        <v>1</v>
+      <c r="F107" s="16">
+        <v>2</v>
       </c>
       <c r="G107" s="12">
         <v>145</v>
@@ -8870,8 +8870,8 @@
       <c r="E108" s="13">
         <v>1004</v>
       </c>
-      <c r="F108" s="12">
-        <v>1</v>
+      <c r="F108" s="16">
+        <v>2</v>
       </c>
       <c r="G108" s="12">
         <v>145</v>
@@ -8934,8 +8934,8 @@
       <c r="E109" s="13">
         <v>1004</v>
       </c>
-      <c r="F109" s="12">
-        <v>1</v>
+      <c r="F109" s="16">
+        <v>2</v>
       </c>
       <c r="G109" s="12">
         <v>145</v>
@@ -8998,8 +8998,8 @@
       <c r="E110" s="13">
         <v>1004</v>
       </c>
-      <c r="F110" s="12">
-        <v>1</v>
+      <c r="F110" s="16">
+        <v>2</v>
       </c>
       <c r="G110" s="12">
         <v>145</v>
@@ -9062,8 +9062,8 @@
       <c r="E111" s="13">
         <v>1004</v>
       </c>
-      <c r="F111" s="12">
-        <v>1</v>
+      <c r="F111" s="16">
+        <v>2</v>
       </c>
       <c r="G111" s="12">
         <v>145</v>
@@ -9126,8 +9126,8 @@
       <c r="E112" s="13">
         <v>1004</v>
       </c>
-      <c r="F112" s="12">
-        <v>1</v>
+      <c r="F112" s="16">
+        <v>2</v>
       </c>
       <c r="G112" s="12">
         <v>145</v>
@@ -9190,8 +9190,8 @@
       <c r="E113" s="13">
         <v>1004</v>
       </c>
-      <c r="F113" s="12">
-        <v>1</v>
+      <c r="F113" s="16">
+        <v>2</v>
       </c>
       <c r="G113" s="12">
         <v>145</v>
@@ -9254,8 +9254,8 @@
       <c r="E114" s="13">
         <v>1004</v>
       </c>
-      <c r="F114" s="12">
-        <v>1</v>
+      <c r="F114" s="16">
+        <v>2</v>
       </c>
       <c r="G114" s="12">
         <v>145</v>
@@ -9318,8 +9318,8 @@
       <c r="E115" s="13">
         <v>1004</v>
       </c>
-      <c r="F115" s="12">
-        <v>1</v>
+      <c r="F115" s="16">
+        <v>2</v>
       </c>
       <c r="G115" s="12">
         <v>145</v>
@@ -9382,8 +9382,8 @@
       <c r="E116" s="13">
         <v>1004</v>
       </c>
-      <c r="F116" s="12">
-        <v>1</v>
+      <c r="F116" s="16">
+        <v>2</v>
       </c>
       <c r="G116" s="12">
         <v>145</v>
@@ -9446,8 +9446,8 @@
       <c r="E117" s="13">
         <v>1004</v>
       </c>
-      <c r="F117" s="12">
-        <v>1</v>
+      <c r="F117" s="16">
+        <v>2</v>
       </c>
       <c r="G117" s="12">
         <v>145</v>
@@ -9510,8 +9510,8 @@
       <c r="E118" s="13">
         <v>1004</v>
       </c>
-      <c r="F118" s="12">
-        <v>1</v>
+      <c r="F118" s="16">
+        <v>2</v>
       </c>
       <c r="G118" s="12">
         <v>145</v>
@@ -9574,8 +9574,8 @@
       <c r="E119" s="13">
         <v>1004</v>
       </c>
-      <c r="F119" s="12">
-        <v>1</v>
+      <c r="F119" s="16">
+        <v>2</v>
       </c>
       <c r="G119" s="12">
         <v>145</v>
@@ -9638,8 +9638,8 @@
       <c r="E120" s="13">
         <v>1004</v>
       </c>
-      <c r="F120" s="12">
-        <v>1</v>
+      <c r="F120" s="16">
+        <v>2</v>
       </c>
       <c r="G120" s="12">
         <v>145</v>
@@ -9702,8 +9702,8 @@
       <c r="E121" s="13">
         <v>1004</v>
       </c>
-      <c r="F121" s="12">
-        <v>1</v>
+      <c r="F121" s="16">
+        <v>2</v>
       </c>
       <c r="G121" s="12">
         <v>145</v>
@@ -9766,8 +9766,8 @@
       <c r="E122" s="13">
         <v>1004</v>
       </c>
-      <c r="F122" s="12">
-        <v>1</v>
+      <c r="F122" s="16">
+        <v>2</v>
       </c>
       <c r="G122" s="12">
         <v>145</v>
@@ -9830,8 +9830,8 @@
       <c r="E123" s="13">
         <v>1004</v>
       </c>
-      <c r="F123" s="12">
-        <v>1</v>
+      <c r="F123" s="16">
+        <v>2</v>
       </c>
       <c r="G123" s="12">
         <v>145</v>
@@ -9894,8 +9894,8 @@
       <c r="E124" s="13">
         <v>1004</v>
       </c>
-      <c r="F124" s="12">
-        <v>1</v>
+      <c r="F124" s="16">
+        <v>2</v>
       </c>
       <c r="G124" s="12">
         <v>145</v>
@@ -9958,8 +9958,8 @@
       <c r="E125" s="13">
         <v>1004</v>
       </c>
-      <c r="F125" s="12">
-        <v>1</v>
+      <c r="F125" s="16">
+        <v>2</v>
       </c>
       <c r="G125" s="12">
         <v>145</v>
@@ -10022,8 +10022,8 @@
       <c r="E126" s="19">
         <v>1004</v>
       </c>
-      <c r="F126" s="18">
-        <v>1</v>
+      <c r="F126" s="16">
+        <v>2</v>
       </c>
       <c r="G126" s="18">
         <v>145</v>
@@ -10086,8 +10086,8 @@
       <c r="E127" s="13">
         <v>1004</v>
       </c>
-      <c r="F127" s="12">
-        <v>1</v>
+      <c r="F127" s="16">
+        <v>2</v>
       </c>
       <c r="G127" s="12">
         <v>145</v>
@@ -10150,8 +10150,8 @@
       <c r="E128" s="13">
         <v>1004</v>
       </c>
-      <c r="F128" s="12">
-        <v>1</v>
+      <c r="F128" s="16">
+        <v>2</v>
       </c>
       <c r="G128" s="12">
         <v>145</v>
@@ -10214,8 +10214,8 @@
       <c r="E129" s="13">
         <v>1004</v>
       </c>
-      <c r="F129" s="12">
-        <v>1</v>
+      <c r="F129" s="16">
+        <v>2</v>
       </c>
       <c r="G129" s="12">
         <v>145</v>
@@ -10278,8 +10278,8 @@
       <c r="E130" s="13">
         <v>1004</v>
       </c>
-      <c r="F130" s="12">
-        <v>1</v>
+      <c r="F130" s="16">
+        <v>2</v>
       </c>
       <c r="G130" s="12">
         <v>145</v>
@@ -10342,8 +10342,8 @@
       <c r="E131" s="13">
         <v>1004</v>
       </c>
-      <c r="F131" s="12">
-        <v>1</v>
+      <c r="F131" s="16">
+        <v>2</v>
       </c>
       <c r="G131" s="12">
         <v>145</v>
@@ -10406,8 +10406,8 @@
       <c r="E132" s="13">
         <v>1004</v>
       </c>
-      <c r="F132" s="12">
-        <v>1</v>
+      <c r="F132" s="16">
+        <v>2</v>
       </c>
       <c r="G132" s="12">
         <v>145</v>
@@ -10470,8 +10470,8 @@
       <c r="E133" s="13">
         <v>1004</v>
       </c>
-      <c r="F133" s="12">
-        <v>1</v>
+      <c r="F133" s="16">
+        <v>2</v>
       </c>
       <c r="G133" s="12">
         <v>145</v>
@@ -10534,8 +10534,8 @@
       <c r="E134" s="13">
         <v>1004</v>
       </c>
-      <c r="F134" s="12">
-        <v>1</v>
+      <c r="F134" s="16">
+        <v>2</v>
       </c>
       <c r="G134" s="12">
         <v>145</v>
@@ -10598,8 +10598,8 @@
       <c r="E135" s="13">
         <v>1004</v>
       </c>
-      <c r="F135" s="12">
-        <v>1</v>
+      <c r="F135" s="16">
+        <v>2</v>
       </c>
       <c r="G135" s="12">
         <v>145</v>
@@ -10662,8 +10662,8 @@
       <c r="E136" s="13">
         <v>1004</v>
       </c>
-      <c r="F136" s="12">
-        <v>1</v>
+      <c r="F136" s="16">
+        <v>2</v>
       </c>
       <c r="G136" s="12">
         <v>145</v>
@@ -10726,8 +10726,8 @@
       <c r="E137" s="13">
         <v>1004</v>
       </c>
-      <c r="F137" s="12">
-        <v>1</v>
+      <c r="F137" s="16">
+        <v>2</v>
       </c>
       <c r="G137" s="12">
         <v>145</v>
@@ -10790,8 +10790,8 @@
       <c r="E138" s="13">
         <v>1004</v>
       </c>
-      <c r="F138" s="12">
-        <v>1</v>
+      <c r="F138" s="16">
+        <v>2</v>
       </c>
       <c r="G138" s="12">
         <v>145</v>
@@ -10854,8 +10854,8 @@
       <c r="E139" s="13">
         <v>1004</v>
       </c>
-      <c r="F139" s="12">
-        <v>1</v>
+      <c r="F139" s="16">
+        <v>2</v>
       </c>
       <c r="G139" s="12">
         <v>145</v>
@@ -10918,8 +10918,8 @@
       <c r="E140" s="13">
         <v>1004</v>
       </c>
-      <c r="F140" s="12">
-        <v>1</v>
+      <c r="F140" s="16">
+        <v>2</v>
       </c>
       <c r="G140" s="12">
         <v>145</v>
@@ -10982,8 +10982,8 @@
       <c r="E141" s="13">
         <v>1004</v>
       </c>
-      <c r="F141" s="12">
-        <v>1</v>
+      <c r="F141" s="16">
+        <v>2</v>
       </c>
       <c r="G141" s="12">
         <v>145</v>
@@ -11046,8 +11046,8 @@
       <c r="E142" s="13">
         <v>1004</v>
       </c>
-      <c r="F142" s="12">
-        <v>1</v>
+      <c r="F142" s="16">
+        <v>2</v>
       </c>
       <c r="G142" s="12">
         <v>145</v>
@@ -11110,8 +11110,8 @@
       <c r="E143" s="13">
         <v>1004</v>
       </c>
-      <c r="F143" s="12">
-        <v>1</v>
+      <c r="F143" s="16">
+        <v>2</v>
       </c>
       <c r="G143" s="12">
         <v>145</v>
@@ -11174,8 +11174,8 @@
       <c r="E144" s="13">
         <v>1004</v>
       </c>
-      <c r="F144" s="12">
-        <v>1</v>
+      <c r="F144" s="16">
+        <v>2</v>
       </c>
       <c r="G144" s="12">
         <v>145</v>
@@ -11238,8 +11238,8 @@
       <c r="E145" s="13">
         <v>1004</v>
       </c>
-      <c r="F145" s="12">
-        <v>1</v>
+      <c r="F145" s="16">
+        <v>2</v>
       </c>
       <c r="G145" s="12">
         <v>145</v>
@@ -11302,8 +11302,8 @@
       <c r="E146" s="13">
         <v>1004</v>
       </c>
-      <c r="F146" s="12">
-        <v>1</v>
+      <c r="F146" s="16">
+        <v>2</v>
       </c>
       <c r="G146" s="12">
         <v>145</v>
@@ -11366,8 +11366,8 @@
       <c r="E147" s="13">
         <v>1004</v>
       </c>
-      <c r="F147" s="12">
-        <v>1</v>
+      <c r="F147" s="16">
+        <v>2</v>
       </c>
       <c r="G147" s="12">
         <v>145</v>
@@ -11430,8 +11430,8 @@
       <c r="E148" s="13">
         <v>1004</v>
       </c>
-      <c r="F148" s="12">
-        <v>1</v>
+      <c r="F148" s="16">
+        <v>2</v>
       </c>
       <c r="G148" s="12">
         <v>145</v>
@@ -11494,8 +11494,8 @@
       <c r="E149" s="13">
         <v>1004</v>
       </c>
-      <c r="F149" s="12">
-        <v>1</v>
+      <c r="F149" s="16">
+        <v>2</v>
       </c>
       <c r="G149" s="12">
         <v>145</v>
@@ -11558,8 +11558,8 @@
       <c r="E150" s="13">
         <v>1004</v>
       </c>
-      <c r="F150" s="12">
-        <v>1</v>
+      <c r="F150" s="16">
+        <v>2</v>
       </c>
       <c r="G150" s="12">
         <v>145</v>
@@ -11622,8 +11622,8 @@
       <c r="E151" s="13">
         <v>1004</v>
       </c>
-      <c r="F151" s="12">
-        <v>1</v>
+      <c r="F151" s="16">
+        <v>2</v>
       </c>
       <c r="G151" s="12">
         <v>145</v>
@@ -11686,8 +11686,8 @@
       <c r="E152" s="11">
         <v>2000</v>
       </c>
-      <c r="F152" s="10">
-        <v>1</v>
+      <c r="F152" s="16">
+        <v>2</v>
       </c>
       <c r="G152" s="10">
         <v>0</v>
@@ -11750,8 +11750,8 @@
       <c r="E153" s="11">
         <v>2000</v>
       </c>
-      <c r="F153" s="10">
-        <v>1</v>
+      <c r="F153" s="16">
+        <v>2</v>
       </c>
       <c r="G153" s="10">
         <v>0</v>
@@ -11814,8 +11814,8 @@
       <c r="E154" s="11">
         <v>2000</v>
       </c>
-      <c r="F154" s="10">
-        <v>1</v>
+      <c r="F154" s="16">
+        <v>2</v>
       </c>
       <c r="G154" s="10">
         <v>0</v>
@@ -11878,8 +11878,8 @@
       <c r="E155" s="11">
         <v>2000</v>
       </c>
-      <c r="F155" s="10">
-        <v>1</v>
+      <c r="F155" s="16">
+        <v>2</v>
       </c>
       <c r="G155" s="10">
         <v>0</v>
@@ -11942,8 +11942,8 @@
       <c r="E156" s="11">
         <v>2000</v>
       </c>
-      <c r="F156" s="10">
-        <v>1</v>
+      <c r="F156" s="16">
+        <v>2</v>
       </c>
       <c r="G156" s="10">
         <v>0</v>
@@ -12006,8 +12006,8 @@
       <c r="E157" s="11">
         <v>2000</v>
       </c>
-      <c r="F157" s="10">
-        <v>1</v>
+      <c r="F157" s="16">
+        <v>2</v>
       </c>
       <c r="G157" s="10">
         <v>0</v>
@@ -12070,8 +12070,8 @@
       <c r="E158" s="11">
         <v>2000</v>
       </c>
-      <c r="F158" s="10">
-        <v>1</v>
+      <c r="F158" s="16">
+        <v>2</v>
       </c>
       <c r="G158" s="10">
         <v>0</v>
@@ -12134,8 +12134,8 @@
       <c r="E159" s="11">
         <v>2000</v>
       </c>
-      <c r="F159" s="10">
-        <v>1</v>
+      <c r="F159" s="16">
+        <v>2</v>
       </c>
       <c r="G159" s="10">
         <v>0</v>
@@ -12198,8 +12198,8 @@
       <c r="E160" s="11">
         <v>2000</v>
       </c>
-      <c r="F160" s="10">
-        <v>1</v>
+      <c r="F160" s="16">
+        <v>2</v>
       </c>
       <c r="G160" s="10">
         <v>0</v>
@@ -12262,8 +12262,8 @@
       <c r="E161" s="11">
         <v>2000</v>
       </c>
-      <c r="F161" s="10">
-        <v>1</v>
+      <c r="F161" s="16">
+        <v>2</v>
       </c>
       <c r="G161" s="10">
         <v>0</v>
@@ -12326,8 +12326,8 @@
       <c r="E162" s="11">
         <v>2000</v>
       </c>
-      <c r="F162" s="10">
-        <v>1</v>
+      <c r="F162" s="16">
+        <v>2</v>
       </c>
       <c r="G162" s="10">
         <v>0</v>
@@ -12390,8 +12390,8 @@
       <c r="E163" s="11">
         <v>2000</v>
       </c>
-      <c r="F163" s="10">
-        <v>1</v>
+      <c r="F163" s="16">
+        <v>2</v>
       </c>
       <c r="G163" s="10">
         <v>0</v>
@@ -12454,8 +12454,8 @@
       <c r="E164" s="11">
         <v>2000</v>
       </c>
-      <c r="F164" s="10">
-        <v>1</v>
+      <c r="F164" s="16">
+        <v>2</v>
       </c>
       <c r="G164" s="10">
         <v>0</v>
@@ -12518,8 +12518,8 @@
       <c r="E165" s="11">
         <v>2000</v>
       </c>
-      <c r="F165" s="10">
-        <v>1</v>
+      <c r="F165" s="16">
+        <v>2</v>
       </c>
       <c r="G165" s="10">
         <v>0</v>
@@ -12582,8 +12582,8 @@
       <c r="E166" s="11">
         <v>2000</v>
       </c>
-      <c r="F166" s="10">
-        <v>1</v>
+      <c r="F166" s="16">
+        <v>2</v>
       </c>
       <c r="G166" s="10">
         <v>0</v>
@@ -12646,8 +12646,8 @@
       <c r="E167" s="11">
         <v>2000</v>
       </c>
-      <c r="F167" s="10">
-        <v>1</v>
+      <c r="F167" s="16">
+        <v>2</v>
       </c>
       <c r="G167" s="10">
         <v>0</v>
@@ -12710,8 +12710,8 @@
       <c r="E168" s="11">
         <v>2000</v>
       </c>
-      <c r="F168" s="10">
-        <v>1</v>
+      <c r="F168" s="16">
+        <v>2</v>
       </c>
       <c r="G168" s="10">
         <v>0</v>
@@ -12774,8 +12774,8 @@
       <c r="E169" s="11">
         <v>2000</v>
       </c>
-      <c r="F169" s="10">
-        <v>1</v>
+      <c r="F169" s="16">
+        <v>2</v>
       </c>
       <c r="G169" s="10">
         <v>0</v>
@@ -12838,8 +12838,8 @@
       <c r="E170" s="11">
         <v>2000</v>
       </c>
-      <c r="F170" s="10">
-        <v>1</v>
+      <c r="F170" s="16">
+        <v>2</v>
       </c>
       <c r="G170" s="10">
         <v>0</v>
@@ -12902,8 +12902,8 @@
       <c r="E171" s="11">
         <v>2000</v>
       </c>
-      <c r="F171" s="10">
-        <v>1</v>
+      <c r="F171" s="16">
+        <v>2</v>
       </c>
       <c r="G171" s="10">
         <v>0</v>
@@ -12966,8 +12966,8 @@
       <c r="E172" s="11">
         <v>2000</v>
       </c>
-      <c r="F172" s="10">
-        <v>1</v>
+      <c r="F172" s="16">
+        <v>2</v>
       </c>
       <c r="G172" s="10">
         <v>0</v>
@@ -13030,8 +13030,8 @@
       <c r="E173" s="11">
         <v>2000</v>
       </c>
-      <c r="F173" s="10">
-        <v>1</v>
+      <c r="F173" s="16">
+        <v>2</v>
       </c>
       <c r="G173" s="10">
         <v>0</v>
@@ -13094,8 +13094,8 @@
       <c r="E174" s="11">
         <v>2000</v>
       </c>
-      <c r="F174" s="10">
-        <v>1</v>
+      <c r="F174" s="16">
+        <v>2</v>
       </c>
       <c r="G174" s="10">
         <v>0</v>
@@ -13158,8 +13158,8 @@
       <c r="E175" s="11">
         <v>2000</v>
       </c>
-      <c r="F175" s="10">
-        <v>1</v>
+      <c r="F175" s="16">
+        <v>2</v>
       </c>
       <c r="G175" s="10">
         <v>0</v>
@@ -13222,8 +13222,8 @@
       <c r="E176" s="21">
         <v>2000</v>
       </c>
-      <c r="F176" s="20">
-        <v>1</v>
+      <c r="F176" s="16">
+        <v>2</v>
       </c>
       <c r="G176" s="20">
         <v>0</v>
@@ -13287,8 +13287,8 @@
       <c r="E177" s="11">
         <v>2001</v>
       </c>
-      <c r="F177" s="10">
-        <v>1</v>
+      <c r="F177" s="16">
+        <v>2</v>
       </c>
       <c r="G177" s="10">
         <v>0</v>
@@ -13351,8 +13351,8 @@
       <c r="E178" s="11">
         <v>2001</v>
       </c>
-      <c r="F178" s="10">
-        <v>1</v>
+      <c r="F178" s="16">
+        <v>2</v>
       </c>
       <c r="G178" s="10">
         <v>0</v>
@@ -13415,8 +13415,8 @@
       <c r="E179" s="11">
         <v>2001</v>
       </c>
-      <c r="F179" s="10">
-        <v>1</v>
+      <c r="F179" s="16">
+        <v>2</v>
       </c>
       <c r="G179" s="10">
         <v>0</v>
@@ -13479,8 +13479,8 @@
       <c r="E180" s="11">
         <v>2001</v>
       </c>
-      <c r="F180" s="10">
-        <v>1</v>
+      <c r="F180" s="16">
+        <v>2</v>
       </c>
       <c r="G180" s="10">
         <v>0</v>
@@ -13543,8 +13543,8 @@
       <c r="E181" s="11">
         <v>2001</v>
       </c>
-      <c r="F181" s="10">
-        <v>1</v>
+      <c r="F181" s="16">
+        <v>2</v>
       </c>
       <c r="G181" s="10">
         <v>0</v>
@@ -13607,8 +13607,8 @@
       <c r="E182" s="11">
         <v>2001</v>
       </c>
-      <c r="F182" s="10">
-        <v>1</v>
+      <c r="F182" s="16">
+        <v>2</v>
       </c>
       <c r="G182" s="10">
         <v>0</v>
@@ -13671,8 +13671,8 @@
       <c r="E183" s="11">
         <v>2001</v>
       </c>
-      <c r="F183" s="10">
-        <v>1</v>
+      <c r="F183" s="16">
+        <v>2</v>
       </c>
       <c r="G183" s="10">
         <v>0</v>
@@ -13735,8 +13735,8 @@
       <c r="E184" s="11">
         <v>2001</v>
       </c>
-      <c r="F184" s="10">
-        <v>1</v>
+      <c r="F184" s="16">
+        <v>2</v>
       </c>
       <c r="G184" s="10">
         <v>0</v>
@@ -13799,8 +13799,8 @@
       <c r="E185" s="11">
         <v>2001</v>
       </c>
-      <c r="F185" s="10">
-        <v>1</v>
+      <c r="F185" s="16">
+        <v>2</v>
       </c>
       <c r="G185" s="10">
         <v>0</v>
@@ -13863,8 +13863,8 @@
       <c r="E186" s="11">
         <v>2001</v>
       </c>
-      <c r="F186" s="10">
-        <v>1</v>
+      <c r="F186" s="16">
+        <v>2</v>
       </c>
       <c r="G186" s="10">
         <v>0</v>
@@ -13927,8 +13927,8 @@
       <c r="E187" s="11">
         <v>2001</v>
       </c>
-      <c r="F187" s="10">
-        <v>1</v>
+      <c r="F187" s="16">
+        <v>2</v>
       </c>
       <c r="G187" s="10">
         <v>0</v>
@@ -13991,8 +13991,8 @@
       <c r="E188" s="11">
         <v>2001</v>
       </c>
-      <c r="F188" s="10">
-        <v>1</v>
+      <c r="F188" s="16">
+        <v>2</v>
       </c>
       <c r="G188" s="10">
         <v>0</v>
@@ -14055,8 +14055,8 @@
       <c r="E189" s="11">
         <v>2001</v>
       </c>
-      <c r="F189" s="10">
-        <v>1</v>
+      <c r="F189" s="16">
+        <v>2</v>
       </c>
       <c r="G189" s="10">
         <v>0</v>
@@ -14119,8 +14119,8 @@
       <c r="E190" s="11">
         <v>2001</v>
       </c>
-      <c r="F190" s="10">
-        <v>1</v>
+      <c r="F190" s="16">
+        <v>2</v>
       </c>
       <c r="G190" s="10">
         <v>0</v>
@@ -14183,8 +14183,8 @@
       <c r="E191" s="11">
         <v>2001</v>
       </c>
-      <c r="F191" s="10">
-        <v>1</v>
+      <c r="F191" s="16">
+        <v>2</v>
       </c>
       <c r="G191" s="10">
         <v>0</v>
@@ -14247,8 +14247,8 @@
       <c r="E192" s="11">
         <v>2001</v>
       </c>
-      <c r="F192" s="10">
-        <v>1</v>
+      <c r="F192" s="16">
+        <v>2</v>
       </c>
       <c r="G192" s="10">
         <v>0</v>
@@ -14311,8 +14311,8 @@
       <c r="E193" s="11">
         <v>2001</v>
       </c>
-      <c r="F193" s="10">
-        <v>1</v>
+      <c r="F193" s="16">
+        <v>2</v>
       </c>
       <c r="G193" s="10">
         <v>0</v>
@@ -14375,8 +14375,8 @@
       <c r="E194" s="11">
         <v>2001</v>
       </c>
-      <c r="F194" s="10">
-        <v>1</v>
+      <c r="F194" s="16">
+        <v>2</v>
       </c>
       <c r="G194" s="10">
         <v>0</v>
@@ -14439,8 +14439,8 @@
       <c r="E195" s="11">
         <v>2001</v>
       </c>
-      <c r="F195" s="10">
-        <v>1</v>
+      <c r="F195" s="16">
+        <v>2</v>
       </c>
       <c r="G195" s="10">
         <v>0</v>
@@ -14503,8 +14503,8 @@
       <c r="E196" s="11">
         <v>2001</v>
       </c>
-      <c r="F196" s="10">
-        <v>1</v>
+      <c r="F196" s="16">
+        <v>2</v>
       </c>
       <c r="G196" s="10">
         <v>0</v>
@@ -14567,8 +14567,8 @@
       <c r="E197" s="11">
         <v>2001</v>
       </c>
-      <c r="F197" s="10">
-        <v>1</v>
+      <c r="F197" s="16">
+        <v>2</v>
       </c>
       <c r="G197" s="10">
         <v>0</v>
@@ -14631,8 +14631,8 @@
       <c r="E198" s="11">
         <v>2001</v>
       </c>
-      <c r="F198" s="10">
-        <v>1</v>
+      <c r="F198" s="16">
+        <v>2</v>
       </c>
       <c r="G198" s="10">
         <v>0</v>
@@ -14695,8 +14695,8 @@
       <c r="E199" s="11">
         <v>2001</v>
       </c>
-      <c r="F199" s="10">
-        <v>1</v>
+      <c r="F199" s="16">
+        <v>2</v>
       </c>
       <c r="G199" s="10">
         <v>0</v>
@@ -14759,8 +14759,8 @@
       <c r="E200" s="11">
         <v>2001</v>
       </c>
-      <c r="F200" s="10">
-        <v>1</v>
+      <c r="F200" s="16">
+        <v>2</v>
       </c>
       <c r="G200" s="10">
         <v>0</v>
@@ -14823,8 +14823,8 @@
       <c r="E201" s="21">
         <v>2001</v>
       </c>
-      <c r="F201" s="20">
-        <v>1</v>
+      <c r="F201" s="16">
+        <v>2</v>
       </c>
       <c r="G201" s="20">
         <v>0</v>
@@ -14888,8 +14888,8 @@
       <c r="E202" s="11">
         <v>2002</v>
       </c>
-      <c r="F202" s="10">
-        <v>1</v>
+      <c r="F202" s="16">
+        <v>2</v>
       </c>
       <c r="G202" s="10">
         <v>0</v>
@@ -14952,8 +14952,8 @@
       <c r="E203" s="11">
         <v>2002</v>
       </c>
-      <c r="F203" s="10">
-        <v>1</v>
+      <c r="F203" s="16">
+        <v>2</v>
       </c>
       <c r="G203" s="10">
         <v>0</v>
@@ -15016,8 +15016,8 @@
       <c r="E204" s="11">
         <v>2002</v>
       </c>
-      <c r="F204" s="10">
-        <v>1</v>
+      <c r="F204" s="16">
+        <v>2</v>
       </c>
       <c r="G204" s="10">
         <v>0</v>
@@ -15080,8 +15080,8 @@
       <c r="E205" s="11">
         <v>2002</v>
       </c>
-      <c r="F205" s="10">
-        <v>1</v>
+      <c r="F205" s="16">
+        <v>2</v>
       </c>
       <c r="G205" s="10">
         <v>0</v>
@@ -15144,8 +15144,8 @@
       <c r="E206" s="11">
         <v>2002</v>
       </c>
-      <c r="F206" s="10">
-        <v>1</v>
+      <c r="F206" s="16">
+        <v>2</v>
       </c>
       <c r="G206" s="10">
         <v>0</v>
@@ -15208,8 +15208,8 @@
       <c r="E207" s="11">
         <v>2002</v>
       </c>
-      <c r="F207" s="10">
-        <v>1</v>
+      <c r="F207" s="16">
+        <v>2</v>
       </c>
       <c r="G207" s="10">
         <v>0</v>
@@ -15272,8 +15272,8 @@
       <c r="E208" s="11">
         <v>2002</v>
       </c>
-      <c r="F208" s="10">
-        <v>1</v>
+      <c r="F208" s="16">
+        <v>2</v>
       </c>
       <c r="G208" s="10">
         <v>0</v>
@@ -15336,8 +15336,8 @@
       <c r="E209" s="11">
         <v>2002</v>
       </c>
-      <c r="F209" s="10">
-        <v>1</v>
+      <c r="F209" s="16">
+        <v>2</v>
       </c>
       <c r="G209" s="10">
         <v>0</v>
@@ -15400,8 +15400,8 @@
       <c r="E210" s="11">
         <v>2002</v>
       </c>
-      <c r="F210" s="10">
-        <v>1</v>
+      <c r="F210" s="16">
+        <v>2</v>
       </c>
       <c r="G210" s="10">
         <v>0</v>
@@ -15464,8 +15464,8 @@
       <c r="E211" s="11">
         <v>2002</v>
       </c>
-      <c r="F211" s="10">
-        <v>1</v>
+      <c r="F211" s="16">
+        <v>2</v>
       </c>
       <c r="G211" s="10">
         <v>0</v>
@@ -15528,8 +15528,8 @@
       <c r="E212" s="11">
         <v>2002</v>
       </c>
-      <c r="F212" s="10">
-        <v>1</v>
+      <c r="F212" s="16">
+        <v>2</v>
       </c>
       <c r="G212" s="10">
         <v>0</v>
@@ -15592,8 +15592,8 @@
       <c r="E213" s="11">
         <v>2002</v>
       </c>
-      <c r="F213" s="10">
-        <v>1</v>
+      <c r="F213" s="16">
+        <v>2</v>
       </c>
       <c r="G213" s="10">
         <v>0</v>
@@ -15656,8 +15656,8 @@
       <c r="E214" s="11">
         <v>2002</v>
       </c>
-      <c r="F214" s="10">
-        <v>1</v>
+      <c r="F214" s="16">
+        <v>2</v>
       </c>
       <c r="G214" s="10">
         <v>0</v>
@@ -15720,8 +15720,8 @@
       <c r="E215" s="11">
         <v>2002</v>
       </c>
-      <c r="F215" s="10">
-        <v>1</v>
+      <c r="F215" s="16">
+        <v>2</v>
       </c>
       <c r="G215" s="10">
         <v>0</v>
@@ -15784,8 +15784,8 @@
       <c r="E216" s="11">
         <v>2002</v>
       </c>
-      <c r="F216" s="10">
-        <v>1</v>
+      <c r="F216" s="16">
+        <v>2</v>
       </c>
       <c r="G216" s="10">
         <v>0</v>
@@ -15848,8 +15848,8 @@
       <c r="E217" s="11">
         <v>2002</v>
       </c>
-      <c r="F217" s="10">
-        <v>1</v>
+      <c r="F217" s="16">
+        <v>2</v>
       </c>
       <c r="G217" s="10">
         <v>0</v>
@@ -15912,8 +15912,8 @@
       <c r="E218" s="11">
         <v>2002</v>
       </c>
-      <c r="F218" s="10">
-        <v>1</v>
+      <c r="F218" s="16">
+        <v>2</v>
       </c>
       <c r="G218" s="10">
         <v>0</v>
@@ -15976,8 +15976,8 @@
       <c r="E219" s="11">
         <v>2002</v>
       </c>
-      <c r="F219" s="10">
-        <v>1</v>
+      <c r="F219" s="16">
+        <v>2</v>
       </c>
       <c r="G219" s="10">
         <v>0</v>
@@ -16040,8 +16040,8 @@
       <c r="E220" s="11">
         <v>2002</v>
       </c>
-      <c r="F220" s="10">
-        <v>1</v>
+      <c r="F220" s="16">
+        <v>2</v>
       </c>
       <c r="G220" s="10">
         <v>0</v>
@@ -16104,8 +16104,8 @@
       <c r="E221" s="11">
         <v>2002</v>
       </c>
-      <c r="F221" s="10">
-        <v>1</v>
+      <c r="F221" s="16">
+        <v>2</v>
       </c>
       <c r="G221" s="10">
         <v>0</v>
@@ -16168,8 +16168,8 @@
       <c r="E222" s="11">
         <v>2002</v>
       </c>
-      <c r="F222" s="10">
-        <v>1</v>
+      <c r="F222" s="16">
+        <v>2</v>
       </c>
       <c r="G222" s="10">
         <v>0</v>
@@ -16232,8 +16232,8 @@
       <c r="E223" s="11">
         <v>2002</v>
       </c>
-      <c r="F223" s="10">
-        <v>1</v>
+      <c r="F223" s="16">
+        <v>2</v>
       </c>
       <c r="G223" s="10">
         <v>0</v>
@@ -16296,8 +16296,8 @@
       <c r="E224" s="11">
         <v>2002</v>
       </c>
-      <c r="F224" s="10">
-        <v>1</v>
+      <c r="F224" s="16">
+        <v>2</v>
       </c>
       <c r="G224" s="10">
         <v>0</v>
@@ -16360,8 +16360,8 @@
       <c r="E225" s="11">
         <v>2002</v>
       </c>
-      <c r="F225" s="10">
-        <v>1</v>
+      <c r="F225" s="16">
+        <v>2</v>
       </c>
       <c r="G225" s="10">
         <v>0</v>
@@ -16424,8 +16424,8 @@
       <c r="E226" s="21">
         <v>2002</v>
       </c>
-      <c r="F226" s="20">
-        <v>1</v>
+      <c r="F226" s="16">
+        <v>2</v>
       </c>
       <c r="G226" s="20">
         <v>0</v>
@@ -16489,8 +16489,8 @@
       <c r="E227" s="11">
         <v>2003</v>
       </c>
-      <c r="F227" s="10">
-        <v>1</v>
+      <c r="F227" s="16">
+        <v>2</v>
       </c>
       <c r="G227" s="10">
         <v>0</v>
@@ -16553,8 +16553,8 @@
       <c r="E228" s="11">
         <v>2003</v>
       </c>
-      <c r="F228" s="10">
-        <v>1</v>
+      <c r="F228" s="16">
+        <v>2</v>
       </c>
       <c r="G228" s="10">
         <v>0</v>
@@ -16617,8 +16617,8 @@
       <c r="E229" s="11">
         <v>2003</v>
       </c>
-      <c r="F229" s="10">
-        <v>1</v>
+      <c r="F229" s="16">
+        <v>2</v>
       </c>
       <c r="G229" s="10">
         <v>0</v>
@@ -16681,8 +16681,8 @@
       <c r="E230" s="11">
         <v>2003</v>
       </c>
-      <c r="F230" s="10">
-        <v>1</v>
+      <c r="F230" s="16">
+        <v>2</v>
       </c>
       <c r="G230" s="10">
         <v>0</v>
@@ -16745,8 +16745,8 @@
       <c r="E231" s="11">
         <v>2003</v>
       </c>
-      <c r="F231" s="10">
-        <v>1</v>
+      <c r="F231" s="16">
+        <v>2</v>
       </c>
       <c r="G231" s="10">
         <v>0</v>
@@ -16809,8 +16809,8 @@
       <c r="E232" s="11">
         <v>2003</v>
       </c>
-      <c r="F232" s="10">
-        <v>1</v>
+      <c r="F232" s="16">
+        <v>2</v>
       </c>
       <c r="G232" s="10">
         <v>0</v>
@@ -16873,8 +16873,8 @@
       <c r="E233" s="11">
         <v>2003</v>
       </c>
-      <c r="F233" s="10">
-        <v>1</v>
+      <c r="F233" s="16">
+        <v>2</v>
       </c>
       <c r="G233" s="10">
         <v>0</v>
@@ -16937,8 +16937,8 @@
       <c r="E234" s="11">
         <v>2003</v>
       </c>
-      <c r="F234" s="10">
-        <v>1</v>
+      <c r="F234" s="16">
+        <v>2</v>
       </c>
       <c r="G234" s="10">
         <v>0</v>
@@ -17001,8 +17001,8 @@
       <c r="E235" s="11">
         <v>2003</v>
       </c>
-      <c r="F235" s="10">
-        <v>1</v>
+      <c r="F235" s="16">
+        <v>2</v>
       </c>
       <c r="G235" s="10">
         <v>0</v>
@@ -17065,8 +17065,8 @@
       <c r="E236" s="11">
         <v>2003</v>
       </c>
-      <c r="F236" s="10">
-        <v>1</v>
+      <c r="F236" s="16">
+        <v>2</v>
       </c>
       <c r="G236" s="10">
         <v>0</v>
@@ -17129,8 +17129,8 @@
       <c r="E237" s="11">
         <v>2003</v>
       </c>
-      <c r="F237" s="10">
-        <v>1</v>
+      <c r="F237" s="16">
+        <v>2</v>
       </c>
       <c r="G237" s="10">
         <v>0</v>
@@ -17193,8 +17193,8 @@
       <c r="E238" s="11">
         <v>2003</v>
       </c>
-      <c r="F238" s="10">
-        <v>1</v>
+      <c r="F238" s="16">
+        <v>2</v>
       </c>
       <c r="G238" s="10">
         <v>0</v>
@@ -17257,8 +17257,8 @@
       <c r="E239" s="11">
         <v>2003</v>
       </c>
-      <c r="F239" s="10">
-        <v>1</v>
+      <c r="F239" s="16">
+        <v>2</v>
       </c>
       <c r="G239" s="10">
         <v>0</v>
@@ -17321,8 +17321,8 @@
       <c r="E240" s="11">
         <v>2003</v>
       </c>
-      <c r="F240" s="10">
-        <v>1</v>
+      <c r="F240" s="16">
+        <v>2</v>
       </c>
       <c r="G240" s="10">
         <v>0</v>
@@ -17385,8 +17385,8 @@
       <c r="E241" s="11">
         <v>2003</v>
       </c>
-      <c r="F241" s="10">
-        <v>1</v>
+      <c r="F241" s="16">
+        <v>2</v>
       </c>
       <c r="G241" s="10">
         <v>0</v>
@@ -17449,8 +17449,8 @@
       <c r="E242" s="11">
         <v>2003</v>
       </c>
-      <c r="F242" s="10">
-        <v>1</v>
+      <c r="F242" s="16">
+        <v>2</v>
       </c>
       <c r="G242" s="10">
         <v>0</v>
@@ -17513,8 +17513,8 @@
       <c r="E243" s="11">
         <v>2003</v>
       </c>
-      <c r="F243" s="10">
-        <v>1</v>
+      <c r="F243" s="16">
+        <v>2</v>
       </c>
       <c r="G243" s="10">
         <v>0</v>
@@ -17577,8 +17577,8 @@
       <c r="E244" s="11">
         <v>2003</v>
       </c>
-      <c r="F244" s="10">
-        <v>1</v>
+      <c r="F244" s="16">
+        <v>2</v>
       </c>
       <c r="G244" s="10">
         <v>0</v>
@@ -17641,8 +17641,8 @@
       <c r="E245" s="11">
         <v>2003</v>
       </c>
-      <c r="F245" s="10">
-        <v>1</v>
+      <c r="F245" s="16">
+        <v>2</v>
       </c>
       <c r="G245" s="10">
         <v>0</v>
@@ -17705,8 +17705,8 @@
       <c r="E246" s="11">
         <v>2003</v>
       </c>
-      <c r="F246" s="10">
-        <v>1</v>
+      <c r="F246" s="16">
+        <v>2</v>
       </c>
       <c r="G246" s="10">
         <v>0</v>
@@ -17769,8 +17769,8 @@
       <c r="E247" s="11">
         <v>2003</v>
       </c>
-      <c r="F247" s="10">
-        <v>1</v>
+      <c r="F247" s="16">
+        <v>2</v>
       </c>
       <c r="G247" s="10">
         <v>0</v>
@@ -17833,8 +17833,8 @@
       <c r="E248" s="11">
         <v>2003</v>
       </c>
-      <c r="F248" s="10">
-        <v>1</v>
+      <c r="F248" s="16">
+        <v>2</v>
       </c>
       <c r="G248" s="10">
         <v>0</v>
@@ -17897,8 +17897,8 @@
       <c r="E249" s="11">
         <v>2003</v>
       </c>
-      <c r="F249" s="10">
-        <v>1</v>
+      <c r="F249" s="16">
+        <v>2</v>
       </c>
       <c r="G249" s="10">
         <v>0</v>
@@ -17961,8 +17961,8 @@
       <c r="E250" s="11">
         <v>2003</v>
       </c>
-      <c r="F250" s="10">
-        <v>1</v>
+      <c r="F250" s="16">
+        <v>2</v>
       </c>
       <c r="G250" s="10">
         <v>0</v>
@@ -18025,8 +18025,8 @@
       <c r="E251" s="21">
         <v>2003</v>
       </c>
-      <c r="F251" s="20">
-        <v>1</v>
+      <c r="F251" s="16">
+        <v>2</v>
       </c>
       <c r="G251" s="20">
         <v>0</v>
@@ -18089,8 +18089,8 @@
       <c r="E252" s="11">
         <v>2004</v>
       </c>
-      <c r="F252" s="10">
-        <v>1</v>
+      <c r="F252" s="16">
+        <v>2</v>
       </c>
       <c r="G252" s="10">
         <v>0</v>
@@ -18153,8 +18153,8 @@
       <c r="E253" s="11">
         <v>2004</v>
       </c>
-      <c r="F253" s="10">
-        <v>1</v>
+      <c r="F253" s="16">
+        <v>2</v>
       </c>
       <c r="G253" s="10">
         <v>0</v>
@@ -18217,8 +18217,8 @@
       <c r="E254" s="11">
         <v>2004</v>
       </c>
-      <c r="F254" s="10">
-        <v>1</v>
+      <c r="F254" s="16">
+        <v>2</v>
       </c>
       <c r="G254" s="10">
         <v>0</v>
@@ -18281,8 +18281,8 @@
       <c r="E255" s="11">
         <v>2004</v>
       </c>
-      <c r="F255" s="10">
-        <v>1</v>
+      <c r="F255" s="16">
+        <v>2</v>
       </c>
       <c r="G255" s="10">
         <v>0</v>
@@ -18345,8 +18345,8 @@
       <c r="E256" s="11">
         <v>2004</v>
       </c>
-      <c r="F256" s="10">
-        <v>1</v>
+      <c r="F256" s="16">
+        <v>2</v>
       </c>
       <c r="G256" s="10">
         <v>0</v>
@@ -18409,8 +18409,8 @@
       <c r="E257" s="11">
         <v>2004</v>
       </c>
-      <c r="F257" s="10">
-        <v>1</v>
+      <c r="F257" s="16">
+        <v>2</v>
       </c>
       <c r="G257" s="10">
         <v>0</v>
@@ -18473,8 +18473,8 @@
       <c r="E258" s="11">
         <v>2004</v>
       </c>
-      <c r="F258" s="10">
-        <v>1</v>
+      <c r="F258" s="16">
+        <v>2</v>
       </c>
       <c r="G258" s="10">
         <v>0</v>
@@ -18537,8 +18537,8 @@
       <c r="E259" s="11">
         <v>2004</v>
       </c>
-      <c r="F259" s="10">
-        <v>1</v>
+      <c r="F259" s="16">
+        <v>2</v>
       </c>
       <c r="G259" s="10">
         <v>0</v>
@@ -18601,8 +18601,8 @@
       <c r="E260" s="11">
         <v>2004</v>
       </c>
-      <c r="F260" s="10">
-        <v>1</v>
+      <c r="F260" s="16">
+        <v>2</v>
       </c>
       <c r="G260" s="10">
         <v>0</v>
@@ -18665,8 +18665,8 @@
       <c r="E261" s="11">
         <v>2004</v>
       </c>
-      <c r="F261" s="10">
-        <v>1</v>
+      <c r="F261" s="16">
+        <v>2</v>
       </c>
       <c r="G261" s="10">
         <v>0</v>
@@ -18729,8 +18729,8 @@
       <c r="E262" s="11">
         <v>2004</v>
       </c>
-      <c r="F262" s="10">
-        <v>1</v>
+      <c r="F262" s="16">
+        <v>2</v>
       </c>
       <c r="G262" s="10">
         <v>0</v>
@@ -18793,8 +18793,8 @@
       <c r="E263" s="11">
         <v>2004</v>
       </c>
-      <c r="F263" s="10">
-        <v>1</v>
+      <c r="F263" s="16">
+        <v>2</v>
       </c>
       <c r="G263" s="10">
         <v>0</v>
@@ -18857,8 +18857,8 @@
       <c r="E264" s="11">
         <v>2004</v>
       </c>
-      <c r="F264" s="10">
-        <v>1</v>
+      <c r="F264" s="16">
+        <v>2</v>
       </c>
       <c r="G264" s="10">
         <v>0</v>
@@ -18921,8 +18921,8 @@
       <c r="E265" s="11">
         <v>2004</v>
       </c>
-      <c r="F265" s="10">
-        <v>1</v>
+      <c r="F265" s="16">
+        <v>2</v>
       </c>
       <c r="G265" s="10">
         <v>0</v>
@@ -18985,8 +18985,8 @@
       <c r="E266" s="11">
         <v>2004</v>
       </c>
-      <c r="F266" s="10">
-        <v>1</v>
+      <c r="F266" s="16">
+        <v>2</v>
       </c>
       <c r="G266" s="10">
         <v>0</v>
@@ -19049,8 +19049,8 @@
       <c r="E267" s="11">
         <v>2004</v>
       </c>
-      <c r="F267" s="10">
-        <v>1</v>
+      <c r="F267" s="16">
+        <v>2</v>
       </c>
       <c r="G267" s="10">
         <v>0</v>
@@ -19113,8 +19113,8 @@
       <c r="E268" s="11">
         <v>2004</v>
       </c>
-      <c r="F268" s="10">
-        <v>1</v>
+      <c r="F268" s="16">
+        <v>2</v>
       </c>
       <c r="G268" s="10">
         <v>0</v>
@@ -19177,8 +19177,8 @@
       <c r="E269" s="11">
         <v>2004</v>
       </c>
-      <c r="F269" s="10">
-        <v>1</v>
+      <c r="F269" s="16">
+        <v>2</v>
       </c>
       <c r="G269" s="10">
         <v>0</v>
@@ -19241,8 +19241,8 @@
       <c r="E270" s="11">
         <v>2004</v>
       </c>
-      <c r="F270" s="10">
-        <v>1</v>
+      <c r="F270" s="16">
+        <v>2</v>
       </c>
       <c r="G270" s="10">
         <v>0</v>
@@ -19305,8 +19305,8 @@
       <c r="E271" s="11">
         <v>2004</v>
       </c>
-      <c r="F271" s="10">
-        <v>1</v>
+      <c r="F271" s="16">
+        <v>2</v>
       </c>
       <c r="G271" s="10">
         <v>0</v>
@@ -19369,8 +19369,8 @@
       <c r="E272" s="11">
         <v>2004</v>
       </c>
-      <c r="F272" s="10">
-        <v>1</v>
+      <c r="F272" s="16">
+        <v>2</v>
       </c>
       <c r="G272" s="10">
         <v>0</v>
@@ -19433,8 +19433,8 @@
       <c r="E273" s="11">
         <v>2004</v>
       </c>
-      <c r="F273" s="10">
-        <v>1</v>
+      <c r="F273" s="16">
+        <v>2</v>
       </c>
       <c r="G273" s="10">
         <v>0</v>
@@ -19497,8 +19497,8 @@
       <c r="E274" s="11">
         <v>2004</v>
       </c>
-      <c r="F274" s="10">
-        <v>1</v>
+      <c r="F274" s="16">
+        <v>2</v>
       </c>
       <c r="G274" s="10">
         <v>0</v>
@@ -19561,8 +19561,8 @@
       <c r="E275" s="11">
         <v>2004</v>
       </c>
-      <c r="F275" s="10">
-        <v>1</v>
+      <c r="F275" s="16">
+        <v>2</v>
       </c>
       <c r="G275" s="10">
         <v>0</v>
@@ -19625,8 +19625,8 @@
       <c r="E276" s="21">
         <v>2004</v>
       </c>
-      <c r="F276" s="20">
-        <v>1</v>
+      <c r="F276" s="16">
+        <v>2</v>
       </c>
       <c r="G276" s="20">
         <v>0</v>
@@ -19690,8 +19690,8 @@
       <c r="E277" s="11">
         <v>2004</v>
       </c>
-      <c r="F277" s="10">
-        <v>1</v>
+      <c r="F277" s="16">
+        <v>2</v>
       </c>
       <c r="G277" s="10">
         <v>0</v>
@@ -19754,8 +19754,8 @@
       <c r="E278" s="11">
         <v>2004</v>
       </c>
-      <c r="F278" s="10">
-        <v>1</v>
+      <c r="F278" s="16">
+        <v>2</v>
       </c>
       <c r="G278" s="10">
         <v>0</v>
@@ -19818,8 +19818,8 @@
       <c r="E279" s="11">
         <v>2004</v>
       </c>
-      <c r="F279" s="10">
-        <v>1</v>
+      <c r="F279" s="16">
+        <v>2</v>
       </c>
       <c r="G279" s="10">
         <v>0</v>
@@ -19882,8 +19882,8 @@
       <c r="E280" s="11">
         <v>2004</v>
       </c>
-      <c r="F280" s="10">
-        <v>1</v>
+      <c r="F280" s="16">
+        <v>2</v>
       </c>
       <c r="G280" s="10">
         <v>0</v>
@@ -19946,8 +19946,8 @@
       <c r="E281" s="11">
         <v>2004</v>
       </c>
-      <c r="F281" s="10">
-        <v>1</v>
+      <c r="F281" s="16">
+        <v>2</v>
       </c>
       <c r="G281" s="10">
         <v>0</v>
@@ -20010,8 +20010,8 @@
       <c r="E282" s="11">
         <v>2004</v>
       </c>
-      <c r="F282" s="10">
-        <v>1</v>
+      <c r="F282" s="16">
+        <v>2</v>
       </c>
       <c r="G282" s="10">
         <v>0</v>
@@ -20074,8 +20074,8 @@
       <c r="E283" s="11">
         <v>2004</v>
       </c>
-      <c r="F283" s="10">
-        <v>1</v>
+      <c r="F283" s="16">
+        <v>2</v>
       </c>
       <c r="G283" s="10">
         <v>0</v>
@@ -20138,8 +20138,8 @@
       <c r="E284" s="11">
         <v>2004</v>
       </c>
-      <c r="F284" s="10">
-        <v>1</v>
+      <c r="F284" s="16">
+        <v>2</v>
       </c>
       <c r="G284" s="10">
         <v>0</v>
@@ -20202,8 +20202,8 @@
       <c r="E285" s="11">
         <v>2004</v>
       </c>
-      <c r="F285" s="10">
-        <v>1</v>
+      <c r="F285" s="16">
+        <v>2</v>
       </c>
       <c r="G285" s="10">
         <v>0</v>
@@ -20266,8 +20266,8 @@
       <c r="E286" s="11">
         <v>2004</v>
       </c>
-      <c r="F286" s="10">
-        <v>1</v>
+      <c r="F286" s="16">
+        <v>2</v>
       </c>
       <c r="G286" s="10">
         <v>0</v>
@@ -20330,8 +20330,8 @@
       <c r="E287" s="11">
         <v>2004</v>
       </c>
-      <c r="F287" s="10">
-        <v>1</v>
+      <c r="F287" s="16">
+        <v>2</v>
       </c>
       <c r="G287" s="10">
         <v>0</v>
@@ -20394,8 +20394,8 @@
       <c r="E288" s="11">
         <v>2004</v>
       </c>
-      <c r="F288" s="10">
-        <v>1</v>
+      <c r="F288" s="16">
+        <v>2</v>
       </c>
       <c r="G288" s="10">
         <v>0</v>
@@ -20458,8 +20458,8 @@
       <c r="E289" s="11">
         <v>2004</v>
       </c>
-      <c r="F289" s="10">
-        <v>1</v>
+      <c r="F289" s="16">
+        <v>2</v>
       </c>
       <c r="G289" s="10">
         <v>0</v>
@@ -20522,8 +20522,8 @@
       <c r="E290" s="11">
         <v>2004</v>
       </c>
-      <c r="F290" s="10">
-        <v>1</v>
+      <c r="F290" s="16">
+        <v>2</v>
       </c>
       <c r="G290" s="10">
         <v>0</v>
@@ -20586,8 +20586,8 @@
       <c r="E291" s="11">
         <v>2004</v>
       </c>
-      <c r="F291" s="10">
-        <v>1</v>
+      <c r="F291" s="16">
+        <v>2</v>
       </c>
       <c r="G291" s="10">
         <v>0</v>
@@ -20650,8 +20650,8 @@
       <c r="E292" s="11">
         <v>2004</v>
       </c>
-      <c r="F292" s="10">
-        <v>1</v>
+      <c r="F292" s="16">
+        <v>2</v>
       </c>
       <c r="G292" s="10">
         <v>0</v>
@@ -20714,8 +20714,8 @@
       <c r="E293" s="11">
         <v>2004</v>
       </c>
-      <c r="F293" s="10">
-        <v>1</v>
+      <c r="F293" s="16">
+        <v>2</v>
       </c>
       <c r="G293" s="10">
         <v>0</v>
@@ -20778,8 +20778,8 @@
       <c r="E294" s="11">
         <v>2004</v>
       </c>
-      <c r="F294" s="10">
-        <v>1</v>
+      <c r="F294" s="16">
+        <v>2</v>
       </c>
       <c r="G294" s="10">
         <v>0</v>
@@ -20842,8 +20842,8 @@
       <c r="E295" s="11">
         <v>2004</v>
       </c>
-      <c r="F295" s="10">
-        <v>1</v>
+      <c r="F295" s="16">
+        <v>2</v>
       </c>
       <c r="G295" s="10">
         <v>0</v>
@@ -20906,8 +20906,8 @@
       <c r="E296" s="11">
         <v>2004</v>
       </c>
-      <c r="F296" s="10">
-        <v>1</v>
+      <c r="F296" s="16">
+        <v>2</v>
       </c>
       <c r="G296" s="10">
         <v>0</v>
@@ -20970,8 +20970,8 @@
       <c r="E297" s="11">
         <v>2004</v>
       </c>
-      <c r="F297" s="10">
-        <v>1</v>
+      <c r="F297" s="16">
+        <v>2</v>
       </c>
       <c r="G297" s="10">
         <v>0</v>
@@ -21034,8 +21034,8 @@
       <c r="E298" s="11">
         <v>2004</v>
       </c>
-      <c r="F298" s="10">
-        <v>1</v>
+      <c r="F298" s="16">
+        <v>2</v>
       </c>
       <c r="G298" s="10">
         <v>0</v>
@@ -21098,8 +21098,8 @@
       <c r="E299" s="11">
         <v>2004</v>
       </c>
-      <c r="F299" s="10">
-        <v>1</v>
+      <c r="F299" s="16">
+        <v>2</v>
       </c>
       <c r="G299" s="10">
         <v>0</v>
@@ -21162,8 +21162,8 @@
       <c r="E300" s="11">
         <v>2004</v>
       </c>
-      <c r="F300" s="10">
-        <v>1</v>
+      <c r="F300" s="16">
+        <v>2</v>
       </c>
       <c r="G300" s="10">
         <v>0</v>
@@ -21226,8 +21226,8 @@
       <c r="E301" s="11">
         <v>2004</v>
       </c>
-      <c r="F301" s="10">
-        <v>1</v>
+      <c r="F301" s="16">
+        <v>2</v>
       </c>
       <c r="G301" s="10">
         <v>0</v>
@@ -21290,8 +21290,8 @@
       <c r="E302" s="15">
         <v>3000</v>
       </c>
-      <c r="F302" s="14">
-        <v>1</v>
+      <c r="F302" s="16">
+        <v>2</v>
       </c>
       <c r="G302" s="14">
         <v>0</v>
@@ -21354,8 +21354,8 @@
       <c r="E303" s="15">
         <v>3000</v>
       </c>
-      <c r="F303" s="14">
-        <v>1</v>
+      <c r="F303" s="16">
+        <v>2</v>
       </c>
       <c r="G303" s="14">
         <v>0</v>
@@ -21418,8 +21418,8 @@
       <c r="E304" s="15">
         <v>3000</v>
       </c>
-      <c r="F304" s="14">
-        <v>1</v>
+      <c r="F304" s="16">
+        <v>2</v>
       </c>
       <c r="G304" s="14">
         <v>0</v>
@@ -21482,8 +21482,8 @@
       <c r="E305" s="15">
         <v>3000</v>
       </c>
-      <c r="F305" s="14">
-        <v>1</v>
+      <c r="F305" s="16">
+        <v>2</v>
       </c>
       <c r="G305" s="14">
         <v>0</v>
@@ -21546,8 +21546,8 @@
       <c r="E306" s="15">
         <v>3000</v>
       </c>
-      <c r="F306" s="14">
-        <v>1</v>
+      <c r="F306" s="16">
+        <v>2</v>
       </c>
       <c r="G306" s="14">
         <v>0</v>
@@ -21610,8 +21610,8 @@
       <c r="E307" s="15">
         <v>3000</v>
       </c>
-      <c r="F307" s="14">
-        <v>1</v>
+      <c r="F307" s="16">
+        <v>2</v>
       </c>
       <c r="G307" s="14">
         <v>0</v>
@@ -21674,8 +21674,8 @@
       <c r="E308" s="15">
         <v>3000</v>
       </c>
-      <c r="F308" s="14">
-        <v>1</v>
+      <c r="F308" s="16">
+        <v>2</v>
       </c>
       <c r="G308" s="14">
         <v>0</v>
@@ -21738,8 +21738,8 @@
       <c r="E309" s="15">
         <v>3000</v>
       </c>
-      <c r="F309" s="14">
-        <v>1</v>
+      <c r="F309" s="16">
+        <v>2</v>
       </c>
       <c r="G309" s="14">
         <v>0</v>
@@ -21802,8 +21802,8 @@
       <c r="E310" s="15">
         <v>3000</v>
       </c>
-      <c r="F310" s="14">
-        <v>1</v>
+      <c r="F310" s="16">
+        <v>2</v>
       </c>
       <c r="G310" s="14">
         <v>0</v>
@@ -21866,8 +21866,8 @@
       <c r="E311" s="15">
         <v>3000</v>
       </c>
-      <c r="F311" s="14">
-        <v>1</v>
+      <c r="F311" s="16">
+        <v>2</v>
       </c>
       <c r="G311" s="14">
         <v>0</v>
@@ -21930,8 +21930,8 @@
       <c r="E312" s="15">
         <v>3000</v>
       </c>
-      <c r="F312" s="14">
-        <v>1</v>
+      <c r="F312" s="16">
+        <v>2</v>
       </c>
       <c r="G312" s="14">
         <v>0</v>
@@ -21994,8 +21994,8 @@
       <c r="E313" s="15">
         <v>3000</v>
       </c>
-      <c r="F313" s="14">
-        <v>1</v>
+      <c r="F313" s="16">
+        <v>2</v>
       </c>
       <c r="G313" s="14">
         <v>0</v>
@@ -22058,8 +22058,8 @@
       <c r="E314" s="15">
         <v>3000</v>
       </c>
-      <c r="F314" s="14">
-        <v>1</v>
+      <c r="F314" s="16">
+        <v>2</v>
       </c>
       <c r="G314" s="14">
         <v>0</v>
@@ -22122,8 +22122,8 @@
       <c r="E315" s="15">
         <v>3000</v>
       </c>
-      <c r="F315" s="14">
-        <v>1</v>
+      <c r="F315" s="16">
+        <v>2</v>
       </c>
       <c r="G315" s="14">
         <v>0</v>
@@ -22186,8 +22186,8 @@
       <c r="E316" s="15">
         <v>3000</v>
       </c>
-      <c r="F316" s="14">
-        <v>1</v>
+      <c r="F316" s="16">
+        <v>2</v>
       </c>
       <c r="G316" s="14">
         <v>0</v>
@@ -22250,8 +22250,8 @@
       <c r="E317" s="15">
         <v>3000</v>
       </c>
-      <c r="F317" s="14">
-        <v>1</v>
+      <c r="F317" s="16">
+        <v>2</v>
       </c>
       <c r="G317" s="14">
         <v>0</v>
@@ -22314,8 +22314,8 @@
       <c r="E318" s="15">
         <v>3000</v>
       </c>
-      <c r="F318" s="14">
-        <v>1</v>
+      <c r="F318" s="16">
+        <v>2</v>
       </c>
       <c r="G318" s="14">
         <v>0</v>
@@ -22378,8 +22378,8 @@
       <c r="E319" s="15">
         <v>3000</v>
       </c>
-      <c r="F319" s="14">
-        <v>1</v>
+      <c r="F319" s="16">
+        <v>2</v>
       </c>
       <c r="G319" s="14">
         <v>0</v>
@@ -22442,8 +22442,8 @@
       <c r="E320" s="15">
         <v>3000</v>
       </c>
-      <c r="F320" s="14">
-        <v>1</v>
+      <c r="F320" s="16">
+        <v>2</v>
       </c>
       <c r="G320" s="14">
         <v>0</v>
@@ -22506,8 +22506,8 @@
       <c r="E321" s="15">
         <v>3000</v>
       </c>
-      <c r="F321" s="14">
-        <v>1</v>
+      <c r="F321" s="16">
+        <v>2</v>
       </c>
       <c r="G321" s="14">
         <v>0</v>
@@ -22570,8 +22570,8 @@
       <c r="E322" s="15">
         <v>3000</v>
       </c>
-      <c r="F322" s="14">
-        <v>1</v>
+      <c r="F322" s="16">
+        <v>2</v>
       </c>
       <c r="G322" s="14">
         <v>0</v>
@@ -22634,8 +22634,8 @@
       <c r="E323" s="15">
         <v>3000</v>
       </c>
-      <c r="F323" s="14">
-        <v>1</v>
+      <c r="F323" s="16">
+        <v>2</v>
       </c>
       <c r="G323" s="14">
         <v>0</v>
@@ -22698,8 +22698,8 @@
       <c r="E324" s="15">
         <v>3000</v>
       </c>
-      <c r="F324" s="14">
-        <v>1</v>
+      <c r="F324" s="16">
+        <v>2</v>
       </c>
       <c r="G324" s="14">
         <v>0</v>
@@ -22762,8 +22762,8 @@
       <c r="E325" s="15">
         <v>3000</v>
       </c>
-      <c r="F325" s="14">
-        <v>1</v>
+      <c r="F325" s="16">
+        <v>2</v>
       </c>
       <c r="G325" s="14">
         <v>0</v>
@@ -22826,8 +22826,8 @@
       <c r="E326" s="26">
         <v>3000</v>
       </c>
-      <c r="F326" s="25">
-        <v>1</v>
+      <c r="F326" s="16">
+        <v>2</v>
       </c>
       <c r="G326" s="25">
         <v>0</v>
@@ -22890,8 +22890,8 @@
       <c r="E327" s="15">
         <v>3001</v>
       </c>
-      <c r="F327" s="14">
-        <v>1</v>
+      <c r="F327" s="16">
+        <v>2</v>
       </c>
       <c r="G327" s="14">
         <v>0</v>
@@ -22954,8 +22954,8 @@
       <c r="E328" s="15">
         <v>3001</v>
       </c>
-      <c r="F328" s="14">
-        <v>1</v>
+      <c r="F328" s="16">
+        <v>2</v>
       </c>
       <c r="G328" s="14">
         <v>0</v>
@@ -23018,8 +23018,8 @@
       <c r="E329" s="15">
         <v>3001</v>
       </c>
-      <c r="F329" s="14">
-        <v>1</v>
+      <c r="F329" s="16">
+        <v>2</v>
       </c>
       <c r="G329" s="14">
         <v>0</v>
@@ -23082,8 +23082,8 @@
       <c r="E330" s="15">
         <v>3001</v>
       </c>
-      <c r="F330" s="14">
-        <v>1</v>
+      <c r="F330" s="16">
+        <v>2</v>
       </c>
       <c r="G330" s="14">
         <v>0</v>
@@ -23146,8 +23146,8 @@
       <c r="E331" s="15">
         <v>3001</v>
       </c>
-      <c r="F331" s="14">
-        <v>1</v>
+      <c r="F331" s="16">
+        <v>2</v>
       </c>
       <c r="G331" s="14">
         <v>0</v>
@@ -23210,8 +23210,8 @@
       <c r="E332" s="15">
         <v>3001</v>
       </c>
-      <c r="F332" s="14">
-        <v>1</v>
+      <c r="F332" s="16">
+        <v>2</v>
       </c>
       <c r="G332" s="14">
         <v>0</v>
@@ -23274,8 +23274,8 @@
       <c r="E333" s="15">
         <v>3001</v>
       </c>
-      <c r="F333" s="14">
-        <v>1</v>
+      <c r="F333" s="16">
+        <v>2</v>
       </c>
       <c r="G333" s="14">
         <v>0</v>
@@ -23338,8 +23338,8 @@
       <c r="E334" s="15">
         <v>3001</v>
       </c>
-      <c r="F334" s="14">
-        <v>1</v>
+      <c r="F334" s="16">
+        <v>2</v>
       </c>
       <c r="G334" s="14">
         <v>0</v>
@@ -23402,8 +23402,8 @@
       <c r="E335" s="15">
         <v>3001</v>
       </c>
-      <c r="F335" s="14">
-        <v>1</v>
+      <c r="F335" s="16">
+        <v>2</v>
       </c>
       <c r="G335" s="14">
         <v>0</v>
@@ -23466,8 +23466,8 @@
       <c r="E336" s="15">
         <v>3001</v>
       </c>
-      <c r="F336" s="14">
-        <v>1</v>
+      <c r="F336" s="16">
+        <v>2</v>
       </c>
       <c r="G336" s="14">
         <v>0</v>
@@ -23530,8 +23530,8 @@
       <c r="E337" s="15">
         <v>3001</v>
       </c>
-      <c r="F337" s="14">
-        <v>1</v>
+      <c r="F337" s="16">
+        <v>2</v>
       </c>
       <c r="G337" s="14">
         <v>0</v>
@@ -23594,8 +23594,8 @@
       <c r="E338" s="15">
         <v>3001</v>
       </c>
-      <c r="F338" s="14">
-        <v>1</v>
+      <c r="F338" s="16">
+        <v>2</v>
       </c>
       <c r="G338" s="14">
         <v>0</v>
@@ -23658,8 +23658,8 @@
       <c r="E339" s="15">
         <v>3001</v>
       </c>
-      <c r="F339" s="14">
-        <v>1</v>
+      <c r="F339" s="16">
+        <v>2</v>
       </c>
       <c r="G339" s="14">
         <v>0</v>
@@ -23722,8 +23722,8 @@
       <c r="E340" s="15">
         <v>3001</v>
       </c>
-      <c r="F340" s="14">
-        <v>1</v>
+      <c r="F340" s="16">
+        <v>2</v>
       </c>
       <c r="G340" s="14">
         <v>0</v>
@@ -23786,8 +23786,8 @@
       <c r="E341" s="15">
         <v>3001</v>
       </c>
-      <c r="F341" s="14">
-        <v>1</v>
+      <c r="F341" s="16">
+        <v>2</v>
       </c>
       <c r="G341" s="14">
         <v>0</v>
@@ -23850,8 +23850,8 @@
       <c r="E342" s="15">
         <v>3001</v>
       </c>
-      <c r="F342" s="14">
-        <v>1</v>
+      <c r="F342" s="16">
+        <v>2</v>
       </c>
       <c r="G342" s="14">
         <v>0</v>
@@ -23914,8 +23914,8 @@
       <c r="E343" s="15">
         <v>3001</v>
       </c>
-      <c r="F343" s="14">
-        <v>1</v>
+      <c r="F343" s="16">
+        <v>2</v>
       </c>
       <c r="G343" s="14">
         <v>0</v>
@@ -23978,8 +23978,8 @@
       <c r="E344" s="15">
         <v>3001</v>
       </c>
-      <c r="F344" s="14">
-        <v>1</v>
+      <c r="F344" s="16">
+        <v>2</v>
       </c>
       <c r="G344" s="14">
         <v>0</v>
@@ -24042,8 +24042,8 @@
       <c r="E345" s="15">
         <v>3001</v>
       </c>
-      <c r="F345" s="14">
-        <v>1</v>
+      <c r="F345" s="16">
+        <v>2</v>
       </c>
       <c r="G345" s="14">
         <v>0</v>
@@ -24106,8 +24106,8 @@
       <c r="E346" s="15">
         <v>3001</v>
       </c>
-      <c r="F346" s="14">
-        <v>1</v>
+      <c r="F346" s="16">
+        <v>2</v>
       </c>
       <c r="G346" s="14">
         <v>0</v>
@@ -24170,8 +24170,8 @@
       <c r="E347" s="15">
         <v>3001</v>
       </c>
-      <c r="F347" s="14">
-        <v>1</v>
+      <c r="F347" s="16">
+        <v>2</v>
       </c>
       <c r="G347" s="14">
         <v>0</v>
@@ -24234,8 +24234,8 @@
       <c r="E348" s="15">
         <v>3001</v>
       </c>
-      <c r="F348" s="14">
-        <v>1</v>
+      <c r="F348" s="16">
+        <v>2</v>
       </c>
       <c r="G348" s="14">
         <v>0</v>
@@ -24298,8 +24298,8 @@
       <c r="E349" s="15">
         <v>3001</v>
       </c>
-      <c r="F349" s="14">
-        <v>1</v>
+      <c r="F349" s="16">
+        <v>2</v>
       </c>
       <c r="G349" s="14">
         <v>0</v>
@@ -24362,8 +24362,8 @@
       <c r="E350" s="15">
         <v>3001</v>
       </c>
-      <c r="F350" s="14">
-        <v>1</v>
+      <c r="F350" s="16">
+        <v>2</v>
       </c>
       <c r="G350" s="14">
         <v>0</v>
@@ -24426,8 +24426,8 @@
       <c r="E351" s="24">
         <v>3001</v>
       </c>
-      <c r="F351" s="23">
-        <v>1</v>
+      <c r="F351" s="16">
+        <v>2</v>
       </c>
       <c r="G351" s="23">
         <v>0</v>
@@ -24490,8 +24490,8 @@
       <c r="E352" s="15">
         <v>3002</v>
       </c>
-      <c r="F352" s="14">
-        <v>1</v>
+      <c r="F352" s="16">
+        <v>2</v>
       </c>
       <c r="G352" s="14">
         <v>0</v>
@@ -24554,8 +24554,8 @@
       <c r="E353" s="15">
         <v>3002</v>
       </c>
-      <c r="F353" s="14">
-        <v>1</v>
+      <c r="F353" s="16">
+        <v>2</v>
       </c>
       <c r="G353" s="14">
         <v>0</v>
@@ -24618,8 +24618,8 @@
       <c r="E354" s="15">
         <v>3002</v>
       </c>
-      <c r="F354" s="14">
-        <v>1</v>
+      <c r="F354" s="16">
+        <v>2</v>
       </c>
       <c r="G354" s="14">
         <v>0</v>
@@ -24682,8 +24682,8 @@
       <c r="E355" s="15">
         <v>3002</v>
       </c>
-      <c r="F355" s="14">
-        <v>1</v>
+      <c r="F355" s="16">
+        <v>2</v>
       </c>
       <c r="G355" s="14">
         <v>0</v>
@@ -24746,8 +24746,8 @@
       <c r="E356" s="15">
         <v>3002</v>
       </c>
-      <c r="F356" s="14">
-        <v>1</v>
+      <c r="F356" s="16">
+        <v>2</v>
       </c>
       <c r="G356" s="14">
         <v>0</v>
@@ -24810,8 +24810,8 @@
       <c r="E357" s="15">
         <v>3002</v>
       </c>
-      <c r="F357" s="14">
-        <v>1</v>
+      <c r="F357" s="16">
+        <v>2</v>
       </c>
       <c r="G357" s="14">
         <v>0</v>
@@ -24874,8 +24874,8 @@
       <c r="E358" s="15">
         <v>3002</v>
       </c>
-      <c r="F358" s="14">
-        <v>1</v>
+      <c r="F358" s="16">
+        <v>2</v>
       </c>
       <c r="G358" s="14">
         <v>0</v>
@@ -24938,8 +24938,8 @@
       <c r="E359" s="15">
         <v>3002</v>
       </c>
-      <c r="F359" s="14">
-        <v>1</v>
+      <c r="F359" s="16">
+        <v>2</v>
       </c>
       <c r="G359" s="14">
         <v>0</v>
@@ -25002,8 +25002,8 @@
       <c r="E360" s="15">
         <v>3002</v>
       </c>
-      <c r="F360" s="14">
-        <v>1</v>
+      <c r="F360" s="16">
+        <v>2</v>
       </c>
       <c r="G360" s="14">
         <v>0</v>
@@ -25066,8 +25066,8 @@
       <c r="E361" s="15">
         <v>3002</v>
       </c>
-      <c r="F361" s="14">
-        <v>1</v>
+      <c r="F361" s="16">
+        <v>2</v>
       </c>
       <c r="G361" s="14">
         <v>0</v>
@@ -25130,8 +25130,8 @@
       <c r="E362" s="15">
         <v>3002</v>
       </c>
-      <c r="F362" s="14">
-        <v>1</v>
+      <c r="F362" s="16">
+        <v>2</v>
       </c>
       <c r="G362" s="14">
         <v>0</v>
@@ -25194,8 +25194,8 @@
       <c r="E363" s="15">
         <v>3002</v>
       </c>
-      <c r="F363" s="14">
-        <v>1</v>
+      <c r="F363" s="16">
+        <v>2</v>
       </c>
       <c r="G363" s="14">
         <v>0</v>
@@ -25258,8 +25258,8 @@
       <c r="E364" s="15">
         <v>3002</v>
       </c>
-      <c r="F364" s="14">
-        <v>1</v>
+      <c r="F364" s="16">
+        <v>2</v>
       </c>
       <c r="G364" s="14">
         <v>0</v>
@@ -25322,8 +25322,8 @@
       <c r="E365" s="15">
         <v>3002</v>
       </c>
-      <c r="F365" s="14">
-        <v>1</v>
+      <c r="F365" s="16">
+        <v>2</v>
       </c>
       <c r="G365" s="14">
         <v>0</v>
@@ -25386,8 +25386,8 @@
       <c r="E366" s="15">
         <v>3002</v>
       </c>
-      <c r="F366" s="14">
-        <v>1</v>
+      <c r="F366" s="16">
+        <v>2</v>
       </c>
       <c r="G366" s="14">
         <v>0</v>
@@ -25450,8 +25450,8 @@
       <c r="E367" s="15">
         <v>3002</v>
       </c>
-      <c r="F367" s="14">
-        <v>1</v>
+      <c r="F367" s="16">
+        <v>2</v>
       </c>
       <c r="G367" s="14">
         <v>0</v>
@@ -25514,8 +25514,8 @@
       <c r="E368" s="15">
         <v>3002</v>
       </c>
-      <c r="F368" s="14">
-        <v>1</v>
+      <c r="F368" s="16">
+        <v>2</v>
       </c>
       <c r="G368" s="14">
         <v>0</v>
@@ -25578,8 +25578,8 @@
       <c r="E369" s="15">
         <v>3002</v>
       </c>
-      <c r="F369" s="14">
-        <v>1</v>
+      <c r="F369" s="16">
+        <v>2</v>
       </c>
       <c r="G369" s="14">
         <v>0</v>
@@ -25642,8 +25642,8 @@
       <c r="E370" s="15">
         <v>3002</v>
       </c>
-      <c r="F370" s="14">
-        <v>1</v>
+      <c r="F370" s="16">
+        <v>2</v>
       </c>
       <c r="G370" s="14">
         <v>0</v>
@@ -25706,8 +25706,8 @@
       <c r="E371" s="15">
         <v>3002</v>
       </c>
-      <c r="F371" s="14">
-        <v>1</v>
+      <c r="F371" s="16">
+        <v>2</v>
       </c>
       <c r="G371" s="14">
         <v>0</v>
@@ -25770,8 +25770,8 @@
       <c r="E372" s="15">
         <v>3002</v>
       </c>
-      <c r="F372" s="14">
-        <v>1</v>
+      <c r="F372" s="16">
+        <v>2</v>
       </c>
       <c r="G372" s="14">
         <v>0</v>
@@ -25834,8 +25834,8 @@
       <c r="E373" s="15">
         <v>3002</v>
       </c>
-      <c r="F373" s="14">
-        <v>1</v>
+      <c r="F373" s="16">
+        <v>2</v>
       </c>
       <c r="G373" s="14">
         <v>0</v>
@@ -25898,8 +25898,8 @@
       <c r="E374" s="15">
         <v>3002</v>
       </c>
-      <c r="F374" s="14">
-        <v>1</v>
+      <c r="F374" s="16">
+        <v>2</v>
       </c>
       <c r="G374" s="14">
         <v>0</v>
@@ -25962,8 +25962,8 @@
       <c r="E375" s="15">
         <v>3002</v>
       </c>
-      <c r="F375" s="14">
-        <v>1</v>
+      <c r="F375" s="16">
+        <v>2</v>
       </c>
       <c r="G375" s="14">
         <v>0</v>
@@ -26026,8 +26026,8 @@
       <c r="E376" s="24">
         <v>3002</v>
       </c>
-      <c r="F376" s="23">
-        <v>1</v>
+      <c r="F376" s="16">
+        <v>2</v>
       </c>
       <c r="G376" s="23">
         <v>0</v>
@@ -26090,8 +26090,8 @@
       <c r="E377" s="15">
         <v>3003</v>
       </c>
-      <c r="F377" s="14">
-        <v>1</v>
+      <c r="F377" s="16">
+        <v>2</v>
       </c>
       <c r="G377" s="14">
         <v>0</v>
@@ -26154,8 +26154,8 @@
       <c r="E378" s="15">
         <v>3003</v>
       </c>
-      <c r="F378" s="14">
-        <v>1</v>
+      <c r="F378" s="16">
+        <v>2</v>
       </c>
       <c r="G378" s="14">
         <v>0</v>
@@ -26218,8 +26218,8 @@
       <c r="E379" s="15">
         <v>3003</v>
       </c>
-      <c r="F379" s="14">
-        <v>1</v>
+      <c r="F379" s="16">
+        <v>2</v>
       </c>
       <c r="G379" s="14">
         <v>0</v>
@@ -26282,8 +26282,8 @@
       <c r="E380" s="15">
         <v>3003</v>
       </c>
-      <c r="F380" s="14">
-        <v>1</v>
+      <c r="F380" s="16">
+        <v>2</v>
       </c>
       <c r="G380" s="14">
         <v>0</v>
@@ -26346,8 +26346,8 @@
       <c r="E381" s="15">
         <v>3003</v>
       </c>
-      <c r="F381" s="14">
-        <v>1</v>
+      <c r="F381" s="16">
+        <v>2</v>
       </c>
       <c r="G381" s="14">
         <v>0</v>
@@ -26410,8 +26410,8 @@
       <c r="E382" s="15">
         <v>3003</v>
       </c>
-      <c r="F382" s="14">
-        <v>1</v>
+      <c r="F382" s="16">
+        <v>2</v>
       </c>
       <c r="G382" s="14">
         <v>0</v>
@@ -26474,8 +26474,8 @@
       <c r="E383" s="15">
         <v>3003</v>
       </c>
-      <c r="F383" s="14">
-        <v>1</v>
+      <c r="F383" s="16">
+        <v>2</v>
       </c>
       <c r="G383" s="14">
         <v>0</v>
@@ -26538,8 +26538,8 @@
       <c r="E384" s="15">
         <v>3003</v>
       </c>
-      <c r="F384" s="14">
-        <v>1</v>
+      <c r="F384" s="16">
+        <v>2</v>
       </c>
       <c r="G384" s="14">
         <v>0</v>
@@ -26602,8 +26602,8 @@
       <c r="E385" s="15">
         <v>3003</v>
       </c>
-      <c r="F385" s="14">
-        <v>1</v>
+      <c r="F385" s="16">
+        <v>2</v>
       </c>
       <c r="G385" s="14">
         <v>0</v>
@@ -26666,8 +26666,8 @@
       <c r="E386" s="15">
         <v>3003</v>
       </c>
-      <c r="F386" s="14">
-        <v>1</v>
+      <c r="F386" s="16">
+        <v>2</v>
       </c>
       <c r="G386" s="14">
         <v>0</v>
@@ -26730,8 +26730,8 @@
       <c r="E387" s="15">
         <v>3003</v>
       </c>
-      <c r="F387" s="14">
-        <v>1</v>
+      <c r="F387" s="16">
+        <v>2</v>
       </c>
       <c r="G387" s="14">
         <v>0</v>
@@ -26794,8 +26794,8 @@
       <c r="E388" s="15">
         <v>3003</v>
       </c>
-      <c r="F388" s="14">
-        <v>1</v>
+      <c r="F388" s="16">
+        <v>2</v>
       </c>
       <c r="G388" s="14">
         <v>0</v>
@@ -26858,8 +26858,8 @@
       <c r="E389" s="15">
         <v>3003</v>
       </c>
-      <c r="F389" s="14">
-        <v>1</v>
+      <c r="F389" s="16">
+        <v>2</v>
       </c>
       <c r="G389" s="14">
         <v>0</v>
@@ -26922,8 +26922,8 @@
       <c r="E390" s="15">
         <v>3003</v>
       </c>
-      <c r="F390" s="14">
-        <v>1</v>
+      <c r="F390" s="16">
+        <v>2</v>
       </c>
       <c r="G390" s="14">
         <v>0</v>
@@ -26986,8 +26986,8 @@
       <c r="E391" s="15">
         <v>3003</v>
       </c>
-      <c r="F391" s="14">
-        <v>1</v>
+      <c r="F391" s="16">
+        <v>2</v>
       </c>
       <c r="G391" s="14">
         <v>0</v>
@@ -27050,8 +27050,8 @@
       <c r="E392" s="15">
         <v>3003</v>
       </c>
-      <c r="F392" s="14">
-        <v>1</v>
+      <c r="F392" s="16">
+        <v>2</v>
       </c>
       <c r="G392" s="14">
         <v>0</v>
@@ -27114,8 +27114,8 @@
       <c r="E393" s="15">
         <v>3003</v>
       </c>
-      <c r="F393" s="14">
-        <v>1</v>
+      <c r="F393" s="16">
+        <v>2</v>
       </c>
       <c r="G393" s="14">
         <v>0</v>
@@ -27178,8 +27178,8 @@
       <c r="E394" s="15">
         <v>3003</v>
       </c>
-      <c r="F394" s="14">
-        <v>1</v>
+      <c r="F394" s="16">
+        <v>2</v>
       </c>
       <c r="G394" s="14">
         <v>0</v>
@@ -27242,8 +27242,8 @@
       <c r="E395" s="15">
         <v>3003</v>
       </c>
-      <c r="F395" s="14">
-        <v>1</v>
+      <c r="F395" s="16">
+        <v>2</v>
       </c>
       <c r="G395" s="14">
         <v>0</v>
@@ -27306,8 +27306,8 @@
       <c r="E396" s="15">
         <v>3003</v>
       </c>
-      <c r="F396" s="14">
-        <v>1</v>
+      <c r="F396" s="16">
+        <v>2</v>
       </c>
       <c r="G396" s="14">
         <v>0</v>
@@ -27370,8 +27370,8 @@
       <c r="E397" s="15">
         <v>3003</v>
       </c>
-      <c r="F397" s="14">
-        <v>1</v>
+      <c r="F397" s="16">
+        <v>2</v>
       </c>
       <c r="G397" s="14">
         <v>0</v>
@@ -27434,8 +27434,8 @@
       <c r="E398" s="15">
         <v>3003</v>
       </c>
-      <c r="F398" s="14">
-        <v>1</v>
+      <c r="F398" s="16">
+        <v>2</v>
       </c>
       <c r="G398" s="14">
         <v>0</v>
@@ -27498,8 +27498,8 @@
       <c r="E399" s="15">
         <v>3003</v>
       </c>
-      <c r="F399" s="14">
-        <v>1</v>
+      <c r="F399" s="16">
+        <v>2</v>
       </c>
       <c r="G399" s="14">
         <v>0</v>
@@ -27562,8 +27562,8 @@
       <c r="E400" s="15">
         <v>3003</v>
       </c>
-      <c r="F400" s="14">
-        <v>1</v>
+      <c r="F400" s="16">
+        <v>2</v>
       </c>
       <c r="G400" s="14">
         <v>0</v>
@@ -27626,8 +27626,8 @@
       <c r="E401" s="24">
         <v>3003</v>
       </c>
-      <c r="F401" s="23">
-        <v>1</v>
+      <c r="F401" s="16">
+        <v>2</v>
       </c>
       <c r="G401" s="23">
         <v>0</v>
@@ -27690,8 +27690,8 @@
       <c r="E402" s="15">
         <v>3004</v>
       </c>
-      <c r="F402" s="14">
-        <v>1</v>
+      <c r="F402" s="16">
+        <v>2</v>
       </c>
       <c r="G402" s="14">
         <v>0</v>
@@ -27754,8 +27754,8 @@
       <c r="E403" s="15">
         <v>3004</v>
       </c>
-      <c r="F403" s="14">
-        <v>1</v>
+      <c r="F403" s="16">
+        <v>2</v>
       </c>
       <c r="G403" s="14">
         <v>0</v>
@@ -27818,8 +27818,8 @@
       <c r="E404" s="15">
         <v>3004</v>
       </c>
-      <c r="F404" s="14">
-        <v>1</v>
+      <c r="F404" s="16">
+        <v>2</v>
       </c>
       <c r="G404" s="14">
         <v>0</v>
@@ -27882,8 +27882,8 @@
       <c r="E405" s="15">
         <v>3004</v>
       </c>
-      <c r="F405" s="14">
-        <v>1</v>
+      <c r="F405" s="16">
+        <v>2</v>
       </c>
       <c r="G405" s="14">
         <v>0</v>
@@ -27946,8 +27946,8 @@
       <c r="E406" s="15">
         <v>3004</v>
       </c>
-      <c r="F406" s="14">
-        <v>1</v>
+      <c r="F406" s="16">
+        <v>2</v>
       </c>
       <c r="G406" s="14">
         <v>0</v>
@@ -28010,8 +28010,8 @@
       <c r="E407" s="15">
         <v>3004</v>
       </c>
-      <c r="F407" s="14">
-        <v>1</v>
+      <c r="F407" s="16">
+        <v>2</v>
       </c>
       <c r="G407" s="14">
         <v>0</v>
@@ -28074,8 +28074,8 @@
       <c r="E408" s="15">
         <v>3004</v>
       </c>
-      <c r="F408" s="14">
-        <v>1</v>
+      <c r="F408" s="16">
+        <v>2</v>
       </c>
       <c r="G408" s="14">
         <v>0</v>
@@ -28138,8 +28138,8 @@
       <c r="E409" s="15">
         <v>3004</v>
       </c>
-      <c r="F409" s="14">
-        <v>1</v>
+      <c r="F409" s="16">
+        <v>2</v>
       </c>
       <c r="G409" s="14">
         <v>0</v>
@@ -28202,8 +28202,8 @@
       <c r="E410" s="15">
         <v>3004</v>
       </c>
-      <c r="F410" s="14">
-        <v>1</v>
+      <c r="F410" s="16">
+        <v>2</v>
       </c>
       <c r="G410" s="14">
         <v>0</v>
@@ -28266,8 +28266,8 @@
       <c r="E411" s="15">
         <v>3004</v>
       </c>
-      <c r="F411" s="14">
-        <v>1</v>
+      <c r="F411" s="16">
+        <v>2</v>
       </c>
       <c r="G411" s="14">
         <v>0</v>
@@ -28330,8 +28330,8 @@
       <c r="E412" s="15">
         <v>3004</v>
       </c>
-      <c r="F412" s="14">
-        <v>1</v>
+      <c r="F412" s="16">
+        <v>2</v>
       </c>
       <c r="G412" s="14">
         <v>0</v>
@@ -28394,8 +28394,8 @@
       <c r="E413" s="15">
         <v>3004</v>
       </c>
-      <c r="F413" s="14">
-        <v>1</v>
+      <c r="F413" s="16">
+        <v>2</v>
       </c>
       <c r="G413" s="14">
         <v>0</v>
@@ -28458,8 +28458,8 @@
       <c r="E414" s="15">
         <v>3004</v>
       </c>
-      <c r="F414" s="14">
-        <v>1</v>
+      <c r="F414" s="16">
+        <v>2</v>
       </c>
       <c r="G414" s="14">
         <v>0</v>
@@ -28522,8 +28522,8 @@
       <c r="E415" s="15">
         <v>3004</v>
       </c>
-      <c r="F415" s="14">
-        <v>1</v>
+      <c r="F415" s="16">
+        <v>2</v>
       </c>
       <c r="G415" s="14">
         <v>0</v>
@@ -28586,8 +28586,8 @@
       <c r="E416" s="15">
         <v>3004</v>
       </c>
-      <c r="F416" s="14">
-        <v>1</v>
+      <c r="F416" s="16">
+        <v>2</v>
       </c>
       <c r="G416" s="14">
         <v>0</v>
@@ -28650,8 +28650,8 @@
       <c r="E417" s="15">
         <v>3004</v>
       </c>
-      <c r="F417" s="14">
-        <v>1</v>
+      <c r="F417" s="16">
+        <v>2</v>
       </c>
       <c r="G417" s="14">
         <v>0</v>
@@ -28714,8 +28714,8 @@
       <c r="E418" s="15">
         <v>3004</v>
       </c>
-      <c r="F418" s="14">
-        <v>1</v>
+      <c r="F418" s="16">
+        <v>2</v>
       </c>
       <c r="G418" s="14">
         <v>0</v>
@@ -28778,8 +28778,8 @@
       <c r="E419" s="15">
         <v>3004</v>
       </c>
-      <c r="F419" s="14">
-        <v>1</v>
+      <c r="F419" s="16">
+        <v>2</v>
       </c>
       <c r="G419" s="14">
         <v>0</v>
@@ -28842,8 +28842,8 @@
       <c r="E420" s="15">
         <v>3004</v>
       </c>
-      <c r="F420" s="14">
-        <v>1</v>
+      <c r="F420" s="16">
+        <v>2</v>
       </c>
       <c r="G420" s="14">
         <v>0</v>
@@ -28906,8 +28906,8 @@
       <c r="E421" s="15">
         <v>3004</v>
       </c>
-      <c r="F421" s="14">
-        <v>1</v>
+      <c r="F421" s="16">
+        <v>2</v>
       </c>
       <c r="G421" s="14">
         <v>0</v>
@@ -28970,8 +28970,8 @@
       <c r="E422" s="15">
         <v>3004</v>
       </c>
-      <c r="F422" s="14">
-        <v>1</v>
+      <c r="F422" s="16">
+        <v>2</v>
       </c>
       <c r="G422" s="14">
         <v>0</v>
@@ -29034,8 +29034,8 @@
       <c r="E423" s="15">
         <v>3004</v>
       </c>
-      <c r="F423" s="14">
-        <v>1</v>
+      <c r="F423" s="16">
+        <v>2</v>
       </c>
       <c r="G423" s="14">
         <v>0</v>
@@ -29098,8 +29098,8 @@
       <c r="E424" s="15">
         <v>3004</v>
       </c>
-      <c r="F424" s="14">
-        <v>1</v>
+      <c r="F424" s="16">
+        <v>2</v>
       </c>
       <c r="G424" s="14">
         <v>0</v>
@@ -29162,8 +29162,8 @@
       <c r="E425" s="15">
         <v>3004</v>
       </c>
-      <c r="F425" s="14">
-        <v>1</v>
+      <c r="F425" s="16">
+        <v>2</v>
       </c>
       <c r="G425" s="14">
         <v>0</v>
@@ -29226,8 +29226,8 @@
       <c r="E426" s="24">
         <v>3004</v>
       </c>
-      <c r="F426" s="23">
-        <v>1</v>
+      <c r="F426" s="16">
+        <v>2</v>
       </c>
       <c r="G426" s="23">
         <v>0</v>
@@ -29290,8 +29290,8 @@
       <c r="E427" s="15">
         <v>3004</v>
       </c>
-      <c r="F427" s="14">
-        <v>1</v>
+      <c r="F427" s="16">
+        <v>2</v>
       </c>
       <c r="G427" s="14">
         <v>0</v>
@@ -29354,8 +29354,8 @@
       <c r="E428" s="15">
         <v>3004</v>
       </c>
-      <c r="F428" s="14">
-        <v>1</v>
+      <c r="F428" s="16">
+        <v>2</v>
       </c>
       <c r="G428" s="14">
         <v>0</v>
@@ -29418,8 +29418,8 @@
       <c r="E429" s="15">
         <v>3004</v>
       </c>
-      <c r="F429" s="14">
-        <v>1</v>
+      <c r="F429" s="16">
+        <v>2</v>
       </c>
       <c r="G429" s="14">
         <v>0</v>
@@ -29482,8 +29482,8 @@
       <c r="E430" s="15">
         <v>3004</v>
       </c>
-      <c r="F430" s="14">
-        <v>1</v>
+      <c r="F430" s="16">
+        <v>2</v>
       </c>
       <c r="G430" s="14">
         <v>0</v>
@@ -29546,8 +29546,8 @@
       <c r="E431" s="15">
         <v>3004</v>
       </c>
-      <c r="F431" s="14">
-        <v>1</v>
+      <c r="F431" s="16">
+        <v>2</v>
       </c>
       <c r="G431" s="14">
         <v>0</v>
@@ -29610,8 +29610,8 @@
       <c r="E432" s="15">
         <v>3004</v>
       </c>
-      <c r="F432" s="14">
-        <v>1</v>
+      <c r="F432" s="16">
+        <v>2</v>
       </c>
       <c r="G432" s="14">
         <v>0</v>
@@ -29674,8 +29674,8 @@
       <c r="E433" s="15">
         <v>3004</v>
       </c>
-      <c r="F433" s="14">
-        <v>1</v>
+      <c r="F433" s="16">
+        <v>2</v>
       </c>
       <c r="G433" s="14">
         <v>0</v>
@@ -29738,8 +29738,8 @@
       <c r="E434" s="15">
         <v>3004</v>
       </c>
-      <c r="F434" s="14">
-        <v>1</v>
+      <c r="F434" s="16">
+        <v>2</v>
       </c>
       <c r="G434" s="14">
         <v>0</v>
@@ -29802,8 +29802,8 @@
       <c r="E435" s="15">
         <v>3004</v>
       </c>
-      <c r="F435" s="14">
-        <v>1</v>
+      <c r="F435" s="16">
+        <v>2</v>
       </c>
       <c r="G435" s="14">
         <v>0</v>
@@ -29866,8 +29866,8 @@
       <c r="E436" s="15">
         <v>3004</v>
       </c>
-      <c r="F436" s="14">
-        <v>1</v>
+      <c r="F436" s="16">
+        <v>2</v>
       </c>
       <c r="G436" s="14">
         <v>0</v>
@@ -29930,8 +29930,8 @@
       <c r="E437" s="15">
         <v>3004</v>
       </c>
-      <c r="F437" s="14">
-        <v>1</v>
+      <c r="F437" s="16">
+        <v>2</v>
       </c>
       <c r="G437" s="14">
         <v>0</v>
@@ -29994,8 +29994,8 @@
       <c r="E438" s="15">
         <v>3004</v>
       </c>
-      <c r="F438" s="14">
-        <v>1</v>
+      <c r="F438" s="16">
+        <v>2</v>
       </c>
       <c r="G438" s="14">
         <v>0</v>
@@ -30058,8 +30058,8 @@
       <c r="E439" s="15">
         <v>3004</v>
       </c>
-      <c r="F439" s="14">
-        <v>1</v>
+      <c r="F439" s="16">
+        <v>2</v>
       </c>
       <c r="G439" s="14">
         <v>0</v>
@@ -30122,8 +30122,8 @@
       <c r="E440" s="15">
         <v>3004</v>
       </c>
-      <c r="F440" s="14">
-        <v>1</v>
+      <c r="F440" s="16">
+        <v>2</v>
       </c>
       <c r="G440" s="14">
         <v>0</v>
@@ -30186,8 +30186,8 @@
       <c r="E441" s="15">
         <v>3004</v>
       </c>
-      <c r="F441" s="14">
-        <v>1</v>
+      <c r="F441" s="16">
+        <v>2</v>
       </c>
       <c r="G441" s="14">
         <v>0</v>
@@ -30250,8 +30250,8 @@
       <c r="E442" s="15">
         <v>3004</v>
       </c>
-      <c r="F442" s="14">
-        <v>1</v>
+      <c r="F442" s="16">
+        <v>2</v>
       </c>
       <c r="G442" s="14">
         <v>0</v>
@@ -30314,8 +30314,8 @@
       <c r="E443" s="15">
         <v>3004</v>
       </c>
-      <c r="F443" s="14">
-        <v>1</v>
+      <c r="F443" s="16">
+        <v>2</v>
       </c>
       <c r="G443" s="14">
         <v>0</v>
@@ -30378,8 +30378,8 @@
       <c r="E444" s="15">
         <v>3004</v>
       </c>
-      <c r="F444" s="14">
-        <v>1</v>
+      <c r="F444" s="16">
+        <v>2</v>
       </c>
       <c r="G444" s="14">
         <v>0</v>
@@ -30442,8 +30442,8 @@
       <c r="E445" s="15">
         <v>3004</v>
       </c>
-      <c r="F445" s="14">
-        <v>1</v>
+      <c r="F445" s="16">
+        <v>2</v>
       </c>
       <c r="G445" s="14">
         <v>0</v>
@@ -30506,8 +30506,8 @@
       <c r="E446" s="15">
         <v>3004</v>
       </c>
-      <c r="F446" s="14">
-        <v>1</v>
+      <c r="F446" s="16">
+        <v>2</v>
       </c>
       <c r="G446" s="14">
         <v>0</v>
@@ -30570,8 +30570,8 @@
       <c r="E447" s="15">
         <v>3004</v>
       </c>
-      <c r="F447" s="14">
-        <v>1</v>
+      <c r="F447" s="16">
+        <v>2</v>
       </c>
       <c r="G447" s="14">
         <v>0</v>
@@ -30634,8 +30634,8 @@
       <c r="E448" s="15">
         <v>3004</v>
       </c>
-      <c r="F448" s="14">
-        <v>1</v>
+      <c r="F448" s="16">
+        <v>2</v>
       </c>
       <c r="G448" s="14">
         <v>0</v>
@@ -30698,8 +30698,8 @@
       <c r="E449" s="15">
         <v>3004</v>
       </c>
-      <c r="F449" s="14">
-        <v>1</v>
+      <c r="F449" s="16">
+        <v>2</v>
       </c>
       <c r="G449" s="14">
         <v>0</v>
@@ -30762,8 +30762,8 @@
       <c r="E450" s="15">
         <v>3004</v>
       </c>
-      <c r="F450" s="14">
-        <v>1</v>
+      <c r="F450" s="16">
+        <v>2</v>
       </c>
       <c r="G450" s="14">
         <v>0</v>
@@ -30826,8 +30826,8 @@
       <c r="E451" s="15">
         <v>3004</v>
       </c>
-      <c r="F451" s="14">
-        <v>1</v>
+      <c r="F451" s="16">
+        <v>2</v>
       </c>
       <c r="G451" s="14">
         <v>0</v>
@@ -30891,8 +30891,8 @@
       <c r="E452" s="28">
         <v>3004</v>
       </c>
-      <c r="F452" s="27">
-        <v>1</v>
+      <c r="F452" s="16">
+        <v>2</v>
       </c>
       <c r="G452" s="27">
         <v>0</v>
@@ -30957,8 +30957,8 @@
       <c r="E453" s="28">
         <v>3004</v>
       </c>
-      <c r="F453" s="27">
-        <v>1</v>
+      <c r="F453" s="16">
+        <v>2</v>
       </c>
       <c r="G453" s="27">
         <v>0</v>
@@ -31023,8 +31023,8 @@
       <c r="E454" s="28">
         <v>3004</v>
       </c>
-      <c r="F454" s="27">
-        <v>1</v>
+      <c r="F454" s="16">
+        <v>2</v>
       </c>
       <c r="G454" s="27">
         <v>0</v>
@@ -31089,8 +31089,8 @@
       <c r="E455" s="28">
         <v>3004</v>
       </c>
-      <c r="F455" s="27">
-        <v>1</v>
+      <c r="F455" s="16">
+        <v>2</v>
       </c>
       <c r="G455" s="27">
         <v>0</v>
@@ -31155,8 +31155,8 @@
       <c r="E456" s="28">
         <v>3004</v>
       </c>
-      <c r="F456" s="27">
-        <v>1</v>
+      <c r="F456" s="16">
+        <v>2</v>
       </c>
       <c r="G456" s="27">
         <v>0</v>
@@ -31221,8 +31221,8 @@
       <c r="E457" s="28">
         <v>3004</v>
       </c>
-      <c r="F457" s="27">
-        <v>1</v>
+      <c r="F457" s="16">
+        <v>2</v>
       </c>
       <c r="G457" s="27">
         <v>0</v>
@@ -31287,8 +31287,8 @@
       <c r="E458" s="28">
         <v>3004</v>
       </c>
-      <c r="F458" s="27">
-        <v>1</v>
+      <c r="F458" s="16">
+        <v>2</v>
       </c>
       <c r="G458" s="27">
         <v>0</v>
@@ -31353,8 +31353,8 @@
       <c r="E459" s="28">
         <v>3004</v>
       </c>
-      <c r="F459" s="27">
-        <v>1</v>
+      <c r="F459" s="16">
+        <v>2</v>
       </c>
       <c r="G459" s="27">
         <v>0</v>
@@ -31419,8 +31419,8 @@
       <c r="E460" s="28">
         <v>3004</v>
       </c>
-      <c r="F460" s="27">
-        <v>1</v>
+      <c r="F460" s="16">
+        <v>2</v>
       </c>
       <c r="G460" s="27">
         <v>0</v>
@@ -31485,8 +31485,8 @@
       <c r="E461" s="28">
         <v>3004</v>
       </c>
-      <c r="F461" s="27">
-        <v>1</v>
+      <c r="F461" s="16">
+        <v>2</v>
       </c>
       <c r="G461" s="27">
         <v>0</v>
@@ -31551,8 +31551,8 @@
       <c r="E462" s="28">
         <v>3004</v>
       </c>
-      <c r="F462" s="27">
-        <v>1</v>
+      <c r="F462" s="16">
+        <v>2</v>
       </c>
       <c r="G462" s="27">
         <v>0</v>
@@ -31617,8 +31617,8 @@
       <c r="E463" s="28">
         <v>3004</v>
       </c>
-      <c r="F463" s="27">
-        <v>1</v>
+      <c r="F463" s="16">
+        <v>2</v>
       </c>
       <c r="G463" s="27">
         <v>0</v>
@@ -31683,8 +31683,8 @@
       <c r="E464" s="28">
         <v>3004</v>
       </c>
-      <c r="F464" s="27">
-        <v>1</v>
+      <c r="F464" s="16">
+        <v>2</v>
       </c>
       <c r="G464" s="27">
         <v>0</v>
@@ -31749,8 +31749,8 @@
       <c r="E465" s="28">
         <v>3004</v>
       </c>
-      <c r="F465" s="27">
-        <v>1</v>
+      <c r="F465" s="16">
+        <v>2</v>
       </c>
       <c r="G465" s="27">
         <v>0</v>
@@ -31815,8 +31815,8 @@
       <c r="E466" s="28">
         <v>3004</v>
       </c>
-      <c r="F466" s="27">
-        <v>1</v>
+      <c r="F466" s="16">
+        <v>2</v>
       </c>
       <c r="G466" s="27">
         <v>0</v>
@@ -31881,8 +31881,8 @@
       <c r="E467" s="28">
         <v>3004</v>
       </c>
-      <c r="F467" s="27">
-        <v>1</v>
+      <c r="F467" s="16">
+        <v>2</v>
       </c>
       <c r="G467" s="27">
         <v>0</v>
@@ -31947,8 +31947,8 @@
       <c r="E468" s="28">
         <v>3004</v>
       </c>
-      <c r="F468" s="27">
-        <v>1</v>
+      <c r="F468" s="16">
+        <v>2</v>
       </c>
       <c r="G468" s="27">
         <v>0</v>
@@ -32013,8 +32013,8 @@
       <c r="E469" s="28">
         <v>3004</v>
       </c>
-      <c r="F469" s="27">
-        <v>1</v>
+      <c r="F469" s="16">
+        <v>2</v>
       </c>
       <c r="G469" s="27">
         <v>0</v>
@@ -32079,8 +32079,8 @@
       <c r="E470" s="28">
         <v>3004</v>
       </c>
-      <c r="F470" s="27">
-        <v>1</v>
+      <c r="F470" s="16">
+        <v>2</v>
       </c>
       <c r="G470" s="27">
         <v>0</v>
@@ -32145,8 +32145,8 @@
       <c r="E471" s="28">
         <v>3004</v>
       </c>
-      <c r="F471" s="27">
-        <v>1</v>
+      <c r="F471" s="16">
+        <v>2</v>
       </c>
       <c r="G471" s="27">
         <v>0</v>
@@ -32211,8 +32211,8 @@
       <c r="E472" s="28">
         <v>3004</v>
       </c>
-      <c r="F472" s="27">
-        <v>1</v>
+      <c r="F472" s="16">
+        <v>2</v>
       </c>
       <c r="G472" s="27">
         <v>0</v>
@@ -32277,8 +32277,8 @@
       <c r="E473" s="28">
         <v>3004</v>
       </c>
-      <c r="F473" s="27">
-        <v>1</v>
+      <c r="F473" s="16">
+        <v>2</v>
       </c>
       <c r="G473" s="27">
         <v>0</v>
@@ -32343,8 +32343,8 @@
       <c r="E474" s="28">
         <v>3004</v>
       </c>
-      <c r="F474" s="27">
-        <v>1</v>
+      <c r="F474" s="16">
+        <v>2</v>
       </c>
       <c r="G474" s="27">
         <v>0</v>
@@ -32409,8 +32409,8 @@
       <c r="E475" s="28">
         <v>3004</v>
       </c>
-      <c r="F475" s="27">
-        <v>1</v>
+      <c r="F475" s="16">
+        <v>2</v>
       </c>
       <c r="G475" s="27">
         <v>0</v>
@@ -32475,8 +32475,8 @@
       <c r="E476" s="28">
         <v>3004</v>
       </c>
-      <c r="F476" s="27">
-        <v>1</v>
+      <c r="F476" s="16">
+        <v>2</v>
       </c>
       <c r="G476" s="27">
         <v>0</v>
@@ -32541,8 +32541,8 @@
       <c r="E477" s="28">
         <v>3004</v>
       </c>
-      <c r="F477" s="27">
-        <v>1</v>
+      <c r="F477" s="16">
+        <v>2</v>
       </c>
       <c r="G477" s="27">
         <v>0</v>
@@ -32607,8 +32607,8 @@
       <c r="E478" s="28">
         <v>3004</v>
       </c>
-      <c r="F478" s="27">
-        <v>1</v>
+      <c r="F478" s="16">
+        <v>2</v>
       </c>
       <c r="G478" s="27">
         <v>0</v>
@@ -32673,8 +32673,8 @@
       <c r="E479" s="28">
         <v>3004</v>
       </c>
-      <c r="F479" s="27">
-        <v>1</v>
+      <c r="F479" s="16">
+        <v>2</v>
       </c>
       <c r="G479" s="27">
         <v>0</v>
@@ -32739,8 +32739,8 @@
       <c r="E480" s="28">
         <v>3004</v>
       </c>
-      <c r="F480" s="27">
-        <v>1</v>
+      <c r="F480" s="16">
+        <v>2</v>
       </c>
       <c r="G480" s="27">
         <v>0</v>
@@ -32805,8 +32805,8 @@
       <c r="E481" s="28">
         <v>3004</v>
       </c>
-      <c r="F481" s="27">
-        <v>1</v>
+      <c r="F481" s="16">
+        <v>2</v>
       </c>
       <c r="G481" s="27">
         <v>0</v>
@@ -32871,8 +32871,8 @@
       <c r="E482" s="28">
         <v>3004</v>
       </c>
-      <c r="F482" s="27">
-        <v>1</v>
+      <c r="F482" s="16">
+        <v>2</v>
       </c>
       <c r="G482" s="27">
         <v>0</v>
@@ -32937,8 +32937,8 @@
       <c r="E483" s="28">
         <v>3004</v>
       </c>
-      <c r="F483" s="27">
-        <v>1</v>
+      <c r="F483" s="16">
+        <v>2</v>
       </c>
       <c r="G483" s="27">
         <v>0</v>
@@ -33003,8 +33003,8 @@
       <c r="E484" s="28">
         <v>3004</v>
       </c>
-      <c r="F484" s="27">
-        <v>1</v>
+      <c r="F484" s="16">
+        <v>2</v>
       </c>
       <c r="G484" s="27">
         <v>0</v>
@@ -33069,8 +33069,8 @@
       <c r="E485" s="28">
         <v>3004</v>
       </c>
-      <c r="F485" s="27">
-        <v>1</v>
+      <c r="F485" s="16">
+        <v>2</v>
       </c>
       <c r="G485" s="27">
         <v>0</v>
@@ -33135,8 +33135,8 @@
       <c r="E486" s="28">
         <v>3004</v>
       </c>
-      <c r="F486" s="27">
-        <v>1</v>
+      <c r="F486" s="16">
+        <v>2</v>
       </c>
       <c r="G486" s="27">
         <v>0</v>
@@ -33201,8 +33201,8 @@
       <c r="E487" s="28">
         <v>3004</v>
       </c>
-      <c r="F487" s="27">
-        <v>1</v>
+      <c r="F487" s="16">
+        <v>2</v>
       </c>
       <c r="G487" s="27">
         <v>0</v>
@@ -33267,8 +33267,8 @@
       <c r="E488" s="28">
         <v>3004</v>
       </c>
-      <c r="F488" s="27">
-        <v>1</v>
+      <c r="F488" s="16">
+        <v>2</v>
       </c>
       <c r="G488" s="27">
         <v>0</v>
@@ -33333,8 +33333,8 @@
       <c r="E489" s="28">
         <v>3004</v>
       </c>
-      <c r="F489" s="27">
-        <v>1</v>
+      <c r="F489" s="16">
+        <v>2</v>
       </c>
       <c r="G489" s="27">
         <v>0</v>
@@ -33399,8 +33399,8 @@
       <c r="E490" s="28">
         <v>3004</v>
       </c>
-      <c r="F490" s="27">
-        <v>1</v>
+      <c r="F490" s="16">
+        <v>2</v>
       </c>
       <c r="G490" s="27">
         <v>0</v>
@@ -33465,8 +33465,8 @@
       <c r="E491" s="28">
         <v>3004</v>
       </c>
-      <c r="F491" s="27">
-        <v>1</v>
+      <c r="F491" s="16">
+        <v>2</v>
       </c>
       <c r="G491" s="27">
         <v>0</v>
@@ -33531,8 +33531,8 @@
       <c r="E492" s="28">
         <v>3004</v>
       </c>
-      <c r="F492" s="27">
-        <v>1</v>
+      <c r="F492" s="16">
+        <v>2</v>
       </c>
       <c r="G492" s="27">
         <v>0</v>
@@ -33597,8 +33597,8 @@
       <c r="E493" s="28">
         <v>3004</v>
       </c>
-      <c r="F493" s="27">
-        <v>1</v>
+      <c r="F493" s="16">
+        <v>2</v>
       </c>
       <c r="G493" s="27">
         <v>0</v>
@@ -33663,8 +33663,8 @@
       <c r="E494" s="28">
         <v>3004</v>
       </c>
-      <c r="F494" s="27">
-        <v>1</v>
+      <c r="F494" s="16">
+        <v>2</v>
       </c>
       <c r="G494" s="27">
         <v>0</v>
@@ -33729,8 +33729,8 @@
       <c r="E495" s="28">
         <v>3004</v>
       </c>
-      <c r="F495" s="27">
-        <v>1</v>
+      <c r="F495" s="16">
+        <v>2</v>
       </c>
       <c r="G495" s="27">
         <v>0</v>
@@ -33795,8 +33795,8 @@
       <c r="E496" s="28">
         <v>3004</v>
       </c>
-      <c r="F496" s="27">
-        <v>1</v>
+      <c r="F496" s="16">
+        <v>2</v>
       </c>
       <c r="G496" s="27">
         <v>0</v>
@@ -33861,8 +33861,8 @@
       <c r="E497" s="28">
         <v>3004</v>
       </c>
-      <c r="F497" s="27">
-        <v>1</v>
+      <c r="F497" s="16">
+        <v>2</v>
       </c>
       <c r="G497" s="27">
         <v>0</v>
@@ -33927,8 +33927,8 @@
       <c r="E498" s="28">
         <v>3004</v>
       </c>
-      <c r="F498" s="27">
-        <v>1</v>
+      <c r="F498" s="16">
+        <v>2</v>
       </c>
       <c r="G498" s="27">
         <v>0</v>
@@ -33993,8 +33993,8 @@
       <c r="E499" s="28">
         <v>3004</v>
       </c>
-      <c r="F499" s="27">
-        <v>1</v>
+      <c r="F499" s="16">
+        <v>2</v>
       </c>
       <c r="G499" s="27">
         <v>0</v>
@@ -34059,8 +34059,8 @@
       <c r="E500" s="28">
         <v>3004</v>
       </c>
-      <c r="F500" s="27">
-        <v>1</v>
+      <c r="F500" s="16">
+        <v>2</v>
       </c>
       <c r="G500" s="27">
         <v>0</v>
@@ -34125,8 +34125,8 @@
       <c r="E501" s="28">
         <v>3004</v>
       </c>
-      <c r="F501" s="27">
-        <v>1</v>
+      <c r="F501" s="16">
+        <v>2</v>
       </c>
       <c r="G501" s="27">
         <v>0</v>
@@ -34191,8 +34191,8 @@
       <c r="E502" s="28">
         <v>3004</v>
       </c>
-      <c r="F502" s="27">
-        <v>1</v>
+      <c r="F502" s="16">
+        <v>2</v>
       </c>
       <c r="G502" s="27">
         <v>0</v>
@@ -34257,8 +34257,8 @@
       <c r="E503" s="28">
         <v>3004</v>
       </c>
-      <c r="F503" s="27">
-        <v>1</v>
+      <c r="F503" s="16">
+        <v>2</v>
       </c>
       <c r="G503" s="27">
         <v>0</v>
@@ -34323,8 +34323,8 @@
       <c r="E504" s="28">
         <v>3004</v>
       </c>
-      <c r="F504" s="27">
-        <v>1</v>
+      <c r="F504" s="16">
+        <v>2</v>
       </c>
       <c r="G504" s="27">
         <v>0</v>
@@ -34389,8 +34389,8 @@
       <c r="E505" s="28">
         <v>3004</v>
       </c>
-      <c r="F505" s="27">
-        <v>1</v>
+      <c r="F505" s="16">
+        <v>2</v>
       </c>
       <c r="G505" s="27">
         <v>0</v>
@@ -34455,8 +34455,8 @@
       <c r="E506" s="28">
         <v>3004</v>
       </c>
-      <c r="F506" s="27">
-        <v>1</v>
+      <c r="F506" s="16">
+        <v>2</v>
       </c>
       <c r="G506" s="27">
         <v>0</v>
@@ -34521,8 +34521,8 @@
       <c r="E507" s="28">
         <v>3004</v>
       </c>
-      <c r="F507" s="27">
-        <v>1</v>
+      <c r="F507" s="16">
+        <v>2</v>
       </c>
       <c r="G507" s="27">
         <v>0</v>
@@ -34587,8 +34587,8 @@
       <c r="E508" s="28">
         <v>3004</v>
       </c>
-      <c r="F508" s="27">
-        <v>1</v>
+      <c r="F508" s="16">
+        <v>2</v>
       </c>
       <c r="G508" s="27">
         <v>0</v>
@@ -34653,8 +34653,8 @@
       <c r="E509" s="28">
         <v>3004</v>
       </c>
-      <c r="F509" s="27">
-        <v>1</v>
+      <c r="F509" s="16">
+        <v>2</v>
       </c>
       <c r="G509" s="27">
         <v>0</v>
@@ -34719,8 +34719,8 @@
       <c r="E510" s="28">
         <v>3004</v>
       </c>
-      <c r="F510" s="27">
-        <v>1</v>
+      <c r="F510" s="16">
+        <v>2</v>
       </c>
       <c r="G510" s="27">
         <v>0</v>
@@ -34785,8 +34785,8 @@
       <c r="E511" s="28">
         <v>3004</v>
       </c>
-      <c r="F511" s="27">
-        <v>1</v>
+      <c r="F511" s="16">
+        <v>2</v>
       </c>
       <c r="G511" s="27">
         <v>0</v>
@@ -34851,8 +34851,8 @@
       <c r="E512" s="28">
         <v>3004</v>
       </c>
-      <c r="F512" s="27">
-        <v>1</v>
+      <c r="F512" s="16">
+        <v>2</v>
       </c>
       <c r="G512" s="27">
         <v>0</v>
@@ -34917,8 +34917,8 @@
       <c r="E513" s="28">
         <v>3004</v>
       </c>
-      <c r="F513" s="27">
-        <v>1</v>
+      <c r="F513" s="16">
+        <v>2</v>
       </c>
       <c r="G513" s="27">
         <v>0</v>
@@ -34983,8 +34983,8 @@
       <c r="E514" s="28">
         <v>3004</v>
       </c>
-      <c r="F514" s="27">
-        <v>1</v>
+      <c r="F514" s="16">
+        <v>2</v>
       </c>
       <c r="G514" s="27">
         <v>0</v>
@@ -35049,8 +35049,8 @@
       <c r="E515" s="28">
         <v>3004</v>
       </c>
-      <c r="F515" s="27">
-        <v>1</v>
+      <c r="F515" s="16">
+        <v>2</v>
       </c>
       <c r="G515" s="27">
         <v>0</v>
@@ -35115,8 +35115,8 @@
       <c r="E516" s="28">
         <v>3004</v>
       </c>
-      <c r="F516" s="27">
-        <v>1</v>
+      <c r="F516" s="16">
+        <v>2</v>
       </c>
       <c r="G516" s="27">
         <v>0</v>
@@ -35181,8 +35181,8 @@
       <c r="E517" s="28">
         <v>3004</v>
       </c>
-      <c r="F517" s="27">
-        <v>1</v>
+      <c r="F517" s="16">
+        <v>2</v>
       </c>
       <c r="G517" s="27">
         <v>0</v>
@@ -35247,8 +35247,8 @@
       <c r="E518" s="28">
         <v>3004</v>
       </c>
-      <c r="F518" s="27">
-        <v>1</v>
+      <c r="F518" s="16">
+        <v>2</v>
       </c>
       <c r="G518" s="27">
         <v>0</v>
@@ -35313,8 +35313,8 @@
       <c r="E519" s="28">
         <v>3004</v>
       </c>
-      <c r="F519" s="27">
-        <v>1</v>
+      <c r="F519" s="16">
+        <v>2</v>
       </c>
       <c r="G519" s="27">
         <v>0</v>
@@ -35379,8 +35379,8 @@
       <c r="E520" s="28">
         <v>3004</v>
       </c>
-      <c r="F520" s="27">
-        <v>1</v>
+      <c r="F520" s="16">
+        <v>2</v>
       </c>
       <c r="G520" s="27">
         <v>0</v>
@@ -35445,8 +35445,8 @@
       <c r="E521" s="28">
         <v>3004</v>
       </c>
-      <c r="F521" s="27">
-        <v>1</v>
+      <c r="F521" s="16">
+        <v>2</v>
       </c>
       <c r="G521" s="27">
         <v>0</v>
@@ -35511,8 +35511,8 @@
       <c r="E522" s="28">
         <v>3004</v>
       </c>
-      <c r="F522" s="27">
-        <v>1</v>
+      <c r="F522" s="16">
+        <v>2</v>
       </c>
       <c r="G522" s="27">
         <v>0</v>
@@ -35577,8 +35577,8 @@
       <c r="E523" s="28">
         <v>3004</v>
       </c>
-      <c r="F523" s="27">
-        <v>1</v>
+      <c r="F523" s="16">
+        <v>2</v>
       </c>
       <c r="G523" s="27">
         <v>0</v>
@@ -35643,8 +35643,8 @@
       <c r="E524" s="28">
         <v>3004</v>
       </c>
-      <c r="F524" s="27">
-        <v>1</v>
+      <c r="F524" s="16">
+        <v>2</v>
       </c>
       <c r="G524" s="27">
         <v>0</v>
@@ -35709,8 +35709,8 @@
       <c r="E525" s="28">
         <v>3004</v>
       </c>
-      <c r="F525" s="27">
-        <v>1</v>
+      <c r="F525" s="16">
+        <v>2</v>
       </c>
       <c r="G525" s="27">
         <v>0</v>
@@ -35775,8 +35775,8 @@
       <c r="E526" s="28">
         <v>3004</v>
       </c>
-      <c r="F526" s="27">
-        <v>1</v>
+      <c r="F526" s="16">
+        <v>2</v>
       </c>
       <c r="G526" s="27">
         <v>0</v>
@@ -35841,8 +35841,8 @@
       <c r="E527" s="28">
         <v>3004</v>
       </c>
-      <c r="F527" s="27">
-        <v>1</v>
+      <c r="F527" s="16">
+        <v>2</v>
       </c>
       <c r="G527" s="27">
         <v>0</v>
@@ -35907,8 +35907,8 @@
       <c r="E528" s="28">
         <v>3004</v>
       </c>
-      <c r="F528" s="27">
-        <v>1</v>
+      <c r="F528" s="16">
+        <v>2</v>
       </c>
       <c r="G528" s="27">
         <v>0</v>
@@ -35973,8 +35973,8 @@
       <c r="E529" s="28">
         <v>3004</v>
       </c>
-      <c r="F529" s="27">
-        <v>1</v>
+      <c r="F529" s="16">
+        <v>2</v>
       </c>
       <c r="G529" s="27">
         <v>0</v>
@@ -36039,8 +36039,8 @@
       <c r="E530" s="28">
         <v>3004</v>
       </c>
-      <c r="F530" s="27">
-        <v>1</v>
+      <c r="F530" s="16">
+        <v>2</v>
       </c>
       <c r="G530" s="27">
         <v>0</v>
@@ -36105,8 +36105,8 @@
       <c r="E531" s="28">
         <v>3004</v>
       </c>
-      <c r="F531" s="27">
-        <v>1</v>
+      <c r="F531" s="16">
+        <v>2</v>
       </c>
       <c r="G531" s="27">
         <v>0</v>
@@ -36171,8 +36171,8 @@
       <c r="E532" s="28">
         <v>3004</v>
       </c>
-      <c r="F532" s="27">
-        <v>1</v>
+      <c r="F532" s="16">
+        <v>2</v>
       </c>
       <c r="G532" s="27">
         <v>0</v>
@@ -36237,8 +36237,8 @@
       <c r="E533" s="28">
         <v>3004</v>
       </c>
-      <c r="F533" s="27">
-        <v>1</v>
+      <c r="F533" s="16">
+        <v>2</v>
       </c>
       <c r="G533" s="27">
         <v>0</v>
@@ -36303,8 +36303,8 @@
       <c r="E534" s="28">
         <v>3004</v>
       </c>
-      <c r="F534" s="27">
-        <v>1</v>
+      <c r="F534" s="16">
+        <v>2</v>
       </c>
       <c r="G534" s="27">
         <v>0</v>
@@ -36369,8 +36369,8 @@
       <c r="E535" s="28">
         <v>3004</v>
       </c>
-      <c r="F535" s="27">
-        <v>1</v>
+      <c r="F535" s="16">
+        <v>2</v>
       </c>
       <c r="G535" s="27">
         <v>0</v>
@@ -36435,8 +36435,8 @@
       <c r="E536" s="28">
         <v>3004</v>
       </c>
-      <c r="F536" s="27">
-        <v>1</v>
+      <c r="F536" s="16">
+        <v>2</v>
       </c>
       <c r="G536" s="27">
         <v>0</v>
@@ -36501,8 +36501,8 @@
       <c r="E537" s="28">
         <v>3004</v>
       </c>
-      <c r="F537" s="27">
-        <v>1</v>
+      <c r="F537" s="16">
+        <v>2</v>
       </c>
       <c r="G537" s="27">
         <v>0</v>
@@ -36567,8 +36567,8 @@
       <c r="E538" s="28">
         <v>3004</v>
       </c>
-      <c r="F538" s="27">
-        <v>1</v>
+      <c r="F538" s="16">
+        <v>2</v>
       </c>
       <c r="G538" s="27">
         <v>0</v>
@@ -36633,8 +36633,8 @@
       <c r="E539" s="28">
         <v>3004</v>
       </c>
-      <c r="F539" s="27">
-        <v>1</v>
+      <c r="F539" s="16">
+        <v>2</v>
       </c>
       <c r="G539" s="27">
         <v>0</v>
@@ -36699,8 +36699,8 @@
       <c r="E540" s="28">
         <v>3004</v>
       </c>
-      <c r="F540" s="27">
-        <v>1</v>
+      <c r="F540" s="16">
+        <v>2</v>
       </c>
       <c r="G540" s="27">
         <v>0</v>
@@ -36765,8 +36765,8 @@
       <c r="E541" s="28">
         <v>3004</v>
       </c>
-      <c r="F541" s="27">
-        <v>1</v>
+      <c r="F541" s="16">
+        <v>2</v>
       </c>
       <c r="G541" s="27">
         <v>0</v>
@@ -36831,8 +36831,8 @@
       <c r="E542" s="28">
         <v>3004</v>
       </c>
-      <c r="F542" s="27">
-        <v>1</v>
+      <c r="F542" s="16">
+        <v>2</v>
       </c>
       <c r="G542" s="27">
         <v>0</v>
@@ -36897,8 +36897,8 @@
       <c r="E543" s="28">
         <v>3004</v>
       </c>
-      <c r="F543" s="27">
-        <v>1</v>
+      <c r="F543" s="16">
+        <v>2</v>
       </c>
       <c r="G543" s="27">
         <v>0</v>
@@ -36963,8 +36963,8 @@
       <c r="E544" s="28">
         <v>3004</v>
       </c>
-      <c r="F544" s="27">
-        <v>1</v>
+      <c r="F544" s="16">
+        <v>2</v>
       </c>
       <c r="G544" s="27">
         <v>0</v>
@@ -37029,8 +37029,8 @@
       <c r="E545" s="28">
         <v>3004</v>
       </c>
-      <c r="F545" s="27">
-        <v>1</v>
+      <c r="F545" s="16">
+        <v>2</v>
       </c>
       <c r="G545" s="27">
         <v>0</v>
@@ -37095,8 +37095,8 @@
       <c r="E546" s="28">
         <v>3004</v>
       </c>
-      <c r="F546" s="27">
-        <v>1</v>
+      <c r="F546" s="16">
+        <v>2</v>
       </c>
       <c r="G546" s="27">
         <v>0</v>
@@ -37161,8 +37161,8 @@
       <c r="E547" s="28">
         <v>3004</v>
       </c>
-      <c r="F547" s="27">
-        <v>1</v>
+      <c r="F547" s="16">
+        <v>2</v>
       </c>
       <c r="G547" s="27">
         <v>0</v>
@@ -37227,8 +37227,8 @@
       <c r="E548" s="28">
         <v>3004</v>
       </c>
-      <c r="F548" s="27">
-        <v>1</v>
+      <c r="F548" s="16">
+        <v>2</v>
       </c>
       <c r="G548" s="27">
         <v>0</v>
@@ -37293,8 +37293,8 @@
       <c r="E549" s="28">
         <v>3004</v>
       </c>
-      <c r="F549" s="27">
-        <v>1</v>
+      <c r="F549" s="16">
+        <v>2</v>
       </c>
       <c r="G549" s="27">
         <v>0</v>
@@ -37359,8 +37359,8 @@
       <c r="E550" s="28">
         <v>3004</v>
       </c>
-      <c r="F550" s="27">
-        <v>1</v>
+      <c r="F550" s="16">
+        <v>2</v>
       </c>
       <c r="G550" s="27">
         <v>0</v>
@@ -37425,8 +37425,8 @@
       <c r="E551" s="28">
         <v>3004</v>
       </c>
-      <c r="F551" s="27">
-        <v>1</v>
+      <c r="F551" s="16">
+        <v>2</v>
       </c>
       <c r="G551" s="27">
         <v>0</v>
@@ -37490,8 +37490,8 @@
       <c r="E552" s="31">
         <v>3004</v>
       </c>
-      <c r="F552" s="30">
-        <v>0</v>
+      <c r="F552" s="16">
+        <v>2</v>
       </c>
       <c r="G552" s="30">
         <v>0</v>
@@ -37555,8 +37555,8 @@
       <c r="E553" s="31">
         <v>3004</v>
       </c>
-      <c r="F553" s="30">
-        <v>0</v>
+      <c r="F553" s="16">
+        <v>2</v>
       </c>
       <c r="G553" s="30">
         <v>0</v>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="483">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1526,6 +1526,50 @@
   </si>
   <si>
     <t>skill18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华南虎的技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨斧将的技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀兵斥候的技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持矛偏将的技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩马将的技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操的技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞的技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽的技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄忠的技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东北虎的技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甄姬的技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1583,7 +1627,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1626,6 +1670,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1657,7 +1707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1701,11 +1751,27 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2008,10 +2074,10 @@
   <dimension ref="A1:W559"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D428" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D440" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A434" sqref="A434"/>
+      <selection pane="bottomRight" activeCell="C460" sqref="C460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -31741,9 +31807,8 @@
       <c r="B458" s="27">
         <v>1</v>
       </c>
-      <c r="C458" s="27" t="str">
-        <f>"等级为"&amp;A458-9999&amp;"的怪物"</f>
-        <v>等级为1的怪物</v>
+      <c r="C458" s="35" t="s">
+        <v>472</v>
       </c>
       <c r="D458" s="27" t="s">
         <v>438</v>
@@ -31807,9 +31872,8 @@
       <c r="B459" s="27">
         <v>1</v>
       </c>
-      <c r="C459" s="27" t="str">
-        <f t="shared" ref="C459:C504" si="18">"等级为"&amp;A459-9999&amp;"的怪物"</f>
-        <v>等级为2的怪物</v>
+      <c r="C459" s="35" t="s">
+        <v>473</v>
       </c>
       <c r="D459" s="27" t="s">
         <v>438</v>
@@ -31862,7 +31926,7 @@
       </c>
       <c r="U459" s="27"/>
       <c r="V459" s="27" t="str">
-        <f t="shared" ref="V459:V559" si="19">"skill"&amp;A459</f>
+        <f t="shared" ref="V459:V559" si="18">"skill"&amp;A459</f>
         <v>skill10001</v>
       </c>
     </row>
@@ -31873,9 +31937,8 @@
       <c r="B460" s="27">
         <v>1</v>
       </c>
-      <c r="C460" s="27" t="str">
-        <f t="shared" si="18"/>
-        <v>等级为3的怪物</v>
+      <c r="C460" s="35" t="s">
+        <v>474</v>
       </c>
       <c r="D460" s="27" t="s">
         <v>443</v>
@@ -31928,7 +31991,7 @@
       </c>
       <c r="U460" s="27"/>
       <c r="V460" s="27" t="str">
-        <f t="shared" ref="V460:V504" si="20">"skill"&amp;A460</f>
+        <f t="shared" ref="V460:V504" si="19">"skill"&amp;A460</f>
         <v>skill10002</v>
       </c>
     </row>
@@ -31939,9 +32002,8 @@
       <c r="B461" s="27">
         <v>1</v>
       </c>
-      <c r="C461" s="27" t="str">
-        <f t="shared" si="18"/>
-        <v>等级为4的怪物</v>
+      <c r="C461" s="35" t="s">
+        <v>475</v>
       </c>
       <c r="D461" s="27" t="s">
         <v>443</v>
@@ -31994,7 +32056,7 @@
       </c>
       <c r="U461" s="27"/>
       <c r="V461" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10003</v>
       </c>
     </row>
@@ -32005,9 +32067,8 @@
       <c r="B462" s="27">
         <v>1</v>
       </c>
-      <c r="C462" s="27" t="str">
-        <f t="shared" si="18"/>
-        <v>等级为5的怪物</v>
+      <c r="C462" s="35" t="s">
+        <v>476</v>
       </c>
       <c r="D462" s="27" t="s">
         <v>443</v>
@@ -32060,7 +32121,7 @@
       </c>
       <c r="U462" s="27"/>
       <c r="V462" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10004</v>
       </c>
     </row>
@@ -32071,9 +32132,8 @@
       <c r="B463" s="27">
         <v>1</v>
       </c>
-      <c r="C463" s="27" t="str">
-        <f t="shared" si="18"/>
-        <v>等级为6的怪物</v>
+      <c r="C463" s="35" t="s">
+        <v>477</v>
       </c>
       <c r="D463" s="27" t="s">
         <v>443</v>
@@ -32126,7 +32186,7 @@
       </c>
       <c r="U463" s="27"/>
       <c r="V463" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10005</v>
       </c>
     </row>
@@ -32137,9 +32197,8 @@
       <c r="B464" s="27">
         <v>1</v>
       </c>
-      <c r="C464" s="27" t="str">
-        <f t="shared" si="18"/>
-        <v>等级为7的怪物</v>
+      <c r="C464" s="35" t="s">
+        <v>478</v>
       </c>
       <c r="D464" s="27" t="s">
         <v>443</v>
@@ -32192,7 +32251,7 @@
       </c>
       <c r="U464" s="27"/>
       <c r="V464" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10006</v>
       </c>
     </row>
@@ -32203,9 +32262,8 @@
       <c r="B465" s="27">
         <v>1</v>
       </c>
-      <c r="C465" s="27" t="str">
-        <f t="shared" si="18"/>
-        <v>等级为8的怪物</v>
+      <c r="C465" s="35" t="s">
+        <v>479</v>
       </c>
       <c r="D465" s="27" t="s">
         <v>443</v>
@@ -32258,7 +32316,7 @@
       </c>
       <c r="U465" s="27"/>
       <c r="V465" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10007</v>
       </c>
     </row>
@@ -32269,9 +32327,8 @@
       <c r="B466" s="27">
         <v>1</v>
       </c>
-      <c r="C466" s="27" t="str">
-        <f t="shared" si="18"/>
-        <v>等级为9的怪物</v>
+      <c r="C466" s="35" t="s">
+        <v>480</v>
       </c>
       <c r="D466" s="27" t="s">
         <v>443</v>
@@ -32324,7 +32381,7 @@
       </c>
       <c r="U466" s="27"/>
       <c r="V466" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10008</v>
       </c>
     </row>
@@ -32335,9 +32392,8 @@
       <c r="B467" s="27">
         <v>1</v>
       </c>
-      <c r="C467" s="27" t="str">
-        <f t="shared" si="18"/>
-        <v>等级为10的怪物</v>
+      <c r="C467" s="35" t="s">
+        <v>481</v>
       </c>
       <c r="D467" s="27" t="s">
         <v>443</v>
@@ -32390,7 +32446,7 @@
       </c>
       <c r="U467" s="27"/>
       <c r="V467" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10009</v>
       </c>
     </row>
@@ -32401,9 +32457,8 @@
       <c r="B468" s="27">
         <v>1</v>
       </c>
-      <c r="C468" s="27" t="str">
-        <f t="shared" si="18"/>
-        <v>等级为11的怪物</v>
+      <c r="C468" s="35" t="s">
+        <v>482</v>
       </c>
       <c r="D468" s="27" t="s">
         <v>443</v>
@@ -32456,7 +32511,7 @@
       </c>
       <c r="U468" s="27"/>
       <c r="V468" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10010</v>
       </c>
     </row>
@@ -32468,7 +32523,7 @@
         <v>1</v>
       </c>
       <c r="C469" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="C459:C504" si="20">"等级为"&amp;A469-9999&amp;"的怪物"</f>
         <v>等级为12的怪物</v>
       </c>
       <c r="D469" s="27" t="s">
@@ -32522,7 +32577,7 @@
       </c>
       <c r="U469" s="27"/>
       <c r="V469" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10011</v>
       </c>
     </row>
@@ -32534,7 +32589,7 @@
         <v>1</v>
       </c>
       <c r="C470" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为13的怪物</v>
       </c>
       <c r="D470" s="27" t="s">
@@ -32588,7 +32643,7 @@
       </c>
       <c r="U470" s="27"/>
       <c r="V470" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10012</v>
       </c>
     </row>
@@ -32600,7 +32655,7 @@
         <v>1</v>
       </c>
       <c r="C471" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为14的怪物</v>
       </c>
       <c r="D471" s="27" t="s">
@@ -32654,7 +32709,7 @@
       </c>
       <c r="U471" s="27"/>
       <c r="V471" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10013</v>
       </c>
     </row>
@@ -32666,7 +32721,7 @@
         <v>1</v>
       </c>
       <c r="C472" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为15的怪物</v>
       </c>
       <c r="D472" s="27" t="s">
@@ -32720,7 +32775,7 @@
       </c>
       <c r="U472" s="27"/>
       <c r="V472" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10014</v>
       </c>
     </row>
@@ -32732,7 +32787,7 @@
         <v>1</v>
       </c>
       <c r="C473" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为16的怪物</v>
       </c>
       <c r="D473" s="27" t="s">
@@ -32786,7 +32841,7 @@
       </c>
       <c r="U473" s="27"/>
       <c r="V473" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10015</v>
       </c>
     </row>
@@ -32798,7 +32853,7 @@
         <v>1</v>
       </c>
       <c r="C474" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为17的怪物</v>
       </c>
       <c r="D474" s="27" t="s">
@@ -32852,7 +32907,7 @@
       </c>
       <c r="U474" s="27"/>
       <c r="V474" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10016</v>
       </c>
     </row>
@@ -32864,7 +32919,7 @@
         <v>1</v>
       </c>
       <c r="C475" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为18的怪物</v>
       </c>
       <c r="D475" s="27" t="s">
@@ -32918,7 +32973,7 @@
       </c>
       <c r="U475" s="27"/>
       <c r="V475" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10017</v>
       </c>
     </row>
@@ -32930,7 +32985,7 @@
         <v>1</v>
       </c>
       <c r="C476" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为19的怪物</v>
       </c>
       <c r="D476" s="27" t="s">
@@ -32984,7 +33039,7 @@
       </c>
       <c r="U476" s="27"/>
       <c r="V476" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10018</v>
       </c>
     </row>
@@ -32996,7 +33051,7 @@
         <v>1</v>
       </c>
       <c r="C477" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为20的怪物</v>
       </c>
       <c r="D477" s="27" t="s">
@@ -33050,7 +33105,7 @@
       </c>
       <c r="U477" s="27"/>
       <c r="V477" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10019</v>
       </c>
     </row>
@@ -33062,7 +33117,7 @@
         <v>1</v>
       </c>
       <c r="C478" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为21的怪物</v>
       </c>
       <c r="D478" s="27" t="s">
@@ -33116,7 +33171,7 @@
       </c>
       <c r="U478" s="27"/>
       <c r="V478" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10020</v>
       </c>
     </row>
@@ -33128,7 +33183,7 @@
         <v>1</v>
       </c>
       <c r="C479" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为22的怪物</v>
       </c>
       <c r="D479" s="27" t="s">
@@ -33182,7 +33237,7 @@
       </c>
       <c r="U479" s="27"/>
       <c r="V479" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10021</v>
       </c>
     </row>
@@ -33194,7 +33249,7 @@
         <v>1</v>
       </c>
       <c r="C480" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为23的怪物</v>
       </c>
       <c r="D480" s="27" t="s">
@@ -33248,7 +33303,7 @@
       </c>
       <c r="U480" s="27"/>
       <c r="V480" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10022</v>
       </c>
     </row>
@@ -33260,7 +33315,7 @@
         <v>1</v>
       </c>
       <c r="C481" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为24的怪物</v>
       </c>
       <c r="D481" s="27" t="s">
@@ -33314,7 +33369,7 @@
       </c>
       <c r="U481" s="27"/>
       <c r="V481" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10023</v>
       </c>
     </row>
@@ -33326,7 +33381,7 @@
         <v>1</v>
       </c>
       <c r="C482" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为25的怪物</v>
       </c>
       <c r="D482" s="27" t="s">
@@ -33380,7 +33435,7 @@
       </c>
       <c r="U482" s="27"/>
       <c r="V482" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10024</v>
       </c>
     </row>
@@ -33392,7 +33447,7 @@
         <v>1</v>
       </c>
       <c r="C483" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为26的怪物</v>
       </c>
       <c r="D483" s="27" t="s">
@@ -33446,7 +33501,7 @@
       </c>
       <c r="U483" s="27"/>
       <c r="V483" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10025</v>
       </c>
     </row>
@@ -33458,7 +33513,7 @@
         <v>1</v>
       </c>
       <c r="C484" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为27的怪物</v>
       </c>
       <c r="D484" s="27" t="s">
@@ -33512,7 +33567,7 @@
       </c>
       <c r="U484" s="27"/>
       <c r="V484" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10026</v>
       </c>
     </row>
@@ -33524,7 +33579,7 @@
         <v>1</v>
       </c>
       <c r="C485" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为28的怪物</v>
       </c>
       <c r="D485" s="27" t="s">
@@ -33578,7 +33633,7 @@
       </c>
       <c r="U485" s="27"/>
       <c r="V485" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10027</v>
       </c>
     </row>
@@ -33590,7 +33645,7 @@
         <v>1</v>
       </c>
       <c r="C486" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为29的怪物</v>
       </c>
       <c r="D486" s="27" t="s">
@@ -33644,7 +33699,7 @@
       </c>
       <c r="U486" s="27"/>
       <c r="V486" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10028</v>
       </c>
     </row>
@@ -33656,7 +33711,7 @@
         <v>1</v>
       </c>
       <c r="C487" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为30的怪物</v>
       </c>
       <c r="D487" s="27" t="s">
@@ -33710,7 +33765,7 @@
       </c>
       <c r="U487" s="27"/>
       <c r="V487" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10029</v>
       </c>
     </row>
@@ -33722,7 +33777,7 @@
         <v>1</v>
       </c>
       <c r="C488" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为31的怪物</v>
       </c>
       <c r="D488" s="27" t="s">
@@ -33776,7 +33831,7 @@
       </c>
       <c r="U488" s="27"/>
       <c r="V488" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10030</v>
       </c>
     </row>
@@ -33788,7 +33843,7 @@
         <v>1</v>
       </c>
       <c r="C489" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为32的怪物</v>
       </c>
       <c r="D489" s="27" t="s">
@@ -33842,7 +33897,7 @@
       </c>
       <c r="U489" s="27"/>
       <c r="V489" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10031</v>
       </c>
     </row>
@@ -33854,7 +33909,7 @@
         <v>1</v>
       </c>
       <c r="C490" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为33的怪物</v>
       </c>
       <c r="D490" s="27" t="s">
@@ -33908,7 +33963,7 @@
       </c>
       <c r="U490" s="27"/>
       <c r="V490" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10032</v>
       </c>
     </row>
@@ -33920,7 +33975,7 @@
         <v>1</v>
       </c>
       <c r="C491" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为34的怪物</v>
       </c>
       <c r="D491" s="27" t="s">
@@ -33974,7 +34029,7 @@
       </c>
       <c r="U491" s="27"/>
       <c r="V491" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10033</v>
       </c>
     </row>
@@ -33986,7 +34041,7 @@
         <v>1</v>
       </c>
       <c r="C492" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为35的怪物</v>
       </c>
       <c r="D492" s="27" t="s">
@@ -34040,7 +34095,7 @@
       </c>
       <c r="U492" s="27"/>
       <c r="V492" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10034</v>
       </c>
     </row>
@@ -34052,7 +34107,7 @@
         <v>1</v>
       </c>
       <c r="C493" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为36的怪物</v>
       </c>
       <c r="D493" s="27" t="s">
@@ -34106,7 +34161,7 @@
       </c>
       <c r="U493" s="27"/>
       <c r="V493" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10035</v>
       </c>
     </row>
@@ -34118,7 +34173,7 @@
         <v>1</v>
       </c>
       <c r="C494" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为37的怪物</v>
       </c>
       <c r="D494" s="27" t="s">
@@ -34172,7 +34227,7 @@
       </c>
       <c r="U494" s="27"/>
       <c r="V494" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10036</v>
       </c>
     </row>
@@ -34184,7 +34239,7 @@
         <v>1</v>
       </c>
       <c r="C495" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为38的怪物</v>
       </c>
       <c r="D495" s="27" t="s">
@@ -34238,7 +34293,7 @@
       </c>
       <c r="U495" s="27"/>
       <c r="V495" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10037</v>
       </c>
     </row>
@@ -34250,7 +34305,7 @@
         <v>1</v>
       </c>
       <c r="C496" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为39的怪物</v>
       </c>
       <c r="D496" s="27" t="s">
@@ -34304,7 +34359,7 @@
       </c>
       <c r="U496" s="27"/>
       <c r="V496" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10038</v>
       </c>
     </row>
@@ -34316,7 +34371,7 @@
         <v>1</v>
       </c>
       <c r="C497" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为40的怪物</v>
       </c>
       <c r="D497" s="27" t="s">
@@ -34370,7 +34425,7 @@
       </c>
       <c r="U497" s="27"/>
       <c r="V497" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10039</v>
       </c>
     </row>
@@ -34382,7 +34437,7 @@
         <v>1</v>
       </c>
       <c r="C498" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为41的怪物</v>
       </c>
       <c r="D498" s="27" t="s">
@@ -34436,7 +34491,7 @@
       </c>
       <c r="U498" s="27"/>
       <c r="V498" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10040</v>
       </c>
     </row>
@@ -34448,7 +34503,7 @@
         <v>1</v>
       </c>
       <c r="C499" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为42的怪物</v>
       </c>
       <c r="D499" s="27" t="s">
@@ -34502,7 +34557,7 @@
       </c>
       <c r="U499" s="27"/>
       <c r="V499" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10041</v>
       </c>
     </row>
@@ -34514,7 +34569,7 @@
         <v>1</v>
       </c>
       <c r="C500" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为43的怪物</v>
       </c>
       <c r="D500" s="27" t="s">
@@ -34568,7 +34623,7 @@
       </c>
       <c r="U500" s="27"/>
       <c r="V500" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10042</v>
       </c>
     </row>
@@ -34580,7 +34635,7 @@
         <v>1</v>
       </c>
       <c r="C501" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为44的怪物</v>
       </c>
       <c r="D501" s="27" t="s">
@@ -34634,7 +34689,7 @@
       </c>
       <c r="U501" s="27"/>
       <c r="V501" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10043</v>
       </c>
     </row>
@@ -34646,7 +34701,7 @@
         <v>1</v>
       </c>
       <c r="C502" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为45的怪物</v>
       </c>
       <c r="D502" s="27" t="s">
@@ -34700,7 +34755,7 @@
       </c>
       <c r="U502" s="27"/>
       <c r="V502" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10044</v>
       </c>
     </row>
@@ -34712,7 +34767,7 @@
         <v>1</v>
       </c>
       <c r="C503" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为46的怪物</v>
       </c>
       <c r="D503" s="27" t="s">
@@ -34766,7 +34821,7 @@
       </c>
       <c r="U503" s="27"/>
       <c r="V503" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10045</v>
       </c>
     </row>
@@ -34778,7 +34833,7 @@
         <v>1</v>
       </c>
       <c r="C504" s="27" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>等级为47的怪物</v>
       </c>
       <c r="D504" s="27" t="s">
@@ -34832,7 +34887,7 @@
       </c>
       <c r="U504" s="27"/>
       <c r="V504" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>skill10046</v>
       </c>
     </row>
@@ -38395,7 +38450,7 @@
       </c>
       <c r="U558" s="30"/>
       <c r="V558" s="30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>skill20000</v>
       </c>
     </row>
@@ -38460,12 +38515,17 @@
       </c>
       <c r="U559" s="30"/>
       <c r="V559" s="30" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>skill20001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C466:C468">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="472">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1526,50 +1526,6 @@
   </si>
   <si>
     <t>skill18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华南虎的技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨斧将的技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀兵斥候的技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持矛偏将的技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斩马将的技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹操的技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张飞的技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关羽的技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄忠的技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>东北虎的技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甄姬的技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1627,7 +1583,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1670,12 +1626,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1707,7 +1657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1751,27 +1701,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2074,10 +2008,10 @@
   <dimension ref="A1:W559"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D440" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D428" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C460" sqref="C460"/>
+      <selection pane="bottomRight" activeCell="A434" sqref="A434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -31807,8 +31741,9 @@
       <c r="B458" s="27">
         <v>1</v>
       </c>
-      <c r="C458" s="35" t="s">
-        <v>472</v>
+      <c r="C458" s="27" t="str">
+        <f>"等级为"&amp;A458-9999&amp;"的怪物"</f>
+        <v>等级为1的怪物</v>
       </c>
       <c r="D458" s="27" t="s">
         <v>438</v>
@@ -31872,8 +31807,9 @@
       <c r="B459" s="27">
         <v>1</v>
       </c>
-      <c r="C459" s="35" t="s">
-        <v>473</v>
+      <c r="C459" s="27" t="str">
+        <f t="shared" ref="C459:C504" si="18">"等级为"&amp;A459-9999&amp;"的怪物"</f>
+        <v>等级为2的怪物</v>
       </c>
       <c r="D459" s="27" t="s">
         <v>438</v>
@@ -31926,7 +31862,7 @@
       </c>
       <c r="U459" s="27"/>
       <c r="V459" s="27" t="str">
-        <f t="shared" ref="V459:V559" si="18">"skill"&amp;A459</f>
+        <f t="shared" ref="V459:V559" si="19">"skill"&amp;A459</f>
         <v>skill10001</v>
       </c>
     </row>
@@ -31937,8 +31873,9 @@
       <c r="B460" s="27">
         <v>1</v>
       </c>
-      <c r="C460" s="35" t="s">
-        <v>474</v>
+      <c r="C460" s="27" t="str">
+        <f t="shared" si="18"/>
+        <v>等级为3的怪物</v>
       </c>
       <c r="D460" s="27" t="s">
         <v>443</v>
@@ -31991,7 +31928,7 @@
       </c>
       <c r="U460" s="27"/>
       <c r="V460" s="27" t="str">
-        <f t="shared" ref="V460:V504" si="19">"skill"&amp;A460</f>
+        <f t="shared" ref="V460:V504" si="20">"skill"&amp;A460</f>
         <v>skill10002</v>
       </c>
     </row>
@@ -32002,8 +31939,9 @@
       <c r="B461" s="27">
         <v>1</v>
       </c>
-      <c r="C461" s="35" t="s">
-        <v>475</v>
+      <c r="C461" s="27" t="str">
+        <f t="shared" si="18"/>
+        <v>等级为4的怪物</v>
       </c>
       <c r="D461" s="27" t="s">
         <v>443</v>
@@ -32056,7 +31994,7 @@
       </c>
       <c r="U461" s="27"/>
       <c r="V461" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10003</v>
       </c>
     </row>
@@ -32067,8 +32005,9 @@
       <c r="B462" s="27">
         <v>1</v>
       </c>
-      <c r="C462" s="35" t="s">
-        <v>476</v>
+      <c r="C462" s="27" t="str">
+        <f t="shared" si="18"/>
+        <v>等级为5的怪物</v>
       </c>
       <c r="D462" s="27" t="s">
         <v>443</v>
@@ -32121,7 +32060,7 @@
       </c>
       <c r="U462" s="27"/>
       <c r="V462" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10004</v>
       </c>
     </row>
@@ -32132,8 +32071,9 @@
       <c r="B463" s="27">
         <v>1</v>
       </c>
-      <c r="C463" s="35" t="s">
-        <v>477</v>
+      <c r="C463" s="27" t="str">
+        <f t="shared" si="18"/>
+        <v>等级为6的怪物</v>
       </c>
       <c r="D463" s="27" t="s">
         <v>443</v>
@@ -32186,7 +32126,7 @@
       </c>
       <c r="U463" s="27"/>
       <c r="V463" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10005</v>
       </c>
     </row>
@@ -32197,8 +32137,9 @@
       <c r="B464" s="27">
         <v>1</v>
       </c>
-      <c r="C464" s="35" t="s">
-        <v>478</v>
+      <c r="C464" s="27" t="str">
+        <f t="shared" si="18"/>
+        <v>等级为7的怪物</v>
       </c>
       <c r="D464" s="27" t="s">
         <v>443</v>
@@ -32251,7 +32192,7 @@
       </c>
       <c r="U464" s="27"/>
       <c r="V464" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10006</v>
       </c>
     </row>
@@ -32262,8 +32203,9 @@
       <c r="B465" s="27">
         <v>1</v>
       </c>
-      <c r="C465" s="35" t="s">
-        <v>479</v>
+      <c r="C465" s="27" t="str">
+        <f t="shared" si="18"/>
+        <v>等级为8的怪物</v>
       </c>
       <c r="D465" s="27" t="s">
         <v>443</v>
@@ -32316,7 +32258,7 @@
       </c>
       <c r="U465" s="27"/>
       <c r="V465" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10007</v>
       </c>
     </row>
@@ -32327,8 +32269,9 @@
       <c r="B466" s="27">
         <v>1</v>
       </c>
-      <c r="C466" s="35" t="s">
-        <v>480</v>
+      <c r="C466" s="27" t="str">
+        <f t="shared" si="18"/>
+        <v>等级为9的怪物</v>
       </c>
       <c r="D466" s="27" t="s">
         <v>443</v>
@@ -32381,7 +32324,7 @@
       </c>
       <c r="U466" s="27"/>
       <c r="V466" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10008</v>
       </c>
     </row>
@@ -32392,8 +32335,9 @@
       <c r="B467" s="27">
         <v>1</v>
       </c>
-      <c r="C467" s="35" t="s">
-        <v>481</v>
+      <c r="C467" s="27" t="str">
+        <f t="shared" si="18"/>
+        <v>等级为10的怪物</v>
       </c>
       <c r="D467" s="27" t="s">
         <v>443</v>
@@ -32446,7 +32390,7 @@
       </c>
       <c r="U467" s="27"/>
       <c r="V467" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10009</v>
       </c>
     </row>
@@ -32457,8 +32401,9 @@
       <c r="B468" s="27">
         <v>1</v>
       </c>
-      <c r="C468" s="35" t="s">
-        <v>482</v>
+      <c r="C468" s="27" t="str">
+        <f t="shared" si="18"/>
+        <v>等级为11的怪物</v>
       </c>
       <c r="D468" s="27" t="s">
         <v>443</v>
@@ -32511,7 +32456,7 @@
       </c>
       <c r="U468" s="27"/>
       <c r="V468" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10010</v>
       </c>
     </row>
@@ -32523,7 +32468,7 @@
         <v>1</v>
       </c>
       <c r="C469" s="27" t="str">
-        <f t="shared" ref="C459:C504" si="20">"等级为"&amp;A469-9999&amp;"的怪物"</f>
+        <f t="shared" si="18"/>
         <v>等级为12的怪物</v>
       </c>
       <c r="D469" s="27" t="s">
@@ -32577,7 +32522,7 @@
       </c>
       <c r="U469" s="27"/>
       <c r="V469" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10011</v>
       </c>
     </row>
@@ -32589,7 +32534,7 @@
         <v>1</v>
       </c>
       <c r="C470" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为13的怪物</v>
       </c>
       <c r="D470" s="27" t="s">
@@ -32643,7 +32588,7 @@
       </c>
       <c r="U470" s="27"/>
       <c r="V470" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10012</v>
       </c>
     </row>
@@ -32655,7 +32600,7 @@
         <v>1</v>
       </c>
       <c r="C471" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为14的怪物</v>
       </c>
       <c r="D471" s="27" t="s">
@@ -32709,7 +32654,7 @@
       </c>
       <c r="U471" s="27"/>
       <c r="V471" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10013</v>
       </c>
     </row>
@@ -32721,7 +32666,7 @@
         <v>1</v>
       </c>
       <c r="C472" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为15的怪物</v>
       </c>
       <c r="D472" s="27" t="s">
@@ -32775,7 +32720,7 @@
       </c>
       <c r="U472" s="27"/>
       <c r="V472" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10014</v>
       </c>
     </row>
@@ -32787,7 +32732,7 @@
         <v>1</v>
       </c>
       <c r="C473" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为16的怪物</v>
       </c>
       <c r="D473" s="27" t="s">
@@ -32841,7 +32786,7 @@
       </c>
       <c r="U473" s="27"/>
       <c r="V473" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10015</v>
       </c>
     </row>
@@ -32853,7 +32798,7 @@
         <v>1</v>
       </c>
       <c r="C474" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为17的怪物</v>
       </c>
       <c r="D474" s="27" t="s">
@@ -32907,7 +32852,7 @@
       </c>
       <c r="U474" s="27"/>
       <c r="V474" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10016</v>
       </c>
     </row>
@@ -32919,7 +32864,7 @@
         <v>1</v>
       </c>
       <c r="C475" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为18的怪物</v>
       </c>
       <c r="D475" s="27" t="s">
@@ -32973,7 +32918,7 @@
       </c>
       <c r="U475" s="27"/>
       <c r="V475" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10017</v>
       </c>
     </row>
@@ -32985,7 +32930,7 @@
         <v>1</v>
       </c>
       <c r="C476" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为19的怪物</v>
       </c>
       <c r="D476" s="27" t="s">
@@ -33039,7 +32984,7 @@
       </c>
       <c r="U476" s="27"/>
       <c r="V476" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10018</v>
       </c>
     </row>
@@ -33051,7 +32996,7 @@
         <v>1</v>
       </c>
       <c r="C477" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为20的怪物</v>
       </c>
       <c r="D477" s="27" t="s">
@@ -33105,7 +33050,7 @@
       </c>
       <c r="U477" s="27"/>
       <c r="V477" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10019</v>
       </c>
     </row>
@@ -33117,7 +33062,7 @@
         <v>1</v>
       </c>
       <c r="C478" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为21的怪物</v>
       </c>
       <c r="D478" s="27" t="s">
@@ -33171,7 +33116,7 @@
       </c>
       <c r="U478" s="27"/>
       <c r="V478" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10020</v>
       </c>
     </row>
@@ -33183,7 +33128,7 @@
         <v>1</v>
       </c>
       <c r="C479" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为22的怪物</v>
       </c>
       <c r="D479" s="27" t="s">
@@ -33237,7 +33182,7 @@
       </c>
       <c r="U479" s="27"/>
       <c r="V479" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10021</v>
       </c>
     </row>
@@ -33249,7 +33194,7 @@
         <v>1</v>
       </c>
       <c r="C480" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为23的怪物</v>
       </c>
       <c r="D480" s="27" t="s">
@@ -33303,7 +33248,7 @@
       </c>
       <c r="U480" s="27"/>
       <c r="V480" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10022</v>
       </c>
     </row>
@@ -33315,7 +33260,7 @@
         <v>1</v>
       </c>
       <c r="C481" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为24的怪物</v>
       </c>
       <c r="D481" s="27" t="s">
@@ -33369,7 +33314,7 @@
       </c>
       <c r="U481" s="27"/>
       <c r="V481" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10023</v>
       </c>
     </row>
@@ -33381,7 +33326,7 @@
         <v>1</v>
       </c>
       <c r="C482" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为25的怪物</v>
       </c>
       <c r="D482" s="27" t="s">
@@ -33435,7 +33380,7 @@
       </c>
       <c r="U482" s="27"/>
       <c r="V482" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10024</v>
       </c>
     </row>
@@ -33447,7 +33392,7 @@
         <v>1</v>
       </c>
       <c r="C483" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为26的怪物</v>
       </c>
       <c r="D483" s="27" t="s">
@@ -33501,7 +33446,7 @@
       </c>
       <c r="U483" s="27"/>
       <c r="V483" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10025</v>
       </c>
     </row>
@@ -33513,7 +33458,7 @@
         <v>1</v>
       </c>
       <c r="C484" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为27的怪物</v>
       </c>
       <c r="D484" s="27" t="s">
@@ -33567,7 +33512,7 @@
       </c>
       <c r="U484" s="27"/>
       <c r="V484" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10026</v>
       </c>
     </row>
@@ -33579,7 +33524,7 @@
         <v>1</v>
       </c>
       <c r="C485" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为28的怪物</v>
       </c>
       <c r="D485" s="27" t="s">
@@ -33633,7 +33578,7 @@
       </c>
       <c r="U485" s="27"/>
       <c r="V485" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10027</v>
       </c>
     </row>
@@ -33645,7 +33590,7 @@
         <v>1</v>
       </c>
       <c r="C486" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为29的怪物</v>
       </c>
       <c r="D486" s="27" t="s">
@@ -33699,7 +33644,7 @@
       </c>
       <c r="U486" s="27"/>
       <c r="V486" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10028</v>
       </c>
     </row>
@@ -33711,7 +33656,7 @@
         <v>1</v>
       </c>
       <c r="C487" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为30的怪物</v>
       </c>
       <c r="D487" s="27" t="s">
@@ -33765,7 +33710,7 @@
       </c>
       <c r="U487" s="27"/>
       <c r="V487" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10029</v>
       </c>
     </row>
@@ -33777,7 +33722,7 @@
         <v>1</v>
       </c>
       <c r="C488" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为31的怪物</v>
       </c>
       <c r="D488" s="27" t="s">
@@ -33831,7 +33776,7 @@
       </c>
       <c r="U488" s="27"/>
       <c r="V488" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10030</v>
       </c>
     </row>
@@ -33843,7 +33788,7 @@
         <v>1</v>
       </c>
       <c r="C489" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为32的怪物</v>
       </c>
       <c r="D489" s="27" t="s">
@@ -33897,7 +33842,7 @@
       </c>
       <c r="U489" s="27"/>
       <c r="V489" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10031</v>
       </c>
     </row>
@@ -33909,7 +33854,7 @@
         <v>1</v>
       </c>
       <c r="C490" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为33的怪物</v>
       </c>
       <c r="D490" s="27" t="s">
@@ -33963,7 +33908,7 @@
       </c>
       <c r="U490" s="27"/>
       <c r="V490" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10032</v>
       </c>
     </row>
@@ -33975,7 +33920,7 @@
         <v>1</v>
       </c>
       <c r="C491" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为34的怪物</v>
       </c>
       <c r="D491" s="27" t="s">
@@ -34029,7 +33974,7 @@
       </c>
       <c r="U491" s="27"/>
       <c r="V491" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10033</v>
       </c>
     </row>
@@ -34041,7 +33986,7 @@
         <v>1</v>
       </c>
       <c r="C492" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为35的怪物</v>
       </c>
       <c r="D492" s="27" t="s">
@@ -34095,7 +34040,7 @@
       </c>
       <c r="U492" s="27"/>
       <c r="V492" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10034</v>
       </c>
     </row>
@@ -34107,7 +34052,7 @@
         <v>1</v>
       </c>
       <c r="C493" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为36的怪物</v>
       </c>
       <c r="D493" s="27" t="s">
@@ -34161,7 +34106,7 @@
       </c>
       <c r="U493" s="27"/>
       <c r="V493" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10035</v>
       </c>
     </row>
@@ -34173,7 +34118,7 @@
         <v>1</v>
       </c>
       <c r="C494" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为37的怪物</v>
       </c>
       <c r="D494" s="27" t="s">
@@ -34227,7 +34172,7 @@
       </c>
       <c r="U494" s="27"/>
       <c r="V494" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10036</v>
       </c>
     </row>
@@ -34239,7 +34184,7 @@
         <v>1</v>
       </c>
       <c r="C495" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为38的怪物</v>
       </c>
       <c r="D495" s="27" t="s">
@@ -34293,7 +34238,7 @@
       </c>
       <c r="U495" s="27"/>
       <c r="V495" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10037</v>
       </c>
     </row>
@@ -34305,7 +34250,7 @@
         <v>1</v>
       </c>
       <c r="C496" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为39的怪物</v>
       </c>
       <c r="D496" s="27" t="s">
@@ -34359,7 +34304,7 @@
       </c>
       <c r="U496" s="27"/>
       <c r="V496" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10038</v>
       </c>
     </row>
@@ -34371,7 +34316,7 @@
         <v>1</v>
       </c>
       <c r="C497" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为40的怪物</v>
       </c>
       <c r="D497" s="27" t="s">
@@ -34425,7 +34370,7 @@
       </c>
       <c r="U497" s="27"/>
       <c r="V497" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10039</v>
       </c>
     </row>
@@ -34437,7 +34382,7 @@
         <v>1</v>
       </c>
       <c r="C498" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为41的怪物</v>
       </c>
       <c r="D498" s="27" t="s">
@@ -34491,7 +34436,7 @@
       </c>
       <c r="U498" s="27"/>
       <c r="V498" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10040</v>
       </c>
     </row>
@@ -34503,7 +34448,7 @@
         <v>1</v>
       </c>
       <c r="C499" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为42的怪物</v>
       </c>
       <c r="D499" s="27" t="s">
@@ -34557,7 +34502,7 @@
       </c>
       <c r="U499" s="27"/>
       <c r="V499" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10041</v>
       </c>
     </row>
@@ -34569,7 +34514,7 @@
         <v>1</v>
       </c>
       <c r="C500" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为43的怪物</v>
       </c>
       <c r="D500" s="27" t="s">
@@ -34623,7 +34568,7 @@
       </c>
       <c r="U500" s="27"/>
       <c r="V500" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10042</v>
       </c>
     </row>
@@ -34635,7 +34580,7 @@
         <v>1</v>
       </c>
       <c r="C501" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为44的怪物</v>
       </c>
       <c r="D501" s="27" t="s">
@@ -34689,7 +34634,7 @@
       </c>
       <c r="U501" s="27"/>
       <c r="V501" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10043</v>
       </c>
     </row>
@@ -34701,7 +34646,7 @@
         <v>1</v>
       </c>
       <c r="C502" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为45的怪物</v>
       </c>
       <c r="D502" s="27" t="s">
@@ -34755,7 +34700,7 @@
       </c>
       <c r="U502" s="27"/>
       <c r="V502" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10044</v>
       </c>
     </row>
@@ -34767,7 +34712,7 @@
         <v>1</v>
       </c>
       <c r="C503" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为46的怪物</v>
       </c>
       <c r="D503" s="27" t="s">
@@ -34821,7 +34766,7 @@
       </c>
       <c r="U503" s="27"/>
       <c r="V503" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10045</v>
       </c>
     </row>
@@ -34833,7 +34778,7 @@
         <v>1</v>
       </c>
       <c r="C504" s="27" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>等级为47的怪物</v>
       </c>
       <c r="D504" s="27" t="s">
@@ -34887,7 +34832,7 @@
       </c>
       <c r="U504" s="27"/>
       <c r="V504" s="27" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>skill10046</v>
       </c>
     </row>
@@ -38450,7 +38395,7 @@
       </c>
       <c r="U558" s="30"/>
       <c r="V558" s="30" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>skill20000</v>
       </c>
     </row>
@@ -38515,17 +38460,12 @@
       </c>
       <c r="U559" s="30"/>
       <c r="V559" s="30" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>skill20001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C466:C468">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1526" uniqueCount="473">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1526,6 +1526,10 @@
   </si>
   <si>
     <t>skill18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2008,10 +2012,10 @@
   <dimension ref="A1:W559"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D428" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A434" sqref="A434"/>
+      <selection pane="bottomRight" activeCell="R290" sqref="R290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2087,7 +2091,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>13</v>
+        <v>472</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>14</v>
@@ -2281,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T4" s="16">
         <v>1</v>
@@ -2346,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T5" s="16">
         <v>1</v>
@@ -2411,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T6" s="16">
         <v>1</v>
@@ -2476,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T7" s="16">
         <v>1</v>
@@ -2541,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T8" s="16">
         <v>1</v>
@@ -2606,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T9" s="16">
         <v>1</v>
@@ -2671,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T10" s="16">
         <v>1</v>
@@ -2736,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T11" s="16">
         <v>1</v>
@@ -2801,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T12" s="16">
         <v>1</v>
@@ -2866,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T13" s="16">
         <v>1</v>
@@ -2931,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T14" s="16">
         <v>1</v>
@@ -2996,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T15" s="16">
         <v>1</v>
@@ -3061,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T16" s="16">
         <v>1</v>
@@ -3126,7 +3130,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T17" s="16">
         <v>1</v>
@@ -3191,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T18" s="16">
         <v>1</v>
@@ -3256,7 +3260,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T19" s="16">
         <v>1</v>
@@ -3321,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T20" s="16">
         <v>1</v>
@@ -3386,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T21" s="16">
         <v>1</v>
@@ -3451,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T22" s="16">
         <v>1</v>
@@ -3516,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T23" s="16">
         <v>1</v>
@@ -3581,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T24" s="16">
         <v>1</v>
@@ -3646,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T25" s="16">
         <v>1</v>
@@ -3711,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T26" s="16">
         <v>1</v>
@@ -3776,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="16">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T27" s="16">
         <v>1</v>
@@ -3841,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="18">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T28" s="18">
         <v>1</v>
@@ -3906,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T29" s="12">
         <v>1</v>
@@ -3971,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T30" s="12">
         <v>1</v>
@@ -4036,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T31" s="12">
         <v>1</v>
@@ -4101,7 +4105,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T32" s="12">
         <v>1</v>
@@ -4166,7 +4170,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T33" s="12">
         <v>1</v>
@@ -4231,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T34" s="12">
         <v>1</v>
@@ -4296,7 +4300,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T35" s="12">
         <v>1</v>
@@ -4361,7 +4365,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T36" s="12">
         <v>1</v>
@@ -4426,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T37" s="12">
         <v>1</v>
@@ -4491,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T38" s="12">
         <v>1</v>
@@ -4556,7 +4560,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T39" s="12">
         <v>1</v>
@@ -4621,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T40" s="12">
         <v>1</v>
@@ -4686,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T41" s="12">
         <v>1</v>
@@ -4751,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T42" s="12">
         <v>1</v>
@@ -4816,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T43" s="12">
         <v>1</v>
@@ -4881,7 +4885,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T44" s="12">
         <v>1</v>
@@ -4946,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T45" s="12">
         <v>1</v>
@@ -5011,7 +5015,7 @@
         <v>1</v>
       </c>
       <c r="S46" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T46" s="12">
         <v>1</v>
@@ -5076,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="S47" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T47" s="12">
         <v>1</v>
@@ -5141,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T48" s="12">
         <v>1</v>
@@ -5206,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="S49" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T49" s="12">
         <v>1</v>
@@ -5271,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T50" s="12">
         <v>1</v>
@@ -5336,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T51" s="12">
         <v>1</v>
@@ -5401,7 +5405,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="12">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T52" s="12">
         <v>1</v>
@@ -5466,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="S53" s="18">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T53" s="18">
         <v>1</v>
@@ -5531,7 +5535,7 @@
         <v>2</v>
       </c>
       <c r="S54" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T54" s="12">
         <v>1</v>
@@ -5596,7 +5600,7 @@
         <v>1</v>
       </c>
       <c r="S55" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T55" s="12">
         <v>1</v>
@@ -5661,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="S56" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T56" s="12">
         <v>1</v>
@@ -5726,7 +5730,7 @@
         <v>1</v>
       </c>
       <c r="S57" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T57" s="12">
         <v>1</v>
@@ -5791,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="S58" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T58" s="12">
         <v>1</v>
@@ -5856,7 +5860,7 @@
         <v>1</v>
       </c>
       <c r="S59" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T59" s="12">
         <v>1</v>
@@ -5921,7 +5925,7 @@
         <v>1</v>
       </c>
       <c r="S60" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T60" s="12">
         <v>1</v>
@@ -5986,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="S61" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T61" s="12">
         <v>1</v>
@@ -6051,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="S62" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T62" s="12">
         <v>1</v>
@@ -6116,7 +6120,7 @@
         <v>1</v>
       </c>
       <c r="S63" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T63" s="12">
         <v>1</v>
@@ -6181,7 +6185,7 @@
         <v>1</v>
       </c>
       <c r="S64" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T64" s="12">
         <v>1</v>
@@ -6246,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="S65" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T65" s="12">
         <v>1</v>
@@ -6311,7 +6315,7 @@
         <v>1</v>
       </c>
       <c r="S66" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T66" s="12">
         <v>1</v>
@@ -6376,7 +6380,7 @@
         <v>1</v>
       </c>
       <c r="S67" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T67" s="12">
         <v>1</v>
@@ -6441,7 +6445,7 @@
         <v>1</v>
       </c>
       <c r="S68" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T68" s="12">
         <v>1</v>
@@ -6506,7 +6510,7 @@
         <v>1</v>
       </c>
       <c r="S69" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T69" s="12">
         <v>1</v>
@@ -6571,7 +6575,7 @@
         <v>1</v>
       </c>
       <c r="S70" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T70" s="12">
         <v>1</v>
@@ -6636,7 +6640,7 @@
         <v>1</v>
       </c>
       <c r="S71" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T71" s="12">
         <v>1</v>
@@ -6701,7 +6705,7 @@
         <v>1</v>
       </c>
       <c r="S72" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T72" s="12">
         <v>1</v>
@@ -6766,7 +6770,7 @@
         <v>1</v>
       </c>
       <c r="S73" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T73" s="12">
         <v>1</v>
@@ -6831,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="S74" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T74" s="12">
         <v>1</v>
@@ -6896,7 +6900,7 @@
         <v>1</v>
       </c>
       <c r="S75" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T75" s="12">
         <v>1</v>
@@ -6961,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="S76" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T76" s="12">
         <v>1</v>
@@ -7026,7 +7030,7 @@
         <v>1</v>
       </c>
       <c r="S77" s="12">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T77" s="12">
         <v>1</v>
@@ -7091,7 +7095,7 @@
         <v>1</v>
       </c>
       <c r="S78" s="18">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T78" s="18">
         <v>1</v>
@@ -7156,7 +7160,7 @@
         <v>2</v>
       </c>
       <c r="S79" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T79" s="12">
         <v>1</v>
@@ -7221,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="S80" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T80" s="12">
         <v>1</v>
@@ -7286,7 +7290,7 @@
         <v>1</v>
       </c>
       <c r="S81" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T81" s="12">
         <v>1</v>
@@ -7351,7 +7355,7 @@
         <v>1</v>
       </c>
       <c r="S82" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T82" s="12">
         <v>1</v>
@@ -7416,7 +7420,7 @@
         <v>1</v>
       </c>
       <c r="S83" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T83" s="12">
         <v>1</v>
@@ -7481,7 +7485,7 @@
         <v>1</v>
       </c>
       <c r="S84" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T84" s="12">
         <v>1</v>
@@ -7546,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="S85" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T85" s="12">
         <v>1</v>
@@ -7611,7 +7615,7 @@
         <v>1</v>
       </c>
       <c r="S86" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T86" s="12">
         <v>1</v>
@@ -7676,7 +7680,7 @@
         <v>1</v>
       </c>
       <c r="S87" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T87" s="12">
         <v>1</v>
@@ -7741,7 +7745,7 @@
         <v>1</v>
       </c>
       <c r="S88" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T88" s="12">
         <v>1</v>
@@ -7806,7 +7810,7 @@
         <v>1</v>
       </c>
       <c r="S89" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T89" s="12">
         <v>1</v>
@@ -7871,7 +7875,7 @@
         <v>1</v>
       </c>
       <c r="S90" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T90" s="12">
         <v>1</v>
@@ -7936,7 +7940,7 @@
         <v>1</v>
       </c>
       <c r="S91" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T91" s="12">
         <v>1</v>
@@ -8001,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="S92" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T92" s="12">
         <v>1</v>
@@ -8066,7 +8070,7 @@
         <v>1</v>
       </c>
       <c r="S93" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T93" s="12">
         <v>1</v>
@@ -8131,7 +8135,7 @@
         <v>1</v>
       </c>
       <c r="S94" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T94" s="12">
         <v>1</v>
@@ -8196,7 +8200,7 @@
         <v>1</v>
       </c>
       <c r="S95" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T95" s="12">
         <v>1</v>
@@ -8261,7 +8265,7 @@
         <v>1</v>
       </c>
       <c r="S96" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T96" s="12">
         <v>1</v>
@@ -8326,7 +8330,7 @@
         <v>1</v>
       </c>
       <c r="S97" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T97" s="12">
         <v>1</v>
@@ -8391,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="S98" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T98" s="12">
         <v>1</v>
@@ -8456,7 +8460,7 @@
         <v>1</v>
       </c>
       <c r="S99" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T99" s="12">
         <v>1</v>
@@ -8521,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="S100" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T100" s="12">
         <v>1</v>
@@ -8586,7 +8590,7 @@
         <v>1</v>
       </c>
       <c r="S101" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T101" s="12">
         <v>1</v>
@@ -8651,7 +8655,7 @@
         <v>1</v>
       </c>
       <c r="S102" s="12">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T102" s="12">
         <v>1</v>
@@ -8716,7 +8720,7 @@
         <v>1</v>
       </c>
       <c r="S103" s="18">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T103" s="18">
         <v>1</v>
@@ -8781,7 +8785,7 @@
         <v>2</v>
       </c>
       <c r="S104" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T104" s="12">
         <v>1</v>
@@ -8846,7 +8850,7 @@
         <v>1</v>
       </c>
       <c r="S105" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T105" s="12">
         <v>1</v>
@@ -8911,7 +8915,7 @@
         <v>1</v>
       </c>
       <c r="S106" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T106" s="12">
         <v>1</v>
@@ -8976,7 +8980,7 @@
         <v>1</v>
       </c>
       <c r="S107" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T107" s="12">
         <v>1</v>
@@ -9041,7 +9045,7 @@
         <v>1</v>
       </c>
       <c r="S108" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T108" s="12">
         <v>1</v>
@@ -9106,7 +9110,7 @@
         <v>1</v>
       </c>
       <c r="S109" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T109" s="12">
         <v>1</v>
@@ -9171,7 +9175,7 @@
         <v>1</v>
       </c>
       <c r="S110" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T110" s="12">
         <v>1</v>
@@ -9236,7 +9240,7 @@
         <v>1</v>
       </c>
       <c r="S111" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T111" s="12">
         <v>1</v>
@@ -9301,7 +9305,7 @@
         <v>1</v>
       </c>
       <c r="S112" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T112" s="12">
         <v>1</v>
@@ -9366,7 +9370,7 @@
         <v>1</v>
       </c>
       <c r="S113" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T113" s="12">
         <v>1</v>
@@ -9431,7 +9435,7 @@
         <v>1</v>
       </c>
       <c r="S114" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T114" s="12">
         <v>1</v>
@@ -9496,7 +9500,7 @@
         <v>1</v>
       </c>
       <c r="S115" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T115" s="12">
         <v>1</v>
@@ -9561,7 +9565,7 @@
         <v>1</v>
       </c>
       <c r="S116" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T116" s="12">
         <v>1</v>
@@ -9626,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="S117" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T117" s="12">
         <v>1</v>
@@ -9691,7 +9695,7 @@
         <v>1</v>
       </c>
       <c r="S118" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T118" s="12">
         <v>1</v>
@@ -9756,7 +9760,7 @@
         <v>1</v>
       </c>
       <c r="S119" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T119" s="12">
         <v>1</v>
@@ -9821,7 +9825,7 @@
         <v>1</v>
       </c>
       <c r="S120" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T120" s="12">
         <v>1</v>
@@ -9886,7 +9890,7 @@
         <v>1</v>
       </c>
       <c r="S121" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T121" s="12">
         <v>1</v>
@@ -9951,7 +9955,7 @@
         <v>1</v>
       </c>
       <c r="S122" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T122" s="12">
         <v>1</v>
@@ -10016,7 +10020,7 @@
         <v>1</v>
       </c>
       <c r="S123" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T123" s="12">
         <v>1</v>
@@ -10081,7 +10085,7 @@
         <v>1</v>
       </c>
       <c r="S124" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T124" s="12">
         <v>1</v>
@@ -10146,7 +10150,7 @@
         <v>1</v>
       </c>
       <c r="S125" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T125" s="12">
         <v>1</v>
@@ -10211,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="S126" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T126" s="12">
         <v>1</v>
@@ -10276,7 +10280,7 @@
         <v>1</v>
       </c>
       <c r="S127" s="12">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T127" s="12">
         <v>1</v>
@@ -10341,7 +10345,7 @@
         <v>1</v>
       </c>
       <c r="S128" s="18">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T128" s="18">
         <v>1</v>
@@ -10406,7 +10410,7 @@
         <v>1</v>
       </c>
       <c r="S129" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T129" s="12">
         <v>1</v>
@@ -10471,7 +10475,7 @@
         <v>1</v>
       </c>
       <c r="S130" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T130" s="12">
         <v>1</v>
@@ -10536,7 +10540,7 @@
         <v>1</v>
       </c>
       <c r="S131" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T131" s="12">
         <v>1</v>
@@ -10601,7 +10605,7 @@
         <v>1</v>
       </c>
       <c r="S132" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T132" s="12">
         <v>1</v>
@@ -10666,7 +10670,7 @@
         <v>1</v>
       </c>
       <c r="S133" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T133" s="12">
         <v>1</v>
@@ -10731,7 +10735,7 @@
         <v>1</v>
       </c>
       <c r="S134" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T134" s="12">
         <v>1</v>
@@ -10796,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="S135" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T135" s="12">
         <v>1</v>
@@ -10861,7 +10865,7 @@
         <v>1</v>
       </c>
       <c r="S136" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T136" s="12">
         <v>1</v>
@@ -10926,7 +10930,7 @@
         <v>1</v>
       </c>
       <c r="S137" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T137" s="12">
         <v>1</v>
@@ -10991,7 +10995,7 @@
         <v>1</v>
       </c>
       <c r="S138" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T138" s="12">
         <v>1</v>
@@ -11056,7 +11060,7 @@
         <v>1</v>
       </c>
       <c r="S139" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T139" s="12">
         <v>1</v>
@@ -11121,7 +11125,7 @@
         <v>1</v>
       </c>
       <c r="S140" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T140" s="12">
         <v>1</v>
@@ -11186,7 +11190,7 @@
         <v>1</v>
       </c>
       <c r="S141" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T141" s="12">
         <v>1</v>
@@ -11251,7 +11255,7 @@
         <v>1</v>
       </c>
       <c r="S142" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T142" s="12">
         <v>1</v>
@@ -11316,7 +11320,7 @@
         <v>1</v>
       </c>
       <c r="S143" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T143" s="12">
         <v>1</v>
@@ -11381,7 +11385,7 @@
         <v>1</v>
       </c>
       <c r="S144" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T144" s="12">
         <v>1</v>
@@ -11446,7 +11450,7 @@
         <v>1</v>
       </c>
       <c r="S145" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T145" s="12">
         <v>1</v>
@@ -11511,7 +11515,7 @@
         <v>1</v>
       </c>
       <c r="S146" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T146" s="12">
         <v>1</v>
@@ -11576,7 +11580,7 @@
         <v>1</v>
       </c>
       <c r="S147" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T147" s="12">
         <v>1</v>
@@ -11641,7 +11645,7 @@
         <v>1</v>
       </c>
       <c r="S148" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T148" s="12">
         <v>1</v>
@@ -11706,7 +11710,7 @@
         <v>1</v>
       </c>
       <c r="S149" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T149" s="12">
         <v>1</v>
@@ -11771,7 +11775,7 @@
         <v>1</v>
       </c>
       <c r="S150" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T150" s="12">
         <v>1</v>
@@ -11836,7 +11840,7 @@
         <v>1</v>
       </c>
       <c r="S151" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T151" s="12">
         <v>1</v>
@@ -11901,7 +11905,7 @@
         <v>1</v>
       </c>
       <c r="S152" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T152" s="12">
         <v>1</v>
@@ -11966,7 +11970,7 @@
         <v>1</v>
       </c>
       <c r="S153" s="12">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T153" s="12">
         <v>1</v>
@@ -12030,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="S154" s="33">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="T154" s="33">
         <v>1</v>
@@ -12094,7 +12098,7 @@
         <v>0</v>
       </c>
       <c r="S155" s="20">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="T155" s="20">
         <v>1</v>
@@ -12158,7 +12162,7 @@
         <v>0</v>
       </c>
       <c r="S156" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T156" s="10">
         <v>1</v>
@@ -12223,7 +12227,7 @@
         <v>0</v>
       </c>
       <c r="S157" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T157" s="10">
         <v>1</v>
@@ -12288,7 +12292,7 @@
         <v>0</v>
       </c>
       <c r="S158" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T158" s="10">
         <v>1</v>
@@ -12353,7 +12357,7 @@
         <v>0</v>
       </c>
       <c r="S159" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T159" s="10">
         <v>1</v>
@@ -12418,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="S160" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T160" s="10">
         <v>1</v>
@@ -12483,7 +12487,7 @@
         <v>0</v>
       </c>
       <c r="S161" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T161" s="10">
         <v>1</v>
@@ -12548,7 +12552,7 @@
         <v>0</v>
       </c>
       <c r="S162" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T162" s="10">
         <v>1</v>
@@ -12613,7 +12617,7 @@
         <v>0</v>
       </c>
       <c r="S163" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T163" s="10">
         <v>1</v>
@@ -12678,7 +12682,7 @@
         <v>0</v>
       </c>
       <c r="S164" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T164" s="10">
         <v>1</v>
@@ -12743,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="S165" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T165" s="10">
         <v>1</v>
@@ -12808,7 +12812,7 @@
         <v>0</v>
       </c>
       <c r="S166" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T166" s="10">
         <v>1</v>
@@ -12873,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="S167" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T167" s="10">
         <v>1</v>
@@ -12938,7 +12942,7 @@
         <v>0</v>
       </c>
       <c r="S168" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T168" s="10">
         <v>1</v>
@@ -13003,7 +13007,7 @@
         <v>0</v>
       </c>
       <c r="S169" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T169" s="10">
         <v>1</v>
@@ -13068,7 +13072,7 @@
         <v>0</v>
       </c>
       <c r="S170" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T170" s="10">
         <v>1</v>
@@ -13133,7 +13137,7 @@
         <v>0</v>
       </c>
       <c r="S171" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T171" s="10">
         <v>1</v>
@@ -13198,7 +13202,7 @@
         <v>0</v>
       </c>
       <c r="S172" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T172" s="10">
         <v>1</v>
@@ -13263,7 +13267,7 @@
         <v>0</v>
       </c>
       <c r="S173" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T173" s="10">
         <v>1</v>
@@ -13328,7 +13332,7 @@
         <v>0</v>
       </c>
       <c r="S174" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T174" s="10">
         <v>1</v>
@@ -13393,7 +13397,7 @@
         <v>0</v>
       </c>
       <c r="S175" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T175" s="10">
         <v>1</v>
@@ -13458,7 +13462,7 @@
         <v>0</v>
       </c>
       <c r="S176" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T176" s="10">
         <v>1</v>
@@ -13523,7 +13527,7 @@
         <v>0</v>
       </c>
       <c r="S177" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T177" s="10">
         <v>1</v>
@@ -13588,7 +13592,7 @@
         <v>0</v>
       </c>
       <c r="S178" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T178" s="10">
         <v>1</v>
@@ -13653,7 +13657,7 @@
         <v>0</v>
       </c>
       <c r="S179" s="10">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T179" s="10">
         <v>1</v>
@@ -13718,7 +13722,7 @@
         <v>0</v>
       </c>
       <c r="S180" s="20">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T180" s="20">
         <v>1</v>
@@ -13784,7 +13788,7 @@
         <v>0</v>
       </c>
       <c r="S181" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T181" s="10">
         <v>1</v>
@@ -13849,7 +13853,7 @@
         <v>1</v>
       </c>
       <c r="S182" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T182" s="10">
         <v>1</v>
@@ -13914,7 +13918,7 @@
         <v>1</v>
       </c>
       <c r="S183" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T183" s="10">
         <v>1</v>
@@ -13979,7 +13983,7 @@
         <v>1</v>
       </c>
       <c r="S184" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T184" s="10">
         <v>1</v>
@@ -14044,7 +14048,7 @@
         <v>1</v>
       </c>
       <c r="S185" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T185" s="10">
         <v>1</v>
@@ -14109,7 +14113,7 @@
         <v>1</v>
       </c>
       <c r="S186" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T186" s="10">
         <v>1</v>
@@ -14174,7 +14178,7 @@
         <v>1</v>
       </c>
       <c r="S187" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T187" s="10">
         <v>1</v>
@@ -14239,7 +14243,7 @@
         <v>1</v>
       </c>
       <c r="S188" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T188" s="10">
         <v>1</v>
@@ -14304,7 +14308,7 @@
         <v>1</v>
       </c>
       <c r="S189" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T189" s="10">
         <v>1</v>
@@ -14369,7 +14373,7 @@
         <v>1</v>
       </c>
       <c r="S190" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T190" s="10">
         <v>1</v>
@@ -14434,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="S191" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T191" s="10">
         <v>1</v>
@@ -14499,7 +14503,7 @@
         <v>1</v>
       </c>
       <c r="S192" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T192" s="10">
         <v>1</v>
@@ -14564,7 +14568,7 @@
         <v>1</v>
       </c>
       <c r="S193" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T193" s="10">
         <v>1</v>
@@ -14629,7 +14633,7 @@
         <v>1</v>
       </c>
       <c r="S194" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T194" s="10">
         <v>1</v>
@@ -14694,7 +14698,7 @@
         <v>1</v>
       </c>
       <c r="S195" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T195" s="10">
         <v>1</v>
@@ -14759,7 +14763,7 @@
         <v>1</v>
       </c>
       <c r="S196" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T196" s="10">
         <v>1</v>
@@ -14824,7 +14828,7 @@
         <v>1</v>
       </c>
       <c r="S197" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T197" s="10">
         <v>1</v>
@@ -14889,7 +14893,7 @@
         <v>1</v>
       </c>
       <c r="S198" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T198" s="10">
         <v>1</v>
@@ -14954,7 +14958,7 @@
         <v>1</v>
       </c>
       <c r="S199" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T199" s="10">
         <v>1</v>
@@ -15019,7 +15023,7 @@
         <v>1</v>
       </c>
       <c r="S200" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T200" s="10">
         <v>1</v>
@@ -15084,7 +15088,7 @@
         <v>1</v>
       </c>
       <c r="S201" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T201" s="10">
         <v>1</v>
@@ -15149,7 +15153,7 @@
         <v>1</v>
       </c>
       <c r="S202" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T202" s="10">
         <v>1</v>
@@ -15214,7 +15218,7 @@
         <v>1</v>
       </c>
       <c r="S203" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T203" s="10">
         <v>1</v>
@@ -15279,7 +15283,7 @@
         <v>1</v>
       </c>
       <c r="S204" s="10">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T204" s="10">
         <v>1</v>
@@ -15344,7 +15348,7 @@
         <v>1</v>
       </c>
       <c r="S205" s="20">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T205" s="20">
         <v>1</v>
@@ -15410,7 +15414,7 @@
         <v>2</v>
       </c>
       <c r="S206" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T206" s="10">
         <v>1</v>
@@ -15475,7 +15479,7 @@
         <v>1</v>
       </c>
       <c r="S207" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T207" s="10">
         <v>1</v>
@@ -15540,7 +15544,7 @@
         <v>1</v>
       </c>
       <c r="S208" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T208" s="10">
         <v>1</v>
@@ -15605,7 +15609,7 @@
         <v>1</v>
       </c>
       <c r="S209" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T209" s="10">
         <v>1</v>
@@ -15670,7 +15674,7 @@
         <v>1</v>
       </c>
       <c r="S210" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T210" s="10">
         <v>1</v>
@@ -15735,7 +15739,7 @@
         <v>1</v>
       </c>
       <c r="S211" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T211" s="10">
         <v>1</v>
@@ -15800,7 +15804,7 @@
         <v>1</v>
       </c>
       <c r="S212" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T212" s="10">
         <v>1</v>
@@ -15865,7 +15869,7 @@
         <v>1</v>
       </c>
       <c r="S213" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T213" s="10">
         <v>1</v>
@@ -15930,7 +15934,7 @@
         <v>1</v>
       </c>
       <c r="S214" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T214" s="10">
         <v>1</v>
@@ -15995,7 +15999,7 @@
         <v>1</v>
       </c>
       <c r="S215" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T215" s="10">
         <v>1</v>
@@ -16060,7 +16064,7 @@
         <v>1</v>
       </c>
       <c r="S216" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T216" s="10">
         <v>1</v>
@@ -16125,7 +16129,7 @@
         <v>1</v>
       </c>
       <c r="S217" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T217" s="10">
         <v>1</v>
@@ -16190,7 +16194,7 @@
         <v>1</v>
       </c>
       <c r="S218" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T218" s="10">
         <v>1</v>
@@ -16255,7 +16259,7 @@
         <v>1</v>
       </c>
       <c r="S219" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T219" s="10">
         <v>1</v>
@@ -16320,7 +16324,7 @@
         <v>1</v>
       </c>
       <c r="S220" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T220" s="10">
         <v>1</v>
@@ -16385,7 +16389,7 @@
         <v>1</v>
       </c>
       <c r="S221" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T221" s="10">
         <v>1</v>
@@ -16450,7 +16454,7 @@
         <v>1</v>
       </c>
       <c r="S222" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T222" s="10">
         <v>1</v>
@@ -16515,7 +16519,7 @@
         <v>1</v>
       </c>
       <c r="S223" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T223" s="10">
         <v>1</v>
@@ -16580,7 +16584,7 @@
         <v>1</v>
       </c>
       <c r="S224" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T224" s="10">
         <v>1</v>
@@ -16645,7 +16649,7 @@
         <v>1</v>
       </c>
       <c r="S225" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T225" s="10">
         <v>1</v>
@@ -16710,7 +16714,7 @@
         <v>1</v>
       </c>
       <c r="S226" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T226" s="10">
         <v>1</v>
@@ -16775,7 +16779,7 @@
         <v>1</v>
       </c>
       <c r="S227" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T227" s="10">
         <v>1</v>
@@ -16840,7 +16844,7 @@
         <v>1</v>
       </c>
       <c r="S228" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T228" s="10">
         <v>1</v>
@@ -16905,7 +16909,7 @@
         <v>1</v>
       </c>
       <c r="S229" s="10">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T229" s="10">
         <v>1</v>
@@ -16970,7 +16974,7 @@
         <v>1</v>
       </c>
       <c r="S230" s="20">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T230" s="20">
         <v>1</v>
@@ -17036,7 +17040,7 @@
         <v>2</v>
       </c>
       <c r="S231" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T231" s="10">
         <v>1</v>
@@ -17101,7 +17105,7 @@
         <v>1</v>
       </c>
       <c r="S232" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T232" s="10">
         <v>1</v>
@@ -17166,7 +17170,7 @@
         <v>1</v>
       </c>
       <c r="S233" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T233" s="10">
         <v>1</v>
@@ -17231,7 +17235,7 @@
         <v>1</v>
       </c>
       <c r="S234" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T234" s="10">
         <v>1</v>
@@ -17296,7 +17300,7 @@
         <v>1</v>
       </c>
       <c r="S235" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T235" s="10">
         <v>1</v>
@@ -17361,7 +17365,7 @@
         <v>1</v>
       </c>
       <c r="S236" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T236" s="10">
         <v>1</v>
@@ -17426,7 +17430,7 @@
         <v>1</v>
       </c>
       <c r="S237" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T237" s="10">
         <v>1</v>
@@ -17491,7 +17495,7 @@
         <v>1</v>
       </c>
       <c r="S238" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T238" s="10">
         <v>1</v>
@@ -17556,7 +17560,7 @@
         <v>1</v>
       </c>
       <c r="S239" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T239" s="10">
         <v>1</v>
@@ -17621,7 +17625,7 @@
         <v>1</v>
       </c>
       <c r="S240" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T240" s="10">
         <v>1</v>
@@ -17686,7 +17690,7 @@
         <v>1</v>
       </c>
       <c r="S241" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T241" s="10">
         <v>1</v>
@@ -17751,7 +17755,7 @@
         <v>1</v>
       </c>
       <c r="S242" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T242" s="10">
         <v>1</v>
@@ -17816,7 +17820,7 @@
         <v>1</v>
       </c>
       <c r="S243" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T243" s="10">
         <v>1</v>
@@ -17881,7 +17885,7 @@
         <v>1</v>
       </c>
       <c r="S244" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T244" s="10">
         <v>1</v>
@@ -17946,7 +17950,7 @@
         <v>1</v>
       </c>
       <c r="S245" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T245" s="10">
         <v>1</v>
@@ -18011,7 +18015,7 @@
         <v>1</v>
       </c>
       <c r="S246" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T246" s="10">
         <v>1</v>
@@ -18076,7 +18080,7 @@
         <v>1</v>
       </c>
       <c r="S247" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T247" s="10">
         <v>1</v>
@@ -18141,7 +18145,7 @@
         <v>1</v>
       </c>
       <c r="S248" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T248" s="10">
         <v>1</v>
@@ -18206,7 +18210,7 @@
         <v>1</v>
       </c>
       <c r="S249" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T249" s="10">
         <v>1</v>
@@ -18271,7 +18275,7 @@
         <v>1</v>
       </c>
       <c r="S250" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T250" s="10">
         <v>1</v>
@@ -18336,7 +18340,7 @@
         <v>1</v>
       </c>
       <c r="S251" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T251" s="10">
         <v>1</v>
@@ -18401,7 +18405,7 @@
         <v>1</v>
       </c>
       <c r="S252" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T252" s="10">
         <v>1</v>
@@ -18466,7 +18470,7 @@
         <v>1</v>
       </c>
       <c r="S253" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T253" s="10">
         <v>1</v>
@@ -18531,7 +18535,7 @@
         <v>1</v>
       </c>
       <c r="S254" s="10">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T254" s="10">
         <v>1</v>
@@ -18596,7 +18600,7 @@
         <v>1</v>
       </c>
       <c r="S255" s="20">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T255" s="20">
         <v>1</v>
@@ -18661,7 +18665,7 @@
         <v>2</v>
       </c>
       <c r="S256" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T256" s="10">
         <v>1</v>
@@ -18726,7 +18730,7 @@
         <v>1</v>
       </c>
       <c r="S257" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T257" s="10">
         <v>1</v>
@@ -18791,7 +18795,7 @@
         <v>1</v>
       </c>
       <c r="S258" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T258" s="10">
         <v>1</v>
@@ -18856,7 +18860,7 @@
         <v>1</v>
       </c>
       <c r="S259" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T259" s="10">
         <v>1</v>
@@ -18921,7 +18925,7 @@
         <v>1</v>
       </c>
       <c r="S260" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T260" s="10">
         <v>1</v>
@@ -18986,7 +18990,7 @@
         <v>1</v>
       </c>
       <c r="S261" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T261" s="10">
         <v>1</v>
@@ -19051,7 +19055,7 @@
         <v>1</v>
       </c>
       <c r="S262" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T262" s="10">
         <v>1</v>
@@ -19116,7 +19120,7 @@
         <v>1</v>
       </c>
       <c r="S263" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T263" s="10">
         <v>1</v>
@@ -19181,7 +19185,7 @@
         <v>1</v>
       </c>
       <c r="S264" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T264" s="10">
         <v>1</v>
@@ -19246,7 +19250,7 @@
         <v>1</v>
       </c>
       <c r="S265" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T265" s="10">
         <v>1</v>
@@ -19311,7 +19315,7 @@
         <v>1</v>
       </c>
       <c r="S266" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T266" s="10">
         <v>1</v>
@@ -19376,7 +19380,7 @@
         <v>1</v>
       </c>
       <c r="S267" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T267" s="10">
         <v>1</v>
@@ -19441,7 +19445,7 @@
         <v>1</v>
       </c>
       <c r="S268" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T268" s="10">
         <v>1</v>
@@ -19506,7 +19510,7 @@
         <v>1</v>
       </c>
       <c r="S269" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T269" s="10">
         <v>1</v>
@@ -19571,7 +19575,7 @@
         <v>1</v>
       </c>
       <c r="S270" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T270" s="10">
         <v>1</v>
@@ -19636,7 +19640,7 @@
         <v>1</v>
       </c>
       <c r="S271" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T271" s="10">
         <v>1</v>
@@ -19701,7 +19705,7 @@
         <v>1</v>
       </c>
       <c r="S272" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T272" s="10">
         <v>1</v>
@@ -19766,7 +19770,7 @@
         <v>1</v>
       </c>
       <c r="S273" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T273" s="10">
         <v>1</v>
@@ -19831,7 +19835,7 @@
         <v>1</v>
       </c>
       <c r="S274" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T274" s="10">
         <v>1</v>
@@ -19896,7 +19900,7 @@
         <v>1</v>
       </c>
       <c r="S275" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T275" s="10">
         <v>1</v>
@@ -19961,7 +19965,7 @@
         <v>1</v>
       </c>
       <c r="S276" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T276" s="10">
         <v>1</v>
@@ -20026,7 +20030,7 @@
         <v>1</v>
       </c>
       <c r="S277" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T277" s="10">
         <v>1</v>
@@ -20091,7 +20095,7 @@
         <v>1</v>
       </c>
       <c r="S278" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T278" s="10">
         <v>1</v>
@@ -20156,7 +20160,7 @@
         <v>1</v>
       </c>
       <c r="S279" s="10">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T279" s="10">
         <v>1</v>
@@ -20221,7 +20225,7 @@
         <v>1</v>
       </c>
       <c r="S280" s="20">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T280" s="20">
         <v>1</v>
@@ -20287,7 +20291,7 @@
         <v>2</v>
       </c>
       <c r="S281" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T281" s="10">
         <v>1</v>
@@ -20352,7 +20356,7 @@
         <v>1</v>
       </c>
       <c r="S282" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T282" s="10">
         <v>1</v>
@@ -20417,7 +20421,7 @@
         <v>1</v>
       </c>
       <c r="S283" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T283" s="10">
         <v>1</v>
@@ -20482,7 +20486,7 @@
         <v>1</v>
       </c>
       <c r="S284" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T284" s="10">
         <v>1</v>
@@ -20547,7 +20551,7 @@
         <v>1</v>
       </c>
       <c r="S285" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T285" s="10">
         <v>1</v>
@@ -20612,7 +20616,7 @@
         <v>1</v>
       </c>
       <c r="S286" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T286" s="10">
         <v>1</v>
@@ -20677,7 +20681,7 @@
         <v>1</v>
       </c>
       <c r="S287" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T287" s="10">
         <v>1</v>
@@ -20742,7 +20746,7 @@
         <v>1</v>
       </c>
       <c r="S288" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T288" s="10">
         <v>1</v>
@@ -20807,7 +20811,7 @@
         <v>1</v>
       </c>
       <c r="S289" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T289" s="10">
         <v>1</v>
@@ -20872,7 +20876,7 @@
         <v>1</v>
       </c>
       <c r="S290" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T290" s="10">
         <v>1</v>
@@ -20937,7 +20941,7 @@
         <v>1</v>
       </c>
       <c r="S291" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T291" s="10">
         <v>1</v>
@@ -21002,7 +21006,7 @@
         <v>1</v>
       </c>
       <c r="S292" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T292" s="10">
         <v>1</v>
@@ -21067,7 +21071,7 @@
         <v>1</v>
       </c>
       <c r="S293" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T293" s="10">
         <v>1</v>
@@ -21132,7 +21136,7 @@
         <v>1</v>
       </c>
       <c r="S294" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T294" s="10">
         <v>1</v>
@@ -21197,7 +21201,7 @@
         <v>1</v>
       </c>
       <c r="S295" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T295" s="10">
         <v>1</v>
@@ -21262,7 +21266,7 @@
         <v>1</v>
       </c>
       <c r="S296" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T296" s="10">
         <v>1</v>
@@ -21327,7 +21331,7 @@
         <v>1</v>
       </c>
       <c r="S297" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T297" s="10">
         <v>1</v>
@@ -21392,7 +21396,7 @@
         <v>1</v>
       </c>
       <c r="S298" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T298" s="10">
         <v>1</v>
@@ -21457,7 +21461,7 @@
         <v>1</v>
       </c>
       <c r="S299" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T299" s="10">
         <v>1</v>
@@ -21522,7 +21526,7 @@
         <v>1</v>
       </c>
       <c r="S300" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T300" s="10">
         <v>1</v>
@@ -21587,7 +21591,7 @@
         <v>1</v>
       </c>
       <c r="S301" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T301" s="10">
         <v>1</v>
@@ -21652,7 +21656,7 @@
         <v>1</v>
       </c>
       <c r="S302" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T302" s="10">
         <v>1</v>
@@ -21717,7 +21721,7 @@
         <v>1</v>
       </c>
       <c r="S303" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T303" s="10">
         <v>1</v>
@@ -21782,7 +21786,7 @@
         <v>1</v>
       </c>
       <c r="S304" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T304" s="10">
         <v>1</v>
@@ -21847,7 +21851,7 @@
         <v>1</v>
       </c>
       <c r="S305" s="10">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T305" s="10">
         <v>1</v>
@@ -21911,7 +21915,7 @@
         <v>0</v>
       </c>
       <c r="S306" s="25">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="T306" s="25">
         <v>1</v>
@@ -21975,7 +21979,7 @@
         <v>0</v>
       </c>
       <c r="S307" s="23">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="T307" s="23">
         <v>1</v>
@@ -22039,7 +22043,7 @@
         <v>0</v>
       </c>
       <c r="S308" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T308" s="14">
         <v>1</v>
@@ -22104,7 +22108,7 @@
         <v>0</v>
       </c>
       <c r="S309" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T309" s="14">
         <v>1</v>
@@ -22169,7 +22173,7 @@
         <v>0</v>
       </c>
       <c r="S310" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T310" s="14">
         <v>1</v>
@@ -22234,7 +22238,7 @@
         <v>0</v>
       </c>
       <c r="S311" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T311" s="14">
         <v>1</v>
@@ -22299,7 +22303,7 @@
         <v>0</v>
       </c>
       <c r="S312" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T312" s="14">
         <v>1</v>
@@ -22364,7 +22368,7 @@
         <v>0</v>
       </c>
       <c r="S313" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T313" s="14">
         <v>1</v>
@@ -22429,7 +22433,7 @@
         <v>0</v>
       </c>
       <c r="S314" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T314" s="14">
         <v>1</v>
@@ -22494,7 +22498,7 @@
         <v>0</v>
       </c>
       <c r="S315" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T315" s="14">
         <v>1</v>
@@ -22559,7 +22563,7 @@
         <v>0</v>
       </c>
       <c r="S316" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T316" s="14">
         <v>1</v>
@@ -22624,7 +22628,7 @@
         <v>0</v>
       </c>
       <c r="S317" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T317" s="14">
         <v>1</v>
@@ -22689,7 +22693,7 @@
         <v>0</v>
       </c>
       <c r="S318" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T318" s="14">
         <v>1</v>
@@ -22754,7 +22758,7 @@
         <v>0</v>
       </c>
       <c r="S319" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T319" s="14">
         <v>1</v>
@@ -22819,7 +22823,7 @@
         <v>0</v>
       </c>
       <c r="S320" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T320" s="14">
         <v>1</v>
@@ -22884,7 +22888,7 @@
         <v>0</v>
       </c>
       <c r="S321" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T321" s="14">
         <v>1</v>
@@ -22949,7 +22953,7 @@
         <v>0</v>
       </c>
       <c r="S322" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T322" s="14">
         <v>1</v>
@@ -23014,7 +23018,7 @@
         <v>0</v>
       </c>
       <c r="S323" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T323" s="14">
         <v>1</v>
@@ -23079,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="S324" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T324" s="14">
         <v>1</v>
@@ -23144,7 +23148,7 @@
         <v>0</v>
       </c>
       <c r="S325" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T325" s="14">
         <v>1</v>
@@ -23209,7 +23213,7 @@
         <v>0</v>
       </c>
       <c r="S326" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T326" s="14">
         <v>1</v>
@@ -23274,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="S327" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T327" s="14">
         <v>1</v>
@@ -23339,7 +23343,7 @@
         <v>0</v>
       </c>
       <c r="S328" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T328" s="14">
         <v>1</v>
@@ -23404,7 +23408,7 @@
         <v>0</v>
       </c>
       <c r="S329" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T329" s="14">
         <v>1</v>
@@ -23469,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="S330" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T330" s="14">
         <v>1</v>
@@ -23534,7 +23538,7 @@
         <v>0</v>
       </c>
       <c r="S331" s="14">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T331" s="14">
         <v>1</v>
@@ -23599,7 +23603,7 @@
         <v>0</v>
       </c>
       <c r="S332" s="25">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="T332" s="25">
         <v>1</v>
@@ -23664,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="S333" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T333" s="14">
         <v>1</v>
@@ -23729,7 +23733,7 @@
         <v>1</v>
       </c>
       <c r="S334" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T334" s="14">
         <v>1</v>
@@ -23794,7 +23798,7 @@
         <v>1</v>
       </c>
       <c r="S335" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T335" s="14">
         <v>1</v>
@@ -23859,7 +23863,7 @@
         <v>1</v>
       </c>
       <c r="S336" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T336" s="14">
         <v>1</v>
@@ -23924,7 +23928,7 @@
         <v>1</v>
       </c>
       <c r="S337" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T337" s="14">
         <v>1</v>
@@ -23989,7 +23993,7 @@
         <v>1</v>
       </c>
       <c r="S338" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T338" s="14">
         <v>1</v>
@@ -24054,7 +24058,7 @@
         <v>1</v>
       </c>
       <c r="S339" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T339" s="14">
         <v>1</v>
@@ -24119,7 +24123,7 @@
         <v>1</v>
       </c>
       <c r="S340" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T340" s="14">
         <v>1</v>
@@ -24184,7 +24188,7 @@
         <v>1</v>
       </c>
       <c r="S341" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T341" s="14">
         <v>1</v>
@@ -24249,7 +24253,7 @@
         <v>1</v>
       </c>
       <c r="S342" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T342" s="14">
         <v>1</v>
@@ -24314,7 +24318,7 @@
         <v>1</v>
       </c>
       <c r="S343" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T343" s="14">
         <v>1</v>
@@ -24379,7 +24383,7 @@
         <v>1</v>
       </c>
       <c r="S344" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T344" s="14">
         <v>1</v>
@@ -24444,7 +24448,7 @@
         <v>1</v>
       </c>
       <c r="S345" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T345" s="14">
         <v>1</v>
@@ -24509,7 +24513,7 @@
         <v>1</v>
       </c>
       <c r="S346" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T346" s="14">
         <v>1</v>
@@ -24574,7 +24578,7 @@
         <v>1</v>
       </c>
       <c r="S347" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T347" s="14">
         <v>1</v>
@@ -24639,7 +24643,7 @@
         <v>1</v>
       </c>
       <c r="S348" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T348" s="14">
         <v>1</v>
@@ -24704,7 +24708,7 @@
         <v>1</v>
       </c>
       <c r="S349" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T349" s="14">
         <v>1</v>
@@ -24769,7 +24773,7 @@
         <v>1</v>
       </c>
       <c r="S350" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T350" s="14">
         <v>1</v>
@@ -24834,7 +24838,7 @@
         <v>1</v>
       </c>
       <c r="S351" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T351" s="14">
         <v>1</v>
@@ -24899,7 +24903,7 @@
         <v>1</v>
       </c>
       <c r="S352" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T352" s="14">
         <v>1</v>
@@ -24964,7 +24968,7 @@
         <v>1</v>
       </c>
       <c r="S353" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T353" s="14">
         <v>1</v>
@@ -25029,7 +25033,7 @@
         <v>1</v>
       </c>
       <c r="S354" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T354" s="14">
         <v>1</v>
@@ -25094,7 +25098,7 @@
         <v>1</v>
       </c>
       <c r="S355" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T355" s="14">
         <v>1</v>
@@ -25159,7 +25163,7 @@
         <v>1</v>
       </c>
       <c r="S356" s="14">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T356" s="14">
         <v>1</v>
@@ -25224,7 +25228,7 @@
         <v>1</v>
       </c>
       <c r="S357" s="23">
-        <v>1000</v>
+        <v>1600</v>
       </c>
       <c r="T357" s="23">
         <v>1</v>
@@ -25289,7 +25293,7 @@
         <v>2</v>
       </c>
       <c r="S358" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T358" s="14">
         <v>1</v>
@@ -25354,7 +25358,7 @@
         <v>1</v>
       </c>
       <c r="S359" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T359" s="14">
         <v>1</v>
@@ -25419,7 +25423,7 @@
         <v>1</v>
       </c>
       <c r="S360" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T360" s="14">
         <v>1</v>
@@ -25484,7 +25488,7 @@
         <v>1</v>
       </c>
       <c r="S361" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T361" s="14">
         <v>1</v>
@@ -25549,7 +25553,7 @@
         <v>1</v>
       </c>
       <c r="S362" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T362" s="14">
         <v>1</v>
@@ -25614,7 +25618,7 @@
         <v>1</v>
       </c>
       <c r="S363" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T363" s="14">
         <v>1</v>
@@ -25679,7 +25683,7 @@
         <v>1</v>
       </c>
       <c r="S364" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T364" s="14">
         <v>1</v>
@@ -25744,7 +25748,7 @@
         <v>1</v>
       </c>
       <c r="S365" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T365" s="14">
         <v>1</v>
@@ -25809,7 +25813,7 @@
         <v>1</v>
       </c>
       <c r="S366" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T366" s="14">
         <v>1</v>
@@ -25874,7 +25878,7 @@
         <v>1</v>
       </c>
       <c r="S367" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T367" s="14">
         <v>1</v>
@@ -25939,7 +25943,7 @@
         <v>1</v>
       </c>
       <c r="S368" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T368" s="14">
         <v>1</v>
@@ -26004,7 +26008,7 @@
         <v>1</v>
       </c>
       <c r="S369" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T369" s="14">
         <v>1</v>
@@ -26069,7 +26073,7 @@
         <v>1</v>
       </c>
       <c r="S370" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T370" s="14">
         <v>1</v>
@@ -26134,7 +26138,7 @@
         <v>1</v>
       </c>
       <c r="S371" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T371" s="14">
         <v>1</v>
@@ -26199,7 +26203,7 @@
         <v>1</v>
       </c>
       <c r="S372" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T372" s="14">
         <v>1</v>
@@ -26264,7 +26268,7 @@
         <v>1</v>
       </c>
       <c r="S373" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T373" s="14">
         <v>1</v>
@@ -26329,7 +26333,7 @@
         <v>1</v>
       </c>
       <c r="S374" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T374" s="14">
         <v>1</v>
@@ -26394,7 +26398,7 @@
         <v>1</v>
       </c>
       <c r="S375" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T375" s="14">
         <v>1</v>
@@ -26459,7 +26463,7 @@
         <v>1</v>
       </c>
       <c r="S376" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T376" s="14">
         <v>1</v>
@@ -26524,7 +26528,7 @@
         <v>1</v>
       </c>
       <c r="S377" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T377" s="14">
         <v>1</v>
@@ -26589,7 +26593,7 @@
         <v>1</v>
       </c>
       <c r="S378" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T378" s="14">
         <v>1</v>
@@ -26654,7 +26658,7 @@
         <v>1</v>
       </c>
       <c r="S379" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T379" s="14">
         <v>1</v>
@@ -26719,7 +26723,7 @@
         <v>1</v>
       </c>
       <c r="S380" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T380" s="14">
         <v>1</v>
@@ -26784,7 +26788,7 @@
         <v>1</v>
       </c>
       <c r="S381" s="14">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T381" s="14">
         <v>1</v>
@@ -26849,7 +26853,7 @@
         <v>1</v>
       </c>
       <c r="S382" s="23">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="T382" s="23">
         <v>1</v>
@@ -26914,7 +26918,7 @@
         <v>2</v>
       </c>
       <c r="S383" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T383" s="14">
         <v>1</v>
@@ -26979,7 +26983,7 @@
         <v>1</v>
       </c>
       <c r="S384" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T384" s="14">
         <v>1</v>
@@ -27044,7 +27048,7 @@
         <v>1</v>
       </c>
       <c r="S385" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T385" s="14">
         <v>1</v>
@@ -27109,7 +27113,7 @@
         <v>1</v>
       </c>
       <c r="S386" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T386" s="14">
         <v>1</v>
@@ -27174,7 +27178,7 @@
         <v>1</v>
       </c>
       <c r="S387" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T387" s="14">
         <v>1</v>
@@ -27239,7 +27243,7 @@
         <v>1</v>
       </c>
       <c r="S388" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T388" s="14">
         <v>1</v>
@@ -27304,7 +27308,7 @@
         <v>1</v>
       </c>
       <c r="S389" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T389" s="14">
         <v>1</v>
@@ -27369,7 +27373,7 @@
         <v>1</v>
       </c>
       <c r="S390" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T390" s="14">
         <v>1</v>
@@ -27434,7 +27438,7 @@
         <v>1</v>
       </c>
       <c r="S391" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T391" s="14">
         <v>1</v>
@@ -27499,7 +27503,7 @@
         <v>1</v>
       </c>
       <c r="S392" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T392" s="14">
         <v>1</v>
@@ -27564,7 +27568,7 @@
         <v>1</v>
       </c>
       <c r="S393" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T393" s="14">
         <v>1</v>
@@ -27629,7 +27633,7 @@
         <v>1</v>
       </c>
       <c r="S394" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T394" s="14">
         <v>1</v>
@@ -27694,7 +27698,7 @@
         <v>1</v>
       </c>
       <c r="S395" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T395" s="14">
         <v>1</v>
@@ -27759,7 +27763,7 @@
         <v>1</v>
       </c>
       <c r="S396" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T396" s="14">
         <v>1</v>
@@ -27824,7 +27828,7 @@
         <v>1</v>
       </c>
       <c r="S397" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T397" s="14">
         <v>1</v>
@@ -27889,7 +27893,7 @@
         <v>1</v>
       </c>
       <c r="S398" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T398" s="14">
         <v>1</v>
@@ -27954,7 +27958,7 @@
         <v>1</v>
       </c>
       <c r="S399" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T399" s="14">
         <v>1</v>
@@ -28019,7 +28023,7 @@
         <v>1</v>
       </c>
       <c r="S400" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T400" s="14">
         <v>1</v>
@@ -28084,7 +28088,7 @@
         <v>1</v>
       </c>
       <c r="S401" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T401" s="14">
         <v>1</v>
@@ -28149,7 +28153,7 @@
         <v>1</v>
       </c>
       <c r="S402" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T402" s="14">
         <v>1</v>
@@ -28214,7 +28218,7 @@
         <v>1</v>
       </c>
       <c r="S403" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T403" s="14">
         <v>1</v>
@@ -28279,7 +28283,7 @@
         <v>1</v>
       </c>
       <c r="S404" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T404" s="14">
         <v>1</v>
@@ -28344,7 +28348,7 @@
         <v>1</v>
       </c>
       <c r="S405" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T405" s="14">
         <v>1</v>
@@ -28409,7 +28413,7 @@
         <v>1</v>
       </c>
       <c r="S406" s="14">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T406" s="14">
         <v>1</v>
@@ -28474,7 +28478,7 @@
         <v>1</v>
       </c>
       <c r="S407" s="23">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="T407" s="23">
         <v>1</v>
@@ -28539,7 +28543,7 @@
         <v>2</v>
       </c>
       <c r="S408" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T408" s="14">
         <v>1</v>
@@ -28604,7 +28608,7 @@
         <v>1</v>
       </c>
       <c r="S409" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T409" s="14">
         <v>1</v>
@@ -28669,7 +28673,7 @@
         <v>1</v>
       </c>
       <c r="S410" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T410" s="14">
         <v>1</v>
@@ -28734,7 +28738,7 @@
         <v>1</v>
       </c>
       <c r="S411" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T411" s="14">
         <v>1</v>
@@ -28799,7 +28803,7 @@
         <v>1</v>
       </c>
       <c r="S412" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T412" s="14">
         <v>1</v>
@@ -28864,7 +28868,7 @@
         <v>1</v>
       </c>
       <c r="S413" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T413" s="14">
         <v>1</v>
@@ -28929,7 +28933,7 @@
         <v>1</v>
       </c>
       <c r="S414" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T414" s="14">
         <v>1</v>
@@ -28994,7 +28998,7 @@
         <v>1</v>
       </c>
       <c r="S415" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T415" s="14">
         <v>1</v>
@@ -29059,7 +29063,7 @@
         <v>1</v>
       </c>
       <c r="S416" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T416" s="14">
         <v>1</v>
@@ -29124,7 +29128,7 @@
         <v>1</v>
       </c>
       <c r="S417" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T417" s="14">
         <v>1</v>
@@ -29189,7 +29193,7 @@
         <v>1</v>
       </c>
       <c r="S418" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T418" s="14">
         <v>1</v>
@@ -29254,7 +29258,7 @@
         <v>1</v>
       </c>
       <c r="S419" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T419" s="14">
         <v>1</v>
@@ -29319,7 +29323,7 @@
         <v>1</v>
       </c>
       <c r="S420" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T420" s="14">
         <v>1</v>
@@ -29384,7 +29388,7 @@
         <v>1</v>
       </c>
       <c r="S421" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T421" s="14">
         <v>1</v>
@@ -29449,7 +29453,7 @@
         <v>1</v>
       </c>
       <c r="S422" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T422" s="14">
         <v>1</v>
@@ -29514,7 +29518,7 @@
         <v>1</v>
       </c>
       <c r="S423" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T423" s="14">
         <v>1</v>
@@ -29579,7 +29583,7 @@
         <v>1</v>
       </c>
       <c r="S424" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T424" s="14">
         <v>1</v>
@@ -29644,7 +29648,7 @@
         <v>1</v>
       </c>
       <c r="S425" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T425" s="14">
         <v>1</v>
@@ -29709,7 +29713,7 @@
         <v>1</v>
       </c>
       <c r="S426" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T426" s="14">
         <v>1</v>
@@ -29774,7 +29778,7 @@
         <v>1</v>
       </c>
       <c r="S427" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T427" s="14">
         <v>1</v>
@@ -29839,7 +29843,7 @@
         <v>1</v>
       </c>
       <c r="S428" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T428" s="14">
         <v>1</v>
@@ -29904,7 +29908,7 @@
         <v>1</v>
       </c>
       <c r="S429" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T429" s="14">
         <v>1</v>
@@ -29969,7 +29973,7 @@
         <v>1</v>
       </c>
       <c r="S430" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T430" s="14">
         <v>1</v>
@@ -30034,7 +30038,7 @@
         <v>1</v>
       </c>
       <c r="S431" s="14">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T431" s="14">
         <v>1</v>
@@ -30099,7 +30103,7 @@
         <v>1</v>
       </c>
       <c r="S432" s="23">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="T432" s="23">
         <v>1</v>
@@ -30164,7 +30168,7 @@
         <v>2</v>
       </c>
       <c r="S433" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T433" s="14">
         <v>1</v>
@@ -30229,7 +30233,7 @@
         <v>1</v>
       </c>
       <c r="S434" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T434" s="14">
         <v>1</v>
@@ -30294,7 +30298,7 @@
         <v>1</v>
       </c>
       <c r="S435" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T435" s="14">
         <v>1</v>
@@ -30359,7 +30363,7 @@
         <v>1</v>
       </c>
       <c r="S436" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T436" s="14">
         <v>1</v>
@@ -30424,7 +30428,7 @@
         <v>1</v>
       </c>
       <c r="S437" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T437" s="14">
         <v>1</v>
@@ -30489,7 +30493,7 @@
         <v>1</v>
       </c>
       <c r="S438" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T438" s="14">
         <v>1</v>
@@ -30554,7 +30558,7 @@
         <v>1</v>
       </c>
       <c r="S439" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T439" s="14">
         <v>1</v>
@@ -30619,7 +30623,7 @@
         <v>1</v>
       </c>
       <c r="S440" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T440" s="14">
         <v>1</v>
@@ -30684,7 +30688,7 @@
         <v>1</v>
       </c>
       <c r="S441" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T441" s="14">
         <v>1</v>
@@ -30749,7 +30753,7 @@
         <v>1</v>
       </c>
       <c r="S442" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T442" s="14">
         <v>1</v>
@@ -30814,7 +30818,7 @@
         <v>1</v>
       </c>
       <c r="S443" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T443" s="14">
         <v>1</v>
@@ -30879,7 +30883,7 @@
         <v>1</v>
       </c>
       <c r="S444" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T444" s="14">
         <v>1</v>
@@ -30944,7 +30948,7 @@
         <v>1</v>
       </c>
       <c r="S445" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T445" s="14">
         <v>1</v>
@@ -31009,7 +31013,7 @@
         <v>1</v>
       </c>
       <c r="S446" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T446" s="14">
         <v>1</v>
@@ -31074,7 +31078,7 @@
         <v>1</v>
       </c>
       <c r="S447" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T447" s="14">
         <v>1</v>
@@ -31139,7 +31143,7 @@
         <v>1</v>
       </c>
       <c r="S448" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T448" s="14">
         <v>1</v>
@@ -31204,7 +31208,7 @@
         <v>1</v>
       </c>
       <c r="S449" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T449" s="14">
         <v>1</v>
@@ -31269,7 +31273,7 @@
         <v>1</v>
       </c>
       <c r="S450" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T450" s="14">
         <v>1</v>
@@ -31334,7 +31338,7 @@
         <v>1</v>
       </c>
       <c r="S451" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T451" s="14">
         <v>1</v>
@@ -31399,7 +31403,7 @@
         <v>1</v>
       </c>
       <c r="S452" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T452" s="14">
         <v>1</v>
@@ -31464,7 +31468,7 @@
         <v>1</v>
       </c>
       <c r="S453" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T453" s="14">
         <v>1</v>
@@ -31529,7 +31533,7 @@
         <v>1</v>
       </c>
       <c r="S454" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T454" s="14">
         <v>1</v>
@@ -31594,7 +31598,7 @@
         <v>1</v>
       </c>
       <c r="S455" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T455" s="14">
         <v>1</v>
@@ -31659,7 +31663,7 @@
         <v>1</v>
       </c>
       <c r="S456" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T456" s="14">
         <v>1</v>
@@ -31724,7 +31728,7 @@
         <v>1</v>
       </c>
       <c r="S457" s="14">
-        <v>1000</v>
+        <v>15000</v>
       </c>
       <c r="T457" s="14">
         <v>1</v>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -1467,9 +1467,6 @@
     <t>["skill27"]</t>
   </si>
   <si>
-    <t>["Skill8"]</t>
-  </si>
-  <si>
     <t>["skill28"]</t>
   </si>
   <si>
@@ -1793,6 +1790,9 @@
   <si>
     <t>["skill11", "skill12"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["skill8"]</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1893,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1919,11 +1919,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1964,8 +2001,11 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2273,10 +2313,10 @@
   <dimension ref="A1:W556"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="E524" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D287" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V558" sqref="V557:V558"/>
+      <selection pane="bottomRight" activeCell="V2" sqref="A2:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2296,7 +2336,7 @@
     <col min="22" max="22" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2361,78 +2401,74 @@
         <v>55</v>
       </c>
       <c r="V1" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="18">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="18">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="18">
+        <v>2</v>
+      </c>
+      <c r="G2" s="18">
+        <v>100</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18">
+        <v>1</v>
+      </c>
+      <c r="K2" s="18">
+        <v>1</v>
+      </c>
+      <c r="L2" s="18">
+        <v>1</v>
+      </c>
+      <c r="M2" s="18">
+        <v>1</v>
+      </c>
+      <c r="N2" s="18">
+        <v>100</v>
+      </c>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>0</v>
+      </c>
+      <c r="R2" s="18">
+        <v>0</v>
+      </c>
+      <c r="S2" s="18">
+        <v>200</v>
+      </c>
+      <c r="T2" s="18">
+        <v>0</v>
+      </c>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="16">
-        <v>1000</v>
-      </c>
-      <c r="B2" s="16">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2" s="17">
-        <v>1000</v>
-      </c>
-      <c r="F2" s="16">
-        <v>2</v>
-      </c>
-      <c r="G2" s="16">
-        <v>100</v>
-      </c>
-      <c r="H2" s="16">
-        <v>0</v>
-      </c>
-      <c r="I2" s="16">
-        <v>0</v>
-      </c>
-      <c r="J2" s="16">
-        <v>1</v>
-      </c>
-      <c r="K2" s="16">
-        <v>1</v>
-      </c>
-      <c r="L2" s="16">
-        <v>1</v>
-      </c>
-      <c r="M2" s="16">
-        <v>1</v>
-      </c>
-      <c r="N2" s="16">
-        <v>100</v>
-      </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="16">
-        <v>0</v>
-      </c>
-      <c r="R2" s="16">
-        <v>0</v>
-      </c>
-      <c r="S2" s="16">
-        <v>200</v>
-      </c>
-      <c r="T2" s="16">
-        <v>0</v>
-      </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16" t="s">
-        <v>565</v>
-      </c>
-      <c r="W2" t="str">
-        <f>V2</f>
-        <v>["skill1", "skill2"]</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A3" s="16">
         <v>1010</v>
       </c>
@@ -2497,7 +2533,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A4" s="16">
         <f>A3</f>
         <v>1010</v>
@@ -2563,7 +2599,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
         <f t="shared" ref="A5:A27" si="1">A4</f>
         <v>1010</v>
@@ -2629,7 +2665,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="16">
         <f t="shared" si="1"/>
         <v>1010</v>
@@ -2695,7 +2731,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <f t="shared" si="1"/>
         <v>1010</v>
@@ -2761,7 +2797,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A8" s="16">
         <f t="shared" si="1"/>
         <v>1010</v>
@@ -2827,7 +2863,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <f t="shared" si="1"/>
         <v>1010</v>
@@ -2893,7 +2929,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A10" s="16">
         <f t="shared" si="1"/>
         <v>1010</v>
@@ -2959,7 +2995,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A11" s="16">
         <f t="shared" si="1"/>
         <v>1010</v>
@@ -3025,7 +3061,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A12" s="16">
         <f t="shared" si="1"/>
         <v>1010</v>
@@ -3091,7 +3127,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A13" s="16">
         <f t="shared" si="1"/>
         <v>1010</v>
@@ -3157,7 +3193,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A14" s="16">
         <f t="shared" si="1"/>
         <v>1010</v>
@@ -3223,7 +3259,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A15" s="16">
         <f t="shared" si="1"/>
         <v>1010</v>
@@ -3289,7 +3325,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A16" s="16">
         <f t="shared" si="1"/>
         <v>1010</v>
@@ -10744,7 +10780,7 @@
       </c>
       <c r="U128" s="12"/>
       <c r="V128" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="129" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10810,7 +10846,7 @@
       </c>
       <c r="U129" s="12"/>
       <c r="V129" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="130" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10876,7 +10912,7 @@
       </c>
       <c r="U130" s="12"/>
       <c r="V130" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="131" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10942,7 +10978,7 @@
       </c>
       <c r="U131" s="12"/>
       <c r="V131" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="132" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11008,7 +11044,7 @@
       </c>
       <c r="U132" s="12"/>
       <c r="V132" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="133" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11074,7 +11110,7 @@
       </c>
       <c r="U133" s="12"/>
       <c r="V133" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="134" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11140,7 +11176,7 @@
       </c>
       <c r="U134" s="12"/>
       <c r="V134" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="135" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11206,7 +11242,7 @@
       </c>
       <c r="U135" s="12"/>
       <c r="V135" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="136" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11272,7 +11308,7 @@
       </c>
       <c r="U136" s="12"/>
       <c r="V136" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="137" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11338,7 +11374,7 @@
       </c>
       <c r="U137" s="12"/>
       <c r="V137" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="138" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11404,7 +11440,7 @@
       </c>
       <c r="U138" s="12"/>
       <c r="V138" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="139" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11470,7 +11506,7 @@
       </c>
       <c r="U139" s="12"/>
       <c r="V139" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="140" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11536,7 +11572,7 @@
       </c>
       <c r="U140" s="12"/>
       <c r="V140" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="141" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11602,7 +11638,7 @@
       </c>
       <c r="U141" s="12"/>
       <c r="V141" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="142" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11668,7 +11704,7 @@
       </c>
       <c r="U142" s="12"/>
       <c r="V142" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="143" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11734,7 +11770,7 @@
       </c>
       <c r="U143" s="12"/>
       <c r="V143" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="144" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11800,7 +11836,7 @@
       </c>
       <c r="U144" s="12"/>
       <c r="V144" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="145" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11866,7 +11902,7 @@
       </c>
       <c r="U145" s="12"/>
       <c r="V145" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="146" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11932,7 +11968,7 @@
       </c>
       <c r="U146" s="12"/>
       <c r="V146" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="147" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11998,7 +12034,7 @@
       </c>
       <c r="U147" s="12"/>
       <c r="V147" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="148" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12064,7 +12100,7 @@
       </c>
       <c r="U148" s="12"/>
       <c r="V148" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="149" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12130,7 +12166,7 @@
       </c>
       <c r="U149" s="12"/>
       <c r="V149" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="150" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12196,7 +12232,7 @@
       </c>
       <c r="U150" s="12"/>
       <c r="V150" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="151" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12262,7 +12298,7 @@
       </c>
       <c r="U151" s="12"/>
       <c r="V151" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="152" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12328,72 +12364,72 @@
       </c>
       <c r="U152" s="12"/>
       <c r="V152" s="12" t="s">
-        <v>460</v>
+        <v>567</v>
       </c>
     </row>
     <row r="153" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A153" s="32">
+      <c r="A153" s="20">
         <v>2000</v>
       </c>
-      <c r="B153" s="32">
-        <v>1</v>
-      </c>
-      <c r="C153" s="32" t="s">
+      <c r="B153" s="20">
+        <v>1</v>
+      </c>
+      <c r="C153" s="20" t="s">
         <v>442</v>
       </c>
-      <c r="D153" s="32" t="s">
+      <c r="D153" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E153" s="33">
+      <c r="E153" s="21">
         <v>2000</v>
       </c>
-      <c r="F153" s="16">
-        <v>2</v>
-      </c>
-      <c r="G153" s="32">
-        <v>0</v>
-      </c>
-      <c r="H153" s="32">
+      <c r="F153" s="18">
+        <v>2</v>
+      </c>
+      <c r="G153" s="20">
+        <v>0</v>
+      </c>
+      <c r="H153" s="20">
         <v>100</v>
       </c>
-      <c r="I153" s="16">
+      <c r="I153" s="18">
         <f t="shared" si="8"/>
         <v>60</v>
       </c>
-      <c r="J153" s="32">
-        <v>1</v>
-      </c>
-      <c r="K153" s="32">
-        <v>2</v>
-      </c>
-      <c r="L153" s="32">
-        <v>1</v>
-      </c>
-      <c r="M153" s="32">
-        <v>1</v>
-      </c>
-      <c r="N153" s="32">
+      <c r="J153" s="20">
+        <v>1</v>
+      </c>
+      <c r="K153" s="20">
+        <v>2</v>
+      </c>
+      <c r="L153" s="20">
+        <v>1</v>
+      </c>
+      <c r="M153" s="20">
+        <v>1</v>
+      </c>
+      <c r="N153" s="20">
         <v>100</v>
       </c>
-      <c r="O153" s="32"/>
-      <c r="P153" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q153" s="32">
-        <v>0</v>
-      </c>
-      <c r="R153" s="32">
-        <v>0</v>
-      </c>
-      <c r="S153" s="32">
+      <c r="O153" s="20"/>
+      <c r="P153" s="20">
+        <v>1</v>
+      </c>
+      <c r="Q153" s="20">
+        <v>0</v>
+      </c>
+      <c r="R153" s="20">
+        <v>0</v>
+      </c>
+      <c r="S153" s="20">
         <v>200</v>
       </c>
-      <c r="T153" s="32">
-        <v>1</v>
-      </c>
-      <c r="U153" s="32"/>
-      <c r="V153" s="32" t="s">
-        <v>566</v>
+      <c r="T153" s="20">
+        <v>1</v>
+      </c>
+      <c r="U153" s="20"/>
+      <c r="V153" s="20" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="154" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20712,7 +20748,7 @@
       </c>
       <c r="U279" s="10"/>
       <c r="V279" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="280" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20778,7 +20814,7 @@
       </c>
       <c r="U280" s="10"/>
       <c r="V280" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="281" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20844,7 +20880,7 @@
       </c>
       <c r="U281" s="10"/>
       <c r="V281" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="282" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20910,7 +20946,7 @@
       </c>
       <c r="U282" s="10"/>
       <c r="V282" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="283" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20976,7 +21012,7 @@
       </c>
       <c r="U283" s="10"/>
       <c r="V283" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="284" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -21042,7 +21078,7 @@
       </c>
       <c r="U284" s="10"/>
       <c r="V284" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="285" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -21108,7 +21144,7 @@
       </c>
       <c r="U285" s="10"/>
       <c r="V285" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="286" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -21174,7 +21210,7 @@
       </c>
       <c r="U286" s="10"/>
       <c r="V286" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="287" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -21240,7 +21276,7 @@
       </c>
       <c r="U287" s="10"/>
       <c r="V287" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="288" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -21306,7 +21342,7 @@
       </c>
       <c r="U288" s="10"/>
       <c r="V288" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="289" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21372,7 +21408,7 @@
       </c>
       <c r="U289" s="10"/>
       <c r="V289" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="290" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21438,7 +21474,7 @@
       </c>
       <c r="U290" s="10"/>
       <c r="V290" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="291" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21504,7 +21540,7 @@
       </c>
       <c r="U291" s="10"/>
       <c r="V291" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="292" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21570,7 +21606,7 @@
       </c>
       <c r="U292" s="10"/>
       <c r="V292" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="293" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21636,7 +21672,7 @@
       </c>
       <c r="U293" s="10"/>
       <c r="V293" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="294" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21702,7 +21738,7 @@
       </c>
       <c r="U294" s="10"/>
       <c r="V294" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="295" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21768,7 +21804,7 @@
       </c>
       <c r="U295" s="10"/>
       <c r="V295" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="296" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21834,7 +21870,7 @@
       </c>
       <c r="U296" s="10"/>
       <c r="V296" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="297" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21900,7 +21936,7 @@
       </c>
       <c r="U297" s="10"/>
       <c r="V297" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="298" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21966,7 +22002,7 @@
       </c>
       <c r="U298" s="10"/>
       <c r="V298" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="299" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22032,7 +22068,7 @@
       </c>
       <c r="U299" s="10"/>
       <c r="V299" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="300" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22098,7 +22134,7 @@
       </c>
       <c r="U300" s="10"/>
       <c r="V300" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="301" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22164,7 +22200,7 @@
       </c>
       <c r="U301" s="10"/>
       <c r="V301" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="302" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22230,7 +22266,7 @@
       </c>
       <c r="U302" s="10"/>
       <c r="V302" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="303" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22296,72 +22332,72 @@
       </c>
       <c r="U303" s="10"/>
       <c r="V303" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="304" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A304" s="25">
+      <c r="A304" s="32">
         <v>3000</v>
       </c>
-      <c r="B304" s="25">
-        <v>1</v>
-      </c>
-      <c r="C304" s="25" t="s">
+      <c r="B304" s="33">
+        <v>1</v>
+      </c>
+      <c r="C304" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D304" s="25" t="s">
+      <c r="D304" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="E304" s="26">
+      <c r="E304" s="34">
         <v>3000</v>
       </c>
-      <c r="F304" s="16">
-        <v>2</v>
-      </c>
-      <c r="G304" s="25">
-        <v>0</v>
-      </c>
-      <c r="H304" s="25">
+      <c r="F304" s="35">
+        <v>2</v>
+      </c>
+      <c r="G304" s="33">
+        <v>0</v>
+      </c>
+      <c r="H304" s="33">
         <v>100</v>
       </c>
-      <c r="I304" s="16">
+      <c r="I304" s="35">
         <f t="shared" si="15"/>
         <v>60</v>
       </c>
-      <c r="J304" s="25">
-        <v>1</v>
-      </c>
-      <c r="K304" s="25">
+      <c r="J304" s="33">
+        <v>1</v>
+      </c>
+      <c r="K304" s="33">
         <v>3</v>
       </c>
-      <c r="L304" s="25">
-        <v>1</v>
-      </c>
-      <c r="M304" s="25">
-        <v>1</v>
-      </c>
-      <c r="N304" s="25">
+      <c r="L304" s="33">
+        <v>1</v>
+      </c>
+      <c r="M304" s="33">
+        <v>1</v>
+      </c>
+      <c r="N304" s="33">
         <v>100</v>
       </c>
-      <c r="O304" s="25"/>
-      <c r="P304" s="25">
-        <v>1</v>
-      </c>
-      <c r="Q304" s="25">
-        <v>0</v>
-      </c>
-      <c r="R304" s="25">
-        <v>0</v>
-      </c>
-      <c r="S304" s="25">
+      <c r="O304" s="33"/>
+      <c r="P304" s="33">
+        <v>1</v>
+      </c>
+      <c r="Q304" s="33">
+        <v>0</v>
+      </c>
+      <c r="R304" s="33">
+        <v>0</v>
+      </c>
+      <c r="S304" s="33">
         <v>200</v>
       </c>
-      <c r="T304" s="25">
-        <v>1</v>
-      </c>
-      <c r="U304" s="25"/>
-      <c r="V304" s="25" t="s">
-        <v>567</v>
+      <c r="T304" s="33">
+        <v>1</v>
+      </c>
+      <c r="U304" s="33"/>
+      <c r="V304" s="36" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="305" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32325,7 +32361,7 @@
       </c>
       <c r="U455" s="27"/>
       <c r="V455" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="456" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32390,7 +32426,7 @@
       </c>
       <c r="U456" s="27"/>
       <c r="V456" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="457" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32455,7 +32491,7 @@
       </c>
       <c r="U457" s="27"/>
       <c r="V457" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="458" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32520,7 +32556,7 @@
       </c>
       <c r="U458" s="27"/>
       <c r="V458" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="459" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32585,7 +32621,7 @@
       </c>
       <c r="U459" s="27"/>
       <c r="V459" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="460" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32650,7 +32686,7 @@
       </c>
       <c r="U460" s="27"/>
       <c r="V460" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="461" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32715,7 +32751,7 @@
       </c>
       <c r="U461" s="27"/>
       <c r="V461" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="462" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32780,7 +32816,7 @@
       </c>
       <c r="U462" s="27"/>
       <c r="V462" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="463" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32845,7 +32881,7 @@
       </c>
       <c r="U463" s="27"/>
       <c r="V463" s="27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="464" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32910,7 +32946,7 @@
       </c>
       <c r="U464" s="27"/>
       <c r="V464" s="27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="465" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32975,7 +33011,7 @@
       </c>
       <c r="U465" s="27"/>
       <c r="V465" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="466" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33040,7 +33076,7 @@
       </c>
       <c r="U466" s="27"/>
       <c r="V466" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="467" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33105,7 +33141,7 @@
       </c>
       <c r="U467" s="27"/>
       <c r="V467" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="468" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33170,7 +33206,7 @@
       </c>
       <c r="U468" s="27"/>
       <c r="V468" s="27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="469" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33235,7 +33271,7 @@
       </c>
       <c r="U469" s="27"/>
       <c r="V469" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="470" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33300,7 +33336,7 @@
       </c>
       <c r="U470" s="27"/>
       <c r="V470" s="27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="471" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33365,7 +33401,7 @@
       </c>
       <c r="U471" s="27"/>
       <c r="V471" s="27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="472" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33430,7 +33466,7 @@
       </c>
       <c r="U472" s="27"/>
       <c r="V472" s="27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="473" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33495,7 +33531,7 @@
       </c>
       <c r="U473" s="27"/>
       <c r="V473" s="27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="474" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33560,7 +33596,7 @@
       </c>
       <c r="U474" s="27"/>
       <c r="V474" s="27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="475" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33625,7 +33661,7 @@
       </c>
       <c r="U475" s="27"/>
       <c r="V475" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="476" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33690,7 +33726,7 @@
       </c>
       <c r="U476" s="27"/>
       <c r="V476" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="477" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33755,7 +33791,7 @@
       </c>
       <c r="U477" s="27"/>
       <c r="V477" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="478" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33820,7 +33856,7 @@
       </c>
       <c r="U478" s="27"/>
       <c r="V478" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="479" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33885,7 +33921,7 @@
       </c>
       <c r="U479" s="27"/>
       <c r="V479" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="480" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33950,7 +33986,7 @@
       </c>
       <c r="U480" s="27"/>
       <c r="V480" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="481" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34015,7 +34051,7 @@
       </c>
       <c r="U481" s="27"/>
       <c r="V481" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="482" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34080,7 +34116,7 @@
       </c>
       <c r="U482" s="27"/>
       <c r="V482" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="483" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34145,7 +34181,7 @@
       </c>
       <c r="U483" s="27"/>
       <c r="V483" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="484" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34210,7 +34246,7 @@
       </c>
       <c r="U484" s="27"/>
       <c r="V484" s="27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="485" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34275,7 +34311,7 @@
       </c>
       <c r="U485" s="27"/>
       <c r="V485" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="486" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34340,7 +34376,7 @@
       </c>
       <c r="U486" s="27"/>
       <c r="V486" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="487" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34405,7 +34441,7 @@
       </c>
       <c r="U487" s="27"/>
       <c r="V487" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="488" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34470,7 +34506,7 @@
       </c>
       <c r="U488" s="27"/>
       <c r="V488" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="489" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34535,7 +34571,7 @@
       </c>
       <c r="U489" s="27"/>
       <c r="V489" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="490" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34600,7 +34636,7 @@
       </c>
       <c r="U490" s="27"/>
       <c r="V490" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="491" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34665,7 +34701,7 @@
       </c>
       <c r="U491" s="27"/>
       <c r="V491" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="492" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34730,7 +34766,7 @@
       </c>
       <c r="U492" s="27"/>
       <c r="V492" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="493" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34795,7 +34831,7 @@
       </c>
       <c r="U493" s="27"/>
       <c r="V493" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="494" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34860,7 +34896,7 @@
       </c>
       <c r="U494" s="27"/>
       <c r="V494" s="27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="495" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34925,7 +34961,7 @@
       </c>
       <c r="U495" s="27"/>
       <c r="V495" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="496" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34990,7 +35026,7 @@
       </c>
       <c r="U496" s="27"/>
       <c r="V496" s="27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="497" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35055,7 +35091,7 @@
       </c>
       <c r="U497" s="27"/>
       <c r="V497" s="27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="498" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35120,7 +35156,7 @@
       </c>
       <c r="U498" s="27"/>
       <c r="V498" s="27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="499" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35185,7 +35221,7 @@
       </c>
       <c r="U499" s="27"/>
       <c r="V499" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="500" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35250,7 +35286,7 @@
       </c>
       <c r="U500" s="27"/>
       <c r="V500" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="501" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35315,7 +35351,7 @@
       </c>
       <c r="U501" s="27"/>
       <c r="V501" s="27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="502" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35380,7 +35416,7 @@
       </c>
       <c r="U502" s="27"/>
       <c r="V502" s="27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="503" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35445,7 +35481,7 @@
       </c>
       <c r="U503" s="27"/>
       <c r="V503" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="504" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35510,7 +35546,7 @@
       </c>
       <c r="U504" s="27"/>
       <c r="V504" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="505" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35575,7 +35611,7 @@
       </c>
       <c r="U505" s="27"/>
       <c r="V505" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="506" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35640,7 +35676,7 @@
       </c>
       <c r="U506" s="27"/>
       <c r="V506" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="507" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35705,7 +35741,7 @@
       </c>
       <c r="U507" s="27"/>
       <c r="V507" s="27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="508" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35770,7 +35806,7 @@
       </c>
       <c r="U508" s="27"/>
       <c r="V508" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="509" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35835,7 +35871,7 @@
       </c>
       <c r="U509" s="27"/>
       <c r="V509" s="27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="510" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35900,7 +35936,7 @@
       </c>
       <c r="U510" s="27"/>
       <c r="V510" s="27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="511" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35965,7 +36001,7 @@
       </c>
       <c r="U511" s="27"/>
       <c r="V511" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="512" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36030,7 +36066,7 @@
       </c>
       <c r="U512" s="27"/>
       <c r="V512" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="513" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36095,7 +36131,7 @@
       </c>
       <c r="U513" s="27"/>
       <c r="V513" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="514" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36160,7 +36196,7 @@
       </c>
       <c r="U514" s="27"/>
       <c r="V514" s="27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="515" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36225,7 +36261,7 @@
       </c>
       <c r="U515" s="27"/>
       <c r="V515" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="516" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36290,7 +36326,7 @@
       </c>
       <c r="U516" s="27"/>
       <c r="V516" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="517" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36355,7 +36391,7 @@
       </c>
       <c r="U517" s="27"/>
       <c r="V517" s="27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="518" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36420,7 +36456,7 @@
       </c>
       <c r="U518" s="27"/>
       <c r="V518" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="519" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36485,7 +36521,7 @@
       </c>
       <c r="U519" s="27"/>
       <c r="V519" s="27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="520" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36550,7 +36586,7 @@
       </c>
       <c r="U520" s="27"/>
       <c r="V520" s="27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="521" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36615,7 +36651,7 @@
       </c>
       <c r="U521" s="27"/>
       <c r="V521" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="522" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36680,7 +36716,7 @@
       </c>
       <c r="U522" s="27"/>
       <c r="V522" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="523" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36745,7 +36781,7 @@
       </c>
       <c r="U523" s="27"/>
       <c r="V523" s="27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="524" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36810,7 +36846,7 @@
       </c>
       <c r="U524" s="27"/>
       <c r="V524" s="27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="525" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36875,7 +36911,7 @@
       </c>
       <c r="U525" s="27"/>
       <c r="V525" s="27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="526" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36940,7 +36976,7 @@
       </c>
       <c r="U526" s="27"/>
       <c r="V526" s="27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="527" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37005,7 +37041,7 @@
       </c>
       <c r="U527" s="27"/>
       <c r="V527" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="528" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37070,7 +37106,7 @@
       </c>
       <c r="U528" s="27"/>
       <c r="V528" s="27" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="529" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37135,7 +37171,7 @@
       </c>
       <c r="U529" s="27"/>
       <c r="V529" s="27" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="530" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37200,7 +37236,7 @@
       </c>
       <c r="U530" s="27"/>
       <c r="V530" s="27" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="531" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37265,7 +37301,7 @@
       </c>
       <c r="U531" s="27"/>
       <c r="V531" s="27" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="532" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37330,7 +37366,7 @@
       </c>
       <c r="U532" s="27"/>
       <c r="V532" s="27" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="533" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37395,7 +37431,7 @@
       </c>
       <c r="U533" s="27"/>
       <c r="V533" s="27" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="534" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37460,7 +37496,7 @@
       </c>
       <c r="U534" s="27"/>
       <c r="V534" s="27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="535" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37525,7 +37561,7 @@
       </c>
       <c r="U535" s="27"/>
       <c r="V535" s="27" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="536" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37590,7 +37626,7 @@
       </c>
       <c r="U536" s="27"/>
       <c r="V536" s="27" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="537" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37655,7 +37691,7 @@
       </c>
       <c r="U537" s="27"/>
       <c r="V537" s="27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="538" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37720,7 +37756,7 @@
       </c>
       <c r="U538" s="27"/>
       <c r="V538" s="27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="539" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37785,7 +37821,7 @@
       </c>
       <c r="U539" s="27"/>
       <c r="V539" s="27" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="540" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37850,7 +37886,7 @@
       </c>
       <c r="U540" s="27"/>
       <c r="V540" s="27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="541" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37915,7 +37951,7 @@
       </c>
       <c r="U541" s="27"/>
       <c r="V541" s="27" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="542" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37980,7 +38016,7 @@
       </c>
       <c r="U542" s="27"/>
       <c r="V542" s="27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="543" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38045,7 +38081,7 @@
       </c>
       <c r="U543" s="27"/>
       <c r="V543" s="27" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="544" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38110,7 +38146,7 @@
       </c>
       <c r="U544" s="27"/>
       <c r="V544" s="27" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="545" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38175,7 +38211,7 @@
       </c>
       <c r="U545" s="27"/>
       <c r="V545" s="27" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="546" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38240,7 +38276,7 @@
       </c>
       <c r="U546" s="27"/>
       <c r="V546" s="27" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="547" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38305,7 +38341,7 @@
       </c>
       <c r="U547" s="27"/>
       <c r="V547" s="27" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="548" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38370,7 +38406,7 @@
       </c>
       <c r="U548" s="27"/>
       <c r="V548" s="27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="549" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38435,7 +38471,7 @@
       </c>
       <c r="U549" s="27"/>
       <c r="V549" s="27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="550" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38500,7 +38536,7 @@
       </c>
       <c r="U550" s="27"/>
       <c r="V550" s="27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="551" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38565,7 +38601,7 @@
       </c>
       <c r="U551" s="27"/>
       <c r="V551" s="27" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="552" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38630,7 +38666,7 @@
       </c>
       <c r="U552" s="27"/>
       <c r="V552" s="27" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="553" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38695,7 +38731,7 @@
       </c>
       <c r="U553" s="27"/>
       <c r="V553" s="27" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="554" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38760,7 +38796,7 @@
       </c>
       <c r="U554" s="27"/>
       <c r="V554" s="27" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="555" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38824,7 +38860,7 @@
       </c>
       <c r="U555" s="30"/>
       <c r="V555" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="556" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38888,7 +38924,7 @@
       </c>
       <c r="U556" s="30"/>
       <c r="V556" s="30" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1619" uniqueCount="569">
   <si>
     <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1407,14 +1407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>战士普通攻击1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道士普通攻击1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冷却时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1793,6 +1785,18 @@
   </si>
   <si>
     <t>["skill8"]</t>
+  </si>
+  <si>
+    <t>法师普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道士普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战士普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2313,10 +2317,10 @@
   <dimension ref="A1:W556"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D287" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V2" sqref="A2:V2"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2392,7 +2396,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>14</v>
@@ -2401,7 +2405,7 @@
         <v>55</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2412,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>441</v>
+        <v>568</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>292</v>
@@ -2465,7 +2469,7 @@
       </c>
       <c r="U2" s="18"/>
       <c r="V2" s="18" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2530,7 +2534,7 @@
       </c>
       <c r="U3" s="16"/>
       <c r="V3" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2596,7 +2600,7 @@
       </c>
       <c r="U4" s="16"/>
       <c r="V4" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2662,7 +2666,7 @@
       </c>
       <c r="U5" s="16"/>
       <c r="V5" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2728,7 +2732,7 @@
       </c>
       <c r="U6" s="16"/>
       <c r="V6" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2794,7 +2798,7 @@
       </c>
       <c r="U7" s="16"/>
       <c r="V7" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2860,7 +2864,7 @@
       </c>
       <c r="U8" s="16"/>
       <c r="V8" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2926,7 +2930,7 @@
       </c>
       <c r="U9" s="16"/>
       <c r="V9" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2992,7 +2996,7 @@
       </c>
       <c r="U10" s="16"/>
       <c r="V10" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3058,7 +3062,7 @@
       </c>
       <c r="U11" s="16"/>
       <c r="V11" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3124,7 +3128,7 @@
       </c>
       <c r="U12" s="16"/>
       <c r="V12" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3190,7 +3194,7 @@
       </c>
       <c r="U13" s="16"/>
       <c r="V13" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3256,7 +3260,7 @@
       </c>
       <c r="U14" s="16"/>
       <c r="V14" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3322,7 +3326,7 @@
       </c>
       <c r="U15" s="16"/>
       <c r="V15" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3388,7 +3392,7 @@
       </c>
       <c r="U16" s="16"/>
       <c r="V16" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3454,7 +3458,7 @@
       </c>
       <c r="U17" s="16"/>
       <c r="V17" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3520,7 +3524,7 @@
       </c>
       <c r="U18" s="16"/>
       <c r="V18" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3586,7 +3590,7 @@
       </c>
       <c r="U19" s="16"/>
       <c r="V19" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3652,7 +3656,7 @@
       </c>
       <c r="U20" s="16"/>
       <c r="V20" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3718,7 +3722,7 @@
       </c>
       <c r="U21" s="16"/>
       <c r="V21" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3784,7 +3788,7 @@
       </c>
       <c r="U22" s="16"/>
       <c r="V22" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3850,7 +3854,7 @@
       </c>
       <c r="U23" s="16"/>
       <c r="V23" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3916,7 +3920,7 @@
       </c>
       <c r="U24" s="16"/>
       <c r="V24" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3982,7 +3986,7 @@
       </c>
       <c r="U25" s="16"/>
       <c r="V25" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4048,7 +4052,7 @@
       </c>
       <c r="U26" s="16"/>
       <c r="V26" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4114,7 +4118,7 @@
       </c>
       <c r="U27" s="18"/>
       <c r="V27" s="16" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4180,7 +4184,7 @@
       </c>
       <c r="U28" s="12"/>
       <c r="V28" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4246,7 +4250,7 @@
       </c>
       <c r="U29" s="12"/>
       <c r="V29" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4312,7 +4316,7 @@
       </c>
       <c r="U30" s="12"/>
       <c r="V30" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4378,7 +4382,7 @@
       </c>
       <c r="U31" s="12"/>
       <c r="V31" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4444,7 +4448,7 @@
       </c>
       <c r="U32" s="12"/>
       <c r="V32" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4510,7 +4514,7 @@
       </c>
       <c r="U33" s="12"/>
       <c r="V33" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4576,7 +4580,7 @@
       </c>
       <c r="U34" s="12"/>
       <c r="V34" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4642,7 +4646,7 @@
       </c>
       <c r="U35" s="12"/>
       <c r="V35" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4708,7 +4712,7 @@
       </c>
       <c r="U36" s="12"/>
       <c r="V36" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4774,7 +4778,7 @@
       </c>
       <c r="U37" s="12"/>
       <c r="V37" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4840,7 +4844,7 @@
       </c>
       <c r="U38" s="12"/>
       <c r="V38" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4906,7 +4910,7 @@
       </c>
       <c r="U39" s="12"/>
       <c r="V39" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4972,7 +4976,7 @@
       </c>
       <c r="U40" s="12"/>
       <c r="V40" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5038,7 +5042,7 @@
       </c>
       <c r="U41" s="12"/>
       <c r="V41" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5104,7 +5108,7 @@
       </c>
       <c r="U42" s="12"/>
       <c r="V42" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5170,7 +5174,7 @@
       </c>
       <c r="U43" s="12"/>
       <c r="V43" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5236,7 +5240,7 @@
       </c>
       <c r="U44" s="12"/>
       <c r="V44" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5302,7 +5306,7 @@
       </c>
       <c r="U45" s="12"/>
       <c r="V45" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5368,7 +5372,7 @@
       </c>
       <c r="U46" s="12"/>
       <c r="V46" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5434,7 +5438,7 @@
       </c>
       <c r="U47" s="12"/>
       <c r="V47" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5500,7 +5504,7 @@
       </c>
       <c r="U48" s="12"/>
       <c r="V48" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5566,7 +5570,7 @@
       </c>
       <c r="U49" s="12"/>
       <c r="V49" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5632,7 +5636,7 @@
       </c>
       <c r="U50" s="12"/>
       <c r="V50" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5698,7 +5702,7 @@
       </c>
       <c r="U51" s="12"/>
       <c r="V51" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5764,7 +5768,7 @@
       </c>
       <c r="U52" s="18"/>
       <c r="V52" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5830,7 +5834,7 @@
       </c>
       <c r="U53" s="12"/>
       <c r="V53" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5896,7 +5900,7 @@
       </c>
       <c r="U54" s="12"/>
       <c r="V54" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5962,7 +5966,7 @@
       </c>
       <c r="U55" s="12"/>
       <c r="V55" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6028,7 +6032,7 @@
       </c>
       <c r="U56" s="12"/>
       <c r="V56" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6094,7 +6098,7 @@
       </c>
       <c r="U57" s="12"/>
       <c r="V57" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6160,7 +6164,7 @@
       </c>
       <c r="U58" s="12"/>
       <c r="V58" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6226,7 +6230,7 @@
       </c>
       <c r="U59" s="12"/>
       <c r="V59" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6292,7 +6296,7 @@
       </c>
       <c r="U60" s="12"/>
       <c r="V60" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6358,7 +6362,7 @@
       </c>
       <c r="U61" s="12"/>
       <c r="V61" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6424,7 +6428,7 @@
       </c>
       <c r="U62" s="12"/>
       <c r="V62" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6490,7 +6494,7 @@
       </c>
       <c r="U63" s="12"/>
       <c r="V63" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6556,7 +6560,7 @@
       </c>
       <c r="U64" s="12"/>
       <c r="V64" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6622,7 +6626,7 @@
       </c>
       <c r="U65" s="12"/>
       <c r="V65" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6688,7 +6692,7 @@
       </c>
       <c r="U66" s="12"/>
       <c r="V66" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6754,7 +6758,7 @@
       </c>
       <c r="U67" s="12"/>
       <c r="V67" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6820,7 +6824,7 @@
       </c>
       <c r="U68" s="12"/>
       <c r="V68" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6886,7 +6890,7 @@
       </c>
       <c r="U69" s="12"/>
       <c r="V69" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="70" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6952,7 +6956,7 @@
       </c>
       <c r="U70" s="12"/>
       <c r="V70" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="71" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7018,7 +7022,7 @@
       </c>
       <c r="U71" s="12"/>
       <c r="V71" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7084,7 +7088,7 @@
       </c>
       <c r="U72" s="12"/>
       <c r="V72" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="73" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7150,7 +7154,7 @@
       </c>
       <c r="U73" s="12"/>
       <c r="V73" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="74" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7216,7 +7220,7 @@
       </c>
       <c r="U74" s="12"/>
       <c r="V74" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="75" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7282,7 +7286,7 @@
       </c>
       <c r="U75" s="12"/>
       <c r="V75" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="76" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7348,7 +7352,7 @@
       </c>
       <c r="U76" s="12"/>
       <c r="V76" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="77" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7414,7 +7418,7 @@
       </c>
       <c r="U77" s="18"/>
       <c r="V77" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7480,7 +7484,7 @@
       </c>
       <c r="U78" s="12"/>
       <c r="V78" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7546,7 +7550,7 @@
       </c>
       <c r="U79" s="12"/>
       <c r="V79" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="80" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7612,7 +7616,7 @@
       </c>
       <c r="U80" s="12"/>
       <c r="V80" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="81" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7678,7 +7682,7 @@
       </c>
       <c r="U81" s="12"/>
       <c r="V81" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="82" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7744,7 +7748,7 @@
       </c>
       <c r="U82" s="12"/>
       <c r="V82" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="83" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7810,7 +7814,7 @@
       </c>
       <c r="U83" s="12"/>
       <c r="V83" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7876,7 +7880,7 @@
       </c>
       <c r="U84" s="12"/>
       <c r="V84" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="85" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7942,7 +7946,7 @@
       </c>
       <c r="U85" s="12"/>
       <c r="V85" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8008,7 +8012,7 @@
       </c>
       <c r="U86" s="12"/>
       <c r="V86" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="87" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8074,7 +8078,7 @@
       </c>
       <c r="U87" s="12"/>
       <c r="V87" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="88" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8140,7 +8144,7 @@
       </c>
       <c r="U88" s="12"/>
       <c r="V88" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="89" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8206,7 +8210,7 @@
       </c>
       <c r="U89" s="12"/>
       <c r="V89" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="90" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8272,7 +8276,7 @@
       </c>
       <c r="U90" s="12"/>
       <c r="V90" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8338,7 +8342,7 @@
       </c>
       <c r="U91" s="12"/>
       <c r="V91" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="92" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8404,7 +8408,7 @@
       </c>
       <c r="U92" s="12"/>
       <c r="V92" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="93" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8470,7 +8474,7 @@
       </c>
       <c r="U93" s="12"/>
       <c r="V93" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="94" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8536,7 +8540,7 @@
       </c>
       <c r="U94" s="12"/>
       <c r="V94" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8602,7 +8606,7 @@
       </c>
       <c r="U95" s="12"/>
       <c r="V95" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8668,7 +8672,7 @@
       </c>
       <c r="U96" s="12"/>
       <c r="V96" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="97" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8734,7 +8738,7 @@
       </c>
       <c r="U97" s="12"/>
       <c r="V97" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8800,7 +8804,7 @@
       </c>
       <c r="U98" s="12"/>
       <c r="V98" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="99" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8866,7 +8870,7 @@
       </c>
       <c r="U99" s="12"/>
       <c r="V99" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="100" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8932,7 +8936,7 @@
       </c>
       <c r="U100" s="12"/>
       <c r="V100" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8998,7 +9002,7 @@
       </c>
       <c r="U101" s="12"/>
       <c r="V101" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9064,7 +9068,7 @@
       </c>
       <c r="U102" s="18"/>
       <c r="V102" s="12" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9130,7 +9134,7 @@
       </c>
       <c r="U103" s="12"/>
       <c r="V103" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9196,7 +9200,7 @@
       </c>
       <c r="U104" s="12"/>
       <c r="V104" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="105" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9262,7 +9266,7 @@
       </c>
       <c r="U105" s="12"/>
       <c r="V105" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9328,7 +9332,7 @@
       </c>
       <c r="U106" s="12"/>
       <c r="V106" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="107" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9394,7 +9398,7 @@
       </c>
       <c r="U107" s="12"/>
       <c r="V107" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="108" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9460,7 +9464,7 @@
       </c>
       <c r="U108" s="12"/>
       <c r="V108" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9526,7 +9530,7 @@
       </c>
       <c r="U109" s="12"/>
       <c r="V109" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="110" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9592,7 +9596,7 @@
       </c>
       <c r="U110" s="12"/>
       <c r="V110" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9658,7 +9662,7 @@
       </c>
       <c r="U111" s="12"/>
       <c r="V111" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="112" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9724,7 +9728,7 @@
       </c>
       <c r="U112" s="12"/>
       <c r="V112" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="113" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9790,7 +9794,7 @@
       </c>
       <c r="U113" s="12"/>
       <c r="V113" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="114" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9856,7 +9860,7 @@
       </c>
       <c r="U114" s="12"/>
       <c r="V114" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="115" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9922,7 +9926,7 @@
       </c>
       <c r="U115" s="12"/>
       <c r="V115" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="116" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9988,7 +9992,7 @@
       </c>
       <c r="U116" s="12"/>
       <c r="V116" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="117" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10054,7 +10058,7 @@
       </c>
       <c r="U117" s="12"/>
       <c r="V117" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="118" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10120,7 +10124,7 @@
       </c>
       <c r="U118" s="12"/>
       <c r="V118" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="119" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10186,7 +10190,7 @@
       </c>
       <c r="U119" s="12"/>
       <c r="V119" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10252,7 +10256,7 @@
       </c>
       <c r="U120" s="12"/>
       <c r="V120" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="121" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10318,7 +10322,7 @@
       </c>
       <c r="U121" s="12"/>
       <c r="V121" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="122" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10384,7 +10388,7 @@
       </c>
       <c r="U122" s="12"/>
       <c r="V122" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="123" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10450,7 +10454,7 @@
       </c>
       <c r="U123" s="12"/>
       <c r="V123" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="124" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10516,7 +10520,7 @@
       </c>
       <c r="U124" s="12"/>
       <c r="V124" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10582,7 +10586,7 @@
       </c>
       <c r="U125" s="12"/>
       <c r="V125" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="126" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10648,7 +10652,7 @@
       </c>
       <c r="U126" s="12"/>
       <c r="V126" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="127" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10714,7 +10718,7 @@
       </c>
       <c r="U127" s="18"/>
       <c r="V127" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="128" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10780,7 +10784,7 @@
       </c>
       <c r="U128" s="12"/>
       <c r="V128" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="129" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10846,7 +10850,7 @@
       </c>
       <c r="U129" s="12"/>
       <c r="V129" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="130" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10912,7 +10916,7 @@
       </c>
       <c r="U130" s="12"/>
       <c r="V130" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="131" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10978,7 +10982,7 @@
       </c>
       <c r="U131" s="12"/>
       <c r="V131" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="132" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11044,7 +11048,7 @@
       </c>
       <c r="U132" s="12"/>
       <c r="V132" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="133" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11110,7 +11114,7 @@
       </c>
       <c r="U133" s="12"/>
       <c r="V133" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="134" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11176,7 +11180,7 @@
       </c>
       <c r="U134" s="12"/>
       <c r="V134" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="135" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11242,7 +11246,7 @@
       </c>
       <c r="U135" s="12"/>
       <c r="V135" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="136" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11308,7 +11312,7 @@
       </c>
       <c r="U136" s="12"/>
       <c r="V136" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="137" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11374,7 +11378,7 @@
       </c>
       <c r="U137" s="12"/>
       <c r="V137" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="138" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11440,7 +11444,7 @@
       </c>
       <c r="U138" s="12"/>
       <c r="V138" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="139" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11506,7 +11510,7 @@
       </c>
       <c r="U139" s="12"/>
       <c r="V139" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="140" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11572,7 +11576,7 @@
       </c>
       <c r="U140" s="12"/>
       <c r="V140" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="141" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11638,7 +11642,7 @@
       </c>
       <c r="U141" s="12"/>
       <c r="V141" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="142" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11704,7 +11708,7 @@
       </c>
       <c r="U142" s="12"/>
       <c r="V142" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="143" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11770,7 +11774,7 @@
       </c>
       <c r="U143" s="12"/>
       <c r="V143" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="144" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11836,7 +11840,7 @@
       </c>
       <c r="U144" s="12"/>
       <c r="V144" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="145" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11902,7 +11906,7 @@
       </c>
       <c r="U145" s="12"/>
       <c r="V145" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="146" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11968,7 +11972,7 @@
       </c>
       <c r="U146" s="12"/>
       <c r="V146" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="147" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12034,7 +12038,7 @@
       </c>
       <c r="U147" s="12"/>
       <c r="V147" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="148" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12100,7 +12104,7 @@
       </c>
       <c r="U148" s="12"/>
       <c r="V148" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="149" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12166,7 +12170,7 @@
       </c>
       <c r="U149" s="12"/>
       <c r="V149" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="150" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12232,7 +12236,7 @@
       </c>
       <c r="U150" s="12"/>
       <c r="V150" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="151" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12298,7 +12302,7 @@
       </c>
       <c r="U151" s="12"/>
       <c r="V151" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="152" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12364,7 +12368,7 @@
       </c>
       <c r="U152" s="12"/>
       <c r="V152" s="12" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="153" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12375,7 +12379,7 @@
         <v>1</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>442</v>
+        <v>567</v>
       </c>
       <c r="D153" s="20" t="s">
         <v>63</v>
@@ -12429,7 +12433,7 @@
       </c>
       <c r="U153" s="20"/>
       <c r="V153" s="20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="154" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12494,7 +12498,7 @@
       </c>
       <c r="U154" s="10"/>
       <c r="V154" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="155" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12560,7 +12564,7 @@
       </c>
       <c r="U155" s="10"/>
       <c r="V155" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="156" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12626,7 +12630,7 @@
       </c>
       <c r="U156" s="10"/>
       <c r="V156" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="157" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12692,7 +12696,7 @@
       </c>
       <c r="U157" s="10"/>
       <c r="V157" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="158" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12758,7 +12762,7 @@
       </c>
       <c r="U158" s="10"/>
       <c r="V158" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="159" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12824,7 +12828,7 @@
       </c>
       <c r="U159" s="10"/>
       <c r="V159" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="160" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12890,7 +12894,7 @@
       </c>
       <c r="U160" s="10"/>
       <c r="V160" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="161" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12956,7 +12960,7 @@
       </c>
       <c r="U161" s="10"/>
       <c r="V161" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="162" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13022,7 +13026,7 @@
       </c>
       <c r="U162" s="10"/>
       <c r="V162" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="163" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13088,7 +13092,7 @@
       </c>
       <c r="U163" s="10"/>
       <c r="V163" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="164" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13154,7 +13158,7 @@
       </c>
       <c r="U164" s="10"/>
       <c r="V164" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="165" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13220,7 +13224,7 @@
       </c>
       <c r="U165" s="10"/>
       <c r="V165" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="166" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13286,7 +13290,7 @@
       </c>
       <c r="U166" s="10"/>
       <c r="V166" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="167" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13352,7 +13356,7 @@
       </c>
       <c r="U167" s="10"/>
       <c r="V167" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="168" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13418,7 +13422,7 @@
       </c>
       <c r="U168" s="10"/>
       <c r="V168" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="169" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13484,7 +13488,7 @@
       </c>
       <c r="U169" s="10"/>
       <c r="V169" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="170" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13550,7 +13554,7 @@
       </c>
       <c r="U170" s="10"/>
       <c r="V170" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="171" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13616,7 +13620,7 @@
       </c>
       <c r="U171" s="10"/>
       <c r="V171" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="172" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13682,7 +13686,7 @@
       </c>
       <c r="U172" s="10"/>
       <c r="V172" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="173" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13748,7 +13752,7 @@
       </c>
       <c r="U173" s="10"/>
       <c r="V173" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="174" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13814,7 +13818,7 @@
       </c>
       <c r="U174" s="10"/>
       <c r="V174" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="175" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13880,7 +13884,7 @@
       </c>
       <c r="U175" s="10"/>
       <c r="V175" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="176" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13946,7 +13950,7 @@
       </c>
       <c r="U176" s="10"/>
       <c r="V176" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14012,7 +14016,7 @@
       </c>
       <c r="U177" s="10"/>
       <c r="V177" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14078,7 +14082,7 @@
       </c>
       <c r="U178" s="20"/>
       <c r="V178" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="W178" s="22"/>
     </row>
@@ -14145,7 +14149,7 @@
       </c>
       <c r="U179" s="10"/>
       <c r="V179" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14211,7 +14215,7 @@
       </c>
       <c r="U180" s="10"/>
       <c r="V180" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14277,7 +14281,7 @@
       </c>
       <c r="U181" s="10"/>
       <c r="V181" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14343,7 +14347,7 @@
       </c>
       <c r="U182" s="10"/>
       <c r="V182" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14409,7 +14413,7 @@
       </c>
       <c r="U183" s="10"/>
       <c r="V183" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14475,7 +14479,7 @@
       </c>
       <c r="U184" s="10"/>
       <c r="V184" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14541,7 +14545,7 @@
       </c>
       <c r="U185" s="10"/>
       <c r="V185" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14607,7 +14611,7 @@
       </c>
       <c r="U186" s="10"/>
       <c r="V186" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14673,7 +14677,7 @@
       </c>
       <c r="U187" s="10"/>
       <c r="V187" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14739,7 +14743,7 @@
       </c>
       <c r="U188" s="10"/>
       <c r="V188" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14805,7 +14809,7 @@
       </c>
       <c r="U189" s="10"/>
       <c r="V189" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14871,7 +14875,7 @@
       </c>
       <c r="U190" s="10"/>
       <c r="V190" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14937,7 +14941,7 @@
       </c>
       <c r="U191" s="10"/>
       <c r="V191" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15003,7 +15007,7 @@
       </c>
       <c r="U192" s="10"/>
       <c r="V192" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="193" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15069,7 +15073,7 @@
       </c>
       <c r="U193" s="10"/>
       <c r="V193" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15135,7 +15139,7 @@
       </c>
       <c r="U194" s="10"/>
       <c r="V194" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="195" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15201,7 +15205,7 @@
       </c>
       <c r="U195" s="10"/>
       <c r="V195" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="196" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15267,7 +15271,7 @@
       </c>
       <c r="U196" s="10"/>
       <c r="V196" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="197" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15333,7 +15337,7 @@
       </c>
       <c r="U197" s="10"/>
       <c r="V197" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="198" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15399,7 +15403,7 @@
       </c>
       <c r="U198" s="10"/>
       <c r="V198" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="199" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15465,7 +15469,7 @@
       </c>
       <c r="U199" s="10"/>
       <c r="V199" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="200" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15531,7 +15535,7 @@
       </c>
       <c r="U200" s="10"/>
       <c r="V200" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="201" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15597,7 +15601,7 @@
       </c>
       <c r="U201" s="10"/>
       <c r="V201" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="202" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15663,7 +15667,7 @@
       </c>
       <c r="U202" s="10"/>
       <c r="V202" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="203" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15729,7 +15733,7 @@
       </c>
       <c r="U203" s="20"/>
       <c r="V203" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="W203" s="22"/>
     </row>
@@ -15796,7 +15800,7 @@
       </c>
       <c r="U204" s="10"/>
       <c r="V204" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="205" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15862,7 +15866,7 @@
       </c>
       <c r="U205" s="10"/>
       <c r="V205" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="206" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15928,7 +15932,7 @@
       </c>
       <c r="U206" s="10"/>
       <c r="V206" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="207" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15994,7 +15998,7 @@
       </c>
       <c r="U207" s="10"/>
       <c r="V207" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="208" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16060,7 +16064,7 @@
       </c>
       <c r="U208" s="10"/>
       <c r="V208" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="209" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16126,7 +16130,7 @@
       </c>
       <c r="U209" s="10"/>
       <c r="V209" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="210" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16192,7 +16196,7 @@
       </c>
       <c r="U210" s="10"/>
       <c r="V210" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="211" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16258,7 +16262,7 @@
       </c>
       <c r="U211" s="10"/>
       <c r="V211" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="212" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16324,7 +16328,7 @@
       </c>
       <c r="U212" s="10"/>
       <c r="V212" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="213" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16390,7 +16394,7 @@
       </c>
       <c r="U213" s="10"/>
       <c r="V213" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="214" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16456,7 +16460,7 @@
       </c>
       <c r="U214" s="10"/>
       <c r="V214" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="215" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16522,7 +16526,7 @@
       </c>
       <c r="U215" s="10"/>
       <c r="V215" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="216" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16588,7 +16592,7 @@
       </c>
       <c r="U216" s="10"/>
       <c r="V216" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="217" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16654,7 +16658,7 @@
       </c>
       <c r="U217" s="10"/>
       <c r="V217" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="218" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16720,7 +16724,7 @@
       </c>
       <c r="U218" s="10"/>
       <c r="V218" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="219" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16786,7 +16790,7 @@
       </c>
       <c r="U219" s="10"/>
       <c r="V219" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="220" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16852,7 +16856,7 @@
       </c>
       <c r="U220" s="10"/>
       <c r="V220" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="221" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16918,7 +16922,7 @@
       </c>
       <c r="U221" s="10"/>
       <c r="V221" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="222" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16984,7 +16988,7 @@
       </c>
       <c r="U222" s="10"/>
       <c r="V222" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="223" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17050,7 +17054,7 @@
       </c>
       <c r="U223" s="10"/>
       <c r="V223" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="224" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17116,7 +17120,7 @@
       </c>
       <c r="U224" s="10"/>
       <c r="V224" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="225" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17182,7 +17186,7 @@
       </c>
       <c r="U225" s="10"/>
       <c r="V225" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="226" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17248,7 +17252,7 @@
       </c>
       <c r="U226" s="10"/>
       <c r="V226" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="227" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17314,7 +17318,7 @@
       </c>
       <c r="U227" s="10"/>
       <c r="V227" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="228" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17380,7 +17384,7 @@
       </c>
       <c r="U228" s="20"/>
       <c r="V228" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="W228" s="22"/>
     </row>
@@ -17447,7 +17451,7 @@
       </c>
       <c r="U229" s="10"/>
       <c r="V229" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="230" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17513,7 +17517,7 @@
       </c>
       <c r="U230" s="10"/>
       <c r="V230" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="231" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17579,7 +17583,7 @@
       </c>
       <c r="U231" s="10"/>
       <c r="V231" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="232" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17645,7 +17649,7 @@
       </c>
       <c r="U232" s="10"/>
       <c r="V232" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="233" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17711,7 +17715,7 @@
       </c>
       <c r="U233" s="10"/>
       <c r="V233" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="234" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17777,7 +17781,7 @@
       </c>
       <c r="U234" s="10"/>
       <c r="V234" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="235" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17843,7 +17847,7 @@
       </c>
       <c r="U235" s="10"/>
       <c r="V235" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="236" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17909,7 +17913,7 @@
       </c>
       <c r="U236" s="10"/>
       <c r="V236" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="237" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17975,7 +17979,7 @@
       </c>
       <c r="U237" s="10"/>
       <c r="V237" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="238" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -18041,7 +18045,7 @@
       </c>
       <c r="U238" s="10"/>
       <c r="V238" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="239" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -18107,7 +18111,7 @@
       </c>
       <c r="U239" s="10"/>
       <c r="V239" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="240" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -18173,7 +18177,7 @@
       </c>
       <c r="U240" s="10"/>
       <c r="V240" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="241" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18239,7 +18243,7 @@
       </c>
       <c r="U241" s="10"/>
       <c r="V241" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="242" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18305,7 +18309,7 @@
       </c>
       <c r="U242" s="10"/>
       <c r="V242" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="243" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18371,7 +18375,7 @@
       </c>
       <c r="U243" s="10"/>
       <c r="V243" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="244" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18437,7 +18441,7 @@
       </c>
       <c r="U244" s="10"/>
       <c r="V244" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="245" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18503,7 +18507,7 @@
       </c>
       <c r="U245" s="10"/>
       <c r="V245" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="246" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18569,7 +18573,7 @@
       </c>
       <c r="U246" s="10"/>
       <c r="V246" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="247" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18635,7 +18639,7 @@
       </c>
       <c r="U247" s="10"/>
       <c r="V247" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="248" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18701,7 +18705,7 @@
       </c>
       <c r="U248" s="10"/>
       <c r="V248" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="249" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18767,7 +18771,7 @@
       </c>
       <c r="U249" s="10"/>
       <c r="V249" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="250" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18833,7 +18837,7 @@
       </c>
       <c r="U250" s="10"/>
       <c r="V250" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="251" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18899,7 +18903,7 @@
       </c>
       <c r="U251" s="10"/>
       <c r="V251" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="252" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18965,7 +18969,7 @@
       </c>
       <c r="U252" s="10"/>
       <c r="V252" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="253" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19031,7 +19035,7 @@
       </c>
       <c r="U253" s="20"/>
       <c r="V253" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="254" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19097,7 +19101,7 @@
       </c>
       <c r="U254" s="10"/>
       <c r="V254" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="255" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19163,7 +19167,7 @@
       </c>
       <c r="U255" s="10"/>
       <c r="V255" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="256" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19229,7 +19233,7 @@
       </c>
       <c r="U256" s="10"/>
       <c r="V256" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="257" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19295,7 +19299,7 @@
       </c>
       <c r="U257" s="10"/>
       <c r="V257" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="258" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19361,7 +19365,7 @@
       </c>
       <c r="U258" s="10"/>
       <c r="V258" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="259" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19427,7 +19431,7 @@
       </c>
       <c r="U259" s="10"/>
       <c r="V259" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="260" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19493,7 +19497,7 @@
       </c>
       <c r="U260" s="10"/>
       <c r="V260" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="261" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19559,7 +19563,7 @@
       </c>
       <c r="U261" s="10"/>
       <c r="V261" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="262" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19625,7 +19629,7 @@
       </c>
       <c r="U262" s="10"/>
       <c r="V262" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="263" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19691,7 +19695,7 @@
       </c>
       <c r="U263" s="10"/>
       <c r="V263" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="264" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19757,7 +19761,7 @@
       </c>
       <c r="U264" s="10"/>
       <c r="V264" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="265" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19823,7 +19827,7 @@
       </c>
       <c r="U265" s="10"/>
       <c r="V265" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="266" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19889,7 +19893,7 @@
       </c>
       <c r="U266" s="10"/>
       <c r="V266" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="267" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19955,7 +19959,7 @@
       </c>
       <c r="U267" s="10"/>
       <c r="V267" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="268" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20021,7 +20025,7 @@
       </c>
       <c r="U268" s="10"/>
       <c r="V268" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="269" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20087,7 +20091,7 @@
       </c>
       <c r="U269" s="10"/>
       <c r="V269" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="270" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20153,7 +20157,7 @@
       </c>
       <c r="U270" s="10"/>
       <c r="V270" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="271" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20219,7 +20223,7 @@
       </c>
       <c r="U271" s="10"/>
       <c r="V271" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="272" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20285,7 +20289,7 @@
       </c>
       <c r="U272" s="10"/>
       <c r="V272" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="273" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20351,7 +20355,7 @@
       </c>
       <c r="U273" s="10"/>
       <c r="V273" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="274" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20417,7 +20421,7 @@
       </c>
       <c r="U274" s="10"/>
       <c r="V274" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="275" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20483,7 +20487,7 @@
       </c>
       <c r="U275" s="10"/>
       <c r="V275" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="276" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20549,7 +20553,7 @@
       </c>
       <c r="U276" s="10"/>
       <c r="V276" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="277" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20615,7 +20619,7 @@
       </c>
       <c r="U277" s="10"/>
       <c r="V277" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="278" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20681,7 +20685,7 @@
       </c>
       <c r="U278" s="20"/>
       <c r="V278" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="W278" s="22"/>
     </row>
@@ -20748,7 +20752,7 @@
       </c>
       <c r="U279" s="10"/>
       <c r="V279" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="280" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20814,7 +20818,7 @@
       </c>
       <c r="U280" s="10"/>
       <c r="V280" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="281" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20880,7 +20884,7 @@
       </c>
       <c r="U281" s="10"/>
       <c r="V281" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="282" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20946,7 +20950,7 @@
       </c>
       <c r="U282" s="10"/>
       <c r="V282" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="283" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -21012,7 +21016,7 @@
       </c>
       <c r="U283" s="10"/>
       <c r="V283" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="284" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -21078,7 +21082,7 @@
       </c>
       <c r="U284" s="10"/>
       <c r="V284" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="285" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -21144,7 +21148,7 @@
       </c>
       <c r="U285" s="10"/>
       <c r="V285" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="286" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -21210,7 +21214,7 @@
       </c>
       <c r="U286" s="10"/>
       <c r="V286" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="287" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -21276,7 +21280,7 @@
       </c>
       <c r="U287" s="10"/>
       <c r="V287" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="288" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -21342,7 +21346,7 @@
       </c>
       <c r="U288" s="10"/>
       <c r="V288" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="289" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21408,7 +21412,7 @@
       </c>
       <c r="U289" s="10"/>
       <c r="V289" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="290" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21474,7 +21478,7 @@
       </c>
       <c r="U290" s="10"/>
       <c r="V290" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="291" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21540,7 +21544,7 @@
       </c>
       <c r="U291" s="10"/>
       <c r="V291" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="292" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21606,7 +21610,7 @@
       </c>
       <c r="U292" s="10"/>
       <c r="V292" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="293" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21672,7 +21676,7 @@
       </c>
       <c r="U293" s="10"/>
       <c r="V293" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="294" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21738,7 +21742,7 @@
       </c>
       <c r="U294" s="10"/>
       <c r="V294" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="295" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21804,7 +21808,7 @@
       </c>
       <c r="U295" s="10"/>
       <c r="V295" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="296" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21870,7 +21874,7 @@
       </c>
       <c r="U296" s="10"/>
       <c r="V296" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="297" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21936,7 +21940,7 @@
       </c>
       <c r="U297" s="10"/>
       <c r="V297" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="298" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22002,7 +22006,7 @@
       </c>
       <c r="U298" s="10"/>
       <c r="V298" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="299" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22068,7 +22072,7 @@
       </c>
       <c r="U299" s="10"/>
       <c r="V299" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="300" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22134,7 +22138,7 @@
       </c>
       <c r="U300" s="10"/>
       <c r="V300" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="301" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22200,7 +22204,7 @@
       </c>
       <c r="U301" s="10"/>
       <c r="V301" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="302" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22266,7 +22270,7 @@
       </c>
       <c r="U302" s="10"/>
       <c r="V302" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="303" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22332,7 +22336,7 @@
       </c>
       <c r="U303" s="10"/>
       <c r="V303" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="304" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22343,7 +22347,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="33" t="s">
-        <v>77</v>
+        <v>566</v>
       </c>
       <c r="D304" s="33" t="s">
         <v>64</v>
@@ -22397,7 +22401,7 @@
       </c>
       <c r="U304" s="33"/>
       <c r="V304" s="36" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="305" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22462,7 +22466,7 @@
       </c>
       <c r="U305" s="14"/>
       <c r="V305" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="306" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22528,7 +22532,7 @@
       </c>
       <c r="U306" s="14"/>
       <c r="V306" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="307" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22594,7 +22598,7 @@
       </c>
       <c r="U307" s="14"/>
       <c r="V307" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="308" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22660,7 +22664,7 @@
       </c>
       <c r="U308" s="14"/>
       <c r="V308" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="309" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22726,7 +22730,7 @@
       </c>
       <c r="U309" s="14"/>
       <c r="V309" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="310" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22792,7 +22796,7 @@
       </c>
       <c r="U310" s="14"/>
       <c r="V310" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="311" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22858,7 +22862,7 @@
       </c>
       <c r="U311" s="14"/>
       <c r="V311" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="312" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22924,7 +22928,7 @@
       </c>
       <c r="U312" s="14"/>
       <c r="V312" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="313" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22990,7 +22994,7 @@
       </c>
       <c r="U313" s="14"/>
       <c r="V313" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="314" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23056,7 +23060,7 @@
       </c>
       <c r="U314" s="14"/>
       <c r="V314" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="315" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23122,7 +23126,7 @@
       </c>
       <c r="U315" s="14"/>
       <c r="V315" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="316" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23188,7 +23192,7 @@
       </c>
       <c r="U316" s="14"/>
       <c r="V316" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="317" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23254,7 +23258,7 @@
       </c>
       <c r="U317" s="14"/>
       <c r="V317" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="318" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23320,7 +23324,7 @@
       </c>
       <c r="U318" s="14"/>
       <c r="V318" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="319" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23386,7 +23390,7 @@
       </c>
       <c r="U319" s="14"/>
       <c r="V319" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="320" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23452,7 +23456,7 @@
       </c>
       <c r="U320" s="14"/>
       <c r="V320" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="321" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23518,7 +23522,7 @@
       </c>
       <c r="U321" s="14"/>
       <c r="V321" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="322" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23584,7 +23588,7 @@
       </c>
       <c r="U322" s="14"/>
       <c r="V322" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="323" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23650,7 +23654,7 @@
       </c>
       <c r="U323" s="14"/>
       <c r="V323" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="324" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23716,7 +23720,7 @@
       </c>
       <c r="U324" s="14"/>
       <c r="V324" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="325" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23782,7 +23786,7 @@
       </c>
       <c r="U325" s="14"/>
       <c r="V325" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="326" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23848,7 +23852,7 @@
       </c>
       <c r="U326" s="14"/>
       <c r="V326" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="327" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23914,7 +23918,7 @@
       </c>
       <c r="U327" s="14"/>
       <c r="V327" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="328" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23980,7 +23984,7 @@
       </c>
       <c r="U328" s="14"/>
       <c r="V328" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="329" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24046,7 +24050,7 @@
       </c>
       <c r="U329" s="25"/>
       <c r="V329" s="14" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="330" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24112,7 +24116,7 @@
       </c>
       <c r="U330" s="14"/>
       <c r="V330" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="331" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24178,7 +24182,7 @@
       </c>
       <c r="U331" s="14"/>
       <c r="V331" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="332" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24244,7 +24248,7 @@
       </c>
       <c r="U332" s="14"/>
       <c r="V332" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="333" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24310,7 +24314,7 @@
       </c>
       <c r="U333" s="14"/>
       <c r="V333" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="334" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24376,7 +24380,7 @@
       </c>
       <c r="U334" s="14"/>
       <c r="V334" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="335" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24442,7 +24446,7 @@
       </c>
       <c r="U335" s="14"/>
       <c r="V335" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="336" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24508,7 +24512,7 @@
       </c>
       <c r="U336" s="14"/>
       <c r="V336" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="337" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24574,7 +24578,7 @@
       </c>
       <c r="U337" s="14"/>
       <c r="V337" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="338" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24640,7 +24644,7 @@
       </c>
       <c r="U338" s="14"/>
       <c r="V338" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="339" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24706,7 +24710,7 @@
       </c>
       <c r="U339" s="14"/>
       <c r="V339" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="340" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24772,7 +24776,7 @@
       </c>
       <c r="U340" s="14"/>
       <c r="V340" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="341" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24838,7 +24842,7 @@
       </c>
       <c r="U341" s="14"/>
       <c r="V341" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="342" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24904,7 +24908,7 @@
       </c>
       <c r="U342" s="14"/>
       <c r="V342" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="343" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24970,7 +24974,7 @@
       </c>
       <c r="U343" s="14"/>
       <c r="V343" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="344" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25036,7 +25040,7 @@
       </c>
       <c r="U344" s="14"/>
       <c r="V344" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="345" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25102,7 +25106,7 @@
       </c>
       <c r="U345" s="14"/>
       <c r="V345" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="346" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25168,7 +25172,7 @@
       </c>
       <c r="U346" s="14"/>
       <c r="V346" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="347" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25234,7 +25238,7 @@
       </c>
       <c r="U347" s="14"/>
       <c r="V347" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="348" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25300,7 +25304,7 @@
       </c>
       <c r="U348" s="14"/>
       <c r="V348" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="349" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25366,7 +25370,7 @@
       </c>
       <c r="U349" s="14"/>
       <c r="V349" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="350" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25432,7 +25436,7 @@
       </c>
       <c r="U350" s="14"/>
       <c r="V350" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="351" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25498,7 +25502,7 @@
       </c>
       <c r="U351" s="14"/>
       <c r="V351" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="352" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25564,7 +25568,7 @@
       </c>
       <c r="U352" s="14"/>
       <c r="V352" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="353" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25630,7 +25634,7 @@
       </c>
       <c r="U353" s="14"/>
       <c r="V353" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="354" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25696,7 +25700,7 @@
       </c>
       <c r="U354" s="23"/>
       <c r="V354" s="14" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="355" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25762,7 +25766,7 @@
       </c>
       <c r="U355" s="14"/>
       <c r="V355" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="356" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25828,7 +25832,7 @@
       </c>
       <c r="U356" s="14"/>
       <c r="V356" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="357" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25894,7 +25898,7 @@
       </c>
       <c r="U357" s="14"/>
       <c r="V357" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="358" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25960,7 +25964,7 @@
       </c>
       <c r="U358" s="14"/>
       <c r="V358" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="359" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26026,7 +26030,7 @@
       </c>
       <c r="U359" s="14"/>
       <c r="V359" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="360" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26092,7 +26096,7 @@
       </c>
       <c r="U360" s="14"/>
       <c r="V360" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="361" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26158,7 +26162,7 @@
       </c>
       <c r="U361" s="14"/>
       <c r="V361" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="362" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26224,7 +26228,7 @@
       </c>
       <c r="U362" s="14"/>
       <c r="V362" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="363" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26290,7 +26294,7 @@
       </c>
       <c r="U363" s="14"/>
       <c r="V363" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="364" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26356,7 +26360,7 @@
       </c>
       <c r="U364" s="14"/>
       <c r="V364" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="365" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26422,7 +26426,7 @@
       </c>
       <c r="U365" s="14"/>
       <c r="V365" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="366" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26488,7 +26492,7 @@
       </c>
       <c r="U366" s="14"/>
       <c r="V366" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="367" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26554,7 +26558,7 @@
       </c>
       <c r="U367" s="14"/>
       <c r="V367" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="368" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26620,7 +26624,7 @@
       </c>
       <c r="U368" s="14"/>
       <c r="V368" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="369" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26686,7 +26690,7 @@
       </c>
       <c r="U369" s="14"/>
       <c r="V369" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="370" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26752,7 +26756,7 @@
       </c>
       <c r="U370" s="14"/>
       <c r="V370" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="371" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26818,7 +26822,7 @@
       </c>
       <c r="U371" s="14"/>
       <c r="V371" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="372" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26884,7 +26888,7 @@
       </c>
       <c r="U372" s="14"/>
       <c r="V372" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="373" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26950,7 +26954,7 @@
       </c>
       <c r="U373" s="14"/>
       <c r="V373" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="374" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27016,7 +27020,7 @@
       </c>
       <c r="U374" s="14"/>
       <c r="V374" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="375" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27082,7 +27086,7 @@
       </c>
       <c r="U375" s="14"/>
       <c r="V375" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="376" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27148,7 +27152,7 @@
       </c>
       <c r="U376" s="14"/>
       <c r="V376" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="377" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27214,7 +27218,7 @@
       </c>
       <c r="U377" s="14"/>
       <c r="V377" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="378" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27280,7 +27284,7 @@
       </c>
       <c r="U378" s="14"/>
       <c r="V378" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="379" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27346,7 +27350,7 @@
       </c>
       <c r="U379" s="23"/>
       <c r="V379" s="14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="380" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27412,7 +27416,7 @@
       </c>
       <c r="U380" s="14"/>
       <c r="V380" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="381" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27478,7 +27482,7 @@
       </c>
       <c r="U381" s="14"/>
       <c r="V381" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="382" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27544,7 +27548,7 @@
       </c>
       <c r="U382" s="14"/>
       <c r="V382" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="383" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27610,7 +27614,7 @@
       </c>
       <c r="U383" s="14"/>
       <c r="V383" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="384" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27676,7 +27680,7 @@
       </c>
       <c r="U384" s="14"/>
       <c r="V384" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="385" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27742,7 +27746,7 @@
       </c>
       <c r="U385" s="14"/>
       <c r="V385" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="386" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27808,7 +27812,7 @@
       </c>
       <c r="U386" s="14"/>
       <c r="V386" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="387" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27874,7 +27878,7 @@
       </c>
       <c r="U387" s="14"/>
       <c r="V387" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="388" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27940,7 +27944,7 @@
       </c>
       <c r="U388" s="14"/>
       <c r="V388" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="389" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28006,7 +28010,7 @@
       </c>
       <c r="U389" s="14"/>
       <c r="V389" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="390" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28072,7 +28076,7 @@
       </c>
       <c r="U390" s="14"/>
       <c r="V390" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="391" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28138,7 +28142,7 @@
       </c>
       <c r="U391" s="14"/>
       <c r="V391" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="392" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28204,7 +28208,7 @@
       </c>
       <c r="U392" s="14"/>
       <c r="V392" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="393" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28270,7 +28274,7 @@
       </c>
       <c r="U393" s="14"/>
       <c r="V393" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="394" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28336,7 +28340,7 @@
       </c>
       <c r="U394" s="14"/>
       <c r="V394" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="395" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28402,7 +28406,7 @@
       </c>
       <c r="U395" s="14"/>
       <c r="V395" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="396" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28468,7 +28472,7 @@
       </c>
       <c r="U396" s="14"/>
       <c r="V396" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="397" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28534,7 +28538,7 @@
       </c>
       <c r="U397" s="14"/>
       <c r="V397" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="398" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28600,7 +28604,7 @@
       </c>
       <c r="U398" s="14"/>
       <c r="V398" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="399" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28666,7 +28670,7 @@
       </c>
       <c r="U399" s="14"/>
       <c r="V399" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="400" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28732,7 +28736,7 @@
       </c>
       <c r="U400" s="14"/>
       <c r="V400" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="401" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28798,7 +28802,7 @@
       </c>
       <c r="U401" s="14"/>
       <c r="V401" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="402" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28864,7 +28868,7 @@
       </c>
       <c r="U402" s="14"/>
       <c r="V402" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="403" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28930,7 +28934,7 @@
       </c>
       <c r="U403" s="14"/>
       <c r="V403" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="404" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28996,7 +29000,7 @@
       </c>
       <c r="U404" s="23"/>
       <c r="V404" s="14" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="405" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29062,7 +29066,7 @@
       </c>
       <c r="U405" s="14"/>
       <c r="V405" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="406" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29128,7 +29132,7 @@
       </c>
       <c r="U406" s="14"/>
       <c r="V406" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="407" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29194,7 +29198,7 @@
       </c>
       <c r="U407" s="14"/>
       <c r="V407" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="408" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29260,7 +29264,7 @@
       </c>
       <c r="U408" s="14"/>
       <c r="V408" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="409" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29326,7 +29330,7 @@
       </c>
       <c r="U409" s="14"/>
       <c r="V409" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="410" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29392,7 +29396,7 @@
       </c>
       <c r="U410" s="14"/>
       <c r="V410" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="411" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29458,7 +29462,7 @@
       </c>
       <c r="U411" s="14"/>
       <c r="V411" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="412" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29524,7 +29528,7 @@
       </c>
       <c r="U412" s="14"/>
       <c r="V412" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="413" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29590,7 +29594,7 @@
       </c>
       <c r="U413" s="14"/>
       <c r="V413" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="414" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29656,7 +29660,7 @@
       </c>
       <c r="U414" s="14"/>
       <c r="V414" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="415" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29722,7 +29726,7 @@
       </c>
       <c r="U415" s="14"/>
       <c r="V415" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="416" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29788,7 +29792,7 @@
       </c>
       <c r="U416" s="14"/>
       <c r="V416" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="417" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29854,7 +29858,7 @@
       </c>
       <c r="U417" s="14"/>
       <c r="V417" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="418" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29920,7 +29924,7 @@
       </c>
       <c r="U418" s="14"/>
       <c r="V418" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="419" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29986,7 +29990,7 @@
       </c>
       <c r="U419" s="14"/>
       <c r="V419" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="420" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30052,7 +30056,7 @@
       </c>
       <c r="U420" s="14"/>
       <c r="V420" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="421" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30118,7 +30122,7 @@
       </c>
       <c r="U421" s="14"/>
       <c r="V421" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="422" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30184,7 +30188,7 @@
       </c>
       <c r="U422" s="14"/>
       <c r="V422" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="423" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30250,7 +30254,7 @@
       </c>
       <c r="U423" s="14"/>
       <c r="V423" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="424" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30316,7 +30320,7 @@
       </c>
       <c r="U424" s="14"/>
       <c r="V424" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="425" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30382,7 +30386,7 @@
       </c>
       <c r="U425" s="14"/>
       <c r="V425" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="426" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30448,7 +30452,7 @@
       </c>
       <c r="U426" s="14"/>
       <c r="V426" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="427" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30514,7 +30518,7 @@
       </c>
       <c r="U427" s="14"/>
       <c r="V427" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="428" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30580,7 +30584,7 @@
       </c>
       <c r="U428" s="14"/>
       <c r="V428" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="429" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30646,7 +30650,7 @@
       </c>
       <c r="U429" s="23"/>
       <c r="V429" s="14" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="430" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30712,7 +30716,7 @@
       </c>
       <c r="U430" s="14"/>
       <c r="V430" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="431" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30778,7 +30782,7 @@
       </c>
       <c r="U431" s="14"/>
       <c r="V431" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="432" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30844,7 +30848,7 @@
       </c>
       <c r="U432" s="14"/>
       <c r="V432" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="433" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30910,7 +30914,7 @@
       </c>
       <c r="U433" s="14"/>
       <c r="V433" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="434" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30976,7 +30980,7 @@
       </c>
       <c r="U434" s="14"/>
       <c r="V434" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="435" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31042,7 +31046,7 @@
       </c>
       <c r="U435" s="14"/>
       <c r="V435" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="436" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31108,7 +31112,7 @@
       </c>
       <c r="U436" s="14"/>
       <c r="V436" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="437" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31174,7 +31178,7 @@
       </c>
       <c r="U437" s="14"/>
       <c r="V437" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="438" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31240,7 +31244,7 @@
       </c>
       <c r="U438" s="14"/>
       <c r="V438" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="439" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31306,7 +31310,7 @@
       </c>
       <c r="U439" s="14"/>
       <c r="V439" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="440" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31372,7 +31376,7 @@
       </c>
       <c r="U440" s="14"/>
       <c r="V440" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="441" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31438,7 +31442,7 @@
       </c>
       <c r="U441" s="14"/>
       <c r="V441" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="442" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31504,7 +31508,7 @@
       </c>
       <c r="U442" s="14"/>
       <c r="V442" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="443" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31570,7 +31574,7 @@
       </c>
       <c r="U443" s="14"/>
       <c r="V443" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="444" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31636,7 +31640,7 @@
       </c>
       <c r="U444" s="14"/>
       <c r="V444" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="445" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31702,7 +31706,7 @@
       </c>
       <c r="U445" s="14"/>
       <c r="V445" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="446" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31768,7 +31772,7 @@
       </c>
       <c r="U446" s="14"/>
       <c r="V446" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="447" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31834,7 +31838,7 @@
       </c>
       <c r="U447" s="14"/>
       <c r="V447" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="448" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31900,7 +31904,7 @@
       </c>
       <c r="U448" s="14"/>
       <c r="V448" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="449" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31966,7 +31970,7 @@
       </c>
       <c r="U449" s="14"/>
       <c r="V449" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="450" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32032,7 +32036,7 @@
       </c>
       <c r="U450" s="14"/>
       <c r="V450" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="451" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32098,7 +32102,7 @@
       </c>
       <c r="U451" s="14"/>
       <c r="V451" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="452" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32164,7 +32168,7 @@
       </c>
       <c r="U452" s="14"/>
       <c r="V452" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="453" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32230,7 +32234,7 @@
       </c>
       <c r="U453" s="14"/>
       <c r="V453" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="454" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32296,7 +32300,7 @@
       </c>
       <c r="U454" s="14"/>
       <c r="V454" s="14" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="455" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32361,7 +32365,7 @@
       </c>
       <c r="U455" s="27"/>
       <c r="V455" s="27" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="456" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32426,7 +32430,7 @@
       </c>
       <c r="U456" s="27"/>
       <c r="V456" s="27" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="457" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32491,7 +32495,7 @@
       </c>
       <c r="U457" s="27"/>
       <c r="V457" s="27" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="458" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32556,7 +32560,7 @@
       </c>
       <c r="U458" s="27"/>
       <c r="V458" s="27" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="459" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32621,7 +32625,7 @@
       </c>
       <c r="U459" s="27"/>
       <c r="V459" s="27" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="460" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32686,7 +32690,7 @@
       </c>
       <c r="U460" s="27"/>
       <c r="V460" s="27" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="461" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32751,7 +32755,7 @@
       </c>
       <c r="U461" s="27"/>
       <c r="V461" s="27" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="462" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32816,7 +32820,7 @@
       </c>
       <c r="U462" s="27"/>
       <c r="V462" s="27" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="463" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32881,7 +32885,7 @@
       </c>
       <c r="U463" s="27"/>
       <c r="V463" s="27" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="464" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32946,7 +32950,7 @@
       </c>
       <c r="U464" s="27"/>
       <c r="V464" s="27" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="465" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33011,7 +33015,7 @@
       </c>
       <c r="U465" s="27"/>
       <c r="V465" s="27" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="466" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33076,7 +33080,7 @@
       </c>
       <c r="U466" s="27"/>
       <c r="V466" s="27" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="467" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33141,7 +33145,7 @@
       </c>
       <c r="U467" s="27"/>
       <c r="V467" s="27" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="468" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33206,7 +33210,7 @@
       </c>
       <c r="U468" s="27"/>
       <c r="V468" s="27" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="469" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33271,7 +33275,7 @@
       </c>
       <c r="U469" s="27"/>
       <c r="V469" s="27" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="470" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33336,7 +33340,7 @@
       </c>
       <c r="U470" s="27"/>
       <c r="V470" s="27" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="471" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33401,7 +33405,7 @@
       </c>
       <c r="U471" s="27"/>
       <c r="V471" s="27" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="472" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33466,7 +33470,7 @@
       </c>
       <c r="U472" s="27"/>
       <c r="V472" s="27" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="473" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33531,7 +33535,7 @@
       </c>
       <c r="U473" s="27"/>
       <c r="V473" s="27" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="474" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33596,7 +33600,7 @@
       </c>
       <c r="U474" s="27"/>
       <c r="V474" s="27" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="475" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33661,7 +33665,7 @@
       </c>
       <c r="U475" s="27"/>
       <c r="V475" s="27" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="476" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33726,7 +33730,7 @@
       </c>
       <c r="U476" s="27"/>
       <c r="V476" s="27" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="477" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33791,7 +33795,7 @@
       </c>
       <c r="U477" s="27"/>
       <c r="V477" s="27" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="478" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33856,7 +33860,7 @@
       </c>
       <c r="U478" s="27"/>
       <c r="V478" s="27" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="479" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33921,7 +33925,7 @@
       </c>
       <c r="U479" s="27"/>
       <c r="V479" s="27" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="480" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33986,7 +33990,7 @@
       </c>
       <c r="U480" s="27"/>
       <c r="V480" s="27" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="481" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34051,7 +34055,7 @@
       </c>
       <c r="U481" s="27"/>
       <c r="V481" s="27" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="482" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34116,7 +34120,7 @@
       </c>
       <c r="U482" s="27"/>
       <c r="V482" s="27" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="483" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34181,7 +34185,7 @@
       </c>
       <c r="U483" s="27"/>
       <c r="V483" s="27" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="484" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34246,7 +34250,7 @@
       </c>
       <c r="U484" s="27"/>
       <c r="V484" s="27" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="485" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34311,7 +34315,7 @@
       </c>
       <c r="U485" s="27"/>
       <c r="V485" s="27" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="486" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34376,7 +34380,7 @@
       </c>
       <c r="U486" s="27"/>
       <c r="V486" s="27" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="487" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34441,7 +34445,7 @@
       </c>
       <c r="U487" s="27"/>
       <c r="V487" s="27" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="488" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34506,7 +34510,7 @@
       </c>
       <c r="U488" s="27"/>
       <c r="V488" s="27" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="489" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34571,7 +34575,7 @@
       </c>
       <c r="U489" s="27"/>
       <c r="V489" s="27" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="490" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34636,7 +34640,7 @@
       </c>
       <c r="U490" s="27"/>
       <c r="V490" s="27" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="491" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34701,7 +34705,7 @@
       </c>
       <c r="U491" s="27"/>
       <c r="V491" s="27" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="492" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34766,7 +34770,7 @@
       </c>
       <c r="U492" s="27"/>
       <c r="V492" s="27" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="493" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34831,7 +34835,7 @@
       </c>
       <c r="U493" s="27"/>
       <c r="V493" s="27" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="494" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34896,7 +34900,7 @@
       </c>
       <c r="U494" s="27"/>
       <c r="V494" s="27" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="495" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34961,7 +34965,7 @@
       </c>
       <c r="U495" s="27"/>
       <c r="V495" s="27" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="496" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35026,7 +35030,7 @@
       </c>
       <c r="U496" s="27"/>
       <c r="V496" s="27" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="497" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35091,7 +35095,7 @@
       </c>
       <c r="U497" s="27"/>
       <c r="V497" s="27" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="498" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35156,7 +35160,7 @@
       </c>
       <c r="U498" s="27"/>
       <c r="V498" s="27" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="499" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35221,7 +35225,7 @@
       </c>
       <c r="U499" s="27"/>
       <c r="V499" s="27" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="500" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35286,7 +35290,7 @@
       </c>
       <c r="U500" s="27"/>
       <c r="V500" s="27" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="501" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35351,7 +35355,7 @@
       </c>
       <c r="U501" s="27"/>
       <c r="V501" s="27" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="502" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35416,7 +35420,7 @@
       </c>
       <c r="U502" s="27"/>
       <c r="V502" s="27" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="503" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35481,7 +35485,7 @@
       </c>
       <c r="U503" s="27"/>
       <c r="V503" s="27" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="504" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35546,7 +35550,7 @@
       </c>
       <c r="U504" s="27"/>
       <c r="V504" s="27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="505" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35611,7 +35615,7 @@
       </c>
       <c r="U505" s="27"/>
       <c r="V505" s="27" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="506" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35676,7 +35680,7 @@
       </c>
       <c r="U506" s="27"/>
       <c r="V506" s="27" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="507" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35741,7 +35745,7 @@
       </c>
       <c r="U507" s="27"/>
       <c r="V507" s="27" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="508" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35806,7 +35810,7 @@
       </c>
       <c r="U508" s="27"/>
       <c r="V508" s="27" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="509" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35871,7 +35875,7 @@
       </c>
       <c r="U509" s="27"/>
       <c r="V509" s="27" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="510" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35936,7 +35940,7 @@
       </c>
       <c r="U510" s="27"/>
       <c r="V510" s="27" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="511" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36001,7 +36005,7 @@
       </c>
       <c r="U511" s="27"/>
       <c r="V511" s="27" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="512" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36066,7 +36070,7 @@
       </c>
       <c r="U512" s="27"/>
       <c r="V512" s="27" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="513" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36131,7 +36135,7 @@
       </c>
       <c r="U513" s="27"/>
       <c r="V513" s="27" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="514" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36196,7 +36200,7 @@
       </c>
       <c r="U514" s="27"/>
       <c r="V514" s="27" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="515" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36261,7 +36265,7 @@
       </c>
       <c r="U515" s="27"/>
       <c r="V515" s="27" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="516" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36326,7 +36330,7 @@
       </c>
       <c r="U516" s="27"/>
       <c r="V516" s="27" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="517" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36391,7 +36395,7 @@
       </c>
       <c r="U517" s="27"/>
       <c r="V517" s="27" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="518" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36456,7 +36460,7 @@
       </c>
       <c r="U518" s="27"/>
       <c r="V518" s="27" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="519" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36521,7 +36525,7 @@
       </c>
       <c r="U519" s="27"/>
       <c r="V519" s="27" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="520" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36586,7 +36590,7 @@
       </c>
       <c r="U520" s="27"/>
       <c r="V520" s="27" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="521" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36651,7 +36655,7 @@
       </c>
       <c r="U521" s="27"/>
       <c r="V521" s="27" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="522" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36716,7 +36720,7 @@
       </c>
       <c r="U522" s="27"/>
       <c r="V522" s="27" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="523" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36781,7 +36785,7 @@
       </c>
       <c r="U523" s="27"/>
       <c r="V523" s="27" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="524" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36846,7 +36850,7 @@
       </c>
       <c r="U524" s="27"/>
       <c r="V524" s="27" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="525" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36911,7 +36915,7 @@
       </c>
       <c r="U525" s="27"/>
       <c r="V525" s="27" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="526" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36976,7 +36980,7 @@
       </c>
       <c r="U526" s="27"/>
       <c r="V526" s="27" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="527" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37041,7 +37045,7 @@
       </c>
       <c r="U527" s="27"/>
       <c r="V527" s="27" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="528" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37106,7 +37110,7 @@
       </c>
       <c r="U528" s="27"/>
       <c r="V528" s="27" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="529" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37171,7 +37175,7 @@
       </c>
       <c r="U529" s="27"/>
       <c r="V529" s="27" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="530" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37236,7 +37240,7 @@
       </c>
       <c r="U530" s="27"/>
       <c r="V530" s="27" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="531" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37301,7 +37305,7 @@
       </c>
       <c r="U531" s="27"/>
       <c r="V531" s="27" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="532" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37366,7 +37370,7 @@
       </c>
       <c r="U532" s="27"/>
       <c r="V532" s="27" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="533" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37431,7 +37435,7 @@
       </c>
       <c r="U533" s="27"/>
       <c r="V533" s="27" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="534" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37496,7 +37500,7 @@
       </c>
       <c r="U534" s="27"/>
       <c r="V534" s="27" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="535" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37561,7 +37565,7 @@
       </c>
       <c r="U535" s="27"/>
       <c r="V535" s="27" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="536" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37626,7 +37630,7 @@
       </c>
       <c r="U536" s="27"/>
       <c r="V536" s="27" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="537" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37691,7 +37695,7 @@
       </c>
       <c r="U537" s="27"/>
       <c r="V537" s="27" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="538" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37756,7 +37760,7 @@
       </c>
       <c r="U538" s="27"/>
       <c r="V538" s="27" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="539" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37821,7 +37825,7 @@
       </c>
       <c r="U539" s="27"/>
       <c r="V539" s="27" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="540" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37886,7 +37890,7 @@
       </c>
       <c r="U540" s="27"/>
       <c r="V540" s="27" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="541" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37951,7 +37955,7 @@
       </c>
       <c r="U541" s="27"/>
       <c r="V541" s="27" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="542" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38016,7 +38020,7 @@
       </c>
       <c r="U542" s="27"/>
       <c r="V542" s="27" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="543" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38081,7 +38085,7 @@
       </c>
       <c r="U543" s="27"/>
       <c r="V543" s="27" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="544" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38146,7 +38150,7 @@
       </c>
       <c r="U544" s="27"/>
       <c r="V544" s="27" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="545" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38211,7 +38215,7 @@
       </c>
       <c r="U545" s="27"/>
       <c r="V545" s="27" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="546" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38276,7 +38280,7 @@
       </c>
       <c r="U546" s="27"/>
       <c r="V546" s="27" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="547" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38341,7 +38345,7 @@
       </c>
       <c r="U547" s="27"/>
       <c r="V547" s="27" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="548" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38406,7 +38410,7 @@
       </c>
       <c r="U548" s="27"/>
       <c r="V548" s="27" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="549" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38471,7 +38475,7 @@
       </c>
       <c r="U549" s="27"/>
       <c r="V549" s="27" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="550" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38536,7 +38540,7 @@
       </c>
       <c r="U550" s="27"/>
       <c r="V550" s="27" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="551" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38601,7 +38605,7 @@
       </c>
       <c r="U551" s="27"/>
       <c r="V551" s="27" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="552" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38666,7 +38670,7 @@
       </c>
       <c r="U552" s="27"/>
       <c r="V552" s="27" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="553" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38731,7 +38735,7 @@
       </c>
       <c r="U553" s="27"/>
       <c r="V553" s="27" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="554" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38796,7 +38800,7 @@
       </c>
       <c r="U554" s="27"/>
       <c r="V554" s="27" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="555" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38860,7 +38864,7 @@
       </c>
       <c r="U555" s="30"/>
       <c r="V555" s="30" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="556" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38924,7 +38928,7 @@
       </c>
       <c r="U556" s="30"/>
       <c r="V556" s="30" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -1407,10 +1407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冷却时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>["skill3"]</t>
   </si>
   <si>
@@ -1796,6 +1792,10 @@
   </si>
   <si>
     <t>战士普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2317,10 +2317,10 @@
   <dimension ref="A1:W556"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D281" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="R288" sqref="R288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2396,7 +2396,7 @@
         <v>12</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>441</v>
+        <v>568</v>
       </c>
       <c r="T1" s="7" t="s">
         <v>14</v>
@@ -2405,7 +2405,7 @@
         <v>55</v>
       </c>
       <c r="V1" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>292</v>
@@ -2462,14 +2462,14 @@
         <v>0</v>
       </c>
       <c r="S2" s="18">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="T2" s="18">
         <v>0</v>
       </c>
       <c r="U2" s="18"/>
       <c r="V2" s="18" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2527,14 +2527,14 @@
         <v>0</v>
       </c>
       <c r="S3" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T3" s="16">
         <v>1</v>
       </c>
       <c r="U3" s="16"/>
       <c r="V3" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2593,14 +2593,14 @@
         <v>0</v>
       </c>
       <c r="S4" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T4" s="16">
         <v>1</v>
       </c>
       <c r="U4" s="16"/>
       <c r="V4" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2659,14 +2659,14 @@
         <v>0</v>
       </c>
       <c r="S5" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T5" s="16">
         <v>1</v>
       </c>
       <c r="U5" s="16"/>
       <c r="V5" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2725,14 +2725,14 @@
         <v>0</v>
       </c>
       <c r="S6" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T6" s="16">
         <v>1</v>
       </c>
       <c r="U6" s="16"/>
       <c r="V6" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2791,14 +2791,14 @@
         <v>0</v>
       </c>
       <c r="S7" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T7" s="16">
         <v>1</v>
       </c>
       <c r="U7" s="16"/>
       <c r="V7" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2857,14 +2857,14 @@
         <v>0</v>
       </c>
       <c r="S8" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T8" s="16">
         <v>1</v>
       </c>
       <c r="U8" s="16"/>
       <c r="V8" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2923,14 +2923,14 @@
         <v>0</v>
       </c>
       <c r="S9" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T9" s="16">
         <v>1</v>
       </c>
       <c r="U9" s="16"/>
       <c r="V9" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -2989,14 +2989,14 @@
         <v>0</v>
       </c>
       <c r="S10" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T10" s="16">
         <v>1</v>
       </c>
       <c r="U10" s="16"/>
       <c r="V10" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3055,14 +3055,14 @@
         <v>0</v>
       </c>
       <c r="S11" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T11" s="16">
         <v>1</v>
       </c>
       <c r="U11" s="16"/>
       <c r="V11" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3121,14 +3121,14 @@
         <v>0</v>
       </c>
       <c r="S12" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T12" s="16">
         <v>1</v>
       </c>
       <c r="U12" s="16"/>
       <c r="V12" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3187,14 +3187,14 @@
         <v>0</v>
       </c>
       <c r="S13" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T13" s="16">
         <v>1</v>
       </c>
       <c r="U13" s="16"/>
       <c r="V13" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3253,14 +3253,14 @@
         <v>0</v>
       </c>
       <c r="S14" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T14" s="16">
         <v>1</v>
       </c>
       <c r="U14" s="16"/>
       <c r="V14" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3319,14 +3319,14 @@
         <v>0</v>
       </c>
       <c r="S15" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T15" s="16">
         <v>1</v>
       </c>
       <c r="U15" s="16"/>
       <c r="V15" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3385,14 +3385,14 @@
         <v>0</v>
       </c>
       <c r="S16" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T16" s="16">
         <v>1</v>
       </c>
       <c r="U16" s="16"/>
       <c r="V16" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3451,14 +3451,14 @@
         <v>0</v>
       </c>
       <c r="S17" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T17" s="16">
         <v>1</v>
       </c>
       <c r="U17" s="16"/>
       <c r="V17" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3517,14 +3517,14 @@
         <v>0</v>
       </c>
       <c r="S18" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T18" s="16">
         <v>1</v>
       </c>
       <c r="U18" s="16"/>
       <c r="V18" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3583,14 +3583,14 @@
         <v>0</v>
       </c>
       <c r="S19" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T19" s="16">
         <v>1</v>
       </c>
       <c r="U19" s="16"/>
       <c r="V19" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3649,14 +3649,14 @@
         <v>0</v>
       </c>
       <c r="S20" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T20" s="16">
         <v>1</v>
       </c>
       <c r="U20" s="16"/>
       <c r="V20" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3715,14 +3715,14 @@
         <v>0</v>
       </c>
       <c r="S21" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T21" s="16">
         <v>1</v>
       </c>
       <c r="U21" s="16"/>
       <c r="V21" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3781,14 +3781,14 @@
         <v>0</v>
       </c>
       <c r="S22" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T22" s="16">
         <v>1</v>
       </c>
       <c r="U22" s="16"/>
       <c r="V22" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3847,14 +3847,14 @@
         <v>0</v>
       </c>
       <c r="S23" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T23" s="16">
         <v>1</v>
       </c>
       <c r="U23" s="16"/>
       <c r="V23" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3913,14 +3913,14 @@
         <v>0</v>
       </c>
       <c r="S24" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T24" s="16">
         <v>1</v>
       </c>
       <c r="U24" s="16"/>
       <c r="V24" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -3979,14 +3979,14 @@
         <v>0</v>
       </c>
       <c r="S25" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T25" s="16">
         <v>1</v>
       </c>
       <c r="U25" s="16"/>
       <c r="V25" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4045,14 +4045,14 @@
         <v>0</v>
       </c>
       <c r="S26" s="16">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T26" s="16">
         <v>1</v>
       </c>
       <c r="U26" s="16"/>
       <c r="V26" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4111,14 +4111,14 @@
         <v>0</v>
       </c>
       <c r="S27" s="18">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T27" s="18">
         <v>1</v>
       </c>
       <c r="U27" s="18"/>
       <c r="V27" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4184,7 +4184,7 @@
       </c>
       <c r="U28" s="12"/>
       <c r="V28" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="U29" s="12"/>
       <c r="V29" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="U30" s="12"/>
       <c r="V30" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4382,7 +4382,7 @@
       </c>
       <c r="U31" s="12"/>
       <c r="V31" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="U32" s="12"/>
       <c r="V32" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="U33" s="12"/>
       <c r="V33" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="U34" s="12"/>
       <c r="V34" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="U35" s="12"/>
       <c r="V35" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="U36" s="12"/>
       <c r="V36" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="U37" s="12"/>
       <c r="V37" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4844,7 +4844,7 @@
       </c>
       <c r="U38" s="12"/>
       <c r="V38" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4910,7 +4910,7 @@
       </c>
       <c r="U39" s="12"/>
       <c r="V39" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -4976,7 +4976,7 @@
       </c>
       <c r="U40" s="12"/>
       <c r="V40" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="U41" s="12"/>
       <c r="V41" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="U42" s="12"/>
       <c r="V42" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="U43" s="12"/>
       <c r="V43" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="U44" s="12"/>
       <c r="V44" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="U45" s="12"/>
       <c r="V45" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="U46" s="12"/>
       <c r="V46" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="U47" s="12"/>
       <c r="V47" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5504,7 +5504,7 @@
       </c>
       <c r="U48" s="12"/>
       <c r="V48" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="U49" s="12"/>
       <c r="V49" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="U50" s="12"/>
       <c r="V50" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5702,7 +5702,7 @@
       </c>
       <c r="U51" s="12"/>
       <c r="V51" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="U52" s="18"/>
       <c r="V52" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="U53" s="12"/>
       <c r="V53" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="U54" s="12"/>
       <c r="V54" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="U55" s="12"/>
       <c r="V55" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6032,7 +6032,7 @@
       </c>
       <c r="U56" s="12"/>
       <c r="V56" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="57" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="U57" s="12"/>
       <c r="V57" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="U58" s="12"/>
       <c r="V58" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="U59" s="12"/>
       <c r="V59" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6296,7 +6296,7 @@
       </c>
       <c r="U60" s="12"/>
       <c r="V60" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="U61" s="12"/>
       <c r="V61" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6428,7 +6428,7 @@
       </c>
       <c r="U62" s="12"/>
       <c r="V62" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="U63" s="12"/>
       <c r="V63" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6560,7 +6560,7 @@
       </c>
       <c r="U64" s="12"/>
       <c r="V64" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="U65" s="12"/>
       <c r="V65" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6692,7 +6692,7 @@
       </c>
       <c r="U66" s="12"/>
       <c r="V66" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="U67" s="12"/>
       <c r="V67" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="U68" s="12"/>
       <c r="V68" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6890,7 +6890,7 @@
       </c>
       <c r="U69" s="12"/>
       <c r="V69" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="70" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -6956,7 +6956,7 @@
       </c>
       <c r="U70" s="12"/>
       <c r="V70" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="71" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7022,7 +7022,7 @@
       </c>
       <c r="U71" s="12"/>
       <c r="V71" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7088,7 +7088,7 @@
       </c>
       <c r="U72" s="12"/>
       <c r="V72" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="73" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="U73" s="12"/>
       <c r="V73" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="U74" s="12"/>
       <c r="V74" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="75" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="U75" s="12"/>
       <c r="V75" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="76" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="U76" s="12"/>
       <c r="V76" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="77" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7418,7 +7418,7 @@
       </c>
       <c r="U77" s="18"/>
       <c r="V77" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="78" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7484,7 +7484,7 @@
       </c>
       <c r="U78" s="12"/>
       <c r="V78" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="79" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7550,7 +7550,7 @@
       </c>
       <c r="U79" s="12"/>
       <c r="V79" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="80" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="U80" s="12"/>
       <c r="V80" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="81" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7682,7 +7682,7 @@
       </c>
       <c r="U81" s="12"/>
       <c r="V81" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="U82" s="12"/>
       <c r="V82" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="83" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7814,7 +7814,7 @@
       </c>
       <c r="U83" s="12"/>
       <c r="V83" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="84" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7880,7 +7880,7 @@
       </c>
       <c r="U84" s="12"/>
       <c r="V84" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="85" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -7946,7 +7946,7 @@
       </c>
       <c r="U85" s="12"/>
       <c r="V85" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="86" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8012,7 +8012,7 @@
       </c>
       <c r="U86" s="12"/>
       <c r="V86" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="87" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="U87" s="12"/>
       <c r="V87" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8144,7 +8144,7 @@
       </c>
       <c r="U88" s="12"/>
       <c r="V88" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="89" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8210,7 +8210,7 @@
       </c>
       <c r="U89" s="12"/>
       <c r="V89" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8276,7 +8276,7 @@
       </c>
       <c r="U90" s="12"/>
       <c r="V90" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="91" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8342,7 +8342,7 @@
       </c>
       <c r="U91" s="12"/>
       <c r="V91" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8408,7 +8408,7 @@
       </c>
       <c r="U92" s="12"/>
       <c r="V92" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8474,7 +8474,7 @@
       </c>
       <c r="U93" s="12"/>
       <c r="V93" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="U94" s="12"/>
       <c r="V94" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8606,7 +8606,7 @@
       </c>
       <c r="U95" s="12"/>
       <c r="V95" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8672,7 +8672,7 @@
       </c>
       <c r="U96" s="12"/>
       <c r="V96" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="97" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="U97" s="12"/>
       <c r="V97" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="98" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8804,7 +8804,7 @@
       </c>
       <c r="U98" s="12"/>
       <c r="V98" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="99" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8870,7 +8870,7 @@
       </c>
       <c r="U99" s="12"/>
       <c r="V99" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="100" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -8936,7 +8936,7 @@
       </c>
       <c r="U100" s="12"/>
       <c r="V100" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9002,7 +9002,7 @@
       </c>
       <c r="U101" s="12"/>
       <c r="V101" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="102" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9068,7 +9068,7 @@
       </c>
       <c r="U102" s="18"/>
       <c r="V102" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="103" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9134,7 +9134,7 @@
       </c>
       <c r="U103" s="12"/>
       <c r="V103" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="104" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9200,7 +9200,7 @@
       </c>
       <c r="U104" s="12"/>
       <c r="V104" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="105" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="U105" s="12"/>
       <c r="V105" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9332,7 +9332,7 @@
       </c>
       <c r="U106" s="12"/>
       <c r="V106" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="107" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9398,7 +9398,7 @@
       </c>
       <c r="U107" s="12"/>
       <c r="V107" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="108" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9464,7 +9464,7 @@
       </c>
       <c r="U108" s="12"/>
       <c r="V108" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="109" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9530,7 +9530,7 @@
       </c>
       <c r="U109" s="12"/>
       <c r="V109" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="110" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="U110" s="12"/>
       <c r="V110" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="111" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9662,7 +9662,7 @@
       </c>
       <c r="U111" s="12"/>
       <c r="V111" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="112" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9728,7 +9728,7 @@
       </c>
       <c r="U112" s="12"/>
       <c r="V112" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="113" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9794,7 +9794,7 @@
       </c>
       <c r="U113" s="12"/>
       <c r="V113" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="114" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9860,7 +9860,7 @@
       </c>
       <c r="U114" s="12"/>
       <c r="V114" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="115" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9926,7 +9926,7 @@
       </c>
       <c r="U115" s="12"/>
       <c r="V115" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="116" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -9992,7 +9992,7 @@
       </c>
       <c r="U116" s="12"/>
       <c r="V116" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="117" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10058,7 +10058,7 @@
       </c>
       <c r="U117" s="12"/>
       <c r="V117" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="118" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10124,7 +10124,7 @@
       </c>
       <c r="U118" s="12"/>
       <c r="V118" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10190,7 +10190,7 @@
       </c>
       <c r="U119" s="12"/>
       <c r="V119" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="120" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="U120" s="12"/>
       <c r="V120" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="121" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10322,7 +10322,7 @@
       </c>
       <c r="U121" s="12"/>
       <c r="V121" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="122" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10388,7 +10388,7 @@
       </c>
       <c r="U122" s="12"/>
       <c r="V122" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="123" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10454,7 +10454,7 @@
       </c>
       <c r="U123" s="12"/>
       <c r="V123" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="124" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10520,7 +10520,7 @@
       </c>
       <c r="U124" s="12"/>
       <c r="V124" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="125" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10586,7 +10586,7 @@
       </c>
       <c r="U125" s="12"/>
       <c r="V125" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="126" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10652,7 +10652,7 @@
       </c>
       <c r="U126" s="12"/>
       <c r="V126" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="127" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10718,7 +10718,7 @@
       </c>
       <c r="U127" s="18"/>
       <c r="V127" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="128" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="U128" s="12"/>
       <c r="V128" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="129" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10850,7 +10850,7 @@
       </c>
       <c r="U129" s="12"/>
       <c r="V129" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="130" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10916,7 +10916,7 @@
       </c>
       <c r="U130" s="12"/>
       <c r="V130" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="131" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -10982,7 +10982,7 @@
       </c>
       <c r="U131" s="12"/>
       <c r="V131" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="132" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11048,7 +11048,7 @@
       </c>
       <c r="U132" s="12"/>
       <c r="V132" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="133" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11114,7 +11114,7 @@
       </c>
       <c r="U133" s="12"/>
       <c r="V133" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="134" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11180,7 +11180,7 @@
       </c>
       <c r="U134" s="12"/>
       <c r="V134" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="135" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11246,7 +11246,7 @@
       </c>
       <c r="U135" s="12"/>
       <c r="V135" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="136" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11312,7 +11312,7 @@
       </c>
       <c r="U136" s="12"/>
       <c r="V136" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="137" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11378,7 +11378,7 @@
       </c>
       <c r="U137" s="12"/>
       <c r="V137" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="138" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11444,7 +11444,7 @@
       </c>
       <c r="U138" s="12"/>
       <c r="V138" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="139" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11510,7 +11510,7 @@
       </c>
       <c r="U139" s="12"/>
       <c r="V139" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="140" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11576,7 +11576,7 @@
       </c>
       <c r="U140" s="12"/>
       <c r="V140" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="141" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11642,7 +11642,7 @@
       </c>
       <c r="U141" s="12"/>
       <c r="V141" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="142" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11708,7 +11708,7 @@
       </c>
       <c r="U142" s="12"/>
       <c r="V142" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="143" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11774,7 +11774,7 @@
       </c>
       <c r="U143" s="12"/>
       <c r="V143" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="144" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11840,7 +11840,7 @@
       </c>
       <c r="U144" s="12"/>
       <c r="V144" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="145" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11906,7 +11906,7 @@
       </c>
       <c r="U145" s="12"/>
       <c r="V145" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="146" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -11972,7 +11972,7 @@
       </c>
       <c r="U146" s="12"/>
       <c r="V146" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="147" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12038,7 +12038,7 @@
       </c>
       <c r="U147" s="12"/>
       <c r="V147" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="148" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12104,7 +12104,7 @@
       </c>
       <c r="U148" s="12"/>
       <c r="V148" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="149" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12170,7 +12170,7 @@
       </c>
       <c r="U149" s="12"/>
       <c r="V149" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="150" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12236,7 +12236,7 @@
       </c>
       <c r="U150" s="12"/>
       <c r="V150" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="151" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12302,7 +12302,7 @@
       </c>
       <c r="U151" s="12"/>
       <c r="V151" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="152" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="U152" s="12"/>
       <c r="V152" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="153" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12379,7 +12379,7 @@
         <v>1</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D153" s="20" t="s">
         <v>63</v>
@@ -12426,14 +12426,14 @@
         <v>0</v>
       </c>
       <c r="S153" s="20">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="T153" s="20">
         <v>1</v>
       </c>
       <c r="U153" s="20"/>
       <c r="V153" s="20" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="154" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12491,14 +12491,14 @@
         <v>0</v>
       </c>
       <c r="S154" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T154" s="10">
         <v>1</v>
       </c>
       <c r="U154" s="10"/>
       <c r="V154" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="155" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12557,14 +12557,14 @@
         <v>0</v>
       </c>
       <c r="S155" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T155" s="10">
         <v>1</v>
       </c>
       <c r="U155" s="10"/>
       <c r="V155" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="156" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12623,14 +12623,14 @@
         <v>0</v>
       </c>
       <c r="S156" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T156" s="10">
         <v>1</v>
       </c>
       <c r="U156" s="10"/>
       <c r="V156" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="157" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12689,14 +12689,14 @@
         <v>0</v>
       </c>
       <c r="S157" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T157" s="10">
         <v>1</v>
       </c>
       <c r="U157" s="10"/>
       <c r="V157" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="158" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12755,14 +12755,14 @@
         <v>0</v>
       </c>
       <c r="S158" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T158" s="10">
         <v>1</v>
       </c>
       <c r="U158" s="10"/>
       <c r="V158" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="159" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12821,14 +12821,14 @@
         <v>0</v>
       </c>
       <c r="S159" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T159" s="10">
         <v>1</v>
       </c>
       <c r="U159" s="10"/>
       <c r="V159" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="160" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12887,14 +12887,14 @@
         <v>0</v>
       </c>
       <c r="S160" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T160" s="10">
         <v>1</v>
       </c>
       <c r="U160" s="10"/>
       <c r="V160" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="161" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -12953,14 +12953,14 @@
         <v>0</v>
       </c>
       <c r="S161" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T161" s="10">
         <v>1</v>
       </c>
       <c r="U161" s="10"/>
       <c r="V161" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="162" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13019,14 +13019,14 @@
         <v>0</v>
       </c>
       <c r="S162" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T162" s="10">
         <v>1</v>
       </c>
       <c r="U162" s="10"/>
       <c r="V162" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="163" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13085,14 +13085,14 @@
         <v>0</v>
       </c>
       <c r="S163" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T163" s="10">
         <v>1</v>
       </c>
       <c r="U163" s="10"/>
       <c r="V163" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="164" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13151,14 +13151,14 @@
         <v>0</v>
       </c>
       <c r="S164" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T164" s="10">
         <v>1</v>
       </c>
       <c r="U164" s="10"/>
       <c r="V164" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="165" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13217,14 +13217,14 @@
         <v>0</v>
       </c>
       <c r="S165" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T165" s="10">
         <v>1</v>
       </c>
       <c r="U165" s="10"/>
       <c r="V165" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="166" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13283,14 +13283,14 @@
         <v>0</v>
       </c>
       <c r="S166" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T166" s="10">
         <v>1</v>
       </c>
       <c r="U166" s="10"/>
       <c r="V166" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="167" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13349,14 +13349,14 @@
         <v>0</v>
       </c>
       <c r="S167" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T167" s="10">
         <v>1</v>
       </c>
       <c r="U167" s="10"/>
       <c r="V167" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="168" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13415,14 +13415,14 @@
         <v>0</v>
       </c>
       <c r="S168" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T168" s="10">
         <v>1</v>
       </c>
       <c r="U168" s="10"/>
       <c r="V168" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="169" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13481,14 +13481,14 @@
         <v>0</v>
       </c>
       <c r="S169" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T169" s="10">
         <v>1</v>
       </c>
       <c r="U169" s="10"/>
       <c r="V169" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="170" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13547,14 +13547,14 @@
         <v>0</v>
       </c>
       <c r="S170" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T170" s="10">
         <v>1</v>
       </c>
       <c r="U170" s="10"/>
       <c r="V170" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="171" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13613,14 +13613,14 @@
         <v>0</v>
       </c>
       <c r="S171" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T171" s="10">
         <v>1</v>
       </c>
       <c r="U171" s="10"/>
       <c r="V171" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="172" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13679,14 +13679,14 @@
         <v>0</v>
       </c>
       <c r="S172" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T172" s="10">
         <v>1</v>
       </c>
       <c r="U172" s="10"/>
       <c r="V172" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="173" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13745,14 +13745,14 @@
         <v>0</v>
       </c>
       <c r="S173" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T173" s="10">
         <v>1</v>
       </c>
       <c r="U173" s="10"/>
       <c r="V173" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="174" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13811,14 +13811,14 @@
         <v>0</v>
       </c>
       <c r="S174" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T174" s="10">
         <v>1</v>
       </c>
       <c r="U174" s="10"/>
       <c r="V174" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="175" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13877,14 +13877,14 @@
         <v>0</v>
       </c>
       <c r="S175" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T175" s="10">
         <v>1</v>
       </c>
       <c r="U175" s="10"/>
       <c r="V175" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="176" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -13943,14 +13943,14 @@
         <v>0</v>
       </c>
       <c r="S176" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T176" s="10">
         <v>1</v>
       </c>
       <c r="U176" s="10"/>
       <c r="V176" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14009,14 +14009,14 @@
         <v>0</v>
       </c>
       <c r="S177" s="10">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T177" s="10">
         <v>1</v>
       </c>
       <c r="U177" s="10"/>
       <c r="V177" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="178" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14075,14 +14075,14 @@
         <v>0</v>
       </c>
       <c r="S178" s="20">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T178" s="20">
         <v>1</v>
       </c>
       <c r="U178" s="20"/>
       <c r="V178" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="W178" s="22"/>
     </row>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="U179" s="10"/>
       <c r="V179" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14215,7 +14215,7 @@
       </c>
       <c r="U180" s="10"/>
       <c r="V180" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14281,7 +14281,7 @@
       </c>
       <c r="U181" s="10"/>
       <c r="V181" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14347,7 +14347,7 @@
       </c>
       <c r="U182" s="10"/>
       <c r="V182" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14413,7 +14413,7 @@
       </c>
       <c r="U183" s="10"/>
       <c r="V183" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14479,7 +14479,7 @@
       </c>
       <c r="U184" s="10"/>
       <c r="V184" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14545,7 +14545,7 @@
       </c>
       <c r="U185" s="10"/>
       <c r="V185" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14611,7 +14611,7 @@
       </c>
       <c r="U186" s="10"/>
       <c r="V186" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14677,7 +14677,7 @@
       </c>
       <c r="U187" s="10"/>
       <c r="V187" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14743,7 +14743,7 @@
       </c>
       <c r="U188" s="10"/>
       <c r="V188" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14809,7 +14809,7 @@
       </c>
       <c r="U189" s="10"/>
       <c r="V189" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14875,7 +14875,7 @@
       </c>
       <c r="U190" s="10"/>
       <c r="V190" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -14941,7 +14941,7 @@
       </c>
       <c r="U191" s="10"/>
       <c r="V191" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15007,7 +15007,7 @@
       </c>
       <c r="U192" s="10"/>
       <c r="V192" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="193" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15073,7 +15073,7 @@
       </c>
       <c r="U193" s="10"/>
       <c r="V193" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="194" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15139,7 +15139,7 @@
       </c>
       <c r="U194" s="10"/>
       <c r="V194" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="195" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15205,7 +15205,7 @@
       </c>
       <c r="U195" s="10"/>
       <c r="V195" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="196" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15271,7 +15271,7 @@
       </c>
       <c r="U196" s="10"/>
       <c r="V196" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="197" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15337,7 +15337,7 @@
       </c>
       <c r="U197" s="10"/>
       <c r="V197" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="198" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15403,7 +15403,7 @@
       </c>
       <c r="U198" s="10"/>
       <c r="V198" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="199" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15469,7 +15469,7 @@
       </c>
       <c r="U199" s="10"/>
       <c r="V199" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="200" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15535,7 +15535,7 @@
       </c>
       <c r="U200" s="10"/>
       <c r="V200" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="201" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15601,7 +15601,7 @@
       </c>
       <c r="U201" s="10"/>
       <c r="V201" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="202" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15667,7 +15667,7 @@
       </c>
       <c r="U202" s="10"/>
       <c r="V202" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="203" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15733,7 +15733,7 @@
       </c>
       <c r="U203" s="20"/>
       <c r="V203" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="W203" s="22"/>
     </row>
@@ -15800,7 +15800,7 @@
       </c>
       <c r="U204" s="10"/>
       <c r="V204" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="205" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15866,7 +15866,7 @@
       </c>
       <c r="U205" s="10"/>
       <c r="V205" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="206" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15932,7 +15932,7 @@
       </c>
       <c r="U206" s="10"/>
       <c r="V206" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="207" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -15998,7 +15998,7 @@
       </c>
       <c r="U207" s="10"/>
       <c r="V207" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="208" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -16064,7 +16064,7 @@
       </c>
       <c r="U208" s="10"/>
       <c r="V208" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="209" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16130,7 +16130,7 @@
       </c>
       <c r="U209" s="10"/>
       <c r="V209" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="210" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16196,7 +16196,7 @@
       </c>
       <c r="U210" s="10"/>
       <c r="V210" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="211" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16262,7 +16262,7 @@
       </c>
       <c r="U211" s="10"/>
       <c r="V211" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="212" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16328,7 +16328,7 @@
       </c>
       <c r="U212" s="10"/>
       <c r="V212" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="213" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16394,7 +16394,7 @@
       </c>
       <c r="U213" s="10"/>
       <c r="V213" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="214" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16460,7 +16460,7 @@
       </c>
       <c r="U214" s="10"/>
       <c r="V214" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="215" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16526,7 +16526,7 @@
       </c>
       <c r="U215" s="10"/>
       <c r="V215" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="216" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="U216" s="10"/>
       <c r="V216" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="217" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16658,7 +16658,7 @@
       </c>
       <c r="U217" s="10"/>
       <c r="V217" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="218" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16724,7 +16724,7 @@
       </c>
       <c r="U218" s="10"/>
       <c r="V218" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="219" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16790,7 +16790,7 @@
       </c>
       <c r="U219" s="10"/>
       <c r="V219" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="220" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16856,7 +16856,7 @@
       </c>
       <c r="U220" s="10"/>
       <c r="V220" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="221" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16922,7 +16922,7 @@
       </c>
       <c r="U221" s="10"/>
       <c r="V221" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="222" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -16988,7 +16988,7 @@
       </c>
       <c r="U222" s="10"/>
       <c r="V222" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="223" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17054,7 +17054,7 @@
       </c>
       <c r="U223" s="10"/>
       <c r="V223" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="224" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -17120,7 +17120,7 @@
       </c>
       <c r="U224" s="10"/>
       <c r="V224" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="225" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17186,7 +17186,7 @@
       </c>
       <c r="U225" s="10"/>
       <c r="V225" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="226" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17252,7 +17252,7 @@
       </c>
       <c r="U226" s="10"/>
       <c r="V226" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="227" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17318,7 +17318,7 @@
       </c>
       <c r="U227" s="10"/>
       <c r="V227" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="228" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17384,7 +17384,7 @@
       </c>
       <c r="U228" s="20"/>
       <c r="V228" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="W228" s="22"/>
     </row>
@@ -17451,7 +17451,7 @@
       </c>
       <c r="U229" s="10"/>
       <c r="V229" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="230" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17517,7 +17517,7 @@
       </c>
       <c r="U230" s="10"/>
       <c r="V230" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="231" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17583,7 +17583,7 @@
       </c>
       <c r="U231" s="10"/>
       <c r="V231" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="232" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17649,7 +17649,7 @@
       </c>
       <c r="U232" s="10"/>
       <c r="V232" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="233" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17715,7 +17715,7 @@
       </c>
       <c r="U233" s="10"/>
       <c r="V233" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="234" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17781,7 +17781,7 @@
       </c>
       <c r="U234" s="10"/>
       <c r="V234" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="235" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17847,7 +17847,7 @@
       </c>
       <c r="U235" s="10"/>
       <c r="V235" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="236" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17913,7 +17913,7 @@
       </c>
       <c r="U236" s="10"/>
       <c r="V236" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="237" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -17979,7 +17979,7 @@
       </c>
       <c r="U237" s="10"/>
       <c r="V237" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="238" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -18045,7 +18045,7 @@
       </c>
       <c r="U238" s="10"/>
       <c r="V238" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="239" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -18111,7 +18111,7 @@
       </c>
       <c r="U239" s="10"/>
       <c r="V239" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="240" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -18177,7 +18177,7 @@
       </c>
       <c r="U240" s="10"/>
       <c r="V240" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="241" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18243,7 +18243,7 @@
       </c>
       <c r="U241" s="10"/>
       <c r="V241" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="242" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18309,7 +18309,7 @@
       </c>
       <c r="U242" s="10"/>
       <c r="V242" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="243" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18375,7 +18375,7 @@
       </c>
       <c r="U243" s="10"/>
       <c r="V243" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="244" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18441,7 +18441,7 @@
       </c>
       <c r="U244" s="10"/>
       <c r="V244" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="245" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18507,7 +18507,7 @@
       </c>
       <c r="U245" s="10"/>
       <c r="V245" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="246" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18573,7 +18573,7 @@
       </c>
       <c r="U246" s="10"/>
       <c r="V246" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="247" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18639,7 +18639,7 @@
       </c>
       <c r="U247" s="10"/>
       <c r="V247" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="248" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18705,7 +18705,7 @@
       </c>
       <c r="U248" s="10"/>
       <c r="V248" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="249" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18771,7 +18771,7 @@
       </c>
       <c r="U249" s="10"/>
       <c r="V249" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="250" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18837,7 +18837,7 @@
       </c>
       <c r="U250" s="10"/>
       <c r="V250" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="251" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18903,7 +18903,7 @@
       </c>
       <c r="U251" s="10"/>
       <c r="V251" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="252" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -18969,7 +18969,7 @@
       </c>
       <c r="U252" s="10"/>
       <c r="V252" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="253" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19035,7 +19035,7 @@
       </c>
       <c r="U253" s="20"/>
       <c r="V253" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="254" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19101,7 +19101,7 @@
       </c>
       <c r="U254" s="10"/>
       <c r="V254" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="255" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19167,7 +19167,7 @@
       </c>
       <c r="U255" s="10"/>
       <c r="V255" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="256" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19233,7 +19233,7 @@
       </c>
       <c r="U256" s="10"/>
       <c r="V256" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="257" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19299,7 +19299,7 @@
       </c>
       <c r="U257" s="10"/>
       <c r="V257" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="258" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19365,7 +19365,7 @@
       </c>
       <c r="U258" s="10"/>
       <c r="V258" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="259" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19431,7 +19431,7 @@
       </c>
       <c r="U259" s="10"/>
       <c r="V259" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="260" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19497,7 +19497,7 @@
       </c>
       <c r="U260" s="10"/>
       <c r="V260" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="261" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19563,7 +19563,7 @@
       </c>
       <c r="U261" s="10"/>
       <c r="V261" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="262" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19629,7 +19629,7 @@
       </c>
       <c r="U262" s="10"/>
       <c r="V262" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="263" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19695,7 +19695,7 @@
       </c>
       <c r="U263" s="10"/>
       <c r="V263" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="264" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19761,7 +19761,7 @@
       </c>
       <c r="U264" s="10"/>
       <c r="V264" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="265" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19827,7 +19827,7 @@
       </c>
       <c r="U265" s="10"/>
       <c r="V265" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="266" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19893,7 +19893,7 @@
       </c>
       <c r="U266" s="10"/>
       <c r="V266" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="267" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -19959,7 +19959,7 @@
       </c>
       <c r="U267" s="10"/>
       <c r="V267" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="268" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20025,7 +20025,7 @@
       </c>
       <c r="U268" s="10"/>
       <c r="V268" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="269" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20091,7 +20091,7 @@
       </c>
       <c r="U269" s="10"/>
       <c r="V269" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="270" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20157,7 +20157,7 @@
       </c>
       <c r="U270" s="10"/>
       <c r="V270" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="271" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20223,7 +20223,7 @@
       </c>
       <c r="U271" s="10"/>
       <c r="V271" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="272" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -20289,7 +20289,7 @@
       </c>
       <c r="U272" s="10"/>
       <c r="V272" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="273" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20355,7 +20355,7 @@
       </c>
       <c r="U273" s="10"/>
       <c r="V273" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="274" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20421,7 +20421,7 @@
       </c>
       <c r="U274" s="10"/>
       <c r="V274" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="275" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20487,7 +20487,7 @@
       </c>
       <c r="U275" s="10"/>
       <c r="V275" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="276" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20553,7 +20553,7 @@
       </c>
       <c r="U276" s="10"/>
       <c r="V276" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="277" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20619,7 +20619,7 @@
       </c>
       <c r="U277" s="10"/>
       <c r="V277" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="278" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20685,7 +20685,7 @@
       </c>
       <c r="U278" s="20"/>
       <c r="V278" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="W278" s="22"/>
     </row>
@@ -20752,7 +20752,7 @@
       </c>
       <c r="U279" s="10"/>
       <c r="V279" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="280" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20818,7 +20818,7 @@
       </c>
       <c r="U280" s="10"/>
       <c r="V280" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="281" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20884,7 +20884,7 @@
       </c>
       <c r="U281" s="10"/>
       <c r="V281" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="282" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -20950,7 +20950,7 @@
       </c>
       <c r="U282" s="10"/>
       <c r="V282" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="283" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="U283" s="10"/>
       <c r="V283" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="284" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -21082,7 +21082,7 @@
       </c>
       <c r="U284" s="10"/>
       <c r="V284" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="285" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -21148,7 +21148,7 @@
       </c>
       <c r="U285" s="10"/>
       <c r="V285" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="286" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -21214,7 +21214,7 @@
       </c>
       <c r="U286" s="10"/>
       <c r="V286" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="287" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -21280,7 +21280,7 @@
       </c>
       <c r="U287" s="10"/>
       <c r="V287" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="288" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
@@ -21346,7 +21346,7 @@
       </c>
       <c r="U288" s="10"/>
       <c r="V288" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="289" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21412,7 +21412,7 @@
       </c>
       <c r="U289" s="10"/>
       <c r="V289" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="290" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21478,7 +21478,7 @@
       </c>
       <c r="U290" s="10"/>
       <c r="V290" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="291" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21544,7 +21544,7 @@
       </c>
       <c r="U291" s="10"/>
       <c r="V291" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="292" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21610,7 +21610,7 @@
       </c>
       <c r="U292" s="10"/>
       <c r="V292" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="293" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21676,7 +21676,7 @@
       </c>
       <c r="U293" s="10"/>
       <c r="V293" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="294" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21742,7 +21742,7 @@
       </c>
       <c r="U294" s="10"/>
       <c r="V294" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="295" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21808,7 +21808,7 @@
       </c>
       <c r="U295" s="10"/>
       <c r="V295" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="296" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21874,7 +21874,7 @@
       </c>
       <c r="U296" s="10"/>
       <c r="V296" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="297" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -21940,7 +21940,7 @@
       </c>
       <c r="U297" s="10"/>
       <c r="V297" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="298" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22006,7 +22006,7 @@
       </c>
       <c r="U298" s="10"/>
       <c r="V298" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="299" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22072,7 +22072,7 @@
       </c>
       <c r="U299" s="10"/>
       <c r="V299" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="300" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22138,7 +22138,7 @@
       </c>
       <c r="U300" s="10"/>
       <c r="V300" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="301" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22204,7 +22204,7 @@
       </c>
       <c r="U301" s="10"/>
       <c r="V301" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="302" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22270,7 +22270,7 @@
       </c>
       <c r="U302" s="10"/>
       <c r="V302" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="303" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22336,7 +22336,7 @@
       </c>
       <c r="U303" s="10"/>
       <c r="V303" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="304" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22347,7 +22347,7 @@
         <v>1</v>
       </c>
       <c r="C304" s="33" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D304" s="33" t="s">
         <v>64</v>
@@ -22394,14 +22394,14 @@
         <v>0</v>
       </c>
       <c r="S304" s="33">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="T304" s="33">
         <v>1</v>
       </c>
       <c r="U304" s="33"/>
       <c r="V304" s="36" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="305" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22459,14 +22459,14 @@
         <v>0</v>
       </c>
       <c r="S305" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T305" s="14">
         <v>1</v>
       </c>
       <c r="U305" s="14"/>
       <c r="V305" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="306" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22525,14 +22525,14 @@
         <v>0</v>
       </c>
       <c r="S306" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T306" s="14">
         <v>1</v>
       </c>
       <c r="U306" s="14"/>
       <c r="V306" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="307" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22591,14 +22591,14 @@
         <v>0</v>
       </c>
       <c r="S307" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T307" s="14">
         <v>1</v>
       </c>
       <c r="U307" s="14"/>
       <c r="V307" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="308" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22657,14 +22657,14 @@
         <v>0</v>
       </c>
       <c r="S308" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T308" s="14">
         <v>1</v>
       </c>
       <c r="U308" s="14"/>
       <c r="V308" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="309" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22723,14 +22723,14 @@
         <v>0</v>
       </c>
       <c r="S309" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T309" s="14">
         <v>1</v>
       </c>
       <c r="U309" s="14"/>
       <c r="V309" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="310" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22789,14 +22789,14 @@
         <v>0</v>
       </c>
       <c r="S310" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T310" s="14">
         <v>1</v>
       </c>
       <c r="U310" s="14"/>
       <c r="V310" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="311" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22855,14 +22855,14 @@
         <v>0</v>
       </c>
       <c r="S311" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T311" s="14">
         <v>1</v>
       </c>
       <c r="U311" s="14"/>
       <c r="V311" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="312" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22921,14 +22921,14 @@
         <v>0</v>
       </c>
       <c r="S312" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T312" s="14">
         <v>1</v>
       </c>
       <c r="U312" s="14"/>
       <c r="V312" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="313" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -22987,14 +22987,14 @@
         <v>0</v>
       </c>
       <c r="S313" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T313" s="14">
         <v>1</v>
       </c>
       <c r="U313" s="14"/>
       <c r="V313" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="314" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23053,14 +23053,14 @@
         <v>0</v>
       </c>
       <c r="S314" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T314" s="14">
         <v>1</v>
       </c>
       <c r="U314" s="14"/>
       <c r="V314" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="315" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23119,14 +23119,14 @@
         <v>0</v>
       </c>
       <c r="S315" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T315" s="14">
         <v>1</v>
       </c>
       <c r="U315" s="14"/>
       <c r="V315" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="316" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23185,14 +23185,14 @@
         <v>0</v>
       </c>
       <c r="S316" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T316" s="14">
         <v>1</v>
       </c>
       <c r="U316" s="14"/>
       <c r="V316" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="317" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23251,14 +23251,14 @@
         <v>0</v>
       </c>
       <c r="S317" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T317" s="14">
         <v>1</v>
       </c>
       <c r="U317" s="14"/>
       <c r="V317" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="318" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23317,14 +23317,14 @@
         <v>0</v>
       </c>
       <c r="S318" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T318" s="14">
         <v>1</v>
       </c>
       <c r="U318" s="14"/>
       <c r="V318" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="319" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23383,14 +23383,14 @@
         <v>0</v>
       </c>
       <c r="S319" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T319" s="14">
         <v>1</v>
       </c>
       <c r="U319" s="14"/>
       <c r="V319" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="320" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23449,14 +23449,14 @@
         <v>0</v>
       </c>
       <c r="S320" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T320" s="14">
         <v>1</v>
       </c>
       <c r="U320" s="14"/>
       <c r="V320" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="321" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23515,14 +23515,14 @@
         <v>0</v>
       </c>
       <c r="S321" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T321" s="14">
         <v>1</v>
       </c>
       <c r="U321" s="14"/>
       <c r="V321" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="322" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23581,14 +23581,14 @@
         <v>0</v>
       </c>
       <c r="S322" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T322" s="14">
         <v>1</v>
       </c>
       <c r="U322" s="14"/>
       <c r="V322" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="323" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23647,14 +23647,14 @@
         <v>0</v>
       </c>
       <c r="S323" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T323" s="14">
         <v>1</v>
       </c>
       <c r="U323" s="14"/>
       <c r="V323" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="324" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23713,14 +23713,14 @@
         <v>0</v>
       </c>
       <c r="S324" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T324" s="14">
         <v>1</v>
       </c>
       <c r="U324" s="14"/>
       <c r="V324" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="325" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23779,14 +23779,14 @@
         <v>0</v>
       </c>
       <c r="S325" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T325" s="14">
         <v>1</v>
       </c>
       <c r="U325" s="14"/>
       <c r="V325" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="326" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23845,14 +23845,14 @@
         <v>0</v>
       </c>
       <c r="S326" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T326" s="14">
         <v>1</v>
       </c>
       <c r="U326" s="14"/>
       <c r="V326" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="327" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23911,14 +23911,14 @@
         <v>0</v>
       </c>
       <c r="S327" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T327" s="14">
         <v>1</v>
       </c>
       <c r="U327" s="14"/>
       <c r="V327" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="328" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -23977,14 +23977,14 @@
         <v>0</v>
       </c>
       <c r="S328" s="14">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T328" s="14">
         <v>1</v>
       </c>
       <c r="U328" s="14"/>
       <c r="V328" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="329" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24043,14 +24043,14 @@
         <v>0</v>
       </c>
       <c r="S329" s="25">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T329" s="25">
         <v>1</v>
       </c>
       <c r="U329" s="25"/>
       <c r="V329" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="330" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24116,7 +24116,7 @@
       </c>
       <c r="U330" s="14"/>
       <c r="V330" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="331" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24182,7 +24182,7 @@
       </c>
       <c r="U331" s="14"/>
       <c r="V331" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="332" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24248,7 +24248,7 @@
       </c>
       <c r="U332" s="14"/>
       <c r="V332" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="333" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24314,7 +24314,7 @@
       </c>
       <c r="U333" s="14"/>
       <c r="V333" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="334" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24380,7 +24380,7 @@
       </c>
       <c r="U334" s="14"/>
       <c r="V334" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="335" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24446,7 +24446,7 @@
       </c>
       <c r="U335" s="14"/>
       <c r="V335" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="336" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24512,7 +24512,7 @@
       </c>
       <c r="U336" s="14"/>
       <c r="V336" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="337" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24578,7 +24578,7 @@
       </c>
       <c r="U337" s="14"/>
       <c r="V337" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="338" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24644,7 +24644,7 @@
       </c>
       <c r="U338" s="14"/>
       <c r="V338" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="339" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24710,7 +24710,7 @@
       </c>
       <c r="U339" s="14"/>
       <c r="V339" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="340" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24776,7 +24776,7 @@
       </c>
       <c r="U340" s="14"/>
       <c r="V340" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="341" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24842,7 +24842,7 @@
       </c>
       <c r="U341" s="14"/>
       <c r="V341" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="342" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24908,7 +24908,7 @@
       </c>
       <c r="U342" s="14"/>
       <c r="V342" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="343" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -24974,7 +24974,7 @@
       </c>
       <c r="U343" s="14"/>
       <c r="V343" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="344" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25040,7 +25040,7 @@
       </c>
       <c r="U344" s="14"/>
       <c r="V344" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="345" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25106,7 +25106,7 @@
       </c>
       <c r="U345" s="14"/>
       <c r="V345" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="346" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25172,7 +25172,7 @@
       </c>
       <c r="U346" s="14"/>
       <c r="V346" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="347" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25238,7 +25238,7 @@
       </c>
       <c r="U347" s="14"/>
       <c r="V347" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="348" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25304,7 +25304,7 @@
       </c>
       <c r="U348" s="14"/>
       <c r="V348" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="349" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25370,7 +25370,7 @@
       </c>
       <c r="U349" s="14"/>
       <c r="V349" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="350" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25436,7 +25436,7 @@
       </c>
       <c r="U350" s="14"/>
       <c r="V350" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="351" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25502,7 +25502,7 @@
       </c>
       <c r="U351" s="14"/>
       <c r="V351" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="352" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25568,7 +25568,7 @@
       </c>
       <c r="U352" s="14"/>
       <c r="V352" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="353" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25634,7 +25634,7 @@
       </c>
       <c r="U353" s="14"/>
       <c r="V353" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="354" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25700,7 +25700,7 @@
       </c>
       <c r="U354" s="23"/>
       <c r="V354" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="355" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25766,7 +25766,7 @@
       </c>
       <c r="U355" s="14"/>
       <c r="V355" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="356" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25832,7 +25832,7 @@
       </c>
       <c r="U356" s="14"/>
       <c r="V356" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="357" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25898,7 +25898,7 @@
       </c>
       <c r="U357" s="14"/>
       <c r="V357" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="358" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -25964,7 +25964,7 @@
       </c>
       <c r="U358" s="14"/>
       <c r="V358" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="359" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26030,7 +26030,7 @@
       </c>
       <c r="U359" s="14"/>
       <c r="V359" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="360" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26096,7 +26096,7 @@
       </c>
       <c r="U360" s="14"/>
       <c r="V360" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="361" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26162,7 +26162,7 @@
       </c>
       <c r="U361" s="14"/>
       <c r="V361" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="362" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26228,7 +26228,7 @@
       </c>
       <c r="U362" s="14"/>
       <c r="V362" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="363" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26294,7 +26294,7 @@
       </c>
       <c r="U363" s="14"/>
       <c r="V363" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="364" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26360,7 +26360,7 @@
       </c>
       <c r="U364" s="14"/>
       <c r="V364" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="365" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26426,7 +26426,7 @@
       </c>
       <c r="U365" s="14"/>
       <c r="V365" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="366" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26492,7 +26492,7 @@
       </c>
       <c r="U366" s="14"/>
       <c r="V366" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="367" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26558,7 +26558,7 @@
       </c>
       <c r="U367" s="14"/>
       <c r="V367" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="368" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26624,7 +26624,7 @@
       </c>
       <c r="U368" s="14"/>
       <c r="V368" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="369" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26690,7 +26690,7 @@
       </c>
       <c r="U369" s="14"/>
       <c r="V369" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="370" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26756,7 +26756,7 @@
       </c>
       <c r="U370" s="14"/>
       <c r="V370" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="371" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26822,7 +26822,7 @@
       </c>
       <c r="U371" s="14"/>
       <c r="V371" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="372" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26888,7 +26888,7 @@
       </c>
       <c r="U372" s="14"/>
       <c r="V372" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="373" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -26954,7 +26954,7 @@
       </c>
       <c r="U373" s="14"/>
       <c r="V373" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="374" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27020,7 +27020,7 @@
       </c>
       <c r="U374" s="14"/>
       <c r="V374" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="375" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27086,7 +27086,7 @@
       </c>
       <c r="U375" s="14"/>
       <c r="V375" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="376" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27152,7 +27152,7 @@
       </c>
       <c r="U376" s="14"/>
       <c r="V376" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="377" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27218,7 +27218,7 @@
       </c>
       <c r="U377" s="14"/>
       <c r="V377" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="378" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27284,7 +27284,7 @@
       </c>
       <c r="U378" s="14"/>
       <c r="V378" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="379" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27350,7 +27350,7 @@
       </c>
       <c r="U379" s="23"/>
       <c r="V379" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="380" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27416,7 +27416,7 @@
       </c>
       <c r="U380" s="14"/>
       <c r="V380" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="381" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27482,7 +27482,7 @@
       </c>
       <c r="U381" s="14"/>
       <c r="V381" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="382" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27548,7 +27548,7 @@
       </c>
       <c r="U382" s="14"/>
       <c r="V382" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="383" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27614,7 +27614,7 @@
       </c>
       <c r="U383" s="14"/>
       <c r="V383" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="384" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27680,7 +27680,7 @@
       </c>
       <c r="U384" s="14"/>
       <c r="V384" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="385" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27746,7 +27746,7 @@
       </c>
       <c r="U385" s="14"/>
       <c r="V385" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="386" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27812,7 +27812,7 @@
       </c>
       <c r="U386" s="14"/>
       <c r="V386" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="387" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27878,7 +27878,7 @@
       </c>
       <c r="U387" s="14"/>
       <c r="V387" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="388" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -27944,7 +27944,7 @@
       </c>
       <c r="U388" s="14"/>
       <c r="V388" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="389" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28010,7 +28010,7 @@
       </c>
       <c r="U389" s="14"/>
       <c r="V389" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="390" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28076,7 +28076,7 @@
       </c>
       <c r="U390" s="14"/>
       <c r="V390" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="391" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28142,7 +28142,7 @@
       </c>
       <c r="U391" s="14"/>
       <c r="V391" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="392" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28208,7 +28208,7 @@
       </c>
       <c r="U392" s="14"/>
       <c r="V392" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="393" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28274,7 +28274,7 @@
       </c>
       <c r="U393" s="14"/>
       <c r="V393" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="394" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28340,7 +28340,7 @@
       </c>
       <c r="U394" s="14"/>
       <c r="V394" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="395" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28406,7 +28406,7 @@
       </c>
       <c r="U395" s="14"/>
       <c r="V395" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="396" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28472,7 +28472,7 @@
       </c>
       <c r="U396" s="14"/>
       <c r="V396" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="397" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28538,7 +28538,7 @@
       </c>
       <c r="U397" s="14"/>
       <c r="V397" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="398" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28604,7 +28604,7 @@
       </c>
       <c r="U398" s="14"/>
       <c r="V398" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="399" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28670,7 +28670,7 @@
       </c>
       <c r="U399" s="14"/>
       <c r="V399" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="400" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28736,7 +28736,7 @@
       </c>
       <c r="U400" s="14"/>
       <c r="V400" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="401" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28802,7 +28802,7 @@
       </c>
       <c r="U401" s="14"/>
       <c r="V401" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="402" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28868,7 +28868,7 @@
       </c>
       <c r="U402" s="14"/>
       <c r="V402" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="403" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -28934,7 +28934,7 @@
       </c>
       <c r="U403" s="14"/>
       <c r="V403" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="404" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29000,7 +29000,7 @@
       </c>
       <c r="U404" s="23"/>
       <c r="V404" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="405" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29066,7 +29066,7 @@
       </c>
       <c r="U405" s="14"/>
       <c r="V405" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="406" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29132,7 +29132,7 @@
       </c>
       <c r="U406" s="14"/>
       <c r="V406" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="407" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29198,7 +29198,7 @@
       </c>
       <c r="U407" s="14"/>
       <c r="V407" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="408" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29264,7 +29264,7 @@
       </c>
       <c r="U408" s="14"/>
       <c r="V408" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="409" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29330,7 +29330,7 @@
       </c>
       <c r="U409" s="14"/>
       <c r="V409" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="410" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29396,7 +29396,7 @@
       </c>
       <c r="U410" s="14"/>
       <c r="V410" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="411" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29462,7 +29462,7 @@
       </c>
       <c r="U411" s="14"/>
       <c r="V411" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="412" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29528,7 +29528,7 @@
       </c>
       <c r="U412" s="14"/>
       <c r="V412" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="413" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29594,7 +29594,7 @@
       </c>
       <c r="U413" s="14"/>
       <c r="V413" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="414" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29660,7 +29660,7 @@
       </c>
       <c r="U414" s="14"/>
       <c r="V414" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="415" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29726,7 +29726,7 @@
       </c>
       <c r="U415" s="14"/>
       <c r="V415" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="416" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29792,7 +29792,7 @@
       </c>
       <c r="U416" s="14"/>
       <c r="V416" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="417" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29858,7 +29858,7 @@
       </c>
       <c r="U417" s="14"/>
       <c r="V417" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="418" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29924,7 +29924,7 @@
       </c>
       <c r="U418" s="14"/>
       <c r="V418" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="419" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -29990,7 +29990,7 @@
       </c>
       <c r="U419" s="14"/>
       <c r="V419" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="420" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30056,7 +30056,7 @@
       </c>
       <c r="U420" s="14"/>
       <c r="V420" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="421" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30122,7 +30122,7 @@
       </c>
       <c r="U421" s="14"/>
       <c r="V421" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="422" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30188,7 +30188,7 @@
       </c>
       <c r="U422" s="14"/>
       <c r="V422" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="423" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30254,7 +30254,7 @@
       </c>
       <c r="U423" s="14"/>
       <c r="V423" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="424" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30320,7 +30320,7 @@
       </c>
       <c r="U424" s="14"/>
       <c r="V424" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="425" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30386,7 +30386,7 @@
       </c>
       <c r="U425" s="14"/>
       <c r="V425" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="426" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30452,7 +30452,7 @@
       </c>
       <c r="U426" s="14"/>
       <c r="V426" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="427" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30518,7 +30518,7 @@
       </c>
       <c r="U427" s="14"/>
       <c r="V427" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="428" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30584,7 +30584,7 @@
       </c>
       <c r="U428" s="14"/>
       <c r="V428" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="429" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30650,7 +30650,7 @@
       </c>
       <c r="U429" s="23"/>
       <c r="V429" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="430" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30716,7 +30716,7 @@
       </c>
       <c r="U430" s="14"/>
       <c r="V430" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="431" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30782,7 +30782,7 @@
       </c>
       <c r="U431" s="14"/>
       <c r="V431" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="432" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30848,7 +30848,7 @@
       </c>
       <c r="U432" s="14"/>
       <c r="V432" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="433" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30914,7 +30914,7 @@
       </c>
       <c r="U433" s="14"/>
       <c r="V433" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="434" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -30980,7 +30980,7 @@
       </c>
       <c r="U434" s="14"/>
       <c r="V434" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="435" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31046,7 +31046,7 @@
       </c>
       <c r="U435" s="14"/>
       <c r="V435" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="436" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31112,7 +31112,7 @@
       </c>
       <c r="U436" s="14"/>
       <c r="V436" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="437" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31178,7 +31178,7 @@
       </c>
       <c r="U437" s="14"/>
       <c r="V437" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="438" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31244,7 +31244,7 @@
       </c>
       <c r="U438" s="14"/>
       <c r="V438" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="439" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31310,7 +31310,7 @@
       </c>
       <c r="U439" s="14"/>
       <c r="V439" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="440" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31376,7 +31376,7 @@
       </c>
       <c r="U440" s="14"/>
       <c r="V440" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="441" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31442,7 +31442,7 @@
       </c>
       <c r="U441" s="14"/>
       <c r="V441" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="442" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31508,7 +31508,7 @@
       </c>
       <c r="U442" s="14"/>
       <c r="V442" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="443" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31574,7 +31574,7 @@
       </c>
       <c r="U443" s="14"/>
       <c r="V443" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="444" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31640,7 +31640,7 @@
       </c>
       <c r="U444" s="14"/>
       <c r="V444" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="445" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31706,7 +31706,7 @@
       </c>
       <c r="U445" s="14"/>
       <c r="V445" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="446" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31772,7 +31772,7 @@
       </c>
       <c r="U446" s="14"/>
       <c r="V446" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="447" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31838,7 +31838,7 @@
       </c>
       <c r="U447" s="14"/>
       <c r="V447" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="448" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31904,7 +31904,7 @@
       </c>
       <c r="U448" s="14"/>
       <c r="V448" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="449" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -31970,7 +31970,7 @@
       </c>
       <c r="U449" s="14"/>
       <c r="V449" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="450" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32036,7 +32036,7 @@
       </c>
       <c r="U450" s="14"/>
       <c r="V450" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="451" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32102,7 +32102,7 @@
       </c>
       <c r="U451" s="14"/>
       <c r="V451" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="452" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32168,7 +32168,7 @@
       </c>
       <c r="U452" s="14"/>
       <c r="V452" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="453" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32234,7 +32234,7 @@
       </c>
       <c r="U453" s="14"/>
       <c r="V453" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="454" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32300,7 +32300,7 @@
       </c>
       <c r="U454" s="14"/>
       <c r="V454" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="455" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32365,7 +32365,7 @@
       </c>
       <c r="U455" s="27"/>
       <c r="V455" s="27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="456" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32430,7 +32430,7 @@
       </c>
       <c r="U456" s="27"/>
       <c r="V456" s="27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="457" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32495,7 +32495,7 @@
       </c>
       <c r="U457" s="27"/>
       <c r="V457" s="27" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="458" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32560,7 +32560,7 @@
       </c>
       <c r="U458" s="27"/>
       <c r="V458" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="459" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32625,7 +32625,7 @@
       </c>
       <c r="U459" s="27"/>
       <c r="V459" s="27" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="460" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32690,7 +32690,7 @@
       </c>
       <c r="U460" s="27"/>
       <c r="V460" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="461" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32755,7 +32755,7 @@
       </c>
       <c r="U461" s="27"/>
       <c r="V461" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="462" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32820,7 +32820,7 @@
       </c>
       <c r="U462" s="27"/>
       <c r="V462" s="27" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="463" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32885,7 +32885,7 @@
       </c>
       <c r="U463" s="27"/>
       <c r="V463" s="27" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="464" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -32950,7 +32950,7 @@
       </c>
       <c r="U464" s="27"/>
       <c r="V464" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="465" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33015,7 +33015,7 @@
       </c>
       <c r="U465" s="27"/>
       <c r="V465" s="27" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="466" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33080,7 +33080,7 @@
       </c>
       <c r="U466" s="27"/>
       <c r="V466" s="27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="467" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33145,7 +33145,7 @@
       </c>
       <c r="U467" s="27"/>
       <c r="V467" s="27" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="468" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33210,7 +33210,7 @@
       </c>
       <c r="U468" s="27"/>
       <c r="V468" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="469" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33275,7 +33275,7 @@
       </c>
       <c r="U469" s="27"/>
       <c r="V469" s="27" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="470" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33340,7 +33340,7 @@
       </c>
       <c r="U470" s="27"/>
       <c r="V470" s="27" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="471" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33405,7 +33405,7 @@
       </c>
       <c r="U471" s="27"/>
       <c r="V471" s="27" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="472" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33470,7 +33470,7 @@
       </c>
       <c r="U472" s="27"/>
       <c r="V472" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="473" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33535,7 +33535,7 @@
       </c>
       <c r="U473" s="27"/>
       <c r="V473" s="27" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="474" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33600,7 +33600,7 @@
       </c>
       <c r="U474" s="27"/>
       <c r="V474" s="27" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="475" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33665,7 +33665,7 @@
       </c>
       <c r="U475" s="27"/>
       <c r="V475" s="27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="476" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33730,7 +33730,7 @@
       </c>
       <c r="U476" s="27"/>
       <c r="V476" s="27" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="477" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33795,7 +33795,7 @@
       </c>
       <c r="U477" s="27"/>
       <c r="V477" s="27" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="478" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33860,7 +33860,7 @@
       </c>
       <c r="U478" s="27"/>
       <c r="V478" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="479" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33925,7 +33925,7 @@
       </c>
       <c r="U479" s="27"/>
       <c r="V479" s="27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="480" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -33990,7 +33990,7 @@
       </c>
       <c r="U480" s="27"/>
       <c r="V480" s="27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="481" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34055,7 +34055,7 @@
       </c>
       <c r="U481" s="27"/>
       <c r="V481" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="482" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34120,7 +34120,7 @@
       </c>
       <c r="U482" s="27"/>
       <c r="V482" s="27" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="483" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34185,7 +34185,7 @@
       </c>
       <c r="U483" s="27"/>
       <c r="V483" s="27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="484" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34250,7 +34250,7 @@
       </c>
       <c r="U484" s="27"/>
       <c r="V484" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="485" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34315,7 +34315,7 @@
       </c>
       <c r="U485" s="27"/>
       <c r="V485" s="27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="486" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34380,7 +34380,7 @@
       </c>
       <c r="U486" s="27"/>
       <c r="V486" s="27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="487" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34445,7 +34445,7 @@
       </c>
       <c r="U487" s="27"/>
       <c r="V487" s="27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="488" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34510,7 +34510,7 @@
       </c>
       <c r="U488" s="27"/>
       <c r="V488" s="27" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="489" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34575,7 +34575,7 @@
       </c>
       <c r="U489" s="27"/>
       <c r="V489" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="490" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34640,7 +34640,7 @@
       </c>
       <c r="U490" s="27"/>
       <c r="V490" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="491" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34705,7 +34705,7 @@
       </c>
       <c r="U491" s="27"/>
       <c r="V491" s="27" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="492" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34770,7 +34770,7 @@
       </c>
       <c r="U492" s="27"/>
       <c r="V492" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="493" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34835,7 +34835,7 @@
       </c>
       <c r="U493" s="27"/>
       <c r="V493" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="494" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34900,7 +34900,7 @@
       </c>
       <c r="U494" s="27"/>
       <c r="V494" s="27" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="495" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -34965,7 +34965,7 @@
       </c>
       <c r="U495" s="27"/>
       <c r="V495" s="27" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="496" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35030,7 +35030,7 @@
       </c>
       <c r="U496" s="27"/>
       <c r="V496" s="27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="497" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35095,7 +35095,7 @@
       </c>
       <c r="U497" s="27"/>
       <c r="V497" s="27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="498" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35160,7 +35160,7 @@
       </c>
       <c r="U498" s="27"/>
       <c r="V498" s="27" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="499" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35225,7 +35225,7 @@
       </c>
       <c r="U499" s="27"/>
       <c r="V499" s="27" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="500" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35290,7 +35290,7 @@
       </c>
       <c r="U500" s="27"/>
       <c r="V500" s="27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="501" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35355,7 +35355,7 @@
       </c>
       <c r="U501" s="27"/>
       <c r="V501" s="27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="502" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35420,7 +35420,7 @@
       </c>
       <c r="U502" s="27"/>
       <c r="V502" s="27" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="503" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35485,7 +35485,7 @@
       </c>
       <c r="U503" s="27"/>
       <c r="V503" s="27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="504" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35550,7 +35550,7 @@
       </c>
       <c r="U504" s="27"/>
       <c r="V504" s="27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="505" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35615,7 +35615,7 @@
       </c>
       <c r="U505" s="27"/>
       <c r="V505" s="27" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="506" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35680,7 +35680,7 @@
       </c>
       <c r="U506" s="27"/>
       <c r="V506" s="27" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="507" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35745,7 +35745,7 @@
       </c>
       <c r="U507" s="27"/>
       <c r="V507" s="27" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="508" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35810,7 +35810,7 @@
       </c>
       <c r="U508" s="27"/>
       <c r="V508" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="509" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35875,7 +35875,7 @@
       </c>
       <c r="U509" s="27"/>
       <c r="V509" s="27" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="510" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -35940,7 +35940,7 @@
       </c>
       <c r="U510" s="27"/>
       <c r="V510" s="27" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="511" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36005,7 +36005,7 @@
       </c>
       <c r="U511" s="27"/>
       <c r="V511" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="512" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36070,7 +36070,7 @@
       </c>
       <c r="U512" s="27"/>
       <c r="V512" s="27" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="513" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36135,7 +36135,7 @@
       </c>
       <c r="U513" s="27"/>
       <c r="V513" s="27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="514" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36200,7 +36200,7 @@
       </c>
       <c r="U514" s="27"/>
       <c r="V514" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="515" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36265,7 +36265,7 @@
       </c>
       <c r="U515" s="27"/>
       <c r="V515" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="516" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36330,7 +36330,7 @@
       </c>
       <c r="U516" s="27"/>
       <c r="V516" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="517" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36395,7 +36395,7 @@
       </c>
       <c r="U517" s="27"/>
       <c r="V517" s="27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="518" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36460,7 +36460,7 @@
       </c>
       <c r="U518" s="27"/>
       <c r="V518" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="519" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36525,7 +36525,7 @@
       </c>
       <c r="U519" s="27"/>
       <c r="V519" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="520" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36590,7 +36590,7 @@
       </c>
       <c r="U520" s="27"/>
       <c r="V520" s="27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="521" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36655,7 +36655,7 @@
       </c>
       <c r="U521" s="27"/>
       <c r="V521" s="27" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="522" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36720,7 +36720,7 @@
       </c>
       <c r="U522" s="27"/>
       <c r="V522" s="27" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="523" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36785,7 +36785,7 @@
       </c>
       <c r="U523" s="27"/>
       <c r="V523" s="27" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="524" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36850,7 +36850,7 @@
       </c>
       <c r="U524" s="27"/>
       <c r="V524" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="525" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36915,7 +36915,7 @@
       </c>
       <c r="U525" s="27"/>
       <c r="V525" s="27" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="526" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -36980,7 +36980,7 @@
       </c>
       <c r="U526" s="27"/>
       <c r="V526" s="27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="527" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37045,7 +37045,7 @@
       </c>
       <c r="U527" s="27"/>
       <c r="V527" s="27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="528" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37110,7 +37110,7 @@
       </c>
       <c r="U528" s="27"/>
       <c r="V528" s="27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="529" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37175,7 +37175,7 @@
       </c>
       <c r="U529" s="27"/>
       <c r="V529" s="27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="530" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37240,7 +37240,7 @@
       </c>
       <c r="U530" s="27"/>
       <c r="V530" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="531" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37305,7 +37305,7 @@
       </c>
       <c r="U531" s="27"/>
       <c r="V531" s="27" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="532" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37370,7 +37370,7 @@
       </c>
       <c r="U532" s="27"/>
       <c r="V532" s="27" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="533" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37435,7 +37435,7 @@
       </c>
       <c r="U533" s="27"/>
       <c r="V533" s="27" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="534" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37500,7 +37500,7 @@
       </c>
       <c r="U534" s="27"/>
       <c r="V534" s="27" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="535" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37565,7 +37565,7 @@
       </c>
       <c r="U535" s="27"/>
       <c r="V535" s="27" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="536" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37630,7 +37630,7 @@
       </c>
       <c r="U536" s="27"/>
       <c r="V536" s="27" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="537" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37695,7 +37695,7 @@
       </c>
       <c r="U537" s="27"/>
       <c r="V537" s="27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="538" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37760,7 +37760,7 @@
       </c>
       <c r="U538" s="27"/>
       <c r="V538" s="27" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="539" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37825,7 +37825,7 @@
       </c>
       <c r="U539" s="27"/>
       <c r="V539" s="27" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="540" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37890,7 +37890,7 @@
       </c>
       <c r="U540" s="27"/>
       <c r="V540" s="27" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="541" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -37955,7 +37955,7 @@
       </c>
       <c r="U541" s="27"/>
       <c r="V541" s="27" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="542" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38020,7 +38020,7 @@
       </c>
       <c r="U542" s="27"/>
       <c r="V542" s="27" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="543" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38085,7 +38085,7 @@
       </c>
       <c r="U543" s="27"/>
       <c r="V543" s="27" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="544" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38150,7 +38150,7 @@
       </c>
       <c r="U544" s="27"/>
       <c r="V544" s="27" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="545" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38215,7 +38215,7 @@
       </c>
       <c r="U545" s="27"/>
       <c r="V545" s="27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="546" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38280,7 +38280,7 @@
       </c>
       <c r="U546" s="27"/>
       <c r="V546" s="27" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="547" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38345,7 +38345,7 @@
       </c>
       <c r="U547" s="27"/>
       <c r="V547" s="27" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="548" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38410,7 +38410,7 @@
       </c>
       <c r="U548" s="27"/>
       <c r="V548" s="27" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="549" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38475,7 +38475,7 @@
       </c>
       <c r="U549" s="27"/>
       <c r="V549" s="27" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="550" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38540,7 +38540,7 @@
       </c>
       <c r="U550" s="27"/>
       <c r="V550" s="27" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="551" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38605,7 +38605,7 @@
       </c>
       <c r="U551" s="27"/>
       <c r="V551" s="27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="552" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38670,7 +38670,7 @@
       </c>
       <c r="U552" s="27"/>
       <c r="V552" s="27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="553" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38735,7 +38735,7 @@
       </c>
       <c r="U553" s="27"/>
       <c r="V553" s="27" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="554" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38800,7 +38800,7 @@
       </c>
       <c r="U554" s="27"/>
       <c r="V554" s="27" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="555" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38864,7 +38864,7 @@
       </c>
       <c r="U555" s="30"/>
       <c r="V555" s="30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="556" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
@@ -38928,7 +38928,7 @@
       </c>
       <c r="U556" s="30"/>
       <c r="V556" s="30" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/doc/table/技能表.xlsx
+++ b/doc/table/技能表.xlsx
@@ -2317,10 +2317,10 @@
   <dimension ref="A1:W556"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D281" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R288" sqref="R288"/>
+      <selection pane="bottomRight" activeCell="O291" sqref="O291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="S2" s="18">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T2" s="18">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T3" s="16">
         <v>1</v>
@@ -2593,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="S4" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T4" s="16">
         <v>1</v>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="S5" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T5" s="16">
         <v>1</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="S6" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T6" s="16">
         <v>1</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T7" s="16">
         <v>1</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="S8" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T8" s="16">
         <v>1</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="S9" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T9" s="16">
         <v>1</v>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="S10" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T10" s="16">
         <v>1</v>
@@ -3055,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T11" s="16">
         <v>1</v>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T12" s="16">
         <v>1</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="S13" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T13" s="16">
         <v>1</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T14" s="16">
         <v>1</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="S15" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T15" s="16">
         <v>1</v>
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="S16" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T16" s="16">
         <v>1</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T17" s="16">
         <v>1</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="S18" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T18" s="16">
         <v>1</v>
@@ -3583,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T19" s="16">
         <v>1</v>
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T20" s="16">
         <v>1</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T21" s="16">
         <v>1</v>
@@ -3781,7 +3781,7 @@
         <v>0</v>
       </c>
       <c r="S22" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T22" s="16">
         <v>1</v>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="S23" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T23" s="16">
         <v>1</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="S24" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T24" s="16">
         <v>1</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="S25" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T25" s="16">
         <v>1</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="S26" s="16">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T26" s="16">
         <v>1</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="S27" s="18">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T27" s="18">
         <v>1</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T28" s="12">
         <v>1</v>
@@ -4243,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="S29" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T29" s="12">
         <v>1</v>
@@ -4309,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="S30" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T30" s="12">
         <v>1</v>
@@ -4375,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="S31" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T31" s="12">
         <v>1</v>
@@ -4441,7 +4441,7 @@
         <v>1</v>
       </c>
       <c r="S32" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T32" s="12">
         <v>1</v>
@@ -4507,7 +4507,7 @@
         <v>1</v>
       </c>
       <c r="S33" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T33" s="12">
         <v>1</v>
@@ -4573,7 +4573,7 @@
         <v>1</v>
       </c>
       <c r="S34" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T34" s="12">
         <v>1</v>
@@ -4639,7 +4639,7 @@
         <v>1</v>
       </c>
       <c r="S35" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T35" s="12">
         <v>1</v>
@@ -4705,7 +4705,7 @@
         <v>1</v>
       </c>
       <c r="S36" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T36" s="12">
         <v>1</v>
@@ -4771,7 +4771,7 @@
         <v>1</v>
       </c>
       <c r="S37" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T37" s="12">
         <v>1</v>
@@ -4837,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="S38" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T38" s="12">
         <v>1</v>
@@ -4903,7 +4903,7 @@
         <v>1</v>
       </c>
       <c r="S39" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T39" s="12">
         <v>1</v>
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="S40" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T40" s="12">
         <v>1</v>
@@ -5035,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="S41" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T41" s="12">
         <v>1</v>
@@ -5101,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="S42" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T42" s="12">
         <v>1</v>
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="S43" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T43" s="12">
         <v>1</v>
@@ -5233,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="S44" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T44" s="12">
         <v>1</v>
@@ -5299,7 +5299,7 @@
         <v>1</v>
       </c>
       <c r="S45" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T45" s="12">
         <v>1</v>
@@ -5365,7 +5365,7 @@
         <v>1</v>
       </c>
       <c r="S46" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T46" s="12">
         <v>1</v>
@@ -5431,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="S47" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T47" s="12">
         <v>1</v>
@@ -5497,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="S48" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T48" s="12">
         <v>1</v>
@@ -5563,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="S49" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T49" s="12">
         <v>1</v>
@@ -5629,7 +5629,7 @@
         <v>1</v>
       </c>
       <c r="S50" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T50" s="12">
         <v>1</v>
@@ -5695,7 +5695,7 @@
         <v>1</v>
       </c>
       <c r="S51" s="12">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T51" s="12">
         <v>1</v>
@@ -5761,7 +5761,7 @@
         <v>1</v>
       </c>
       <c r="S52" s="18">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T52" s="18">
         <v>1</v>
@@ -5827,7 +5827,7 @@
         <v>2</v>
       </c>
       <c r="S53" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T53" s="12">
         <v>1</v>
@@ -5893,7 +5893,7 @@
         <v>1</v>
       </c>
       <c r="S54" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T54" s="12">
         <v>1</v>
@@ -5959,7 +5959,7 @@
         <v>1</v>
       </c>
       <c r="S55" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T55" s="12">
         <v>1</v>
@@ -6025,7 +6025,7 @@
         <v>1</v>
       </c>
       <c r="S56" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T56" s="12">
         <v>1</v>
@@ -6091,7 +6091,7 @@
         <v>1</v>
       </c>
       <c r="S57" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T57" s="12">
         <v>1</v>
@@ -6157,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="S58" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T58" s="12">
         <v>1</v>
@@ -6223,7 +6223,7 @@
         <v>1</v>
       </c>
       <c r="S59" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T59" s="12">
         <v>1</v>
@@ -6289,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="S60" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T60" s="12">
         <v>1</v>
@@ -6355,7 +6355,7 @@
         <v>1</v>
       </c>
       <c r="S61" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T61" s="12">
         <v>1</v>
@@ -6421,7 +6421,7 @@
         <v>1</v>
       </c>
       <c r="S62" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T62" s="12">
         <v>1</v>
@@ -6487,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="S63" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T63" s="12">
         <v>1</v>
@@ -6553,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="S64" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T64" s="12">
         <v>1</v>
@@ -6619,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="S65" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T65" s="12">
         <v>1</v>
@@ -6685,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="S66" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T66" s="12">
         <v>1</v>
@@ -6751,7 +6751,7 @@
         <v>1</v>
       </c>
       <c r="S67" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T67" s="12">
         <v>1</v>
@@ -6817,7 +6817,7 @@
         <v>1</v>
       </c>
       <c r="S68" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T68" s="12">
         <v>1</v>
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
       <c r="S69" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T69" s="12">
         <v>1</v>
@@ -6949,7 +6949,7 @@
         <v>1</v>
       </c>
       <c r="S70" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T70" s="12">
         <v>1</v>
@@ -7015,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="S71" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T71" s="12">
         <v>1</v>
@@ -7081,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="S72" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T72" s="12">
         <v>1</v>
@@ -7147,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="S73" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T73" s="12">
         <v>1</v>
@@ -7213,7 +7213,7 @@
         <v>1</v>
       </c>
       <c r="S74" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T74" s="12">
         <v>1</v>
@@ -7279,7 +7279,7 @@
         <v>1</v>
       </c>
       <c r="S75" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T75" s="12">
         <v>1</v>
@@ -7345,7 +7345,7 @@
         <v>1</v>
       </c>
       <c r="S76" s="12">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T76" s="12">
         <v>1</v>
@@ -7411,7 +7411,7 @@
         <v>1</v>
       </c>
       <c r="S77" s="18">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T77" s="18">
         <v>1</v>
@@ -7477,7 +7477,7 @@
         <v>2</v>
       </c>
       <c r="S78" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T78" s="12">
         <v>1</v>
@@ -7543,7 +7543,7 @@
         <v>1</v>
       </c>
       <c r="S79" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T79" s="12">
         <v>1</v>
@@ -7609,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="S80" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T80" s="12">
         <v>1</v>
@@ -7675,7 +7675,7 @@
         <v>1</v>
       </c>
       <c r="S81" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T81" s="12">
         <v>1</v>
@@ -7741,7 +7741,7 @@
         <v>1</v>
       </c>
       <c r="S82" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T82" s="12">
         <v>1</v>
@@ -7807,7 +7807,7 @@
         <v>1</v>
       </c>
       <c r="S83" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T83" s="12">
         <v>1</v>
@@ -7873,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="S84" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T84" s="12">
         <v>1</v>
@@ -7939,7 +7939,7 @@
         <v>1</v>
       </c>
       <c r="S85" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T85" s="12">
         <v>1</v>
@@ -8005,7 +8005,7 @@
         <v>1</v>
       </c>
       <c r="S86" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T86" s="12">
         <v>1</v>
@@ -8071,7 +8071,7 @@
         <v>1</v>
       </c>
       <c r="S87" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T87" s="12">
         <v>1</v>
@@ -8137,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="S88" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T88" s="12">
         <v>1</v>
@@ -8203,7 +8203,7 @@
         <v>1</v>
       </c>
       <c r="S89" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T89" s="12">
         <v>1</v>
@@ -8269,7 +8269,7 @@
         <v>1</v>
       </c>
       <c r="S90" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T90" s="12">
         <v>1</v>
@@ -8335,7 +8335,7 @@
         <v>1</v>
       </c>
       <c r="S91" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T91" s="12">
         <v>1</v>
@@ -8401,7 +8401,7 @@
         <v>1</v>
       </c>
       <c r="S92" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T92" s="12">
         <v>1</v>
@@ -8467,7 +8467,7 @@
         <v>1</v>
       </c>
       <c r="S93" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T93" s="12">
         <v>1</v>
@@ -8533,7 +8533,7 @@
         <v>1</v>
       </c>
       <c r="S94" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T94" s="12">
         <v>1</v>
@@ -8599,7 +8599,7 @@
         <v>1</v>
       </c>
       <c r="S95" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T95" s="12">
         <v>1</v>
@@ -8665,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="S96" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T96" s="12">
         <v>1</v>
@@ -8731,7 +8731,7 @@
         <v>1</v>
       </c>
       <c r="S97" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T97" s="12">
         <v>1</v>
@@ -8797,7 +8797,7 @@
         <v>1</v>
       </c>
       <c r="S98" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T98" s="12">
         <v>1</v>
@@ -8863,7 +8863,7 @@
         <v>1</v>
       </c>
       <c r="S99" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T99" s="12">
         <v>1</v>
@@ -8929,7 +8929,7 @@
         <v>1</v>
       </c>
       <c r="S100" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T100" s="12">
         <v>1</v>
@@ -8995,7 +8995,7 @@
         <v>1</v>
       </c>
       <c r="S101" s="12">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T101" s="12">
         <v>1</v>
@@ -9061,7 +9061,7 @@
         <v>1</v>
       </c>
       <c r="S102" s="18">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T102" s="18">
         <v>1</v>
@@ -12426,7 +12426,7 @@
         <v>0</v>
       </c>
       <c r="S153" s="20">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T153" s="20">
         <v>1</v>
@@ -12491,7 +12491,7 @@
         <v>0</v>
       </c>
       <c r="S154" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T154" s="10">
         <v>1</v>
@@ -12557,7 +12557,7 @@
         <v>0</v>
       </c>
       <c r="S155" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T155" s="10">
         <v>1</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="S156" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T156" s="10">
         <v>1</v>
@@ -12689,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="S157" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T157" s="10">
         <v>1</v>
@@ -12755,7 +12755,7 @@
         <v>0</v>
       </c>
       <c r="S158" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T158" s="10">
         <v>1</v>
@@ -12821,7 +12821,7 @@
         <v>0</v>
       </c>
       <c r="S159" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T159" s="10">
         <v>1</v>
@@ -12887,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="S160" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T160" s="10">
         <v>1</v>
@@ -12953,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="S161" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T161" s="10">
         <v>1</v>
@@ -13019,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="S162" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T162" s="10">
         <v>1</v>
@@ -13085,7 +13085,7 @@
         <v>0</v>
       </c>
       <c r="S163" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T163" s="10">
         <v>1</v>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="S164" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T164" s="10">
         <v>1</v>
@@ -13217,7 +13217,7 @@
         <v>0</v>
       </c>
       <c r="S165" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T165" s="10">
         <v>1</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="S166" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T166" s="10">
         <v>1</v>
@@ -13349,7 +13349,7 @@
         <v>0</v>
       </c>
       <c r="S167" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T167" s="10">
         <v>1</v>
@@ -13415,7 +13415,7 @@
         <v>0</v>
       </c>
       <c r="S168" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T168" s="10">
         <v>1</v>
@@ -13481,7 +13481,7 @@
         <v>0</v>
       </c>
       <c r="S169" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T169" s="10">
         <v>1</v>
@@ -13547,7 +13547,7 @@
         <v>0</v>
       </c>
       <c r="S170" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T170" s="10">
         <v>1</v>
@@ -13613,7 +13613,7 @@
         <v>0</v>
       </c>
       <c r="S171" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T171" s="10">
         <v>1</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="S172" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T172" s="10">
         <v>1</v>
@@ -13745,7 +13745,7 @@
         <v>0</v>
       </c>
       <c r="S173" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T173" s="10">
         <v>1</v>
@@ -13811,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="S174" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T174" s="10">
         <v>1</v>
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="S175" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T175" s="10">
         <v>1</v>
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="S176" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T176" s="10">
         <v>1</v>
@@ -14009,7 +14009,7 @@
         <v>0</v>
       </c>
       <c r="S177" s="10">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T177" s="10">
         <v>1</v>
@@ -14075,7 +14075,7 @@
         <v>0</v>
       </c>
       <c r="S178" s="20">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T178" s="20">
         <v>1</v>
@@ -14142,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="S179" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T179" s="10">
         <v>1</v>
@@ -14208,7 +14208,7 @@
         <v>1</v>
       </c>
       <c r="S180" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T180" s="10">
         <v>1</v>
@@ -14274,7 +14274,7 @@
         <v>1</v>
       </c>
       <c r="S181" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T181" s="10">
         <v>1</v>
@@ -14340,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="S182" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T182" s="10">
         <v>1</v>
@@ -14406,7 +14406,7 @@
         <v>1</v>
       </c>
       <c r="S183" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T183" s="10">
         <v>1</v>
@@ -14472,7 +14472,7 @@
         <v>1</v>
       </c>
       <c r="S184" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T184" s="10">
         <v>1</v>
@@ -14538,7 +14538,7 @@
         <v>1</v>
       </c>
       <c r="S185" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T185" s="10">
         <v>1</v>
@@ -14604,7 +14604,7 @@
         <v>1</v>
       </c>
       <c r="S186" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T186" s="10">
         <v>1</v>
@@ -14670,7 +14670,7 @@
         <v>1</v>
       </c>
       <c r="S187" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T187" s="10">
         <v>1</v>
@@ -14736,7 +14736,7 @@
         <v>1</v>
       </c>
       <c r="S188" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T188" s="10">
         <v>1</v>
@@ -14802,7 +14802,7 @@
         <v>1</v>
       </c>
       <c r="S189" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T189" s="10">
         <v>1</v>
@@ -14868,7 +14868,7 @@
         <v>1</v>
       </c>
       <c r="S190" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T190" s="10">
         <v>1</v>
@@ -14934,7 +14934,7 @@
         <v>1</v>
       </c>
       <c r="S191" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T191" s="10">
         <v>1</v>
@@ -15000,7 +15000,7 @@
         <v>1</v>
       </c>
       <c r="S192" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T192" s="10">
         <v>1</v>
@@ -15066,7 +15066,7 @@
         <v>1</v>
       </c>
       <c r="S193" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T193" s="10">
         <v>1</v>
@@ -15132,7 +15132,7 @@
         <v>1</v>
       </c>
       <c r="S194" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T194" s="10">
         <v>1</v>
@@ -15198,7 +15198,7 @@
         <v>1</v>
       </c>
       <c r="S195" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T195" s="10">
         <v>1</v>
@@ -15264,7 +15264,7 @@
         <v>1</v>
       </c>
       <c r="S196" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T196" s="10">
         <v>1</v>
@@ -15330,7 +15330,7 @@
         <v>1</v>
       </c>
       <c r="S197" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T197" s="10">
         <v>1</v>
@@ -15396,7 +15396,7 @@
         <v>1</v>
       </c>
       <c r="S198" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T198" s="10">
         <v>1</v>
@@ -15462,7 +15462,7 @@
         <v>1</v>
       </c>
       <c r="S199" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T199" s="10">
         <v>1</v>
@@ -15528,7 +15528,7 @@
         <v>1</v>
       </c>
       <c r="S200" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T200" s="10">
         <v>1</v>
@@ -15594,7 +15594,7 @@
         <v>1</v>
       </c>
       <c r="S201" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T201" s="10">
         <v>1</v>
@@ -15660,7 +15660,7 @@
         <v>1</v>
       </c>
       <c r="S202" s="10">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T202" s="10">
         <v>1</v>
@@ -15726,7 +15726,7 @@
         <v>1</v>
       </c>
       <c r="S203" s="20">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T203" s="20">
         <v>1</v>
@@ -15793,7 +15793,7 @@
         <v>2</v>
       </c>
       <c r="S204" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T204" s="10">
         <v>1</v>
@@ -15859,7 +15859,7 @@
         <v>1</v>
       </c>
       <c r="S205" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T205" s="10">
         <v>1</v>
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="S206" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T206" s="10">
         <v>1</v>
@@ -15991,7 +15991,7 @@
         <v>1</v>
       </c>
       <c r="S207" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T207" s="10">
         <v>1</v>
@@ -16057,7 +16057,7 @@
         <v>1</v>
       </c>
       <c r="S208" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T208" s="10">
         <v>1</v>
@@ -16123,7 +16123,7 @@
         <v>1</v>
       </c>
       <c r="S209" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T209" s="10">
         <v>1</v>
@@ -16189,7 +16189,7 @@
         <v>1</v>
       </c>
       <c r="S210" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T210" s="10">
         <v>1</v>
@@ -16255,7 +16255,7 @@
         <v>1</v>
       </c>
       <c r="S211" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T211" s="10">
         <v>1</v>
@@ -16321,7 +16321,7 @@
         <v>1</v>
       </c>
       <c r="S212" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T212" s="10">
         <v>1</v>
@@ -16387,7 +16387,7 @@
         <v>1</v>
       </c>
       <c r="S213" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T213" s="10">
         <v>1</v>
@@ -16453,7 +16453,7 @@
         <v>1</v>
       </c>
       <c r="S214" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T214" s="10">
         <v>1</v>
@@ -16519,7 +16519,7 @@
         <v>1</v>
       </c>
       <c r="S215" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T215" s="10">
         <v>1</v>
@@ -16585,7 +16585,7 @@
         <v>1</v>
       </c>
       <c r="S216" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T216" s="10">
         <v>1</v>
@@ -16651,7 +16651,7 @@
         <v>1</v>
       </c>
       <c r="S217" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T217" s="10">
         <v>1</v>
@@ -16717,7 +16717,7 @@
         <v>1</v>
       </c>
       <c r="S218" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T218" s="10">
         <v>1</v>
@@ -16783,7 +16783,7 @@
         <v>1</v>
       </c>
       <c r="S219" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T219" s="10">
         <v>1</v>
@@ -16849,7 +16849,7 @@
         <v>1</v>
       </c>
       <c r="S220" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T220" s="10">
         <v>1</v>
@@ -16915,7 +16915,7 @@
         <v>1</v>
       </c>
       <c r="S221" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T221" s="10">
         <v>1</v>
@@ -16981,7 +16981,7 @@
         <v>1</v>
       </c>
       <c r="S222" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T222" s="10">
         <v>1</v>
@@ -17047,7 +17047,7 @@
         <v>1</v>
       </c>
       <c r="S223" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T223" s="10">
         <v>1</v>
@@ -17113,7 +17113,7 @@
         <v>1</v>
       </c>
       <c r="S224" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T224" s="10">
         <v>1</v>
@@ -17179,7 +17179,7 @@
         <v>1</v>
       </c>
       <c r="S225" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T225" s="10">
         <v>1</v>
@@ -17245,7 +17245,7 @@
         <v>1</v>
       </c>
       <c r="S226" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T226" s="10">
         <v>1</v>
@@ -17311,7 +17311,7 @@
         <v>1</v>
       </c>
       <c r="S227" s="10">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T227" s="10">
         <v>1</v>
@@ -17377,7 +17377,7 @@
         <v>1</v>
       </c>
       <c r="S228" s="20">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T228" s="20">
         <v>1</v>
@@ -17444,7 +17444,7 @@
         <v>2</v>
       </c>
       <c r="S229" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T229" s="10">
         <v>1</v>
@@ -17510,7 +17510,7 @@
         <v>1</v>
       </c>
       <c r="S230" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T230" s="10">
         <v>1</v>
@@ -17576,7 +17576,7 @@
         <v>1</v>
       </c>
       <c r="S231" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T231" s="10">
         <v>1</v>
@@ -17642,7 +17642,7 @@
         <v>1</v>
       </c>
       <c r="S232" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T232" s="10">
         <v>1</v>
@@ -17708,7 +17708,7 @@
         <v>1</v>
       </c>
       <c r="S233" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T233" s="10">
         <v>1</v>
@@ -17774,7 +17774,7 @@
         <v>1</v>
       </c>
       <c r="S234" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T234" s="10">
         <v>1</v>
@@ -17840,7 +17840,7 @@
         <v>1</v>
       </c>
       <c r="S235" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T235" s="10">
         <v>1</v>
@@ -17906,7 +17906,7 @@
         <v>1</v>
       </c>
       <c r="S236" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T236" s="10">
         <v>1</v>
@@ -17972,7 +17972,7 @@
         <v>1</v>
       </c>
       <c r="S237" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T237" s="10">
         <v>1</v>
@@ -18038,7 +18038,7 @@
         <v>1</v>
       </c>
       <c r="S238" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T238" s="10">
         <v>1</v>
@@ -18104,7 +18104,7 @@
         <v>1</v>
       </c>
       <c r="S239" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T239" s="10">
         <v>1</v>
@@ -18170,7 +18170,7 @@
         <v>1</v>
       </c>
       <c r="S240" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T240" s="10">
         <v>1</v>
@@ -18236,7 +18236,7 @@
         <v>1</v>
       </c>
       <c r="S241" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T241" s="10">
         <v>1</v>
@@ -18302,7 +18302,7 @@
         <v>1</v>
       </c>
       <c r="S242" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T242" s="10">
         <v>1</v>
@@ -18368,7 +18368,7 @@
         <v>1</v>
       </c>
       <c r="S243" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T243" s="10">
         <v>1</v>
@@ -18434,7 +18434,7 @@
         <v>1</v>
       </c>
       <c r="S244" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T244" s="10">
         <v>1</v>
@@ -18500,7 +18500,7 @@
         <v>1</v>
       </c>
       <c r="S245" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T245" s="10">
         <v>1</v>
@@ -18566,7 +18566,7 @@
         <v>1</v>
       </c>
       <c r="S246" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T246" s="10">
         <v>1</v>
@@ -18632,7 +18632,7 @@
         <v>1</v>
       </c>
       <c r="S247" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T247" s="10">
         <v>1</v>
@@ -18698,7 +18698,7 @@
         <v>1</v>
       </c>
       <c r="S248" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T248" s="10">
         <v>1</v>
@@ -18764,7 +18764,7 @@
         <v>1</v>
       </c>
       <c r="S249" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T249" s="10">
         <v>1</v>
@@ -18830,7 +18830,7 @@
         <v>1</v>
       </c>
       <c r="S250" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T250" s="10">
         <v>1</v>
@@ -18896,7 +18896,7 @@
         <v>1</v>
       </c>
       <c r="S251" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T251" s="10">
         <v>1</v>
@@ -18962,7 +18962,7 @@
         <v>1</v>
       </c>
       <c r="S252" s="10">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T252" s="10">
         <v>1</v>
@@ -19028,7 +19028,7 @@
         <v>1</v>
       </c>
       <c r="S253" s="20">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T253" s="20">
         <v>1</v>
@@ -22394,7 +22394,7 @@
         <v>0</v>
       </c>
       <c r="S304" s="33">
-        <v>600</v>
+        <v>750</v>
       </c>
       <c r="T304" s="33">
         <v>1</v>
@@ -22459,7 +22459,7 @@
         <v>0</v>
       </c>
       <c r="S305" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T305" s="14">
         <v>1</v>
@@ -22525,7 +22525,7 @@
         <v>0</v>
       </c>
       <c r="S306" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T306" s="14">
         <v>1</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="S307" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T307" s="14">
         <v>1</v>
@@ -22657,7 +22657,7 @@
         <v>0</v>
       </c>
       <c r="S308" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T308" s="14">
         <v>1</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="S309" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T309" s="14">
         <v>1</v>
@@ -22789,7 +22789,7 @@
         <v>0</v>
       </c>
       <c r="S310" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T310" s="14">
         <v>1</v>
@@ -22855,7 +22855,7 @@
         <v>0</v>
       </c>
       <c r="S311" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T311" s="14">
         <v>1</v>
@@ -22921,7 +22921,7 @@
         <v>0</v>
       </c>
       <c r="S312" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T312" s="14">
         <v>1</v>
@@ -22987,7 +22987,7 @@
         <v>0</v>
       </c>
       <c r="S313" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T313" s="14">
         <v>1</v>
@@ -23053,7 +23053,7 @@
         <v>0</v>
       </c>
       <c r="S314" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T314" s="14">
         <v>1</v>
@@ -23119,7 +23119,7 @@
         <v>0</v>
       </c>
       <c r="S315" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T315" s="14">
         <v>1</v>
@@ -23185,7 +23185,7 @@
         <v>0</v>
       </c>
       <c r="S316" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T316" s="14">
         <v>1</v>
@@ -23251,7 +23251,7 @@
         <v>0</v>
       </c>
       <c r="S317" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T317" s="14">
         <v>1</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="S318" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T318" s="14">
         <v>1</v>
@@ -23383,7 +23383,7 @@
         <v>0</v>
       </c>
       <c r="S319" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T319" s="14">
         <v>1</v>
@@ -23449,7 +23449,7 @@
         <v>0</v>
       </c>
       <c r="S320" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T320" s="14">
         <v>1</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="S321" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T321" s="14">
         <v>1</v>
@@ -23581,7 +23581,7 @@
         <v>0</v>
       </c>
       <c r="S322" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T322" s="14">
         <v>1</v>
@@ -23647,7 +23647,7 @@
         <v>0</v>
       </c>
       <c r="S323" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T323" s="14">
         <v>1</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="S324" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T324" s="14">
         <v>1</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="S325" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T325" s="14">
         <v>1</v>
@@ -23845,7 +23845,7 @@
         <v>0</v>
       </c>
       <c r="S326" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T326" s="14">
         <v>1</v>
@@ -23911,7 +23911,7 @@
         <v>0</v>
       </c>
       <c r="S327" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T327" s="14">
         <v>1</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="S328" s="14">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T328" s="14">
         <v>1</v>
@@ -24043,7 +24043,7 @@
         <v>0</v>
       </c>
       <c r="S329" s="25">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="T329" s="25">
         <v>1</v>
@@ -24109,7 +24109,7 @@
         <v>0</v>
       </c>
       <c r="S330" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T330" s="14">
         <v>1</v>
@@ -24175,7 +24175,7 @@
         <v>1</v>
       </c>
       <c r="S331" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T331" s="14">
         <v>1</v>
@@ -24241,7 +24241,7 @@
         <v>1</v>
       </c>
       <c r="S332" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T332" s="14">
         <v>1</v>
@@ -24307,7 +24307,7 @@
         <v>1</v>
       </c>
       <c r="S333" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T333" s="14">
         <v>1</v>
@@ -24373,7 +24373,7 @@
         <v>1</v>
       </c>
       <c r="S334" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T334" s="14">
         <v>1</v>
@@ -24439,7 +24439,7 @@
         <v>1</v>
       </c>
       <c r="S335" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T335" s="14">
         <v>1</v>
@@ -24505,7 +24505,7 @@
         <v>1</v>
       </c>
       <c r="S336" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T336" s="14">
         <v>1</v>
@@ -24571,7 +24571,7 @@
         <v>1</v>
       </c>
       <c r="S337" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T337" s="14">
         <v>1</v>
@@ -24637,7 +24637,7 @@
         <v>1</v>
       </c>
       <c r="S338" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T338" s="14">
         <v>1</v>
@@ -24703,7 +24703,7 @@
         <v>1</v>
       </c>
       <c r="S339" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T339" s="14">
         <v>1</v>
@@ -24769,7 +24769,7 @@
         <v>1</v>
       </c>
       <c r="S340" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T340" s="14">
         <v>1</v>
@@ -24835,7 +24835,7 @@
         <v>1</v>
       </c>
       <c r="S341" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T341" s="14">
         <v>1</v>
@@ -24901,7 +24901,7 @@
         <v>1</v>
       </c>
       <c r="S342" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T342" s="14">
         <v>1</v>
@@ -24967,7 +24967,7 @@
         <v>1</v>
       </c>
       <c r="S343" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T343" s="14">
         <v>1</v>
@@ -25033,7 +25033,7 @@
         <v>1</v>
       </c>
       <c r="S344" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T344" s="14">
         <v>1</v>
@@ -25099,7 +25099,7 @@
         <v>1</v>
       </c>
       <c r="S345" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T345" s="14">
         <v>1</v>
@@ -25165,7 +25165,7 @@
         <v>1</v>
       </c>
       <c r="S346" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T346" s="14">
         <v>1</v>
@@ -25231,7 +25231,7 @@
         <v>1</v>
       </c>
       <c r="S347" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T347" s="14">
         <v>1</v>
@@ -25297,7 +25297,7 @@
         <v>1</v>
       </c>
       <c r="S348" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T348" s="14">
         <v>1</v>
@@ -25363,7 +25363,7 @@
         <v>1</v>
       </c>
       <c r="S349" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T349" s="14">
         <v>1</v>
@@ -25429,7 +25429,7 @@
         <v>1</v>
       </c>
       <c r="S350" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T350" s="14">
         <v>1</v>
@@ -25495,7 +25495,7 @@
         <v>1</v>
       </c>
       <c r="S351" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T351" s="14">
         <v>1</v>
@@ -25561,7 +25561,7 @@
         <v>1</v>
       </c>
       <c r="S352" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T352" s="14">
         <v>1</v>
@@ -25627,7 +25627,7 @@
         <v>1</v>
       </c>
       <c r="S353" s="14">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T353" s="14">
         <v>1</v>
@@ -25693,7 +25693,7 @@
         <v>1</v>
       </c>
       <c r="S354" s="23">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="T354" s="23">
         <v>1</v>
@@ -25759,7 +25759,7 @@
         <v>2</v>
       </c>
       <c r="S355" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T355" s="14">
         <v>1</v>
@@ -25825,7 +25825,7 @@
         <v>1</v>
       </c>
       <c r="S356" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T356" s="14">
         <v>1</v>
@@ -25891,7 +25891,7 @@
         <v>1</v>
       </c>
       <c r="S357" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T357" s="14">
         <v>1</v>
@@ -25957,7 +25957,7 @@
         <v>1</v>
       </c>
       <c r="S358" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T358" s="14">
         <v>1</v>
@@ -26023,7 +26023,7 @@
         <v>1</v>
       </c>
       <c r="S359" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T359" s="14">
         <v>1</v>
@@ -26089,7 +26089,7 @@
         <v>1</v>
       </c>
       <c r="S360" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T360" s="14">
         <v>1</v>
@@ -26155,7 +26155,7 @@
         <v>1</v>
       </c>
       <c r="S361" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T361" s="14">
         <v>1</v>
@@ -26221,7 +26221,7 @@
         <v>1</v>
       </c>
       <c r="S362" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T362" s="14">
         <v>1</v>
@@ -26287,7 +26287,7 @@
         <v>1</v>
       </c>
       <c r="S363" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T363" s="14">
         <v>1</v>
@@ -26353,7 +26353,7 @@
         <v>1</v>
       </c>
       <c r="S364" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T364" s="14">
         <v>1</v>
@@ -26419,7 +26419,7 @@
         <v>1</v>
       </c>
       <c r="S365" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T365" s="14">
         <v>1</v>
@@ -26485,7 +26485,7 @@
         <v>1</v>
       </c>
       <c r="S366" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T366" s="14">
         <v>1</v>
@@ -26551,7 +26551,7 @@
         <v>1</v>
       </c>
       <c r="S367" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T367" s="14">
         <v>1</v>
@@ -26617,7 +26617,7 @@
         <v>1</v>
       </c>
       <c r="S368" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T368" s="14">
         <v>1</v>
@@ -26683,7 +26683,7 @@
         <v>1</v>
       </c>
       <c r="S369" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T369" s="14">
         <v>1</v>
@@ -26749,7 +26749,7 @@
         <v>1</v>
       </c>
       <c r="S370" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T370" s="14">
         <v>1</v>
@@ -26815,7 +26815,7 @@
         <v>1</v>
       </c>
       <c r="S371" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T371" s="14">
         <v>1</v>
@@ -26881,7 +26881,7 @@
         <v>1</v>
       </c>
       <c r="S372" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T372" s="14">
         <v>1</v>
@@ -26947,7 +26947,7 @@
         <v>1</v>
       </c>
       <c r="S373" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T373" s="14">
         <v>1</v>
@@ -27013,7 +27013,7 @@
         <v>1</v>
       </c>
       <c r="S374" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T374" s="14">
         <v>1</v>
@@ -27079,7 +27079,7 @@
         <v>1</v>
       </c>
       <c r="S375" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T375" s="14">
         <v>1</v>
@@ -27145,7 +27145,7 @@
         <v>1</v>
       </c>
       <c r="S376" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T376" s="14">
         <v>1</v>
@@ -27211,7 +27211,7 @@
         <v>1</v>
       </c>
       <c r="S377" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T377" s="14">
         <v>1</v>
@@ -27277,7 +27277,7 @@
         <v>1</v>
       </c>
       <c r="S378" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T378" s="14">
         <v>1</v>
@@ -27343,7 +27343,7 @@
         <v>1</v>
       </c>
       <c r="S379" s="23">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="T379" s="23">
         <v>1</v>
@@ -27409,7 +27409,7 @@
         <v>2</v>
       </c>
       <c r="S380" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T380" s="14">
         <v>1</v>
@@ -27475,7 +27475,7 @@
         <v>1</v>
       </c>
       <c r="S381" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T381" s="14">
         <v>1</v>
@@ -27541,7 +27541,7 @@
         <v>1</v>
       </c>
       <c r="S382" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T382" s="14">
         <v>1</v>
@@ -27607,7 +27607,7 @@
         <v>1</v>
       </c>
       <c r="S383" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T383" s="14">
         <v>1</v>
@@ -27673,7 +27673,7 @@
         <v>1</v>
       </c>
       <c r="S384" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T384" s="14">
         <v>1</v>
@@ -27739,7 +27739,7 @@
         <v>1</v>
       </c>
       <c r="S385" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T385" s="14">
         <v>1</v>
@@ -27805,7 +27805,7 @@
         <v>1</v>
       </c>
       <c r="S386" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T386" s="14">
         <v>1</v>
@@ -27871,7 +27871,7 @@
         <v>1</v>
       </c>
       <c r="S387" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T387" s="14">
         <v>1</v>
@@ -27937,7 +27937,7 @@
         <v>1</v>
       </c>
       <c r="S388" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T388" s="14">
         <v>1</v>
@@ -28003,7 +28003,7 @@
         <v>1</v>
       </c>
       <c r="S389" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T389" s="14">
         <v>1</v>
@@ -28069,7 +28069,7 @@
         <v>1</v>
       </c>
       <c r="S390" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T390" s="14">
         <v>1</v>
@@ -28135,7 +28135,7 @@
         <v>1</v>
       </c>
       <c r="S391" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T391" s="14">
         <v>1</v>
@@ -28201,7 +28201,7 @@
         <v>1</v>
       </c>
       <c r="S392" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T392" s="14">
         <v>1</v>
@@ -28267,7 +28267,7 @@
         <v>1</v>
       </c>
       <c r="S393" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T393" s="14">
         <v>1</v>
@@ -28333,7 +28333,7 @@
         <v>1</v>
       </c>
       <c r="S394" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T394" s="14">
         <v>1</v>
@@ -28399,7 +28399,7 @@
         <v>1</v>
       </c>
       <c r="S395" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T395" s="14">
         <v>1</v>
@@ -28465,7 +28465,7 @@
         <v>1</v>
       </c>
       <c r="S396" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T396" s="14">
         <v>1</v>
@@ -28531,7 +28531,7 @@
         <v>1</v>
       </c>
       <c r="S397" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T397" s="14">
         <v>1</v>
@@ -28597,7 +28597,7 @@
         <v>1</v>
       </c>
       <c r="S398" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T398" s="14">
         <v>1</v>
@@ -28663,7 +28663,7 @@
         <v>1</v>
       </c>
       <c r="S399" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T399" s="14">
         <v>1</v>
@@ -28729,7 +28729,7 @@
         <v>1</v>
       </c>
       <c r="S400" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T400" s="14">
         <v>1</v>
@@ -28795,7 +28795,7 @@
         <v>1</v>
       </c>
       <c r="S401" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T401" s="14">
         <v>1</v>
@@ -28861,7 +28861,7 @@
         <v>1</v>
       </c>
       <c r="S402" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T402" s="14">
         <v>1</v>
@@ -28927,7 +28927,7 @@
         <v>1</v>
       </c>
       <c r="S403" s="14">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T403" s="14">
         <v>1</v>
@@ -28993,7 +28993,7 @@
         <v>1</v>
       </c>
       <c r="S404" s="23">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="T404" s="23">
         <v>1</v>
